--- a/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D47E6F-17DC-463E-B2FE-D64AC6A3F27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538CE335-81FB-41D9-AD88-FC27C70DE708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="500" windowWidth="11460" windowHeight="9910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_交通費申請マッパー" sheetId="10" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="範囲１" localSheetId="4">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="195">
   <si>
     <t>システム名</t>
   </si>
@@ -1613,6 +1613,22 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検索条件ParamObj(検索条件)、From年、To年</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ネン</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -4628,7 +4644,7 @@
       <c r="AC30" s="78"/>
       <c r="AD30" s="79"/>
       <c r="AE30" s="77" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="AF30" s="78"/>
       <c r="AG30" s="78"/>

--- a/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538CE335-81FB-41D9-AD88-FC27C70DE708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF054A3-45ED-4076-AECF-2D57A9B5A887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="0" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_交通費申請マッパー" sheetId="10" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="範囲１" localSheetId="4">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="193">
   <si>
     <t>システム名</t>
   </si>
@@ -761,10 +761,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>AND</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>概要</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -1386,29 +1382,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>TETable.申請区分コード=引数.申請区分コード</t>
-    <rPh sb="8" eb="12">
-      <t>シンセイクブン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>シンセイクブン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TETable.支給日 &gt;= 引数.検索範囲開始日 </t>
-    <rPh sb="8" eb="11">
-      <t>シキュウビ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>AND TETable.支給日 &lt;= 引数.検索範囲終了日</t>
     <rPh sb="12" eb="15">
       <t>シキュウビ</t>
@@ -1419,16 +1392,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>TETable.申請日 &gt;= 引数.検索範囲開始日</t>
-    <rPh sb="8" eb="11">
-      <t>シンセイビ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>引数.検索指定日参照値がTETable.申請日の値であった場合</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
@@ -1487,16 +1450,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t xml:space="preserve">TETable.利用日 &gt;= 引数.検索範囲開始日 </t>
-    <rPh sb="8" eb="11">
-      <t>リヨウビ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>AND TETable.利用日 &lt;= 引数.検索範囲終了日</t>
     <rPh sb="12" eb="15">
       <t>リヨウビ</t>
@@ -1517,16 +1470,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t xml:space="preserve">TETable.承認日 &gt;= 引数.検索範囲開始日 </t>
-    <rPh sb="8" eb="11">
-      <t>ショウニンビ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>AND TETable.承認日 &lt;= 引数.検索範囲終了日</t>
     <rPh sb="12" eb="15">
       <t>ショウニンビ</t>
@@ -1537,26 +1480,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>TETable.承認ステータスコード=引数.承認ステータスコード</t>
-    <rPh sb="8" eb="10">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ショウニン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>TETable.削除フラグ = "0"</t>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>引数.検索指定日参照値の値を参照し、</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
@@ -1629,6 +1552,72 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>AND TETable.申請区分コード=引数.申請区分コード</t>
+    <rPh sb="12" eb="16">
+      <t>シンセイクブン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>シンセイクブン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AND TETable.支給日 &gt;= 引数.検索範囲開始日 </t>
+    <rPh sb="12" eb="15">
+      <t>シキュウビ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>AND TETable.申請日 &gt;= 引数.検索範囲開始日</t>
+    <rPh sb="12" eb="15">
+      <t>シンセイビ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AND TETable.利用日 &gt;= 引数.検索範囲開始日 </t>
+    <rPh sb="12" eb="15">
+      <t>リヨウビ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AND TETable.承認日 &gt;= 引数.検索範囲開始日 </t>
+    <rPh sb="12" eb="15">
+      <t>ショウニンビ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>AND TETable.承認ステータスコード=引数.承認ステータスコード</t>
+    <rPh sb="12" eb="14">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウニン</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -2295,86 +2284,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2412,53 +2350,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2478,30 +2386,86 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2510,6 +2474,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2523,6 +2490,28 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2755,249 +2744,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="109"/>
-      <c r="AJ1" s="109"/>
-      <c r="AK1" s="109" t="s">
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="98"/>
+      <c r="AG1" s="98"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="109"/>
-      <c r="AM1" s="109"/>
-      <c r="AN1" s="109"/>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
-      <c r="AQ1" s="109"/>
-      <c r="AR1" s="109"/>
-      <c r="AS1" s="109"/>
-      <c r="AT1" s="110" t="s">
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="98"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="110"/>
-      <c r="AV1" s="110"/>
-      <c r="AW1" s="110"/>
-      <c r="AX1" s="110"/>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="110"/>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="110"/>
-      <c r="BE1" s="110"/>
-      <c r="BF1" s="110"/>
-      <c r="BG1" s="110"/>
-      <c r="BH1" s="110"/>
-      <c r="BI1" s="110"/>
-      <c r="BJ1" s="110"/>
-      <c r="BK1" s="110"/>
-      <c r="BL1" s="110"/>
-      <c r="BM1" s="110"/>
-      <c r="BN1" s="110"/>
-      <c r="BO1" s="110"/>
-      <c r="BP1" s="110"/>
-      <c r="BQ1" s="110"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="99"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="99"/>
+      <c r="AY1" s="99"/>
+      <c r="AZ1" s="99"/>
+      <c r="BA1" s="99"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="99"/>
+      <c r="BD1" s="99"/>
+      <c r="BE1" s="99"/>
+      <c r="BF1" s="99"/>
+      <c r="BG1" s="99"/>
+      <c r="BH1" s="99"/>
+      <c r="BI1" s="99"/>
+      <c r="BJ1" s="99"/>
+      <c r="BK1" s="99"/>
+      <c r="BL1" s="99"/>
+      <c r="BM1" s="99"/>
+      <c r="BN1" s="99"/>
+      <c r="BO1" s="99"/>
+      <c r="BP1" s="99"/>
+      <c r="BQ1" s="99"/>
       <c r="BR1" s="4"/>
     </row>
     <row r="2" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="65" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65" t="s">
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65" t="s">
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102"/>
+      <c r="AY2" s="102"/>
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="102"/>
+      <c r="BB2" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="65"/>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="65"/>
-      <c r="BG2" s="65"/>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="65"/>
-      <c r="BJ2" s="113" t="s">
+      <c r="BC2" s="102"/>
+      <c r="BD2" s="102"/>
+      <c r="BE2" s="102"/>
+      <c r="BF2" s="102"/>
+      <c r="BG2" s="102"/>
+      <c r="BH2" s="102"/>
+      <c r="BI2" s="102"/>
+      <c r="BJ2" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="113"/>
-      <c r="BL2" s="113"/>
-      <c r="BM2" s="113"/>
-      <c r="BN2" s="113"/>
-      <c r="BO2" s="113"/>
-      <c r="BP2" s="113"/>
-      <c r="BQ2" s="113"/>
+      <c r="BK2" s="103"/>
+      <c r="BL2" s="103"/>
+      <c r="BM2" s="103"/>
+      <c r="BN2" s="103"/>
+      <c r="BO2" s="103"/>
+      <c r="BP2" s="103"/>
+      <c r="BQ2" s="103"/>
       <c r="BR2" s="4"/>
     </row>
     <row r="3" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="112"/>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="112"/>
-      <c r="AJ3" s="112"/>
-      <c r="AK3" s="104" t="s">
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="104"/>
-      <c r="AM3" s="104"/>
-      <c r="AN3" s="104"/>
-      <c r="AO3" s="104"/>
-      <c r="AP3" s="104"/>
-      <c r="AQ3" s="104"/>
-      <c r="AR3" s="104"/>
-      <c r="AS3" s="104"/>
-      <c r="AT3" s="105">
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="109">
         <v>45503</v>
       </c>
-      <c r="AU3" s="105"/>
-      <c r="AV3" s="105"/>
-      <c r="AW3" s="105"/>
-      <c r="AX3" s="105"/>
-      <c r="AY3" s="105"/>
-      <c r="AZ3" s="105"/>
-      <c r="BA3" s="105"/>
-      <c r="BB3" s="104" t="s">
+      <c r="AU3" s="109"/>
+      <c r="AV3" s="109"/>
+      <c r="AW3" s="109"/>
+      <c r="AX3" s="109"/>
+      <c r="AY3" s="109"/>
+      <c r="AZ3" s="109"/>
+      <c r="BA3" s="109"/>
+      <c r="BB3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="104"/>
-      <c r="BD3" s="104"/>
-      <c r="BE3" s="104"/>
-      <c r="BF3" s="104"/>
-      <c r="BG3" s="104"/>
-      <c r="BH3" s="104"/>
-      <c r="BI3" s="104"/>
-      <c r="BJ3" s="106">
+      <c r="BC3" s="108"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="108"/>
+      <c r="BF3" s="108"/>
+      <c r="BG3" s="108"/>
+      <c r="BH3" s="108"/>
+      <c r="BI3" s="108"/>
+      <c r="BJ3" s="110">
         <v>45548</v>
       </c>
-      <c r="BK3" s="106"/>
-      <c r="BL3" s="106"/>
-      <c r="BM3" s="106"/>
-      <c r="BN3" s="106"/>
-      <c r="BO3" s="106"/>
-      <c r="BP3" s="106"/>
-      <c r="BQ3" s="106"/>
+      <c r="BK3" s="110"/>
+      <c r="BL3" s="110"/>
+      <c r="BM3" s="110"/>
+      <c r="BN3" s="110"/>
+      <c r="BO3" s="110"/>
+      <c r="BP3" s="110"/>
+      <c r="BQ3" s="110"/>
       <c r="BR3" s="4"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
@@ -3065,215 +3054,215 @@
     </row>
     <row r="6" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="107"/>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="107"/>
-      <c r="AF6" s="107"/>
-      <c r="AG6" s="107"/>
-      <c r="AH6" s="107"/>
-      <c r="AI6" s="107"/>
-      <c r="AJ6" s="107"/>
-      <c r="AK6" s="107"/>
-      <c r="AL6" s="107"/>
-      <c r="AM6" s="107"/>
-      <c r="AN6" s="107"/>
-      <c r="AO6" s="107"/>
-      <c r="AP6" s="107"/>
-      <c r="AQ6" s="107"/>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="107"/>
-      <c r="AT6" s="107"/>
-      <c r="AU6" s="107"/>
-      <c r="AV6" s="107"/>
-      <c r="AW6" s="107"/>
-      <c r="AX6" s="107"/>
-      <c r="AY6" s="107"/>
-      <c r="AZ6" s="107"/>
-      <c r="BA6" s="107"/>
-      <c r="BB6" s="107"/>
-      <c r="BC6" s="107"/>
-      <c r="BD6" s="107"/>
-      <c r="BE6" s="107"/>
-      <c r="BF6" s="107"/>
-      <c r="BG6" s="107"/>
-      <c r="BH6" s="107"/>
-      <c r="BI6" s="107"/>
-      <c r="BJ6" s="107"/>
-      <c r="BK6" s="107"/>
-      <c r="BL6" s="107"/>
-      <c r="BM6" s="107"/>
-      <c r="BN6" s="107"/>
-      <c r="BO6" s="107"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111"/>
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111"/>
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="111"/>
+      <c r="AM6" s="111"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111"/>
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111"/>
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111"/>
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="111"/>
+      <c r="BC6" s="111"/>
+      <c r="BD6" s="111"/>
+      <c r="BE6" s="111"/>
+      <c r="BF6" s="111"/>
+      <c r="BG6" s="111"/>
+      <c r="BH6" s="111"/>
+      <c r="BI6" s="111"/>
+      <c r="BJ6" s="111"/>
+      <c r="BK6" s="111"/>
+      <c r="BL6" s="111"/>
+      <c r="BM6" s="111"/>
+      <c r="BN6" s="111"/>
+      <c r="BO6" s="111"/>
       <c r="BP6"/>
       <c r="BR6" s="4"/>
     </row>
     <row r="7" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="107"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="107"/>
-      <c r="AO7" s="107"/>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="107"/>
-      <c r="AY7" s="107"/>
-      <c r="AZ7" s="107"/>
-      <c r="BA7" s="107"/>
-      <c r="BB7" s="107"/>
-      <c r="BC7" s="107"/>
-      <c r="BD7" s="107"/>
-      <c r="BE7" s="107"/>
-      <c r="BF7" s="107"/>
-      <c r="BG7" s="107"/>
-      <c r="BH7" s="107"/>
-      <c r="BI7" s="107"/>
-      <c r="BJ7" s="107"/>
-      <c r="BK7" s="107"/>
-      <c r="BL7" s="107"/>
-      <c r="BM7" s="107"/>
-      <c r="BN7" s="107"/>
-      <c r="BO7" s="107"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="111"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="111"/>
+      <c r="AM7" s="111"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="111"/>
+      <c r="AX7" s="111"/>
+      <c r="AY7" s="111"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="111"/>
+      <c r="BB7" s="111"/>
+      <c r="BC7" s="111"/>
+      <c r="BD7" s="111"/>
+      <c r="BE7" s="111"/>
+      <c r="BF7" s="111"/>
+      <c r="BG7" s="111"/>
+      <c r="BH7" s="111"/>
+      <c r="BI7" s="111"/>
+      <c r="BJ7" s="111"/>
+      <c r="BK7" s="111"/>
+      <c r="BL7" s="111"/>
+      <c r="BM7" s="111"/>
+      <c r="BN7" s="111"/>
+      <c r="BO7" s="111"/>
       <c r="BP7"/>
       <c r="BR7" s="4"/>
     </row>
     <row r="8" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
-      <c r="Y8" s="102"/>
-      <c r="Z8" s="102"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="102"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="102"/>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="102"/>
-      <c r="AI8" s="102"/>
-      <c r="AJ8" s="102"/>
-      <c r="AK8" s="102"/>
-      <c r="AL8" s="102"/>
-      <c r="AM8" s="102"/>
-      <c r="AN8" s="102"/>
-      <c r="AO8" s="102"/>
-      <c r="AP8" s="102"/>
-      <c r="AQ8" s="102"/>
-      <c r="AR8" s="102"/>
-      <c r="AS8" s="102"/>
-      <c r="AT8" s="102"/>
-      <c r="AU8" s="102"/>
-      <c r="AV8" s="102"/>
-      <c r="AW8" s="102"/>
-      <c r="AX8" s="102"/>
-      <c r="AY8" s="102"/>
-      <c r="AZ8" s="102"/>
-      <c r="BA8" s="102"/>
-      <c r="BB8" s="102"/>
-      <c r="BC8" s="102"/>
-      <c r="BD8" s="102"/>
-      <c r="BE8" s="102"/>
-      <c r="BF8" s="102"/>
-      <c r="BG8" s="102"/>
-      <c r="BH8" s="102"/>
-      <c r="BI8" s="102"/>
-      <c r="BJ8" s="102"/>
-      <c r="BK8" s="102"/>
-      <c r="BL8" s="102"/>
-      <c r="BM8" s="102"/>
-      <c r="BN8" s="102"/>
-      <c r="BO8" s="102"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" s="104"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="104"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="104"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="104"/>
+      <c r="AZ8" s="104"/>
+      <c r="BA8" s="104"/>
+      <c r="BB8" s="104"/>
+      <c r="BC8" s="104"/>
+      <c r="BD8" s="104"/>
+      <c r="BE8" s="104"/>
+      <c r="BF8" s="104"/>
+      <c r="BG8" s="104"/>
+      <c r="BH8" s="104"/>
+      <c r="BI8" s="104"/>
+      <c r="BJ8" s="104"/>
+      <c r="BK8" s="104"/>
+      <c r="BL8" s="104"/>
+      <c r="BM8" s="104"/>
+      <c r="BN8" s="104"/>
+      <c r="BO8" s="104"/>
       <c r="BP8"/>
       <c r="BR8" s="4"/>
     </row>
@@ -3326,787 +3315,787 @@
     </row>
     <row r="11" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="65" t="s">
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="66" t="s">
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="103" t="s">
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="AJ11" s="103"/>
-      <c r="AK11" s="103"/>
-      <c r="AL11" s="103"/>
-      <c r="AM11" s="103"/>
-      <c r="AN11" s="103"/>
-      <c r="AO11" s="103"/>
-      <c r="AP11" s="103"/>
-      <c r="AQ11" s="103"/>
-      <c r="AR11" s="103"/>
-      <c r="AS11" s="103"/>
-      <c r="AT11" s="103"/>
-      <c r="AU11" s="103"/>
-      <c r="AV11" s="103"/>
-      <c r="AW11" s="103"/>
-      <c r="AX11" s="103"/>
-      <c r="AY11" s="103"/>
-      <c r="AZ11" s="103"/>
-      <c r="BA11" s="103"/>
-      <c r="BB11" s="103"/>
-      <c r="BC11" s="103"/>
-      <c r="BD11" s="103"/>
-      <c r="BE11" s="103"/>
-      <c r="BF11" s="103"/>
-      <c r="BG11" s="103"/>
-      <c r="BH11" s="103"/>
-      <c r="BI11" s="103"/>
-      <c r="BJ11" s="103"/>
-      <c r="BK11" s="103"/>
-      <c r="BL11" s="103"/>
-      <c r="BM11" s="103"/>
-      <c r="BN11" s="103"/>
-      <c r="BO11" s="103"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="106"/>
+      <c r="AM11" s="106"/>
+      <c r="AN11" s="106"/>
+      <c r="AO11" s="106"/>
+      <c r="AP11" s="106"/>
+      <c r="AQ11" s="106"/>
+      <c r="AR11" s="106"/>
+      <c r="AS11" s="106"/>
+      <c r="AT11" s="106"/>
+      <c r="AU11" s="106"/>
+      <c r="AV11" s="106"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="106"/>
+      <c r="AY11" s="106"/>
+      <c r="AZ11" s="106"/>
+      <c r="BA11" s="106"/>
+      <c r="BB11" s="106"/>
+      <c r="BC11" s="106"/>
+      <c r="BD11" s="106"/>
+      <c r="BE11" s="106"/>
+      <c r="BF11" s="106"/>
+      <c r="BG11" s="106"/>
+      <c r="BH11" s="106"/>
+      <c r="BI11" s="106"/>
+      <c r="BJ11" s="106"/>
+      <c r="BK11" s="106"/>
+      <c r="BL11" s="106"/>
+      <c r="BM11" s="106"/>
+      <c r="BN11" s="106"/>
+      <c r="BO11" s="106"/>
       <c r="BP11"/>
       <c r="BR11" s="4"/>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="67"/>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="67"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="67"/>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="67"/>
-      <c r="AR12" s="67"/>
-      <c r="AS12" s="67"/>
-      <c r="AT12" s="67"/>
-      <c r="AU12" s="67"/>
-      <c r="AV12" s="67"/>
-      <c r="AW12" s="67"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="67"/>
-      <c r="BA12" s="67"/>
-      <c r="BB12" s="67"/>
-      <c r="BC12" s="67"/>
-      <c r="BD12" s="67"/>
-      <c r="BE12" s="67"/>
-      <c r="BF12" s="67"/>
-      <c r="BG12" s="67"/>
-      <c r="BH12" s="67"/>
-      <c r="BI12" s="67"/>
-      <c r="BJ12" s="67"/>
-      <c r="BK12" s="67"/>
-      <c r="BL12" s="67"/>
-      <c r="BM12" s="67"/>
-      <c r="BN12" s="67"/>
-      <c r="BO12" s="67"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="107"/>
+      <c r="AG12" s="107"/>
+      <c r="AH12" s="107"/>
+      <c r="AI12" s="107"/>
+      <c r="AJ12" s="107"/>
+      <c r="AK12" s="107"/>
+      <c r="AL12" s="107"/>
+      <c r="AM12" s="107"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="107"/>
+      <c r="AP12" s="107"/>
+      <c r="AQ12" s="107"/>
+      <c r="AR12" s="107"/>
+      <c r="AS12" s="107"/>
+      <c r="AT12" s="107"/>
+      <c r="AU12" s="107"/>
+      <c r="AV12" s="107"/>
+      <c r="AW12" s="107"/>
+      <c r="AX12" s="107"/>
+      <c r="AY12" s="107"/>
+      <c r="AZ12" s="107"/>
+      <c r="BA12" s="107"/>
+      <c r="BB12" s="107"/>
+      <c r="BC12" s="107"/>
+      <c r="BD12" s="107"/>
+      <c r="BE12" s="107"/>
+      <c r="BF12" s="107"/>
+      <c r="BG12" s="107"/>
+      <c r="BH12" s="107"/>
+      <c r="BI12" s="107"/>
+      <c r="BJ12" s="107"/>
+      <c r="BK12" s="107"/>
+      <c r="BL12" s="107"/>
+      <c r="BM12" s="107"/>
+      <c r="BN12" s="107"/>
+      <c r="BO12" s="107"/>
       <c r="BP12"/>
       <c r="BR12" s="4"/>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="67"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="67"/>
-      <c r="AQ13" s="67"/>
-      <c r="AR13" s="67"/>
-      <c r="AS13" s="67"/>
-      <c r="AT13" s="67"/>
-      <c r="AU13" s="67"/>
-      <c r="AV13" s="67"/>
-      <c r="AW13" s="67"/>
-      <c r="AX13" s="67"/>
-      <c r="AY13" s="67"/>
-      <c r="AZ13" s="67"/>
-      <c r="BA13" s="67"/>
-      <c r="BB13" s="67"/>
-      <c r="BC13" s="67"/>
-      <c r="BD13" s="67"/>
-      <c r="BE13" s="67"/>
-      <c r="BF13" s="67"/>
-      <c r="BG13" s="67"/>
-      <c r="BH13" s="67"/>
-      <c r="BI13" s="67"/>
-      <c r="BJ13" s="67"/>
-      <c r="BK13" s="67"/>
-      <c r="BL13" s="67"/>
-      <c r="BM13" s="67"/>
-      <c r="BN13" s="67"/>
-      <c r="BO13" s="67"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="107"/>
+      <c r="AI13" s="107"/>
+      <c r="AJ13" s="107"/>
+      <c r="AK13" s="107"/>
+      <c r="AL13" s="107"/>
+      <c r="AM13" s="107"/>
+      <c r="AN13" s="107"/>
+      <c r="AO13" s="107"/>
+      <c r="AP13" s="107"/>
+      <c r="AQ13" s="107"/>
+      <c r="AR13" s="107"/>
+      <c r="AS13" s="107"/>
+      <c r="AT13" s="107"/>
+      <c r="AU13" s="107"/>
+      <c r="AV13" s="107"/>
+      <c r="AW13" s="107"/>
+      <c r="AX13" s="107"/>
+      <c r="AY13" s="107"/>
+      <c r="AZ13" s="107"/>
+      <c r="BA13" s="107"/>
+      <c r="BB13" s="107"/>
+      <c r="BC13" s="107"/>
+      <c r="BD13" s="107"/>
+      <c r="BE13" s="107"/>
+      <c r="BF13" s="107"/>
+      <c r="BG13" s="107"/>
+      <c r="BH13" s="107"/>
+      <c r="BI13" s="107"/>
+      <c r="BJ13" s="107"/>
+      <c r="BK13" s="107"/>
+      <c r="BL13" s="107"/>
+      <c r="BM13" s="107"/>
+      <c r="BN13" s="107"/>
+      <c r="BO13" s="107"/>
       <c r="BP13"/>
       <c r="BR13" s="4"/>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="86" t="s">
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="86"/>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="86"/>
-      <c r="AX14" s="86"/>
-      <c r="AY14" s="86"/>
-      <c r="AZ14" s="86"/>
-      <c r="BA14" s="86"/>
-      <c r="BB14" s="86"/>
-      <c r="BC14" s="86"/>
-      <c r="BD14" s="86"/>
-      <c r="BE14" s="86"/>
-      <c r="BF14" s="86"/>
-      <c r="BG14" s="86"/>
-      <c r="BH14" s="86"/>
-      <c r="BI14" s="86"/>
-      <c r="BJ14" s="86"/>
-      <c r="BK14" s="86"/>
-      <c r="BL14" s="86"/>
-      <c r="BM14" s="86"/>
-      <c r="BN14" s="86"/>
-      <c r="BO14" s="86"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="116"/>
+      <c r="AJ14" s="116"/>
+      <c r="AK14" s="116"/>
+      <c r="AL14" s="116"/>
+      <c r="AM14" s="116"/>
+      <c r="AN14" s="116"/>
+      <c r="AO14" s="116"/>
+      <c r="AP14" s="116"/>
+      <c r="AQ14" s="116"/>
+      <c r="AR14" s="116"/>
+      <c r="AS14" s="116"/>
+      <c r="AT14" s="116"/>
+      <c r="AU14" s="116"/>
+      <c r="AV14" s="116"/>
+      <c r="AW14" s="116"/>
+      <c r="AX14" s="116"/>
+      <c r="AY14" s="116"/>
+      <c r="AZ14" s="116"/>
+      <c r="BA14" s="116"/>
+      <c r="BB14" s="116"/>
+      <c r="BC14" s="116"/>
+      <c r="BD14" s="116"/>
+      <c r="BE14" s="116"/>
+      <c r="BF14" s="116"/>
+      <c r="BG14" s="116"/>
+      <c r="BH14" s="116"/>
+      <c r="BI14" s="116"/>
+      <c r="BJ14" s="116"/>
+      <c r="BK14" s="116"/>
+      <c r="BL14" s="116"/>
+      <c r="BM14" s="116"/>
+      <c r="BN14" s="116"/>
+      <c r="BO14" s="116"/>
       <c r="BP14"/>
       <c r="BR14" s="4"/>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="87"/>
-      <c r="AL15" s="87"/>
-      <c r="AM15" s="87"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="87"/>
-      <c r="AS15" s="87"/>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="87"/>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="87"/>
-      <c r="AX15" s="87"/>
-      <c r="AY15" s="87"/>
-      <c r="AZ15" s="87"/>
-      <c r="BA15" s="87"/>
-      <c r="BB15" s="87"/>
-      <c r="BC15" s="87"/>
-      <c r="BD15" s="87"/>
-      <c r="BE15" s="87"/>
-      <c r="BF15" s="87"/>
-      <c r="BG15" s="87"/>
-      <c r="BH15" s="87"/>
-      <c r="BI15" s="87"/>
-      <c r="BJ15" s="87"/>
-      <c r="BK15" s="87"/>
-      <c r="BL15" s="87"/>
-      <c r="BM15" s="87"/>
-      <c r="BN15" s="87"/>
-      <c r="BO15" s="87"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="117"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="117"/>
+      <c r="AA15" s="117"/>
+      <c r="AB15" s="117"/>
+      <c r="AC15" s="117"/>
+      <c r="AD15" s="117"/>
+      <c r="AE15" s="117"/>
+      <c r="AF15" s="117"/>
+      <c r="AG15" s="117"/>
+      <c r="AH15" s="117"/>
+      <c r="AI15" s="117"/>
+      <c r="AJ15" s="117"/>
+      <c r="AK15" s="117"/>
+      <c r="AL15" s="117"/>
+      <c r="AM15" s="117"/>
+      <c r="AN15" s="117"/>
+      <c r="AO15" s="117"/>
+      <c r="AP15" s="117"/>
+      <c r="AQ15" s="117"/>
+      <c r="AR15" s="117"/>
+      <c r="AS15" s="117"/>
+      <c r="AT15" s="117"/>
+      <c r="AU15" s="117"/>
+      <c r="AV15" s="117"/>
+      <c r="AW15" s="117"/>
+      <c r="AX15" s="117"/>
+      <c r="AY15" s="117"/>
+      <c r="AZ15" s="117"/>
+      <c r="BA15" s="117"/>
+      <c r="BB15" s="117"/>
+      <c r="BC15" s="117"/>
+      <c r="BD15" s="117"/>
+      <c r="BE15" s="117"/>
+      <c r="BF15" s="117"/>
+      <c r="BG15" s="117"/>
+      <c r="BH15" s="117"/>
+      <c r="BI15" s="117"/>
+      <c r="BJ15" s="117"/>
+      <c r="BK15" s="117"/>
+      <c r="BL15" s="117"/>
+      <c r="BM15" s="117"/>
+      <c r="BN15" s="117"/>
+      <c r="BO15" s="117"/>
       <c r="BP15"/>
       <c r="BR15" s="4"/>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="87"/>
-      <c r="AL16" s="87"/>
-      <c r="AM16" s="87"/>
-      <c r="AN16" s="87"/>
-      <c r="AO16" s="87"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87"/>
-      <c r="AR16" s="87"/>
-      <c r="AS16" s="87"/>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="87"/>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="87"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="87"/>
-      <c r="AZ16" s="87"/>
-      <c r="BA16" s="87"/>
-      <c r="BB16" s="87"/>
-      <c r="BC16" s="87"/>
-      <c r="BD16" s="87"/>
-      <c r="BE16" s="87"/>
-      <c r="BF16" s="87"/>
-      <c r="BG16" s="87"/>
-      <c r="BH16" s="87"/>
-      <c r="BI16" s="87"/>
-      <c r="BJ16" s="87"/>
-      <c r="BK16" s="87"/>
-      <c r="BL16" s="87"/>
-      <c r="BM16" s="87"/>
-      <c r="BN16" s="87"/>
-      <c r="BO16" s="87"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="117"/>
+      <c r="AB16" s="117"/>
+      <c r="AC16" s="117"/>
+      <c r="AD16" s="117"/>
+      <c r="AE16" s="117"/>
+      <c r="AF16" s="117"/>
+      <c r="AG16" s="117"/>
+      <c r="AH16" s="117"/>
+      <c r="AI16" s="117"/>
+      <c r="AJ16" s="117"/>
+      <c r="AK16" s="117"/>
+      <c r="AL16" s="117"/>
+      <c r="AM16" s="117"/>
+      <c r="AN16" s="117"/>
+      <c r="AO16" s="117"/>
+      <c r="AP16" s="117"/>
+      <c r="AQ16" s="117"/>
+      <c r="AR16" s="117"/>
+      <c r="AS16" s="117"/>
+      <c r="AT16" s="117"/>
+      <c r="AU16" s="117"/>
+      <c r="AV16" s="117"/>
+      <c r="AW16" s="117"/>
+      <c r="AX16" s="117"/>
+      <c r="AY16" s="117"/>
+      <c r="AZ16" s="117"/>
+      <c r="BA16" s="117"/>
+      <c r="BB16" s="117"/>
+      <c r="BC16" s="117"/>
+      <c r="BD16" s="117"/>
+      <c r="BE16" s="117"/>
+      <c r="BF16" s="117"/>
+      <c r="BG16" s="117"/>
+      <c r="BH16" s="117"/>
+      <c r="BI16" s="117"/>
+      <c r="BJ16" s="117"/>
+      <c r="BK16" s="117"/>
+      <c r="BL16" s="117"/>
+      <c r="BM16" s="117"/>
+      <c r="BN16" s="117"/>
+      <c r="BO16" s="117"/>
       <c r="BP16"/>
       <c r="BR16" s="4"/>
     </row>
     <row r="17" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="87"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="87"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="87"/>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="87"/>
-      <c r="AL17" s="87"/>
-      <c r="AM17" s="87"/>
-      <c r="AN17" s="87"/>
-      <c r="AO17" s="87"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="87"/>
-      <c r="AS17" s="87"/>
-      <c r="AT17" s="87"/>
-      <c r="AU17" s="87"/>
-      <c r="AV17" s="87"/>
-      <c r="AW17" s="87"/>
-      <c r="AX17" s="87"/>
-      <c r="AY17" s="87"/>
-      <c r="AZ17" s="87"/>
-      <c r="BA17" s="87"/>
-      <c r="BB17" s="87"/>
-      <c r="BC17" s="87"/>
-      <c r="BD17" s="87"/>
-      <c r="BE17" s="87"/>
-      <c r="BF17" s="87"/>
-      <c r="BG17" s="87"/>
-      <c r="BH17" s="87"/>
-      <c r="BI17" s="87"/>
-      <c r="BJ17" s="87"/>
-      <c r="BK17" s="87"/>
-      <c r="BL17" s="87"/>
-      <c r="BM17" s="87"/>
-      <c r="BN17" s="87"/>
-      <c r="BO17" s="87"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="117"/>
+      <c r="AC17" s="117"/>
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="117"/>
+      <c r="AG17" s="117"/>
+      <c r="AH17" s="117"/>
+      <c r="AI17" s="117"/>
+      <c r="AJ17" s="117"/>
+      <c r="AK17" s="117"/>
+      <c r="AL17" s="117"/>
+      <c r="AM17" s="117"/>
+      <c r="AN17" s="117"/>
+      <c r="AO17" s="117"/>
+      <c r="AP17" s="117"/>
+      <c r="AQ17" s="117"/>
+      <c r="AR17" s="117"/>
+      <c r="AS17" s="117"/>
+      <c r="AT17" s="117"/>
+      <c r="AU17" s="117"/>
+      <c r="AV17" s="117"/>
+      <c r="AW17" s="117"/>
+      <c r="AX17" s="117"/>
+      <c r="AY17" s="117"/>
+      <c r="AZ17" s="117"/>
+      <c r="BA17" s="117"/>
+      <c r="BB17" s="117"/>
+      <c r="BC17" s="117"/>
+      <c r="BD17" s="117"/>
+      <c r="BE17" s="117"/>
+      <c r="BF17" s="117"/>
+      <c r="BG17" s="117"/>
+      <c r="BH17" s="117"/>
+      <c r="BI17" s="117"/>
+      <c r="BJ17" s="117"/>
+      <c r="BK17" s="117"/>
+      <c r="BL17" s="117"/>
+      <c r="BM17" s="117"/>
+      <c r="BN17" s="117"/>
+      <c r="BO17" s="117"/>
       <c r="BP17"/>
       <c r="BR17" s="4"/>
     </row>
     <row r="18" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="87"/>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="87"/>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="87"/>
-      <c r="AL18" s="87"/>
-      <c r="AM18" s="87"/>
-      <c r="AN18" s="87"/>
-      <c r="AO18" s="87"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="87"/>
-      <c r="AR18" s="87"/>
-      <c r="AS18" s="87"/>
-      <c r="AT18" s="87"/>
-      <c r="AU18" s="87"/>
-      <c r="AV18" s="87"/>
-      <c r="AW18" s="87"/>
-      <c r="AX18" s="87"/>
-      <c r="AY18" s="87"/>
-      <c r="AZ18" s="87"/>
-      <c r="BA18" s="87"/>
-      <c r="BB18" s="87"/>
-      <c r="BC18" s="87"/>
-      <c r="BD18" s="87"/>
-      <c r="BE18" s="87"/>
-      <c r="BF18" s="87"/>
-      <c r="BG18" s="87"/>
-      <c r="BH18" s="87"/>
-      <c r="BI18" s="87"/>
-      <c r="BJ18" s="87"/>
-      <c r="BK18" s="87"/>
-      <c r="BL18" s="87"/>
-      <c r="BM18" s="87"/>
-      <c r="BN18" s="87"/>
-      <c r="BO18" s="87"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="117"/>
+      <c r="AC18" s="117"/>
+      <c r="AD18" s="117"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="117"/>
+      <c r="AG18" s="117"/>
+      <c r="AH18" s="117"/>
+      <c r="AI18" s="117"/>
+      <c r="AJ18" s="117"/>
+      <c r="AK18" s="117"/>
+      <c r="AL18" s="117"/>
+      <c r="AM18" s="117"/>
+      <c r="AN18" s="117"/>
+      <c r="AO18" s="117"/>
+      <c r="AP18" s="117"/>
+      <c r="AQ18" s="117"/>
+      <c r="AR18" s="117"/>
+      <c r="AS18" s="117"/>
+      <c r="AT18" s="117"/>
+      <c r="AU18" s="117"/>
+      <c r="AV18" s="117"/>
+      <c r="AW18" s="117"/>
+      <c r="AX18" s="117"/>
+      <c r="AY18" s="117"/>
+      <c r="AZ18" s="117"/>
+      <c r="BA18" s="117"/>
+      <c r="BB18" s="117"/>
+      <c r="BC18" s="117"/>
+      <c r="BD18" s="117"/>
+      <c r="BE18" s="117"/>
+      <c r="BF18" s="117"/>
+      <c r="BG18" s="117"/>
+      <c r="BH18" s="117"/>
+      <c r="BI18" s="117"/>
+      <c r="BJ18" s="117"/>
+      <c r="BK18" s="117"/>
+      <c r="BL18" s="117"/>
+      <c r="BM18" s="117"/>
+      <c r="BN18" s="117"/>
+      <c r="BO18" s="117"/>
       <c r="BP18"/>
       <c r="BR18" s="4"/>
     </row>
     <row r="19" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="87"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="87"/>
-      <c r="AL19" s="87"/>
-      <c r="AM19" s="87"/>
-      <c r="AN19" s="87"/>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="87"/>
-      <c r="AS19" s="87"/>
-      <c r="AT19" s="87"/>
-      <c r="AU19" s="87"/>
-      <c r="AV19" s="87"/>
-      <c r="AW19" s="87"/>
-      <c r="AX19" s="87"/>
-      <c r="AY19" s="87"/>
-      <c r="AZ19" s="87"/>
-      <c r="BA19" s="87"/>
-      <c r="BB19" s="87"/>
-      <c r="BC19" s="87"/>
-      <c r="BD19" s="87"/>
-      <c r="BE19" s="87"/>
-      <c r="BF19" s="87"/>
-      <c r="BG19" s="87"/>
-      <c r="BH19" s="87"/>
-      <c r="BI19" s="87"/>
-      <c r="BJ19" s="87"/>
-      <c r="BK19" s="87"/>
-      <c r="BL19" s="87"/>
-      <c r="BM19" s="87"/>
-      <c r="BN19" s="87"/>
-      <c r="BO19" s="87"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="117"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="117"/>
+      <c r="AK19" s="117"/>
+      <c r="AL19" s="117"/>
+      <c r="AM19" s="117"/>
+      <c r="AN19" s="117"/>
+      <c r="AO19" s="117"/>
+      <c r="AP19" s="117"/>
+      <c r="AQ19" s="117"/>
+      <c r="AR19" s="117"/>
+      <c r="AS19" s="117"/>
+      <c r="AT19" s="117"/>
+      <c r="AU19" s="117"/>
+      <c r="AV19" s="117"/>
+      <c r="AW19" s="117"/>
+      <c r="AX19" s="117"/>
+      <c r="AY19" s="117"/>
+      <c r="AZ19" s="117"/>
+      <c r="BA19" s="117"/>
+      <c r="BB19" s="117"/>
+      <c r="BC19" s="117"/>
+      <c r="BD19" s="117"/>
+      <c r="BE19" s="117"/>
+      <c r="BF19" s="117"/>
+      <c r="BG19" s="117"/>
+      <c r="BH19" s="117"/>
+      <c r="BI19" s="117"/>
+      <c r="BJ19" s="117"/>
+      <c r="BK19" s="117"/>
+      <c r="BL19" s="117"/>
+      <c r="BM19" s="117"/>
+      <c r="BN19" s="117"/>
+      <c r="BO19" s="117"/>
       <c r="BP19"/>
       <c r="BR19" s="4"/>
     </row>
     <row r="20" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="87"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="87"/>
-      <c r="AF20" s="87"/>
-      <c r="AG20" s="87"/>
-      <c r="AH20" s="87"/>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="87"/>
-      <c r="AL20" s="87"/>
-      <c r="AM20" s="87"/>
-      <c r="AN20" s="87"/>
-      <c r="AO20" s="87"/>
-      <c r="AP20" s="87"/>
-      <c r="AQ20" s="87"/>
-      <c r="AR20" s="87"/>
-      <c r="AS20" s="87"/>
-      <c r="AT20" s="87"/>
-      <c r="AU20" s="87"/>
-      <c r="AV20" s="87"/>
-      <c r="AW20" s="87"/>
-      <c r="AX20" s="87"/>
-      <c r="AY20" s="87"/>
-      <c r="AZ20" s="87"/>
-      <c r="BA20" s="87"/>
-      <c r="BB20" s="87"/>
-      <c r="BC20" s="87"/>
-      <c r="BD20" s="87"/>
-      <c r="BE20" s="87"/>
-      <c r="BF20" s="87"/>
-      <c r="BG20" s="87"/>
-      <c r="BH20" s="87"/>
-      <c r="BI20" s="87"/>
-      <c r="BJ20" s="87"/>
-      <c r="BK20" s="87"/>
-      <c r="BL20" s="87"/>
-      <c r="BM20" s="87"/>
-      <c r="BN20" s="87"/>
-      <c r="BO20" s="87"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="117"/>
+      <c r="AG20" s="117"/>
+      <c r="AH20" s="117"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="117"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="117"/>
+      <c r="AM20" s="117"/>
+      <c r="AN20" s="117"/>
+      <c r="AO20" s="117"/>
+      <c r="AP20" s="117"/>
+      <c r="AQ20" s="117"/>
+      <c r="AR20" s="117"/>
+      <c r="AS20" s="117"/>
+      <c r="AT20" s="117"/>
+      <c r="AU20" s="117"/>
+      <c r="AV20" s="117"/>
+      <c r="AW20" s="117"/>
+      <c r="AX20" s="117"/>
+      <c r="AY20" s="117"/>
+      <c r="AZ20" s="117"/>
+      <c r="BA20" s="117"/>
+      <c r="BB20" s="117"/>
+      <c r="BC20" s="117"/>
+      <c r="BD20" s="117"/>
+      <c r="BE20" s="117"/>
+      <c r="BF20" s="117"/>
+      <c r="BG20" s="117"/>
+      <c r="BH20" s="117"/>
+      <c r="BI20" s="117"/>
+      <c r="BJ20" s="117"/>
+      <c r="BK20" s="117"/>
+      <c r="BL20" s="117"/>
+      <c r="BM20" s="117"/>
+      <c r="BN20" s="117"/>
+      <c r="BO20" s="117"/>
       <c r="BP20"/>
       <c r="BR20" s="4"/>
     </row>
     <row r="21" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="85"/>
-      <c r="AF21" s="85"/>
-      <c r="AG21" s="85"/>
-      <c r="AH21" s="85"/>
-      <c r="AI21" s="85"/>
-      <c r="AJ21" s="85"/>
-      <c r="AK21" s="85"/>
-      <c r="AL21" s="85"/>
-      <c r="AM21" s="85"/>
-      <c r="AN21" s="85"/>
-      <c r="AO21" s="85"/>
-      <c r="AP21" s="85"/>
-      <c r="AQ21" s="85"/>
-      <c r="AR21" s="85"/>
-      <c r="AS21" s="85"/>
-      <c r="AT21" s="85"/>
-      <c r="AU21" s="85"/>
-      <c r="AV21" s="85"/>
-      <c r="AW21" s="85"/>
-      <c r="AX21" s="85"/>
-      <c r="AY21" s="85"/>
-      <c r="AZ21" s="85"/>
-      <c r="BA21" s="85"/>
-      <c r="BB21" s="85"/>
-      <c r="BC21" s="85"/>
-      <c r="BD21" s="85"/>
-      <c r="BE21" s="85"/>
-      <c r="BF21" s="85"/>
-      <c r="BG21" s="85"/>
-      <c r="BH21" s="85"/>
-      <c r="BI21" s="85"/>
-      <c r="BJ21" s="85"/>
-      <c r="BK21" s="85"/>
-      <c r="BL21" s="85"/>
-      <c r="BM21" s="85"/>
-      <c r="BN21" s="85"/>
-      <c r="BO21" s="85"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="114"/>
+      <c r="AA21" s="114"/>
+      <c r="AB21" s="114"/>
+      <c r="AC21" s="114"/>
+      <c r="AD21" s="114"/>
+      <c r="AE21" s="114"/>
+      <c r="AF21" s="114"/>
+      <c r="AG21" s="114"/>
+      <c r="AH21" s="114"/>
+      <c r="AI21" s="114"/>
+      <c r="AJ21" s="114"/>
+      <c r="AK21" s="114"/>
+      <c r="AL21" s="114"/>
+      <c r="AM21" s="114"/>
+      <c r="AN21" s="114"/>
+      <c r="AO21" s="114"/>
+      <c r="AP21" s="114"/>
+      <c r="AQ21" s="114"/>
+      <c r="AR21" s="114"/>
+      <c r="AS21" s="114"/>
+      <c r="AT21" s="114"/>
+      <c r="AU21" s="114"/>
+      <c r="AV21" s="114"/>
+      <c r="AW21" s="114"/>
+      <c r="AX21" s="114"/>
+      <c r="AY21" s="114"/>
+      <c r="AZ21" s="114"/>
+      <c r="BA21" s="114"/>
+      <c r="BB21" s="114"/>
+      <c r="BC21" s="114"/>
+      <c r="BD21" s="114"/>
+      <c r="BE21" s="114"/>
+      <c r="BF21" s="114"/>
+      <c r="BG21" s="114"/>
+      <c r="BH21" s="114"/>
+      <c r="BI21" s="114"/>
+      <c r="BJ21" s="114"/>
+      <c r="BK21" s="114"/>
+      <c r="BL21" s="114"/>
+      <c r="BM21" s="114"/>
+      <c r="BN21" s="114"/>
+      <c r="BO21" s="114"/>
       <c r="BP21"/>
       <c r="BR21" s="4"/>
     </row>
@@ -4136,88 +4125,88 @@
     </row>
     <row r="25" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65" t="s">
+      <c r="D25" s="102"/>
+      <c r="E25" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65" t="s">
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="67" t="s">
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="67"/>
-      <c r="AE25" s="66" t="s">
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="66"/>
-      <c r="AN25" s="66"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="66"/>
-      <c r="AR25" s="66"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="66"/>
-      <c r="AU25" s="66"/>
-      <c r="AV25" s="66"/>
-      <c r="AW25" s="66"/>
-      <c r="AX25" s="66"/>
-      <c r="AY25" s="66"/>
-      <c r="AZ25" s="66"/>
-      <c r="BA25" s="66"/>
-      <c r="BB25" s="66"/>
-      <c r="BC25" s="66"/>
-      <c r="BD25" s="66" t="s">
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="105"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="105"/>
+      <c r="AK25" s="105"/>
+      <c r="AL25" s="105"/>
+      <c r="AM25" s="105"/>
+      <c r="AN25" s="105"/>
+      <c r="AO25" s="105"/>
+      <c r="AP25" s="105"/>
+      <c r="AQ25" s="105"/>
+      <c r="AR25" s="105"/>
+      <c r="AS25" s="105"/>
+      <c r="AT25" s="105"/>
+      <c r="AU25" s="105"/>
+      <c r="AV25" s="105"/>
+      <c r="AW25" s="105"/>
+      <c r="AX25" s="105"/>
+      <c r="AY25" s="105"/>
+      <c r="AZ25" s="105"/>
+      <c r="BA25" s="105"/>
+      <c r="BB25" s="105"/>
+      <c r="BC25" s="105"/>
+      <c r="BD25" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="66"/>
-      <c r="BF25" s="66"/>
-      <c r="BG25" s="66"/>
-      <c r="BH25" s="66"/>
-      <c r="BI25" s="66"/>
-      <c r="BJ25" s="68"/>
-      <c r="BK25" s="88" t="s">
+      <c r="BE25" s="105"/>
+      <c r="BF25" s="105"/>
+      <c r="BG25" s="105"/>
+      <c r="BH25" s="105"/>
+      <c r="BI25" s="105"/>
+      <c r="BJ25" s="115"/>
+      <c r="BK25" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="89"/>
-      <c r="BM25" s="89"/>
-      <c r="BN25" s="89"/>
-      <c r="BO25" s="89"/>
-      <c r="BP25" s="89"/>
-      <c r="BQ25" s="89"/>
-      <c r="BR25" s="89"/>
+      <c r="BL25" s="119"/>
+      <c r="BM25" s="119"/>
+      <c r="BN25" s="119"/>
+      <c r="BO25" s="119"/>
+      <c r="BP25" s="119"/>
+      <c r="BQ25" s="119"/>
+      <c r="BR25" s="119"/>
       <c r="BS25" s="46"/>
       <c r="BT25" s="46"/>
       <c r="BU25" s="46"/>
@@ -4237,90 +4226,90 @@
     </row>
     <row r="26" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="73">
+      <c r="C26" s="63">
         <v>1</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="90" t="s">
+      <c r="D26" s="71"/>
+      <c r="E26" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="90" t="s">
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="91"/>
-      <c r="U26" s="91"/>
-      <c r="V26" s="91"/>
-      <c r="W26" s="91"/>
-      <c r="X26" s="91"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="91"/>
-      <c r="AB26" s="91"/>
-      <c r="AC26" s="91"/>
-      <c r="AD26" s="92"/>
-      <c r="AE26" s="77" t="s">
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="74"/>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="AF26" s="78"/>
-      <c r="AG26" s="78"/>
-      <c r="AH26" s="78"/>
-      <c r="AI26" s="78"/>
-      <c r="AJ26" s="78"/>
-      <c r="AK26" s="78"/>
-      <c r="AL26" s="78"/>
-      <c r="AM26" s="78"/>
-      <c r="AN26" s="78"/>
-      <c r="AO26" s="78"/>
-      <c r="AP26" s="78"/>
-      <c r="AQ26" s="78"/>
-      <c r="AR26" s="78"/>
-      <c r="AS26" s="78"/>
-      <c r="AT26" s="78"/>
-      <c r="AU26" s="78"/>
-      <c r="AV26" s="78"/>
-      <c r="AW26" s="78"/>
-      <c r="AX26" s="78"/>
-      <c r="AY26" s="78"/>
-      <c r="AZ26" s="78"/>
-      <c r="BA26" s="78"/>
-      <c r="BB26" s="78"/>
-      <c r="BC26" s="79"/>
-      <c r="BD26" s="73" t="s">
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="86"/>
+      <c r="AJ26" s="86"/>
+      <c r="AK26" s="86"/>
+      <c r="AL26" s="86"/>
+      <c r="AM26" s="86"/>
+      <c r="AN26" s="86"/>
+      <c r="AO26" s="86"/>
+      <c r="AP26" s="86"/>
+      <c r="AQ26" s="86"/>
+      <c r="AR26" s="86"/>
+      <c r="AS26" s="86"/>
+      <c r="AT26" s="86"/>
+      <c r="AU26" s="86"/>
+      <c r="AV26" s="86"/>
+      <c r="AW26" s="86"/>
+      <c r="AX26" s="86"/>
+      <c r="AY26" s="86"/>
+      <c r="AZ26" s="86"/>
+      <c r="BA26" s="86"/>
+      <c r="BB26" s="86"/>
+      <c r="BC26" s="87"/>
+      <c r="BD26" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="83"/>
-      <c r="BF26" s="83"/>
-      <c r="BG26" s="83"/>
-      <c r="BH26" s="83"/>
-      <c r="BI26" s="83"/>
-      <c r="BJ26" s="83"/>
-      <c r="BK26" s="114" t="s">
+      <c r="BE26" s="64"/>
+      <c r="BF26" s="64"/>
+      <c r="BG26" s="64"/>
+      <c r="BH26" s="64"/>
+      <c r="BI26" s="64"/>
+      <c r="BJ26" s="64"/>
+      <c r="BK26" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="BL26" s="115"/>
-      <c r="BM26" s="115"/>
-      <c r="BN26" s="115"/>
-      <c r="BO26" s="115"/>
-      <c r="BP26" s="115"/>
-      <c r="BQ26" s="115"/>
-      <c r="BR26" s="115"/>
-      <c r="BS26" s="115"/>
-      <c r="BT26" s="115"/>
-      <c r="BU26" s="115"/>
-      <c r="BV26" s="116"/>
+      <c r="BL26" s="68"/>
+      <c r="BM26" s="68"/>
+      <c r="BN26" s="68"/>
+      <c r="BO26" s="68"/>
+      <c r="BP26" s="68"/>
+      <c r="BQ26" s="68"/>
+      <c r="BR26" s="68"/>
+      <c r="BS26" s="68"/>
+      <c r="BT26" s="68"/>
+      <c r="BU26" s="68"/>
+      <c r="BV26" s="69"/>
       <c r="AML26" s="2"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -4336,78 +4325,78 @@
     </row>
     <row r="27" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="80"/>
-      <c r="AF27" s="81"/>
-      <c r="AG27" s="81"/>
-      <c r="AH27" s="81"/>
-      <c r="AI27" s="81"/>
-      <c r="AJ27" s="81"/>
-      <c r="AK27" s="81"/>
-      <c r="AL27" s="81"/>
-      <c r="AM27" s="81"/>
-      <c r="AN27" s="81"/>
-      <c r="AO27" s="81"/>
-      <c r="AP27" s="81"/>
-      <c r="AQ27" s="81"/>
-      <c r="AR27" s="81"/>
-      <c r="AS27" s="81"/>
-      <c r="AT27" s="81"/>
-      <c r="AU27" s="81"/>
-      <c r="AV27" s="81"/>
-      <c r="AW27" s="81"/>
-      <c r="AX27" s="81"/>
-      <c r="AY27" s="81"/>
-      <c r="AZ27" s="81"/>
-      <c r="BA27" s="81"/>
-      <c r="BB27" s="81"/>
-      <c r="BC27" s="82"/>
-      <c r="BD27" s="75"/>
-      <c r="BE27" s="84"/>
-      <c r="BF27" s="84"/>
-      <c r="BG27" s="84"/>
-      <c r="BH27" s="84"/>
-      <c r="BI27" s="84"/>
-      <c r="BJ27" s="84"/>
-      <c r="BK27" s="117"/>
-      <c r="BL27" s="115"/>
-      <c r="BM27" s="115"/>
-      <c r="BN27" s="115"/>
-      <c r="BO27" s="115"/>
-      <c r="BP27" s="115"/>
-      <c r="BQ27" s="115"/>
-      <c r="BR27" s="115"/>
-      <c r="BS27" s="115"/>
-      <c r="BT27" s="115"/>
-      <c r="BU27" s="115"/>
-      <c r="BV27" s="116"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="88"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="89"/>
+      <c r="AI27" s="89"/>
+      <c r="AJ27" s="89"/>
+      <c r="AK27" s="89"/>
+      <c r="AL27" s="89"/>
+      <c r="AM27" s="89"/>
+      <c r="AN27" s="89"/>
+      <c r="AO27" s="89"/>
+      <c r="AP27" s="89"/>
+      <c r="AQ27" s="89"/>
+      <c r="AR27" s="89"/>
+      <c r="AS27" s="89"/>
+      <c r="AT27" s="89"/>
+      <c r="AU27" s="89"/>
+      <c r="AV27" s="89"/>
+      <c r="AW27" s="89"/>
+      <c r="AX27" s="89"/>
+      <c r="AY27" s="89"/>
+      <c r="AZ27" s="89"/>
+      <c r="BA27" s="89"/>
+      <c r="BB27" s="89"/>
+      <c r="BC27" s="90"/>
+      <c r="BD27" s="65"/>
+      <c r="BE27" s="66"/>
+      <c r="BF27" s="66"/>
+      <c r="BG27" s="66"/>
+      <c r="BH27" s="66"/>
+      <c r="BI27" s="66"/>
+      <c r="BJ27" s="66"/>
+      <c r="BK27" s="70"/>
+      <c r="BL27" s="68"/>
+      <c r="BM27" s="68"/>
+      <c r="BN27" s="68"/>
+      <c r="BO27" s="68"/>
+      <c r="BP27" s="68"/>
+      <c r="BQ27" s="68"/>
+      <c r="BR27" s="68"/>
+      <c r="BS27" s="68"/>
+      <c r="BT27" s="68"/>
+      <c r="BU27" s="68"/>
+      <c r="BV27" s="69"/>
       <c r="AML27" s="2"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -4423,90 +4412,90 @@
     </row>
     <row r="28" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="73">
+      <c r="C28" s="63">
         <v>2</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="90" t="s">
+      <c r="D28" s="71"/>
+      <c r="E28" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="90" t="s">
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="91"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="91"/>
-      <c r="AC28" s="91"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="77" t="s">
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
-      <c r="AJ28" s="78"/>
-      <c r="AK28" s="78"/>
-      <c r="AL28" s="78"/>
-      <c r="AM28" s="78"/>
-      <c r="AN28" s="78"/>
-      <c r="AO28" s="78"/>
-      <c r="AP28" s="78"/>
-      <c r="AQ28" s="78"/>
-      <c r="AR28" s="78"/>
-      <c r="AS28" s="78"/>
-      <c r="AT28" s="78"/>
-      <c r="AU28" s="78"/>
-      <c r="AV28" s="78"/>
-      <c r="AW28" s="78"/>
-      <c r="AX28" s="78"/>
-      <c r="AY28" s="78"/>
-      <c r="AZ28" s="78"/>
-      <c r="BA28" s="78"/>
-      <c r="BB28" s="78"/>
-      <c r="BC28" s="79"/>
-      <c r="BD28" s="73" t="s">
+      <c r="AF28" s="86"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
+      <c r="AI28" s="86"/>
+      <c r="AJ28" s="86"/>
+      <c r="AK28" s="86"/>
+      <c r="AL28" s="86"/>
+      <c r="AM28" s="86"/>
+      <c r="AN28" s="86"/>
+      <c r="AO28" s="86"/>
+      <c r="AP28" s="86"/>
+      <c r="AQ28" s="86"/>
+      <c r="AR28" s="86"/>
+      <c r="AS28" s="86"/>
+      <c r="AT28" s="86"/>
+      <c r="AU28" s="86"/>
+      <c r="AV28" s="86"/>
+      <c r="AW28" s="86"/>
+      <c r="AX28" s="86"/>
+      <c r="AY28" s="86"/>
+      <c r="AZ28" s="86"/>
+      <c r="BA28" s="86"/>
+      <c r="BB28" s="86"/>
+      <c r="BC28" s="87"/>
+      <c r="BD28" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="BE28" s="83"/>
-      <c r="BF28" s="83"/>
-      <c r="BG28" s="83"/>
-      <c r="BH28" s="83"/>
-      <c r="BI28" s="83"/>
-      <c r="BJ28" s="74"/>
-      <c r="BK28" s="118" t="s">
+      <c r="BE28" s="64"/>
+      <c r="BF28" s="64"/>
+      <c r="BG28" s="64"/>
+      <c r="BH28" s="64"/>
+      <c r="BI28" s="64"/>
+      <c r="BJ28" s="71"/>
+      <c r="BK28" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="BL28" s="119"/>
-      <c r="BM28" s="119"/>
-      <c r="BN28" s="119"/>
-      <c r="BO28" s="119"/>
-      <c r="BP28" s="119"/>
-      <c r="BQ28" s="119"/>
-      <c r="BR28" s="119"/>
-      <c r="BS28" s="119"/>
-      <c r="BT28" s="119"/>
-      <c r="BU28" s="119"/>
-      <c r="BV28" s="120"/>
+      <c r="BL28" s="92"/>
+      <c r="BM28" s="92"/>
+      <c r="BN28" s="92"/>
+      <c r="BO28" s="92"/>
+      <c r="BP28" s="92"/>
+      <c r="BQ28" s="92"/>
+      <c r="BR28" s="92"/>
+      <c r="BS28" s="92"/>
+      <c r="BT28" s="92"/>
+      <c r="BU28" s="92"/>
+      <c r="BV28" s="93"/>
       <c r="AML28" s="2"/>
       <c r="AMM28"/>
       <c r="AMN28"/>
@@ -4522,78 +4511,78 @@
     </row>
     <row r="29" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="80"/>
-      <c r="AF29" s="81"/>
-      <c r="AG29" s="81"/>
-      <c r="AH29" s="81"/>
-      <c r="AI29" s="81"/>
-      <c r="AJ29" s="81"/>
-      <c r="AK29" s="81"/>
-      <c r="AL29" s="81"/>
-      <c r="AM29" s="81"/>
-      <c r="AN29" s="81"/>
-      <c r="AO29" s="81"/>
-      <c r="AP29" s="81"/>
-      <c r="AQ29" s="81"/>
-      <c r="AR29" s="81"/>
-      <c r="AS29" s="81"/>
-      <c r="AT29" s="81"/>
-      <c r="AU29" s="81"/>
-      <c r="AV29" s="81"/>
-      <c r="AW29" s="81"/>
-      <c r="AX29" s="81"/>
-      <c r="AY29" s="81"/>
-      <c r="AZ29" s="81"/>
-      <c r="BA29" s="81"/>
-      <c r="BB29" s="81"/>
-      <c r="BC29" s="82"/>
-      <c r="BD29" s="75"/>
-      <c r="BE29" s="84"/>
-      <c r="BF29" s="84"/>
-      <c r="BG29" s="84"/>
-      <c r="BH29" s="84"/>
-      <c r="BI29" s="84"/>
-      <c r="BJ29" s="76"/>
-      <c r="BK29" s="121"/>
-      <c r="BL29" s="122"/>
-      <c r="BM29" s="122"/>
-      <c r="BN29" s="122"/>
-      <c r="BO29" s="122"/>
-      <c r="BP29" s="122"/>
-      <c r="BQ29" s="122"/>
-      <c r="BR29" s="122"/>
-      <c r="BS29" s="122"/>
-      <c r="BT29" s="122"/>
-      <c r="BU29" s="122"/>
-      <c r="BV29" s="123"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="88"/>
+      <c r="AF29" s="89"/>
+      <c r="AG29" s="89"/>
+      <c r="AH29" s="89"/>
+      <c r="AI29" s="89"/>
+      <c r="AJ29" s="89"/>
+      <c r="AK29" s="89"/>
+      <c r="AL29" s="89"/>
+      <c r="AM29" s="89"/>
+      <c r="AN29" s="89"/>
+      <c r="AO29" s="89"/>
+      <c r="AP29" s="89"/>
+      <c r="AQ29" s="89"/>
+      <c r="AR29" s="89"/>
+      <c r="AS29" s="89"/>
+      <c r="AT29" s="89"/>
+      <c r="AU29" s="89"/>
+      <c r="AV29" s="89"/>
+      <c r="AW29" s="89"/>
+      <c r="AX29" s="89"/>
+      <c r="AY29" s="89"/>
+      <c r="AZ29" s="89"/>
+      <c r="BA29" s="89"/>
+      <c r="BB29" s="89"/>
+      <c r="BC29" s="90"/>
+      <c r="BD29" s="65"/>
+      <c r="BE29" s="66"/>
+      <c r="BF29" s="66"/>
+      <c r="BG29" s="66"/>
+      <c r="BH29" s="66"/>
+      <c r="BI29" s="66"/>
+      <c r="BJ29" s="72"/>
+      <c r="BK29" s="94"/>
+      <c r="BL29" s="95"/>
+      <c r="BM29" s="95"/>
+      <c r="BN29" s="95"/>
+      <c r="BO29" s="95"/>
+      <c r="BP29" s="95"/>
+      <c r="BQ29" s="95"/>
+      <c r="BR29" s="95"/>
+      <c r="BS29" s="95"/>
+      <c r="BT29" s="95"/>
+      <c r="BU29" s="95"/>
+      <c r="BV29" s="96"/>
       <c r="AML29" s="2"/>
       <c r="AMM29"/>
       <c r="AMN29"/>
@@ -4609,86 +4598,86 @@
     </row>
     <row r="30" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="73">
+      <c r="C30" s="63">
         <v>3</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="77" t="s">
+      <c r="D30" s="71"/>
+      <c r="E30" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="77" t="s">
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="78"/>
-      <c r="AC30" s="78"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF30" s="78"/>
-      <c r="AG30" s="78"/>
-      <c r="AH30" s="78"/>
-      <c r="AI30" s="78"/>
-      <c r="AJ30" s="78"/>
-      <c r="AK30" s="78"/>
-      <c r="AL30" s="78"/>
-      <c r="AM30" s="78"/>
-      <c r="AN30" s="78"/>
-      <c r="AO30" s="78"/>
-      <c r="AP30" s="78"/>
-      <c r="AQ30" s="78"/>
-      <c r="AR30" s="78"/>
-      <c r="AS30" s="78"/>
-      <c r="AT30" s="78"/>
-      <c r="AU30" s="78"/>
-      <c r="AV30" s="78"/>
-      <c r="AW30" s="78"/>
-      <c r="AX30" s="78"/>
-      <c r="AY30" s="78"/>
-      <c r="AZ30" s="78"/>
-      <c r="BA30" s="78"/>
-      <c r="BB30" s="78"/>
-      <c r="BC30" s="79"/>
-      <c r="BD30" s="73" t="s">
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="87"/>
+      <c r="AE30" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="86"/>
+      <c r="AJ30" s="86"/>
+      <c r="AK30" s="86"/>
+      <c r="AL30" s="86"/>
+      <c r="AM30" s="86"/>
+      <c r="AN30" s="86"/>
+      <c r="AO30" s="86"/>
+      <c r="AP30" s="86"/>
+      <c r="AQ30" s="86"/>
+      <c r="AR30" s="86"/>
+      <c r="AS30" s="86"/>
+      <c r="AT30" s="86"/>
+      <c r="AU30" s="86"/>
+      <c r="AV30" s="86"/>
+      <c r="AW30" s="86"/>
+      <c r="AX30" s="86"/>
+      <c r="AY30" s="86"/>
+      <c r="AZ30" s="86"/>
+      <c r="BA30" s="86"/>
+      <c r="BB30" s="86"/>
+      <c r="BC30" s="87"/>
+      <c r="BD30" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="BE30" s="83"/>
-      <c r="BF30" s="83"/>
-      <c r="BG30" s="83"/>
-      <c r="BH30" s="83"/>
-      <c r="BI30" s="83"/>
-      <c r="BJ30" s="74"/>
-      <c r="BK30" s="69" t="s">
+      <c r="BE30" s="64"/>
+      <c r="BF30" s="64"/>
+      <c r="BG30" s="64"/>
+      <c r="BH30" s="64"/>
+      <c r="BI30" s="64"/>
+      <c r="BJ30" s="71"/>
+      <c r="BK30" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="BL30" s="70"/>
-      <c r="BM30" s="70"/>
-      <c r="BN30" s="70"/>
-      <c r="BO30" s="70"/>
-      <c r="BP30" s="70"/>
-      <c r="BQ30" s="70"/>
-      <c r="BR30" s="70"/>
+      <c r="BL30" s="121"/>
+      <c r="BM30" s="121"/>
+      <c r="BN30" s="121"/>
+      <c r="BO30" s="121"/>
+      <c r="BP30" s="121"/>
+      <c r="BQ30" s="121"/>
+      <c r="BR30" s="121"/>
       <c r="BS30" s="46"/>
       <c r="BT30" s="46"/>
       <c r="BU30" s="46"/>
@@ -4708,74 +4697,74 @@
     </row>
     <row r="31" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="81"/>
-      <c r="T31" s="81"/>
-      <c r="U31" s="81"/>
-      <c r="V31" s="81"/>
-      <c r="W31" s="81"/>
-      <c r="X31" s="81"/>
-      <c r="Y31" s="81"/>
-      <c r="Z31" s="81"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="81"/>
-      <c r="AC31" s="81"/>
-      <c r="AD31" s="82"/>
-      <c r="AE31" s="80"/>
-      <c r="AF31" s="81"/>
-      <c r="AG31" s="81"/>
-      <c r="AH31" s="81"/>
-      <c r="AI31" s="81"/>
-      <c r="AJ31" s="81"/>
-      <c r="AK31" s="81"/>
-      <c r="AL31" s="81"/>
-      <c r="AM31" s="81"/>
-      <c r="AN31" s="81"/>
-      <c r="AO31" s="81"/>
-      <c r="AP31" s="81"/>
-      <c r="AQ31" s="81"/>
-      <c r="AR31" s="81"/>
-      <c r="AS31" s="81"/>
-      <c r="AT31" s="81"/>
-      <c r="AU31" s="81"/>
-      <c r="AV31" s="81"/>
-      <c r="AW31" s="81"/>
-      <c r="AX31" s="81"/>
-      <c r="AY31" s="81"/>
-      <c r="AZ31" s="81"/>
-      <c r="BA31" s="81"/>
-      <c r="BB31" s="81"/>
-      <c r="BC31" s="82"/>
-      <c r="BD31" s="75"/>
-      <c r="BE31" s="84"/>
-      <c r="BF31" s="84"/>
-      <c r="BG31" s="84"/>
-      <c r="BH31" s="84"/>
-      <c r="BI31" s="84"/>
-      <c r="BJ31" s="76"/>
-      <c r="BK31" s="71"/>
-      <c r="BL31" s="72"/>
-      <c r="BM31" s="72"/>
-      <c r="BN31" s="72"/>
-      <c r="BO31" s="72"/>
-      <c r="BP31" s="72"/>
-      <c r="BQ31" s="72"/>
-      <c r="BR31" s="72"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="90"/>
+      <c r="AE31" s="88"/>
+      <c r="AF31" s="89"/>
+      <c r="AG31" s="89"/>
+      <c r="AH31" s="89"/>
+      <c r="AI31" s="89"/>
+      <c r="AJ31" s="89"/>
+      <c r="AK31" s="89"/>
+      <c r="AL31" s="89"/>
+      <c r="AM31" s="89"/>
+      <c r="AN31" s="89"/>
+      <c r="AO31" s="89"/>
+      <c r="AP31" s="89"/>
+      <c r="AQ31" s="89"/>
+      <c r="AR31" s="89"/>
+      <c r="AS31" s="89"/>
+      <c r="AT31" s="89"/>
+      <c r="AU31" s="89"/>
+      <c r="AV31" s="89"/>
+      <c r="AW31" s="89"/>
+      <c r="AX31" s="89"/>
+      <c r="AY31" s="89"/>
+      <c r="AZ31" s="89"/>
+      <c r="BA31" s="89"/>
+      <c r="BB31" s="89"/>
+      <c r="BC31" s="90"/>
+      <c r="BD31" s="65"/>
+      <c r="BE31" s="66"/>
+      <c r="BF31" s="66"/>
+      <c r="BG31" s="66"/>
+      <c r="BH31" s="66"/>
+      <c r="BI31" s="66"/>
+      <c r="BJ31" s="72"/>
+      <c r="BK31" s="122"/>
+      <c r="BL31" s="123"/>
+      <c r="BM31" s="123"/>
+      <c r="BN31" s="123"/>
+      <c r="BO31" s="123"/>
+      <c r="BP31" s="123"/>
+      <c r="BQ31" s="123"/>
+      <c r="BR31" s="123"/>
       <c r="BS31" s="46"/>
       <c r="BT31" s="46"/>
       <c r="BU31" s="46"/>
@@ -4795,76 +4784,76 @@
     </row>
     <row r="32" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="65">
+      <c r="C32" s="102">
         <v>5</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="67"/>
-      <c r="AC32" s="67"/>
-      <c r="AD32" s="67"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="66"/>
-      <c r="AM32" s="66"/>
-      <c r="AN32" s="66"/>
-      <c r="AO32" s="66"/>
-      <c r="AP32" s="66"/>
-      <c r="AQ32" s="66"/>
-      <c r="AR32" s="66"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="66"/>
-      <c r="AU32" s="66"/>
-      <c r="AV32" s="66"/>
-      <c r="AW32" s="66"/>
-      <c r="AX32" s="66"/>
-      <c r="AY32" s="66"/>
-      <c r="AZ32" s="66"/>
-      <c r="BA32" s="66"/>
-      <c r="BB32" s="66"/>
-      <c r="BC32" s="66"/>
-      <c r="BD32" s="66"/>
-      <c r="BE32" s="66"/>
-      <c r="BF32" s="66"/>
-      <c r="BG32" s="66"/>
-      <c r="BH32" s="66"/>
-      <c r="BI32" s="66"/>
-      <c r="BJ32" s="68"/>
-      <c r="BK32" s="63"/>
-      <c r="BL32" s="64"/>
-      <c r="BM32" s="64"/>
-      <c r="BN32" s="64"/>
-      <c r="BO32" s="64"/>
-      <c r="BP32" s="64"/>
-      <c r="BQ32" s="64"/>
-      <c r="BR32" s="64"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="107"/>
+      <c r="W32" s="107"/>
+      <c r="X32" s="107"/>
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="107"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="107"/>
+      <c r="AD32" s="107"/>
+      <c r="AE32" s="105"/>
+      <c r="AF32" s="105"/>
+      <c r="AG32" s="105"/>
+      <c r="AH32" s="105"/>
+      <c r="AI32" s="105"/>
+      <c r="AJ32" s="105"/>
+      <c r="AK32" s="105"/>
+      <c r="AL32" s="105"/>
+      <c r="AM32" s="105"/>
+      <c r="AN32" s="105"/>
+      <c r="AO32" s="105"/>
+      <c r="AP32" s="105"/>
+      <c r="AQ32" s="105"/>
+      <c r="AR32" s="105"/>
+      <c r="AS32" s="105"/>
+      <c r="AT32" s="105"/>
+      <c r="AU32" s="105"/>
+      <c r="AV32" s="105"/>
+      <c r="AW32" s="105"/>
+      <c r="AX32" s="105"/>
+      <c r="AY32" s="105"/>
+      <c r="AZ32" s="105"/>
+      <c r="BA32" s="105"/>
+      <c r="BB32" s="105"/>
+      <c r="BC32" s="105"/>
+      <c r="BD32" s="105"/>
+      <c r="BE32" s="105"/>
+      <c r="BF32" s="105"/>
+      <c r="BG32" s="105"/>
+      <c r="BH32" s="105"/>
+      <c r="BI32" s="105"/>
+      <c r="BJ32" s="115"/>
+      <c r="BK32" s="112"/>
+      <c r="BL32" s="113"/>
+      <c r="BM32" s="113"/>
+      <c r="BN32" s="113"/>
+      <c r="BO32" s="113"/>
+      <c r="BP32" s="113"/>
+      <c r="BQ32" s="113"/>
+      <c r="BR32" s="113"/>
       <c r="BS32" s="46"/>
       <c r="BT32" s="46"/>
       <c r="BU32" s="46"/>
@@ -4884,76 +4873,76 @@
     </row>
     <row r="33" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="65">
+      <c r="C33" s="102">
         <v>6</v>
       </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="67"/>
-      <c r="AC33" s="67"/>
-      <c r="AD33" s="67"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="66"/>
-      <c r="AN33" s="66"/>
-      <c r="AO33" s="66"/>
-      <c r="AP33" s="66"/>
-      <c r="AQ33" s="66"/>
-      <c r="AR33" s="66"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="66"/>
-      <c r="AU33" s="66"/>
-      <c r="AV33" s="66"/>
-      <c r="AW33" s="66"/>
-      <c r="AX33" s="66"/>
-      <c r="AY33" s="66"/>
-      <c r="AZ33" s="66"/>
-      <c r="BA33" s="66"/>
-      <c r="BB33" s="66"/>
-      <c r="BC33" s="66"/>
-      <c r="BD33" s="66"/>
-      <c r="BE33" s="66"/>
-      <c r="BF33" s="66"/>
-      <c r="BG33" s="66"/>
-      <c r="BH33" s="66"/>
-      <c r="BI33" s="66"/>
-      <c r="BJ33" s="68"/>
-      <c r="BK33" s="63"/>
-      <c r="BL33" s="64"/>
-      <c r="BM33" s="64"/>
-      <c r="BN33" s="64"/>
-      <c r="BO33" s="64"/>
-      <c r="BP33" s="64"/>
-      <c r="BQ33" s="64"/>
-      <c r="BR33" s="64"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="107"/>
+      <c r="X33" s="107"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="107"/>
+      <c r="AA33" s="107"/>
+      <c r="AB33" s="107"/>
+      <c r="AC33" s="107"/>
+      <c r="AD33" s="107"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="105"/>
+      <c r="AG33" s="105"/>
+      <c r="AH33" s="105"/>
+      <c r="AI33" s="105"/>
+      <c r="AJ33" s="105"/>
+      <c r="AK33" s="105"/>
+      <c r="AL33" s="105"/>
+      <c r="AM33" s="105"/>
+      <c r="AN33" s="105"/>
+      <c r="AO33" s="105"/>
+      <c r="AP33" s="105"/>
+      <c r="AQ33" s="105"/>
+      <c r="AR33" s="105"/>
+      <c r="AS33" s="105"/>
+      <c r="AT33" s="105"/>
+      <c r="AU33" s="105"/>
+      <c r="AV33" s="105"/>
+      <c r="AW33" s="105"/>
+      <c r="AX33" s="105"/>
+      <c r="AY33" s="105"/>
+      <c r="AZ33" s="105"/>
+      <c r="BA33" s="105"/>
+      <c r="BB33" s="105"/>
+      <c r="BC33" s="105"/>
+      <c r="BD33" s="105"/>
+      <c r="BE33" s="105"/>
+      <c r="BF33" s="105"/>
+      <c r="BG33" s="105"/>
+      <c r="BH33" s="105"/>
+      <c r="BI33" s="105"/>
+      <c r="BJ33" s="115"/>
+      <c r="BK33" s="112"/>
+      <c r="BL33" s="113"/>
+      <c r="BM33" s="113"/>
+      <c r="BN33" s="113"/>
+      <c r="BO33" s="113"/>
+      <c r="BP33" s="113"/>
+      <c r="BQ33" s="113"/>
+      <c r="BR33" s="113"/>
       <c r="BS33" s="46"/>
       <c r="BT33" s="46"/>
       <c r="BU33" s="46"/>
@@ -4973,76 +4962,76 @@
     </row>
     <row r="34" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="65">
+      <c r="C34" s="102">
         <v>7</v>
       </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
-      <c r="AC34" s="67"/>
-      <c r="AD34" s="67"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
-      <c r="AL34" s="66"/>
-      <c r="AM34" s="66"/>
-      <c r="AN34" s="66"/>
-      <c r="AO34" s="66"/>
-      <c r="AP34" s="66"/>
-      <c r="AQ34" s="66"/>
-      <c r="AR34" s="66"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="66"/>
-      <c r="AU34" s="66"/>
-      <c r="AV34" s="66"/>
-      <c r="AW34" s="66"/>
-      <c r="AX34" s="66"/>
-      <c r="AY34" s="66"/>
-      <c r="AZ34" s="66"/>
-      <c r="BA34" s="66"/>
-      <c r="BB34" s="66"/>
-      <c r="BC34" s="66"/>
-      <c r="BD34" s="66"/>
-      <c r="BE34" s="66"/>
-      <c r="BF34" s="66"/>
-      <c r="BG34" s="66"/>
-      <c r="BH34" s="66"/>
-      <c r="BI34" s="66"/>
-      <c r="BJ34" s="68"/>
-      <c r="BK34" s="63"/>
-      <c r="BL34" s="64"/>
-      <c r="BM34" s="64"/>
-      <c r="BN34" s="64"/>
-      <c r="BO34" s="64"/>
-      <c r="BP34" s="64"/>
-      <c r="BQ34" s="64"/>
-      <c r="BR34" s="64"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="107"/>
+      <c r="X34" s="107"/>
+      <c r="Y34" s="107"/>
+      <c r="Z34" s="107"/>
+      <c r="AA34" s="107"/>
+      <c r="AB34" s="107"/>
+      <c r="AC34" s="107"/>
+      <c r="AD34" s="107"/>
+      <c r="AE34" s="105"/>
+      <c r="AF34" s="105"/>
+      <c r="AG34" s="105"/>
+      <c r="AH34" s="105"/>
+      <c r="AI34" s="105"/>
+      <c r="AJ34" s="105"/>
+      <c r="AK34" s="105"/>
+      <c r="AL34" s="105"/>
+      <c r="AM34" s="105"/>
+      <c r="AN34" s="105"/>
+      <c r="AO34" s="105"/>
+      <c r="AP34" s="105"/>
+      <c r="AQ34" s="105"/>
+      <c r="AR34" s="105"/>
+      <c r="AS34" s="105"/>
+      <c r="AT34" s="105"/>
+      <c r="AU34" s="105"/>
+      <c r="AV34" s="105"/>
+      <c r="AW34" s="105"/>
+      <c r="AX34" s="105"/>
+      <c r="AY34" s="105"/>
+      <c r="AZ34" s="105"/>
+      <c r="BA34" s="105"/>
+      <c r="BB34" s="105"/>
+      <c r="BC34" s="105"/>
+      <c r="BD34" s="105"/>
+      <c r="BE34" s="105"/>
+      <c r="BF34" s="105"/>
+      <c r="BG34" s="105"/>
+      <c r="BH34" s="105"/>
+      <c r="BI34" s="105"/>
+      <c r="BJ34" s="115"/>
+      <c r="BK34" s="112"/>
+      <c r="BL34" s="113"/>
+      <c r="BM34" s="113"/>
+      <c r="BN34" s="113"/>
+      <c r="BO34" s="113"/>
+      <c r="BP34" s="113"/>
+      <c r="BQ34" s="113"/>
+      <c r="BR34" s="113"/>
       <c r="BS34" s="46"/>
       <c r="BT34" s="46"/>
       <c r="BU34" s="46"/>
@@ -5062,76 +5051,76 @@
     </row>
     <row r="35" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="C35" s="65">
+      <c r="C35" s="102">
         <v>8</v>
       </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="67"/>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="67"/>
-      <c r="AB35" s="67"/>
-      <c r="AC35" s="67"/>
-      <c r="AD35" s="67"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="66"/>
-      <c r="AL35" s="66"/>
-      <c r="AM35" s="66"/>
-      <c r="AN35" s="66"/>
-      <c r="AO35" s="66"/>
-      <c r="AP35" s="66"/>
-      <c r="AQ35" s="66"/>
-      <c r="AR35" s="66"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="66"/>
-      <c r="AU35" s="66"/>
-      <c r="AV35" s="66"/>
-      <c r="AW35" s="66"/>
-      <c r="AX35" s="66"/>
-      <c r="AY35" s="66"/>
-      <c r="AZ35" s="66"/>
-      <c r="BA35" s="66"/>
-      <c r="BB35" s="66"/>
-      <c r="BC35" s="66"/>
-      <c r="BD35" s="66"/>
-      <c r="BE35" s="66"/>
-      <c r="BF35" s="66"/>
-      <c r="BG35" s="66"/>
-      <c r="BH35" s="66"/>
-      <c r="BI35" s="66"/>
-      <c r="BJ35" s="68"/>
-      <c r="BK35" s="63"/>
-      <c r="BL35" s="64"/>
-      <c r="BM35" s="64"/>
-      <c r="BN35" s="64"/>
-      <c r="BO35" s="64"/>
-      <c r="BP35" s="64"/>
-      <c r="BQ35" s="64"/>
-      <c r="BR35" s="64"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="107"/>
+      <c r="U35" s="107"/>
+      <c r="V35" s="107"/>
+      <c r="W35" s="107"/>
+      <c r="X35" s="107"/>
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="107"/>
+      <c r="AA35" s="107"/>
+      <c r="AB35" s="107"/>
+      <c r="AC35" s="107"/>
+      <c r="AD35" s="107"/>
+      <c r="AE35" s="105"/>
+      <c r="AF35" s="105"/>
+      <c r="AG35" s="105"/>
+      <c r="AH35" s="105"/>
+      <c r="AI35" s="105"/>
+      <c r="AJ35" s="105"/>
+      <c r="AK35" s="105"/>
+      <c r="AL35" s="105"/>
+      <c r="AM35" s="105"/>
+      <c r="AN35" s="105"/>
+      <c r="AO35" s="105"/>
+      <c r="AP35" s="105"/>
+      <c r="AQ35" s="105"/>
+      <c r="AR35" s="105"/>
+      <c r="AS35" s="105"/>
+      <c r="AT35" s="105"/>
+      <c r="AU35" s="105"/>
+      <c r="AV35" s="105"/>
+      <c r="AW35" s="105"/>
+      <c r="AX35" s="105"/>
+      <c r="AY35" s="105"/>
+      <c r="AZ35" s="105"/>
+      <c r="BA35" s="105"/>
+      <c r="BB35" s="105"/>
+      <c r="BC35" s="105"/>
+      <c r="BD35" s="105"/>
+      <c r="BE35" s="105"/>
+      <c r="BF35" s="105"/>
+      <c r="BG35" s="105"/>
+      <c r="BH35" s="105"/>
+      <c r="BI35" s="105"/>
+      <c r="BJ35" s="115"/>
+      <c r="BK35" s="112"/>
+      <c r="BL35" s="113"/>
+      <c r="BM35" s="113"/>
+      <c r="BN35" s="113"/>
+      <c r="BO35" s="113"/>
+      <c r="BP35" s="113"/>
+      <c r="BQ35" s="113"/>
+      <c r="BR35" s="113"/>
       <c r="BS35" s="46"/>
       <c r="BT35" s="46"/>
       <c r="BU35" s="46"/>
@@ -5151,76 +5140,76 @@
     </row>
     <row r="36" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="C36" s="65">
+      <c r="C36" s="102">
         <v>9</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
-      <c r="AI36" s="66"/>
-      <c r="AJ36" s="66"/>
-      <c r="AK36" s="66"/>
-      <c r="AL36" s="66"/>
-      <c r="AM36" s="66"/>
-      <c r="AN36" s="66"/>
-      <c r="AO36" s="66"/>
-      <c r="AP36" s="66"/>
-      <c r="AQ36" s="66"/>
-      <c r="AR36" s="66"/>
-      <c r="AS36" s="66"/>
-      <c r="AT36" s="66"/>
-      <c r="AU36" s="66"/>
-      <c r="AV36" s="66"/>
-      <c r="AW36" s="66"/>
-      <c r="AX36" s="66"/>
-      <c r="AY36" s="66"/>
-      <c r="AZ36" s="66"/>
-      <c r="BA36" s="66"/>
-      <c r="BB36" s="66"/>
-      <c r="BC36" s="66"/>
-      <c r="BD36" s="66"/>
-      <c r="BE36" s="66"/>
-      <c r="BF36" s="66"/>
-      <c r="BG36" s="66"/>
-      <c r="BH36" s="66"/>
-      <c r="BI36" s="66"/>
-      <c r="BJ36" s="68"/>
-      <c r="BK36" s="63"/>
-      <c r="BL36" s="64"/>
-      <c r="BM36" s="64"/>
-      <c r="BN36" s="64"/>
-      <c r="BO36" s="64"/>
-      <c r="BP36" s="64"/>
-      <c r="BQ36" s="64"/>
-      <c r="BR36" s="64"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="107"/>
+      <c r="V36" s="107"/>
+      <c r="W36" s="107"/>
+      <c r="X36" s="107"/>
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="107"/>
+      <c r="AA36" s="107"/>
+      <c r="AB36" s="107"/>
+      <c r="AC36" s="107"/>
+      <c r="AD36" s="107"/>
+      <c r="AE36" s="105"/>
+      <c r="AF36" s="105"/>
+      <c r="AG36" s="105"/>
+      <c r="AH36" s="105"/>
+      <c r="AI36" s="105"/>
+      <c r="AJ36" s="105"/>
+      <c r="AK36" s="105"/>
+      <c r="AL36" s="105"/>
+      <c r="AM36" s="105"/>
+      <c r="AN36" s="105"/>
+      <c r="AO36" s="105"/>
+      <c r="AP36" s="105"/>
+      <c r="AQ36" s="105"/>
+      <c r="AR36" s="105"/>
+      <c r="AS36" s="105"/>
+      <c r="AT36" s="105"/>
+      <c r="AU36" s="105"/>
+      <c r="AV36" s="105"/>
+      <c r="AW36" s="105"/>
+      <c r="AX36" s="105"/>
+      <c r="AY36" s="105"/>
+      <c r="AZ36" s="105"/>
+      <c r="BA36" s="105"/>
+      <c r="BB36" s="105"/>
+      <c r="BC36" s="105"/>
+      <c r="BD36" s="105"/>
+      <c r="BE36" s="105"/>
+      <c r="BF36" s="105"/>
+      <c r="BG36" s="105"/>
+      <c r="BH36" s="105"/>
+      <c r="BI36" s="105"/>
+      <c r="BJ36" s="115"/>
+      <c r="BK36" s="112"/>
+      <c r="BL36" s="113"/>
+      <c r="BM36" s="113"/>
+      <c r="BN36" s="113"/>
+      <c r="BO36" s="113"/>
+      <c r="BP36" s="113"/>
+      <c r="BQ36" s="113"/>
+      <c r="BR36" s="113"/>
       <c r="BS36" s="46"/>
       <c r="BT36" s="46"/>
       <c r="BU36" s="46"/>
@@ -5241,76 +5230,76 @@
     <row r="37" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="65">
+      <c r="C37" s="102">
         <v>10</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="67"/>
-      <c r="U37" s="67"/>
-      <c r="V37" s="67"/>
-      <c r="W37" s="67"/>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
-      <c r="Z37" s="67"/>
-      <c r="AA37" s="67"/>
-      <c r="AB37" s="67"/>
-      <c r="AC37" s="67"/>
-      <c r="AD37" s="67"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="66"/>
-      <c r="AK37" s="66"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="66"/>
-      <c r="AN37" s="66"/>
-      <c r="AO37" s="66"/>
-      <c r="AP37" s="66"/>
-      <c r="AQ37" s="66"/>
-      <c r="AR37" s="66"/>
-      <c r="AS37" s="66"/>
-      <c r="AT37" s="66"/>
-      <c r="AU37" s="66"/>
-      <c r="AV37" s="66"/>
-      <c r="AW37" s="66"/>
-      <c r="AX37" s="66"/>
-      <c r="AY37" s="66"/>
-      <c r="AZ37" s="66"/>
-      <c r="BA37" s="66"/>
-      <c r="BB37" s="66"/>
-      <c r="BC37" s="66"/>
-      <c r="BD37" s="66"/>
-      <c r="BE37" s="66"/>
-      <c r="BF37" s="66"/>
-      <c r="BG37" s="66"/>
-      <c r="BH37" s="66"/>
-      <c r="BI37" s="66"/>
-      <c r="BJ37" s="68"/>
-      <c r="BK37" s="63"/>
-      <c r="BL37" s="64"/>
-      <c r="BM37" s="64"/>
-      <c r="BN37" s="64"/>
-      <c r="BO37" s="64"/>
-      <c r="BP37" s="64"/>
-      <c r="BQ37" s="64"/>
-      <c r="BR37" s="64"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="107"/>
+      <c r="W37" s="107"/>
+      <c r="X37" s="107"/>
+      <c r="Y37" s="107"/>
+      <c r="Z37" s="107"/>
+      <c r="AA37" s="107"/>
+      <c r="AB37" s="107"/>
+      <c r="AC37" s="107"/>
+      <c r="AD37" s="107"/>
+      <c r="AE37" s="105"/>
+      <c r="AF37" s="105"/>
+      <c r="AG37" s="105"/>
+      <c r="AH37" s="105"/>
+      <c r="AI37" s="105"/>
+      <c r="AJ37" s="105"/>
+      <c r="AK37" s="105"/>
+      <c r="AL37" s="105"/>
+      <c r="AM37" s="105"/>
+      <c r="AN37" s="105"/>
+      <c r="AO37" s="105"/>
+      <c r="AP37" s="105"/>
+      <c r="AQ37" s="105"/>
+      <c r="AR37" s="105"/>
+      <c r="AS37" s="105"/>
+      <c r="AT37" s="105"/>
+      <c r="AU37" s="105"/>
+      <c r="AV37" s="105"/>
+      <c r="AW37" s="105"/>
+      <c r="AX37" s="105"/>
+      <c r="AY37" s="105"/>
+      <c r="AZ37" s="105"/>
+      <c r="BA37" s="105"/>
+      <c r="BB37" s="105"/>
+      <c r="BC37" s="105"/>
+      <c r="BD37" s="105"/>
+      <c r="BE37" s="105"/>
+      <c r="BF37" s="105"/>
+      <c r="BG37" s="105"/>
+      <c r="BH37" s="105"/>
+      <c r="BI37" s="105"/>
+      <c r="BJ37" s="115"/>
+      <c r="BK37" s="112"/>
+      <c r="BL37" s="113"/>
+      <c r="BM37" s="113"/>
+      <c r="BN37" s="113"/>
+      <c r="BO37" s="113"/>
+      <c r="BP37" s="113"/>
+      <c r="BQ37" s="113"/>
+      <c r="BR37" s="113"/>
       <c r="BS37" s="46"/>
       <c r="BT37" s="46"/>
       <c r="BU37" s="46"/>
@@ -5923,38 +5912,54 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="BD26:BJ27"/>
-    <mergeCell ref="BK26:BV27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:I29"/>
-    <mergeCell ref="J28:N29"/>
-    <mergeCell ref="O28:AD29"/>
-    <mergeCell ref="AE28:BC29"/>
-    <mergeCell ref="BD28:BJ29"/>
-    <mergeCell ref="BK28:BV29"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="BK34:BR34"/>
+    <mergeCell ref="BK35:BR35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="O37:AD37"/>
+    <mergeCell ref="AE37:BC37"/>
+    <mergeCell ref="BD37:BJ37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="O36:AD36"/>
+    <mergeCell ref="AE36:BC36"/>
+    <mergeCell ref="BD36:BJ36"/>
+    <mergeCell ref="BK36:BR36"/>
+    <mergeCell ref="BK37:BR37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK30:BR31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:I31"/>
+    <mergeCell ref="J30:N31"/>
+    <mergeCell ref="O30:AD31"/>
+    <mergeCell ref="AE30:BC31"/>
+    <mergeCell ref="BD30:BJ31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK32:BR32"/>
     <mergeCell ref="BK33:BR33"/>
     <mergeCell ref="H21:BO21"/>
     <mergeCell ref="C25:D25"/>
@@ -5979,54 +5984,38 @@
     <mergeCell ref="J26:N27"/>
     <mergeCell ref="O26:AD27"/>
     <mergeCell ref="AE26:BC27"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK30:BR31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:I31"/>
-    <mergeCell ref="J30:N31"/>
-    <mergeCell ref="O30:AD31"/>
-    <mergeCell ref="AE30:BC31"/>
-    <mergeCell ref="BD30:BJ31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK32:BR32"/>
-    <mergeCell ref="BK34:BR34"/>
-    <mergeCell ref="BK35:BR35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="O37:AD37"/>
-    <mergeCell ref="AE37:BC37"/>
-    <mergeCell ref="BD37:BJ37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="O36:AD36"/>
-    <mergeCell ref="AE36:BC36"/>
-    <mergeCell ref="BD36:BJ36"/>
-    <mergeCell ref="BK36:BR36"/>
-    <mergeCell ref="BK37:BR37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BD26:BJ27"/>
+    <mergeCell ref="BK26:BV27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:I29"/>
+    <mergeCell ref="J28:N29"/>
+    <mergeCell ref="O28:AD29"/>
+    <mergeCell ref="AE28:BC29"/>
+    <mergeCell ref="BD28:BJ29"/>
+    <mergeCell ref="BK28:BV29"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -6082,7 +6071,7 @@
   <dimension ref="A1:AMK45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6097,247 +6086,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134" t="s">
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="135" t="s">
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="135"/>
-      <c r="AV1" s="135"/>
-      <c r="AW1" s="135"/>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="135"/>
-      <c r="AZ1" s="135"/>
-      <c r="BA1" s="135"/>
-      <c r="BB1" s="135"/>
-      <c r="BC1" s="135"/>
-      <c r="BD1" s="135"/>
-      <c r="BE1" s="135"/>
-      <c r="BF1" s="135"/>
-      <c r="BG1" s="135"/>
-      <c r="BH1" s="135"/>
-      <c r="BI1" s="135"/>
-      <c r="BJ1" s="135"/>
-      <c r="BK1" s="135"/>
-      <c r="BL1" s="135"/>
-      <c r="BM1" s="135"/>
-      <c r="BN1" s="135"/>
-      <c r="BO1" s="135"/>
-      <c r="BP1" s="135"/>
-      <c r="BQ1" s="135"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="126"/>
+      <c r="AZ1" s="126"/>
+      <c r="BA1" s="126"/>
+      <c r="BB1" s="126"/>
+      <c r="BC1" s="126"/>
+      <c r="BD1" s="126"/>
+      <c r="BE1" s="126"/>
+      <c r="BF1" s="126"/>
+      <c r="BG1" s="126"/>
+      <c r="BH1" s="126"/>
+      <c r="BI1" s="126"/>
+      <c r="BJ1" s="126"/>
+      <c r="BK1" s="126"/>
+      <c r="BL1" s="126"/>
+      <c r="BM1" s="126"/>
+      <c r="BN1" s="126"/>
+      <c r="BO1" s="126"/>
+      <c r="BP1" s="126"/>
+      <c r="BQ1" s="126"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="104" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="125" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125" t="s">
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
+      <c r="AR2" s="127"/>
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125" t="s">
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="127"/>
+      <c r="AZ2" s="127"/>
+      <c r="BA2" s="127"/>
+      <c r="BB2" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="136" t="s">
+      <c r="BC2" s="127"/>
+      <c r="BD2" s="127"/>
+      <c r="BE2" s="127"/>
+      <c r="BF2" s="127"/>
+      <c r="BG2" s="127"/>
+      <c r="BH2" s="127"/>
+      <c r="BI2" s="127"/>
+      <c r="BJ2" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="136"/>
-      <c r="BL2" s="136"/>
-      <c r="BM2" s="136"/>
-      <c r="BN2" s="136"/>
-      <c r="BO2" s="136"/>
-      <c r="BP2" s="136"/>
-      <c r="BQ2" s="136"/>
+      <c r="BK2" s="128"/>
+      <c r="BL2" s="128"/>
+      <c r="BM2" s="128"/>
+      <c r="BN2" s="128"/>
+      <c r="BO2" s="128"/>
+      <c r="BP2" s="128"/>
+      <c r="BQ2" s="128"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="137" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="137"/>
-      <c r="AM3" s="137"/>
-      <c r="AN3" s="137"/>
-      <c r="AO3" s="137"/>
-      <c r="AP3" s="137"/>
-      <c r="AQ3" s="137"/>
-      <c r="AR3" s="137"/>
-      <c r="AS3" s="137"/>
-      <c r="AT3" s="138">
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="129"/>
+      <c r="AO3" s="129"/>
+      <c r="AP3" s="129"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="129"/>
+      <c r="AS3" s="129"/>
+      <c r="AT3" s="130">
         <v>45510</v>
       </c>
-      <c r="AU3" s="138"/>
-      <c r="AV3" s="138"/>
-      <c r="AW3" s="138"/>
-      <c r="AX3" s="138"/>
-      <c r="AY3" s="138"/>
-      <c r="AZ3" s="138"/>
-      <c r="BA3" s="138"/>
-      <c r="BB3" s="137" t="s">
+      <c r="AU3" s="130"/>
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="130"/>
+      <c r="BA3" s="130"/>
+      <c r="BB3" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="137"/>
-      <c r="BD3" s="137"/>
-      <c r="BE3" s="137"/>
-      <c r="BF3" s="137"/>
-      <c r="BG3" s="137"/>
-      <c r="BH3" s="137"/>
-      <c r="BI3" s="137"/>
-      <c r="BJ3" s="139">
+      <c r="BC3" s="129"/>
+      <c r="BD3" s="129"/>
+      <c r="BE3" s="129"/>
+      <c r="BF3" s="129"/>
+      <c r="BG3" s="129"/>
+      <c r="BH3" s="129"/>
+      <c r="BI3" s="129"/>
+      <c r="BJ3" s="131">
         <v>45537</v>
       </c>
-      <c r="BK3" s="139"/>
-      <c r="BL3" s="139"/>
-      <c r="BM3" s="139"/>
-      <c r="BN3" s="139"/>
-      <c r="BO3" s="139"/>
-      <c r="BP3" s="139"/>
-      <c r="BQ3" s="139"/>
+      <c r="BK3" s="131"/>
+      <c r="BL3" s="131"/>
+      <c r="BM3" s="131"/>
+      <c r="BN3" s="131"/>
+      <c r="BO3" s="131"/>
+      <c r="BP3" s="131"/>
+      <c r="BQ3" s="131"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -6362,20 +6351,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65" t="s">
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="132" t="s">
         <v>28</v>
       </c>
@@ -6406,52 +6395,52 @@
       <c r="AL6" s="132"/>
       <c r="AM6" s="132"/>
       <c r="AN6" s="132"/>
-      <c r="AO6" s="66" t="s">
+      <c r="AO6" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="66" t="s">
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="66"/>
-      <c r="AY6" s="66"/>
-      <c r="AZ6" s="66"/>
-      <c r="BA6" s="66"/>
-      <c r="BB6" s="66"/>
-      <c r="BC6" s="66"/>
-      <c r="BD6" s="66"/>
-      <c r="BE6" s="66"/>
-      <c r="BF6" s="66"/>
-      <c r="BG6" s="66"/>
-      <c r="BH6" s="66"/>
-      <c r="BI6" s="66"/>
-      <c r="BJ6" s="66"/>
-      <c r="BK6" s="66"/>
-      <c r="BL6" s="66"/>
-      <c r="BM6" s="66"/>
-      <c r="BN6" s="66"/>
-      <c r="BO6" s="66"/>
-      <c r="BP6" s="66"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="37" t="s">
         <v>87</v>
       </c>
@@ -6482,38 +6471,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="66" t="s">
+      <c r="AO7" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66" t="s">
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
-      <c r="BA7" s="66"/>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="66"/>
-      <c r="BD7" s="66"/>
-      <c r="BE7" s="66"/>
-      <c r="BF7" s="66"/>
-      <c r="BG7" s="66"/>
-      <c r="BH7" s="66"/>
-      <c r="BI7" s="66"/>
-      <c r="BJ7" s="66"/>
-      <c r="BK7" s="66"/>
-      <c r="BL7" s="66"/>
-      <c r="BM7" s="66"/>
-      <c r="BN7" s="66"/>
-      <c r="BO7" s="66"/>
-      <c r="BP7" s="66"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
+      <c r="BJ7" s="105"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
+      <c r="BP7" s="105"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -6527,89 +6516,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="125" t="s">
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125" t="s">
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="64"/>
-      <c r="AX10" s="64"/>
-      <c r="AY10" s="64"/>
-      <c r="AZ10" s="64"/>
-      <c r="BA10" s="64"/>
-      <c r="BB10" s="64"/>
-      <c r="BC10" s="64"/>
-      <c r="BD10" s="64"/>
-      <c r="BE10" s="64"/>
-      <c r="BF10" s="64"/>
-      <c r="BG10" s="64"/>
-      <c r="BH10" s="64"/>
-      <c r="BI10" s="131"/>
-      <c r="BJ10" s="65" t="s">
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
+      <c r="AY10" s="113"/>
+      <c r="AZ10" s="113"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="113"/>
+      <c r="BC10" s="113"/>
+      <c r="BD10" s="113"/>
+      <c r="BE10" s="113"/>
+      <c r="BF10" s="113"/>
+      <c r="BG10" s="113"/>
+      <c r="BH10" s="113"/>
+      <c r="BI10" s="134"/>
+      <c r="BJ10" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="65"/>
-      <c r="BL10" s="65"/>
-      <c r="BM10" s="65"/>
-      <c r="BN10" s="65"/>
-      <c r="BO10" s="65"/>
-      <c r="BP10" s="65"/>
+      <c r="BK10" s="102"/>
+      <c r="BL10" s="102"/>
+      <c r="BM10" s="102"/>
+      <c r="BN10" s="102"/>
+      <c r="BO10" s="102"/>
+      <c r="BP10" s="102"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="37" t="s">
         <v>100</v>
       </c>
@@ -6625,13 +6614,13 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="39"/>
-      <c r="T11" s="128" t="s">
+      <c r="T11" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="128"/>
-      <c r="V11" s="129"/>
+      <c r="U11" s="136"/>
+      <c r="V11" s="137"/>
       <c r="W11" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X11" s="52"/>
       <c r="Y11" s="52"/>
@@ -6681,14 +6670,14 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -6702,11 +6691,11 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="125" t="s">
+      <c r="T12" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="125"/>
-      <c r="V12" s="125"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
       <c r="W12" s="51"/>
       <c r="X12" s="52"/>
       <c r="Y12" s="52"/>
@@ -6755,12 +6744,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="17" t="s">
         <v>92</v>
       </c>
@@ -6776,13 +6765,13 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="125" t="s">
+      <c r="T13" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
       <c r="W13" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X13" s="52"/>
       <c r="Y13" s="52"/>
@@ -6831,12 +6820,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="17" t="s">
         <v>93</v>
       </c>
@@ -6852,13 +6841,13 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="125" t="s">
+      <c r="T14" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="125"/>
-      <c r="V14" s="125"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="127"/>
       <c r="W14" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X14" s="52"/>
       <c r="Y14" s="52"/>
@@ -6918,90 +6907,90 @@
       <c r="AG16" s="16"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="125" t="s">
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125" t="s">
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
-      <c r="W17" s="65" t="s">
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="65"/>
-      <c r="BA17" s="65"/>
-      <c r="BB17" s="65"/>
-      <c r="BC17" s="65"/>
-      <c r="BD17" s="65"/>
-      <c r="BE17" s="65"/>
-      <c r="BF17" s="65"/>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
-      <c r="BJ17" s="65" t="s">
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="102"/>
+      <c r="AG17" s="102"/>
+      <c r="AH17" s="102"/>
+      <c r="AI17" s="102"/>
+      <c r="AJ17" s="102"/>
+      <c r="AK17" s="102"/>
+      <c r="AL17" s="102"/>
+      <c r="AM17" s="102"/>
+      <c r="AN17" s="102"/>
+      <c r="AO17" s="102"/>
+      <c r="AP17" s="102"/>
+      <c r="AQ17" s="102"/>
+      <c r="AR17" s="102"/>
+      <c r="AS17" s="102"/>
+      <c r="AT17" s="102"/>
+      <c r="AU17" s="102"/>
+      <c r="AV17" s="102"/>
+      <c r="AW17" s="102"/>
+      <c r="AX17" s="102"/>
+      <c r="AY17" s="102"/>
+      <c r="AZ17" s="102"/>
+      <c r="BA17" s="102"/>
+      <c r="BB17" s="102"/>
+      <c r="BC17" s="102"/>
+      <c r="BD17" s="102"/>
+      <c r="BE17" s="102"/>
+      <c r="BF17" s="102"/>
+      <c r="BG17" s="102"/>
+      <c r="BH17" s="102"/>
+      <c r="BI17" s="102"/>
+      <c r="BJ17" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="BK17" s="65"/>
-      <c r="BL17" s="65"/>
-      <c r="BM17" s="65"/>
-      <c r="BN17" s="65"/>
-      <c r="BO17" s="65"/>
-      <c r="BP17" s="65"/>
+      <c r="BK17" s="102"/>
+      <c r="BL17" s="102"/>
+      <c r="BM17" s="102"/>
+      <c r="BN17" s="102"/>
+      <c r="BO17" s="102"/>
+      <c r="BP17" s="102"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
       <c r="G18" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -7015,11 +7004,11 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
       <c r="W18" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
@@ -7328,7 +7317,7 @@
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="29"/>
       <c r="J28" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BP28" s="30"/>
     </row>
@@ -7350,28 +7339,28 @@
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C31" s="29"/>
       <c r="H31" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BP31" s="30"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C32" s="29"/>
       <c r="H32" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BP32" s="30"/>
     </row>
     <row r="33" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C33" s="29"/>
       <c r="H33" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BP33" s="30"/>
     </row>
     <row r="34" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C34" s="29"/>
       <c r="H34" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BP34" s="30"/>
     </row>
@@ -7385,14 +7374,14 @@
     <row r="36" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C36" s="29"/>
       <c r="H36" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BP36" s="30"/>
     </row>
     <row r="37" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C37" s="29"/>
       <c r="H37" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BP37" s="30"/>
     </row>
@@ -7473,6 +7462,35 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W17:BI17"/>
+    <mergeCell ref="BJ17:BP17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -7487,35 +7505,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W17:BI17"/>
-    <mergeCell ref="BJ17:BP17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -7559,7 +7548,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEF7E0F-2382-4600-94E9-7C91FC17ED61}">
-  <dimension ref="A1:AMK106"/>
+  <dimension ref="A1:AMK102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -7577,247 +7566,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134" t="s">
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="135" t="s">
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="135"/>
-      <c r="AV1" s="135"/>
-      <c r="AW1" s="135"/>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="135"/>
-      <c r="AZ1" s="135"/>
-      <c r="BA1" s="135"/>
-      <c r="BB1" s="135"/>
-      <c r="BC1" s="135"/>
-      <c r="BD1" s="135"/>
-      <c r="BE1" s="135"/>
-      <c r="BF1" s="135"/>
-      <c r="BG1" s="135"/>
-      <c r="BH1" s="135"/>
-      <c r="BI1" s="135"/>
-      <c r="BJ1" s="135"/>
-      <c r="BK1" s="135"/>
-      <c r="BL1" s="135"/>
-      <c r="BM1" s="135"/>
-      <c r="BN1" s="135"/>
-      <c r="BO1" s="135"/>
-      <c r="BP1" s="135"/>
-      <c r="BQ1" s="135"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="126"/>
+      <c r="AZ1" s="126"/>
+      <c r="BA1" s="126"/>
+      <c r="BB1" s="126"/>
+      <c r="BC1" s="126"/>
+      <c r="BD1" s="126"/>
+      <c r="BE1" s="126"/>
+      <c r="BF1" s="126"/>
+      <c r="BG1" s="126"/>
+      <c r="BH1" s="126"/>
+      <c r="BI1" s="126"/>
+      <c r="BJ1" s="126"/>
+      <c r="BK1" s="126"/>
+      <c r="BL1" s="126"/>
+      <c r="BM1" s="126"/>
+      <c r="BN1" s="126"/>
+      <c r="BO1" s="126"/>
+      <c r="BP1" s="126"/>
+      <c r="BQ1" s="126"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="104" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="125" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125" t="s">
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
+      <c r="AR2" s="127"/>
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125" t="s">
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="127"/>
+      <c r="AZ2" s="127"/>
+      <c r="BA2" s="127"/>
+      <c r="BB2" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="136" t="s">
+      <c r="BC2" s="127"/>
+      <c r="BD2" s="127"/>
+      <c r="BE2" s="127"/>
+      <c r="BF2" s="127"/>
+      <c r="BG2" s="127"/>
+      <c r="BH2" s="127"/>
+      <c r="BI2" s="127"/>
+      <c r="BJ2" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="136"/>
-      <c r="BL2" s="136"/>
-      <c r="BM2" s="136"/>
-      <c r="BN2" s="136"/>
-      <c r="BO2" s="136"/>
-      <c r="BP2" s="136"/>
-      <c r="BQ2" s="136"/>
+      <c r="BK2" s="128"/>
+      <c r="BL2" s="128"/>
+      <c r="BM2" s="128"/>
+      <c r="BN2" s="128"/>
+      <c r="BO2" s="128"/>
+      <c r="BP2" s="128"/>
+      <c r="BQ2" s="128"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="137" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="137"/>
-      <c r="AM3" s="137"/>
-      <c r="AN3" s="137"/>
-      <c r="AO3" s="137"/>
-      <c r="AP3" s="137"/>
-      <c r="AQ3" s="137"/>
-      <c r="AR3" s="137"/>
-      <c r="AS3" s="137"/>
-      <c r="AT3" s="138">
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="129"/>
+      <c r="AO3" s="129"/>
+      <c r="AP3" s="129"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="129"/>
+      <c r="AS3" s="129"/>
+      <c r="AT3" s="130">
         <v>45510</v>
       </c>
-      <c r="AU3" s="138"/>
-      <c r="AV3" s="138"/>
-      <c r="AW3" s="138"/>
-      <c r="AX3" s="138"/>
-      <c r="AY3" s="138"/>
-      <c r="AZ3" s="138"/>
-      <c r="BA3" s="138"/>
-      <c r="BB3" s="137" t="s">
+      <c r="AU3" s="130"/>
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="130"/>
+      <c r="BA3" s="130"/>
+      <c r="BB3" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="137"/>
-      <c r="BD3" s="137"/>
-      <c r="BE3" s="137"/>
-      <c r="BF3" s="137"/>
-      <c r="BG3" s="137"/>
-      <c r="BH3" s="137"/>
-      <c r="BI3" s="137"/>
-      <c r="BJ3" s="139">
+      <c r="BC3" s="129"/>
+      <c r="BD3" s="129"/>
+      <c r="BE3" s="129"/>
+      <c r="BF3" s="129"/>
+      <c r="BG3" s="129"/>
+      <c r="BH3" s="129"/>
+      <c r="BI3" s="129"/>
+      <c r="BJ3" s="131">
         <v>45518</v>
       </c>
-      <c r="BK3" s="139"/>
-      <c r="BL3" s="139"/>
-      <c r="BM3" s="139"/>
-      <c r="BN3" s="139"/>
-      <c r="BO3" s="139"/>
-      <c r="BP3" s="139"/>
-      <c r="BQ3" s="139"/>
+      <c r="BK3" s="131"/>
+      <c r="BL3" s="131"/>
+      <c r="BM3" s="131"/>
+      <c r="BN3" s="131"/>
+      <c r="BO3" s="131"/>
+      <c r="BP3" s="131"/>
+      <c r="BQ3" s="131"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -7842,20 +7831,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65" t="s">
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="132" t="s">
         <v>28</v>
       </c>
@@ -7886,52 +7875,52 @@
       <c r="AL6" s="132"/>
       <c r="AM6" s="132"/>
       <c r="AN6" s="132"/>
-      <c r="AO6" s="66" t="s">
+      <c r="AO6" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="66" t="s">
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="66"/>
-      <c r="AY6" s="66"/>
-      <c r="AZ6" s="66"/>
-      <c r="BA6" s="66"/>
-      <c r="BB6" s="66"/>
-      <c r="BC6" s="66"/>
-      <c r="BD6" s="66"/>
-      <c r="BE6" s="66"/>
-      <c r="BF6" s="66"/>
-      <c r="BG6" s="66"/>
-      <c r="BH6" s="66"/>
-      <c r="BI6" s="66"/>
-      <c r="BJ6" s="66"/>
-      <c r="BK6" s="66"/>
-      <c r="BL6" s="66"/>
-      <c r="BM6" s="66"/>
-      <c r="BN6" s="66"/>
-      <c r="BO6" s="66"/>
-      <c r="BP6" s="66"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="17" t="s">
         <v>75</v>
       </c>
@@ -7962,38 +7951,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="66" t="s">
+      <c r="AO7" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66" t="s">
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
-      <c r="BA7" s="66"/>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="66"/>
-      <c r="BD7" s="66"/>
-      <c r="BE7" s="66"/>
-      <c r="BF7" s="66"/>
-      <c r="BG7" s="66"/>
-      <c r="BH7" s="66"/>
-      <c r="BI7" s="66"/>
-      <c r="BJ7" s="66"/>
-      <c r="BK7" s="66"/>
-      <c r="BL7" s="66"/>
-      <c r="BM7" s="66"/>
-      <c r="BN7" s="66"/>
-      <c r="BO7" s="66"/>
-      <c r="BP7" s="66"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
+      <c r="BJ7" s="105"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
+      <c r="BP7" s="105"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -8007,88 +7996,88 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="125" t="s">
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125" t="s">
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="125"/>
+      <c r="U10" s="127"/>
       <c r="V10" s="140"/>
-      <c r="W10" s="63" t="s">
+      <c r="W10" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="64"/>
-      <c r="AX10" s="64"/>
-      <c r="AY10" s="64"/>
-      <c r="AZ10" s="64"/>
-      <c r="BA10" s="64"/>
-      <c r="BB10" s="64"/>
-      <c r="BC10" s="64"/>
-      <c r="BD10" s="64"/>
-      <c r="BE10" s="64"/>
-      <c r="BF10" s="64"/>
-      <c r="BG10" s="64"/>
-      <c r="BH10" s="64"/>
-      <c r="BI10" s="131"/>
-      <c r="BJ10" s="65" t="s">
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
+      <c r="AY10" s="113"/>
+      <c r="AZ10" s="113"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="113"/>
+      <c r="BC10" s="113"/>
+      <c r="BD10" s="113"/>
+      <c r="BE10" s="113"/>
+      <c r="BF10" s="113"/>
+      <c r="BG10" s="113"/>
+      <c r="BH10" s="113"/>
+      <c r="BI10" s="134"/>
+      <c r="BJ10" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="65"/>
-      <c r="BL10" s="65"/>
-      <c r="BM10" s="65"/>
-      <c r="BN10" s="65"/>
-      <c r="BO10" s="65"/>
-      <c r="BP10" s="65"/>
+      <c r="BK10" s="102"/>
+      <c r="BL10" s="102"/>
+      <c r="BM10" s="102"/>
+      <c r="BN10" s="102"/>
+      <c r="BO10" s="102"/>
+      <c r="BP10" s="102"/>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="17" t="s">
         <v>101</v>
       </c>
@@ -8104,13 +8093,13 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="125" t="s">
+      <c r="T11" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="125"/>
+      <c r="U11" s="127"/>
       <c r="V11" s="140"/>
       <c r="W11" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
@@ -8159,14 +8148,14 @@
       <c r="BP11" s="24"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -8180,10 +8169,10 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="125" t="s">
+      <c r="T12" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="125"/>
+      <c r="U12" s="127"/>
       <c r="V12" s="140"/>
       <c r="W12" s="21"/>
       <c r="X12" s="18"/>
@@ -8233,12 +8222,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="17" t="s">
         <v>104</v>
       </c>
@@ -8254,8 +8243,8 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="125"/>
+      <c r="T13" s="127"/>
+      <c r="U13" s="127"/>
       <c r="V13" s="140"/>
       <c r="W13" s="21"/>
       <c r="X13" s="18"/>
@@ -8305,12 +8294,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="17" t="s">
         <v>95</v>
       </c>
@@ -8326,13 +8315,13 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="125" t="s">
+      <c r="T14" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="125"/>
+      <c r="U14" s="127"/>
       <c r="V14" s="140"/>
       <c r="W14" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
@@ -8381,14 +8370,14 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -8402,8 +8391,8 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
       <c r="V15" s="140"/>
       <c r="W15" s="21"/>
       <c r="X15" s="18"/>
@@ -8453,12 +8442,12 @@
       <c r="BP15" s="24"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="17" t="s">
         <v>67</v>
       </c>
@@ -8474,10 +8463,10 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="125" t="s">
+      <c r="T16" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="125"/>
+      <c r="U16" s="127"/>
       <c r="V16" s="140"/>
       <c r="W16" s="21"/>
       <c r="X16" s="18"/>
@@ -8527,12 +8516,12 @@
       <c r="BP16" s="24"/>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="17" t="s">
         <v>92</v>
       </c>
@@ -8548,13 +8537,13 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="125" t="s">
+      <c r="T17" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="125"/>
+      <c r="U17" s="127"/>
       <c r="V17" s="140"/>
       <c r="W17" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
@@ -8603,12 +8592,12 @@
       <c r="BP17" s="24"/>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="17" t="s">
         <v>93</v>
       </c>
@@ -8624,13 +8613,13 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="125" t="s">
+      <c r="T18" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="125"/>
+      <c r="U18" s="127"/>
       <c r="V18" s="140"/>
       <c r="W18" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
@@ -8690,90 +8679,90 @@
       <c r="AG20" s="16"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="125" t="s">
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="125"/>
-      <c r="T21" s="125" t="s">
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="125"/>
-      <c r="V21" s="125"/>
-      <c r="W21" s="65" t="s">
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="65"/>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="65"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="65"/>
-      <c r="AP21" s="65"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="65"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
-      <c r="AZ21" s="65"/>
-      <c r="BA21" s="65"/>
-      <c r="BB21" s="65"/>
-      <c r="BC21" s="65"/>
-      <c r="BD21" s="65"/>
-      <c r="BE21" s="65"/>
-      <c r="BF21" s="65"/>
-      <c r="BG21" s="65"/>
-      <c r="BH21" s="65"/>
-      <c r="BI21" s="65"/>
-      <c r="BJ21" s="65" t="s">
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="102"/>
+      <c r="AF21" s="102"/>
+      <c r="AG21" s="102"/>
+      <c r="AH21" s="102"/>
+      <c r="AI21" s="102"/>
+      <c r="AJ21" s="102"/>
+      <c r="AK21" s="102"/>
+      <c r="AL21" s="102"/>
+      <c r="AM21" s="102"/>
+      <c r="AN21" s="102"/>
+      <c r="AO21" s="102"/>
+      <c r="AP21" s="102"/>
+      <c r="AQ21" s="102"/>
+      <c r="AR21" s="102"/>
+      <c r="AS21" s="102"/>
+      <c r="AT21" s="102"/>
+      <c r="AU21" s="102"/>
+      <c r="AV21" s="102"/>
+      <c r="AW21" s="102"/>
+      <c r="AX21" s="102"/>
+      <c r="AY21" s="102"/>
+      <c r="AZ21" s="102"/>
+      <c r="BA21" s="102"/>
+      <c r="BB21" s="102"/>
+      <c r="BC21" s="102"/>
+      <c r="BD21" s="102"/>
+      <c r="BE21" s="102"/>
+      <c r="BF21" s="102"/>
+      <c r="BG21" s="102"/>
+      <c r="BH21" s="102"/>
+      <c r="BI21" s="102"/>
+      <c r="BJ21" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="BK21" s="65"/>
-      <c r="BL21" s="65"/>
-      <c r="BM21" s="65"/>
-      <c r="BN21" s="65"/>
-      <c r="BO21" s="65"/>
-      <c r="BP21" s="65"/>
+      <c r="BK21" s="102"/>
+      <c r="BL21" s="102"/>
+      <c r="BM21" s="102"/>
+      <c r="BN21" s="102"/>
+      <c r="BO21" s="102"/>
+      <c r="BP21" s="102"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
       <c r="G22" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -8787,9 +8776,9 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="20"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
+      <c r="T22" s="127"/>
+      <c r="U22" s="127"/>
+      <c r="V22" s="127"/>
       <c r="W22" s="21" t="s">
         <v>66</v>
       </c>
@@ -9140,7 +9129,7 @@
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="C32" s="29"/>
       <c r="J32" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AP32" s="40"/>
       <c r="AQ32" s="40"/>
@@ -9199,7 +9188,7 @@
     <row r="35" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C35" s="29"/>
       <c r="J35" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BP35" s="30"/>
       <c r="BQ35" s="13"/>
@@ -9214,7 +9203,7 @@
     <row r="37" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C37" s="29"/>
       <c r="J37" s="13" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="BP37" s="30"/>
       <c r="BQ37" s="13"/>
@@ -9222,15 +9211,16 @@
     </row>
     <row r="38" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C38" s="29"/>
+      <c r="J38" s="40" t="s">
+        <v>187</v>
+      </c>
       <c r="BP38" s="30"/>
       <c r="BQ38" s="13"/>
       <c r="BR38" s="12"/>
     </row>
     <row r="39" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C39" s="29"/>
-      <c r="J39" s="13" t="s">
-        <v>116</v>
-      </c>
+      <c r="J39" s="40"/>
       <c r="BP39" s="30"/>
       <c r="BQ39" s="13"/>
       <c r="BR39" s="12"/>
@@ -9238,7 +9228,7 @@
     <row r="40" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C40" s="29"/>
       <c r="J40" s="40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BP40" s="30"/>
       <c r="BQ40" s="13"/>
@@ -9246,7 +9236,9 @@
     </row>
     <row r="41" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C41" s="29"/>
-      <c r="J41" s="40"/>
+      <c r="J41" s="40" t="s">
+        <v>188</v>
+      </c>
       <c r="BP41" s="30"/>
       <c r="BQ41" s="13"/>
       <c r="BR41" s="12"/>
@@ -9254,7 +9246,7 @@
     <row r="42" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C42" s="29"/>
       <c r="J42" s="40" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="BP42" s="30"/>
       <c r="BQ42" s="13"/>
@@ -9262,9 +9254,7 @@
     </row>
     <row r="43" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C43" s="29"/>
-      <c r="J43" s="40" t="s">
-        <v>177</v>
-      </c>
+      <c r="J43" s="40"/>
       <c r="BP43" s="30"/>
       <c r="BQ43" s="13"/>
       <c r="BR43" s="12"/>
@@ -9272,7 +9262,7 @@
     <row r="44" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C44" s="29"/>
       <c r="J44" s="40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BP44" s="30"/>
       <c r="BQ44" s="13"/>
@@ -9280,7 +9270,9 @@
     </row>
     <row r="45" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C45" s="29"/>
-      <c r="J45" s="40"/>
+      <c r="J45" s="40" t="s">
+        <v>189</v>
+      </c>
       <c r="BP45" s="30"/>
       <c r="BQ45" s="13"/>
       <c r="BR45" s="12"/>
@@ -9288,7 +9280,7 @@
     <row r="46" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C46" s="29"/>
       <c r="J46" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BP46" s="30"/>
       <c r="BQ46" s="13"/>
@@ -9296,9 +9288,7 @@
     </row>
     <row r="47" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C47" s="29"/>
-      <c r="J47" s="40" t="s">
-        <v>179</v>
-      </c>
+      <c r="J47" s="40"/>
       <c r="BP47" s="30"/>
       <c r="BQ47" s="13"/>
       <c r="BR47" s="12"/>
@@ -9306,7 +9296,7 @@
     <row r="48" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C48" s="29"/>
       <c r="J48" s="40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="BP48" s="30"/>
       <c r="BQ48" s="13"/>
@@ -9314,7 +9304,9 @@
     </row>
     <row r="49" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C49" s="29"/>
-      <c r="J49" s="40"/>
+      <c r="J49" s="40" t="s">
+        <v>190</v>
+      </c>
       <c r="BP49" s="30"/>
       <c r="BQ49" s="13"/>
       <c r="BR49" s="12"/>
@@ -9322,7 +9314,7 @@
     <row r="50" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C50" s="29"/>
       <c r="J50" s="40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="BP50" s="30"/>
       <c r="BQ50" s="13"/>
@@ -9330,9 +9322,7 @@
     </row>
     <row r="51" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C51" s="29"/>
-      <c r="J51" s="40" t="s">
-        <v>184</v>
-      </c>
+      <c r="J51" s="40"/>
       <c r="BP51" s="30"/>
       <c r="BQ51" s="13"/>
       <c r="BR51" s="12"/>
@@ -9340,7 +9330,7 @@
     <row r="52" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C52" s="29"/>
       <c r="J52" s="40" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BP52" s="30"/>
       <c r="BQ52" s="13"/>
@@ -9348,7 +9338,9 @@
     </row>
     <row r="53" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C53" s="29"/>
-      <c r="J53" s="40"/>
+      <c r="J53" s="40" t="s">
+        <v>191</v>
+      </c>
       <c r="BP53" s="30"/>
       <c r="BQ53" s="13"/>
       <c r="BR53" s="12"/>
@@ -9356,7 +9348,7 @@
     <row r="54" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C54" s="29"/>
       <c r="J54" s="40" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="BP54" s="30"/>
       <c r="BQ54" s="13"/>
@@ -9364,9 +9356,7 @@
     </row>
     <row r="55" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C55" s="29"/>
-      <c r="J55" s="40" t="s">
-        <v>187</v>
-      </c>
+      <c r="J55" s="40"/>
       <c r="BP55" s="30"/>
       <c r="BQ55" s="13"/>
       <c r="BR55" s="12"/>
@@ -9374,7 +9364,7 @@
     <row r="56" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C56" s="29"/>
       <c r="J56" s="40" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="BP56" s="30"/>
       <c r="BQ56" s="13"/>
@@ -9382,16 +9372,16 @@
     </row>
     <row r="57" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C57" s="29"/>
-      <c r="J57" s="40"/>
+      <c r="J57" s="40" t="s">
+        <v>192</v>
+      </c>
       <c r="BP57" s="30"/>
       <c r="BQ57" s="13"/>
       <c r="BR57" s="12"/>
     </row>
     <row r="58" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C58" s="29"/>
-      <c r="J58" s="40" t="s">
-        <v>115</v>
-      </c>
+      <c r="J58" s="40"/>
       <c r="BP58" s="30"/>
       <c r="BQ58" s="13"/>
       <c r="BR58" s="12"/>
@@ -9399,7 +9389,7 @@
     <row r="59" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C59" s="29"/>
       <c r="J59" s="40" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="BP59" s="30"/>
       <c r="BQ59" s="13"/>
@@ -9414,8 +9404,8 @@
     </row>
     <row r="61" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C61" s="29"/>
-      <c r="J61" s="40" t="s">
-        <v>106</v>
+      <c r="D61" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="BP61" s="30"/>
       <c r="BQ61" s="13"/>
@@ -9423,31 +9413,32 @@
     </row>
     <row r="62" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C62" s="29"/>
-      <c r="J62" s="40"/>
+      <c r="J62" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="BP62" s="30"/>
       <c r="BQ62" s="13"/>
       <c r="BR62" s="12"/>
     </row>
     <row r="63" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C63" s="29"/>
-      <c r="J63" s="40" t="s">
-        <v>190</v>
-      </c>
       <c r="BP63" s="30"/>
       <c r="BQ63" s="13"/>
       <c r="BR63" s="12"/>
     </row>
     <row r="64" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C64" s="29"/>
-      <c r="J64" s="40"/>
+      <c r="D64" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="BP64" s="30"/>
       <c r="BQ64" s="13"/>
       <c r="BR64" s="12"/>
     </row>
     <row r="65" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C65" s="29"/>
-      <c r="D65" s="13" t="s">
-        <v>62</v>
+      <c r="J65" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="BP65" s="30"/>
       <c r="BQ65" s="13"/>
@@ -9456,7 +9447,7 @@
     <row r="66" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C66" s="29"/>
       <c r="J66" s="13" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="BP66" s="30"/>
       <c r="BQ66" s="13"/>
@@ -9464,14 +9455,17 @@
     </row>
     <row r="67" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C67" s="29"/>
+      <c r="J67" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="BP67" s="30"/>
       <c r="BQ67" s="13"/>
       <c r="BR67" s="12"/>
     </row>
     <row r="68" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C68" s="29"/>
-      <c r="D68" s="13" t="s">
-        <v>63</v>
+      <c r="J68" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="BP68" s="30"/>
       <c r="BQ68" s="13"/>
@@ -9479,9 +9473,6 @@
     </row>
     <row r="69" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C69" s="29"/>
-      <c r="J69" s="13" t="s">
-        <v>191</v>
-      </c>
       <c r="BP69" s="30"/>
       <c r="BQ69" s="13"/>
       <c r="BR69" s="12"/>
@@ -9489,7 +9480,7 @@
     <row r="70" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C70" s="29"/>
       <c r="J70" s="13" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="BP70" s="30"/>
       <c r="BQ70" s="13"/>
@@ -9498,7 +9489,7 @@
     <row r="71" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C71" s="29"/>
       <c r="J71" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BP71" s="30"/>
       <c r="BQ71" s="13"/>
@@ -9506,9 +9497,7 @@
     </row>
     <row r="72" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C72" s="29"/>
-      <c r="J72" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="AD72" s="13"/>
       <c r="BP72" s="30"/>
       <c r="BQ72" s="13"/>
       <c r="BR72" s="12"/>
@@ -9521,180 +9510,165 @@
     </row>
     <row r="74" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C74" s="29"/>
-      <c r="J74" s="13" t="s">
-        <v>114</v>
-      </c>
       <c r="BP74" s="30"/>
       <c r="BQ74" s="13"/>
       <c r="BR74" s="12"/>
     </row>
     <row r="75" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C75" s="29"/>
-      <c r="J75" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="BP75" s="30"/>
       <c r="BQ75" s="13"/>
       <c r="BR75" s="12"/>
     </row>
     <row r="76" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C76" s="29"/>
-      <c r="AD76" s="13"/>
       <c r="BP76" s="30"/>
       <c r="BQ76" s="13"/>
       <c r="BR76" s="12"/>
     </row>
     <row r="77" spans="3:70" x14ac:dyDescent="0.2">
-      <c r="C77" s="29"/>
-      <c r="BP77" s="30"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="32"/>
+      <c r="Q77" s="32"/>
+      <c r="R77" s="32"/>
+      <c r="S77" s="32"/>
+      <c r="T77" s="32"/>
+      <c r="U77" s="32"/>
+      <c r="V77" s="32"/>
+      <c r="W77" s="32"/>
+      <c r="X77" s="32"/>
+      <c r="Y77" s="32"/>
+      <c r="Z77" s="32"/>
+      <c r="AA77" s="32"/>
+      <c r="AB77" s="32"/>
+      <c r="AC77" s="32"/>
+      <c r="AD77" s="45"/>
+      <c r="AE77" s="32"/>
+      <c r="AF77" s="32"/>
+      <c r="AG77" s="32"/>
+      <c r="AH77" s="32"/>
+      <c r="AI77" s="32"/>
+      <c r="AJ77" s="32"/>
+      <c r="AK77" s="32"/>
+      <c r="AL77" s="32"/>
+      <c r="AM77" s="32"/>
+      <c r="AN77" s="32"/>
+      <c r="AO77" s="32"/>
+      <c r="AP77" s="32"/>
+      <c r="AQ77" s="32"/>
+      <c r="AR77" s="32"/>
+      <c r="AS77" s="32"/>
+      <c r="AT77" s="32"/>
+      <c r="AU77" s="32"/>
+      <c r="AV77" s="32"/>
+      <c r="AW77" s="32"/>
+      <c r="AX77" s="32"/>
+      <c r="AY77" s="32"/>
+      <c r="AZ77" s="32"/>
+      <c r="BA77" s="32"/>
+      <c r="BB77" s="32"/>
+      <c r="BC77" s="32"/>
+      <c r="BD77" s="32"/>
+      <c r="BE77" s="32"/>
+      <c r="BF77" s="32"/>
+      <c r="BG77" s="32"/>
+      <c r="BH77" s="32"/>
+      <c r="BI77" s="32"/>
+      <c r="BJ77" s="32"/>
+      <c r="BK77" s="32"/>
+      <c r="BL77" s="32"/>
+      <c r="BM77" s="32"/>
+      <c r="BN77" s="32"/>
+      <c r="BO77" s="32"/>
+      <c r="BP77" s="33"/>
       <c r="BQ77" s="13"/>
       <c r="BR77" s="12"/>
     </row>
     <row r="78" spans="3:70" x14ac:dyDescent="0.2">
-      <c r="C78" s="29"/>
-      <c r="BP78" s="30"/>
       <c r="BQ78" s="13"/>
       <c r="BR78" s="12"/>
     </row>
     <row r="79" spans="3:70" x14ac:dyDescent="0.2">
-      <c r="C79" s="29"/>
-      <c r="BP79" s="30"/>
       <c r="BQ79" s="13"/>
       <c r="BR79" s="12"/>
     </row>
     <row r="80" spans="3:70" x14ac:dyDescent="0.2">
-      <c r="C80" s="29"/>
-      <c r="BP80" s="30"/>
       <c r="BQ80" s="13"/>
       <c r="BR80" s="12"/>
     </row>
-    <row r="81" spans="3:70" x14ac:dyDescent="0.2">
-      <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="32"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="32"/>
-      <c r="O81" s="32"/>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32"/>
-      <c r="R81" s="32"/>
-      <c r="S81" s="32"/>
-      <c r="T81" s="32"/>
-      <c r="U81" s="32"/>
-      <c r="V81" s="32"/>
-      <c r="W81" s="32"/>
-      <c r="X81" s="32"/>
-      <c r="Y81" s="32"/>
-      <c r="Z81" s="32"/>
-      <c r="AA81" s="32"/>
-      <c r="AB81" s="32"/>
-      <c r="AC81" s="32"/>
-      <c r="AD81" s="45"/>
-      <c r="AE81" s="32"/>
-      <c r="AF81" s="32"/>
-      <c r="AG81" s="32"/>
-      <c r="AH81" s="32"/>
-      <c r="AI81" s="32"/>
-      <c r="AJ81" s="32"/>
-      <c r="AK81" s="32"/>
-      <c r="AL81" s="32"/>
-      <c r="AM81" s="32"/>
-      <c r="AN81" s="32"/>
-      <c r="AO81" s="32"/>
-      <c r="AP81" s="32"/>
-      <c r="AQ81" s="32"/>
-      <c r="AR81" s="32"/>
-      <c r="AS81" s="32"/>
-      <c r="AT81" s="32"/>
-      <c r="AU81" s="32"/>
-      <c r="AV81" s="32"/>
-      <c r="AW81" s="32"/>
-      <c r="AX81" s="32"/>
-      <c r="AY81" s="32"/>
-      <c r="AZ81" s="32"/>
-      <c r="BA81" s="32"/>
-      <c r="BB81" s="32"/>
-      <c r="BC81" s="32"/>
-      <c r="BD81" s="32"/>
-      <c r="BE81" s="32"/>
-      <c r="BF81" s="32"/>
-      <c r="BG81" s="32"/>
-      <c r="BH81" s="32"/>
-      <c r="BI81" s="32"/>
-      <c r="BJ81" s="32"/>
-      <c r="BK81" s="32"/>
-      <c r="BL81" s="32"/>
-      <c r="BM81" s="32"/>
-      <c r="BN81" s="32"/>
-      <c r="BO81" s="32"/>
-      <c r="BP81" s="33"/>
+    <row r="81" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ81" s="13"/>
       <c r="BR81" s="12"/>
     </row>
-    <row r="82" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="82" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ82" s="13"/>
       <c r="BR82" s="12"/>
     </row>
-    <row r="83" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="83" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ83" s="13"/>
       <c r="BR83" s="12"/>
     </row>
-    <row r="84" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="84" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ84" s="13"/>
       <c r="BR84" s="12"/>
     </row>
-    <row r="85" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="85" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ85" s="13"/>
       <c r="BR85" s="12"/>
     </row>
-    <row r="86" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="86" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ86" s="13"/>
       <c r="BR86" s="12"/>
     </row>
-    <row r="87" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="87" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ87" s="13"/>
       <c r="BR87" s="12"/>
     </row>
-    <row r="88" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="88" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ88" s="13"/>
       <c r="BR88" s="12"/>
     </row>
-    <row r="89" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="89" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ89" s="13"/>
       <c r="BR89" s="12"/>
     </row>
-    <row r="90" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="90" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ90" s="13"/>
       <c r="BR90" s="12"/>
     </row>
-    <row r="91" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="91" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ91" s="13"/>
       <c r="BR91" s="12"/>
     </row>
-    <row r="92" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="92" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ92" s="13"/>
       <c r="BR92" s="12"/>
     </row>
-    <row r="93" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="93" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ93" s="13"/>
       <c r="BR93" s="12"/>
     </row>
-    <row r="94" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="94" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ94" s="13"/>
       <c r="BR94" s="12"/>
     </row>
-    <row r="95" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="95" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ95" s="13"/>
       <c r="BR95" s="12"/>
     </row>
-    <row r="96" spans="3:70" x14ac:dyDescent="0.2">
+    <row r="96" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ96" s="13"/>
       <c r="BR96" s="12"/>
     </row>
@@ -9722,24 +9696,45 @@
       <c r="BQ102" s="13"/>
       <c r="BR102" s="12"/>
     </row>
-    <row r="103" spans="69:70" x14ac:dyDescent="0.2">
-      <c r="BQ103" s="13"/>
-      <c r="BR103" s="12"/>
-    </row>
-    <row r="104" spans="69:70" x14ac:dyDescent="0.2">
-      <c r="BQ104" s="13"/>
-      <c r="BR104" s="12"/>
-    </row>
-    <row r="105" spans="69:70" x14ac:dyDescent="0.2">
-      <c r="BQ105" s="13"/>
-      <c r="BR105" s="12"/>
-    </row>
-    <row r="106" spans="69:70" x14ac:dyDescent="0.2">
-      <c r="BQ106" s="13"/>
-      <c r="BR106" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="W21:BI21"/>
+    <mergeCell ref="BJ21:BP21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="W10:BI10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -9754,43 +9749,6 @@
     <mergeCell ref="I2:AJ3"/>
     <mergeCell ref="AK2:AS2"/>
     <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W21:BI21"/>
-    <mergeCell ref="BJ21:BP21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -9828,243 +9786,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134" t="s">
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="135" t="s">
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="135"/>
-      <c r="AV1" s="135"/>
-      <c r="AW1" s="135"/>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="135"/>
-      <c r="AZ1" s="135"/>
-      <c r="BA1" s="135"/>
-      <c r="BB1" s="135"/>
-      <c r="BC1" s="135"/>
-      <c r="BD1" s="135"/>
-      <c r="BE1" s="135"/>
-      <c r="BF1" s="135"/>
-      <c r="BG1" s="135"/>
-      <c r="BH1" s="135"/>
-      <c r="BI1" s="135"/>
-      <c r="BJ1" s="135"/>
-      <c r="BK1" s="135"/>
-      <c r="BL1" s="135"/>
-      <c r="BM1" s="135"/>
-      <c r="BN1" s="135"/>
-      <c r="BO1" s="135"/>
-      <c r="BP1" s="135"/>
-      <c r="BQ1" s="135"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="126"/>
+      <c r="AZ1" s="126"/>
+      <c r="BA1" s="126"/>
+      <c r="BB1" s="126"/>
+      <c r="BC1" s="126"/>
+      <c r="BD1" s="126"/>
+      <c r="BE1" s="126"/>
+      <c r="BF1" s="126"/>
+      <c r="BG1" s="126"/>
+      <c r="BH1" s="126"/>
+      <c r="BI1" s="126"/>
+      <c r="BJ1" s="126"/>
+      <c r="BK1" s="126"/>
+      <c r="BL1" s="126"/>
+      <c r="BM1" s="126"/>
+      <c r="BN1" s="126"/>
+      <c r="BO1" s="126"/>
+      <c r="BP1" s="126"/>
+      <c r="BQ1" s="126"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="104" t="s">
+      <c r="A2" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="125" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125" t="s">
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
+      <c r="AR2" s="127"/>
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125" t="s">
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="127"/>
+      <c r="AZ2" s="127"/>
+      <c r="BA2" s="127"/>
+      <c r="BB2" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="136"/>
-      <c r="BK2" s="136"/>
-      <c r="BL2" s="136"/>
-      <c r="BM2" s="136"/>
-      <c r="BN2" s="136"/>
-      <c r="BO2" s="136"/>
-      <c r="BP2" s="136"/>
-      <c r="BQ2" s="136"/>
+      <c r="BC2" s="127"/>
+      <c r="BD2" s="127"/>
+      <c r="BE2" s="127"/>
+      <c r="BF2" s="127"/>
+      <c r="BG2" s="127"/>
+      <c r="BH2" s="127"/>
+      <c r="BI2" s="127"/>
+      <c r="BJ2" s="128"/>
+      <c r="BK2" s="128"/>
+      <c r="BL2" s="128"/>
+      <c r="BM2" s="128"/>
+      <c r="BN2" s="128"/>
+      <c r="BO2" s="128"/>
+      <c r="BP2" s="128"/>
+      <c r="BQ2" s="128"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="137" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="137"/>
-      <c r="AM3" s="137"/>
-      <c r="AN3" s="137"/>
-      <c r="AO3" s="137"/>
-      <c r="AP3" s="137"/>
-      <c r="AQ3" s="137"/>
-      <c r="AR3" s="137"/>
-      <c r="AS3" s="137"/>
-      <c r="AT3" s="138">
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="129"/>
+      <c r="AN3" s="129"/>
+      <c r="AO3" s="129"/>
+      <c r="AP3" s="129"/>
+      <c r="AQ3" s="129"/>
+      <c r="AR3" s="129"/>
+      <c r="AS3" s="129"/>
+      <c r="AT3" s="130">
         <v>45510</v>
       </c>
-      <c r="AU3" s="138"/>
-      <c r="AV3" s="138"/>
-      <c r="AW3" s="138"/>
-      <c r="AX3" s="138"/>
-      <c r="AY3" s="138"/>
-      <c r="AZ3" s="138"/>
-      <c r="BA3" s="138"/>
-      <c r="BB3" s="137" t="s">
+      <c r="AU3" s="130"/>
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="130"/>
+      <c r="BA3" s="130"/>
+      <c r="BB3" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="137"/>
-      <c r="BD3" s="137"/>
-      <c r="BE3" s="137"/>
-      <c r="BF3" s="137"/>
-      <c r="BG3" s="137"/>
-      <c r="BH3" s="137"/>
-      <c r="BI3" s="137"/>
-      <c r="BJ3" s="139"/>
-      <c r="BK3" s="139"/>
-      <c r="BL3" s="139"/>
-      <c r="BM3" s="139"/>
-      <c r="BN3" s="139"/>
-      <c r="BO3" s="139"/>
-      <c r="BP3" s="139"/>
-      <c r="BQ3" s="139"/>
+      <c r="BC3" s="129"/>
+      <c r="BD3" s="129"/>
+      <c r="BE3" s="129"/>
+      <c r="BF3" s="129"/>
+      <c r="BG3" s="129"/>
+      <c r="BH3" s="129"/>
+      <c r="BI3" s="129"/>
+      <c r="BJ3" s="131"/>
+      <c r="BK3" s="131"/>
+      <c r="BL3" s="131"/>
+      <c r="BM3" s="131"/>
+      <c r="BN3" s="131"/>
+      <c r="BO3" s="131"/>
+      <c r="BP3" s="131"/>
+      <c r="BQ3" s="131"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -10089,20 +10047,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65" t="s">
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="132" t="s">
         <v>28</v>
       </c>
@@ -10133,52 +10091,52 @@
       <c r="AL6" s="132"/>
       <c r="AM6" s="132"/>
       <c r="AN6" s="132"/>
-      <c r="AO6" s="66" t="s">
+      <c r="AO6" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="66" t="s">
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="66"/>
-      <c r="AY6" s="66"/>
-      <c r="AZ6" s="66"/>
-      <c r="BA6" s="66"/>
-      <c r="BB6" s="66"/>
-      <c r="BC6" s="66"/>
-      <c r="BD6" s="66"/>
-      <c r="BE6" s="66"/>
-      <c r="BF6" s="66"/>
-      <c r="BG6" s="66"/>
-      <c r="BH6" s="66"/>
-      <c r="BI6" s="66"/>
-      <c r="BJ6" s="66"/>
-      <c r="BK6" s="66"/>
-      <c r="BL6" s="66"/>
-      <c r="BM6" s="66"/>
-      <c r="BN6" s="66"/>
-      <c r="BO6" s="66"/>
-      <c r="BP6" s="66"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="17" t="s">
         <v>80</v>
       </c>
@@ -10209,38 +10167,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="66" t="s">
+      <c r="AO7" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66" t="s">
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
-      <c r="BA7" s="66"/>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="66"/>
-      <c r="BD7" s="66"/>
-      <c r="BE7" s="66"/>
-      <c r="BF7" s="66"/>
-      <c r="BG7" s="66"/>
-      <c r="BH7" s="66"/>
-      <c r="BI7" s="66"/>
-      <c r="BJ7" s="66"/>
-      <c r="BK7" s="66"/>
-      <c r="BL7" s="66"/>
-      <c r="BM7" s="66"/>
-      <c r="BN7" s="66"/>
-      <c r="BO7" s="66"/>
-      <c r="BP7" s="66"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
+      <c r="BJ7" s="105"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
+      <c r="BP7" s="105"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -10254,91 +10212,91 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="125" t="s">
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125" t="s">
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="64"/>
-      <c r="AX10" s="64"/>
-      <c r="AY10" s="64"/>
-      <c r="AZ10" s="64"/>
-      <c r="BA10" s="64"/>
-      <c r="BB10" s="64"/>
-      <c r="BC10" s="64"/>
-      <c r="BD10" s="64"/>
-      <c r="BE10" s="64"/>
-      <c r="BF10" s="64"/>
-      <c r="BG10" s="64"/>
-      <c r="BH10" s="64"/>
-      <c r="BI10" s="131"/>
-      <c r="BJ10" s="65" t="s">
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
+      <c r="AY10" s="113"/>
+      <c r="AZ10" s="113"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="113"/>
+      <c r="BC10" s="113"/>
+      <c r="BD10" s="113"/>
+      <c r="BE10" s="113"/>
+      <c r="BF10" s="113"/>
+      <c r="BG10" s="113"/>
+      <c r="BH10" s="113"/>
+      <c r="BI10" s="134"/>
+      <c r="BJ10" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="65"/>
-      <c r="BL10" s="65"/>
-      <c r="BM10" s="65"/>
-      <c r="BN10" s="65"/>
-      <c r="BO10" s="65"/>
-      <c r="BP10" s="65"/>
+      <c r="BK10" s="102"/>
+      <c r="BL10" s="102"/>
+      <c r="BM10" s="102"/>
+      <c r="BN10" s="102"/>
+      <c r="BO10" s="102"/>
+      <c r="BP10" s="102"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -10352,13 +10310,13 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="125" t="s">
+      <c r="T11" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
       <c r="W11" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X11" s="52"/>
       <c r="Y11" s="52"/>
@@ -10408,14 +10366,14 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="124" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
+      <c r="C12" s="138" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -10429,11 +10387,11 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="125"/>
-      <c r="V12" s="125"/>
+      <c r="T12" s="127"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
       <c r="W12" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X12" s="52"/>
       <c r="Y12" s="52"/>
@@ -10483,13 +10441,13 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C13" s="141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="142"/>
       <c r="E13" s="142"/>
       <c r="F13" s="143"/>
       <c r="G13" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -10503,11 +10461,11 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
+      <c r="T13" s="127"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
       <c r="W13" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X13" s="52"/>
       <c r="Y13" s="52"/>
@@ -10556,10 +10514,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -10573,9 +10531,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="125"/>
-      <c r="U14" s="125"/>
-      <c r="V14" s="125"/>
+      <c r="T14" s="127"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="127"/>
       <c r="W14" s="51"/>
       <c r="X14" s="52"/>
       <c r="Y14" s="52"/>
@@ -10625,10 +10583,10 @@
     </row>
     <row r="15" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -10642,9 +10600,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
-      <c r="V15" s="125"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
       <c r="W15" s="51"/>
       <c r="X15" s="52"/>
       <c r="Y15" s="52"/>
@@ -10695,10 +10653,10 @@
     </row>
     <row r="16" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -10712,9 +10670,9 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
       <c r="W16" s="51"/>
       <c r="X16" s="52"/>
       <c r="Y16" s="52"/>
@@ -10778,92 +10736,92 @@
     </row>
     <row r="19" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="125" t="s">
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125" t="s">
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="125"/>
-      <c r="V19" s="125"/>
-      <c r="W19" s="65" t="s">
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="65"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="65" t="s">
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="102"/>
+      <c r="AF19" s="102"/>
+      <c r="AG19" s="102"/>
+      <c r="AH19" s="102"/>
+      <c r="AI19" s="102"/>
+      <c r="AJ19" s="102"/>
+      <c r="AK19" s="102"/>
+      <c r="AL19" s="102"/>
+      <c r="AM19" s="102"/>
+      <c r="AN19" s="102"/>
+      <c r="AO19" s="102"/>
+      <c r="AP19" s="102"/>
+      <c r="AQ19" s="102"/>
+      <c r="AR19" s="102"/>
+      <c r="AS19" s="102"/>
+      <c r="AT19" s="102"/>
+      <c r="AU19" s="102"/>
+      <c r="AV19" s="102"/>
+      <c r="AW19" s="102"/>
+      <c r="AX19" s="102"/>
+      <c r="AY19" s="102"/>
+      <c r="AZ19" s="102"/>
+      <c r="BA19" s="102"/>
+      <c r="BB19" s="102"/>
+      <c r="BC19" s="102"/>
+      <c r="BD19" s="102"/>
+      <c r="BE19" s="102"/>
+      <c r="BF19" s="102"/>
+      <c r="BG19" s="102"/>
+      <c r="BH19" s="102"/>
+      <c r="BI19" s="102"/>
+      <c r="BJ19" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="BK19" s="65"/>
-      <c r="BL19" s="65"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="65"/>
-      <c r="BO19" s="65"/>
-      <c r="BP19" s="65"/>
+      <c r="BK19" s="102"/>
+      <c r="BL19" s="102"/>
+      <c r="BM19" s="102"/>
+      <c r="BN19" s="102"/>
+      <c r="BO19" s="102"/>
+      <c r="BP19" s="102"/>
       <c r="BQ19" s="15"/>
     </row>
     <row r="20" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
       <c r="G20" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -10877,11 +10835,11 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="20"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="125"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
       <c r="W20" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
@@ -11172,7 +11130,7 @@
       <c r="A27" s="12"/>
       <c r="C27" s="29"/>
       <c r="I27" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG27" s="16"/>
       <c r="BP27" s="30"/>
@@ -11182,7 +11140,7 @@
       <c r="A28" s="12"/>
       <c r="C28" s="29"/>
       <c r="I28" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG28" s="16"/>
       <c r="BP28" s="30"/>
@@ -11192,7 +11150,7 @@
       <c r="A29" s="12"/>
       <c r="C29" s="29"/>
       <c r="I29" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG29" s="16"/>
       <c r="BP29" s="30"/>
@@ -11202,7 +11160,7 @@
       <c r="A30" s="12"/>
       <c r="C30" s="29"/>
       <c r="I30" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG30" s="16"/>
       <c r="BP30" s="30"/>
@@ -11229,7 +11187,7 @@
       <c r="A33" s="12"/>
       <c r="C33" s="29"/>
       <c r="I33" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG33" s="16"/>
       <c r="BP33" s="30"/>
@@ -11298,7 +11256,7 @@
       <c r="A42" s="12"/>
       <c r="C42" s="29"/>
       <c r="I42" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG42" s="16"/>
       <c r="BP42" s="30"/>
@@ -11308,7 +11266,7 @@
       <c r="A43" s="12"/>
       <c r="C43" s="29"/>
       <c r="I43" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG43" s="16"/>
       <c r="BP43" s="30"/>
@@ -11325,7 +11283,7 @@
       <c r="A45" s="12"/>
       <c r="C45" s="29"/>
       <c r="I45" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG45" s="16"/>
       <c r="BP45" s="30"/>
@@ -11335,7 +11293,7 @@
       <c r="A46" s="12"/>
       <c r="C46" s="29"/>
       <c r="I46" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG46" s="16"/>
       <c r="BP46" s="30"/>
@@ -11345,7 +11303,7 @@
       <c r="A47" s="12"/>
       <c r="C47" s="29"/>
       <c r="I47" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG47" s="16"/>
       <c r="BP47" s="30"/>
@@ -11355,7 +11313,7 @@
       <c r="A48" s="12"/>
       <c r="C48" s="29"/>
       <c r="I48" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG48" s="16"/>
       <c r="BP48" s="30"/>
@@ -11365,7 +11323,7 @@
       <c r="A49" s="12"/>
       <c r="C49" s="29"/>
       <c r="I49" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG49" s="16"/>
       <c r="BP49" s="30"/>
@@ -11382,7 +11340,7 @@
       <c r="A51" s="12"/>
       <c r="C51" s="29"/>
       <c r="I51" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG51" s="16"/>
       <c r="BP51" s="30"/>
@@ -11392,7 +11350,7 @@
       <c r="A52" s="12"/>
       <c r="C52" s="29"/>
       <c r="I52" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG52" s="16"/>
       <c r="BP52" s="30"/>
@@ -11402,7 +11360,7 @@
       <c r="A53" s="12"/>
       <c r="C53" s="29"/>
       <c r="I53" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG53" s="16"/>
       <c r="BP53" s="30"/>
@@ -11412,7 +11370,7 @@
       <c r="A54" s="12"/>
       <c r="C54" s="29"/>
       <c r="I54" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG54" s="16"/>
       <c r="BP54" s="30"/>
@@ -11422,7 +11380,7 @@
       <c r="A55" s="12"/>
       <c r="C55" s="29"/>
       <c r="I55" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG55" s="16"/>
       <c r="BP55" s="30"/>
@@ -12507,7 +12465,7 @@
     <row r="64" spans="1:1027" x14ac:dyDescent="0.2">
       <c r="C64" s="29"/>
       <c r="I64" s="13" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="BP64" s="30"/>
     </row>
@@ -12581,6 +12539,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="W19:BI19"/>
+    <mergeCell ref="BJ19:BP19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -12595,39 +12586,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W19:BI19"/>
-    <mergeCell ref="BJ19:BP19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -12691,12 +12649,12 @@
   <sheetData>
     <row r="2" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="145"/>
       <c r="D3" s="145"/>
@@ -12708,14 +12666,14 @@
       <c r="J3" s="145"/>
       <c r="K3" s="146"/>
       <c r="L3" s="144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M3" s="145"/>
       <c r="N3" s="145"/>
       <c r="O3" s="145"/>
       <c r="P3" s="146"/>
       <c r="Q3" s="144" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R3" s="145"/>
       <c r="S3" s="145"/>
@@ -12752,10 +12710,10 @@
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="56"/>
       <c r="E4" s="56"/>
@@ -12766,14 +12724,14 @@
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
       <c r="L4" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M4" s="56"/>
       <c r="N4" s="56"/>
       <c r="O4" s="56"/>
       <c r="P4" s="58"/>
       <c r="Q4" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R4" s="56"/>
       <c r="S4" s="56"/>
@@ -12860,10 +12818,10 @@
     </row>
     <row r="6" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="56"/>
       <c r="E6" s="56"/>
@@ -12874,14 +12832,14 @@
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
       <c r="L6" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M6" s="56"/>
       <c r="N6" s="56"/>
       <c r="O6" s="56"/>
       <c r="P6" s="58"/>
       <c r="Q6" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R6" s="56"/>
       <c r="S6" s="56"/>
@@ -12968,10 +12926,10 @@
     </row>
     <row r="8" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
@@ -12982,14 +12940,14 @@
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
       <c r="L8" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M8" s="56"/>
       <c r="N8" s="56"/>
       <c r="O8" s="56"/>
       <c r="P8" s="58"/>
       <c r="Q8" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
@@ -13076,10 +13034,10 @@
     </row>
     <row r="10" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
@@ -13090,14 +13048,14 @@
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M10" s="56"/>
       <c r="N10" s="56"/>
       <c r="O10" s="56"/>
       <c r="P10" s="58"/>
       <c r="Q10" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R10" s="56"/>
       <c r="S10" s="56"/>
@@ -13184,10 +13142,10 @@
     </row>
     <row r="12" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
@@ -13198,14 +13156,14 @@
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
       <c r="L12" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M12" s="56"/>
       <c r="N12" s="56"/>
       <c r="O12" s="56"/>
       <c r="P12" s="58"/>
       <c r="Q12" s="56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R12" s="56"/>
       <c r="S12" s="56"/>
@@ -13292,10 +13250,10 @@
     </row>
     <row r="14" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
@@ -13306,14 +13264,14 @@
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
       <c r="L14" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M14" s="56"/>
       <c r="N14" s="56"/>
       <c r="O14" s="56"/>
       <c r="P14" s="58"/>
       <c r="Q14" s="56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R14" s="56"/>
       <c r="S14" s="56"/>
@@ -13400,10 +13358,10 @@
     </row>
     <row r="16" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
@@ -13414,14 +13372,14 @@
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
       <c r="L16" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M16" s="56"/>
       <c r="N16" s="56"/>
       <c r="O16" s="56"/>
       <c r="P16" s="58"/>
       <c r="Q16" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R16" s="56"/>
       <c r="S16" s="56"/>

--- a/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF054A3-45ED-4076-AECF-2D57A9B5A887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9046A5F9-CCE0-4DCA-A00B-1648B074D70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="0" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="30" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_交通費申請マッパー" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="198">
   <si>
     <t>システム名</t>
   </si>
@@ -332,14 +332,14 @@
     <rPh sb="26" eb="27">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>嵯峨</t>
     <rPh sb="0" eb="2">
       <t>サガ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>項目検索交通費申請情報</t>
@@ -355,7 +355,7 @@
     <rPh sb="7" eb="11">
       <t>シンセイジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>初期表示に必要なデータを取得</t>
@@ -368,21 +368,21 @@
     <rPh sb="12" eb="14">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>抽出項目</t>
     <rPh sb="0" eb="4">
       <t>チュウシュツコウモク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>抽出条件</t>
@@ -392,7 +392,7 @@
     <rPh sb="2" eb="4">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>集計条件</t>
@@ -402,45 +402,45 @@
     <rPh sb="2" eb="4">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ソート順</t>
     <rPh sb="3" eb="4">
       <t>ジュン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数1-1</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>検索結果</t>
     <rPh sb="0" eb="4">
       <t>ケンサクケッカ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>昇順降順フラグ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数１</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数1ｰ1</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数1ｰ2</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数1ｰ4</t>
@@ -459,11 +459,11 @@
     <rPh sb="9" eb="11">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数1-2</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>検索条件によって検索処理を行う</t>
@@ -482,11 +482,11 @@
     <rPh sb="13" eb="14">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>申請年取得</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>検索処理のプルダウンに使用。申請履歴がある年を取得する</t>
@@ -508,7 +508,7 @@
     <rPh sb="23" eb="25">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>申請年取得</t>
@@ -521,11 +521,11 @@
     <rPh sb="3" eb="5">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>メインクエリ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>利用年</t>
@@ -535,7 +535,7 @@
     <rPh sb="2" eb="3">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>申請年</t>
@@ -545,14 +545,14 @@
     <rPh sb="2" eb="3">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>承認年</t>
     <rPh sb="0" eb="3">
       <t>ショウニンネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>支給年</t>
@@ -562,7 +562,7 @@
     <rPh sb="2" eb="3">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>交通費申請マッパー</t>
@@ -572,7 +572,7 @@
     <rPh sb="3" eb="5">
       <t>シンセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>初期表示データ取得交通費申請一覧</t>
@@ -594,14 +594,14 @@
     <rPh sb="14" eb="16">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>交通費請求機能</t>
     <rPh sb="0" eb="7">
       <t>コウツウヒセイキュウキノウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>初期表示データ取得交通費申請一覧</t>
@@ -611,18 +611,18 @@
     <rPh sb="7" eb="9">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>交通費申請テーブルのマッパークラス</t>
     <rPh sb="0" eb="5">
       <t>コウツウヒシンセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数1-3</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>検索範囲開始日</t>
@@ -635,7 +635,7 @@
     <rPh sb="4" eb="7">
       <t>カイシビ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>検索範囲終了日</t>
@@ -648,7 +648,7 @@
     <rPh sb="4" eb="7">
       <t>シュウリョウビ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数2ｰ3</t>
@@ -667,7 +667,7 @@
     <rPh sb="5" eb="8">
       <t>サンショウチ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>の4種のうちいずれか、参照値に対応したデータで昇順ソートする。</t>
@@ -686,39 +686,29 @@
     <rPh sb="23" eb="25">
       <t>ショウジュン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>昇順、降順のどちらかを決定する</t>
-    <rPh sb="0" eb="2">
-      <t>ショウジュン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>SQLException</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>システム名</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">検索条件ParamObj </t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>検索条件ParamObj</t>
     <rPh sb="0" eb="4">
       <t>ケンサクジョウケン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>検索条件ParamObj(初期ステータス取得条件)</t>
@@ -734,7 +724,7 @@
     <rPh sb="22" eb="24">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>検索条件ParamObj(検索条件)</t>
@@ -744,11 +734,11 @@
     <rPh sb="13" eb="17">
       <t>ケンサクジョウケン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>承認ステータスコード</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>交通費申請テーブル全項目</t>
@@ -758,18 +748,18 @@
     <rPh sb="9" eb="12">
       <t>ゼンコウモク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>概要</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>取得情報の範囲を定めるための値</t>
   </si>
   <si>
     <t>リスト&lt;交通費申請エンティティ&gt;</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>初期表示用のSelect結果</t>
@@ -779,32 +769,19 @@
     <rPh sb="12" eb="14">
       <t>ケッカ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>取得情報の範囲を定めるための値</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>申請区分コード</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>（↑上記の４種は、HTMLの検索条件選択の時点で複数選択できない）</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>引数.昇順降順フラグの値を参照し</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数.承認ステータスコードがnullもしくは空文字でない時</t>
@@ -817,7 +794,7 @@
     <rPh sb="27" eb="28">
       <t>トキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数.申請区分コードがnullもしくは空文字でない時</t>
@@ -830,7 +807,7 @@
     <rPh sb="5" eb="7">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>DISTINCT　EXTRACT(YEAR　FROM　利用日)　AS　利用年</t>
@@ -846,7 +823,7 @@
     <rPh sb="37" eb="38">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>EXTRACT(YEAR　FROM　申請日)　AS　申請年</t>
@@ -856,7 +833,7 @@
     <rPh sb="26" eb="29">
       <t>シンセイネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>EXTRACT(YEAR　FROM　承認日)　AS　承認年</t>
@@ -869,7 +846,7 @@
     <rPh sb="28" eb="29">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>EXTRACT(YEAR　FROM　支給日)　AS　支給年</t>
@@ -882,14 +859,14 @@
     <rPh sb="28" eb="29">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>リスト&lt;交通費申請エンティティ&gt;</t>
     <rPh sb="4" eb="9">
       <t>コウツウヒシンセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>検索条件を保持しているParamObject</t>
@@ -920,7 +897,7 @@
     <rPh sb="20" eb="21">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>検索条件ParamObj</t>
@@ -930,43 +907,43 @@
     <rPh sb="2" eb="4">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>変数名</t>
     <rPh sb="0" eb="3">
       <t>ヘンスウメイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>型</t>
     <rPh sb="0" eb="1">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>・</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>承認ステータスコード</t>
     <rPh sb="0" eb="2">
       <t>ショウニン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>申請中、承認、訂正依頼、支払済に紐付けた値</t>
@@ -997,7 +974,7 @@
     <rPh sb="20" eb="21">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>検索指定日参照値</t>
@@ -1007,7 +984,7 @@
     <rPh sb="5" eb="8">
       <t>サンショウチ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>申請日、利用日、承認日、支払日に紐づけた値</t>
@@ -1029,21 +1006,21 @@
     <rPh sb="20" eb="21">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>申請区分</t>
     <rPh sb="0" eb="4">
       <t>シンセイクブン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>昇順降順フラグ</t>
     <rPh sb="0" eb="4">
       <t>ショウジュンコウジュン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>DBに検索行う際の昇順化降順かを選択するフラグ</t>
@@ -1062,18 +1039,18 @@
     <rPh sb="16" eb="18">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>検索範囲開始日</t>
     <rPh sb="0" eb="7">
       <t>ケンサクハンイカイシビ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>期間でDBに検索を行う際の開始値</t>
@@ -1095,14 +1072,14 @@
     <rPh sb="15" eb="16">
       <t>チ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>検索範囲終了日</t>
     <rPh sb="0" eb="7">
       <t>ケンサクハンイシュウリョウビ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>期間でDBに検索を行う際の終了値</t>
@@ -1112,18 +1089,18 @@
     <rPh sb="13" eb="15">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>引数2</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数3</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数.To年の値がnullもしくは空文字でない場合</t>
@@ -1145,7 +1122,7 @@
     <rPh sb="23" eb="25">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数.From年の値がnullもしくは空文字でない場合</t>
@@ -1167,7 +1144,7 @@
     <rPh sb="25" eb="27">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND EXTRACT(YEAR FROM 利用日) &gt;= 引数.From年</t>
@@ -1177,19 +1154,19 @@
     <rPh sb="37" eb="38">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND EXTRACT(YEAR FROM 申請日) &gt;= 引数.From年</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND EXTRACT(YEAR FROM 承認日) &gt;= 引数.From年</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND EXTRACT(YEAR FROM 支給日) &gt;= 引数.From年</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND EXTRACT(YEAR FROM 利用日) &gt;= 引数.To年</t>
@@ -1199,33 +1176,33 @@
     <rPh sb="35" eb="36">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND EXTRACT(YEAR FROM 申請日) &gt;= 引数.To年</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND EXTRACT(YEAR FROM 承認日) &gt;= 引数.To年</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND EXTRACT(YEAR FROM 支給日) &gt;= 引数.To年</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>From年</t>
     <rPh sb="4" eb="5">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>To年</t>
     <rPh sb="2" eb="3">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>現在の日付から最低年数分引いた値</t>
@@ -1250,7 +1227,7 @@
     <rPh sb="15" eb="16">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>現在の年数</t>
@@ -1263,18 +1240,18 @@
     <rPh sb="4" eb="5">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>資料名</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>社員ID</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>ユーザマスタの社員ID、交通費申請テーブルの社員ID</t>
@@ -1290,7 +1267,7 @@
     <rPh sb="22" eb="24">
       <t>シャイン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>検索時に基準とするもの。定期、臨時に紐づけた値、コード分類</t>
@@ -1309,7 +1286,7 @@
     <rPh sb="27" eb="29">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>マッパー設計書_交通費申請</t>
@@ -1322,64 +1299,64 @@
     <rPh sb="11" eb="13">
       <t>シンセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>交通費申請テーブル AS TETable</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>交通費申請テーブル AS TETable</t>
     <rPh sb="0" eb="5">
       <t>コウツウヒシンセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND TETable.申請日 &gt;= 引数.検索範囲開始日</t>
     <rPh sb="19" eb="21">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND TETable.申請日 &lt;= 引数.検索範囲終了日</t>
     <rPh sb="19" eb="21">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND TETable.削除フラグ = "0"</t>
     <rPh sb="12" eb="14">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>TETable.社員ID = 引数.社員ID</t>
     <rPh sb="15" eb="17">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>TETable.社員ID</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>TETable.利用日</t>
     <rPh sb="8" eb="11">
       <t>リヨウビ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>TETable.社員ID=引数.社員ID</t>
     <rPh sb="13" eb="15">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND TETable.支給日 &lt;= 引数.検索範囲終了日</t>
@@ -1389,7 +1366,7 @@
     <rPh sb="19" eb="21">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数.検索指定日参照値がTETable.申請日の値であった場合</t>
@@ -1399,7 +1376,7 @@
     <rPh sb="20" eb="23">
       <t>シンセイビ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数.検索指定日参照値がTETable.支給日の値であった場合</t>
@@ -1427,7 +1404,7 @@
     <rPh sb="29" eb="31">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND TETable.申請日 &lt;= 引数.検索範囲終了日</t>
@@ -1437,7 +1414,7 @@
     <rPh sb="19" eb="21">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数.検索指定日参照値がTETable.利用日の値であった場合</t>
@@ -1447,7 +1424,7 @@
     <rPh sb="20" eb="23">
       <t>リヨウビ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND TETable.利用日 &lt;= 引数.検索範囲終了日</t>
@@ -1457,7 +1434,7 @@
     <rPh sb="19" eb="21">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数.検索指定日参照値がTETable.承認日の値であった場合</t>
@@ -1467,7 +1444,7 @@
     <rPh sb="20" eb="23">
       <t>ショウニンビ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND TETable.承認日 &lt;= 引数.検索範囲終了日</t>
@@ -1477,7 +1454,7 @@
     <rPh sb="19" eb="21">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>引数.検索指定日参照値の値を参照し、</t>
@@ -1502,7 +1479,7 @@
     <rPh sb="14" eb="16">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>TETableの申請日、承認日、支給日、利用日</t>
@@ -1527,7 +1504,7 @@
     <rPh sb="20" eb="23">
       <t>リヨウビ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>TETableの利用日、申請日、承認日、支給日の順でそれぞれで昇順</t>
@@ -1537,7 +1514,7 @@
     <rPh sb="31" eb="33">
       <t>ショウジュン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>検索条件ParamObj(検索条件)、From年、To年</t>
@@ -1553,7 +1530,7 @@
     <rPh sb="27" eb="28">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND TETable.申請区分コード=引数.申請区分コード</t>
@@ -1566,7 +1543,7 @@
     <rPh sb="23" eb="27">
       <t>シンセイクブン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">AND TETable.支給日 &gt;= 引数.検索範囲開始日 </t>
@@ -1576,7 +1553,7 @@
     <rPh sb="19" eb="21">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND TETable.申請日 &gt;= 引数.検索範囲開始日</t>
@@ -1586,7 +1563,7 @@
     <rPh sb="19" eb="21">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">AND TETable.利用日 &gt;= 引数.検索範囲開始日 </t>
@@ -1596,7 +1573,7 @@
     <rPh sb="19" eb="21">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">AND TETable.承認日 &gt;= 引数.検索範囲開始日 </t>
@@ -1606,7 +1583,7 @@
     <rPh sb="19" eb="21">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>AND TETable.承認ステータスコード=引数.承認ステータスコード</t>
@@ -1619,7 +1596,74 @@
     <rPh sb="26" eb="28">
       <t>ショウニン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>引数.昇順降順フラグの値を参照し、</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>昇順降順フラグが”１”の時昇順、昇順降順フラグが"0"の時降順</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>昇順降順フラグが”１”の時昇順、昇順降順フラグが"0"の時降順として、</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>昇順と降順のどちらかを決定する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>昇順であり、</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>昇順とする</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>値が"1"の時は昇順、"0"の時は降順というように設定する。</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -1630,13 +1674,21 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-1030411]ee&quot;年&quot;mm&quot;月&quot;dd&quot;日（&quot;dddd&quot;）&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2152,387 +2204,390 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2835,7 +2890,7 @@
       <c r="G2" s="100"/>
       <c r="H2" s="100"/>
       <c r="I2" s="101" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J2" s="101"/>
       <c r="K2" s="101"/>
@@ -4261,7 +4316,7 @@
       <c r="AC26" s="74"/>
       <c r="AD26" s="75"/>
       <c r="AE26" s="85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF26" s="86"/>
       <c r="AG26" s="86"/>
@@ -4447,7 +4502,7 @@
       <c r="AC28" s="74"/>
       <c r="AD28" s="75"/>
       <c r="AE28" s="85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF28" s="86"/>
       <c r="AG28" s="86"/>
@@ -4633,7 +4688,7 @@
       <c r="AC30" s="86"/>
       <c r="AD30" s="87"/>
       <c r="AE30" s="85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF30" s="86"/>
       <c r="AG30" s="86"/>
@@ -6017,7 +6072,7 @@
     <mergeCell ref="BD28:BJ29"/>
     <mergeCell ref="BK28:BV29"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="M11" xr:uid="{1A1D8800-C998-4F4D-8F9F-629C097FBDE0}">
       <formula1>"class,static class,abstract class"</formula1>
@@ -6071,7 +6126,7 @@
   <dimension ref="A1:AMK45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6481,7 +6536,7 @@
       <c r="AT7" s="105"/>
       <c r="AU7" s="105"/>
       <c r="AV7" s="105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AW7" s="105"/>
       <c r="AX7" s="105"/>
@@ -6541,7 +6596,7 @@
       <c r="U10" s="127"/>
       <c r="V10" s="127"/>
       <c r="W10" s="112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X10" s="113"/>
       <c r="Y10" s="113"/>
@@ -6600,7 +6655,7 @@
       <c r="E11" s="135"/>
       <c r="F11" s="135"/>
       <c r="G11" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -6620,7 +6675,7 @@
       <c r="U11" s="136"/>
       <c r="V11" s="137"/>
       <c r="W11" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="X11" s="52"/>
       <c r="Y11" s="52"/>
@@ -6677,7 +6732,7 @@
       <c r="E12" s="138"/>
       <c r="F12" s="138"/>
       <c r="G12" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -6771,7 +6826,7 @@
       <c r="U13" s="127"/>
       <c r="V13" s="127"/>
       <c r="W13" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X13" s="52"/>
       <c r="Y13" s="52"/>
@@ -6847,7 +6902,7 @@
       <c r="U14" s="127"/>
       <c r="V14" s="127"/>
       <c r="W14" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X14" s="52"/>
       <c r="Y14" s="52"/>
@@ -6990,7 +7045,7 @@
       <c r="E18" s="135"/>
       <c r="F18" s="135"/>
       <c r="G18" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -7008,7 +7063,7 @@
       <c r="U18" s="127"/>
       <c r="V18" s="127"/>
       <c r="W18" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
@@ -7293,7 +7348,7 @@
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C25" s="29"/>
       <c r="J25" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD25" s="13"/>
       <c r="AG25" s="16"/>
@@ -7317,7 +7372,7 @@
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="29"/>
       <c r="J28" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BP28" s="30"/>
     </row>
@@ -7339,28 +7394,28 @@
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C31" s="29"/>
       <c r="H31" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="BP31" s="30"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C32" s="29"/>
       <c r="H32" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BP32" s="30"/>
     </row>
     <row r="33" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C33" s="29"/>
       <c r="H33" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BP33" s="30"/>
     </row>
     <row r="34" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C34" s="29"/>
       <c r="H34" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BP34" s="30"/>
     </row>
@@ -7374,14 +7429,20 @@
     <row r="36" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C36" s="29"/>
       <c r="H36" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="BP36" s="30"/>
     </row>
     <row r="37" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C37" s="29"/>
       <c r="H37" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="BP37" s="30"/>
     </row>
@@ -7506,7 +7567,7 @@
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="T18 T11:T14" xr:uid="{6243CB02-4C26-49AC-8728-D473986D881D}">
       <formula1>"◯,"</formula1>
@@ -7548,7 +7609,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEF7E0F-2382-4600-94E9-7C91FC17ED61}">
-  <dimension ref="A1:AMK102"/>
+  <dimension ref="A1:AMK103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -7567,7 +7628,7 @@
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -7961,7 +8022,7 @@
       <c r="AT7" s="105"/>
       <c r="AU7" s="105"/>
       <c r="AV7" s="105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AW7" s="105"/>
       <c r="AX7" s="105"/>
@@ -8079,7 +8140,7 @@
       <c r="E11" s="135"/>
       <c r="F11" s="135"/>
       <c r="G11" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -8099,7 +8160,7 @@
       <c r="U11" s="127"/>
       <c r="V11" s="140"/>
       <c r="W11" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
@@ -8155,7 +8216,7 @@
       <c r="E12" s="138"/>
       <c r="F12" s="138"/>
       <c r="G12" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -8229,7 +8290,7 @@
       <c r="E13" s="138"/>
       <c r="F13" s="138"/>
       <c r="G13" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -8321,7 +8382,7 @@
       <c r="U14" s="127"/>
       <c r="V14" s="140"/>
       <c r="W14" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
@@ -8377,7 +8438,7 @@
       <c r="E15" s="138"/>
       <c r="F15" s="138"/>
       <c r="G15" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -8468,7 +8529,9 @@
       </c>
       <c r="U16" s="127"/>
       <c r="V16" s="140"/>
-      <c r="W16" s="21"/>
+      <c r="W16" s="21" t="s">
+        <v>192</v>
+      </c>
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
@@ -8543,7 +8606,7 @@
       <c r="U17" s="127"/>
       <c r="V17" s="140"/>
       <c r="W17" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
@@ -8619,7 +8682,7 @@
       <c r="U18" s="127"/>
       <c r="V18" s="140"/>
       <c r="W18" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
@@ -8762,7 +8825,7 @@
       <c r="E22" s="135"/>
       <c r="F22" s="135"/>
       <c r="G22" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -9069,7 +9132,7 @@
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="C29" s="29"/>
       <c r="J29" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD29" s="13"/>
       <c r="AG29" s="16"/>
@@ -9129,7 +9192,7 @@
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="C32" s="29"/>
       <c r="J32" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AP32" s="40"/>
       <c r="AQ32" s="40"/>
@@ -9188,7 +9251,7 @@
     <row r="35" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C35" s="29"/>
       <c r="J35" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="BP35" s="30"/>
       <c r="BQ35" s="13"/>
@@ -9203,7 +9266,7 @@
     <row r="37" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C37" s="29"/>
       <c r="J37" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BP37" s="30"/>
       <c r="BQ37" s="13"/>
@@ -9212,7 +9275,7 @@
     <row r="38" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C38" s="29"/>
       <c r="J38" s="40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BP38" s="30"/>
       <c r="BQ38" s="13"/>
@@ -9228,7 +9291,7 @@
     <row r="40" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C40" s="29"/>
       <c r="J40" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BP40" s="30"/>
       <c r="BQ40" s="13"/>
@@ -9237,7 +9300,7 @@
     <row r="41" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C41" s="29"/>
       <c r="J41" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="BP41" s="30"/>
       <c r="BQ41" s="13"/>
@@ -9246,7 +9309,7 @@
     <row r="42" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C42" s="29"/>
       <c r="J42" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BP42" s="30"/>
       <c r="BQ42" s="13"/>
@@ -9262,7 +9325,7 @@
     <row r="44" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C44" s="29"/>
       <c r="J44" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BP44" s="30"/>
       <c r="BQ44" s="13"/>
@@ -9271,7 +9334,7 @@
     <row r="45" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C45" s="29"/>
       <c r="J45" s="40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="BP45" s="30"/>
       <c r="BQ45" s="13"/>
@@ -9280,7 +9343,7 @@
     <row r="46" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C46" s="29"/>
       <c r="J46" s="40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BP46" s="30"/>
       <c r="BQ46" s="13"/>
@@ -9296,7 +9359,7 @@
     <row r="48" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C48" s="29"/>
       <c r="J48" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BP48" s="30"/>
       <c r="BQ48" s="13"/>
@@ -9305,7 +9368,7 @@
     <row r="49" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C49" s="29"/>
       <c r="J49" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="BP49" s="30"/>
       <c r="BQ49" s="13"/>
@@ -9314,7 +9377,7 @@
     <row r="50" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C50" s="29"/>
       <c r="J50" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BP50" s="30"/>
       <c r="BQ50" s="13"/>
@@ -9330,7 +9393,7 @@
     <row r="52" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C52" s="29"/>
       <c r="J52" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BP52" s="30"/>
       <c r="BQ52" s="13"/>
@@ -9339,7 +9402,7 @@
     <row r="53" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C53" s="29"/>
       <c r="J53" s="40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="BP53" s="30"/>
       <c r="BQ53" s="13"/>
@@ -9348,7 +9411,7 @@
     <row r="54" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C54" s="29"/>
       <c r="J54" s="40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BP54" s="30"/>
       <c r="BQ54" s="13"/>
@@ -9364,7 +9427,7 @@
     <row r="56" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C56" s="29"/>
       <c r="J56" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="BP56" s="30"/>
       <c r="BQ56" s="13"/>
@@ -9373,7 +9436,7 @@
     <row r="57" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C57" s="29"/>
       <c r="J57" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="BP57" s="30"/>
       <c r="BQ57" s="13"/>
@@ -9389,7 +9452,7 @@
     <row r="59" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C59" s="29"/>
       <c r="J59" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BP59" s="30"/>
       <c r="BQ59" s="13"/>
@@ -9438,7 +9501,7 @@
     <row r="65" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C65" s="29"/>
       <c r="J65" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BP65" s="30"/>
       <c r="BQ65" s="13"/>
@@ -9447,7 +9510,7 @@
     <row r="66" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C66" s="29"/>
       <c r="J66" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BP66" s="30"/>
       <c r="BQ66" s="13"/>
@@ -9465,7 +9528,7 @@
     <row r="68" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C68" s="29"/>
       <c r="J68" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BP68" s="30"/>
       <c r="BQ68" s="13"/>
@@ -9480,7 +9543,7 @@
     <row r="70" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C70" s="29"/>
       <c r="J70" s="13" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="BP70" s="30"/>
       <c r="BQ70" s="13"/>
@@ -9489,7 +9552,7 @@
     <row r="71" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C71" s="29"/>
       <c r="J71" s="13" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="BP71" s="30"/>
       <c r="BQ71" s="13"/>
@@ -9497,13 +9560,16 @@
     </row>
     <row r="72" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C72" s="29"/>
-      <c r="AD72" s="13"/>
+      <c r="J72" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="BP72" s="30"/>
       <c r="BQ72" s="13"/>
       <c r="BR72" s="12"/>
     </row>
     <row r="73" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C73" s="29"/>
+      <c r="AD73" s="13"/>
       <c r="BP73" s="30"/>
       <c r="BQ73" s="13"/>
       <c r="BR73" s="12"/>
@@ -9527,76 +9593,78 @@
       <c r="BR76" s="12"/>
     </row>
     <row r="77" spans="3:70" x14ac:dyDescent="0.2">
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="32"/>
-      <c r="M77" s="32"/>
-      <c r="N77" s="32"/>
-      <c r="O77" s="32"/>
-      <c r="P77" s="32"/>
-      <c r="Q77" s="32"/>
-      <c r="R77" s="32"/>
-      <c r="S77" s="32"/>
-      <c r="T77" s="32"/>
-      <c r="U77" s="32"/>
-      <c r="V77" s="32"/>
-      <c r="W77" s="32"/>
-      <c r="X77" s="32"/>
-      <c r="Y77" s="32"/>
-      <c r="Z77" s="32"/>
-      <c r="AA77" s="32"/>
-      <c r="AB77" s="32"/>
-      <c r="AC77" s="32"/>
-      <c r="AD77" s="45"/>
-      <c r="AE77" s="32"/>
-      <c r="AF77" s="32"/>
-      <c r="AG77" s="32"/>
-      <c r="AH77" s="32"/>
-      <c r="AI77" s="32"/>
-      <c r="AJ77" s="32"/>
-      <c r="AK77" s="32"/>
-      <c r="AL77" s="32"/>
-      <c r="AM77" s="32"/>
-      <c r="AN77" s="32"/>
-      <c r="AO77" s="32"/>
-      <c r="AP77" s="32"/>
-      <c r="AQ77" s="32"/>
-      <c r="AR77" s="32"/>
-      <c r="AS77" s="32"/>
-      <c r="AT77" s="32"/>
-      <c r="AU77" s="32"/>
-      <c r="AV77" s="32"/>
-      <c r="AW77" s="32"/>
-      <c r="AX77" s="32"/>
-      <c r="AY77" s="32"/>
-      <c r="AZ77" s="32"/>
-      <c r="BA77" s="32"/>
-      <c r="BB77" s="32"/>
-      <c r="BC77" s="32"/>
-      <c r="BD77" s="32"/>
-      <c r="BE77" s="32"/>
-      <c r="BF77" s="32"/>
-      <c r="BG77" s="32"/>
-      <c r="BH77" s="32"/>
-      <c r="BI77" s="32"/>
-      <c r="BJ77" s="32"/>
-      <c r="BK77" s="32"/>
-      <c r="BL77" s="32"/>
-      <c r="BM77" s="32"/>
-      <c r="BN77" s="32"/>
-      <c r="BO77" s="32"/>
-      <c r="BP77" s="33"/>
+      <c r="C77" s="29"/>
+      <c r="BP77" s="30"/>
       <c r="BQ77" s="13"/>
       <c r="BR77" s="12"/>
     </row>
     <row r="78" spans="3:70" x14ac:dyDescent="0.2">
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="32"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="32"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="32"/>
+      <c r="R78" s="32"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="32"/>
+      <c r="U78" s="32"/>
+      <c r="V78" s="32"/>
+      <c r="W78" s="32"/>
+      <c r="X78" s="32"/>
+      <c r="Y78" s="32"/>
+      <c r="Z78" s="32"/>
+      <c r="AA78" s="32"/>
+      <c r="AB78" s="32"/>
+      <c r="AC78" s="32"/>
+      <c r="AD78" s="45"/>
+      <c r="AE78" s="32"/>
+      <c r="AF78" s="32"/>
+      <c r="AG78" s="32"/>
+      <c r="AH78" s="32"/>
+      <c r="AI78" s="32"/>
+      <c r="AJ78" s="32"/>
+      <c r="AK78" s="32"/>
+      <c r="AL78" s="32"/>
+      <c r="AM78" s="32"/>
+      <c r="AN78" s="32"/>
+      <c r="AO78" s="32"/>
+      <c r="AP78" s="32"/>
+      <c r="AQ78" s="32"/>
+      <c r="AR78" s="32"/>
+      <c r="AS78" s="32"/>
+      <c r="AT78" s="32"/>
+      <c r="AU78" s="32"/>
+      <c r="AV78" s="32"/>
+      <c r="AW78" s="32"/>
+      <c r="AX78" s="32"/>
+      <c r="AY78" s="32"/>
+      <c r="AZ78" s="32"/>
+      <c r="BA78" s="32"/>
+      <c r="BB78" s="32"/>
+      <c r="BC78" s="32"/>
+      <c r="BD78" s="32"/>
+      <c r="BE78" s="32"/>
+      <c r="BF78" s="32"/>
+      <c r="BG78" s="32"/>
+      <c r="BH78" s="32"/>
+      <c r="BI78" s="32"/>
+      <c r="BJ78" s="32"/>
+      <c r="BK78" s="32"/>
+      <c r="BL78" s="32"/>
+      <c r="BM78" s="32"/>
+      <c r="BN78" s="32"/>
+      <c r="BO78" s="32"/>
+      <c r="BP78" s="33"/>
       <c r="BQ78" s="13"/>
       <c r="BR78" s="12"/>
     </row>
@@ -9695,6 +9763,10 @@
     <row r="102" spans="69:70" x14ac:dyDescent="0.2">
       <c r="BQ102" s="13"/>
       <c r="BR102" s="12"/>
+    </row>
+    <row r="103" spans="69:70" x14ac:dyDescent="0.2">
+      <c r="BQ103" s="13"/>
+      <c r="BR103" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -9750,7 +9822,7 @@
     <mergeCell ref="AK2:AS2"/>
     <mergeCell ref="AT2:BA2"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="T22 T11:T18" xr:uid="{2B84CA45-547E-411A-A83F-41F5C983B124}">
       <formula1>"◯,"</formula1>
@@ -9866,7 +9938,7 @@
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="100"/>
       <c r="C2" s="100"/>
@@ -10177,7 +10249,7 @@
       <c r="AT7" s="105"/>
       <c r="AU7" s="105"/>
       <c r="AV7" s="105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AW7" s="105"/>
       <c r="AX7" s="105"/>
@@ -10237,7 +10309,7 @@
       <c r="U10" s="127"/>
       <c r="V10" s="127"/>
       <c r="W10" s="112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X10" s="113"/>
       <c r="Y10" s="113"/>
@@ -10296,7 +10368,7 @@
       <c r="E11" s="135"/>
       <c r="F11" s="135"/>
       <c r="G11" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -10316,7 +10388,7 @@
       <c r="U11" s="127"/>
       <c r="V11" s="127"/>
       <c r="W11" s="51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X11" s="52"/>
       <c r="Y11" s="52"/>
@@ -10367,13 +10439,13 @@
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C12" s="138" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="138"/>
       <c r="E12" s="138"/>
       <c r="F12" s="138"/>
       <c r="G12" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -10391,7 +10463,7 @@
       <c r="U12" s="127"/>
       <c r="V12" s="127"/>
       <c r="W12" s="51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X12" s="52"/>
       <c r="Y12" s="52"/>
@@ -10441,13 +10513,13 @@
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C13" s="141" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="142"/>
       <c r="E13" s="142"/>
       <c r="F13" s="143"/>
       <c r="G13" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -10465,7 +10537,7 @@
       <c r="U13" s="127"/>
       <c r="V13" s="127"/>
       <c r="W13" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X13" s="52"/>
       <c r="Y13" s="52"/>
@@ -10821,7 +10893,7 @@
       <c r="E20" s="135"/>
       <c r="F20" s="135"/>
       <c r="G20" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -10839,7 +10911,7 @@
       <c r="U20" s="127"/>
       <c r="V20" s="127"/>
       <c r="W20" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
@@ -11130,7 +11202,7 @@
       <c r="A27" s="12"/>
       <c r="C27" s="29"/>
       <c r="I27" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG27" s="16"/>
       <c r="BP27" s="30"/>
@@ -11140,7 +11212,7 @@
       <c r="A28" s="12"/>
       <c r="C28" s="29"/>
       <c r="I28" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG28" s="16"/>
       <c r="BP28" s="30"/>
@@ -11150,7 +11222,7 @@
       <c r="A29" s="12"/>
       <c r="C29" s="29"/>
       <c r="I29" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG29" s="16"/>
       <c r="BP29" s="30"/>
@@ -11160,7 +11232,7 @@
       <c r="A30" s="12"/>
       <c r="C30" s="29"/>
       <c r="I30" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AG30" s="16"/>
       <c r="BP30" s="30"/>
@@ -11187,7 +11259,7 @@
       <c r="A33" s="12"/>
       <c r="C33" s="29"/>
       <c r="I33" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AG33" s="16"/>
       <c r="BP33" s="30"/>
@@ -11256,7 +11328,7 @@
       <c r="A42" s="12"/>
       <c r="C42" s="29"/>
       <c r="I42" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AG42" s="16"/>
       <c r="BP42" s="30"/>
@@ -11266,7 +11338,7 @@
       <c r="A43" s="12"/>
       <c r="C43" s="29"/>
       <c r="I43" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AG43" s="16"/>
       <c r="BP43" s="30"/>
@@ -11283,7 +11355,7 @@
       <c r="A45" s="12"/>
       <c r="C45" s="29"/>
       <c r="I45" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AG45" s="16"/>
       <c r="BP45" s="30"/>
@@ -11293,7 +11365,7 @@
       <c r="A46" s="12"/>
       <c r="C46" s="29"/>
       <c r="I46" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AG46" s="16"/>
       <c r="BP46" s="30"/>
@@ -11303,7 +11375,7 @@
       <c r="A47" s="12"/>
       <c r="C47" s="29"/>
       <c r="I47" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG47" s="16"/>
       <c r="BP47" s="30"/>
@@ -11313,7 +11385,7 @@
       <c r="A48" s="12"/>
       <c r="C48" s="29"/>
       <c r="I48" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AG48" s="16"/>
       <c r="BP48" s="30"/>
@@ -11323,7 +11395,7 @@
       <c r="A49" s="12"/>
       <c r="C49" s="29"/>
       <c r="I49" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AG49" s="16"/>
       <c r="BP49" s="30"/>
@@ -11340,7 +11412,7 @@
       <c r="A51" s="12"/>
       <c r="C51" s="29"/>
       <c r="I51" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG51" s="16"/>
       <c r="BP51" s="30"/>
@@ -11350,7 +11422,7 @@
       <c r="A52" s="12"/>
       <c r="C52" s="29"/>
       <c r="I52" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG52" s="16"/>
       <c r="BP52" s="30"/>
@@ -11360,7 +11432,7 @@
       <c r="A53" s="12"/>
       <c r="C53" s="29"/>
       <c r="I53" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AG53" s="16"/>
       <c r="BP53" s="30"/>
@@ -11370,7 +11442,7 @@
       <c r="A54" s="12"/>
       <c r="C54" s="29"/>
       <c r="I54" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AG54" s="16"/>
       <c r="BP54" s="30"/>
@@ -11380,7 +11452,7 @@
       <c r="A55" s="12"/>
       <c r="C55" s="29"/>
       <c r="I55" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AG55" s="16"/>
       <c r="BP55" s="30"/>
@@ -12465,7 +12537,7 @@
     <row r="64" spans="1:1027" x14ac:dyDescent="0.2">
       <c r="C64" s="29"/>
       <c r="I64" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="BP64" s="30"/>
     </row>
@@ -12587,7 +12659,7 @@
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="T20 T11:T16" xr:uid="{A1BB219B-93A9-4E25-BDA7-CA400C0BA122}">
       <formula1>"◯,"</formula1>
@@ -12649,12 +12721,12 @@
   <sheetData>
     <row r="2" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="144" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="145"/>
       <c r="D3" s="145"/>
@@ -12666,14 +12738,14 @@
       <c r="J3" s="145"/>
       <c r="K3" s="146"/>
       <c r="L3" s="144" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M3" s="145"/>
       <c r="N3" s="145"/>
       <c r="O3" s="145"/>
       <c r="P3" s="146"/>
       <c r="Q3" s="144" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R3" s="145"/>
       <c r="S3" s="145"/>
@@ -12710,10 +12782,10 @@
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" s="56"/>
       <c r="E4" s="56"/>
@@ -12724,14 +12796,14 @@
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
       <c r="L4" s="57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M4" s="56"/>
       <c r="N4" s="56"/>
       <c r="O4" s="56"/>
       <c r="P4" s="58"/>
       <c r="Q4" s="62" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="R4" s="56"/>
       <c r="S4" s="56"/>
@@ -12818,10 +12890,10 @@
     </row>
     <row r="6" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>131</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>133</v>
       </c>
       <c r="D6" s="56"/>
       <c r="E6" s="56"/>
@@ -12832,14 +12904,14 @@
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
       <c r="L6" s="57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M6" s="56"/>
       <c r="N6" s="56"/>
       <c r="O6" s="56"/>
       <c r="P6" s="58"/>
       <c r="Q6" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R6" s="56"/>
       <c r="S6" s="56"/>
@@ -12926,10 +12998,10 @@
     </row>
     <row r="8" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
@@ -12940,14 +13012,14 @@
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
       <c r="L8" s="57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M8" s="56"/>
       <c r="N8" s="56"/>
       <c r="O8" s="56"/>
       <c r="P8" s="58"/>
       <c r="Q8" s="62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
@@ -13034,10 +13106,10 @@
     </row>
     <row r="10" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
@@ -13048,14 +13120,14 @@
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M10" s="56"/>
       <c r="N10" s="56"/>
       <c r="O10" s="56"/>
       <c r="P10" s="58"/>
       <c r="Q10" s="62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="R10" s="56"/>
       <c r="S10" s="56"/>
@@ -13142,10 +13214,10 @@
     </row>
     <row r="12" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
@@ -13156,14 +13228,14 @@
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
       <c r="L12" s="57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M12" s="56"/>
       <c r="N12" s="56"/>
       <c r="O12" s="56"/>
       <c r="P12" s="58"/>
       <c r="Q12" s="56" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R12" s="56"/>
       <c r="S12" s="56"/>
@@ -13214,7 +13286,9 @@
       <c r="N13" s="60"/>
       <c r="O13" s="60"/>
       <c r="P13" s="61"/>
-      <c r="Q13" s="60"/>
+      <c r="Q13" s="147" t="s">
+        <v>197</v>
+      </c>
       <c r="R13" s="60"/>
       <c r="S13" s="60"/>
       <c r="T13" s="60"/>
@@ -13250,10 +13324,10 @@
     </row>
     <row r="14" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
@@ -13264,14 +13338,14 @@
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
       <c r="L14" s="57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M14" s="56"/>
       <c r="N14" s="56"/>
       <c r="O14" s="56"/>
       <c r="P14" s="58"/>
       <c r="Q14" s="56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="R14" s="56"/>
       <c r="S14" s="56"/>
@@ -13358,10 +13432,10 @@
     </row>
     <row r="16" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
@@ -13372,14 +13446,14 @@
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
       <c r="L16" s="57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M16" s="56"/>
       <c r="N16" s="56"/>
       <c r="O16" s="56"/>
       <c r="P16" s="58"/>
       <c r="Q16" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R16" s="56"/>
       <c r="S16" s="56"/>
@@ -13470,7 +13544,7 @@
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:AW3"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13536,7 +13610,7 @@
       <c r="C5" s="35"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>

--- a/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19BB3B0-E56E-4335-9EB7-EE5ACEB614D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F120204-31B5-4533-AF0D-37C3FF851469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="80" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_交通費申請マッパー" sheetId="10" r:id="rId1"/>
@@ -2340,86 +2340,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2457,53 +2406,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2523,30 +2442,86 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2555,6 +2530,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2568,6 +2546,28 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2789,7 +2789,7 @@
   <dimension ref="A1:AMW50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I2" sqref="I2:AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2800,249 +2800,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="110" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="110"/>
-      <c r="AM1" s="110"/>
-      <c r="AN1" s="110"/>
-      <c r="AO1" s="110"/>
-      <c r="AP1" s="110"/>
-      <c r="AQ1" s="110"/>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="111" t="s">
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="111"/>
-      <c r="AX1" s="111"/>
-      <c r="AY1" s="111"/>
-      <c r="AZ1" s="111"/>
-      <c r="BA1" s="111"/>
-      <c r="BB1" s="111"/>
-      <c r="BC1" s="111"/>
-      <c r="BD1" s="111"/>
-      <c r="BE1" s="111"/>
-      <c r="BF1" s="111"/>
-      <c r="BG1" s="111"/>
-      <c r="BH1" s="111"/>
-      <c r="BI1" s="111"/>
-      <c r="BJ1" s="111"/>
-      <c r="BK1" s="111"/>
-      <c r="BL1" s="111"/>
-      <c r="BM1" s="111"/>
-      <c r="BN1" s="111"/>
-      <c r="BO1" s="111"/>
-      <c r="BP1" s="111"/>
-      <c r="BQ1" s="111"/>
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="100"/>
+      <c r="AW1" s="100"/>
+      <c r="AX1" s="100"/>
+      <c r="AY1" s="100"/>
+      <c r="AZ1" s="100"/>
+      <c r="BA1" s="100"/>
+      <c r="BB1" s="100"/>
+      <c r="BC1" s="100"/>
+      <c r="BD1" s="100"/>
+      <c r="BE1" s="100"/>
+      <c r="BF1" s="100"/>
+      <c r="BG1" s="100"/>
+      <c r="BH1" s="100"/>
+      <c r="BI1" s="100"/>
+      <c r="BJ1" s="100"/>
+      <c r="BK1" s="100"/>
+      <c r="BL1" s="100"/>
+      <c r="BM1" s="100"/>
+      <c r="BN1" s="100"/>
+      <c r="BO1" s="100"/>
+      <c r="BP1" s="100"/>
+      <c r="BQ1" s="100"/>
       <c r="BR1" s="4"/>
     </row>
     <row r="2" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113"/>
-      <c r="AK2" s="66" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66" t="s">
+      <c r="AL2" s="103"/>
+      <c r="AM2" s="103"/>
+      <c r="AN2" s="103"/>
+      <c r="AO2" s="103"/>
+      <c r="AP2" s="103"/>
+      <c r="AQ2" s="103"/>
+      <c r="AR2" s="103"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66" t="s">
+      <c r="AU2" s="103"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="114" t="s">
+      <c r="BC2" s="103"/>
+      <c r="BD2" s="103"/>
+      <c r="BE2" s="103"/>
+      <c r="BF2" s="103"/>
+      <c r="BG2" s="103"/>
+      <c r="BH2" s="103"/>
+      <c r="BI2" s="103"/>
+      <c r="BJ2" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="114"/>
-      <c r="BL2" s="114"/>
-      <c r="BM2" s="114"/>
-      <c r="BN2" s="114"/>
-      <c r="BO2" s="114"/>
-      <c r="BP2" s="114"/>
-      <c r="BQ2" s="114"/>
+      <c r="BK2" s="104"/>
+      <c r="BL2" s="104"/>
+      <c r="BM2" s="104"/>
+      <c r="BN2" s="104"/>
+      <c r="BO2" s="104"/>
+      <c r="BP2" s="104"/>
+      <c r="BQ2" s="104"/>
       <c r="BR2" s="4"/>
     </row>
     <row r="3" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="105" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="105"/>
-      <c r="AM3" s="105"/>
-      <c r="AN3" s="105"/>
-      <c r="AO3" s="105"/>
-      <c r="AP3" s="105"/>
-      <c r="AQ3" s="105"/>
-      <c r="AR3" s="105"/>
-      <c r="AS3" s="105"/>
-      <c r="AT3" s="106">
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="109"/>
+      <c r="AO3" s="109"/>
+      <c r="AP3" s="109"/>
+      <c r="AQ3" s="109"/>
+      <c r="AR3" s="109"/>
+      <c r="AS3" s="109"/>
+      <c r="AT3" s="110">
         <v>45503</v>
       </c>
-      <c r="AU3" s="106"/>
-      <c r="AV3" s="106"/>
-      <c r="AW3" s="106"/>
-      <c r="AX3" s="106"/>
-      <c r="AY3" s="106"/>
-      <c r="AZ3" s="106"/>
-      <c r="BA3" s="106"/>
-      <c r="BB3" s="105" t="s">
+      <c r="AU3" s="110"/>
+      <c r="AV3" s="110"/>
+      <c r="AW3" s="110"/>
+      <c r="AX3" s="110"/>
+      <c r="AY3" s="110"/>
+      <c r="AZ3" s="110"/>
+      <c r="BA3" s="110"/>
+      <c r="BB3" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="105"/>
-      <c r="BD3" s="105"/>
-      <c r="BE3" s="105"/>
-      <c r="BF3" s="105"/>
-      <c r="BG3" s="105"/>
-      <c r="BH3" s="105"/>
-      <c r="BI3" s="105"/>
-      <c r="BJ3" s="107">
+      <c r="BC3" s="109"/>
+      <c r="BD3" s="109"/>
+      <c r="BE3" s="109"/>
+      <c r="BF3" s="109"/>
+      <c r="BG3" s="109"/>
+      <c r="BH3" s="109"/>
+      <c r="BI3" s="109"/>
+      <c r="BJ3" s="111">
         <v>45548</v>
       </c>
-      <c r="BK3" s="107"/>
-      <c r="BL3" s="107"/>
-      <c r="BM3" s="107"/>
-      <c r="BN3" s="107"/>
-      <c r="BO3" s="107"/>
-      <c r="BP3" s="107"/>
-      <c r="BQ3" s="107"/>
+      <c r="BK3" s="111"/>
+      <c r="BL3" s="111"/>
+      <c r="BM3" s="111"/>
+      <c r="BN3" s="111"/>
+      <c r="BO3" s="111"/>
+      <c r="BP3" s="111"/>
+      <c r="BQ3" s="111"/>
       <c r="BR3" s="4"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
@@ -3110,215 +3110,215 @@
     </row>
     <row r="6" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="108"/>
-      <c r="AH6" s="108"/>
-      <c r="AI6" s="108"/>
-      <c r="AJ6" s="108"/>
-      <c r="AK6" s="108"/>
-      <c r="AL6" s="108"/>
-      <c r="AM6" s="108"/>
-      <c r="AN6" s="108"/>
-      <c r="AO6" s="108"/>
-      <c r="AP6" s="108"/>
-      <c r="AQ6" s="108"/>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="108"/>
-      <c r="AT6" s="108"/>
-      <c r="AU6" s="108"/>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="108"/>
-      <c r="AY6" s="108"/>
-      <c r="AZ6" s="108"/>
-      <c r="BA6" s="108"/>
-      <c r="BB6" s="108"/>
-      <c r="BC6" s="108"/>
-      <c r="BD6" s="108"/>
-      <c r="BE6" s="108"/>
-      <c r="BF6" s="108"/>
-      <c r="BG6" s="108"/>
-      <c r="BH6" s="108"/>
-      <c r="BI6" s="108"/>
-      <c r="BJ6" s="108"/>
-      <c r="BK6" s="108"/>
-      <c r="BL6" s="108"/>
-      <c r="BM6" s="108"/>
-      <c r="BN6" s="108"/>
-      <c r="BO6" s="108"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="112"/>
+      <c r="AA6" s="112"/>
+      <c r="AB6" s="112"/>
+      <c r="AC6" s="112"/>
+      <c r="AD6" s="112"/>
+      <c r="AE6" s="112"/>
+      <c r="AF6" s="112"/>
+      <c r="AG6" s="112"/>
+      <c r="AH6" s="112"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="112"/>
+      <c r="AN6" s="112"/>
+      <c r="AO6" s="112"/>
+      <c r="AP6" s="112"/>
+      <c r="AQ6" s="112"/>
+      <c r="AR6" s="112"/>
+      <c r="AS6" s="112"/>
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="112"/>
+      <c r="AV6" s="112"/>
+      <c r="AW6" s="112"/>
+      <c r="AX6" s="112"/>
+      <c r="AY6" s="112"/>
+      <c r="AZ6" s="112"/>
+      <c r="BA6" s="112"/>
+      <c r="BB6" s="112"/>
+      <c r="BC6" s="112"/>
+      <c r="BD6" s="112"/>
+      <c r="BE6" s="112"/>
+      <c r="BF6" s="112"/>
+      <c r="BG6" s="112"/>
+      <c r="BH6" s="112"/>
+      <c r="BI6" s="112"/>
+      <c r="BJ6" s="112"/>
+      <c r="BK6" s="112"/>
+      <c r="BL6" s="112"/>
+      <c r="BM6" s="112"/>
+      <c r="BN6" s="112"/>
+      <c r="BO6" s="112"/>
       <c r="BP6"/>
       <c r="BR6" s="4"/>
     </row>
     <row r="7" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="108"/>
-      <c r="AB7" s="108"/>
-      <c r="AC7" s="108"/>
-      <c r="AD7" s="108"/>
-      <c r="AE7" s="108"/>
-      <c r="AF7" s="108"/>
-      <c r="AG7" s="108"/>
-      <c r="AH7" s="108"/>
-      <c r="AI7" s="108"/>
-      <c r="AJ7" s="108"/>
-      <c r="AK7" s="108"/>
-      <c r="AL7" s="108"/>
-      <c r="AM7" s="108"/>
-      <c r="AN7" s="108"/>
-      <c r="AO7" s="108"/>
-      <c r="AP7" s="108"/>
-      <c r="AQ7" s="108"/>
-      <c r="AR7" s="108"/>
-      <c r="AS7" s="108"/>
-      <c r="AT7" s="108"/>
-      <c r="AU7" s="108"/>
-      <c r="AV7" s="108"/>
-      <c r="AW7" s="108"/>
-      <c r="AX7" s="108"/>
-      <c r="AY7" s="108"/>
-      <c r="AZ7" s="108"/>
-      <c r="BA7" s="108"/>
-      <c r="BB7" s="108"/>
-      <c r="BC7" s="108"/>
-      <c r="BD7" s="108"/>
-      <c r="BE7" s="108"/>
-      <c r="BF7" s="108"/>
-      <c r="BG7" s="108"/>
-      <c r="BH7" s="108"/>
-      <c r="BI7" s="108"/>
-      <c r="BJ7" s="108"/>
-      <c r="BK7" s="108"/>
-      <c r="BL7" s="108"/>
-      <c r="BM7" s="108"/>
-      <c r="BN7" s="108"/>
-      <c r="BO7" s="108"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="112"/>
+      <c r="AC7" s="112"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="112"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="112"/>
+      <c r="AJ7" s="112"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="112"/>
+      <c r="AM7" s="112"/>
+      <c r="AN7" s="112"/>
+      <c r="AO7" s="112"/>
+      <c r="AP7" s="112"/>
+      <c r="AQ7" s="112"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="112"/>
+      <c r="AT7" s="112"/>
+      <c r="AU7" s="112"/>
+      <c r="AV7" s="112"/>
+      <c r="AW7" s="112"/>
+      <c r="AX7" s="112"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="112"/>
+      <c r="BA7" s="112"/>
+      <c r="BB7" s="112"/>
+      <c r="BC7" s="112"/>
+      <c r="BD7" s="112"/>
+      <c r="BE7" s="112"/>
+      <c r="BF7" s="112"/>
+      <c r="BG7" s="112"/>
+      <c r="BH7" s="112"/>
+      <c r="BI7" s="112"/>
+      <c r="BJ7" s="112"/>
+      <c r="BK7" s="112"/>
+      <c r="BL7" s="112"/>
+      <c r="BM7" s="112"/>
+      <c r="BN7" s="112"/>
+      <c r="BO7" s="112"/>
       <c r="BP7"/>
       <c r="BR7" s="4"/>
     </row>
     <row r="8" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="103"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="103"/>
-      <c r="AL8" s="103"/>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="103"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="103"/>
-      <c r="AW8" s="103"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="103"/>
-      <c r="AZ8" s="103"/>
-      <c r="BA8" s="103"/>
-      <c r="BB8" s="103"/>
-      <c r="BC8" s="103"/>
-      <c r="BD8" s="103"/>
-      <c r="BE8" s="103"/>
-      <c r="BF8" s="103"/>
-      <c r="BG8" s="103"/>
-      <c r="BH8" s="103"/>
-      <c r="BI8" s="103"/>
-      <c r="BJ8" s="103"/>
-      <c r="BK8" s="103"/>
-      <c r="BL8" s="103"/>
-      <c r="BM8" s="103"/>
-      <c r="BN8" s="103"/>
-      <c r="BO8" s="103"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="105"/>
+      <c r="AX8" s="105"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="105"/>
+      <c r="BB8" s="105"/>
+      <c r="BC8" s="105"/>
+      <c r="BD8" s="105"/>
+      <c r="BE8" s="105"/>
+      <c r="BF8" s="105"/>
+      <c r="BG8" s="105"/>
+      <c r="BH8" s="105"/>
+      <c r="BI8" s="105"/>
+      <c r="BJ8" s="105"/>
+      <c r="BK8" s="105"/>
+      <c r="BL8" s="105"/>
+      <c r="BM8" s="105"/>
+      <c r="BN8" s="105"/>
+      <c r="BO8" s="105"/>
       <c r="BP8"/>
       <c r="BR8" s="4"/>
     </row>
@@ -3371,787 +3371,787 @@
     </row>
     <row r="11" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="66" t="s">
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67" t="s">
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="104" t="s">
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
+      <c r="AI11" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="AJ11" s="104"/>
-      <c r="AK11" s="104"/>
-      <c r="AL11" s="104"/>
-      <c r="AM11" s="104"/>
-      <c r="AN11" s="104"/>
-      <c r="AO11" s="104"/>
-      <c r="AP11" s="104"/>
-      <c r="AQ11" s="104"/>
-      <c r="AR11" s="104"/>
-      <c r="AS11" s="104"/>
-      <c r="AT11" s="104"/>
-      <c r="AU11" s="104"/>
-      <c r="AV11" s="104"/>
-      <c r="AW11" s="104"/>
-      <c r="AX11" s="104"/>
-      <c r="AY11" s="104"/>
-      <c r="AZ11" s="104"/>
-      <c r="BA11" s="104"/>
-      <c r="BB11" s="104"/>
-      <c r="BC11" s="104"/>
-      <c r="BD11" s="104"/>
-      <c r="BE11" s="104"/>
-      <c r="BF11" s="104"/>
-      <c r="BG11" s="104"/>
-      <c r="BH11" s="104"/>
-      <c r="BI11" s="104"/>
-      <c r="BJ11" s="104"/>
-      <c r="BK11" s="104"/>
-      <c r="BL11" s="104"/>
-      <c r="BM11" s="104"/>
-      <c r="BN11" s="104"/>
-      <c r="BO11" s="104"/>
+      <c r="AJ11" s="107"/>
+      <c r="AK11" s="107"/>
+      <c r="AL11" s="107"/>
+      <c r="AM11" s="107"/>
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="107"/>
+      <c r="AP11" s="107"/>
+      <c r="AQ11" s="107"/>
+      <c r="AR11" s="107"/>
+      <c r="AS11" s="107"/>
+      <c r="AT11" s="107"/>
+      <c r="AU11" s="107"/>
+      <c r="AV11" s="107"/>
+      <c r="AW11" s="107"/>
+      <c r="AX11" s="107"/>
+      <c r="AY11" s="107"/>
+      <c r="AZ11" s="107"/>
+      <c r="BA11" s="107"/>
+      <c r="BB11" s="107"/>
+      <c r="BC11" s="107"/>
+      <c r="BD11" s="107"/>
+      <c r="BE11" s="107"/>
+      <c r="BF11" s="107"/>
+      <c r="BG11" s="107"/>
+      <c r="BH11" s="107"/>
+      <c r="BI11" s="107"/>
+      <c r="BJ11" s="107"/>
+      <c r="BK11" s="107"/>
+      <c r="BL11" s="107"/>
+      <c r="BM11" s="107"/>
+      <c r="BN11" s="107"/>
+      <c r="BO11" s="107"/>
       <c r="BP11"/>
       <c r="BR11" s="4"/>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="68"/>
-      <c r="AK12" s="68"/>
-      <c r="AL12" s="68"/>
-      <c r="AM12" s="68"/>
-      <c r="AN12" s="68"/>
-      <c r="AO12" s="68"/>
-      <c r="AP12" s="68"/>
-      <c r="AQ12" s="68"/>
-      <c r="AR12" s="68"/>
-      <c r="AS12" s="68"/>
-      <c r="AT12" s="68"/>
-      <c r="AU12" s="68"/>
-      <c r="AV12" s="68"/>
-      <c r="AW12" s="68"/>
-      <c r="AX12" s="68"/>
-      <c r="AY12" s="68"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="68"/>
-      <c r="BB12" s="68"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="68"/>
-      <c r="BE12" s="68"/>
-      <c r="BF12" s="68"/>
-      <c r="BG12" s="68"/>
-      <c r="BH12" s="68"/>
-      <c r="BI12" s="68"/>
-      <c r="BJ12" s="68"/>
-      <c r="BK12" s="68"/>
-      <c r="BL12" s="68"/>
-      <c r="BM12" s="68"/>
-      <c r="BN12" s="68"/>
-      <c r="BO12" s="68"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="108"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="108"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="108"/>
+      <c r="AJ12" s="108"/>
+      <c r="AK12" s="108"/>
+      <c r="AL12" s="108"/>
+      <c r="AM12" s="108"/>
+      <c r="AN12" s="108"/>
+      <c r="AO12" s="108"/>
+      <c r="AP12" s="108"/>
+      <c r="AQ12" s="108"/>
+      <c r="AR12" s="108"/>
+      <c r="AS12" s="108"/>
+      <c r="AT12" s="108"/>
+      <c r="AU12" s="108"/>
+      <c r="AV12" s="108"/>
+      <c r="AW12" s="108"/>
+      <c r="AX12" s="108"/>
+      <c r="AY12" s="108"/>
+      <c r="AZ12" s="108"/>
+      <c r="BA12" s="108"/>
+      <c r="BB12" s="108"/>
+      <c r="BC12" s="108"/>
+      <c r="BD12" s="108"/>
+      <c r="BE12" s="108"/>
+      <c r="BF12" s="108"/>
+      <c r="BG12" s="108"/>
+      <c r="BH12" s="108"/>
+      <c r="BI12" s="108"/>
+      <c r="BJ12" s="108"/>
+      <c r="BK12" s="108"/>
+      <c r="BL12" s="108"/>
+      <c r="BM12" s="108"/>
+      <c r="BN12" s="108"/>
+      <c r="BO12" s="108"/>
       <c r="BP12"/>
       <c r="BR12" s="4"/>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="68"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="68"/>
-      <c r="AL13" s="68"/>
-      <c r="AM13" s="68"/>
-      <c r="AN13" s="68"/>
-      <c r="AO13" s="68"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="68"/>
-      <c r="AS13" s="68"/>
-      <c r="AT13" s="68"/>
-      <c r="AU13" s="68"/>
-      <c r="AV13" s="68"/>
-      <c r="AW13" s="68"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="68"/>
-      <c r="BA13" s="68"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="68"/>
-      <c r="BE13" s="68"/>
-      <c r="BF13" s="68"/>
-      <c r="BG13" s="68"/>
-      <c r="BH13" s="68"/>
-      <c r="BI13" s="68"/>
-      <c r="BJ13" s="68"/>
-      <c r="BK13" s="68"/>
-      <c r="BL13" s="68"/>
-      <c r="BM13" s="68"/>
-      <c r="BN13" s="68"/>
-      <c r="BO13" s="68"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="108"/>
+      <c r="Z13" s="108"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="108"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="108"/>
+      <c r="AJ13" s="108"/>
+      <c r="AK13" s="108"/>
+      <c r="AL13" s="108"/>
+      <c r="AM13" s="108"/>
+      <c r="AN13" s="108"/>
+      <c r="AO13" s="108"/>
+      <c r="AP13" s="108"/>
+      <c r="AQ13" s="108"/>
+      <c r="AR13" s="108"/>
+      <c r="AS13" s="108"/>
+      <c r="AT13" s="108"/>
+      <c r="AU13" s="108"/>
+      <c r="AV13" s="108"/>
+      <c r="AW13" s="108"/>
+      <c r="AX13" s="108"/>
+      <c r="AY13" s="108"/>
+      <c r="AZ13" s="108"/>
+      <c r="BA13" s="108"/>
+      <c r="BB13" s="108"/>
+      <c r="BC13" s="108"/>
+      <c r="BD13" s="108"/>
+      <c r="BE13" s="108"/>
+      <c r="BF13" s="108"/>
+      <c r="BG13" s="108"/>
+      <c r="BH13" s="108"/>
+      <c r="BI13" s="108"/>
+      <c r="BJ13" s="108"/>
+      <c r="BK13" s="108"/>
+      <c r="BL13" s="108"/>
+      <c r="BM13" s="108"/>
+      <c r="BN13" s="108"/>
+      <c r="BO13" s="108"/>
       <c r="BP13"/>
       <c r="BR13" s="4"/>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="87" t="s">
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="87"/>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="87"/>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="87"/>
-      <c r="AJ14" s="87"/>
-      <c r="AK14" s="87"/>
-      <c r="AL14" s="87"/>
-      <c r="AM14" s="87"/>
-      <c r="AN14" s="87"/>
-      <c r="AO14" s="87"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="87"/>
-      <c r="AR14" s="87"/>
-      <c r="AS14" s="87"/>
-      <c r="AT14" s="87"/>
-      <c r="AU14" s="87"/>
-      <c r="AV14" s="87"/>
-      <c r="AW14" s="87"/>
-      <c r="AX14" s="87"/>
-      <c r="AY14" s="87"/>
-      <c r="AZ14" s="87"/>
-      <c r="BA14" s="87"/>
-      <c r="BB14" s="87"/>
-      <c r="BC14" s="87"/>
-      <c r="BD14" s="87"/>
-      <c r="BE14" s="87"/>
-      <c r="BF14" s="87"/>
-      <c r="BG14" s="87"/>
-      <c r="BH14" s="87"/>
-      <c r="BI14" s="87"/>
-      <c r="BJ14" s="87"/>
-      <c r="BK14" s="87"/>
-      <c r="BL14" s="87"/>
-      <c r="BM14" s="87"/>
-      <c r="BN14" s="87"/>
-      <c r="BO14" s="87"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="117"/>
+      <c r="AA14" s="117"/>
+      <c r="AB14" s="117"/>
+      <c r="AC14" s="117"/>
+      <c r="AD14" s="117"/>
+      <c r="AE14" s="117"/>
+      <c r="AF14" s="117"/>
+      <c r="AG14" s="117"/>
+      <c r="AH14" s="117"/>
+      <c r="AI14" s="117"/>
+      <c r="AJ14" s="117"/>
+      <c r="AK14" s="117"/>
+      <c r="AL14" s="117"/>
+      <c r="AM14" s="117"/>
+      <c r="AN14" s="117"/>
+      <c r="AO14" s="117"/>
+      <c r="AP14" s="117"/>
+      <c r="AQ14" s="117"/>
+      <c r="AR14" s="117"/>
+      <c r="AS14" s="117"/>
+      <c r="AT14" s="117"/>
+      <c r="AU14" s="117"/>
+      <c r="AV14" s="117"/>
+      <c r="AW14" s="117"/>
+      <c r="AX14" s="117"/>
+      <c r="AY14" s="117"/>
+      <c r="AZ14" s="117"/>
+      <c r="BA14" s="117"/>
+      <c r="BB14" s="117"/>
+      <c r="BC14" s="117"/>
+      <c r="BD14" s="117"/>
+      <c r="BE14" s="117"/>
+      <c r="BF14" s="117"/>
+      <c r="BG14" s="117"/>
+      <c r="BH14" s="117"/>
+      <c r="BI14" s="117"/>
+      <c r="BJ14" s="117"/>
+      <c r="BK14" s="117"/>
+      <c r="BL14" s="117"/>
+      <c r="BM14" s="117"/>
+      <c r="BN14" s="117"/>
+      <c r="BO14" s="117"/>
       <c r="BP14"/>
       <c r="BR14" s="4"/>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="88"/>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="88"/>
-      <c r="AA15" s="88"/>
-      <c r="AB15" s="88"/>
-      <c r="AC15" s="88"/>
-      <c r="AD15" s="88"/>
-      <c r="AE15" s="88"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="88"/>
-      <c r="AH15" s="88"/>
-      <c r="AI15" s="88"/>
-      <c r="AJ15" s="88"/>
-      <c r="AK15" s="88"/>
-      <c r="AL15" s="88"/>
-      <c r="AM15" s="88"/>
-      <c r="AN15" s="88"/>
-      <c r="AO15" s="88"/>
-      <c r="AP15" s="88"/>
-      <c r="AQ15" s="88"/>
-      <c r="AR15" s="88"/>
-      <c r="AS15" s="88"/>
-      <c r="AT15" s="88"/>
-      <c r="AU15" s="88"/>
-      <c r="AV15" s="88"/>
-      <c r="AW15" s="88"/>
-      <c r="AX15" s="88"/>
-      <c r="AY15" s="88"/>
-      <c r="AZ15" s="88"/>
-      <c r="BA15" s="88"/>
-      <c r="BB15" s="88"/>
-      <c r="BC15" s="88"/>
-      <c r="BD15" s="88"/>
-      <c r="BE15" s="88"/>
-      <c r="BF15" s="88"/>
-      <c r="BG15" s="88"/>
-      <c r="BH15" s="88"/>
-      <c r="BI15" s="88"/>
-      <c r="BJ15" s="88"/>
-      <c r="BK15" s="88"/>
-      <c r="BL15" s="88"/>
-      <c r="BM15" s="88"/>
-      <c r="BN15" s="88"/>
-      <c r="BO15" s="88"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="118"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="118"/>
+      <c r="AE15" s="118"/>
+      <c r="AF15" s="118"/>
+      <c r="AG15" s="118"/>
+      <c r="AH15" s="118"/>
+      <c r="AI15" s="118"/>
+      <c r="AJ15" s="118"/>
+      <c r="AK15" s="118"/>
+      <c r="AL15" s="118"/>
+      <c r="AM15" s="118"/>
+      <c r="AN15" s="118"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="118"/>
+      <c r="AS15" s="118"/>
+      <c r="AT15" s="118"/>
+      <c r="AU15" s="118"/>
+      <c r="AV15" s="118"/>
+      <c r="AW15" s="118"/>
+      <c r="AX15" s="118"/>
+      <c r="AY15" s="118"/>
+      <c r="AZ15" s="118"/>
+      <c r="BA15" s="118"/>
+      <c r="BB15" s="118"/>
+      <c r="BC15" s="118"/>
+      <c r="BD15" s="118"/>
+      <c r="BE15" s="118"/>
+      <c r="BF15" s="118"/>
+      <c r="BG15" s="118"/>
+      <c r="BH15" s="118"/>
+      <c r="BI15" s="118"/>
+      <c r="BJ15" s="118"/>
+      <c r="BK15" s="118"/>
+      <c r="BL15" s="118"/>
+      <c r="BM15" s="118"/>
+      <c r="BN15" s="118"/>
+      <c r="BO15" s="118"/>
       <c r="BP15"/>
       <c r="BR15" s="4"/>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="88"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="88"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="88"/>
-      <c r="AI16" s="88"/>
-      <c r="AJ16" s="88"/>
-      <c r="AK16" s="88"/>
-      <c r="AL16" s="88"/>
-      <c r="AM16" s="88"/>
-      <c r="AN16" s="88"/>
-      <c r="AO16" s="88"/>
-      <c r="AP16" s="88"/>
-      <c r="AQ16" s="88"/>
-      <c r="AR16" s="88"/>
-      <c r="AS16" s="88"/>
-      <c r="AT16" s="88"/>
-      <c r="AU16" s="88"/>
-      <c r="AV16" s="88"/>
-      <c r="AW16" s="88"/>
-      <c r="AX16" s="88"/>
-      <c r="AY16" s="88"/>
-      <c r="AZ16" s="88"/>
-      <c r="BA16" s="88"/>
-      <c r="BB16" s="88"/>
-      <c r="BC16" s="88"/>
-      <c r="BD16" s="88"/>
-      <c r="BE16" s="88"/>
-      <c r="BF16" s="88"/>
-      <c r="BG16" s="88"/>
-      <c r="BH16" s="88"/>
-      <c r="BI16" s="88"/>
-      <c r="BJ16" s="88"/>
-      <c r="BK16" s="88"/>
-      <c r="BL16" s="88"/>
-      <c r="BM16" s="88"/>
-      <c r="BN16" s="88"/>
-      <c r="BO16" s="88"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="118"/>
+      <c r="AG16" s="118"/>
+      <c r="AH16" s="118"/>
+      <c r="AI16" s="118"/>
+      <c r="AJ16" s="118"/>
+      <c r="AK16" s="118"/>
+      <c r="AL16" s="118"/>
+      <c r="AM16" s="118"/>
+      <c r="AN16" s="118"/>
+      <c r="AO16" s="118"/>
+      <c r="AP16" s="118"/>
+      <c r="AQ16" s="118"/>
+      <c r="AR16" s="118"/>
+      <c r="AS16" s="118"/>
+      <c r="AT16" s="118"/>
+      <c r="AU16" s="118"/>
+      <c r="AV16" s="118"/>
+      <c r="AW16" s="118"/>
+      <c r="AX16" s="118"/>
+      <c r="AY16" s="118"/>
+      <c r="AZ16" s="118"/>
+      <c r="BA16" s="118"/>
+      <c r="BB16" s="118"/>
+      <c r="BC16" s="118"/>
+      <c r="BD16" s="118"/>
+      <c r="BE16" s="118"/>
+      <c r="BF16" s="118"/>
+      <c r="BG16" s="118"/>
+      <c r="BH16" s="118"/>
+      <c r="BI16" s="118"/>
+      <c r="BJ16" s="118"/>
+      <c r="BK16" s="118"/>
+      <c r="BL16" s="118"/>
+      <c r="BM16" s="118"/>
+      <c r="BN16" s="118"/>
+      <c r="BO16" s="118"/>
       <c r="BP16"/>
       <c r="BR16" s="4"/>
     </row>
     <row r="17" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="88"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="88"/>
-      <c r="AA17" s="88"/>
-      <c r="AB17" s="88"/>
-      <c r="AC17" s="88"/>
-      <c r="AD17" s="88"/>
-      <c r="AE17" s="88"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="88"/>
-      <c r="AH17" s="88"/>
-      <c r="AI17" s="88"/>
-      <c r="AJ17" s="88"/>
-      <c r="AK17" s="88"/>
-      <c r="AL17" s="88"/>
-      <c r="AM17" s="88"/>
-      <c r="AN17" s="88"/>
-      <c r="AO17" s="88"/>
-      <c r="AP17" s="88"/>
-      <c r="AQ17" s="88"/>
-      <c r="AR17" s="88"/>
-      <c r="AS17" s="88"/>
-      <c r="AT17" s="88"/>
-      <c r="AU17" s="88"/>
-      <c r="AV17" s="88"/>
-      <c r="AW17" s="88"/>
-      <c r="AX17" s="88"/>
-      <c r="AY17" s="88"/>
-      <c r="AZ17" s="88"/>
-      <c r="BA17" s="88"/>
-      <c r="BB17" s="88"/>
-      <c r="BC17" s="88"/>
-      <c r="BD17" s="88"/>
-      <c r="BE17" s="88"/>
-      <c r="BF17" s="88"/>
-      <c r="BG17" s="88"/>
-      <c r="BH17" s="88"/>
-      <c r="BI17" s="88"/>
-      <c r="BJ17" s="88"/>
-      <c r="BK17" s="88"/>
-      <c r="BL17" s="88"/>
-      <c r="BM17" s="88"/>
-      <c r="BN17" s="88"/>
-      <c r="BO17" s="88"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="118"/>
+      <c r="AG17" s="118"/>
+      <c r="AH17" s="118"/>
+      <c r="AI17" s="118"/>
+      <c r="AJ17" s="118"/>
+      <c r="AK17" s="118"/>
+      <c r="AL17" s="118"/>
+      <c r="AM17" s="118"/>
+      <c r="AN17" s="118"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="118"/>
+      <c r="AQ17" s="118"/>
+      <c r="AR17" s="118"/>
+      <c r="AS17" s="118"/>
+      <c r="AT17" s="118"/>
+      <c r="AU17" s="118"/>
+      <c r="AV17" s="118"/>
+      <c r="AW17" s="118"/>
+      <c r="AX17" s="118"/>
+      <c r="AY17" s="118"/>
+      <c r="AZ17" s="118"/>
+      <c r="BA17" s="118"/>
+      <c r="BB17" s="118"/>
+      <c r="BC17" s="118"/>
+      <c r="BD17" s="118"/>
+      <c r="BE17" s="118"/>
+      <c r="BF17" s="118"/>
+      <c r="BG17" s="118"/>
+      <c r="BH17" s="118"/>
+      <c r="BI17" s="118"/>
+      <c r="BJ17" s="118"/>
+      <c r="BK17" s="118"/>
+      <c r="BL17" s="118"/>
+      <c r="BM17" s="118"/>
+      <c r="BN17" s="118"/>
+      <c r="BO17" s="118"/>
       <c r="BP17"/>
       <c r="BR17" s="4"/>
     </row>
     <row r="18" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="88"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="88"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="88"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="88"/>
-      <c r="AN18" s="88"/>
-      <c r="AO18" s="88"/>
-      <c r="AP18" s="88"/>
-      <c r="AQ18" s="88"/>
-      <c r="AR18" s="88"/>
-      <c r="AS18" s="88"/>
-      <c r="AT18" s="88"/>
-      <c r="AU18" s="88"/>
-      <c r="AV18" s="88"/>
-      <c r="AW18" s="88"/>
-      <c r="AX18" s="88"/>
-      <c r="AY18" s="88"/>
-      <c r="AZ18" s="88"/>
-      <c r="BA18" s="88"/>
-      <c r="BB18" s="88"/>
-      <c r="BC18" s="88"/>
-      <c r="BD18" s="88"/>
-      <c r="BE18" s="88"/>
-      <c r="BF18" s="88"/>
-      <c r="BG18" s="88"/>
-      <c r="BH18" s="88"/>
-      <c r="BI18" s="88"/>
-      <c r="BJ18" s="88"/>
-      <c r="BK18" s="88"/>
-      <c r="BL18" s="88"/>
-      <c r="BM18" s="88"/>
-      <c r="BN18" s="88"/>
-      <c r="BO18" s="88"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
+      <c r="AE18" s="118"/>
+      <c r="AF18" s="118"/>
+      <c r="AG18" s="118"/>
+      <c r="AH18" s="118"/>
+      <c r="AI18" s="118"/>
+      <c r="AJ18" s="118"/>
+      <c r="AK18" s="118"/>
+      <c r="AL18" s="118"/>
+      <c r="AM18" s="118"/>
+      <c r="AN18" s="118"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="118"/>
+      <c r="AQ18" s="118"/>
+      <c r="AR18" s="118"/>
+      <c r="AS18" s="118"/>
+      <c r="AT18" s="118"/>
+      <c r="AU18" s="118"/>
+      <c r="AV18" s="118"/>
+      <c r="AW18" s="118"/>
+      <c r="AX18" s="118"/>
+      <c r="AY18" s="118"/>
+      <c r="AZ18" s="118"/>
+      <c r="BA18" s="118"/>
+      <c r="BB18" s="118"/>
+      <c r="BC18" s="118"/>
+      <c r="BD18" s="118"/>
+      <c r="BE18" s="118"/>
+      <c r="BF18" s="118"/>
+      <c r="BG18" s="118"/>
+      <c r="BH18" s="118"/>
+      <c r="BI18" s="118"/>
+      <c r="BJ18" s="118"/>
+      <c r="BK18" s="118"/>
+      <c r="BL18" s="118"/>
+      <c r="BM18" s="118"/>
+      <c r="BN18" s="118"/>
+      <c r="BO18" s="118"/>
       <c r="BP18"/>
       <c r="BR18" s="4"/>
     </row>
     <row r="19" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="88"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="88"/>
-      <c r="AD19" s="88"/>
-      <c r="AE19" s="88"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="88"/>
-      <c r="AH19" s="88"/>
-      <c r="AI19" s="88"/>
-      <c r="AJ19" s="88"/>
-      <c r="AK19" s="88"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="88"/>
-      <c r="AN19" s="88"/>
-      <c r="AO19" s="88"/>
-      <c r="AP19" s="88"/>
-      <c r="AQ19" s="88"/>
-      <c r="AR19" s="88"/>
-      <c r="AS19" s="88"/>
-      <c r="AT19" s="88"/>
-      <c r="AU19" s="88"/>
-      <c r="AV19" s="88"/>
-      <c r="AW19" s="88"/>
-      <c r="AX19" s="88"/>
-      <c r="AY19" s="88"/>
-      <c r="AZ19" s="88"/>
-      <c r="BA19" s="88"/>
-      <c r="BB19" s="88"/>
-      <c r="BC19" s="88"/>
-      <c r="BD19" s="88"/>
-      <c r="BE19" s="88"/>
-      <c r="BF19" s="88"/>
-      <c r="BG19" s="88"/>
-      <c r="BH19" s="88"/>
-      <c r="BI19" s="88"/>
-      <c r="BJ19" s="88"/>
-      <c r="BK19" s="88"/>
-      <c r="BL19" s="88"/>
-      <c r="BM19" s="88"/>
-      <c r="BN19" s="88"/>
-      <c r="BO19" s="88"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="118"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="118"/>
+      <c r="AG19" s="118"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="118"/>
+      <c r="AJ19" s="118"/>
+      <c r="AK19" s="118"/>
+      <c r="AL19" s="118"/>
+      <c r="AM19" s="118"/>
+      <c r="AN19" s="118"/>
+      <c r="AO19" s="118"/>
+      <c r="AP19" s="118"/>
+      <c r="AQ19" s="118"/>
+      <c r="AR19" s="118"/>
+      <c r="AS19" s="118"/>
+      <c r="AT19" s="118"/>
+      <c r="AU19" s="118"/>
+      <c r="AV19" s="118"/>
+      <c r="AW19" s="118"/>
+      <c r="AX19" s="118"/>
+      <c r="AY19" s="118"/>
+      <c r="AZ19" s="118"/>
+      <c r="BA19" s="118"/>
+      <c r="BB19" s="118"/>
+      <c r="BC19" s="118"/>
+      <c r="BD19" s="118"/>
+      <c r="BE19" s="118"/>
+      <c r="BF19" s="118"/>
+      <c r="BG19" s="118"/>
+      <c r="BH19" s="118"/>
+      <c r="BI19" s="118"/>
+      <c r="BJ19" s="118"/>
+      <c r="BK19" s="118"/>
+      <c r="BL19" s="118"/>
+      <c r="BM19" s="118"/>
+      <c r="BN19" s="118"/>
+      <c r="BO19" s="118"/>
       <c r="BP19"/>
       <c r="BR19" s="4"/>
     </row>
     <row r="20" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="88"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="88"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="88"/>
-      <c r="AN20" s="88"/>
-      <c r="AO20" s="88"/>
-      <c r="AP20" s="88"/>
-      <c r="AQ20" s="88"/>
-      <c r="AR20" s="88"/>
-      <c r="AS20" s="88"/>
-      <c r="AT20" s="88"/>
-      <c r="AU20" s="88"/>
-      <c r="AV20" s="88"/>
-      <c r="AW20" s="88"/>
-      <c r="AX20" s="88"/>
-      <c r="AY20" s="88"/>
-      <c r="AZ20" s="88"/>
-      <c r="BA20" s="88"/>
-      <c r="BB20" s="88"/>
-      <c r="BC20" s="88"/>
-      <c r="BD20" s="88"/>
-      <c r="BE20" s="88"/>
-      <c r="BF20" s="88"/>
-      <c r="BG20" s="88"/>
-      <c r="BH20" s="88"/>
-      <c r="BI20" s="88"/>
-      <c r="BJ20" s="88"/>
-      <c r="BK20" s="88"/>
-      <c r="BL20" s="88"/>
-      <c r="BM20" s="88"/>
-      <c r="BN20" s="88"/>
-      <c r="BO20" s="88"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="118"/>
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="118"/>
+      <c r="AG20" s="118"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="118"/>
+      <c r="AJ20" s="118"/>
+      <c r="AK20" s="118"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="118"/>
+      <c r="AU20" s="118"/>
+      <c r="AV20" s="118"/>
+      <c r="AW20" s="118"/>
+      <c r="AX20" s="118"/>
+      <c r="AY20" s="118"/>
+      <c r="AZ20" s="118"/>
+      <c r="BA20" s="118"/>
+      <c r="BB20" s="118"/>
+      <c r="BC20" s="118"/>
+      <c r="BD20" s="118"/>
+      <c r="BE20" s="118"/>
+      <c r="BF20" s="118"/>
+      <c r="BG20" s="118"/>
+      <c r="BH20" s="118"/>
+      <c r="BI20" s="118"/>
+      <c r="BJ20" s="118"/>
+      <c r="BK20" s="118"/>
+      <c r="BL20" s="118"/>
+      <c r="BM20" s="118"/>
+      <c r="BN20" s="118"/>
+      <c r="BO20" s="118"/>
       <c r="BP20"/>
       <c r="BR20" s="4"/>
     </row>
     <row r="21" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="86"/>
-      <c r="AJ21" s="86"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="86"/>
-      <c r="AM21" s="86"/>
-      <c r="AN21" s="86"/>
-      <c r="AO21" s="86"/>
-      <c r="AP21" s="86"/>
-      <c r="AQ21" s="86"/>
-      <c r="AR21" s="86"/>
-      <c r="AS21" s="86"/>
-      <c r="AT21" s="86"/>
-      <c r="AU21" s="86"/>
-      <c r="AV21" s="86"/>
-      <c r="AW21" s="86"/>
-      <c r="AX21" s="86"/>
-      <c r="AY21" s="86"/>
-      <c r="AZ21" s="86"/>
-      <c r="BA21" s="86"/>
-      <c r="BB21" s="86"/>
-      <c r="BC21" s="86"/>
-      <c r="BD21" s="86"/>
-      <c r="BE21" s="86"/>
-      <c r="BF21" s="86"/>
-      <c r="BG21" s="86"/>
-      <c r="BH21" s="86"/>
-      <c r="BI21" s="86"/>
-      <c r="BJ21" s="86"/>
-      <c r="BK21" s="86"/>
-      <c r="BL21" s="86"/>
-      <c r="BM21" s="86"/>
-      <c r="BN21" s="86"/>
-      <c r="BO21" s="86"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="115"/>
+      <c r="S21" s="115"/>
+      <c r="T21" s="115"/>
+      <c r="U21" s="115"/>
+      <c r="V21" s="115"/>
+      <c r="W21" s="115"/>
+      <c r="X21" s="115"/>
+      <c r="Y21" s="115"/>
+      <c r="Z21" s="115"/>
+      <c r="AA21" s="115"/>
+      <c r="AB21" s="115"/>
+      <c r="AC21" s="115"/>
+      <c r="AD21" s="115"/>
+      <c r="AE21" s="115"/>
+      <c r="AF21" s="115"/>
+      <c r="AG21" s="115"/>
+      <c r="AH21" s="115"/>
+      <c r="AI21" s="115"/>
+      <c r="AJ21" s="115"/>
+      <c r="AK21" s="115"/>
+      <c r="AL21" s="115"/>
+      <c r="AM21" s="115"/>
+      <c r="AN21" s="115"/>
+      <c r="AO21" s="115"/>
+      <c r="AP21" s="115"/>
+      <c r="AQ21" s="115"/>
+      <c r="AR21" s="115"/>
+      <c r="AS21" s="115"/>
+      <c r="AT21" s="115"/>
+      <c r="AU21" s="115"/>
+      <c r="AV21" s="115"/>
+      <c r="AW21" s="115"/>
+      <c r="AX21" s="115"/>
+      <c r="AY21" s="115"/>
+      <c r="AZ21" s="115"/>
+      <c r="BA21" s="115"/>
+      <c r="BB21" s="115"/>
+      <c r="BC21" s="115"/>
+      <c r="BD21" s="115"/>
+      <c r="BE21" s="115"/>
+      <c r="BF21" s="115"/>
+      <c r="BG21" s="115"/>
+      <c r="BH21" s="115"/>
+      <c r="BI21" s="115"/>
+      <c r="BJ21" s="115"/>
+      <c r="BK21" s="115"/>
+      <c r="BL21" s="115"/>
+      <c r="BM21" s="115"/>
+      <c r="BN21" s="115"/>
+      <c r="BO21" s="115"/>
       <c r="BP21"/>
       <c r="BR21" s="4"/>
     </row>
@@ -4181,88 +4181,88 @@
     </row>
     <row r="25" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66" t="s">
+      <c r="D25" s="103"/>
+      <c r="E25" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66" t="s">
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="68" t="s">
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="68"/>
-      <c r="AE25" s="67" t="s">
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="108"/>
+      <c r="X25" s="108"/>
+      <c r="Y25" s="108"/>
+      <c r="Z25" s="108"/>
+      <c r="AA25" s="108"/>
+      <c r="AB25" s="108"/>
+      <c r="AC25" s="108"/>
+      <c r="AD25" s="108"/>
+      <c r="AE25" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="67"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="67"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="67"/>
-      <c r="AK25" s="67"/>
-      <c r="AL25" s="67"/>
-      <c r="AM25" s="67"/>
-      <c r="AN25" s="67"/>
-      <c r="AO25" s="67"/>
-      <c r="AP25" s="67"/>
-      <c r="AQ25" s="67"/>
-      <c r="AR25" s="67"/>
-      <c r="AS25" s="67"/>
-      <c r="AT25" s="67"/>
-      <c r="AU25" s="67"/>
-      <c r="AV25" s="67"/>
-      <c r="AW25" s="67"/>
-      <c r="AX25" s="67"/>
-      <c r="AY25" s="67"/>
-      <c r="AZ25" s="67"/>
-      <c r="BA25" s="67"/>
-      <c r="BB25" s="67"/>
-      <c r="BC25" s="67"/>
-      <c r="BD25" s="67" t="s">
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="106"/>
+      <c r="AJ25" s="106"/>
+      <c r="AK25" s="106"/>
+      <c r="AL25" s="106"/>
+      <c r="AM25" s="106"/>
+      <c r="AN25" s="106"/>
+      <c r="AO25" s="106"/>
+      <c r="AP25" s="106"/>
+      <c r="AQ25" s="106"/>
+      <c r="AR25" s="106"/>
+      <c r="AS25" s="106"/>
+      <c r="AT25" s="106"/>
+      <c r="AU25" s="106"/>
+      <c r="AV25" s="106"/>
+      <c r="AW25" s="106"/>
+      <c r="AX25" s="106"/>
+      <c r="AY25" s="106"/>
+      <c r="AZ25" s="106"/>
+      <c r="BA25" s="106"/>
+      <c r="BB25" s="106"/>
+      <c r="BC25" s="106"/>
+      <c r="BD25" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="67"/>
-      <c r="BF25" s="67"/>
-      <c r="BG25" s="67"/>
-      <c r="BH25" s="67"/>
-      <c r="BI25" s="67"/>
-      <c r="BJ25" s="69"/>
-      <c r="BK25" s="89" t="s">
+      <c r="BE25" s="106"/>
+      <c r="BF25" s="106"/>
+      <c r="BG25" s="106"/>
+      <c r="BH25" s="106"/>
+      <c r="BI25" s="106"/>
+      <c r="BJ25" s="116"/>
+      <c r="BK25" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="90"/>
-      <c r="BM25" s="90"/>
-      <c r="BN25" s="90"/>
-      <c r="BO25" s="90"/>
-      <c r="BP25" s="90"/>
-      <c r="BQ25" s="90"/>
-      <c r="BR25" s="90"/>
+      <c r="BL25" s="120"/>
+      <c r="BM25" s="120"/>
+      <c r="BN25" s="120"/>
+      <c r="BO25" s="120"/>
+      <c r="BP25" s="120"/>
+      <c r="BQ25" s="120"/>
+      <c r="BR25" s="120"/>
       <c r="BS25" s="46"/>
       <c r="BT25" s="46"/>
       <c r="BU25" s="46"/>
@@ -4282,90 +4282,90 @@
     </row>
     <row r="26" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="74">
+      <c r="C26" s="64">
         <v>1</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="91" t="s">
+      <c r="D26" s="72"/>
+      <c r="E26" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="91" t="s">
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="92"/>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="92"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="78" t="s">
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="79"/>
-      <c r="AM26" s="79"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="79"/>
-      <c r="AP26" s="79"/>
-      <c r="AQ26" s="79"/>
-      <c r="AR26" s="79"/>
-      <c r="AS26" s="79"/>
-      <c r="AT26" s="79"/>
-      <c r="AU26" s="79"/>
-      <c r="AV26" s="79"/>
-      <c r="AW26" s="79"/>
-      <c r="AX26" s="79"/>
-      <c r="AY26" s="79"/>
-      <c r="AZ26" s="79"/>
-      <c r="BA26" s="79"/>
-      <c r="BB26" s="79"/>
-      <c r="BC26" s="80"/>
-      <c r="BD26" s="74" t="s">
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="87"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="87"/>
+      <c r="AM26" s="87"/>
+      <c r="AN26" s="87"/>
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
+      <c r="AQ26" s="87"/>
+      <c r="AR26" s="87"/>
+      <c r="AS26" s="87"/>
+      <c r="AT26" s="87"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87"/>
+      <c r="AX26" s="87"/>
+      <c r="AY26" s="87"/>
+      <c r="AZ26" s="87"/>
+      <c r="BA26" s="87"/>
+      <c r="BB26" s="87"/>
+      <c r="BC26" s="88"/>
+      <c r="BD26" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="84"/>
-      <c r="BF26" s="84"/>
-      <c r="BG26" s="84"/>
-      <c r="BH26" s="84"/>
-      <c r="BI26" s="84"/>
-      <c r="BJ26" s="84"/>
-      <c r="BK26" s="115" t="s">
+      <c r="BE26" s="65"/>
+      <c r="BF26" s="65"/>
+      <c r="BG26" s="65"/>
+      <c r="BH26" s="65"/>
+      <c r="BI26" s="65"/>
+      <c r="BJ26" s="65"/>
+      <c r="BK26" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="BL26" s="116"/>
-      <c r="BM26" s="116"/>
-      <c r="BN26" s="116"/>
-      <c r="BO26" s="116"/>
-      <c r="BP26" s="116"/>
-      <c r="BQ26" s="116"/>
-      <c r="BR26" s="116"/>
-      <c r="BS26" s="116"/>
-      <c r="BT26" s="116"/>
-      <c r="BU26" s="116"/>
-      <c r="BV26" s="117"/>
+      <c r="BL26" s="69"/>
+      <c r="BM26" s="69"/>
+      <c r="BN26" s="69"/>
+      <c r="BO26" s="69"/>
+      <c r="BP26" s="69"/>
+      <c r="BQ26" s="69"/>
+      <c r="BR26" s="69"/>
+      <c r="BS26" s="69"/>
+      <c r="BT26" s="69"/>
+      <c r="BU26" s="69"/>
+      <c r="BV26" s="70"/>
       <c r="AML26" s="2"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -4381,78 +4381,78 @@
     </row>
     <row r="27" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="81"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="82"/>
-      <c r="AM27" s="82"/>
-      <c r="AN27" s="82"/>
-      <c r="AO27" s="82"/>
-      <c r="AP27" s="82"/>
-      <c r="AQ27" s="82"/>
-      <c r="AR27" s="82"/>
-      <c r="AS27" s="82"/>
-      <c r="AT27" s="82"/>
-      <c r="AU27" s="82"/>
-      <c r="AV27" s="82"/>
-      <c r="AW27" s="82"/>
-      <c r="AX27" s="82"/>
-      <c r="AY27" s="82"/>
-      <c r="AZ27" s="82"/>
-      <c r="BA27" s="82"/>
-      <c r="BB27" s="82"/>
-      <c r="BC27" s="83"/>
-      <c r="BD27" s="76"/>
-      <c r="BE27" s="85"/>
-      <c r="BF27" s="85"/>
-      <c r="BG27" s="85"/>
-      <c r="BH27" s="85"/>
-      <c r="BI27" s="85"/>
-      <c r="BJ27" s="85"/>
-      <c r="BK27" s="118"/>
-      <c r="BL27" s="116"/>
-      <c r="BM27" s="116"/>
-      <c r="BN27" s="116"/>
-      <c r="BO27" s="116"/>
-      <c r="BP27" s="116"/>
-      <c r="BQ27" s="116"/>
-      <c r="BR27" s="116"/>
-      <c r="BS27" s="116"/>
-      <c r="BT27" s="116"/>
-      <c r="BU27" s="116"/>
-      <c r="BV27" s="117"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="89"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="90"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="90"/>
+      <c r="AM27" s="90"/>
+      <c r="AN27" s="90"/>
+      <c r="AO27" s="90"/>
+      <c r="AP27" s="90"/>
+      <c r="AQ27" s="90"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="90"/>
+      <c r="BA27" s="90"/>
+      <c r="BB27" s="90"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="66"/>
+      <c r="BE27" s="67"/>
+      <c r="BF27" s="67"/>
+      <c r="BG27" s="67"/>
+      <c r="BH27" s="67"/>
+      <c r="BI27" s="67"/>
+      <c r="BJ27" s="67"/>
+      <c r="BK27" s="71"/>
+      <c r="BL27" s="69"/>
+      <c r="BM27" s="69"/>
+      <c r="BN27" s="69"/>
+      <c r="BO27" s="69"/>
+      <c r="BP27" s="69"/>
+      <c r="BQ27" s="69"/>
+      <c r="BR27" s="69"/>
+      <c r="BS27" s="69"/>
+      <c r="BT27" s="69"/>
+      <c r="BU27" s="69"/>
+      <c r="BV27" s="70"/>
       <c r="AML27" s="2"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -4468,90 +4468,90 @@
     </row>
     <row r="28" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="74">
+      <c r="C28" s="64">
         <v>2</v>
       </c>
-      <c r="D28" s="75"/>
-      <c r="E28" s="91" t="s">
+      <c r="D28" s="72"/>
+      <c r="E28" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="91" t="s">
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="93"/>
-      <c r="AE28" s="78" t="s">
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="79"/>
-      <c r="AM28" s="79"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
-      <c r="AP28" s="79"/>
-      <c r="AQ28" s="79"/>
-      <c r="AR28" s="79"/>
-      <c r="AS28" s="79"/>
-      <c r="AT28" s="79"/>
-      <c r="AU28" s="79"/>
-      <c r="AV28" s="79"/>
-      <c r="AW28" s="79"/>
-      <c r="AX28" s="79"/>
-      <c r="AY28" s="79"/>
-      <c r="AZ28" s="79"/>
-      <c r="BA28" s="79"/>
-      <c r="BB28" s="79"/>
-      <c r="BC28" s="80"/>
-      <c r="BD28" s="74" t="s">
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="87"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="87"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="87"/>
+      <c r="AL28" s="87"/>
+      <c r="AM28" s="87"/>
+      <c r="AN28" s="87"/>
+      <c r="AO28" s="87"/>
+      <c r="AP28" s="87"/>
+      <c r="AQ28" s="87"/>
+      <c r="AR28" s="87"/>
+      <c r="AS28" s="87"/>
+      <c r="AT28" s="87"/>
+      <c r="AU28" s="87"/>
+      <c r="AV28" s="87"/>
+      <c r="AW28" s="87"/>
+      <c r="AX28" s="87"/>
+      <c r="AY28" s="87"/>
+      <c r="AZ28" s="87"/>
+      <c r="BA28" s="87"/>
+      <c r="BB28" s="87"/>
+      <c r="BC28" s="88"/>
+      <c r="BD28" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="BE28" s="84"/>
-      <c r="BF28" s="84"/>
-      <c r="BG28" s="84"/>
-      <c r="BH28" s="84"/>
-      <c r="BI28" s="84"/>
-      <c r="BJ28" s="75"/>
-      <c r="BK28" s="119" t="s">
+      <c r="BE28" s="65"/>
+      <c r="BF28" s="65"/>
+      <c r="BG28" s="65"/>
+      <c r="BH28" s="65"/>
+      <c r="BI28" s="65"/>
+      <c r="BJ28" s="72"/>
+      <c r="BK28" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="BL28" s="120"/>
-      <c r="BM28" s="120"/>
-      <c r="BN28" s="120"/>
-      <c r="BO28" s="120"/>
-      <c r="BP28" s="120"/>
-      <c r="BQ28" s="120"/>
-      <c r="BR28" s="120"/>
-      <c r="BS28" s="120"/>
-      <c r="BT28" s="120"/>
-      <c r="BU28" s="120"/>
-      <c r="BV28" s="121"/>
+      <c r="BL28" s="93"/>
+      <c r="BM28" s="93"/>
+      <c r="BN28" s="93"/>
+      <c r="BO28" s="93"/>
+      <c r="BP28" s="93"/>
+      <c r="BQ28" s="93"/>
+      <c r="BR28" s="93"/>
+      <c r="BS28" s="93"/>
+      <c r="BT28" s="93"/>
+      <c r="BU28" s="93"/>
+      <c r="BV28" s="94"/>
       <c r="AML28" s="2"/>
       <c r="AMM28"/>
       <c r="AMN28"/>
@@ -4567,78 +4567,78 @@
     </row>
     <row r="29" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="96"/>
-      <c r="AE29" s="81"/>
-      <c r="AF29" s="82"/>
-      <c r="AG29" s="82"/>
-      <c r="AH29" s="82"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="82"/>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="82"/>
-      <c r="AM29" s="82"/>
-      <c r="AN29" s="82"/>
-      <c r="AO29" s="82"/>
-      <c r="AP29" s="82"/>
-      <c r="AQ29" s="82"/>
-      <c r="AR29" s="82"/>
-      <c r="AS29" s="82"/>
-      <c r="AT29" s="82"/>
-      <c r="AU29" s="82"/>
-      <c r="AV29" s="82"/>
-      <c r="AW29" s="82"/>
-      <c r="AX29" s="82"/>
-      <c r="AY29" s="82"/>
-      <c r="AZ29" s="82"/>
-      <c r="BA29" s="82"/>
-      <c r="BB29" s="82"/>
-      <c r="BC29" s="83"/>
-      <c r="BD29" s="76"/>
-      <c r="BE29" s="85"/>
-      <c r="BF29" s="85"/>
-      <c r="BG29" s="85"/>
-      <c r="BH29" s="85"/>
-      <c r="BI29" s="85"/>
-      <c r="BJ29" s="77"/>
-      <c r="BK29" s="122"/>
-      <c r="BL29" s="123"/>
-      <c r="BM29" s="123"/>
-      <c r="BN29" s="123"/>
-      <c r="BO29" s="123"/>
-      <c r="BP29" s="123"/>
-      <c r="BQ29" s="123"/>
-      <c r="BR29" s="123"/>
-      <c r="BS29" s="123"/>
-      <c r="BT29" s="123"/>
-      <c r="BU29" s="123"/>
-      <c r="BV29" s="124"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="89"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+      <c r="AI29" s="90"/>
+      <c r="AJ29" s="90"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="90"/>
+      <c r="AM29" s="90"/>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="90"/>
+      <c r="AP29" s="90"/>
+      <c r="AQ29" s="90"/>
+      <c r="AR29" s="90"/>
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="90"/>
+      <c r="AY29" s="90"/>
+      <c r="AZ29" s="90"/>
+      <c r="BA29" s="90"/>
+      <c r="BB29" s="90"/>
+      <c r="BC29" s="91"/>
+      <c r="BD29" s="66"/>
+      <c r="BE29" s="67"/>
+      <c r="BF29" s="67"/>
+      <c r="BG29" s="67"/>
+      <c r="BH29" s="67"/>
+      <c r="BI29" s="67"/>
+      <c r="BJ29" s="73"/>
+      <c r="BK29" s="95"/>
+      <c r="BL29" s="96"/>
+      <c r="BM29" s="96"/>
+      <c r="BN29" s="96"/>
+      <c r="BO29" s="96"/>
+      <c r="BP29" s="96"/>
+      <c r="BQ29" s="96"/>
+      <c r="BR29" s="96"/>
+      <c r="BS29" s="96"/>
+      <c r="BT29" s="96"/>
+      <c r="BU29" s="96"/>
+      <c r="BV29" s="97"/>
       <c r="AML29" s="2"/>
       <c r="AMM29"/>
       <c r="AMN29"/>
@@ -4654,86 +4654,86 @@
     </row>
     <row r="30" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="74">
+      <c r="C30" s="64">
         <v>3</v>
       </c>
-      <c r="D30" s="75"/>
-      <c r="E30" s="78" t="s">
+      <c r="D30" s="72"/>
+      <c r="E30" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="78" t="s">
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="80"/>
-      <c r="AE30" s="78" t="s">
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="87"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="87"/>
+      <c r="AC30" s="87"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="79"/>
-      <c r="AP30" s="79"/>
-      <c r="AQ30" s="79"/>
-      <c r="AR30" s="79"/>
-      <c r="AS30" s="79"/>
-      <c r="AT30" s="79"/>
-      <c r="AU30" s="79"/>
-      <c r="AV30" s="79"/>
-      <c r="AW30" s="79"/>
-      <c r="AX30" s="79"/>
-      <c r="AY30" s="79"/>
-      <c r="AZ30" s="79"/>
-      <c r="BA30" s="79"/>
-      <c r="BB30" s="79"/>
-      <c r="BC30" s="80"/>
-      <c r="BD30" s="74" t="s">
+      <c r="AF30" s="87"/>
+      <c r="AG30" s="87"/>
+      <c r="AH30" s="87"/>
+      <c r="AI30" s="87"/>
+      <c r="AJ30" s="87"/>
+      <c r="AK30" s="87"/>
+      <c r="AL30" s="87"/>
+      <c r="AM30" s="87"/>
+      <c r="AN30" s="87"/>
+      <c r="AO30" s="87"/>
+      <c r="AP30" s="87"/>
+      <c r="AQ30" s="87"/>
+      <c r="AR30" s="87"/>
+      <c r="AS30" s="87"/>
+      <c r="AT30" s="87"/>
+      <c r="AU30" s="87"/>
+      <c r="AV30" s="87"/>
+      <c r="AW30" s="87"/>
+      <c r="AX30" s="87"/>
+      <c r="AY30" s="87"/>
+      <c r="AZ30" s="87"/>
+      <c r="BA30" s="87"/>
+      <c r="BB30" s="87"/>
+      <c r="BC30" s="88"/>
+      <c r="BD30" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="BE30" s="84"/>
-      <c r="BF30" s="84"/>
-      <c r="BG30" s="84"/>
-      <c r="BH30" s="84"/>
-      <c r="BI30" s="84"/>
-      <c r="BJ30" s="75"/>
-      <c r="BK30" s="70" t="s">
+      <c r="BE30" s="65"/>
+      <c r="BF30" s="65"/>
+      <c r="BG30" s="65"/>
+      <c r="BH30" s="65"/>
+      <c r="BI30" s="65"/>
+      <c r="BJ30" s="72"/>
+      <c r="BK30" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="BL30" s="71"/>
-      <c r="BM30" s="71"/>
-      <c r="BN30" s="71"/>
-      <c r="BO30" s="71"/>
-      <c r="BP30" s="71"/>
-      <c r="BQ30" s="71"/>
-      <c r="BR30" s="71"/>
+      <c r="BL30" s="122"/>
+      <c r="BM30" s="122"/>
+      <c r="BN30" s="122"/>
+      <c r="BO30" s="122"/>
+      <c r="BP30" s="122"/>
+      <c r="BQ30" s="122"/>
+      <c r="BR30" s="122"/>
       <c r="BS30" s="46"/>
       <c r="BT30" s="46"/>
       <c r="BU30" s="46"/>
@@ -4753,74 +4753,74 @@
     </row>
     <row r="31" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="82"/>
-      <c r="AD31" s="83"/>
-      <c r="AE31" s="81"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="82"/>
-      <c r="AK31" s="82"/>
-      <c r="AL31" s="82"/>
-      <c r="AM31" s="82"/>
-      <c r="AN31" s="82"/>
-      <c r="AO31" s="82"/>
-      <c r="AP31" s="82"/>
-      <c r="AQ31" s="82"/>
-      <c r="AR31" s="82"/>
-      <c r="AS31" s="82"/>
-      <c r="AT31" s="82"/>
-      <c r="AU31" s="82"/>
-      <c r="AV31" s="82"/>
-      <c r="AW31" s="82"/>
-      <c r="AX31" s="82"/>
-      <c r="AY31" s="82"/>
-      <c r="AZ31" s="82"/>
-      <c r="BA31" s="82"/>
-      <c r="BB31" s="82"/>
-      <c r="BC31" s="83"/>
-      <c r="BD31" s="76"/>
-      <c r="BE31" s="85"/>
-      <c r="BF31" s="85"/>
-      <c r="BG31" s="85"/>
-      <c r="BH31" s="85"/>
-      <c r="BI31" s="85"/>
-      <c r="BJ31" s="77"/>
-      <c r="BK31" s="72"/>
-      <c r="BL31" s="73"/>
-      <c r="BM31" s="73"/>
-      <c r="BN31" s="73"/>
-      <c r="BO31" s="73"/>
-      <c r="BP31" s="73"/>
-      <c r="BQ31" s="73"/>
-      <c r="BR31" s="73"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="91"/>
+      <c r="AE31" s="89"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="90"/>
+      <c r="AJ31" s="90"/>
+      <c r="AK31" s="90"/>
+      <c r="AL31" s="90"/>
+      <c r="AM31" s="90"/>
+      <c r="AN31" s="90"/>
+      <c r="AO31" s="90"/>
+      <c r="AP31" s="90"/>
+      <c r="AQ31" s="90"/>
+      <c r="AR31" s="90"/>
+      <c r="AS31" s="90"/>
+      <c r="AT31" s="90"/>
+      <c r="AU31" s="90"/>
+      <c r="AV31" s="90"/>
+      <c r="AW31" s="90"/>
+      <c r="AX31" s="90"/>
+      <c r="AY31" s="90"/>
+      <c r="AZ31" s="90"/>
+      <c r="BA31" s="90"/>
+      <c r="BB31" s="90"/>
+      <c r="BC31" s="91"/>
+      <c r="BD31" s="66"/>
+      <c r="BE31" s="67"/>
+      <c r="BF31" s="67"/>
+      <c r="BG31" s="67"/>
+      <c r="BH31" s="67"/>
+      <c r="BI31" s="67"/>
+      <c r="BJ31" s="73"/>
+      <c r="BK31" s="123"/>
+      <c r="BL31" s="124"/>
+      <c r="BM31" s="124"/>
+      <c r="BN31" s="124"/>
+      <c r="BO31" s="124"/>
+      <c r="BP31" s="124"/>
+      <c r="BQ31" s="124"/>
+      <c r="BR31" s="124"/>
       <c r="BS31" s="46"/>
       <c r="BT31" s="46"/>
       <c r="BU31" s="46"/>
@@ -4840,76 +4840,76 @@
     </row>
     <row r="32" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="66">
+      <c r="C32" s="103">
         <v>5</v>
       </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="67"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="67"/>
-      <c r="AM32" s="67"/>
-      <c r="AN32" s="67"/>
-      <c r="AO32" s="67"/>
-      <c r="AP32" s="67"/>
-      <c r="AQ32" s="67"/>
-      <c r="AR32" s="67"/>
-      <c r="AS32" s="67"/>
-      <c r="AT32" s="67"/>
-      <c r="AU32" s="67"/>
-      <c r="AV32" s="67"/>
-      <c r="AW32" s="67"/>
-      <c r="AX32" s="67"/>
-      <c r="AY32" s="67"/>
-      <c r="AZ32" s="67"/>
-      <c r="BA32" s="67"/>
-      <c r="BB32" s="67"/>
-      <c r="BC32" s="67"/>
-      <c r="BD32" s="67"/>
-      <c r="BE32" s="67"/>
-      <c r="BF32" s="67"/>
-      <c r="BG32" s="67"/>
-      <c r="BH32" s="67"/>
-      <c r="BI32" s="67"/>
-      <c r="BJ32" s="69"/>
-      <c r="BK32" s="64"/>
-      <c r="BL32" s="65"/>
-      <c r="BM32" s="65"/>
-      <c r="BN32" s="65"/>
-      <c r="BO32" s="65"/>
-      <c r="BP32" s="65"/>
-      <c r="BQ32" s="65"/>
-      <c r="BR32" s="65"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="108"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="108"/>
+      <c r="AA32" s="108"/>
+      <c r="AB32" s="108"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="108"/>
+      <c r="AE32" s="106"/>
+      <c r="AF32" s="106"/>
+      <c r="AG32" s="106"/>
+      <c r="AH32" s="106"/>
+      <c r="AI32" s="106"/>
+      <c r="AJ32" s="106"/>
+      <c r="AK32" s="106"/>
+      <c r="AL32" s="106"/>
+      <c r="AM32" s="106"/>
+      <c r="AN32" s="106"/>
+      <c r="AO32" s="106"/>
+      <c r="AP32" s="106"/>
+      <c r="AQ32" s="106"/>
+      <c r="AR32" s="106"/>
+      <c r="AS32" s="106"/>
+      <c r="AT32" s="106"/>
+      <c r="AU32" s="106"/>
+      <c r="AV32" s="106"/>
+      <c r="AW32" s="106"/>
+      <c r="AX32" s="106"/>
+      <c r="AY32" s="106"/>
+      <c r="AZ32" s="106"/>
+      <c r="BA32" s="106"/>
+      <c r="BB32" s="106"/>
+      <c r="BC32" s="106"/>
+      <c r="BD32" s="106"/>
+      <c r="BE32" s="106"/>
+      <c r="BF32" s="106"/>
+      <c r="BG32" s="106"/>
+      <c r="BH32" s="106"/>
+      <c r="BI32" s="106"/>
+      <c r="BJ32" s="116"/>
+      <c r="BK32" s="113"/>
+      <c r="BL32" s="114"/>
+      <c r="BM32" s="114"/>
+      <c r="BN32" s="114"/>
+      <c r="BO32" s="114"/>
+      <c r="BP32" s="114"/>
+      <c r="BQ32" s="114"/>
+      <c r="BR32" s="114"/>
       <c r="BS32" s="46"/>
       <c r="BT32" s="46"/>
       <c r="BU32" s="46"/>
@@ -4929,76 +4929,76 @@
     </row>
     <row r="33" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="66">
+      <c r="C33" s="103">
         <v>6</v>
       </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="67"/>
-      <c r="AF33" s="67"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="67"/>
-      <c r="AJ33" s="67"/>
-      <c r="AK33" s="67"/>
-      <c r="AL33" s="67"/>
-      <c r="AM33" s="67"/>
-      <c r="AN33" s="67"/>
-      <c r="AO33" s="67"/>
-      <c r="AP33" s="67"/>
-      <c r="AQ33" s="67"/>
-      <c r="AR33" s="67"/>
-      <c r="AS33" s="67"/>
-      <c r="AT33" s="67"/>
-      <c r="AU33" s="67"/>
-      <c r="AV33" s="67"/>
-      <c r="AW33" s="67"/>
-      <c r="AX33" s="67"/>
-      <c r="AY33" s="67"/>
-      <c r="AZ33" s="67"/>
-      <c r="BA33" s="67"/>
-      <c r="BB33" s="67"/>
-      <c r="BC33" s="67"/>
-      <c r="BD33" s="67"/>
-      <c r="BE33" s="67"/>
-      <c r="BF33" s="67"/>
-      <c r="BG33" s="67"/>
-      <c r="BH33" s="67"/>
-      <c r="BI33" s="67"/>
-      <c r="BJ33" s="69"/>
-      <c r="BK33" s="64"/>
-      <c r="BL33" s="65"/>
-      <c r="BM33" s="65"/>
-      <c r="BN33" s="65"/>
-      <c r="BO33" s="65"/>
-      <c r="BP33" s="65"/>
-      <c r="BQ33" s="65"/>
-      <c r="BR33" s="65"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="108"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="108"/>
+      <c r="X33" s="108"/>
+      <c r="Y33" s="108"/>
+      <c r="Z33" s="108"/>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="106"/>
+      <c r="AF33" s="106"/>
+      <c r="AG33" s="106"/>
+      <c r="AH33" s="106"/>
+      <c r="AI33" s="106"/>
+      <c r="AJ33" s="106"/>
+      <c r="AK33" s="106"/>
+      <c r="AL33" s="106"/>
+      <c r="AM33" s="106"/>
+      <c r="AN33" s="106"/>
+      <c r="AO33" s="106"/>
+      <c r="AP33" s="106"/>
+      <c r="AQ33" s="106"/>
+      <c r="AR33" s="106"/>
+      <c r="AS33" s="106"/>
+      <c r="AT33" s="106"/>
+      <c r="AU33" s="106"/>
+      <c r="AV33" s="106"/>
+      <c r="AW33" s="106"/>
+      <c r="AX33" s="106"/>
+      <c r="AY33" s="106"/>
+      <c r="AZ33" s="106"/>
+      <c r="BA33" s="106"/>
+      <c r="BB33" s="106"/>
+      <c r="BC33" s="106"/>
+      <c r="BD33" s="106"/>
+      <c r="BE33" s="106"/>
+      <c r="BF33" s="106"/>
+      <c r="BG33" s="106"/>
+      <c r="BH33" s="106"/>
+      <c r="BI33" s="106"/>
+      <c r="BJ33" s="116"/>
+      <c r="BK33" s="113"/>
+      <c r="BL33" s="114"/>
+      <c r="BM33" s="114"/>
+      <c r="BN33" s="114"/>
+      <c r="BO33" s="114"/>
+      <c r="BP33" s="114"/>
+      <c r="BQ33" s="114"/>
+      <c r="BR33" s="114"/>
       <c r="BS33" s="46"/>
       <c r="BT33" s="46"/>
       <c r="BU33" s="46"/>
@@ -5018,76 +5018,76 @@
     </row>
     <row r="34" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="66">
+      <c r="C34" s="103">
         <v>7</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="67"/>
-      <c r="AF34" s="67"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="67"/>
-      <c r="AI34" s="67"/>
-      <c r="AJ34" s="67"/>
-      <c r="AK34" s="67"/>
-      <c r="AL34" s="67"/>
-      <c r="AM34" s="67"/>
-      <c r="AN34" s="67"/>
-      <c r="AO34" s="67"/>
-      <c r="AP34" s="67"/>
-      <c r="AQ34" s="67"/>
-      <c r="AR34" s="67"/>
-      <c r="AS34" s="67"/>
-      <c r="AT34" s="67"/>
-      <c r="AU34" s="67"/>
-      <c r="AV34" s="67"/>
-      <c r="AW34" s="67"/>
-      <c r="AX34" s="67"/>
-      <c r="AY34" s="67"/>
-      <c r="AZ34" s="67"/>
-      <c r="BA34" s="67"/>
-      <c r="BB34" s="67"/>
-      <c r="BC34" s="67"/>
-      <c r="BD34" s="67"/>
-      <c r="BE34" s="67"/>
-      <c r="BF34" s="67"/>
-      <c r="BG34" s="67"/>
-      <c r="BH34" s="67"/>
-      <c r="BI34" s="67"/>
-      <c r="BJ34" s="69"/>
-      <c r="BK34" s="64"/>
-      <c r="BL34" s="65"/>
-      <c r="BM34" s="65"/>
-      <c r="BN34" s="65"/>
-      <c r="BO34" s="65"/>
-      <c r="BP34" s="65"/>
-      <c r="BQ34" s="65"/>
-      <c r="BR34" s="65"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="108"/>
+      <c r="V34" s="108"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="108"/>
+      <c r="Y34" s="108"/>
+      <c r="Z34" s="108"/>
+      <c r="AA34" s="108"/>
+      <c r="AB34" s="108"/>
+      <c r="AC34" s="108"/>
+      <c r="AD34" s="108"/>
+      <c r="AE34" s="106"/>
+      <c r="AF34" s="106"/>
+      <c r="AG34" s="106"/>
+      <c r="AH34" s="106"/>
+      <c r="AI34" s="106"/>
+      <c r="AJ34" s="106"/>
+      <c r="AK34" s="106"/>
+      <c r="AL34" s="106"/>
+      <c r="AM34" s="106"/>
+      <c r="AN34" s="106"/>
+      <c r="AO34" s="106"/>
+      <c r="AP34" s="106"/>
+      <c r="AQ34" s="106"/>
+      <c r="AR34" s="106"/>
+      <c r="AS34" s="106"/>
+      <c r="AT34" s="106"/>
+      <c r="AU34" s="106"/>
+      <c r="AV34" s="106"/>
+      <c r="AW34" s="106"/>
+      <c r="AX34" s="106"/>
+      <c r="AY34" s="106"/>
+      <c r="AZ34" s="106"/>
+      <c r="BA34" s="106"/>
+      <c r="BB34" s="106"/>
+      <c r="BC34" s="106"/>
+      <c r="BD34" s="106"/>
+      <c r="BE34" s="106"/>
+      <c r="BF34" s="106"/>
+      <c r="BG34" s="106"/>
+      <c r="BH34" s="106"/>
+      <c r="BI34" s="106"/>
+      <c r="BJ34" s="116"/>
+      <c r="BK34" s="113"/>
+      <c r="BL34" s="114"/>
+      <c r="BM34" s="114"/>
+      <c r="BN34" s="114"/>
+      <c r="BO34" s="114"/>
+      <c r="BP34" s="114"/>
+      <c r="BQ34" s="114"/>
+      <c r="BR34" s="114"/>
       <c r="BS34" s="46"/>
       <c r="BT34" s="46"/>
       <c r="BU34" s="46"/>
@@ -5107,76 +5107,76 @@
     </row>
     <row r="35" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="C35" s="66">
+      <c r="C35" s="103">
         <v>8</v>
       </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="67"/>
-      <c r="AF35" s="67"/>
-      <c r="AG35" s="67"/>
-      <c r="AH35" s="67"/>
-      <c r="AI35" s="67"/>
-      <c r="AJ35" s="67"/>
-      <c r="AK35" s="67"/>
-      <c r="AL35" s="67"/>
-      <c r="AM35" s="67"/>
-      <c r="AN35" s="67"/>
-      <c r="AO35" s="67"/>
-      <c r="AP35" s="67"/>
-      <c r="AQ35" s="67"/>
-      <c r="AR35" s="67"/>
-      <c r="AS35" s="67"/>
-      <c r="AT35" s="67"/>
-      <c r="AU35" s="67"/>
-      <c r="AV35" s="67"/>
-      <c r="AW35" s="67"/>
-      <c r="AX35" s="67"/>
-      <c r="AY35" s="67"/>
-      <c r="AZ35" s="67"/>
-      <c r="BA35" s="67"/>
-      <c r="BB35" s="67"/>
-      <c r="BC35" s="67"/>
-      <c r="BD35" s="67"/>
-      <c r="BE35" s="67"/>
-      <c r="BF35" s="67"/>
-      <c r="BG35" s="67"/>
-      <c r="BH35" s="67"/>
-      <c r="BI35" s="67"/>
-      <c r="BJ35" s="69"/>
-      <c r="BK35" s="64"/>
-      <c r="BL35" s="65"/>
-      <c r="BM35" s="65"/>
-      <c r="BN35" s="65"/>
-      <c r="BO35" s="65"/>
-      <c r="BP35" s="65"/>
-      <c r="BQ35" s="65"/>
-      <c r="BR35" s="65"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="108"/>
+      <c r="U35" s="108"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="108"/>
+      <c r="X35" s="108"/>
+      <c r="Y35" s="108"/>
+      <c r="Z35" s="108"/>
+      <c r="AA35" s="108"/>
+      <c r="AB35" s="108"/>
+      <c r="AC35" s="108"/>
+      <c r="AD35" s="108"/>
+      <c r="AE35" s="106"/>
+      <c r="AF35" s="106"/>
+      <c r="AG35" s="106"/>
+      <c r="AH35" s="106"/>
+      <c r="AI35" s="106"/>
+      <c r="AJ35" s="106"/>
+      <c r="AK35" s="106"/>
+      <c r="AL35" s="106"/>
+      <c r="AM35" s="106"/>
+      <c r="AN35" s="106"/>
+      <c r="AO35" s="106"/>
+      <c r="AP35" s="106"/>
+      <c r="AQ35" s="106"/>
+      <c r="AR35" s="106"/>
+      <c r="AS35" s="106"/>
+      <c r="AT35" s="106"/>
+      <c r="AU35" s="106"/>
+      <c r="AV35" s="106"/>
+      <c r="AW35" s="106"/>
+      <c r="AX35" s="106"/>
+      <c r="AY35" s="106"/>
+      <c r="AZ35" s="106"/>
+      <c r="BA35" s="106"/>
+      <c r="BB35" s="106"/>
+      <c r="BC35" s="106"/>
+      <c r="BD35" s="106"/>
+      <c r="BE35" s="106"/>
+      <c r="BF35" s="106"/>
+      <c r="BG35" s="106"/>
+      <c r="BH35" s="106"/>
+      <c r="BI35" s="106"/>
+      <c r="BJ35" s="116"/>
+      <c r="BK35" s="113"/>
+      <c r="BL35" s="114"/>
+      <c r="BM35" s="114"/>
+      <c r="BN35" s="114"/>
+      <c r="BO35" s="114"/>
+      <c r="BP35" s="114"/>
+      <c r="BQ35" s="114"/>
+      <c r="BR35" s="114"/>
       <c r="BS35" s="46"/>
       <c r="BT35" s="46"/>
       <c r="BU35" s="46"/>
@@ -5196,76 +5196,76 @@
     </row>
     <row r="36" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="C36" s="66">
+      <c r="C36" s="103">
         <v>9</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="68"/>
-      <c r="AB36" s="68"/>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="68"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="67"/>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="67"/>
-      <c r="AO36" s="67"/>
-      <c r="AP36" s="67"/>
-      <c r="AQ36" s="67"/>
-      <c r="AR36" s="67"/>
-      <c r="AS36" s="67"/>
-      <c r="AT36" s="67"/>
-      <c r="AU36" s="67"/>
-      <c r="AV36" s="67"/>
-      <c r="AW36" s="67"/>
-      <c r="AX36" s="67"/>
-      <c r="AY36" s="67"/>
-      <c r="AZ36" s="67"/>
-      <c r="BA36" s="67"/>
-      <c r="BB36" s="67"/>
-      <c r="BC36" s="67"/>
-      <c r="BD36" s="67"/>
-      <c r="BE36" s="67"/>
-      <c r="BF36" s="67"/>
-      <c r="BG36" s="67"/>
-      <c r="BH36" s="67"/>
-      <c r="BI36" s="67"/>
-      <c r="BJ36" s="69"/>
-      <c r="BK36" s="64"/>
-      <c r="BL36" s="65"/>
-      <c r="BM36" s="65"/>
-      <c r="BN36" s="65"/>
-      <c r="BO36" s="65"/>
-      <c r="BP36" s="65"/>
-      <c r="BQ36" s="65"/>
-      <c r="BR36" s="65"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="108"/>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="108"/>
+      <c r="S36" s="108"/>
+      <c r="T36" s="108"/>
+      <c r="U36" s="108"/>
+      <c r="V36" s="108"/>
+      <c r="W36" s="108"/>
+      <c r="X36" s="108"/>
+      <c r="Y36" s="108"/>
+      <c r="Z36" s="108"/>
+      <c r="AA36" s="108"/>
+      <c r="AB36" s="108"/>
+      <c r="AC36" s="108"/>
+      <c r="AD36" s="108"/>
+      <c r="AE36" s="106"/>
+      <c r="AF36" s="106"/>
+      <c r="AG36" s="106"/>
+      <c r="AH36" s="106"/>
+      <c r="AI36" s="106"/>
+      <c r="AJ36" s="106"/>
+      <c r="AK36" s="106"/>
+      <c r="AL36" s="106"/>
+      <c r="AM36" s="106"/>
+      <c r="AN36" s="106"/>
+      <c r="AO36" s="106"/>
+      <c r="AP36" s="106"/>
+      <c r="AQ36" s="106"/>
+      <c r="AR36" s="106"/>
+      <c r="AS36" s="106"/>
+      <c r="AT36" s="106"/>
+      <c r="AU36" s="106"/>
+      <c r="AV36" s="106"/>
+      <c r="AW36" s="106"/>
+      <c r="AX36" s="106"/>
+      <c r="AY36" s="106"/>
+      <c r="AZ36" s="106"/>
+      <c r="BA36" s="106"/>
+      <c r="BB36" s="106"/>
+      <c r="BC36" s="106"/>
+      <c r="BD36" s="106"/>
+      <c r="BE36" s="106"/>
+      <c r="BF36" s="106"/>
+      <c r="BG36" s="106"/>
+      <c r="BH36" s="106"/>
+      <c r="BI36" s="106"/>
+      <c r="BJ36" s="116"/>
+      <c r="BK36" s="113"/>
+      <c r="BL36" s="114"/>
+      <c r="BM36" s="114"/>
+      <c r="BN36" s="114"/>
+      <c r="BO36" s="114"/>
+      <c r="BP36" s="114"/>
+      <c r="BQ36" s="114"/>
+      <c r="BR36" s="114"/>
       <c r="BS36" s="46"/>
       <c r="BT36" s="46"/>
       <c r="BU36" s="46"/>
@@ -5286,76 +5286,76 @@
     <row r="37" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="66">
+      <c r="C37" s="103">
         <v>10</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="68"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68"/>
-      <c r="AE37" s="67"/>
-      <c r="AF37" s="67"/>
-      <c r="AG37" s="67"/>
-      <c r="AH37" s="67"/>
-      <c r="AI37" s="67"/>
-      <c r="AJ37" s="67"/>
-      <c r="AK37" s="67"/>
-      <c r="AL37" s="67"/>
-      <c r="AM37" s="67"/>
-      <c r="AN37" s="67"/>
-      <c r="AO37" s="67"/>
-      <c r="AP37" s="67"/>
-      <c r="AQ37" s="67"/>
-      <c r="AR37" s="67"/>
-      <c r="AS37" s="67"/>
-      <c r="AT37" s="67"/>
-      <c r="AU37" s="67"/>
-      <c r="AV37" s="67"/>
-      <c r="AW37" s="67"/>
-      <c r="AX37" s="67"/>
-      <c r="AY37" s="67"/>
-      <c r="AZ37" s="67"/>
-      <c r="BA37" s="67"/>
-      <c r="BB37" s="67"/>
-      <c r="BC37" s="67"/>
-      <c r="BD37" s="67"/>
-      <c r="BE37" s="67"/>
-      <c r="BF37" s="67"/>
-      <c r="BG37" s="67"/>
-      <c r="BH37" s="67"/>
-      <c r="BI37" s="67"/>
-      <c r="BJ37" s="69"/>
-      <c r="BK37" s="64"/>
-      <c r="BL37" s="65"/>
-      <c r="BM37" s="65"/>
-      <c r="BN37" s="65"/>
-      <c r="BO37" s="65"/>
-      <c r="BP37" s="65"/>
-      <c r="BQ37" s="65"/>
-      <c r="BR37" s="65"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="106"/>
+      <c r="N37" s="106"/>
+      <c r="O37" s="108"/>
+      <c r="P37" s="108"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="108"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="108"/>
+      <c r="U37" s="108"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="108"/>
+      <c r="Y37" s="108"/>
+      <c r="Z37" s="108"/>
+      <c r="AA37" s="108"/>
+      <c r="AB37" s="108"/>
+      <c r="AC37" s="108"/>
+      <c r="AD37" s="108"/>
+      <c r="AE37" s="106"/>
+      <c r="AF37" s="106"/>
+      <c r="AG37" s="106"/>
+      <c r="AH37" s="106"/>
+      <c r="AI37" s="106"/>
+      <c r="AJ37" s="106"/>
+      <c r="AK37" s="106"/>
+      <c r="AL37" s="106"/>
+      <c r="AM37" s="106"/>
+      <c r="AN37" s="106"/>
+      <c r="AO37" s="106"/>
+      <c r="AP37" s="106"/>
+      <c r="AQ37" s="106"/>
+      <c r="AR37" s="106"/>
+      <c r="AS37" s="106"/>
+      <c r="AT37" s="106"/>
+      <c r="AU37" s="106"/>
+      <c r="AV37" s="106"/>
+      <c r="AW37" s="106"/>
+      <c r="AX37" s="106"/>
+      <c r="AY37" s="106"/>
+      <c r="AZ37" s="106"/>
+      <c r="BA37" s="106"/>
+      <c r="BB37" s="106"/>
+      <c r="BC37" s="106"/>
+      <c r="BD37" s="106"/>
+      <c r="BE37" s="106"/>
+      <c r="BF37" s="106"/>
+      <c r="BG37" s="106"/>
+      <c r="BH37" s="106"/>
+      <c r="BI37" s="106"/>
+      <c r="BJ37" s="116"/>
+      <c r="BK37" s="113"/>
+      <c r="BL37" s="114"/>
+      <c r="BM37" s="114"/>
+      <c r="BN37" s="114"/>
+      <c r="BO37" s="114"/>
+      <c r="BP37" s="114"/>
+      <c r="BQ37" s="114"/>
+      <c r="BR37" s="114"/>
       <c r="BS37" s="46"/>
       <c r="BT37" s="46"/>
       <c r="BU37" s="46"/>
@@ -5968,38 +5968,54 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="BD26:BJ27"/>
-    <mergeCell ref="BK26:BV27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:I29"/>
-    <mergeCell ref="J28:N29"/>
-    <mergeCell ref="O28:AD29"/>
-    <mergeCell ref="AE28:BC29"/>
-    <mergeCell ref="BD28:BJ29"/>
-    <mergeCell ref="BK28:BV29"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="BK34:BR34"/>
+    <mergeCell ref="BK35:BR35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="O37:AD37"/>
+    <mergeCell ref="AE37:BC37"/>
+    <mergeCell ref="BD37:BJ37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="O36:AD36"/>
+    <mergeCell ref="AE36:BC36"/>
+    <mergeCell ref="BD36:BJ36"/>
+    <mergeCell ref="BK36:BR36"/>
+    <mergeCell ref="BK37:BR37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK30:BR31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:I31"/>
+    <mergeCell ref="J30:N31"/>
+    <mergeCell ref="O30:AD31"/>
+    <mergeCell ref="AE30:BC31"/>
+    <mergeCell ref="BD30:BJ31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK32:BR32"/>
     <mergeCell ref="BK33:BR33"/>
     <mergeCell ref="H21:BO21"/>
     <mergeCell ref="C25:D25"/>
@@ -6024,54 +6040,38 @@
     <mergeCell ref="J26:N27"/>
     <mergeCell ref="O26:AD27"/>
     <mergeCell ref="AE26:BC27"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK30:BR31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:I31"/>
-    <mergeCell ref="J30:N31"/>
-    <mergeCell ref="O30:AD31"/>
-    <mergeCell ref="AE30:BC31"/>
-    <mergeCell ref="BD30:BJ31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK32:BR32"/>
-    <mergeCell ref="BK34:BR34"/>
-    <mergeCell ref="BK35:BR35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="O37:AD37"/>
-    <mergeCell ref="AE37:BC37"/>
-    <mergeCell ref="BD37:BJ37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="O36:AD36"/>
-    <mergeCell ref="AE36:BC36"/>
-    <mergeCell ref="BD36:BJ36"/>
-    <mergeCell ref="BK36:BR36"/>
-    <mergeCell ref="BK37:BR37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BD26:BJ27"/>
+    <mergeCell ref="BK26:BV27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:I29"/>
+    <mergeCell ref="J28:N29"/>
+    <mergeCell ref="O28:AD29"/>
+    <mergeCell ref="AE28:BC29"/>
+    <mergeCell ref="BD28:BJ29"/>
+    <mergeCell ref="BK28:BV29"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -6142,247 +6142,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="135"/>
-      <c r="AK1" s="135" t="s">
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="135"/>
-      <c r="AM1" s="135"/>
-      <c r="AN1" s="135"/>
-      <c r="AO1" s="135"/>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="135"/>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="135"/>
-      <c r="AT1" s="136" t="s">
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="136"/>
-      <c r="AV1" s="136"/>
-      <c r="AW1" s="136"/>
-      <c r="AX1" s="136"/>
-      <c r="AY1" s="136"/>
-      <c r="AZ1" s="136"/>
-      <c r="BA1" s="136"/>
-      <c r="BB1" s="136"/>
-      <c r="BC1" s="136"/>
-      <c r="BD1" s="136"/>
-      <c r="BE1" s="136"/>
-      <c r="BF1" s="136"/>
-      <c r="BG1" s="136"/>
-      <c r="BH1" s="136"/>
-      <c r="BI1" s="136"/>
-      <c r="BJ1" s="136"/>
-      <c r="BK1" s="136"/>
-      <c r="BL1" s="136"/>
-      <c r="BM1" s="136"/>
-      <c r="BN1" s="136"/>
-      <c r="BO1" s="136"/>
-      <c r="BP1" s="136"/>
-      <c r="BQ1" s="136"/>
+      <c r="AU1" s="127"/>
+      <c r="AV1" s="127"/>
+      <c r="AW1" s="127"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="127"/>
+      <c r="AZ1" s="127"/>
+      <c r="BA1" s="127"/>
+      <c r="BB1" s="127"/>
+      <c r="BC1" s="127"/>
+      <c r="BD1" s="127"/>
+      <c r="BE1" s="127"/>
+      <c r="BF1" s="127"/>
+      <c r="BG1" s="127"/>
+      <c r="BH1" s="127"/>
+      <c r="BI1" s="127"/>
+      <c r="BJ1" s="127"/>
+      <c r="BK1" s="127"/>
+      <c r="BL1" s="127"/>
+      <c r="BM1" s="127"/>
+      <c r="BN1" s="127"/>
+      <c r="BO1" s="127"/>
+      <c r="BP1" s="127"/>
+      <c r="BQ1" s="127"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="105" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="126" t="s">
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="126"/>
-      <c r="AO2" s="126"/>
-      <c r="AP2" s="126"/>
-      <c r="AQ2" s="126"/>
-      <c r="AR2" s="126"/>
-      <c r="AS2" s="126"/>
-      <c r="AT2" s="126" t="s">
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="126"/>
-      <c r="AV2" s="126"/>
-      <c r="AW2" s="126"/>
-      <c r="AX2" s="126"/>
-      <c r="AY2" s="126"/>
-      <c r="AZ2" s="126"/>
-      <c r="BA2" s="126"/>
-      <c r="BB2" s="126" t="s">
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="128"/>
+      <c r="AY2" s="128"/>
+      <c r="AZ2" s="128"/>
+      <c r="BA2" s="128"/>
+      <c r="BB2" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="126"/>
-      <c r="BD2" s="126"/>
-      <c r="BE2" s="126"/>
-      <c r="BF2" s="126"/>
-      <c r="BG2" s="126"/>
-      <c r="BH2" s="126"/>
-      <c r="BI2" s="126"/>
-      <c r="BJ2" s="137" t="s">
+      <c r="BC2" s="128"/>
+      <c r="BD2" s="128"/>
+      <c r="BE2" s="128"/>
+      <c r="BF2" s="128"/>
+      <c r="BG2" s="128"/>
+      <c r="BH2" s="128"/>
+      <c r="BI2" s="128"/>
+      <c r="BJ2" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="137"/>
-      <c r="BL2" s="137"/>
-      <c r="BM2" s="137"/>
-      <c r="BN2" s="137"/>
-      <c r="BO2" s="137"/>
-      <c r="BP2" s="137"/>
-      <c r="BQ2" s="137"/>
+      <c r="BK2" s="129"/>
+      <c r="BL2" s="129"/>
+      <c r="BM2" s="129"/>
+      <c r="BN2" s="129"/>
+      <c r="BO2" s="129"/>
+      <c r="BP2" s="129"/>
+      <c r="BQ2" s="129"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="138" t="s">
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="138"/>
-      <c r="AM3" s="138"/>
-      <c r="AN3" s="138"/>
-      <c r="AO3" s="138"/>
-      <c r="AP3" s="138"/>
-      <c r="AQ3" s="138"/>
-      <c r="AR3" s="138"/>
-      <c r="AS3" s="138"/>
-      <c r="AT3" s="139">
+      <c r="AL3" s="130"/>
+      <c r="AM3" s="130"/>
+      <c r="AN3" s="130"/>
+      <c r="AO3" s="130"/>
+      <c r="AP3" s="130"/>
+      <c r="AQ3" s="130"/>
+      <c r="AR3" s="130"/>
+      <c r="AS3" s="130"/>
+      <c r="AT3" s="131">
         <v>45510</v>
       </c>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="139"/>
-      <c r="AW3" s="139"/>
-      <c r="AX3" s="139"/>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="139"/>
-      <c r="BA3" s="139"/>
-      <c r="BB3" s="138" t="s">
+      <c r="AU3" s="131"/>
+      <c r="AV3" s="131"/>
+      <c r="AW3" s="131"/>
+      <c r="AX3" s="131"/>
+      <c r="AY3" s="131"/>
+      <c r="AZ3" s="131"/>
+      <c r="BA3" s="131"/>
+      <c r="BB3" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="138"/>
-      <c r="BD3" s="138"/>
-      <c r="BE3" s="138"/>
-      <c r="BF3" s="138"/>
-      <c r="BG3" s="138"/>
-      <c r="BH3" s="138"/>
-      <c r="BI3" s="138"/>
-      <c r="BJ3" s="140">
+      <c r="BC3" s="130"/>
+      <c r="BD3" s="130"/>
+      <c r="BE3" s="130"/>
+      <c r="BF3" s="130"/>
+      <c r="BG3" s="130"/>
+      <c r="BH3" s="130"/>
+      <c r="BI3" s="130"/>
+      <c r="BJ3" s="132">
         <v>45537</v>
       </c>
-      <c r="BK3" s="140"/>
-      <c r="BL3" s="140"/>
-      <c r="BM3" s="140"/>
-      <c r="BN3" s="140"/>
-      <c r="BO3" s="140"/>
-      <c r="BP3" s="140"/>
-      <c r="BQ3" s="140"/>
+      <c r="BK3" s="132"/>
+      <c r="BL3" s="132"/>
+      <c r="BM3" s="132"/>
+      <c r="BN3" s="132"/>
+      <c r="BO3" s="132"/>
+      <c r="BP3" s="132"/>
+      <c r="BQ3" s="132"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -6407,20 +6407,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
       <c r="M6" s="133" t="s">
         <v>28</v>
       </c>
@@ -6451,52 +6451,52 @@
       <c r="AL6" s="133"/>
       <c r="AM6" s="133"/>
       <c r="AN6" s="133"/>
-      <c r="AO6" s="67" t="s">
+      <c r="AO6" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67" t="s">
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="106"/>
+      <c r="AT6" s="106"/>
+      <c r="AU6" s="106"/>
+      <c r="AV6" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="67"/>
-      <c r="BA6" s="67"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="67"/>
-      <c r="BH6" s="67"/>
-      <c r="BI6" s="67"/>
-      <c r="BJ6" s="67"/>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="67"/>
-      <c r="BM6" s="67"/>
-      <c r="BN6" s="67"/>
-      <c r="BO6" s="67"/>
-      <c r="BP6" s="67"/>
+      <c r="AW6" s="106"/>
+      <c r="AX6" s="106"/>
+      <c r="AY6" s="106"/>
+      <c r="AZ6" s="106"/>
+      <c r="BA6" s="106"/>
+      <c r="BB6" s="106"/>
+      <c r="BC6" s="106"/>
+      <c r="BD6" s="106"/>
+      <c r="BE6" s="106"/>
+      <c r="BF6" s="106"/>
+      <c r="BG6" s="106"/>
+      <c r="BH6" s="106"/>
+      <c r="BI6" s="106"/>
+      <c r="BJ6" s="106"/>
+      <c r="BK6" s="106"/>
+      <c r="BL6" s="106"/>
+      <c r="BM6" s="106"/>
+      <c r="BN6" s="106"/>
+      <c r="BO6" s="106"/>
+      <c r="BP6" s="106"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="37" t="s">
         <v>87</v>
       </c>
@@ -6527,38 +6527,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67" t="s">
+      <c r="AP7" s="106"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="106"/>
+      <c r="AS7" s="106"/>
+      <c r="AT7" s="106"/>
+      <c r="AU7" s="106"/>
+      <c r="AV7" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="67"/>
+      <c r="AW7" s="106"/>
+      <c r="AX7" s="106"/>
+      <c r="AY7" s="106"/>
+      <c r="AZ7" s="106"/>
+      <c r="BA7" s="106"/>
+      <c r="BB7" s="106"/>
+      <c r="BC7" s="106"/>
+      <c r="BD7" s="106"/>
+      <c r="BE7" s="106"/>
+      <c r="BF7" s="106"/>
+      <c r="BG7" s="106"/>
+      <c r="BH7" s="106"/>
+      <c r="BI7" s="106"/>
+      <c r="BJ7" s="106"/>
+      <c r="BK7" s="106"/>
+      <c r="BL7" s="106"/>
+      <c r="BM7" s="106"/>
+      <c r="BN7" s="106"/>
+      <c r="BO7" s="106"/>
+      <c r="BP7" s="106"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -6572,89 +6572,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="126" t="s">
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126" t="s">
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="64" t="s">
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="66" t="s">
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="114"/>
+      <c r="AK10" s="114"/>
+      <c r="AL10" s="114"/>
+      <c r="AM10" s="114"/>
+      <c r="AN10" s="114"/>
+      <c r="AO10" s="114"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="114"/>
+      <c r="AS10" s="114"/>
+      <c r="AT10" s="114"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="114"/>
+      <c r="AX10" s="114"/>
+      <c r="AY10" s="114"/>
+      <c r="AZ10" s="114"/>
+      <c r="BA10" s="114"/>
+      <c r="BB10" s="114"/>
+      <c r="BC10" s="114"/>
+      <c r="BD10" s="114"/>
+      <c r="BE10" s="114"/>
+      <c r="BF10" s="114"/>
+      <c r="BG10" s="114"/>
+      <c r="BH10" s="114"/>
+      <c r="BI10" s="135"/>
+      <c r="BJ10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="66"/>
-      <c r="BP10" s="66"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="103"/>
+      <c r="BN10" s="103"/>
+      <c r="BO10" s="103"/>
+      <c r="BP10" s="103"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
       <c r="G11" s="37" t="s">
         <v>98</v>
       </c>
@@ -6670,11 +6670,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="39"/>
-      <c r="T11" s="129" t="s">
+      <c r="T11" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="129"/>
-      <c r="V11" s="130"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="138"/>
       <c r="W11" s="51" t="s">
         <v>119</v>
       </c>
@@ -6726,12 +6726,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="17" t="s">
         <v>120</v>
       </c>
@@ -6747,11 +6747,11 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="126" t="s">
+      <c r="T12" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="126"/>
-      <c r="V12" s="126"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
       <c r="W12" s="51"/>
       <c r="X12" s="52"/>
       <c r="Y12" s="52"/>
@@ -6800,12 +6800,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
       <c r="G13" s="17" t="s">
         <v>92</v>
       </c>
@@ -6821,11 +6821,11 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="126" t="s">
+      <c r="T13" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="126"/>
-      <c r="V13" s="126"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
       <c r="W13" s="51" t="s">
         <v>108</v>
       </c>
@@ -6876,12 +6876,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="17" t="s">
         <v>93</v>
       </c>
@@ -6897,11 +6897,11 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="126" t="s">
+      <c r="T14" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="126"/>
-      <c r="V14" s="126"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
       <c r="W14" s="51" t="s">
         <v>108</v>
       </c>
@@ -6963,88 +6963,88 @@
       <c r="AG16" s="16"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="126" t="s">
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="126"/>
-      <c r="S17" s="126"/>
-      <c r="T17" s="126" t="s">
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="126"/>
-      <c r="V17" s="126"/>
-      <c r="W17" s="66" t="s">
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="66"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="66"/>
-      <c r="BA17" s="66"/>
-      <c r="BB17" s="66"/>
-      <c r="BC17" s="66"/>
-      <c r="BD17" s="66"/>
-      <c r="BE17" s="66"/>
-      <c r="BF17" s="66"/>
-      <c r="BG17" s="66"/>
-      <c r="BH17" s="66"/>
-      <c r="BI17" s="66"/>
-      <c r="BJ17" s="66" t="s">
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="103"/>
+      <c r="AH17" s="103"/>
+      <c r="AI17" s="103"/>
+      <c r="AJ17" s="103"/>
+      <c r="AK17" s="103"/>
+      <c r="AL17" s="103"/>
+      <c r="AM17" s="103"/>
+      <c r="AN17" s="103"/>
+      <c r="AO17" s="103"/>
+      <c r="AP17" s="103"/>
+      <c r="AQ17" s="103"/>
+      <c r="AR17" s="103"/>
+      <c r="AS17" s="103"/>
+      <c r="AT17" s="103"/>
+      <c r="AU17" s="103"/>
+      <c r="AV17" s="103"/>
+      <c r="AW17" s="103"/>
+      <c r="AX17" s="103"/>
+      <c r="AY17" s="103"/>
+      <c r="AZ17" s="103"/>
+      <c r="BA17" s="103"/>
+      <c r="BB17" s="103"/>
+      <c r="BC17" s="103"/>
+      <c r="BD17" s="103"/>
+      <c r="BE17" s="103"/>
+      <c r="BF17" s="103"/>
+      <c r="BG17" s="103"/>
+      <c r="BH17" s="103"/>
+      <c r="BI17" s="103"/>
+      <c r="BJ17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK17" s="66"/>
-      <c r="BL17" s="66"/>
-      <c r="BM17" s="66"/>
-      <c r="BN17" s="66"/>
-      <c r="BO17" s="66"/>
-      <c r="BP17" s="66"/>
+      <c r="BK17" s="103"/>
+      <c r="BL17" s="103"/>
+      <c r="BM17" s="103"/>
+      <c r="BN17" s="103"/>
+      <c r="BO17" s="103"/>
+      <c r="BP17" s="103"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
       <c r="G18" s="17" t="s">
         <v>106</v>
       </c>
@@ -7060,9 +7060,9 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="126"/>
-      <c r="U18" s="126"/>
-      <c r="V18" s="126"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
       <c r="W18" s="21" t="s">
         <v>107</v>
       </c>
@@ -7524,6 +7524,35 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W17:BI17"/>
+    <mergeCell ref="BJ17:BP17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -7538,35 +7567,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W17:BI17"/>
-    <mergeCell ref="BJ17:BP17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -7628,247 +7628,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="135"/>
-      <c r="AK1" s="135" t="s">
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="135"/>
-      <c r="AM1" s="135"/>
-      <c r="AN1" s="135"/>
-      <c r="AO1" s="135"/>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="135"/>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="135"/>
-      <c r="AT1" s="136" t="s">
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="136"/>
-      <c r="AV1" s="136"/>
-      <c r="AW1" s="136"/>
-      <c r="AX1" s="136"/>
-      <c r="AY1" s="136"/>
-      <c r="AZ1" s="136"/>
-      <c r="BA1" s="136"/>
-      <c r="BB1" s="136"/>
-      <c r="BC1" s="136"/>
-      <c r="BD1" s="136"/>
-      <c r="BE1" s="136"/>
-      <c r="BF1" s="136"/>
-      <c r="BG1" s="136"/>
-      <c r="BH1" s="136"/>
-      <c r="BI1" s="136"/>
-      <c r="BJ1" s="136"/>
-      <c r="BK1" s="136"/>
-      <c r="BL1" s="136"/>
-      <c r="BM1" s="136"/>
-      <c r="BN1" s="136"/>
-      <c r="BO1" s="136"/>
-      <c r="BP1" s="136"/>
-      <c r="BQ1" s="136"/>
+      <c r="AU1" s="127"/>
+      <c r="AV1" s="127"/>
+      <c r="AW1" s="127"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="127"/>
+      <c r="AZ1" s="127"/>
+      <c r="BA1" s="127"/>
+      <c r="BB1" s="127"/>
+      <c r="BC1" s="127"/>
+      <c r="BD1" s="127"/>
+      <c r="BE1" s="127"/>
+      <c r="BF1" s="127"/>
+      <c r="BG1" s="127"/>
+      <c r="BH1" s="127"/>
+      <c r="BI1" s="127"/>
+      <c r="BJ1" s="127"/>
+      <c r="BK1" s="127"/>
+      <c r="BL1" s="127"/>
+      <c r="BM1" s="127"/>
+      <c r="BN1" s="127"/>
+      <c r="BO1" s="127"/>
+      <c r="BP1" s="127"/>
+      <c r="BQ1" s="127"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="105" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="126" t="s">
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="126"/>
-      <c r="AO2" s="126"/>
-      <c r="AP2" s="126"/>
-      <c r="AQ2" s="126"/>
-      <c r="AR2" s="126"/>
-      <c r="AS2" s="126"/>
-      <c r="AT2" s="126" t="s">
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="126"/>
-      <c r="AV2" s="126"/>
-      <c r="AW2" s="126"/>
-      <c r="AX2" s="126"/>
-      <c r="AY2" s="126"/>
-      <c r="AZ2" s="126"/>
-      <c r="BA2" s="126"/>
-      <c r="BB2" s="126" t="s">
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="128"/>
+      <c r="AY2" s="128"/>
+      <c r="AZ2" s="128"/>
+      <c r="BA2" s="128"/>
+      <c r="BB2" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="126"/>
-      <c r="BD2" s="126"/>
-      <c r="BE2" s="126"/>
-      <c r="BF2" s="126"/>
-      <c r="BG2" s="126"/>
-      <c r="BH2" s="126"/>
-      <c r="BI2" s="126"/>
-      <c r="BJ2" s="137" t="s">
+      <c r="BC2" s="128"/>
+      <c r="BD2" s="128"/>
+      <c r="BE2" s="128"/>
+      <c r="BF2" s="128"/>
+      <c r="BG2" s="128"/>
+      <c r="BH2" s="128"/>
+      <c r="BI2" s="128"/>
+      <c r="BJ2" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="137"/>
-      <c r="BL2" s="137"/>
-      <c r="BM2" s="137"/>
-      <c r="BN2" s="137"/>
-      <c r="BO2" s="137"/>
-      <c r="BP2" s="137"/>
-      <c r="BQ2" s="137"/>
+      <c r="BK2" s="129"/>
+      <c r="BL2" s="129"/>
+      <c r="BM2" s="129"/>
+      <c r="BN2" s="129"/>
+      <c r="BO2" s="129"/>
+      <c r="BP2" s="129"/>
+      <c r="BQ2" s="129"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="138" t="s">
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="138"/>
-      <c r="AM3" s="138"/>
-      <c r="AN3" s="138"/>
-      <c r="AO3" s="138"/>
-      <c r="AP3" s="138"/>
-      <c r="AQ3" s="138"/>
-      <c r="AR3" s="138"/>
-      <c r="AS3" s="138"/>
-      <c r="AT3" s="139">
+      <c r="AL3" s="130"/>
+      <c r="AM3" s="130"/>
+      <c r="AN3" s="130"/>
+      <c r="AO3" s="130"/>
+      <c r="AP3" s="130"/>
+      <c r="AQ3" s="130"/>
+      <c r="AR3" s="130"/>
+      <c r="AS3" s="130"/>
+      <c r="AT3" s="131">
         <v>45510</v>
       </c>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="139"/>
-      <c r="AW3" s="139"/>
-      <c r="AX3" s="139"/>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="139"/>
-      <c r="BA3" s="139"/>
-      <c r="BB3" s="138" t="s">
+      <c r="AU3" s="131"/>
+      <c r="AV3" s="131"/>
+      <c r="AW3" s="131"/>
+      <c r="AX3" s="131"/>
+      <c r="AY3" s="131"/>
+      <c r="AZ3" s="131"/>
+      <c r="BA3" s="131"/>
+      <c r="BB3" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="138"/>
-      <c r="BD3" s="138"/>
-      <c r="BE3" s="138"/>
-      <c r="BF3" s="138"/>
-      <c r="BG3" s="138"/>
-      <c r="BH3" s="138"/>
-      <c r="BI3" s="138"/>
-      <c r="BJ3" s="140">
+      <c r="BC3" s="130"/>
+      <c r="BD3" s="130"/>
+      <c r="BE3" s="130"/>
+      <c r="BF3" s="130"/>
+      <c r="BG3" s="130"/>
+      <c r="BH3" s="130"/>
+      <c r="BI3" s="130"/>
+      <c r="BJ3" s="132">
         <v>45518</v>
       </c>
-      <c r="BK3" s="140"/>
-      <c r="BL3" s="140"/>
-      <c r="BM3" s="140"/>
-      <c r="BN3" s="140"/>
-      <c r="BO3" s="140"/>
-      <c r="BP3" s="140"/>
-      <c r="BQ3" s="140"/>
+      <c r="BK3" s="132"/>
+      <c r="BL3" s="132"/>
+      <c r="BM3" s="132"/>
+      <c r="BN3" s="132"/>
+      <c r="BO3" s="132"/>
+      <c r="BP3" s="132"/>
+      <c r="BQ3" s="132"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -7893,20 +7893,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
       <c r="M6" s="133" t="s">
         <v>28</v>
       </c>
@@ -7937,52 +7937,52 @@
       <c r="AL6" s="133"/>
       <c r="AM6" s="133"/>
       <c r="AN6" s="133"/>
-      <c r="AO6" s="67" t="s">
+      <c r="AO6" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67" t="s">
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="106"/>
+      <c r="AT6" s="106"/>
+      <c r="AU6" s="106"/>
+      <c r="AV6" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="67"/>
-      <c r="BA6" s="67"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="67"/>
-      <c r="BH6" s="67"/>
-      <c r="BI6" s="67"/>
-      <c r="BJ6" s="67"/>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="67"/>
-      <c r="BM6" s="67"/>
-      <c r="BN6" s="67"/>
-      <c r="BO6" s="67"/>
-      <c r="BP6" s="67"/>
+      <c r="AW6" s="106"/>
+      <c r="AX6" s="106"/>
+      <c r="AY6" s="106"/>
+      <c r="AZ6" s="106"/>
+      <c r="BA6" s="106"/>
+      <c r="BB6" s="106"/>
+      <c r="BC6" s="106"/>
+      <c r="BD6" s="106"/>
+      <c r="BE6" s="106"/>
+      <c r="BF6" s="106"/>
+      <c r="BG6" s="106"/>
+      <c r="BH6" s="106"/>
+      <c r="BI6" s="106"/>
+      <c r="BJ6" s="106"/>
+      <c r="BK6" s="106"/>
+      <c r="BL6" s="106"/>
+      <c r="BM6" s="106"/>
+      <c r="BN6" s="106"/>
+      <c r="BO6" s="106"/>
+      <c r="BP6" s="106"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="17" t="s">
         <v>75</v>
       </c>
@@ -8013,38 +8013,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67" t="s">
+      <c r="AP7" s="106"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="106"/>
+      <c r="AS7" s="106"/>
+      <c r="AT7" s="106"/>
+      <c r="AU7" s="106"/>
+      <c r="AV7" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="67"/>
+      <c r="AW7" s="106"/>
+      <c r="AX7" s="106"/>
+      <c r="AY7" s="106"/>
+      <c r="AZ7" s="106"/>
+      <c r="BA7" s="106"/>
+      <c r="BB7" s="106"/>
+      <c r="BC7" s="106"/>
+      <c r="BD7" s="106"/>
+      <c r="BE7" s="106"/>
+      <c r="BF7" s="106"/>
+      <c r="BG7" s="106"/>
+      <c r="BH7" s="106"/>
+      <c r="BI7" s="106"/>
+      <c r="BJ7" s="106"/>
+      <c r="BK7" s="106"/>
+      <c r="BL7" s="106"/>
+      <c r="BM7" s="106"/>
+      <c r="BN7" s="106"/>
+      <c r="BO7" s="106"/>
+      <c r="BP7" s="106"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -8058,88 +8058,88 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="126" t="s">
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126" t="s">
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="126"/>
+      <c r="U10" s="128"/>
       <c r="V10" s="141"/>
-      <c r="W10" s="64" t="s">
+      <c r="W10" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="66" t="s">
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="114"/>
+      <c r="AK10" s="114"/>
+      <c r="AL10" s="114"/>
+      <c r="AM10" s="114"/>
+      <c r="AN10" s="114"/>
+      <c r="AO10" s="114"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="114"/>
+      <c r="AS10" s="114"/>
+      <c r="AT10" s="114"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="114"/>
+      <c r="AX10" s="114"/>
+      <c r="AY10" s="114"/>
+      <c r="AZ10" s="114"/>
+      <c r="BA10" s="114"/>
+      <c r="BB10" s="114"/>
+      <c r="BC10" s="114"/>
+      <c r="BD10" s="114"/>
+      <c r="BE10" s="114"/>
+      <c r="BF10" s="114"/>
+      <c r="BG10" s="114"/>
+      <c r="BH10" s="114"/>
+      <c r="BI10" s="135"/>
+      <c r="BJ10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="66"/>
-      <c r="BP10" s="66"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="103"/>
+      <c r="BN10" s="103"/>
+      <c r="BO10" s="103"/>
+      <c r="BP10" s="103"/>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
       <c r="G11" s="17" t="s">
         <v>99</v>
       </c>
@@ -8155,10 +8155,10 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="126" t="s">
+      <c r="T11" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="126"/>
+      <c r="U11" s="128"/>
       <c r="V11" s="141"/>
       <c r="W11" s="21" t="s">
         <v>117</v>
@@ -8210,12 +8210,12 @@
       <c r="BP11" s="24"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="17" t="s">
         <v>120</v>
       </c>
@@ -8231,10 +8231,10 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="126" t="s">
+      <c r="T12" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="126"/>
+      <c r="U12" s="128"/>
       <c r="V12" s="141"/>
       <c r="W12" s="21"/>
       <c r="X12" s="18"/>
@@ -8284,12 +8284,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
       <c r="G13" s="17" t="s">
         <v>102</v>
       </c>
@@ -8305,8 +8305,8 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
       <c r="V13" s="141"/>
       <c r="W13" s="21"/>
       <c r="X13" s="18"/>
@@ -8356,12 +8356,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="17" t="s">
         <v>95</v>
       </c>
@@ -8377,10 +8377,10 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="126" t="s">
+      <c r="T14" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="126"/>
+      <c r="U14" s="128"/>
       <c r="V14" s="141"/>
       <c r="W14" s="21" t="s">
         <v>118</v>
@@ -8432,12 +8432,12 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="17" t="s">
         <v>109</v>
       </c>
@@ -8453,8 +8453,8 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="126"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
       <c r="V15" s="141"/>
       <c r="W15" s="21"/>
       <c r="X15" s="18"/>
@@ -8504,12 +8504,12 @@
       <c r="BP15" s="24"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
       <c r="G16" s="17" t="s">
         <v>67</v>
       </c>
@@ -8525,10 +8525,10 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="126" t="s">
+      <c r="T16" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="126"/>
+      <c r="U16" s="128"/>
       <c r="V16" s="141"/>
       <c r="W16" s="21" t="s">
         <v>187</v>
@@ -8580,12 +8580,12 @@
       <c r="BP16" s="24"/>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
       <c r="G17" s="17" t="s">
         <v>92</v>
       </c>
@@ -8601,10 +8601,10 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="126" t="s">
+      <c r="T17" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="126"/>
+      <c r="U17" s="128"/>
       <c r="V17" s="141"/>
       <c r="W17" s="21" t="s">
         <v>108</v>
@@ -8656,12 +8656,12 @@
       <c r="BP17" s="24"/>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
       <c r="G18" s="17" t="s">
         <v>93</v>
       </c>
@@ -8677,10 +8677,10 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="126" t="s">
+      <c r="T18" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="126"/>
+      <c r="U18" s="128"/>
       <c r="V18" s="141"/>
       <c r="W18" s="21" t="s">
         <v>105</v>
@@ -8743,88 +8743,88 @@
       <c r="AG20" s="16"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="126" t="s">
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="126"/>
-      <c r="S21" s="126"/>
-      <c r="T21" s="126" t="s">
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="66" t="s">
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
-      <c r="BA21" s="66"/>
-      <c r="BB21" s="66"/>
-      <c r="BC21" s="66"/>
-      <c r="BD21" s="66"/>
-      <c r="BE21" s="66"/>
-      <c r="BF21" s="66"/>
-      <c r="BG21" s="66"/>
-      <c r="BH21" s="66"/>
-      <c r="BI21" s="66"/>
-      <c r="BJ21" s="66" t="s">
+      <c r="X21" s="103"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="103"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="103"/>
+      <c r="AD21" s="103"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="103"/>
+      <c r="AG21" s="103"/>
+      <c r="AH21" s="103"/>
+      <c r="AI21" s="103"/>
+      <c r="AJ21" s="103"/>
+      <c r="AK21" s="103"/>
+      <c r="AL21" s="103"/>
+      <c r="AM21" s="103"/>
+      <c r="AN21" s="103"/>
+      <c r="AO21" s="103"/>
+      <c r="AP21" s="103"/>
+      <c r="AQ21" s="103"/>
+      <c r="AR21" s="103"/>
+      <c r="AS21" s="103"/>
+      <c r="AT21" s="103"/>
+      <c r="AU21" s="103"/>
+      <c r="AV21" s="103"/>
+      <c r="AW21" s="103"/>
+      <c r="AX21" s="103"/>
+      <c r="AY21" s="103"/>
+      <c r="AZ21" s="103"/>
+      <c r="BA21" s="103"/>
+      <c r="BB21" s="103"/>
+      <c r="BC21" s="103"/>
+      <c r="BD21" s="103"/>
+      <c r="BE21" s="103"/>
+      <c r="BF21" s="103"/>
+      <c r="BG21" s="103"/>
+      <c r="BH21" s="103"/>
+      <c r="BI21" s="103"/>
+      <c r="BJ21" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK21" s="66"/>
-      <c r="BL21" s="66"/>
-      <c r="BM21" s="66"/>
-      <c r="BN21" s="66"/>
-      <c r="BO21" s="66"/>
-      <c r="BP21" s="66"/>
+      <c r="BK21" s="103"/>
+      <c r="BL21" s="103"/>
+      <c r="BM21" s="103"/>
+      <c r="BN21" s="103"/>
+      <c r="BO21" s="103"/>
+      <c r="BP21" s="103"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="17" t="s">
         <v>106</v>
       </c>
@@ -8840,9 +8840,9 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="20"/>
-      <c r="T22" s="126"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="128"/>
       <c r="W22" s="21" t="s">
         <v>66</v>
       </c>
@@ -9840,6 +9840,43 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="W21:BI21"/>
+    <mergeCell ref="BJ21:BP21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="W10:BI10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -9854,43 +9891,6 @@
     <mergeCell ref="I2:AJ3"/>
     <mergeCell ref="AK2:AS2"/>
     <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W21:BI21"/>
-    <mergeCell ref="BJ21:BP21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -9928,243 +9928,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="135"/>
-      <c r="AK1" s="135" t="s">
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="135"/>
-      <c r="AM1" s="135"/>
-      <c r="AN1" s="135"/>
-      <c r="AO1" s="135"/>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="135"/>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="135"/>
-      <c r="AT1" s="136" t="s">
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="136"/>
-      <c r="AV1" s="136"/>
-      <c r="AW1" s="136"/>
-      <c r="AX1" s="136"/>
-      <c r="AY1" s="136"/>
-      <c r="AZ1" s="136"/>
-      <c r="BA1" s="136"/>
-      <c r="BB1" s="136"/>
-      <c r="BC1" s="136"/>
-      <c r="BD1" s="136"/>
-      <c r="BE1" s="136"/>
-      <c r="BF1" s="136"/>
-      <c r="BG1" s="136"/>
-      <c r="BH1" s="136"/>
-      <c r="BI1" s="136"/>
-      <c r="BJ1" s="136"/>
-      <c r="BK1" s="136"/>
-      <c r="BL1" s="136"/>
-      <c r="BM1" s="136"/>
-      <c r="BN1" s="136"/>
-      <c r="BO1" s="136"/>
-      <c r="BP1" s="136"/>
-      <c r="BQ1" s="136"/>
+      <c r="AU1" s="127"/>
+      <c r="AV1" s="127"/>
+      <c r="AW1" s="127"/>
+      <c r="AX1" s="127"/>
+      <c r="AY1" s="127"/>
+      <c r="AZ1" s="127"/>
+      <c r="BA1" s="127"/>
+      <c r="BB1" s="127"/>
+      <c r="BC1" s="127"/>
+      <c r="BD1" s="127"/>
+      <c r="BE1" s="127"/>
+      <c r="BF1" s="127"/>
+      <c r="BG1" s="127"/>
+      <c r="BH1" s="127"/>
+      <c r="BI1" s="127"/>
+      <c r="BJ1" s="127"/>
+      <c r="BK1" s="127"/>
+      <c r="BL1" s="127"/>
+      <c r="BM1" s="127"/>
+      <c r="BN1" s="127"/>
+      <c r="BO1" s="127"/>
+      <c r="BP1" s="127"/>
+      <c r="BQ1" s="127"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="105" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="126" t="s">
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="126"/>
-      <c r="AO2" s="126"/>
-      <c r="AP2" s="126"/>
-      <c r="AQ2" s="126"/>
-      <c r="AR2" s="126"/>
-      <c r="AS2" s="126"/>
-      <c r="AT2" s="126" t="s">
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="128"/>
+      <c r="AT2" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="126"/>
-      <c r="AV2" s="126"/>
-      <c r="AW2" s="126"/>
-      <c r="AX2" s="126"/>
-      <c r="AY2" s="126"/>
-      <c r="AZ2" s="126"/>
-      <c r="BA2" s="126"/>
-      <c r="BB2" s="126" t="s">
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="128"/>
+      <c r="AX2" s="128"/>
+      <c r="AY2" s="128"/>
+      <c r="AZ2" s="128"/>
+      <c r="BA2" s="128"/>
+      <c r="BB2" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="126"/>
-      <c r="BD2" s="126"/>
-      <c r="BE2" s="126"/>
-      <c r="BF2" s="126"/>
-      <c r="BG2" s="126"/>
-      <c r="BH2" s="126"/>
-      <c r="BI2" s="126"/>
-      <c r="BJ2" s="137"/>
-      <c r="BK2" s="137"/>
-      <c r="BL2" s="137"/>
-      <c r="BM2" s="137"/>
-      <c r="BN2" s="137"/>
-      <c r="BO2" s="137"/>
-      <c r="BP2" s="137"/>
-      <c r="BQ2" s="137"/>
+      <c r="BC2" s="128"/>
+      <c r="BD2" s="128"/>
+      <c r="BE2" s="128"/>
+      <c r="BF2" s="128"/>
+      <c r="BG2" s="128"/>
+      <c r="BH2" s="128"/>
+      <c r="BI2" s="128"/>
+      <c r="BJ2" s="129"/>
+      <c r="BK2" s="129"/>
+      <c r="BL2" s="129"/>
+      <c r="BM2" s="129"/>
+      <c r="BN2" s="129"/>
+      <c r="BO2" s="129"/>
+      <c r="BP2" s="129"/>
+      <c r="BQ2" s="129"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="138" t="s">
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="138"/>
-      <c r="AM3" s="138"/>
-      <c r="AN3" s="138"/>
-      <c r="AO3" s="138"/>
-      <c r="AP3" s="138"/>
-      <c r="AQ3" s="138"/>
-      <c r="AR3" s="138"/>
-      <c r="AS3" s="138"/>
-      <c r="AT3" s="139">
+      <c r="AL3" s="130"/>
+      <c r="AM3" s="130"/>
+      <c r="AN3" s="130"/>
+      <c r="AO3" s="130"/>
+      <c r="AP3" s="130"/>
+      <c r="AQ3" s="130"/>
+      <c r="AR3" s="130"/>
+      <c r="AS3" s="130"/>
+      <c r="AT3" s="131">
         <v>45510</v>
       </c>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="139"/>
-      <c r="AW3" s="139"/>
-      <c r="AX3" s="139"/>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="139"/>
-      <c r="BA3" s="139"/>
-      <c r="BB3" s="138" t="s">
+      <c r="AU3" s="131"/>
+      <c r="AV3" s="131"/>
+      <c r="AW3" s="131"/>
+      <c r="AX3" s="131"/>
+      <c r="AY3" s="131"/>
+      <c r="AZ3" s="131"/>
+      <c r="BA3" s="131"/>
+      <c r="BB3" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="138"/>
-      <c r="BD3" s="138"/>
-      <c r="BE3" s="138"/>
-      <c r="BF3" s="138"/>
-      <c r="BG3" s="138"/>
-      <c r="BH3" s="138"/>
-      <c r="BI3" s="138"/>
-      <c r="BJ3" s="140"/>
-      <c r="BK3" s="140"/>
-      <c r="BL3" s="140"/>
-      <c r="BM3" s="140"/>
-      <c r="BN3" s="140"/>
-      <c r="BO3" s="140"/>
-      <c r="BP3" s="140"/>
-      <c r="BQ3" s="140"/>
+      <c r="BC3" s="130"/>
+      <c r="BD3" s="130"/>
+      <c r="BE3" s="130"/>
+      <c r="BF3" s="130"/>
+      <c r="BG3" s="130"/>
+      <c r="BH3" s="130"/>
+      <c r="BI3" s="130"/>
+      <c r="BJ3" s="132"/>
+      <c r="BK3" s="132"/>
+      <c r="BL3" s="132"/>
+      <c r="BM3" s="132"/>
+      <c r="BN3" s="132"/>
+      <c r="BO3" s="132"/>
+      <c r="BP3" s="132"/>
+      <c r="BQ3" s="132"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -10189,20 +10189,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
       <c r="M6" s="133" t="s">
         <v>28</v>
       </c>
@@ -10233,52 +10233,52 @@
       <c r="AL6" s="133"/>
       <c r="AM6" s="133"/>
       <c r="AN6" s="133"/>
-      <c r="AO6" s="67" t="s">
+      <c r="AO6" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67" t="s">
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="106"/>
+      <c r="AT6" s="106"/>
+      <c r="AU6" s="106"/>
+      <c r="AV6" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="67"/>
-      <c r="BA6" s="67"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="67"/>
-      <c r="BH6" s="67"/>
-      <c r="BI6" s="67"/>
-      <c r="BJ6" s="67"/>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="67"/>
-      <c r="BM6" s="67"/>
-      <c r="BN6" s="67"/>
-      <c r="BO6" s="67"/>
-      <c r="BP6" s="67"/>
+      <c r="AW6" s="106"/>
+      <c r="AX6" s="106"/>
+      <c r="AY6" s="106"/>
+      <c r="AZ6" s="106"/>
+      <c r="BA6" s="106"/>
+      <c r="BB6" s="106"/>
+      <c r="BC6" s="106"/>
+      <c r="BD6" s="106"/>
+      <c r="BE6" s="106"/>
+      <c r="BF6" s="106"/>
+      <c r="BG6" s="106"/>
+      <c r="BH6" s="106"/>
+      <c r="BI6" s="106"/>
+      <c r="BJ6" s="106"/>
+      <c r="BK6" s="106"/>
+      <c r="BL6" s="106"/>
+      <c r="BM6" s="106"/>
+      <c r="BN6" s="106"/>
+      <c r="BO6" s="106"/>
+      <c r="BP6" s="106"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="17" t="s">
         <v>80</v>
       </c>
@@ -10309,38 +10309,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67" t="s">
+      <c r="AP7" s="106"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="106"/>
+      <c r="AS7" s="106"/>
+      <c r="AT7" s="106"/>
+      <c r="AU7" s="106"/>
+      <c r="AV7" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="67"/>
+      <c r="AW7" s="106"/>
+      <c r="AX7" s="106"/>
+      <c r="AY7" s="106"/>
+      <c r="AZ7" s="106"/>
+      <c r="BA7" s="106"/>
+      <c r="BB7" s="106"/>
+      <c r="BC7" s="106"/>
+      <c r="BD7" s="106"/>
+      <c r="BE7" s="106"/>
+      <c r="BF7" s="106"/>
+      <c r="BG7" s="106"/>
+      <c r="BH7" s="106"/>
+      <c r="BI7" s="106"/>
+      <c r="BJ7" s="106"/>
+      <c r="BK7" s="106"/>
+      <c r="BL7" s="106"/>
+      <c r="BM7" s="106"/>
+      <c r="BN7" s="106"/>
+      <c r="BO7" s="106"/>
+      <c r="BP7" s="106"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -10354,89 +10354,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="126" t="s">
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126" t="s">
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="64" t="s">
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="66" t="s">
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="114"/>
+      <c r="AK10" s="114"/>
+      <c r="AL10" s="114"/>
+      <c r="AM10" s="114"/>
+      <c r="AN10" s="114"/>
+      <c r="AO10" s="114"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="114"/>
+      <c r="AS10" s="114"/>
+      <c r="AT10" s="114"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="114"/>
+      <c r="AX10" s="114"/>
+      <c r="AY10" s="114"/>
+      <c r="AZ10" s="114"/>
+      <c r="BA10" s="114"/>
+      <c r="BB10" s="114"/>
+      <c r="BC10" s="114"/>
+      <c r="BD10" s="114"/>
+      <c r="BE10" s="114"/>
+      <c r="BF10" s="114"/>
+      <c r="BG10" s="114"/>
+      <c r="BH10" s="114"/>
+      <c r="BI10" s="135"/>
+      <c r="BJ10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="66"/>
-      <c r="BP10" s="66"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="103"/>
+      <c r="BN10" s="103"/>
+      <c r="BO10" s="103"/>
+      <c r="BP10" s="103"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
       <c r="G11" s="17" t="s">
         <v>120</v>
       </c>
@@ -10452,11 +10452,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="126" t="s">
+      <c r="T11" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="126"/>
-      <c r="V11" s="126"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="128"/>
       <c r="W11" s="51" t="s">
         <v>121</v>
       </c>
@@ -10508,12 +10508,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="13" t="s">
         <v>153</v>
       </c>
@@ -10529,9 +10529,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="126"/>
-      <c r="U12" s="126"/>
-      <c r="V12" s="126"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
       <c r="W12" s="51" t="s">
         <v>155</v>
       </c>
@@ -10603,9 +10603,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="126"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
       <c r="W13" s="51" t="s">
         <v>156</v>
       </c>
@@ -10656,10 +10656,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -10673,9 +10673,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="126"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="126"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
       <c r="W14" s="51"/>
       <c r="X14" s="52"/>
       <c r="Y14" s="52"/>
@@ -10725,10 +10725,10 @@
     </row>
     <row r="15" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -10742,9 +10742,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="126"/>
-      <c r="U15" s="126"/>
-      <c r="V15" s="126"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
       <c r="W15" s="51"/>
       <c r="X15" s="52"/>
       <c r="Y15" s="52"/>
@@ -10795,10 +10795,10 @@
     </row>
     <row r="16" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -10812,9 +10812,9 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="126"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="126"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
       <c r="W16" s="51"/>
       <c r="X16" s="52"/>
       <c r="Y16" s="52"/>
@@ -10878,90 +10878,90 @@
     </row>
     <row r="19" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="126" t="s">
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126" t="s">
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="126"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="66" t="s">
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="66"/>
-      <c r="BA19" s="66"/>
-      <c r="BB19" s="66"/>
-      <c r="BC19" s="66"/>
-      <c r="BD19" s="66"/>
-      <c r="BE19" s="66"/>
-      <c r="BF19" s="66"/>
-      <c r="BG19" s="66"/>
-      <c r="BH19" s="66"/>
-      <c r="BI19" s="66"/>
-      <c r="BJ19" s="66" t="s">
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="103"/>
+      <c r="AC19" s="103"/>
+      <c r="AD19" s="103"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="103"/>
+      <c r="AG19" s="103"/>
+      <c r="AH19" s="103"/>
+      <c r="AI19" s="103"/>
+      <c r="AJ19" s="103"/>
+      <c r="AK19" s="103"/>
+      <c r="AL19" s="103"/>
+      <c r="AM19" s="103"/>
+      <c r="AN19" s="103"/>
+      <c r="AO19" s="103"/>
+      <c r="AP19" s="103"/>
+      <c r="AQ19" s="103"/>
+      <c r="AR19" s="103"/>
+      <c r="AS19" s="103"/>
+      <c r="AT19" s="103"/>
+      <c r="AU19" s="103"/>
+      <c r="AV19" s="103"/>
+      <c r="AW19" s="103"/>
+      <c r="AX19" s="103"/>
+      <c r="AY19" s="103"/>
+      <c r="AZ19" s="103"/>
+      <c r="BA19" s="103"/>
+      <c r="BB19" s="103"/>
+      <c r="BC19" s="103"/>
+      <c r="BD19" s="103"/>
+      <c r="BE19" s="103"/>
+      <c r="BF19" s="103"/>
+      <c r="BG19" s="103"/>
+      <c r="BH19" s="103"/>
+      <c r="BI19" s="103"/>
+      <c r="BJ19" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK19" s="66"/>
-      <c r="BL19" s="66"/>
-      <c r="BM19" s="66"/>
-      <c r="BN19" s="66"/>
-      <c r="BO19" s="66"/>
-      <c r="BP19" s="66"/>
+      <c r="BK19" s="103"/>
+      <c r="BL19" s="103"/>
+      <c r="BM19" s="103"/>
+      <c r="BN19" s="103"/>
+      <c r="BO19" s="103"/>
+      <c r="BP19" s="103"/>
       <c r="BQ19" s="15"/>
     </row>
     <row r="20" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
       <c r="G20" s="17" t="s">
         <v>116</v>
       </c>
@@ -10977,9 +10977,9 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="20"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="126"/>
+      <c r="T20" s="128"/>
+      <c r="U20" s="128"/>
+      <c r="V20" s="128"/>
       <c r="W20" s="21" t="s">
         <v>122</v>
       </c>
@@ -12681,6 +12681,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="W19:BI19"/>
+    <mergeCell ref="BJ19:BP19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -12695,39 +12728,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W19:BI19"/>
-    <mergeCell ref="BJ19:BP19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F120204-31B5-4533-AF0D-37C3FF851469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F741610-DFF6-44D1-A42B-F14E422CB243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="80" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_交通費申請マッパー" sheetId="10" r:id="rId1"/>
@@ -1807,7 +1807,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1973,30 +1973,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2211,7 +2187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2237,45 +2213,45 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2283,164 +2259,185 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2457,71 +2454,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2530,9 +2519,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2547,47 +2533,25 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2788,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B70D8C-054F-4519-8336-22893221A19C}">
   <dimension ref="A1:AMW50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:AJ3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2800,249 +2764,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="100" t="s">
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106"/>
+      <c r="AT1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="100"/>
-      <c r="AV1" s="100"/>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="100"/>
-      <c r="AY1" s="100"/>
-      <c r="AZ1" s="100"/>
-      <c r="BA1" s="100"/>
-      <c r="BB1" s="100"/>
-      <c r="BC1" s="100"/>
-      <c r="BD1" s="100"/>
-      <c r="BE1" s="100"/>
-      <c r="BF1" s="100"/>
-      <c r="BG1" s="100"/>
-      <c r="BH1" s="100"/>
-      <c r="BI1" s="100"/>
-      <c r="BJ1" s="100"/>
-      <c r="BK1" s="100"/>
-      <c r="BL1" s="100"/>
-      <c r="BM1" s="100"/>
-      <c r="BN1" s="100"/>
-      <c r="BO1" s="100"/>
-      <c r="BP1" s="100"/>
-      <c r="BQ1" s="100"/>
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
+      <c r="AX1" s="107"/>
+      <c r="AY1" s="107"/>
+      <c r="AZ1" s="107"/>
+      <c r="BA1" s="107"/>
+      <c r="BB1" s="107"/>
+      <c r="BC1" s="107"/>
+      <c r="BD1" s="107"/>
+      <c r="BE1" s="107"/>
+      <c r="BF1" s="107"/>
+      <c r="BG1" s="107"/>
+      <c r="BH1" s="107"/>
+      <c r="BI1" s="107"/>
+      <c r="BJ1" s="107"/>
+      <c r="BK1" s="107"/>
+      <c r="BL1" s="107"/>
+      <c r="BM1" s="107"/>
+      <c r="BN1" s="107"/>
+      <c r="BO1" s="107"/>
+      <c r="BP1" s="107"/>
+      <c r="BQ1" s="107"/>
       <c r="BR1" s="4"/>
     </row>
     <row r="2" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="103" t="s">
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="103"/>
-      <c r="AM2" s="103"/>
-      <c r="AN2" s="103"/>
-      <c r="AO2" s="103"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="103"/>
-      <c r="AR2" s="103"/>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="103" t="s">
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="103"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="103" t="s">
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="103"/>
-      <c r="BD2" s="103"/>
-      <c r="BE2" s="103"/>
-      <c r="BF2" s="103"/>
-      <c r="BG2" s="103"/>
-      <c r="BH2" s="103"/>
-      <c r="BI2" s="103"/>
-      <c r="BJ2" s="104" t="s">
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="66"/>
+      <c r="BH2" s="66"/>
+      <c r="BI2" s="66"/>
+      <c r="BJ2" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="104"/>
-      <c r="BL2" s="104"/>
-      <c r="BM2" s="104"/>
-      <c r="BN2" s="104"/>
-      <c r="BO2" s="104"/>
-      <c r="BP2" s="104"/>
-      <c r="BQ2" s="104"/>
+      <c r="BK2" s="110"/>
+      <c r="BL2" s="110"/>
+      <c r="BM2" s="110"/>
+      <c r="BN2" s="110"/>
+      <c r="BO2" s="110"/>
+      <c r="BP2" s="110"/>
+      <c r="BQ2" s="110"/>
       <c r="BR2" s="4"/>
     </row>
     <row r="3" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="109" t="s">
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="109"/>
-      <c r="AM3" s="109"/>
-      <c r="AN3" s="109"/>
-      <c r="AO3" s="109"/>
-      <c r="AP3" s="109"/>
-      <c r="AQ3" s="109"/>
-      <c r="AR3" s="109"/>
-      <c r="AS3" s="109"/>
-      <c r="AT3" s="110">
+      <c r="AL3" s="102"/>
+      <c r="AM3" s="102"/>
+      <c r="AN3" s="102"/>
+      <c r="AO3" s="102"/>
+      <c r="AP3" s="102"/>
+      <c r="AQ3" s="102"/>
+      <c r="AR3" s="102"/>
+      <c r="AS3" s="102"/>
+      <c r="AT3" s="103">
         <v>45503</v>
       </c>
-      <c r="AU3" s="110"/>
-      <c r="AV3" s="110"/>
-      <c r="AW3" s="110"/>
-      <c r="AX3" s="110"/>
-      <c r="AY3" s="110"/>
-      <c r="AZ3" s="110"/>
-      <c r="BA3" s="110"/>
-      <c r="BB3" s="109" t="s">
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="109"/>
-      <c r="BD3" s="109"/>
-      <c r="BE3" s="109"/>
-      <c r="BF3" s="109"/>
-      <c r="BG3" s="109"/>
-      <c r="BH3" s="109"/>
-      <c r="BI3" s="109"/>
-      <c r="BJ3" s="111">
+      <c r="BC3" s="102"/>
+      <c r="BD3" s="102"/>
+      <c r="BE3" s="102"/>
+      <c r="BF3" s="102"/>
+      <c r="BG3" s="102"/>
+      <c r="BH3" s="102"/>
+      <c r="BI3" s="102"/>
+      <c r="BJ3" s="104">
         <v>45548</v>
       </c>
-      <c r="BK3" s="111"/>
-      <c r="BL3" s="111"/>
-      <c r="BM3" s="111"/>
-      <c r="BN3" s="111"/>
-      <c r="BO3" s="111"/>
-      <c r="BP3" s="111"/>
-      <c r="BQ3" s="111"/>
+      <c r="BK3" s="104"/>
+      <c r="BL3" s="104"/>
+      <c r="BM3" s="104"/>
+      <c r="BN3" s="104"/>
+      <c r="BO3" s="104"/>
+      <c r="BP3" s="104"/>
+      <c r="BQ3" s="104"/>
       <c r="BR3" s="4"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
@@ -3110,215 +3074,215 @@
     </row>
     <row r="6" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="112"/>
-      <c r="Z6" s="112"/>
-      <c r="AA6" s="112"/>
-      <c r="AB6" s="112"/>
-      <c r="AC6" s="112"/>
-      <c r="AD6" s="112"/>
-      <c r="AE6" s="112"/>
-      <c r="AF6" s="112"/>
-      <c r="AG6" s="112"/>
-      <c r="AH6" s="112"/>
-      <c r="AI6" s="112"/>
-      <c r="AJ6" s="112"/>
-      <c r="AK6" s="112"/>
-      <c r="AL6" s="112"/>
-      <c r="AM6" s="112"/>
-      <c r="AN6" s="112"/>
-      <c r="AO6" s="112"/>
-      <c r="AP6" s="112"/>
-      <c r="AQ6" s="112"/>
-      <c r="AR6" s="112"/>
-      <c r="AS6" s="112"/>
-      <c r="AT6" s="112"/>
-      <c r="AU6" s="112"/>
-      <c r="AV6" s="112"/>
-      <c r="AW6" s="112"/>
-      <c r="AX6" s="112"/>
-      <c r="AY6" s="112"/>
-      <c r="AZ6" s="112"/>
-      <c r="BA6" s="112"/>
-      <c r="BB6" s="112"/>
-      <c r="BC6" s="112"/>
-      <c r="BD6" s="112"/>
-      <c r="BE6" s="112"/>
-      <c r="BF6" s="112"/>
-      <c r="BG6" s="112"/>
-      <c r="BH6" s="112"/>
-      <c r="BI6" s="112"/>
-      <c r="BJ6" s="112"/>
-      <c r="BK6" s="112"/>
-      <c r="BL6" s="112"/>
-      <c r="BM6" s="112"/>
-      <c r="BN6" s="112"/>
-      <c r="BO6" s="112"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="127"/>
+      <c r="AG6" s="127"/>
+      <c r="AH6" s="127"/>
+      <c r="AI6" s="127"/>
+      <c r="AJ6" s="127"/>
+      <c r="AK6" s="127"/>
+      <c r="AL6" s="127"/>
+      <c r="AM6" s="127"/>
+      <c r="AN6" s="127"/>
+      <c r="AO6" s="127"/>
+      <c r="AP6" s="127"/>
+      <c r="AQ6" s="127"/>
+      <c r="AR6" s="127"/>
+      <c r="AS6" s="127"/>
+      <c r="AT6" s="127"/>
+      <c r="AU6" s="127"/>
+      <c r="AV6" s="127"/>
+      <c r="AW6" s="127"/>
+      <c r="AX6" s="127"/>
+      <c r="AY6" s="127"/>
+      <c r="AZ6" s="127"/>
+      <c r="BA6" s="127"/>
+      <c r="BB6" s="127"/>
+      <c r="BC6" s="127"/>
+      <c r="BD6" s="127"/>
+      <c r="BE6" s="127"/>
+      <c r="BF6" s="127"/>
+      <c r="BG6" s="127"/>
+      <c r="BH6" s="127"/>
+      <c r="BI6" s="127"/>
+      <c r="BJ6" s="127"/>
+      <c r="BK6" s="127"/>
+      <c r="BL6" s="127"/>
+      <c r="BM6" s="127"/>
+      <c r="BN6" s="127"/>
+      <c r="BO6" s="127"/>
       <c r="BP6"/>
       <c r="BR6" s="4"/>
     </row>
     <row r="7" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="112"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="112"/>
-      <c r="AJ7" s="112"/>
-      <c r="AK7" s="112"/>
-      <c r="AL7" s="112"/>
-      <c r="AM7" s="112"/>
-      <c r="AN7" s="112"/>
-      <c r="AO7" s="112"/>
-      <c r="AP7" s="112"/>
-      <c r="AQ7" s="112"/>
-      <c r="AR7" s="112"/>
-      <c r="AS7" s="112"/>
-      <c r="AT7" s="112"/>
-      <c r="AU7" s="112"/>
-      <c r="AV7" s="112"/>
-      <c r="AW7" s="112"/>
-      <c r="AX7" s="112"/>
-      <c r="AY7" s="112"/>
-      <c r="AZ7" s="112"/>
-      <c r="BA7" s="112"/>
-      <c r="BB7" s="112"/>
-      <c r="BC7" s="112"/>
-      <c r="BD7" s="112"/>
-      <c r="BE7" s="112"/>
-      <c r="BF7" s="112"/>
-      <c r="BG7" s="112"/>
-      <c r="BH7" s="112"/>
-      <c r="BI7" s="112"/>
-      <c r="BJ7" s="112"/>
-      <c r="BK7" s="112"/>
-      <c r="BL7" s="112"/>
-      <c r="BM7" s="112"/>
-      <c r="BN7" s="112"/>
-      <c r="BO7" s="112"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="127"/>
+      <c r="U7" s="127"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="127"/>
+      <c r="AH7" s="127"/>
+      <c r="AI7" s="127"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
+      <c r="AL7" s="127"/>
+      <c r="AM7" s="127"/>
+      <c r="AN7" s="127"/>
+      <c r="AO7" s="127"/>
+      <c r="AP7" s="127"/>
+      <c r="AQ7" s="127"/>
+      <c r="AR7" s="127"/>
+      <c r="AS7" s="127"/>
+      <c r="AT7" s="127"/>
+      <c r="AU7" s="127"/>
+      <c r="AV7" s="127"/>
+      <c r="AW7" s="127"/>
+      <c r="AX7" s="127"/>
+      <c r="AY7" s="127"/>
+      <c r="AZ7" s="127"/>
+      <c r="BA7" s="127"/>
+      <c r="BB7" s="127"/>
+      <c r="BC7" s="127"/>
+      <c r="BD7" s="127"/>
+      <c r="BE7" s="127"/>
+      <c r="BF7" s="127"/>
+      <c r="BG7" s="127"/>
+      <c r="BH7" s="127"/>
+      <c r="BI7" s="127"/>
+      <c r="BJ7" s="127"/>
+      <c r="BK7" s="127"/>
+      <c r="BL7" s="127"/>
+      <c r="BM7" s="127"/>
+      <c r="BN7" s="127"/>
+      <c r="BO7" s="127"/>
       <c r="BP7"/>
       <c r="BR7" s="4"/>
     </row>
     <row r="8" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="105"/>
-      <c r="AP8" s="105"/>
-      <c r="AQ8" s="105"/>
-      <c r="AR8" s="105"/>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="105"/>
-      <c r="AW8" s="105"/>
-      <c r="AX8" s="105"/>
-      <c r="AY8" s="105"/>
-      <c r="AZ8" s="105"/>
-      <c r="BA8" s="105"/>
-      <c r="BB8" s="105"/>
-      <c r="BC8" s="105"/>
-      <c r="BD8" s="105"/>
-      <c r="BE8" s="105"/>
-      <c r="BF8" s="105"/>
-      <c r="BG8" s="105"/>
-      <c r="BH8" s="105"/>
-      <c r="BI8" s="105"/>
-      <c r="BJ8" s="105"/>
-      <c r="BK8" s="105"/>
-      <c r="BL8" s="105"/>
-      <c r="BM8" s="105"/>
-      <c r="BN8" s="105"/>
-      <c r="BO8" s="105"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="67"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="67"/>
+      <c r="BE8" s="67"/>
+      <c r="BF8" s="67"/>
+      <c r="BG8" s="67"/>
+      <c r="BH8" s="67"/>
+      <c r="BI8" s="67"/>
+      <c r="BJ8" s="67"/>
+      <c r="BK8" s="67"/>
+      <c r="BL8" s="67"/>
+      <c r="BM8" s="67"/>
+      <c r="BN8" s="67"/>
+      <c r="BO8" s="67"/>
       <c r="BP8"/>
       <c r="BR8" s="4"/>
     </row>
@@ -3371,787 +3335,787 @@
     </row>
     <row r="11" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="103" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="106" t="s">
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="107" t="s">
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="AJ11" s="107"/>
-      <c r="AK11" s="107"/>
-      <c r="AL11" s="107"/>
-      <c r="AM11" s="107"/>
-      <c r="AN11" s="107"/>
-      <c r="AO11" s="107"/>
-      <c r="AP11" s="107"/>
-      <c r="AQ11" s="107"/>
-      <c r="AR11" s="107"/>
-      <c r="AS11" s="107"/>
-      <c r="AT11" s="107"/>
-      <c r="AU11" s="107"/>
-      <c r="AV11" s="107"/>
-      <c r="AW11" s="107"/>
-      <c r="AX11" s="107"/>
-      <c r="AY11" s="107"/>
-      <c r="AZ11" s="107"/>
-      <c r="BA11" s="107"/>
-      <c r="BB11" s="107"/>
-      <c r="BC11" s="107"/>
-      <c r="BD11" s="107"/>
-      <c r="BE11" s="107"/>
-      <c r="BF11" s="107"/>
-      <c r="BG11" s="107"/>
-      <c r="BH11" s="107"/>
-      <c r="BI11" s="107"/>
-      <c r="BJ11" s="107"/>
-      <c r="BK11" s="107"/>
-      <c r="BL11" s="107"/>
-      <c r="BM11" s="107"/>
-      <c r="BN11" s="107"/>
-      <c r="BO11" s="107"/>
+      <c r="AJ11" s="101"/>
+      <c r="AK11" s="101"/>
+      <c r="AL11" s="101"/>
+      <c r="AM11" s="101"/>
+      <c r="AN11" s="101"/>
+      <c r="AO11" s="101"/>
+      <c r="AP11" s="101"/>
+      <c r="AQ11" s="101"/>
+      <c r="AR11" s="101"/>
+      <c r="AS11" s="101"/>
+      <c r="AT11" s="101"/>
+      <c r="AU11" s="101"/>
+      <c r="AV11" s="101"/>
+      <c r="AW11" s="101"/>
+      <c r="AX11" s="101"/>
+      <c r="AY11" s="101"/>
+      <c r="AZ11" s="101"/>
+      <c r="BA11" s="101"/>
+      <c r="BB11" s="101"/>
+      <c r="BC11" s="101"/>
+      <c r="BD11" s="101"/>
+      <c r="BE11" s="101"/>
+      <c r="BF11" s="101"/>
+      <c r="BG11" s="101"/>
+      <c r="BH11" s="101"/>
+      <c r="BI11" s="101"/>
+      <c r="BJ11" s="101"/>
+      <c r="BK11" s="101"/>
+      <c r="BL11" s="101"/>
+      <c r="BM11" s="101"/>
+      <c r="BN11" s="101"/>
+      <c r="BO11" s="101"/>
       <c r="BP11"/>
       <c r="BR11" s="4"/>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="108"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="108"/>
-      <c r="AE12" s="108"/>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="108"/>
-      <c r="AH12" s="108"/>
-      <c r="AI12" s="108"/>
-      <c r="AJ12" s="108"/>
-      <c r="AK12" s="108"/>
-      <c r="AL12" s="108"/>
-      <c r="AM12" s="108"/>
-      <c r="AN12" s="108"/>
-      <c r="AO12" s="108"/>
-      <c r="AP12" s="108"/>
-      <c r="AQ12" s="108"/>
-      <c r="AR12" s="108"/>
-      <c r="AS12" s="108"/>
-      <c r="AT12" s="108"/>
-      <c r="AU12" s="108"/>
-      <c r="AV12" s="108"/>
-      <c r="AW12" s="108"/>
-      <c r="AX12" s="108"/>
-      <c r="AY12" s="108"/>
-      <c r="AZ12" s="108"/>
-      <c r="BA12" s="108"/>
-      <c r="BB12" s="108"/>
-      <c r="BC12" s="108"/>
-      <c r="BD12" s="108"/>
-      <c r="BE12" s="108"/>
-      <c r="BF12" s="108"/>
-      <c r="BG12" s="108"/>
-      <c r="BH12" s="108"/>
-      <c r="BI12" s="108"/>
-      <c r="BJ12" s="108"/>
-      <c r="BK12" s="108"/>
-      <c r="BL12" s="108"/>
-      <c r="BM12" s="108"/>
-      <c r="BN12" s="108"/>
-      <c r="BO12" s="108"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="68"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="68"/>
+      <c r="AO12" s="68"/>
+      <c r="AP12" s="68"/>
+      <c r="AQ12" s="68"/>
+      <c r="AR12" s="68"/>
+      <c r="AS12" s="68"/>
+      <c r="AT12" s="68"/>
+      <c r="AU12" s="68"/>
+      <c r="AV12" s="68"/>
+      <c r="AW12" s="68"/>
+      <c r="AX12" s="68"/>
+      <c r="AY12" s="68"/>
+      <c r="AZ12" s="68"/>
+      <c r="BA12" s="68"/>
+      <c r="BB12" s="68"/>
+      <c r="BC12" s="68"/>
+      <c r="BD12" s="68"/>
+      <c r="BE12" s="68"/>
+      <c r="BF12" s="68"/>
+      <c r="BG12" s="68"/>
+      <c r="BH12" s="68"/>
+      <c r="BI12" s="68"/>
+      <c r="BJ12" s="68"/>
+      <c r="BK12" s="68"/>
+      <c r="BL12" s="68"/>
+      <c r="BM12" s="68"/>
+      <c r="BN12" s="68"/>
+      <c r="BO12" s="68"/>
       <c r="BP12"/>
       <c r="BR12" s="4"/>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="108"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="108"/>
-      <c r="AB13" s="108"/>
-      <c r="AC13" s="108"/>
-      <c r="AD13" s="108"/>
-      <c r="AE13" s="108"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="108"/>
-      <c r="AJ13" s="108"/>
-      <c r="AK13" s="108"/>
-      <c r="AL13" s="108"/>
-      <c r="AM13" s="108"/>
-      <c r="AN13" s="108"/>
-      <c r="AO13" s="108"/>
-      <c r="AP13" s="108"/>
-      <c r="AQ13" s="108"/>
-      <c r="AR13" s="108"/>
-      <c r="AS13" s="108"/>
-      <c r="AT13" s="108"/>
-      <c r="AU13" s="108"/>
-      <c r="AV13" s="108"/>
-      <c r="AW13" s="108"/>
-      <c r="AX13" s="108"/>
-      <c r="AY13" s="108"/>
-      <c r="AZ13" s="108"/>
-      <c r="BA13" s="108"/>
-      <c r="BB13" s="108"/>
-      <c r="BC13" s="108"/>
-      <c r="BD13" s="108"/>
-      <c r="BE13" s="108"/>
-      <c r="BF13" s="108"/>
-      <c r="BG13" s="108"/>
-      <c r="BH13" s="108"/>
-      <c r="BI13" s="108"/>
-      <c r="BJ13" s="108"/>
-      <c r="BK13" s="108"/>
-      <c r="BL13" s="108"/>
-      <c r="BM13" s="108"/>
-      <c r="BN13" s="108"/>
-      <c r="BO13" s="108"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="68"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="68"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="68"/>
+      <c r="BC13" s="68"/>
+      <c r="BD13" s="68"/>
+      <c r="BE13" s="68"/>
+      <c r="BF13" s="68"/>
+      <c r="BG13" s="68"/>
+      <c r="BH13" s="68"/>
+      <c r="BI13" s="68"/>
+      <c r="BJ13" s="68"/>
+      <c r="BK13" s="68"/>
+      <c r="BL13" s="68"/>
+      <c r="BM13" s="68"/>
+      <c r="BN13" s="68"/>
+      <c r="BO13" s="68"/>
       <c r="BP13"/>
       <c r="BR13" s="4"/>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="117" t="s">
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117"/>
-      <c r="Y14" s="117"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="117"/>
-      <c r="AB14" s="117"/>
-      <c r="AC14" s="117"/>
-      <c r="AD14" s="117"/>
-      <c r="AE14" s="117"/>
-      <c r="AF14" s="117"/>
-      <c r="AG14" s="117"/>
-      <c r="AH14" s="117"/>
-      <c r="AI14" s="117"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="117"/>
-      <c r="AL14" s="117"/>
-      <c r="AM14" s="117"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="117"/>
-      <c r="AP14" s="117"/>
-      <c r="AQ14" s="117"/>
-      <c r="AR14" s="117"/>
-      <c r="AS14" s="117"/>
-      <c r="AT14" s="117"/>
-      <c r="AU14" s="117"/>
-      <c r="AV14" s="117"/>
-      <c r="AW14" s="117"/>
-      <c r="AX14" s="117"/>
-      <c r="AY14" s="117"/>
-      <c r="AZ14" s="117"/>
-      <c r="BA14" s="117"/>
-      <c r="BB14" s="117"/>
-      <c r="BC14" s="117"/>
-      <c r="BD14" s="117"/>
-      <c r="BE14" s="117"/>
-      <c r="BF14" s="117"/>
-      <c r="BG14" s="117"/>
-      <c r="BH14" s="117"/>
-      <c r="BI14" s="117"/>
-      <c r="BJ14" s="117"/>
-      <c r="BK14" s="117"/>
-      <c r="BL14" s="117"/>
-      <c r="BM14" s="117"/>
-      <c r="BN14" s="117"/>
-      <c r="BO14" s="117"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="86"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="86"/>
+      <c r="AO14" s="86"/>
+      <c r="AP14" s="86"/>
+      <c r="AQ14" s="86"/>
+      <c r="AR14" s="86"/>
+      <c r="AS14" s="86"/>
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="86"/>
+      <c r="AV14" s="86"/>
+      <c r="AW14" s="86"/>
+      <c r="AX14" s="86"/>
+      <c r="AY14" s="86"/>
+      <c r="AZ14" s="86"/>
+      <c r="BA14" s="86"/>
+      <c r="BB14" s="86"/>
+      <c r="BC14" s="86"/>
+      <c r="BD14" s="86"/>
+      <c r="BE14" s="86"/>
+      <c r="BF14" s="86"/>
+      <c r="BG14" s="86"/>
+      <c r="BH14" s="86"/>
+      <c r="BI14" s="86"/>
+      <c r="BJ14" s="86"/>
+      <c r="BK14" s="86"/>
+      <c r="BL14" s="86"/>
+      <c r="BM14" s="86"/>
+      <c r="BN14" s="86"/>
+      <c r="BO14" s="86"/>
       <c r="BP14"/>
       <c r="BR14" s="4"/>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="118"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="118"/>
-      <c r="AT15" s="118"/>
-      <c r="AU15" s="118"/>
-      <c r="AV15" s="118"/>
-      <c r="AW15" s="118"/>
-      <c r="AX15" s="118"/>
-      <c r="AY15" s="118"/>
-      <c r="AZ15" s="118"/>
-      <c r="BA15" s="118"/>
-      <c r="BB15" s="118"/>
-      <c r="BC15" s="118"/>
-      <c r="BD15" s="118"/>
-      <c r="BE15" s="118"/>
-      <c r="BF15" s="118"/>
-      <c r="BG15" s="118"/>
-      <c r="BH15" s="118"/>
-      <c r="BI15" s="118"/>
-      <c r="BJ15" s="118"/>
-      <c r="BK15" s="118"/>
-      <c r="BL15" s="118"/>
-      <c r="BM15" s="118"/>
-      <c r="BN15" s="118"/>
-      <c r="BO15" s="118"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="68"/>
+      <c r="AS15" s="68"/>
+      <c r="AT15" s="68"/>
+      <c r="AU15" s="68"/>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="68"/>
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="68"/>
+      <c r="BC15" s="68"/>
+      <c r="BD15" s="68"/>
+      <c r="BE15" s="68"/>
+      <c r="BF15" s="68"/>
+      <c r="BG15" s="68"/>
+      <c r="BH15" s="68"/>
+      <c r="BI15" s="68"/>
+      <c r="BJ15" s="68"/>
+      <c r="BK15" s="68"/>
+      <c r="BL15" s="68"/>
+      <c r="BM15" s="68"/>
+      <c r="BN15" s="68"/>
+      <c r="BO15" s="68"/>
       <c r="BP15"/>
       <c r="BR15" s="4"/>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="118"/>
-      <c r="AE16" s="118"/>
-      <c r="AF16" s="118"/>
-      <c r="AG16" s="118"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="118"/>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="118"/>
-      <c r="AU16" s="118"/>
-      <c r="AV16" s="118"/>
-      <c r="AW16" s="118"/>
-      <c r="AX16" s="118"/>
-      <c r="AY16" s="118"/>
-      <c r="AZ16" s="118"/>
-      <c r="BA16" s="118"/>
-      <c r="BB16" s="118"/>
-      <c r="BC16" s="118"/>
-      <c r="BD16" s="118"/>
-      <c r="BE16" s="118"/>
-      <c r="BF16" s="118"/>
-      <c r="BG16" s="118"/>
-      <c r="BH16" s="118"/>
-      <c r="BI16" s="118"/>
-      <c r="BJ16" s="118"/>
-      <c r="BK16" s="118"/>
-      <c r="BL16" s="118"/>
-      <c r="BM16" s="118"/>
-      <c r="BN16" s="118"/>
-      <c r="BO16" s="118"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="68"/>
+      <c r="AL16" s="68"/>
+      <c r="AM16" s="68"/>
+      <c r="AN16" s="68"/>
+      <c r="AO16" s="68"/>
+      <c r="AP16" s="68"/>
+      <c r="AQ16" s="68"/>
+      <c r="AR16" s="68"/>
+      <c r="AS16" s="68"/>
+      <c r="AT16" s="68"/>
+      <c r="AU16" s="68"/>
+      <c r="AV16" s="68"/>
+      <c r="AW16" s="68"/>
+      <c r="AX16" s="68"/>
+      <c r="AY16" s="68"/>
+      <c r="AZ16" s="68"/>
+      <c r="BA16" s="68"/>
+      <c r="BB16" s="68"/>
+      <c r="BC16" s="68"/>
+      <c r="BD16" s="68"/>
+      <c r="BE16" s="68"/>
+      <c r="BF16" s="68"/>
+      <c r="BG16" s="68"/>
+      <c r="BH16" s="68"/>
+      <c r="BI16" s="68"/>
+      <c r="BJ16" s="68"/>
+      <c r="BK16" s="68"/>
+      <c r="BL16" s="68"/>
+      <c r="BM16" s="68"/>
+      <c r="BN16" s="68"/>
+      <c r="BO16" s="68"/>
       <c r="BP16"/>
       <c r="BR16" s="4"/>
     </row>
     <row r="17" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="118"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="118"/>
-      <c r="AD17" s="118"/>
-      <c r="AE17" s="118"/>
-      <c r="AF17" s="118"/>
-      <c r="AG17" s="118"/>
-      <c r="AH17" s="118"/>
-      <c r="AI17" s="118"/>
-      <c r="AJ17" s="118"/>
-      <c r="AK17" s="118"/>
-      <c r="AL17" s="118"/>
-      <c r="AM17" s="118"/>
-      <c r="AN17" s="118"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
-      <c r="AQ17" s="118"/>
-      <c r="AR17" s="118"/>
-      <c r="AS17" s="118"/>
-      <c r="AT17" s="118"/>
-      <c r="AU17" s="118"/>
-      <c r="AV17" s="118"/>
-      <c r="AW17" s="118"/>
-      <c r="AX17" s="118"/>
-      <c r="AY17" s="118"/>
-      <c r="AZ17" s="118"/>
-      <c r="BA17" s="118"/>
-      <c r="BB17" s="118"/>
-      <c r="BC17" s="118"/>
-      <c r="BD17" s="118"/>
-      <c r="BE17" s="118"/>
-      <c r="BF17" s="118"/>
-      <c r="BG17" s="118"/>
-      <c r="BH17" s="118"/>
-      <c r="BI17" s="118"/>
-      <c r="BJ17" s="118"/>
-      <c r="BK17" s="118"/>
-      <c r="BL17" s="118"/>
-      <c r="BM17" s="118"/>
-      <c r="BN17" s="118"/>
-      <c r="BO17" s="118"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="68"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="68"/>
+      <c r="AK17" s="68"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="68"/>
+      <c r="AN17" s="68"/>
+      <c r="AO17" s="68"/>
+      <c r="AP17" s="68"/>
+      <c r="AQ17" s="68"/>
+      <c r="AR17" s="68"/>
+      <c r="AS17" s="68"/>
+      <c r="AT17" s="68"/>
+      <c r="AU17" s="68"/>
+      <c r="AV17" s="68"/>
+      <c r="AW17" s="68"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="68"/>
+      <c r="AZ17" s="68"/>
+      <c r="BA17" s="68"/>
+      <c r="BB17" s="68"/>
+      <c r="BC17" s="68"/>
+      <c r="BD17" s="68"/>
+      <c r="BE17" s="68"/>
+      <c r="BF17" s="68"/>
+      <c r="BG17" s="68"/>
+      <c r="BH17" s="68"/>
+      <c r="BI17" s="68"/>
+      <c r="BJ17" s="68"/>
+      <c r="BK17" s="68"/>
+      <c r="BL17" s="68"/>
+      <c r="BM17" s="68"/>
+      <c r="BN17" s="68"/>
+      <c r="BO17" s="68"/>
       <c r="BP17"/>
       <c r="BR17" s="4"/>
     </row>
     <row r="18" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="118"/>
-      <c r="AE18" s="118"/>
-      <c r="AF18" s="118"/>
-      <c r="AG18" s="118"/>
-      <c r="AH18" s="118"/>
-      <c r="AI18" s="118"/>
-      <c r="AJ18" s="118"/>
-      <c r="AK18" s="118"/>
-      <c r="AL18" s="118"/>
-      <c r="AM18" s="118"/>
-      <c r="AN18" s="118"/>
-      <c r="AO18" s="118"/>
-      <c r="AP18" s="118"/>
-      <c r="AQ18" s="118"/>
-      <c r="AR18" s="118"/>
-      <c r="AS18" s="118"/>
-      <c r="AT18" s="118"/>
-      <c r="AU18" s="118"/>
-      <c r="AV18" s="118"/>
-      <c r="AW18" s="118"/>
-      <c r="AX18" s="118"/>
-      <c r="AY18" s="118"/>
-      <c r="AZ18" s="118"/>
-      <c r="BA18" s="118"/>
-      <c r="BB18" s="118"/>
-      <c r="BC18" s="118"/>
-      <c r="BD18" s="118"/>
-      <c r="BE18" s="118"/>
-      <c r="BF18" s="118"/>
-      <c r="BG18" s="118"/>
-      <c r="BH18" s="118"/>
-      <c r="BI18" s="118"/>
-      <c r="BJ18" s="118"/>
-      <c r="BK18" s="118"/>
-      <c r="BL18" s="118"/>
-      <c r="BM18" s="118"/>
-      <c r="BN18" s="118"/>
-      <c r="BO18" s="118"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="68"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="68"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="68"/>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="68"/>
+      <c r="AP18" s="68"/>
+      <c r="AQ18" s="68"/>
+      <c r="AR18" s="68"/>
+      <c r="AS18" s="68"/>
+      <c r="AT18" s="68"/>
+      <c r="AU18" s="68"/>
+      <c r="AV18" s="68"/>
+      <c r="AW18" s="68"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="68"/>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="68"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="68"/>
+      <c r="BD18" s="68"/>
+      <c r="BE18" s="68"/>
+      <c r="BF18" s="68"/>
+      <c r="BG18" s="68"/>
+      <c r="BH18" s="68"/>
+      <c r="BI18" s="68"/>
+      <c r="BJ18" s="68"/>
+      <c r="BK18" s="68"/>
+      <c r="BL18" s="68"/>
+      <c r="BM18" s="68"/>
+      <c r="BN18" s="68"/>
+      <c r="BO18" s="68"/>
       <c r="BP18"/>
       <c r="BR18" s="4"/>
     </row>
     <row r="19" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="118"/>
-      <c r="AD19" s="118"/>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="118"/>
-      <c r="AG19" s="118"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="118"/>
-      <c r="AJ19" s="118"/>
-      <c r="AK19" s="118"/>
-      <c r="AL19" s="118"/>
-      <c r="AM19" s="118"/>
-      <c r="AN19" s="118"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="118"/>
-      <c r="AQ19" s="118"/>
-      <c r="AR19" s="118"/>
-      <c r="AS19" s="118"/>
-      <c r="AT19" s="118"/>
-      <c r="AU19" s="118"/>
-      <c r="AV19" s="118"/>
-      <c r="AW19" s="118"/>
-      <c r="AX19" s="118"/>
-      <c r="AY19" s="118"/>
-      <c r="AZ19" s="118"/>
-      <c r="BA19" s="118"/>
-      <c r="BB19" s="118"/>
-      <c r="BC19" s="118"/>
-      <c r="BD19" s="118"/>
-      <c r="BE19" s="118"/>
-      <c r="BF19" s="118"/>
-      <c r="BG19" s="118"/>
-      <c r="BH19" s="118"/>
-      <c r="BI19" s="118"/>
-      <c r="BJ19" s="118"/>
-      <c r="BK19" s="118"/>
-      <c r="BL19" s="118"/>
-      <c r="BM19" s="118"/>
-      <c r="BN19" s="118"/>
-      <c r="BO19" s="118"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="68"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="68"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
+      <c r="AN19" s="68"/>
+      <c r="AO19" s="68"/>
+      <c r="AP19" s="68"/>
+      <c r="AQ19" s="68"/>
+      <c r="AR19" s="68"/>
+      <c r="AS19" s="68"/>
+      <c r="AT19" s="68"/>
+      <c r="AU19" s="68"/>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="68"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
+      <c r="BB19" s="68"/>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="68"/>
+      <c r="BJ19" s="68"/>
+      <c r="BK19" s="68"/>
+      <c r="BL19" s="68"/>
+      <c r="BM19" s="68"/>
+      <c r="BN19" s="68"/>
+      <c r="BO19" s="68"/>
       <c r="BP19"/>
       <c r="BR19" s="4"/>
     </row>
     <row r="20" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="118"/>
-      <c r="AE20" s="118"/>
-      <c r="AF20" s="118"/>
-      <c r="AG20" s="118"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="118"/>
-      <c r="AJ20" s="118"/>
-      <c r="AK20" s="118"/>
-      <c r="AL20" s="118"/>
-      <c r="AM20" s="118"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
-      <c r="AQ20" s="118"/>
-      <c r="AR20" s="118"/>
-      <c r="AS20" s="118"/>
-      <c r="AT20" s="118"/>
-      <c r="AU20" s="118"/>
-      <c r="AV20" s="118"/>
-      <c r="AW20" s="118"/>
-      <c r="AX20" s="118"/>
-      <c r="AY20" s="118"/>
-      <c r="AZ20" s="118"/>
-      <c r="BA20" s="118"/>
-      <c r="BB20" s="118"/>
-      <c r="BC20" s="118"/>
-      <c r="BD20" s="118"/>
-      <c r="BE20" s="118"/>
-      <c r="BF20" s="118"/>
-      <c r="BG20" s="118"/>
-      <c r="BH20" s="118"/>
-      <c r="BI20" s="118"/>
-      <c r="BJ20" s="118"/>
-      <c r="BK20" s="118"/>
-      <c r="BL20" s="118"/>
-      <c r="BM20" s="118"/>
-      <c r="BN20" s="118"/>
-      <c r="BO20" s="118"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="68"/>
+      <c r="AN20" s="68"/>
+      <c r="AO20" s="68"/>
+      <c r="AP20" s="68"/>
+      <c r="AQ20" s="68"/>
+      <c r="AR20" s="68"/>
+      <c r="AS20" s="68"/>
+      <c r="AT20" s="68"/>
+      <c r="AU20" s="68"/>
+      <c r="AV20" s="68"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="68"/>
+      <c r="AZ20" s="68"/>
+      <c r="BA20" s="68"/>
+      <c r="BB20" s="68"/>
+      <c r="BC20" s="68"/>
+      <c r="BD20" s="68"/>
+      <c r="BE20" s="68"/>
+      <c r="BF20" s="68"/>
+      <c r="BG20" s="68"/>
+      <c r="BH20" s="68"/>
+      <c r="BI20" s="68"/>
+      <c r="BJ20" s="68"/>
+      <c r="BK20" s="68"/>
+      <c r="BL20" s="68"/>
+      <c r="BM20" s="68"/>
+      <c r="BN20" s="68"/>
+      <c r="BO20" s="68"/>
       <c r="BP20"/>
       <c r="BR20" s="4"/>
     </row>
     <row r="21" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="115"/>
-      <c r="S21" s="115"/>
-      <c r="T21" s="115"/>
-      <c r="U21" s="115"/>
-      <c r="V21" s="115"/>
-      <c r="W21" s="115"/>
-      <c r="X21" s="115"/>
-      <c r="Y21" s="115"/>
-      <c r="Z21" s="115"/>
-      <c r="AA21" s="115"/>
-      <c r="AB21" s="115"/>
-      <c r="AC21" s="115"/>
-      <c r="AD21" s="115"/>
-      <c r="AE21" s="115"/>
-      <c r="AF21" s="115"/>
-      <c r="AG21" s="115"/>
-      <c r="AH21" s="115"/>
-      <c r="AI21" s="115"/>
-      <c r="AJ21" s="115"/>
-      <c r="AK21" s="115"/>
-      <c r="AL21" s="115"/>
-      <c r="AM21" s="115"/>
-      <c r="AN21" s="115"/>
-      <c r="AO21" s="115"/>
-      <c r="AP21" s="115"/>
-      <c r="AQ21" s="115"/>
-      <c r="AR21" s="115"/>
-      <c r="AS21" s="115"/>
-      <c r="AT21" s="115"/>
-      <c r="AU21" s="115"/>
-      <c r="AV21" s="115"/>
-      <c r="AW21" s="115"/>
-      <c r="AX21" s="115"/>
-      <c r="AY21" s="115"/>
-      <c r="AZ21" s="115"/>
-      <c r="BA21" s="115"/>
-      <c r="BB21" s="115"/>
-      <c r="BC21" s="115"/>
-      <c r="BD21" s="115"/>
-      <c r="BE21" s="115"/>
-      <c r="BF21" s="115"/>
-      <c r="BG21" s="115"/>
-      <c r="BH21" s="115"/>
-      <c r="BI21" s="115"/>
-      <c r="BJ21" s="115"/>
-      <c r="BK21" s="115"/>
-      <c r="BL21" s="115"/>
-      <c r="BM21" s="115"/>
-      <c r="BN21" s="115"/>
-      <c r="BO21" s="115"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="68"/>
+      <c r="AK21" s="68"/>
+      <c r="AL21" s="68"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="68"/>
+      <c r="AO21" s="68"/>
+      <c r="AP21" s="68"/>
+      <c r="AQ21" s="68"/>
+      <c r="AR21" s="68"/>
+      <c r="AS21" s="68"/>
+      <c r="AT21" s="68"/>
+      <c r="AU21" s="68"/>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="68"/>
+      <c r="AX21" s="68"/>
+      <c r="AY21" s="68"/>
+      <c r="AZ21" s="68"/>
+      <c r="BA21" s="68"/>
+      <c r="BB21" s="68"/>
+      <c r="BC21" s="68"/>
+      <c r="BD21" s="68"/>
+      <c r="BE21" s="68"/>
+      <c r="BF21" s="68"/>
+      <c r="BG21" s="68"/>
+      <c r="BH21" s="68"/>
+      <c r="BI21" s="68"/>
+      <c r="BJ21" s="68"/>
+      <c r="BK21" s="68"/>
+      <c r="BL21" s="68"/>
+      <c r="BM21" s="68"/>
+      <c r="BN21" s="68"/>
+      <c r="BO21" s="68"/>
       <c r="BP21"/>
       <c r="BR21" s="4"/>
     </row>
@@ -4181,88 +4145,88 @@
     </row>
     <row r="25" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103" t="s">
+      <c r="D25" s="66"/>
+      <c r="E25" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103" t="s">
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="108" t="s">
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="108"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="108"/>
-      <c r="U25" s="108"/>
-      <c r="V25" s="108"/>
-      <c r="W25" s="108"/>
-      <c r="X25" s="108"/>
-      <c r="Y25" s="108"/>
-      <c r="Z25" s="108"/>
-      <c r="AA25" s="108"/>
-      <c r="AB25" s="108"/>
-      <c r="AC25" s="108"/>
-      <c r="AD25" s="108"/>
-      <c r="AE25" s="106" t="s">
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="106"/>
-      <c r="AH25" s="106"/>
-      <c r="AI25" s="106"/>
-      <c r="AJ25" s="106"/>
-      <c r="AK25" s="106"/>
-      <c r="AL25" s="106"/>
-      <c r="AM25" s="106"/>
-      <c r="AN25" s="106"/>
-      <c r="AO25" s="106"/>
-      <c r="AP25" s="106"/>
-      <c r="AQ25" s="106"/>
-      <c r="AR25" s="106"/>
-      <c r="AS25" s="106"/>
-      <c r="AT25" s="106"/>
-      <c r="AU25" s="106"/>
-      <c r="AV25" s="106"/>
-      <c r="AW25" s="106"/>
-      <c r="AX25" s="106"/>
-      <c r="AY25" s="106"/>
-      <c r="AZ25" s="106"/>
-      <c r="BA25" s="106"/>
-      <c r="BB25" s="106"/>
-      <c r="BC25" s="106"/>
-      <c r="BD25" s="106" t="s">
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="67"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="67"/>
+      <c r="AM25" s="67"/>
+      <c r="AN25" s="67"/>
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="67"/>
+      <c r="AQ25" s="67"/>
+      <c r="AR25" s="67"/>
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="67"/>
+      <c r="AU25" s="67"/>
+      <c r="AV25" s="67"/>
+      <c r="AW25" s="67"/>
+      <c r="AX25" s="67"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="67"/>
+      <c r="BB25" s="67"/>
+      <c r="BC25" s="67"/>
+      <c r="BD25" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="106"/>
-      <c r="BF25" s="106"/>
-      <c r="BG25" s="106"/>
-      <c r="BH25" s="106"/>
-      <c r="BI25" s="106"/>
-      <c r="BJ25" s="116"/>
-      <c r="BK25" s="119" t="s">
+      <c r="BE25" s="67"/>
+      <c r="BF25" s="67"/>
+      <c r="BG25" s="67"/>
+      <c r="BH25" s="67"/>
+      <c r="BI25" s="67"/>
+      <c r="BJ25" s="69"/>
+      <c r="BK25" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="120"/>
-      <c r="BM25" s="120"/>
-      <c r="BN25" s="120"/>
-      <c r="BO25" s="120"/>
-      <c r="BP25" s="120"/>
-      <c r="BQ25" s="120"/>
-      <c r="BR25" s="120"/>
+      <c r="BL25" s="88"/>
+      <c r="BM25" s="88"/>
+      <c r="BN25" s="88"/>
+      <c r="BO25" s="88"/>
+      <c r="BP25" s="88"/>
+      <c r="BQ25" s="88"/>
+      <c r="BR25" s="88"/>
       <c r="BS25" s="46"/>
       <c r="BT25" s="46"/>
       <c r="BU25" s="46"/>
@@ -4282,90 +4246,90 @@
     </row>
     <row r="26" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="64">
+      <c r="C26" s="74">
         <v>1</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="74" t="s">
+      <c r="D26" s="75"/>
+      <c r="E26" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="74" t="s">
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="75"/>
-      <c r="AD26" s="76"/>
-      <c r="AE26" s="86" t="s">
+      <c r="P26" s="90"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="91"/>
+      <c r="AE26" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="87"/>
-      <c r="AM26" s="87"/>
-      <c r="AN26" s="87"/>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="87"/>
-      <c r="AQ26" s="87"/>
-      <c r="AR26" s="87"/>
-      <c r="AS26" s="87"/>
-      <c r="AT26" s="87"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87"/>
-      <c r="AX26" s="87"/>
-      <c r="AY26" s="87"/>
-      <c r="AZ26" s="87"/>
-      <c r="BA26" s="87"/>
-      <c r="BB26" s="87"/>
-      <c r="BC26" s="88"/>
-      <c r="BD26" s="64" t="s">
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="79"/>
+      <c r="AM26" s="79"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="79"/>
+      <c r="AP26" s="79"/>
+      <c r="AQ26" s="79"/>
+      <c r="AR26" s="79"/>
+      <c r="AS26" s="79"/>
+      <c r="AT26" s="79"/>
+      <c r="AU26" s="79"/>
+      <c r="AV26" s="79"/>
+      <c r="AW26" s="79"/>
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="79"/>
+      <c r="AZ26" s="79"/>
+      <c r="BA26" s="79"/>
+      <c r="BB26" s="79"/>
+      <c r="BC26" s="80"/>
+      <c r="BD26" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="65"/>
-      <c r="BF26" s="65"/>
-      <c r="BG26" s="65"/>
-      <c r="BH26" s="65"/>
-      <c r="BI26" s="65"/>
-      <c r="BJ26" s="65"/>
-      <c r="BK26" s="68" t="s">
+      <c r="BE26" s="84"/>
+      <c r="BF26" s="84"/>
+      <c r="BG26" s="84"/>
+      <c r="BH26" s="84"/>
+      <c r="BI26" s="84"/>
+      <c r="BJ26" s="84"/>
+      <c r="BK26" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="BL26" s="69"/>
-      <c r="BM26" s="69"/>
-      <c r="BN26" s="69"/>
-      <c r="BO26" s="69"/>
-      <c r="BP26" s="69"/>
-      <c r="BQ26" s="69"/>
-      <c r="BR26" s="69"/>
-      <c r="BS26" s="69"/>
-      <c r="BT26" s="69"/>
-      <c r="BU26" s="69"/>
-      <c r="BV26" s="70"/>
+      <c r="BL26" s="112"/>
+      <c r="BM26" s="112"/>
+      <c r="BN26" s="112"/>
+      <c r="BO26" s="112"/>
+      <c r="BP26" s="112"/>
+      <c r="BQ26" s="112"/>
+      <c r="BR26" s="112"/>
+      <c r="BS26" s="112"/>
+      <c r="BT26" s="112"/>
+      <c r="BU26" s="112"/>
+      <c r="BV26" s="113"/>
       <c r="AML26" s="2"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -4381,78 +4345,78 @@
     </row>
     <row r="27" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="89"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="90"/>
-      <c r="AM27" s="90"/>
-      <c r="AN27" s="90"/>
-      <c r="AO27" s="90"/>
-      <c r="AP27" s="90"/>
-      <c r="AQ27" s="90"/>
-      <c r="AR27" s="90"/>
-      <c r="AS27" s="90"/>
-      <c r="AT27" s="90"/>
-      <c r="AU27" s="90"/>
-      <c r="AV27" s="90"/>
-      <c r="AW27" s="90"/>
-      <c r="AX27" s="90"/>
-      <c r="AY27" s="90"/>
-      <c r="AZ27" s="90"/>
-      <c r="BA27" s="90"/>
-      <c r="BB27" s="90"/>
-      <c r="BC27" s="91"/>
-      <c r="BD27" s="66"/>
-      <c r="BE27" s="67"/>
-      <c r="BF27" s="67"/>
-      <c r="BG27" s="67"/>
-      <c r="BH27" s="67"/>
-      <c r="BI27" s="67"/>
-      <c r="BJ27" s="67"/>
-      <c r="BK27" s="71"/>
-      <c r="BL27" s="69"/>
-      <c r="BM27" s="69"/>
-      <c r="BN27" s="69"/>
-      <c r="BO27" s="69"/>
-      <c r="BP27" s="69"/>
-      <c r="BQ27" s="69"/>
-      <c r="BR27" s="69"/>
-      <c r="BS27" s="69"/>
-      <c r="BT27" s="69"/>
-      <c r="BU27" s="69"/>
-      <c r="BV27" s="70"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="94"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="82"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="82"/>
+      <c r="AS27" s="82"/>
+      <c r="AT27" s="82"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="82"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="82"/>
+      <c r="BB27" s="82"/>
+      <c r="BC27" s="83"/>
+      <c r="BD27" s="76"/>
+      <c r="BE27" s="85"/>
+      <c r="BF27" s="85"/>
+      <c r="BG27" s="85"/>
+      <c r="BH27" s="85"/>
+      <c r="BI27" s="85"/>
+      <c r="BJ27" s="85"/>
+      <c r="BK27" s="114"/>
+      <c r="BL27" s="112"/>
+      <c r="BM27" s="112"/>
+      <c r="BN27" s="112"/>
+      <c r="BO27" s="112"/>
+      <c r="BP27" s="112"/>
+      <c r="BQ27" s="112"/>
+      <c r="BR27" s="112"/>
+      <c r="BS27" s="112"/>
+      <c r="BT27" s="112"/>
+      <c r="BU27" s="112"/>
+      <c r="BV27" s="113"/>
       <c r="AML27" s="2"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -4468,90 +4432,90 @@
     </row>
     <row r="28" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="64">
+      <c r="C28" s="74">
         <v>2</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="74" t="s">
+      <c r="D28" s="75"/>
+      <c r="E28" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="74" t="s">
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="75"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="75"/>
-      <c r="X28" s="75"/>
-      <c r="Y28" s="75"/>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="86" t="s">
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="91"/>
+      <c r="AE28" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="87"/>
-      <c r="AL28" s="87"/>
-      <c r="AM28" s="87"/>
-      <c r="AN28" s="87"/>
-      <c r="AO28" s="87"/>
-      <c r="AP28" s="87"/>
-      <c r="AQ28" s="87"/>
-      <c r="AR28" s="87"/>
-      <c r="AS28" s="87"/>
-      <c r="AT28" s="87"/>
-      <c r="AU28" s="87"/>
-      <c r="AV28" s="87"/>
-      <c r="AW28" s="87"/>
-      <c r="AX28" s="87"/>
-      <c r="AY28" s="87"/>
-      <c r="AZ28" s="87"/>
-      <c r="BA28" s="87"/>
-      <c r="BB28" s="87"/>
-      <c r="BC28" s="88"/>
-      <c r="BD28" s="64" t="s">
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="79"/>
+      <c r="AM28" s="79"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="79"/>
+      <c r="AP28" s="79"/>
+      <c r="AQ28" s="79"/>
+      <c r="AR28" s="79"/>
+      <c r="AS28" s="79"/>
+      <c r="AT28" s="79"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="79"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="79"/>
+      <c r="AZ28" s="79"/>
+      <c r="BA28" s="79"/>
+      <c r="BB28" s="79"/>
+      <c r="BC28" s="80"/>
+      <c r="BD28" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="BE28" s="65"/>
-      <c r="BF28" s="65"/>
-      <c r="BG28" s="65"/>
-      <c r="BH28" s="65"/>
-      <c r="BI28" s="65"/>
-      <c r="BJ28" s="72"/>
-      <c r="BK28" s="92" t="s">
+      <c r="BE28" s="84"/>
+      <c r="BF28" s="84"/>
+      <c r="BG28" s="84"/>
+      <c r="BH28" s="84"/>
+      <c r="BI28" s="84"/>
+      <c r="BJ28" s="75"/>
+      <c r="BK28" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="BL28" s="93"/>
-      <c r="BM28" s="93"/>
-      <c r="BN28" s="93"/>
-      <c r="BO28" s="93"/>
-      <c r="BP28" s="93"/>
-      <c r="BQ28" s="93"/>
-      <c r="BR28" s="93"/>
-      <c r="BS28" s="93"/>
-      <c r="BT28" s="93"/>
-      <c r="BU28" s="93"/>
-      <c r="BV28" s="94"/>
+      <c r="BL28" s="116"/>
+      <c r="BM28" s="116"/>
+      <c r="BN28" s="116"/>
+      <c r="BO28" s="116"/>
+      <c r="BP28" s="116"/>
+      <c r="BQ28" s="116"/>
+      <c r="BR28" s="116"/>
+      <c r="BS28" s="116"/>
+      <c r="BT28" s="116"/>
+      <c r="BU28" s="116"/>
+      <c r="BV28" s="117"/>
       <c r="AML28" s="2"/>
       <c r="AMM28"/>
       <c r="AMN28"/>
@@ -4567,78 +4531,78 @@
     </row>
     <row r="29" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="89"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
-      <c r="AI29" s="90"/>
-      <c r="AJ29" s="90"/>
-      <c r="AK29" s="90"/>
-      <c r="AL29" s="90"/>
-      <c r="AM29" s="90"/>
-      <c r="AN29" s="90"/>
-      <c r="AO29" s="90"/>
-      <c r="AP29" s="90"/>
-      <c r="AQ29" s="90"/>
-      <c r="AR29" s="90"/>
-      <c r="AS29" s="90"/>
-      <c r="AT29" s="90"/>
-      <c r="AU29" s="90"/>
-      <c r="AV29" s="90"/>
-      <c r="AW29" s="90"/>
-      <c r="AX29" s="90"/>
-      <c r="AY29" s="90"/>
-      <c r="AZ29" s="90"/>
-      <c r="BA29" s="90"/>
-      <c r="BB29" s="90"/>
-      <c r="BC29" s="91"/>
-      <c r="BD29" s="66"/>
-      <c r="BE29" s="67"/>
-      <c r="BF29" s="67"/>
-      <c r="BG29" s="67"/>
-      <c r="BH29" s="67"/>
-      <c r="BI29" s="67"/>
-      <c r="BJ29" s="73"/>
-      <c r="BK29" s="95"/>
-      <c r="BL29" s="96"/>
-      <c r="BM29" s="96"/>
-      <c r="BN29" s="96"/>
-      <c r="BO29" s="96"/>
-      <c r="BP29" s="96"/>
-      <c r="BQ29" s="96"/>
-      <c r="BR29" s="96"/>
-      <c r="BS29" s="96"/>
-      <c r="BT29" s="96"/>
-      <c r="BU29" s="96"/>
-      <c r="BV29" s="97"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="82"/>
+      <c r="AM29" s="82"/>
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="82"/>
+      <c r="AP29" s="82"/>
+      <c r="AQ29" s="82"/>
+      <c r="AR29" s="82"/>
+      <c r="AS29" s="82"/>
+      <c r="AT29" s="82"/>
+      <c r="AU29" s="82"/>
+      <c r="AV29" s="82"/>
+      <c r="AW29" s="82"/>
+      <c r="AX29" s="82"/>
+      <c r="AY29" s="82"/>
+      <c r="AZ29" s="82"/>
+      <c r="BA29" s="82"/>
+      <c r="BB29" s="82"/>
+      <c r="BC29" s="83"/>
+      <c r="BD29" s="76"/>
+      <c r="BE29" s="85"/>
+      <c r="BF29" s="85"/>
+      <c r="BG29" s="85"/>
+      <c r="BH29" s="85"/>
+      <c r="BI29" s="85"/>
+      <c r="BJ29" s="77"/>
+      <c r="BK29" s="118"/>
+      <c r="BL29" s="119"/>
+      <c r="BM29" s="119"/>
+      <c r="BN29" s="119"/>
+      <c r="BO29" s="119"/>
+      <c r="BP29" s="119"/>
+      <c r="BQ29" s="119"/>
+      <c r="BR29" s="119"/>
+      <c r="BS29" s="119"/>
+      <c r="BT29" s="119"/>
+      <c r="BU29" s="119"/>
+      <c r="BV29" s="120"/>
       <c r="AML29" s="2"/>
       <c r="AMM29"/>
       <c r="AMN29"/>
@@ -4654,86 +4618,86 @@
     </row>
     <row r="30" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="64">
+      <c r="C30" s="74">
         <v>3</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="86" t="s">
+      <c r="D30" s="75"/>
+      <c r="E30" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="86" t="s">
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="86" t="s">
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="87"/>
-      <c r="AH30" s="87"/>
-      <c r="AI30" s="87"/>
-      <c r="AJ30" s="87"/>
-      <c r="AK30" s="87"/>
-      <c r="AL30" s="87"/>
-      <c r="AM30" s="87"/>
-      <c r="AN30" s="87"/>
-      <c r="AO30" s="87"/>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="87"/>
-      <c r="AR30" s="87"/>
-      <c r="AS30" s="87"/>
-      <c r="AT30" s="87"/>
-      <c r="AU30" s="87"/>
-      <c r="AV30" s="87"/>
-      <c r="AW30" s="87"/>
-      <c r="AX30" s="87"/>
-      <c r="AY30" s="87"/>
-      <c r="AZ30" s="87"/>
-      <c r="BA30" s="87"/>
-      <c r="BB30" s="87"/>
-      <c r="BC30" s="88"/>
-      <c r="BD30" s="64" t="s">
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="79"/>
+      <c r="AM30" s="79"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="79"/>
+      <c r="AP30" s="79"/>
+      <c r="AQ30" s="79"/>
+      <c r="AR30" s="79"/>
+      <c r="AS30" s="79"/>
+      <c r="AT30" s="79"/>
+      <c r="AU30" s="79"/>
+      <c r="AV30" s="79"/>
+      <c r="AW30" s="79"/>
+      <c r="AX30" s="79"/>
+      <c r="AY30" s="79"/>
+      <c r="AZ30" s="79"/>
+      <c r="BA30" s="79"/>
+      <c r="BB30" s="79"/>
+      <c r="BC30" s="80"/>
+      <c r="BD30" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="BE30" s="65"/>
-      <c r="BF30" s="65"/>
-      <c r="BG30" s="65"/>
-      <c r="BH30" s="65"/>
-      <c r="BI30" s="65"/>
-      <c r="BJ30" s="72"/>
-      <c r="BK30" s="121" t="s">
+      <c r="BE30" s="84"/>
+      <c r="BF30" s="84"/>
+      <c r="BG30" s="84"/>
+      <c r="BH30" s="84"/>
+      <c r="BI30" s="84"/>
+      <c r="BJ30" s="75"/>
+      <c r="BK30" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="BL30" s="122"/>
-      <c r="BM30" s="122"/>
-      <c r="BN30" s="122"/>
-      <c r="BO30" s="122"/>
-      <c r="BP30" s="122"/>
-      <c r="BQ30" s="122"/>
-      <c r="BR30" s="122"/>
+      <c r="BL30" s="71"/>
+      <c r="BM30" s="71"/>
+      <c r="BN30" s="71"/>
+      <c r="BO30" s="71"/>
+      <c r="BP30" s="71"/>
+      <c r="BQ30" s="71"/>
+      <c r="BR30" s="71"/>
       <c r="BS30" s="46"/>
       <c r="BT30" s="46"/>
       <c r="BU30" s="46"/>
@@ -4753,74 +4717,74 @@
     </row>
     <row r="31" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="90"/>
-      <c r="AB31" s="90"/>
-      <c r="AC31" s="90"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="89"/>
-      <c r="AF31" s="90"/>
-      <c r="AG31" s="90"/>
-      <c r="AH31" s="90"/>
-      <c r="AI31" s="90"/>
-      <c r="AJ31" s="90"/>
-      <c r="AK31" s="90"/>
-      <c r="AL31" s="90"/>
-      <c r="AM31" s="90"/>
-      <c r="AN31" s="90"/>
-      <c r="AO31" s="90"/>
-      <c r="AP31" s="90"/>
-      <c r="AQ31" s="90"/>
-      <c r="AR31" s="90"/>
-      <c r="AS31" s="90"/>
-      <c r="AT31" s="90"/>
-      <c r="AU31" s="90"/>
-      <c r="AV31" s="90"/>
-      <c r="AW31" s="90"/>
-      <c r="AX31" s="90"/>
-      <c r="AY31" s="90"/>
-      <c r="AZ31" s="90"/>
-      <c r="BA31" s="90"/>
-      <c r="BB31" s="90"/>
-      <c r="BC31" s="91"/>
-      <c r="BD31" s="66"/>
-      <c r="BE31" s="67"/>
-      <c r="BF31" s="67"/>
-      <c r="BG31" s="67"/>
-      <c r="BH31" s="67"/>
-      <c r="BI31" s="67"/>
-      <c r="BJ31" s="73"/>
-      <c r="BK31" s="123"/>
-      <c r="BL31" s="124"/>
-      <c r="BM31" s="124"/>
-      <c r="BN31" s="124"/>
-      <c r="BO31" s="124"/>
-      <c r="BP31" s="124"/>
-      <c r="BQ31" s="124"/>
-      <c r="BR31" s="124"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="82"/>
+      <c r="AC31" s="82"/>
+      <c r="AD31" s="83"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="82"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="82"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="82"/>
+      <c r="AQ31" s="82"/>
+      <c r="AR31" s="82"/>
+      <c r="AS31" s="82"/>
+      <c r="AT31" s="82"/>
+      <c r="AU31" s="82"/>
+      <c r="AV31" s="82"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="82"/>
+      <c r="BA31" s="82"/>
+      <c r="BB31" s="82"/>
+      <c r="BC31" s="83"/>
+      <c r="BD31" s="76"/>
+      <c r="BE31" s="85"/>
+      <c r="BF31" s="85"/>
+      <c r="BG31" s="85"/>
+      <c r="BH31" s="85"/>
+      <c r="BI31" s="85"/>
+      <c r="BJ31" s="77"/>
+      <c r="BK31" s="72"/>
+      <c r="BL31" s="73"/>
+      <c r="BM31" s="73"/>
+      <c r="BN31" s="73"/>
+      <c r="BO31" s="73"/>
+      <c r="BP31" s="73"/>
+      <c r="BQ31" s="73"/>
+      <c r="BR31" s="73"/>
       <c r="BS31" s="46"/>
       <c r="BT31" s="46"/>
       <c r="BU31" s="46"/>
@@ -4840,76 +4804,76 @@
     </row>
     <row r="32" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="103">
+      <c r="C32" s="66">
         <v>5</v>
       </c>
-      <c r="D32" s="103"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="108"/>
-      <c r="V32" s="108"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
-      <c r="Z32" s="108"/>
-      <c r="AA32" s="108"/>
-      <c r="AB32" s="108"/>
-      <c r="AC32" s="108"/>
-      <c r="AD32" s="108"/>
-      <c r="AE32" s="106"/>
-      <c r="AF32" s="106"/>
-      <c r="AG32" s="106"/>
-      <c r="AH32" s="106"/>
-      <c r="AI32" s="106"/>
-      <c r="AJ32" s="106"/>
-      <c r="AK32" s="106"/>
-      <c r="AL32" s="106"/>
-      <c r="AM32" s="106"/>
-      <c r="AN32" s="106"/>
-      <c r="AO32" s="106"/>
-      <c r="AP32" s="106"/>
-      <c r="AQ32" s="106"/>
-      <c r="AR32" s="106"/>
-      <c r="AS32" s="106"/>
-      <c r="AT32" s="106"/>
-      <c r="AU32" s="106"/>
-      <c r="AV32" s="106"/>
-      <c r="AW32" s="106"/>
-      <c r="AX32" s="106"/>
-      <c r="AY32" s="106"/>
-      <c r="AZ32" s="106"/>
-      <c r="BA32" s="106"/>
-      <c r="BB32" s="106"/>
-      <c r="BC32" s="106"/>
-      <c r="BD32" s="106"/>
-      <c r="BE32" s="106"/>
-      <c r="BF32" s="106"/>
-      <c r="BG32" s="106"/>
-      <c r="BH32" s="106"/>
-      <c r="BI32" s="106"/>
-      <c r="BJ32" s="116"/>
-      <c r="BK32" s="113"/>
-      <c r="BL32" s="114"/>
-      <c r="BM32" s="114"/>
-      <c r="BN32" s="114"/>
-      <c r="BO32" s="114"/>
-      <c r="BP32" s="114"/>
-      <c r="BQ32" s="114"/>
-      <c r="BR32" s="114"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
+      <c r="AD32" s="68"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="67"/>
+      <c r="AJ32" s="67"/>
+      <c r="AK32" s="67"/>
+      <c r="AL32" s="67"/>
+      <c r="AM32" s="67"/>
+      <c r="AN32" s="67"/>
+      <c r="AO32" s="67"/>
+      <c r="AP32" s="67"/>
+      <c r="AQ32" s="67"/>
+      <c r="AR32" s="67"/>
+      <c r="AS32" s="67"/>
+      <c r="AT32" s="67"/>
+      <c r="AU32" s="67"/>
+      <c r="AV32" s="67"/>
+      <c r="AW32" s="67"/>
+      <c r="AX32" s="67"/>
+      <c r="AY32" s="67"/>
+      <c r="AZ32" s="67"/>
+      <c r="BA32" s="67"/>
+      <c r="BB32" s="67"/>
+      <c r="BC32" s="67"/>
+      <c r="BD32" s="67"/>
+      <c r="BE32" s="67"/>
+      <c r="BF32" s="67"/>
+      <c r="BG32" s="67"/>
+      <c r="BH32" s="67"/>
+      <c r="BI32" s="67"/>
+      <c r="BJ32" s="69"/>
+      <c r="BK32" s="64"/>
+      <c r="BL32" s="65"/>
+      <c r="BM32" s="65"/>
+      <c r="BN32" s="65"/>
+      <c r="BO32" s="65"/>
+      <c r="BP32" s="65"/>
+      <c r="BQ32" s="65"/>
+      <c r="BR32" s="65"/>
       <c r="BS32" s="46"/>
       <c r="BT32" s="46"/>
       <c r="BU32" s="46"/>
@@ -4929,76 +4893,76 @@
     </row>
     <row r="33" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="103">
+      <c r="C33" s="66">
         <v>6</v>
       </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="108"/>
-      <c r="R33" s="108"/>
-      <c r="S33" s="108"/>
-      <c r="T33" s="108"/>
-      <c r="U33" s="108"/>
-      <c r="V33" s="108"/>
-      <c r="W33" s="108"/>
-      <c r="X33" s="108"/>
-      <c r="Y33" s="108"/>
-      <c r="Z33" s="108"/>
-      <c r="AA33" s="108"/>
-      <c r="AB33" s="108"/>
-      <c r="AC33" s="108"/>
-      <c r="AD33" s="108"/>
-      <c r="AE33" s="106"/>
-      <c r="AF33" s="106"/>
-      <c r="AG33" s="106"/>
-      <c r="AH33" s="106"/>
-      <c r="AI33" s="106"/>
-      <c r="AJ33" s="106"/>
-      <c r="AK33" s="106"/>
-      <c r="AL33" s="106"/>
-      <c r="AM33" s="106"/>
-      <c r="AN33" s="106"/>
-      <c r="AO33" s="106"/>
-      <c r="AP33" s="106"/>
-      <c r="AQ33" s="106"/>
-      <c r="AR33" s="106"/>
-      <c r="AS33" s="106"/>
-      <c r="AT33" s="106"/>
-      <c r="AU33" s="106"/>
-      <c r="AV33" s="106"/>
-      <c r="AW33" s="106"/>
-      <c r="AX33" s="106"/>
-      <c r="AY33" s="106"/>
-      <c r="AZ33" s="106"/>
-      <c r="BA33" s="106"/>
-      <c r="BB33" s="106"/>
-      <c r="BC33" s="106"/>
-      <c r="BD33" s="106"/>
-      <c r="BE33" s="106"/>
-      <c r="BF33" s="106"/>
-      <c r="BG33" s="106"/>
-      <c r="BH33" s="106"/>
-      <c r="BI33" s="106"/>
-      <c r="BJ33" s="116"/>
-      <c r="BK33" s="113"/>
-      <c r="BL33" s="114"/>
-      <c r="BM33" s="114"/>
-      <c r="BN33" s="114"/>
-      <c r="BO33" s="114"/>
-      <c r="BP33" s="114"/>
-      <c r="BQ33" s="114"/>
-      <c r="BR33" s="114"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="67"/>
+      <c r="AG33" s="67"/>
+      <c r="AH33" s="67"/>
+      <c r="AI33" s="67"/>
+      <c r="AJ33" s="67"/>
+      <c r="AK33" s="67"/>
+      <c r="AL33" s="67"/>
+      <c r="AM33" s="67"/>
+      <c r="AN33" s="67"/>
+      <c r="AO33" s="67"/>
+      <c r="AP33" s="67"/>
+      <c r="AQ33" s="67"/>
+      <c r="AR33" s="67"/>
+      <c r="AS33" s="67"/>
+      <c r="AT33" s="67"/>
+      <c r="AU33" s="67"/>
+      <c r="AV33" s="67"/>
+      <c r="AW33" s="67"/>
+      <c r="AX33" s="67"/>
+      <c r="AY33" s="67"/>
+      <c r="AZ33" s="67"/>
+      <c r="BA33" s="67"/>
+      <c r="BB33" s="67"/>
+      <c r="BC33" s="67"/>
+      <c r="BD33" s="67"/>
+      <c r="BE33" s="67"/>
+      <c r="BF33" s="67"/>
+      <c r="BG33" s="67"/>
+      <c r="BH33" s="67"/>
+      <c r="BI33" s="67"/>
+      <c r="BJ33" s="69"/>
+      <c r="BK33" s="64"/>
+      <c r="BL33" s="65"/>
+      <c r="BM33" s="65"/>
+      <c r="BN33" s="65"/>
+      <c r="BO33" s="65"/>
+      <c r="BP33" s="65"/>
+      <c r="BQ33" s="65"/>
+      <c r="BR33" s="65"/>
       <c r="BS33" s="46"/>
       <c r="BT33" s="46"/>
       <c r="BU33" s="46"/>
@@ -5018,76 +4982,76 @@
     </row>
     <row r="34" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="103">
+      <c r="C34" s="66">
         <v>7</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="108"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="108"/>
-      <c r="R34" s="108"/>
-      <c r="S34" s="108"/>
-      <c r="T34" s="108"/>
-      <c r="U34" s="108"/>
-      <c r="V34" s="108"/>
-      <c r="W34" s="108"/>
-      <c r="X34" s="108"/>
-      <c r="Y34" s="108"/>
-      <c r="Z34" s="108"/>
-      <c r="AA34" s="108"/>
-      <c r="AB34" s="108"/>
-      <c r="AC34" s="108"/>
-      <c r="AD34" s="108"/>
-      <c r="AE34" s="106"/>
-      <c r="AF34" s="106"/>
-      <c r="AG34" s="106"/>
-      <c r="AH34" s="106"/>
-      <c r="AI34" s="106"/>
-      <c r="AJ34" s="106"/>
-      <c r="AK34" s="106"/>
-      <c r="AL34" s="106"/>
-      <c r="AM34" s="106"/>
-      <c r="AN34" s="106"/>
-      <c r="AO34" s="106"/>
-      <c r="AP34" s="106"/>
-      <c r="AQ34" s="106"/>
-      <c r="AR34" s="106"/>
-      <c r="AS34" s="106"/>
-      <c r="AT34" s="106"/>
-      <c r="AU34" s="106"/>
-      <c r="AV34" s="106"/>
-      <c r="AW34" s="106"/>
-      <c r="AX34" s="106"/>
-      <c r="AY34" s="106"/>
-      <c r="AZ34" s="106"/>
-      <c r="BA34" s="106"/>
-      <c r="BB34" s="106"/>
-      <c r="BC34" s="106"/>
-      <c r="BD34" s="106"/>
-      <c r="BE34" s="106"/>
-      <c r="BF34" s="106"/>
-      <c r="BG34" s="106"/>
-      <c r="BH34" s="106"/>
-      <c r="BI34" s="106"/>
-      <c r="BJ34" s="116"/>
-      <c r="BK34" s="113"/>
-      <c r="BL34" s="114"/>
-      <c r="BM34" s="114"/>
-      <c r="BN34" s="114"/>
-      <c r="BO34" s="114"/>
-      <c r="BP34" s="114"/>
-      <c r="BQ34" s="114"/>
-      <c r="BR34" s="114"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="67"/>
+      <c r="AI34" s="67"/>
+      <c r="AJ34" s="67"/>
+      <c r="AK34" s="67"/>
+      <c r="AL34" s="67"/>
+      <c r="AM34" s="67"/>
+      <c r="AN34" s="67"/>
+      <c r="AO34" s="67"/>
+      <c r="AP34" s="67"/>
+      <c r="AQ34" s="67"/>
+      <c r="AR34" s="67"/>
+      <c r="AS34" s="67"/>
+      <c r="AT34" s="67"/>
+      <c r="AU34" s="67"/>
+      <c r="AV34" s="67"/>
+      <c r="AW34" s="67"/>
+      <c r="AX34" s="67"/>
+      <c r="AY34" s="67"/>
+      <c r="AZ34" s="67"/>
+      <c r="BA34" s="67"/>
+      <c r="BB34" s="67"/>
+      <c r="BC34" s="67"/>
+      <c r="BD34" s="67"/>
+      <c r="BE34" s="67"/>
+      <c r="BF34" s="67"/>
+      <c r="BG34" s="67"/>
+      <c r="BH34" s="67"/>
+      <c r="BI34" s="67"/>
+      <c r="BJ34" s="69"/>
+      <c r="BK34" s="64"/>
+      <c r="BL34" s="65"/>
+      <c r="BM34" s="65"/>
+      <c r="BN34" s="65"/>
+      <c r="BO34" s="65"/>
+      <c r="BP34" s="65"/>
+      <c r="BQ34" s="65"/>
+      <c r="BR34" s="65"/>
       <c r="BS34" s="46"/>
       <c r="BT34" s="46"/>
       <c r="BU34" s="46"/>
@@ -5107,76 +5071,76 @@
     </row>
     <row r="35" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="C35" s="103">
+      <c r="C35" s="66">
         <v>8</v>
       </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="108"/>
-      <c r="U35" s="108"/>
-      <c r="V35" s="108"/>
-      <c r="W35" s="108"/>
-      <c r="X35" s="108"/>
-      <c r="Y35" s="108"/>
-      <c r="Z35" s="108"/>
-      <c r="AA35" s="108"/>
-      <c r="AB35" s="108"/>
-      <c r="AC35" s="108"/>
-      <c r="AD35" s="108"/>
-      <c r="AE35" s="106"/>
-      <c r="AF35" s="106"/>
-      <c r="AG35" s="106"/>
-      <c r="AH35" s="106"/>
-      <c r="AI35" s="106"/>
-      <c r="AJ35" s="106"/>
-      <c r="AK35" s="106"/>
-      <c r="AL35" s="106"/>
-      <c r="AM35" s="106"/>
-      <c r="AN35" s="106"/>
-      <c r="AO35" s="106"/>
-      <c r="AP35" s="106"/>
-      <c r="AQ35" s="106"/>
-      <c r="AR35" s="106"/>
-      <c r="AS35" s="106"/>
-      <c r="AT35" s="106"/>
-      <c r="AU35" s="106"/>
-      <c r="AV35" s="106"/>
-      <c r="AW35" s="106"/>
-      <c r="AX35" s="106"/>
-      <c r="AY35" s="106"/>
-      <c r="AZ35" s="106"/>
-      <c r="BA35" s="106"/>
-      <c r="BB35" s="106"/>
-      <c r="BC35" s="106"/>
-      <c r="BD35" s="106"/>
-      <c r="BE35" s="106"/>
-      <c r="BF35" s="106"/>
-      <c r="BG35" s="106"/>
-      <c r="BH35" s="106"/>
-      <c r="BI35" s="106"/>
-      <c r="BJ35" s="116"/>
-      <c r="BK35" s="113"/>
-      <c r="BL35" s="114"/>
-      <c r="BM35" s="114"/>
-      <c r="BN35" s="114"/>
-      <c r="BO35" s="114"/>
-      <c r="BP35" s="114"/>
-      <c r="BQ35" s="114"/>
-      <c r="BR35" s="114"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="67"/>
+      <c r="AF35" s="67"/>
+      <c r="AG35" s="67"/>
+      <c r="AH35" s="67"/>
+      <c r="AI35" s="67"/>
+      <c r="AJ35" s="67"/>
+      <c r="AK35" s="67"/>
+      <c r="AL35" s="67"/>
+      <c r="AM35" s="67"/>
+      <c r="AN35" s="67"/>
+      <c r="AO35" s="67"/>
+      <c r="AP35" s="67"/>
+      <c r="AQ35" s="67"/>
+      <c r="AR35" s="67"/>
+      <c r="AS35" s="67"/>
+      <c r="AT35" s="67"/>
+      <c r="AU35" s="67"/>
+      <c r="AV35" s="67"/>
+      <c r="AW35" s="67"/>
+      <c r="AX35" s="67"/>
+      <c r="AY35" s="67"/>
+      <c r="AZ35" s="67"/>
+      <c r="BA35" s="67"/>
+      <c r="BB35" s="67"/>
+      <c r="BC35" s="67"/>
+      <c r="BD35" s="67"/>
+      <c r="BE35" s="67"/>
+      <c r="BF35" s="67"/>
+      <c r="BG35" s="67"/>
+      <c r="BH35" s="67"/>
+      <c r="BI35" s="67"/>
+      <c r="BJ35" s="69"/>
+      <c r="BK35" s="64"/>
+      <c r="BL35" s="65"/>
+      <c r="BM35" s="65"/>
+      <c r="BN35" s="65"/>
+      <c r="BO35" s="65"/>
+      <c r="BP35" s="65"/>
+      <c r="BQ35" s="65"/>
+      <c r="BR35" s="65"/>
       <c r="BS35" s="46"/>
       <c r="BT35" s="46"/>
       <c r="BU35" s="46"/>
@@ -5196,76 +5160,76 @@
     </row>
     <row r="36" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="C36" s="103">
+      <c r="C36" s="66">
         <v>9</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="108"/>
-      <c r="S36" s="108"/>
-      <c r="T36" s="108"/>
-      <c r="U36" s="108"/>
-      <c r="V36" s="108"/>
-      <c r="W36" s="108"/>
-      <c r="X36" s="108"/>
-      <c r="Y36" s="108"/>
-      <c r="Z36" s="108"/>
-      <c r="AA36" s="108"/>
-      <c r="AB36" s="108"/>
-      <c r="AC36" s="108"/>
-      <c r="AD36" s="108"/>
-      <c r="AE36" s="106"/>
-      <c r="AF36" s="106"/>
-      <c r="AG36" s="106"/>
-      <c r="AH36" s="106"/>
-      <c r="AI36" s="106"/>
-      <c r="AJ36" s="106"/>
-      <c r="AK36" s="106"/>
-      <c r="AL36" s="106"/>
-      <c r="AM36" s="106"/>
-      <c r="AN36" s="106"/>
-      <c r="AO36" s="106"/>
-      <c r="AP36" s="106"/>
-      <c r="AQ36" s="106"/>
-      <c r="AR36" s="106"/>
-      <c r="AS36" s="106"/>
-      <c r="AT36" s="106"/>
-      <c r="AU36" s="106"/>
-      <c r="AV36" s="106"/>
-      <c r="AW36" s="106"/>
-      <c r="AX36" s="106"/>
-      <c r="AY36" s="106"/>
-      <c r="AZ36" s="106"/>
-      <c r="BA36" s="106"/>
-      <c r="BB36" s="106"/>
-      <c r="BC36" s="106"/>
-      <c r="BD36" s="106"/>
-      <c r="BE36" s="106"/>
-      <c r="BF36" s="106"/>
-      <c r="BG36" s="106"/>
-      <c r="BH36" s="106"/>
-      <c r="BI36" s="106"/>
-      <c r="BJ36" s="116"/>
-      <c r="BK36" s="113"/>
-      <c r="BL36" s="114"/>
-      <c r="BM36" s="114"/>
-      <c r="BN36" s="114"/>
-      <c r="BO36" s="114"/>
-      <c r="BP36" s="114"/>
-      <c r="BQ36" s="114"/>
-      <c r="BR36" s="114"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="67"/>
+      <c r="AI36" s="67"/>
+      <c r="AJ36" s="67"/>
+      <c r="AK36" s="67"/>
+      <c r="AL36" s="67"/>
+      <c r="AM36" s="67"/>
+      <c r="AN36" s="67"/>
+      <c r="AO36" s="67"/>
+      <c r="AP36" s="67"/>
+      <c r="AQ36" s="67"/>
+      <c r="AR36" s="67"/>
+      <c r="AS36" s="67"/>
+      <c r="AT36" s="67"/>
+      <c r="AU36" s="67"/>
+      <c r="AV36" s="67"/>
+      <c r="AW36" s="67"/>
+      <c r="AX36" s="67"/>
+      <c r="AY36" s="67"/>
+      <c r="AZ36" s="67"/>
+      <c r="BA36" s="67"/>
+      <c r="BB36" s="67"/>
+      <c r="BC36" s="67"/>
+      <c r="BD36" s="67"/>
+      <c r="BE36" s="67"/>
+      <c r="BF36" s="67"/>
+      <c r="BG36" s="67"/>
+      <c r="BH36" s="67"/>
+      <c r="BI36" s="67"/>
+      <c r="BJ36" s="69"/>
+      <c r="BK36" s="64"/>
+      <c r="BL36" s="65"/>
+      <c r="BM36" s="65"/>
+      <c r="BN36" s="65"/>
+      <c r="BO36" s="65"/>
+      <c r="BP36" s="65"/>
+      <c r="BQ36" s="65"/>
+      <c r="BR36" s="65"/>
       <c r="BS36" s="46"/>
       <c r="BT36" s="46"/>
       <c r="BU36" s="46"/>
@@ -5286,76 +5250,76 @@
     <row r="37" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="103">
+      <c r="C37" s="66">
         <v>10</v>
       </c>
-      <c r="D37" s="103"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="108"/>
-      <c r="P37" s="108"/>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="108"/>
-      <c r="S37" s="108"/>
-      <c r="T37" s="108"/>
-      <c r="U37" s="108"/>
-      <c r="V37" s="108"/>
-      <c r="W37" s="108"/>
-      <c r="X37" s="108"/>
-      <c r="Y37" s="108"/>
-      <c r="Z37" s="108"/>
-      <c r="AA37" s="108"/>
-      <c r="AB37" s="108"/>
-      <c r="AC37" s="108"/>
-      <c r="AD37" s="108"/>
-      <c r="AE37" s="106"/>
-      <c r="AF37" s="106"/>
-      <c r="AG37" s="106"/>
-      <c r="AH37" s="106"/>
-      <c r="AI37" s="106"/>
-      <c r="AJ37" s="106"/>
-      <c r="AK37" s="106"/>
-      <c r="AL37" s="106"/>
-      <c r="AM37" s="106"/>
-      <c r="AN37" s="106"/>
-      <c r="AO37" s="106"/>
-      <c r="AP37" s="106"/>
-      <c r="AQ37" s="106"/>
-      <c r="AR37" s="106"/>
-      <c r="AS37" s="106"/>
-      <c r="AT37" s="106"/>
-      <c r="AU37" s="106"/>
-      <c r="AV37" s="106"/>
-      <c r="AW37" s="106"/>
-      <c r="AX37" s="106"/>
-      <c r="AY37" s="106"/>
-      <c r="AZ37" s="106"/>
-      <c r="BA37" s="106"/>
-      <c r="BB37" s="106"/>
-      <c r="BC37" s="106"/>
-      <c r="BD37" s="106"/>
-      <c r="BE37" s="106"/>
-      <c r="BF37" s="106"/>
-      <c r="BG37" s="106"/>
-      <c r="BH37" s="106"/>
-      <c r="BI37" s="106"/>
-      <c r="BJ37" s="116"/>
-      <c r="BK37" s="113"/>
-      <c r="BL37" s="114"/>
-      <c r="BM37" s="114"/>
-      <c r="BN37" s="114"/>
-      <c r="BO37" s="114"/>
-      <c r="BP37" s="114"/>
-      <c r="BQ37" s="114"/>
-      <c r="BR37" s="114"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="67"/>
+      <c r="AF37" s="67"/>
+      <c r="AG37" s="67"/>
+      <c r="AH37" s="67"/>
+      <c r="AI37" s="67"/>
+      <c r="AJ37" s="67"/>
+      <c r="AK37" s="67"/>
+      <c r="AL37" s="67"/>
+      <c r="AM37" s="67"/>
+      <c r="AN37" s="67"/>
+      <c r="AO37" s="67"/>
+      <c r="AP37" s="67"/>
+      <c r="AQ37" s="67"/>
+      <c r="AR37" s="67"/>
+      <c r="AS37" s="67"/>
+      <c r="AT37" s="67"/>
+      <c r="AU37" s="67"/>
+      <c r="AV37" s="67"/>
+      <c r="AW37" s="67"/>
+      <c r="AX37" s="67"/>
+      <c r="AY37" s="67"/>
+      <c r="AZ37" s="67"/>
+      <c r="BA37" s="67"/>
+      <c r="BB37" s="67"/>
+      <c r="BC37" s="67"/>
+      <c r="BD37" s="67"/>
+      <c r="BE37" s="67"/>
+      <c r="BF37" s="67"/>
+      <c r="BG37" s="67"/>
+      <c r="BH37" s="67"/>
+      <c r="BI37" s="67"/>
+      <c r="BJ37" s="69"/>
+      <c r="BK37" s="64"/>
+      <c r="BL37" s="65"/>
+      <c r="BM37" s="65"/>
+      <c r="BN37" s="65"/>
+      <c r="BO37" s="65"/>
+      <c r="BP37" s="65"/>
+      <c r="BQ37" s="65"/>
+      <c r="BR37" s="65"/>
       <c r="BS37" s="46"/>
       <c r="BT37" s="46"/>
       <c r="BU37" s="46"/>
@@ -5968,6 +5932,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="BD26:BJ27"/>
+    <mergeCell ref="BK26:BV27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:I29"/>
+    <mergeCell ref="J28:N29"/>
+    <mergeCell ref="O28:AD29"/>
+    <mergeCell ref="AE28:BC29"/>
+    <mergeCell ref="BD28:BJ29"/>
+    <mergeCell ref="BK28:BV29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="BK33:BR33"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="BK25:BR25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:I27"/>
+    <mergeCell ref="J26:N27"/>
+    <mergeCell ref="O26:AD27"/>
+    <mergeCell ref="AE26:BC27"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK30:BR31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:I31"/>
+    <mergeCell ref="J30:N31"/>
+    <mergeCell ref="O30:AD31"/>
+    <mergeCell ref="AE30:BC31"/>
+    <mergeCell ref="BD30:BJ31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK32:BR32"/>
     <mergeCell ref="BK34:BR34"/>
     <mergeCell ref="BK35:BR35"/>
     <mergeCell ref="C37:D37"/>
@@ -5992,86 +6036,6 @@
     <mergeCell ref="BD35:BJ35"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK30:BR31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:I31"/>
-    <mergeCell ref="J30:N31"/>
-    <mergeCell ref="O30:AD31"/>
-    <mergeCell ref="AE30:BC31"/>
-    <mergeCell ref="BD30:BJ31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK32:BR32"/>
-    <mergeCell ref="BK33:BR33"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="BK25:BR25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:I27"/>
-    <mergeCell ref="J26:N27"/>
-    <mergeCell ref="O26:AD27"/>
-    <mergeCell ref="AE26:BC27"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BD26:BJ27"/>
-    <mergeCell ref="BK26:BV27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:I29"/>
-    <mergeCell ref="J28:N29"/>
-    <mergeCell ref="O28:AD29"/>
-    <mergeCell ref="AE28:BC29"/>
-    <mergeCell ref="BD28:BJ29"/>
-    <mergeCell ref="BK28:BV29"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -6126,7 +6090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149D4736-0143-4507-A99B-A6DC1D3799DF}">
   <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -6142,247 +6106,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="126" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="126" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="126"/>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="126"/>
-      <c r="AS1" s="126"/>
-      <c r="AT1" s="127" t="s">
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="127"/>
-      <c r="AV1" s="127"/>
-      <c r="AW1" s="127"/>
-      <c r="AX1" s="127"/>
-      <c r="AY1" s="127"/>
-      <c r="AZ1" s="127"/>
-      <c r="BA1" s="127"/>
-      <c r="BB1" s="127"/>
-      <c r="BC1" s="127"/>
-      <c r="BD1" s="127"/>
-      <c r="BE1" s="127"/>
-      <c r="BF1" s="127"/>
-      <c r="BG1" s="127"/>
-      <c r="BH1" s="127"/>
-      <c r="BI1" s="127"/>
-      <c r="BJ1" s="127"/>
-      <c r="BK1" s="127"/>
-      <c r="BL1" s="127"/>
-      <c r="BM1" s="127"/>
-      <c r="BN1" s="127"/>
-      <c r="BO1" s="127"/>
-      <c r="BP1" s="127"/>
-      <c r="BQ1" s="127"/>
+      <c r="AU1" s="132"/>
+      <c r="AV1" s="132"/>
+      <c r="AW1" s="132"/>
+      <c r="AX1" s="132"/>
+      <c r="AY1" s="132"/>
+      <c r="AZ1" s="132"/>
+      <c r="BA1" s="132"/>
+      <c r="BB1" s="132"/>
+      <c r="BC1" s="132"/>
+      <c r="BD1" s="132"/>
+      <c r="BE1" s="132"/>
+      <c r="BF1" s="132"/>
+      <c r="BG1" s="132"/>
+      <c r="BH1" s="132"/>
+      <c r="BI1" s="132"/>
+      <c r="BJ1" s="132"/>
+      <c r="BK1" s="132"/>
+      <c r="BL1" s="132"/>
+      <c r="BM1" s="132"/>
+      <c r="BN1" s="132"/>
+      <c r="BO1" s="132"/>
+      <c r="BP1" s="132"/>
+      <c r="BQ1" s="132"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="109" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
-      <c r="AJ2" s="109"/>
-      <c r="AK2" s="128" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="128"/>
-      <c r="AS2" s="128"/>
-      <c r="AT2" s="128" t="s">
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
+      <c r="AR2" s="122"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="128"/>
-      <c r="AV2" s="128"/>
-      <c r="AW2" s="128"/>
-      <c r="AX2" s="128"/>
-      <c r="AY2" s="128"/>
-      <c r="AZ2" s="128"/>
-      <c r="BA2" s="128"/>
-      <c r="BB2" s="128" t="s">
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="122"/>
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="122"/>
+      <c r="BB2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="128"/>
-      <c r="BD2" s="128"/>
-      <c r="BE2" s="128"/>
-      <c r="BF2" s="128"/>
-      <c r="BG2" s="128"/>
-      <c r="BH2" s="128"/>
-      <c r="BI2" s="128"/>
-      <c r="BJ2" s="129" t="s">
+      <c r="BC2" s="122"/>
+      <c r="BD2" s="122"/>
+      <c r="BE2" s="122"/>
+      <c r="BF2" s="122"/>
+      <c r="BG2" s="122"/>
+      <c r="BH2" s="122"/>
+      <c r="BI2" s="122"/>
+      <c r="BJ2" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="129"/>
-      <c r="BL2" s="129"/>
-      <c r="BM2" s="129"/>
-      <c r="BN2" s="129"/>
-      <c r="BO2" s="129"/>
-      <c r="BP2" s="129"/>
-      <c r="BQ2" s="129"/>
+      <c r="BK2" s="133"/>
+      <c r="BL2" s="133"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="133"/>
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="133"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="109"/>
-      <c r="AJ3" s="109"/>
-      <c r="AK3" s="130" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="130"/>
-      <c r="AN3" s="130"/>
-      <c r="AO3" s="130"/>
-      <c r="AP3" s="130"/>
-      <c r="AQ3" s="130"/>
-      <c r="AR3" s="130"/>
-      <c r="AS3" s="130"/>
-      <c r="AT3" s="131">
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="135">
         <v>45510</v>
       </c>
-      <c r="AU3" s="131"/>
-      <c r="AV3" s="131"/>
-      <c r="AW3" s="131"/>
-      <c r="AX3" s="131"/>
-      <c r="AY3" s="131"/>
-      <c r="AZ3" s="131"/>
-      <c r="BA3" s="131"/>
-      <c r="BB3" s="130" t="s">
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="130"/>
-      <c r="BD3" s="130"/>
-      <c r="BE3" s="130"/>
-      <c r="BF3" s="130"/>
-      <c r="BG3" s="130"/>
-      <c r="BH3" s="130"/>
-      <c r="BI3" s="130"/>
-      <c r="BJ3" s="132">
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="136">
         <v>45537</v>
       </c>
-      <c r="BK3" s="132"/>
-      <c r="BL3" s="132"/>
-      <c r="BM3" s="132"/>
-      <c r="BN3" s="132"/>
-      <c r="BO3" s="132"/>
-      <c r="BP3" s="132"/>
-      <c r="BQ3" s="132"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -6407,96 +6371,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="133" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133"/>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133"/>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133"/>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133"/>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="106" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="106"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106" t="s">
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="106"/>
-      <c r="AX6" s="106"/>
-      <c r="AY6" s="106"/>
-      <c r="AZ6" s="106"/>
-      <c r="BA6" s="106"/>
-      <c r="BB6" s="106"/>
-      <c r="BC6" s="106"/>
-      <c r="BD6" s="106"/>
-      <c r="BE6" s="106"/>
-      <c r="BF6" s="106"/>
-      <c r="BG6" s="106"/>
-      <c r="BH6" s="106"/>
-      <c r="BI6" s="106"/>
-      <c r="BJ6" s="106"/>
-      <c r="BK6" s="106"/>
-      <c r="BL6" s="106"/>
-      <c r="BM6" s="106"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="106"/>
-      <c r="BP6" s="106"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="67"/>
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="67"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="67"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="37" t="s">
         <v>87</v>
       </c>
@@ -6527,38 +6491,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="106" t="s">
+      <c r="AO7" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="106"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="106"/>
-      <c r="AS7" s="106"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="106"/>
-      <c r="AV7" s="106" t="s">
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="106"/>
-      <c r="AX7" s="106"/>
-      <c r="AY7" s="106"/>
-      <c r="AZ7" s="106"/>
-      <c r="BA7" s="106"/>
-      <c r="BB7" s="106"/>
-      <c r="BC7" s="106"/>
-      <c r="BD7" s="106"/>
-      <c r="BE7" s="106"/>
-      <c r="BF7" s="106"/>
-      <c r="BG7" s="106"/>
-      <c r="BH7" s="106"/>
-      <c r="BI7" s="106"/>
-      <c r="BJ7" s="106"/>
-      <c r="BK7" s="106"/>
-      <c r="BL7" s="106"/>
-      <c r="BM7" s="106"/>
-      <c r="BN7" s="106"/>
-      <c r="BO7" s="106"/>
-      <c r="BP7" s="106"/>
+      <c r="AW7" s="67"/>
+      <c r="AX7" s="67"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="67"/>
+      <c r="BF7" s="67"/>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="67"/>
+      <c r="BI7" s="67"/>
+      <c r="BJ7" s="67"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="67"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="67"/>
+      <c r="BP7" s="67"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -6572,89 +6536,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="128" t="s">
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128" t="s">
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="113" t="s">
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="114"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="114"/>
-      <c r="AK10" s="114"/>
-      <c r="AL10" s="114"/>
-      <c r="AM10" s="114"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="114"/>
-      <c r="AP10" s="114"/>
-      <c r="AQ10" s="114"/>
-      <c r="AR10" s="114"/>
-      <c r="AS10" s="114"/>
-      <c r="AT10" s="114"/>
-      <c r="AU10" s="114"/>
-      <c r="AV10" s="114"/>
-      <c r="AW10" s="114"/>
-      <c r="AX10" s="114"/>
-      <c r="AY10" s="114"/>
-      <c r="AZ10" s="114"/>
-      <c r="BA10" s="114"/>
-      <c r="BB10" s="114"/>
-      <c r="BC10" s="114"/>
-      <c r="BD10" s="114"/>
-      <c r="BE10" s="114"/>
-      <c r="BF10" s="114"/>
-      <c r="BG10" s="114"/>
-      <c r="BH10" s="114"/>
-      <c r="BI10" s="135"/>
-      <c r="BJ10" s="103" t="s">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="128"/>
+      <c r="BJ10" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
-      <c r="BP10" s="103"/>
+      <c r="BK10" s="66"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="66"/>
+      <c r="BN10" s="66"/>
+      <c r="BO10" s="66"/>
+      <c r="BP10" s="66"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
       <c r="G11" s="37" t="s">
         <v>98</v>
       </c>
@@ -6670,11 +6634,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="39"/>
-      <c r="T11" s="137" t="s">
+      <c r="T11" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="137"/>
-      <c r="V11" s="138"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="126"/>
       <c r="W11" s="51" t="s">
         <v>119</v>
       </c>
@@ -6726,12 +6690,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="17" t="s">
         <v>120</v>
       </c>
@@ -6747,11 +6711,11 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="128" t="s">
+      <c r="T12" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
       <c r="W12" s="51"/>
       <c r="X12" s="52"/>
       <c r="Y12" s="52"/>
@@ -6800,12 +6764,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="17" t="s">
         <v>92</v>
       </c>
@@ -6821,11 +6785,11 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="128" t="s">
+      <c r="T13" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
       <c r="W13" s="51" t="s">
         <v>108</v>
       </c>
@@ -6876,12 +6840,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="17" t="s">
         <v>93</v>
       </c>
@@ -6897,11 +6861,11 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="128" t="s">
+      <c r="T14" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
       <c r="W14" s="51" t="s">
         <v>108</v>
       </c>
@@ -6963,88 +6927,88 @@
       <c r="AG16" s="16"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="128" t="s">
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128" t="s">
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="103" t="s">
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="103"/>
-      <c r="AG17" s="103"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="103"/>
-      <c r="AM17" s="103"/>
-      <c r="AN17" s="103"/>
-      <c r="AO17" s="103"/>
-      <c r="AP17" s="103"/>
-      <c r="AQ17" s="103"/>
-      <c r="AR17" s="103"/>
-      <c r="AS17" s="103"/>
-      <c r="AT17" s="103"/>
-      <c r="AU17" s="103"/>
-      <c r="AV17" s="103"/>
-      <c r="AW17" s="103"/>
-      <c r="AX17" s="103"/>
-      <c r="AY17" s="103"/>
-      <c r="AZ17" s="103"/>
-      <c r="BA17" s="103"/>
-      <c r="BB17" s="103"/>
-      <c r="BC17" s="103"/>
-      <c r="BD17" s="103"/>
-      <c r="BE17" s="103"/>
-      <c r="BF17" s="103"/>
-      <c r="BG17" s="103"/>
-      <c r="BH17" s="103"/>
-      <c r="BI17" s="103"/>
-      <c r="BJ17" s="103" t="s">
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="66"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="66"/>
+      <c r="AV17" s="66"/>
+      <c r="AW17" s="66"/>
+      <c r="AX17" s="66"/>
+      <c r="AY17" s="66"/>
+      <c r="AZ17" s="66"/>
+      <c r="BA17" s="66"/>
+      <c r="BB17" s="66"/>
+      <c r="BC17" s="66"/>
+      <c r="BD17" s="66"/>
+      <c r="BE17" s="66"/>
+      <c r="BF17" s="66"/>
+      <c r="BG17" s="66"/>
+      <c r="BH17" s="66"/>
+      <c r="BI17" s="66"/>
+      <c r="BJ17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK17" s="103"/>
-      <c r="BL17" s="103"/>
-      <c r="BM17" s="103"/>
-      <c r="BN17" s="103"/>
-      <c r="BO17" s="103"/>
-      <c r="BP17" s="103"/>
+      <c r="BK17" s="66"/>
+      <c r="BL17" s="66"/>
+      <c r="BM17" s="66"/>
+      <c r="BN17" s="66"/>
+      <c r="BO17" s="66"/>
+      <c r="BP17" s="66"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
       <c r="G18" s="17" t="s">
         <v>106</v>
       </c>
@@ -7060,9 +7024,9 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
       <c r="W18" s="21" t="s">
         <v>107</v>
       </c>
@@ -7524,35 +7488,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W17:BI17"/>
-    <mergeCell ref="BJ17:BP17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -7567,6 +7502,35 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W17:BI17"/>
+    <mergeCell ref="BJ17:BP17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -7612,7 +7576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEF7E0F-2382-4600-94E9-7C91FC17ED61}">
   <dimension ref="A1:AMK112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -7628,247 +7592,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="126" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="126" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="126"/>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="126"/>
-      <c r="AS1" s="126"/>
-      <c r="AT1" s="127" t="s">
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="127"/>
-      <c r="AV1" s="127"/>
-      <c r="AW1" s="127"/>
-      <c r="AX1" s="127"/>
-      <c r="AY1" s="127"/>
-      <c r="AZ1" s="127"/>
-      <c r="BA1" s="127"/>
-      <c r="BB1" s="127"/>
-      <c r="BC1" s="127"/>
-      <c r="BD1" s="127"/>
-      <c r="BE1" s="127"/>
-      <c r="BF1" s="127"/>
-      <c r="BG1" s="127"/>
-      <c r="BH1" s="127"/>
-      <c r="BI1" s="127"/>
-      <c r="BJ1" s="127"/>
-      <c r="BK1" s="127"/>
-      <c r="BL1" s="127"/>
-      <c r="BM1" s="127"/>
-      <c r="BN1" s="127"/>
-      <c r="BO1" s="127"/>
-      <c r="BP1" s="127"/>
-      <c r="BQ1" s="127"/>
+      <c r="AU1" s="132"/>
+      <c r="AV1" s="132"/>
+      <c r="AW1" s="132"/>
+      <c r="AX1" s="132"/>
+      <c r="AY1" s="132"/>
+      <c r="AZ1" s="132"/>
+      <c r="BA1" s="132"/>
+      <c r="BB1" s="132"/>
+      <c r="BC1" s="132"/>
+      <c r="BD1" s="132"/>
+      <c r="BE1" s="132"/>
+      <c r="BF1" s="132"/>
+      <c r="BG1" s="132"/>
+      <c r="BH1" s="132"/>
+      <c r="BI1" s="132"/>
+      <c r="BJ1" s="132"/>
+      <c r="BK1" s="132"/>
+      <c r="BL1" s="132"/>
+      <c r="BM1" s="132"/>
+      <c r="BN1" s="132"/>
+      <c r="BO1" s="132"/>
+      <c r="BP1" s="132"/>
+      <c r="BQ1" s="132"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="109" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
-      <c r="AJ2" s="109"/>
-      <c r="AK2" s="128" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="128"/>
-      <c r="AS2" s="128"/>
-      <c r="AT2" s="128" t="s">
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
+      <c r="AR2" s="122"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="128"/>
-      <c r="AV2" s="128"/>
-      <c r="AW2" s="128"/>
-      <c r="AX2" s="128"/>
-      <c r="AY2" s="128"/>
-      <c r="AZ2" s="128"/>
-      <c r="BA2" s="128"/>
-      <c r="BB2" s="128" t="s">
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="122"/>
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="122"/>
+      <c r="BB2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="128"/>
-      <c r="BD2" s="128"/>
-      <c r="BE2" s="128"/>
-      <c r="BF2" s="128"/>
-      <c r="BG2" s="128"/>
-      <c r="BH2" s="128"/>
-      <c r="BI2" s="128"/>
-      <c r="BJ2" s="129" t="s">
+      <c r="BC2" s="122"/>
+      <c r="BD2" s="122"/>
+      <c r="BE2" s="122"/>
+      <c r="BF2" s="122"/>
+      <c r="BG2" s="122"/>
+      <c r="BH2" s="122"/>
+      <c r="BI2" s="122"/>
+      <c r="BJ2" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="129"/>
-      <c r="BL2" s="129"/>
-      <c r="BM2" s="129"/>
-      <c r="BN2" s="129"/>
-      <c r="BO2" s="129"/>
-      <c r="BP2" s="129"/>
-      <c r="BQ2" s="129"/>
+      <c r="BK2" s="133"/>
+      <c r="BL2" s="133"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="133"/>
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="133"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="109"/>
-      <c r="AJ3" s="109"/>
-      <c r="AK3" s="130" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="130"/>
-      <c r="AN3" s="130"/>
-      <c r="AO3" s="130"/>
-      <c r="AP3" s="130"/>
-      <c r="AQ3" s="130"/>
-      <c r="AR3" s="130"/>
-      <c r="AS3" s="130"/>
-      <c r="AT3" s="131">
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="135">
         <v>45510</v>
       </c>
-      <c r="AU3" s="131"/>
-      <c r="AV3" s="131"/>
-      <c r="AW3" s="131"/>
-      <c r="AX3" s="131"/>
-      <c r="AY3" s="131"/>
-      <c r="AZ3" s="131"/>
-      <c r="BA3" s="131"/>
-      <c r="BB3" s="130" t="s">
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="130"/>
-      <c r="BD3" s="130"/>
-      <c r="BE3" s="130"/>
-      <c r="BF3" s="130"/>
-      <c r="BG3" s="130"/>
-      <c r="BH3" s="130"/>
-      <c r="BI3" s="130"/>
-      <c r="BJ3" s="132">
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="136">
         <v>45518</v>
       </c>
-      <c r="BK3" s="132"/>
-      <c r="BL3" s="132"/>
-      <c r="BM3" s="132"/>
-      <c r="BN3" s="132"/>
-      <c r="BO3" s="132"/>
-      <c r="BP3" s="132"/>
-      <c r="BQ3" s="132"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -7893,96 +7857,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="133" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133"/>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133"/>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133"/>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133"/>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="106" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="106"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106" t="s">
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="106"/>
-      <c r="AX6" s="106"/>
-      <c r="AY6" s="106"/>
-      <c r="AZ6" s="106"/>
-      <c r="BA6" s="106"/>
-      <c r="BB6" s="106"/>
-      <c r="BC6" s="106"/>
-      <c r="BD6" s="106"/>
-      <c r="BE6" s="106"/>
-      <c r="BF6" s="106"/>
-      <c r="BG6" s="106"/>
-      <c r="BH6" s="106"/>
-      <c r="BI6" s="106"/>
-      <c r="BJ6" s="106"/>
-      <c r="BK6" s="106"/>
-      <c r="BL6" s="106"/>
-      <c r="BM6" s="106"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="106"/>
-      <c r="BP6" s="106"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="67"/>
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="67"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="67"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="17" t="s">
         <v>75</v>
       </c>
@@ -8013,38 +7977,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="106" t="s">
+      <c r="AO7" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="106"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="106"/>
-      <c r="AS7" s="106"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="106"/>
-      <c r="AV7" s="106" t="s">
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="106"/>
-      <c r="AX7" s="106"/>
-      <c r="AY7" s="106"/>
-      <c r="AZ7" s="106"/>
-      <c r="BA7" s="106"/>
-      <c r="BB7" s="106"/>
-      <c r="BC7" s="106"/>
-      <c r="BD7" s="106"/>
-      <c r="BE7" s="106"/>
-      <c r="BF7" s="106"/>
-      <c r="BG7" s="106"/>
-      <c r="BH7" s="106"/>
-      <c r="BI7" s="106"/>
-      <c r="BJ7" s="106"/>
-      <c r="BK7" s="106"/>
-      <c r="BL7" s="106"/>
-      <c r="BM7" s="106"/>
-      <c r="BN7" s="106"/>
-      <c r="BO7" s="106"/>
-      <c r="BP7" s="106"/>
+      <c r="AW7" s="67"/>
+      <c r="AX7" s="67"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="67"/>
+      <c r="BF7" s="67"/>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="67"/>
+      <c r="BI7" s="67"/>
+      <c r="BJ7" s="67"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="67"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="67"/>
+      <c r="BP7" s="67"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -8058,88 +8022,88 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="128" t="s">
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128" t="s">
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="128"/>
-      <c r="V10" s="141"/>
-      <c r="W10" s="113" t="s">
+      <c r="U10" s="122"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="114"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="114"/>
-      <c r="AK10" s="114"/>
-      <c r="AL10" s="114"/>
-      <c r="AM10" s="114"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="114"/>
-      <c r="AP10" s="114"/>
-      <c r="AQ10" s="114"/>
-      <c r="AR10" s="114"/>
-      <c r="AS10" s="114"/>
-      <c r="AT10" s="114"/>
-      <c r="AU10" s="114"/>
-      <c r="AV10" s="114"/>
-      <c r="AW10" s="114"/>
-      <c r="AX10" s="114"/>
-      <c r="AY10" s="114"/>
-      <c r="AZ10" s="114"/>
-      <c r="BA10" s="114"/>
-      <c r="BB10" s="114"/>
-      <c r="BC10" s="114"/>
-      <c r="BD10" s="114"/>
-      <c r="BE10" s="114"/>
-      <c r="BF10" s="114"/>
-      <c r="BG10" s="114"/>
-      <c r="BH10" s="114"/>
-      <c r="BI10" s="135"/>
-      <c r="BJ10" s="103" t="s">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="128"/>
+      <c r="BJ10" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
-      <c r="BP10" s="103"/>
+      <c r="BK10" s="66"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="66"/>
+      <c r="BN10" s="66"/>
+      <c r="BO10" s="66"/>
+      <c r="BP10" s="66"/>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
       <c r="G11" s="17" t="s">
         <v>99</v>
       </c>
@@ -8155,11 +8119,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="128" t="s">
+      <c r="T11" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="128"/>
-      <c r="V11" s="141"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="137"/>
       <c r="W11" s="21" t="s">
         <v>117</v>
       </c>
@@ -8210,12 +8174,12 @@
       <c r="BP11" s="24"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="17" t="s">
         <v>120</v>
       </c>
@@ -8231,11 +8195,11 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="128" t="s">
+      <c r="T12" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="128"/>
-      <c r="V12" s="141"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="137"/>
       <c r="W12" s="21"/>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
@@ -8284,12 +8248,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="17" t="s">
         <v>102</v>
       </c>
@@ -8305,9 +8269,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="141"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="137"/>
       <c r="W13" s="21"/>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
@@ -8356,12 +8320,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="17" t="s">
         <v>95</v>
       </c>
@@ -8377,11 +8341,11 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="128" t="s">
+      <c r="T14" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="128"/>
-      <c r="V14" s="141"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="137"/>
       <c r="W14" s="21" t="s">
         <v>118</v>
       </c>
@@ -8432,12 +8396,12 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
       <c r="G15" s="17" t="s">
         <v>109</v>
       </c>
@@ -8453,9 +8417,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="141"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="137"/>
       <c r="W15" s="21"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
@@ -8504,12 +8468,12 @@
       <c r="BP15" s="24"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="17" t="s">
         <v>67</v>
       </c>
@@ -8525,11 +8489,11 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="128" t="s">
+      <c r="T16" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="128"/>
-      <c r="V16" s="141"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="137"/>
       <c r="W16" s="21" t="s">
         <v>187</v>
       </c>
@@ -8580,12 +8544,12 @@
       <c r="BP16" s="24"/>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C17" s="139" t="s">
+      <c r="C17" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
       <c r="G17" s="17" t="s">
         <v>92</v>
       </c>
@@ -8601,11 +8565,11 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="128" t="s">
+      <c r="T17" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="128"/>
-      <c r="V17" s="141"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="137"/>
       <c r="W17" s="21" t="s">
         <v>108</v>
       </c>
@@ -8656,12 +8620,12 @@
       <c r="BP17" s="24"/>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
       <c r="G18" s="17" t="s">
         <v>93</v>
       </c>
@@ -8677,11 +8641,11 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="128" t="s">
+      <c r="T18" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="128"/>
-      <c r="V18" s="141"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="137"/>
       <c r="W18" s="21" t="s">
         <v>105</v>
       </c>
@@ -8743,88 +8707,88 @@
       <c r="AG20" s="16"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="128" t="s">
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128" t="s">
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="103" t="s">
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="103"/>
-      <c r="AG21" s="103"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="103"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="103"/>
-      <c r="AM21" s="103"/>
-      <c r="AN21" s="103"/>
-      <c r="AO21" s="103"/>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="103"/>
-      <c r="AR21" s="103"/>
-      <c r="AS21" s="103"/>
-      <c r="AT21" s="103"/>
-      <c r="AU21" s="103"/>
-      <c r="AV21" s="103"/>
-      <c r="AW21" s="103"/>
-      <c r="AX21" s="103"/>
-      <c r="AY21" s="103"/>
-      <c r="AZ21" s="103"/>
-      <c r="BA21" s="103"/>
-      <c r="BB21" s="103"/>
-      <c r="BC21" s="103"/>
-      <c r="BD21" s="103"/>
-      <c r="BE21" s="103"/>
-      <c r="BF21" s="103"/>
-      <c r="BG21" s="103"/>
-      <c r="BH21" s="103"/>
-      <c r="BI21" s="103"/>
-      <c r="BJ21" s="103" t="s">
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="66"/>
+      <c r="BA21" s="66"/>
+      <c r="BB21" s="66"/>
+      <c r="BC21" s="66"/>
+      <c r="BD21" s="66"/>
+      <c r="BE21" s="66"/>
+      <c r="BF21" s="66"/>
+      <c r="BG21" s="66"/>
+      <c r="BH21" s="66"/>
+      <c r="BI21" s="66"/>
+      <c r="BJ21" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK21" s="103"/>
-      <c r="BL21" s="103"/>
-      <c r="BM21" s="103"/>
-      <c r="BN21" s="103"/>
-      <c r="BO21" s="103"/>
-      <c r="BP21" s="103"/>
+      <c r="BK21" s="66"/>
+      <c r="BL21" s="66"/>
+      <c r="BM21" s="66"/>
+      <c r="BN21" s="66"/>
+      <c r="BO21" s="66"/>
+      <c r="BP21" s="66"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
       <c r="G22" s="17" t="s">
         <v>106</v>
       </c>
@@ -8840,9 +8804,9 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="20"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="122"/>
       <c r="W22" s="21" t="s">
         <v>66</v>
       </c>
@@ -9840,43 +9804,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="W21:BI21"/>
-    <mergeCell ref="BJ21:BP21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="W10:BI10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -9891,6 +9818,43 @@
     <mergeCell ref="I2:AJ3"/>
     <mergeCell ref="AK2:AS2"/>
     <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W21:BI21"/>
+    <mergeCell ref="BJ21:BP21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -9912,7 +9876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B35AE7B-248B-4974-BEF5-F4CA6B1686DB}">
   <dimension ref="A1:AMM65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -9928,243 +9892,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="126" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="126" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="126"/>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="126"/>
-      <c r="AS1" s="126"/>
-      <c r="AT1" s="127" t="s">
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="127"/>
-      <c r="AV1" s="127"/>
-      <c r="AW1" s="127"/>
-      <c r="AX1" s="127"/>
-      <c r="AY1" s="127"/>
-      <c r="AZ1" s="127"/>
-      <c r="BA1" s="127"/>
-      <c r="BB1" s="127"/>
-      <c r="BC1" s="127"/>
-      <c r="BD1" s="127"/>
-      <c r="BE1" s="127"/>
-      <c r="BF1" s="127"/>
-      <c r="BG1" s="127"/>
-      <c r="BH1" s="127"/>
-      <c r="BI1" s="127"/>
-      <c r="BJ1" s="127"/>
-      <c r="BK1" s="127"/>
-      <c r="BL1" s="127"/>
-      <c r="BM1" s="127"/>
-      <c r="BN1" s="127"/>
-      <c r="BO1" s="127"/>
-      <c r="BP1" s="127"/>
-      <c r="BQ1" s="127"/>
+      <c r="AU1" s="132"/>
+      <c r="AV1" s="132"/>
+      <c r="AW1" s="132"/>
+      <c r="AX1" s="132"/>
+      <c r="AY1" s="132"/>
+      <c r="AZ1" s="132"/>
+      <c r="BA1" s="132"/>
+      <c r="BB1" s="132"/>
+      <c r="BC1" s="132"/>
+      <c r="BD1" s="132"/>
+      <c r="BE1" s="132"/>
+      <c r="BF1" s="132"/>
+      <c r="BG1" s="132"/>
+      <c r="BH1" s="132"/>
+      <c r="BI1" s="132"/>
+      <c r="BJ1" s="132"/>
+      <c r="BK1" s="132"/>
+      <c r="BL1" s="132"/>
+      <c r="BM1" s="132"/>
+      <c r="BN1" s="132"/>
+      <c r="BO1" s="132"/>
+      <c r="BP1" s="132"/>
+      <c r="BQ1" s="132"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="109" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
-      <c r="AJ2" s="109"/>
-      <c r="AK2" s="128" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="128"/>
-      <c r="AS2" s="128"/>
-      <c r="AT2" s="128" t="s">
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
+      <c r="AR2" s="122"/>
+      <c r="AS2" s="122"/>
+      <c r="AT2" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="128"/>
-      <c r="AV2" s="128"/>
-      <c r="AW2" s="128"/>
-      <c r="AX2" s="128"/>
-      <c r="AY2" s="128"/>
-      <c r="AZ2" s="128"/>
-      <c r="BA2" s="128"/>
-      <c r="BB2" s="128" t="s">
+      <c r="AU2" s="122"/>
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="122"/>
+      <c r="AY2" s="122"/>
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="122"/>
+      <c r="BB2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="128"/>
-      <c r="BD2" s="128"/>
-      <c r="BE2" s="128"/>
-      <c r="BF2" s="128"/>
-      <c r="BG2" s="128"/>
-      <c r="BH2" s="128"/>
-      <c r="BI2" s="128"/>
-      <c r="BJ2" s="129"/>
-      <c r="BK2" s="129"/>
-      <c r="BL2" s="129"/>
-      <c r="BM2" s="129"/>
-      <c r="BN2" s="129"/>
-      <c r="BO2" s="129"/>
-      <c r="BP2" s="129"/>
-      <c r="BQ2" s="129"/>
+      <c r="BC2" s="122"/>
+      <c r="BD2" s="122"/>
+      <c r="BE2" s="122"/>
+      <c r="BF2" s="122"/>
+      <c r="BG2" s="122"/>
+      <c r="BH2" s="122"/>
+      <c r="BI2" s="122"/>
+      <c r="BJ2" s="133"/>
+      <c r="BK2" s="133"/>
+      <c r="BL2" s="133"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="133"/>
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="133"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="109"/>
-      <c r="AJ3" s="109"/>
-      <c r="AK3" s="130" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="130"/>
-      <c r="AN3" s="130"/>
-      <c r="AO3" s="130"/>
-      <c r="AP3" s="130"/>
-      <c r="AQ3" s="130"/>
-      <c r="AR3" s="130"/>
-      <c r="AS3" s="130"/>
-      <c r="AT3" s="131">
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="135">
         <v>45510</v>
       </c>
-      <c r="AU3" s="131"/>
-      <c r="AV3" s="131"/>
-      <c r="AW3" s="131"/>
-      <c r="AX3" s="131"/>
-      <c r="AY3" s="131"/>
-      <c r="AZ3" s="131"/>
-      <c r="BA3" s="131"/>
-      <c r="BB3" s="130" t="s">
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="130"/>
-      <c r="BD3" s="130"/>
-      <c r="BE3" s="130"/>
-      <c r="BF3" s="130"/>
-      <c r="BG3" s="130"/>
-      <c r="BH3" s="130"/>
-      <c r="BI3" s="130"/>
-      <c r="BJ3" s="132"/>
-      <c r="BK3" s="132"/>
-      <c r="BL3" s="132"/>
-      <c r="BM3" s="132"/>
-      <c r="BN3" s="132"/>
-      <c r="BO3" s="132"/>
-      <c r="BP3" s="132"/>
-      <c r="BQ3" s="132"/>
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="136"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -10189,96 +10153,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="133" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133"/>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133"/>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133"/>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133"/>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="106" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="106"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106" t="s">
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="106"/>
-      <c r="AX6" s="106"/>
-      <c r="AY6" s="106"/>
-      <c r="AZ6" s="106"/>
-      <c r="BA6" s="106"/>
-      <c r="BB6" s="106"/>
-      <c r="BC6" s="106"/>
-      <c r="BD6" s="106"/>
-      <c r="BE6" s="106"/>
-      <c r="BF6" s="106"/>
-      <c r="BG6" s="106"/>
-      <c r="BH6" s="106"/>
-      <c r="BI6" s="106"/>
-      <c r="BJ6" s="106"/>
-      <c r="BK6" s="106"/>
-      <c r="BL6" s="106"/>
-      <c r="BM6" s="106"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="106"/>
-      <c r="BP6" s="106"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="67"/>
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="67"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="67"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="17" t="s">
         <v>80</v>
       </c>
@@ -10309,38 +10273,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="106" t="s">
+      <c r="AO7" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="106"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="106"/>
-      <c r="AS7" s="106"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="106"/>
-      <c r="AV7" s="106" t="s">
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="106"/>
-      <c r="AX7" s="106"/>
-      <c r="AY7" s="106"/>
-      <c r="AZ7" s="106"/>
-      <c r="BA7" s="106"/>
-      <c r="BB7" s="106"/>
-      <c r="BC7" s="106"/>
-      <c r="BD7" s="106"/>
-      <c r="BE7" s="106"/>
-      <c r="BF7" s="106"/>
-      <c r="BG7" s="106"/>
-      <c r="BH7" s="106"/>
-      <c r="BI7" s="106"/>
-      <c r="BJ7" s="106"/>
-      <c r="BK7" s="106"/>
-      <c r="BL7" s="106"/>
-      <c r="BM7" s="106"/>
-      <c r="BN7" s="106"/>
-      <c r="BO7" s="106"/>
-      <c r="BP7" s="106"/>
+      <c r="AW7" s="67"/>
+      <c r="AX7" s="67"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="67"/>
+      <c r="BF7" s="67"/>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="67"/>
+      <c r="BI7" s="67"/>
+      <c r="BJ7" s="67"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="67"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="67"/>
+      <c r="BP7" s="67"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -10354,89 +10318,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="128" t="s">
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128" t="s">
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="113" t="s">
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="114"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="114"/>
-      <c r="AK10" s="114"/>
-      <c r="AL10" s="114"/>
-      <c r="AM10" s="114"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="114"/>
-      <c r="AP10" s="114"/>
-      <c r="AQ10" s="114"/>
-      <c r="AR10" s="114"/>
-      <c r="AS10" s="114"/>
-      <c r="AT10" s="114"/>
-      <c r="AU10" s="114"/>
-      <c r="AV10" s="114"/>
-      <c r="AW10" s="114"/>
-      <c r="AX10" s="114"/>
-      <c r="AY10" s="114"/>
-      <c r="AZ10" s="114"/>
-      <c r="BA10" s="114"/>
-      <c r="BB10" s="114"/>
-      <c r="BC10" s="114"/>
-      <c r="BD10" s="114"/>
-      <c r="BE10" s="114"/>
-      <c r="BF10" s="114"/>
-      <c r="BG10" s="114"/>
-      <c r="BH10" s="114"/>
-      <c r="BI10" s="135"/>
-      <c r="BJ10" s="103" t="s">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="128"/>
+      <c r="BJ10" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
-      <c r="BP10" s="103"/>
+      <c r="BK10" s="66"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="66"/>
+      <c r="BN10" s="66"/>
+      <c r="BO10" s="66"/>
+      <c r="BP10" s="66"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
       <c r="G11" s="17" t="s">
         <v>120</v>
       </c>
@@ -10452,11 +10416,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="128" t="s">
+      <c r="T11" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
       <c r="W11" s="51" t="s">
         <v>121</v>
       </c>
@@ -10508,12 +10472,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="13" t="s">
         <v>153</v>
       </c>
@@ -10529,9 +10493,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
       <c r="W12" s="51" t="s">
         <v>155</v>
       </c>
@@ -10582,12 +10546,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="144"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
       <c r="G13" s="17" t="s">
         <v>154</v>
       </c>
@@ -10603,9 +10567,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
       <c r="W13" s="51" t="s">
         <v>156</v>
       </c>
@@ -10656,10 +10620,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -10673,9 +10637,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
       <c r="W14" s="51"/>
       <c r="X14" s="52"/>
       <c r="Y14" s="52"/>
@@ -10725,10 +10689,10 @@
     </row>
     <row r="15" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -10742,9 +10706,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="122"/>
       <c r="W15" s="51"/>
       <c r="X15" s="52"/>
       <c r="Y15" s="52"/>
@@ -10795,10 +10759,10 @@
     </row>
     <row r="16" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -10812,9 +10776,9 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="122"/>
       <c r="W16" s="51"/>
       <c r="X16" s="52"/>
       <c r="Y16" s="52"/>
@@ -10878,90 +10842,90 @@
     </row>
     <row r="19" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="128" t="s">
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128" t="s">
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="103" t="s">
+      <c r="U19" s="122"/>
+      <c r="V19" s="122"/>
+      <c r="W19" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="103"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="103"/>
-      <c r="AL19" s="103"/>
-      <c r="AM19" s="103"/>
-      <c r="AN19" s="103"/>
-      <c r="AO19" s="103"/>
-      <c r="AP19" s="103"/>
-      <c r="AQ19" s="103"/>
-      <c r="AR19" s="103"/>
-      <c r="AS19" s="103"/>
-      <c r="AT19" s="103"/>
-      <c r="AU19" s="103"/>
-      <c r="AV19" s="103"/>
-      <c r="AW19" s="103"/>
-      <c r="AX19" s="103"/>
-      <c r="AY19" s="103"/>
-      <c r="AZ19" s="103"/>
-      <c r="BA19" s="103"/>
-      <c r="BB19" s="103"/>
-      <c r="BC19" s="103"/>
-      <c r="BD19" s="103"/>
-      <c r="BE19" s="103"/>
-      <c r="BF19" s="103"/>
-      <c r="BG19" s="103"/>
-      <c r="BH19" s="103"/>
-      <c r="BI19" s="103"/>
-      <c r="BJ19" s="103" t="s">
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="66"/>
+      <c r="AZ19" s="66"/>
+      <c r="BA19" s="66"/>
+      <c r="BB19" s="66"/>
+      <c r="BC19" s="66"/>
+      <c r="BD19" s="66"/>
+      <c r="BE19" s="66"/>
+      <c r="BF19" s="66"/>
+      <c r="BG19" s="66"/>
+      <c r="BH19" s="66"/>
+      <c r="BI19" s="66"/>
+      <c r="BJ19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK19" s="103"/>
-      <c r="BL19" s="103"/>
-      <c r="BM19" s="103"/>
-      <c r="BN19" s="103"/>
-      <c r="BO19" s="103"/>
-      <c r="BP19" s="103"/>
+      <c r="BK19" s="66"/>
+      <c r="BL19" s="66"/>
+      <c r="BM19" s="66"/>
+      <c r="BN19" s="66"/>
+      <c r="BO19" s="66"/>
+      <c r="BP19" s="66"/>
       <c r="BQ19" s="15"/>
     </row>
     <row r="20" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
       <c r="G20" s="17" t="s">
         <v>116</v>
       </c>
@@ -10977,9 +10941,9 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="20"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
       <c r="W20" s="21" t="s">
         <v>122</v>
       </c>
@@ -12681,39 +12645,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="W19:BI19"/>
-    <mergeCell ref="BJ19:BP19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -12728,6 +12659,39 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:BI19"/>
+    <mergeCell ref="BJ19:BP19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -12782,7 +12746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B574E2-07CB-4199-BBD8-E24441EA0CFC}">
   <dimension ref="B2:AW17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12795,60 +12759,60 @@
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="145" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="145" t="s">
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="R3" s="146"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="146"/>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
-      <c r="Z3" s="146"/>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="146"/>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="146"/>
-      <c r="AK3" s="146"/>
-      <c r="AL3" s="146"/>
-      <c r="AM3" s="146"/>
-      <c r="AN3" s="146"/>
-      <c r="AO3" s="146"/>
-      <c r="AP3" s="146"/>
-      <c r="AQ3" s="146"/>
-      <c r="AR3" s="146"/>
-      <c r="AS3" s="146"/>
-      <c r="AT3" s="146"/>
-      <c r="AU3" s="146"/>
-      <c r="AV3" s="146"/>
-      <c r="AW3" s="147"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="142"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="142"/>
+      <c r="AT3" s="142"/>
+      <c r="AU3" s="142"/>
+      <c r="AV3" s="142"/>
+      <c r="AW3" s="143"/>
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="55" t="s">
@@ -13623,7 +13587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>
   <cols>

--- a/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F741610-DFF6-44D1-A42B-F14E422CB243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4702CFB3-DCA7-44BA-816F-59432AE28A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8590" yWindow="320" windowWidth="10870" windowHeight="8900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_交通費申請マッパー" sheetId="10" r:id="rId1"/>
@@ -2316,80 +2316,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2427,47 +2382,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2487,30 +2418,77 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2519,6 +2497,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2531,6 +2512,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2764,249 +2764,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="107" t="s">
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
-      <c r="AZ1" s="107"/>
-      <c r="BA1" s="107"/>
-      <c r="BB1" s="107"/>
-      <c r="BC1" s="107"/>
-      <c r="BD1" s="107"/>
-      <c r="BE1" s="107"/>
-      <c r="BF1" s="107"/>
-      <c r="BG1" s="107"/>
-      <c r="BH1" s="107"/>
-      <c r="BI1" s="107"/>
-      <c r="BJ1" s="107"/>
-      <c r="BK1" s="107"/>
-      <c r="BL1" s="107"/>
-      <c r="BM1" s="107"/>
-      <c r="BN1" s="107"/>
-      <c r="BO1" s="107"/>
-      <c r="BP1" s="107"/>
-      <c r="BQ1" s="107"/>
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="100"/>
+      <c r="AW1" s="100"/>
+      <c r="AX1" s="100"/>
+      <c r="AY1" s="100"/>
+      <c r="AZ1" s="100"/>
+      <c r="BA1" s="100"/>
+      <c r="BB1" s="100"/>
+      <c r="BC1" s="100"/>
+      <c r="BD1" s="100"/>
+      <c r="BE1" s="100"/>
+      <c r="BF1" s="100"/>
+      <c r="BG1" s="100"/>
+      <c r="BH1" s="100"/>
+      <c r="BI1" s="100"/>
+      <c r="BJ1" s="100"/>
+      <c r="BK1" s="100"/>
+      <c r="BL1" s="100"/>
+      <c r="BM1" s="100"/>
+      <c r="BN1" s="100"/>
+      <c r="BO1" s="100"/>
+      <c r="BP1" s="100"/>
+      <c r="BQ1" s="100"/>
       <c r="BR1" s="4"/>
     </row>
     <row r="2" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
-      <c r="AJ2" s="109"/>
-      <c r="AK2" s="66" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66" t="s">
+      <c r="AL2" s="103"/>
+      <c r="AM2" s="103"/>
+      <c r="AN2" s="103"/>
+      <c r="AO2" s="103"/>
+      <c r="AP2" s="103"/>
+      <c r="AQ2" s="103"/>
+      <c r="AR2" s="103"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66" t="s">
+      <c r="AU2" s="103"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="110" t="s">
+      <c r="BC2" s="103"/>
+      <c r="BD2" s="103"/>
+      <c r="BE2" s="103"/>
+      <c r="BF2" s="103"/>
+      <c r="BG2" s="103"/>
+      <c r="BH2" s="103"/>
+      <c r="BI2" s="103"/>
+      <c r="BJ2" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="110"/>
-      <c r="BL2" s="110"/>
-      <c r="BM2" s="110"/>
-      <c r="BN2" s="110"/>
-      <c r="BO2" s="110"/>
-      <c r="BP2" s="110"/>
-      <c r="BQ2" s="110"/>
+      <c r="BK2" s="104"/>
+      <c r="BL2" s="104"/>
+      <c r="BM2" s="104"/>
+      <c r="BN2" s="104"/>
+      <c r="BO2" s="104"/>
+      <c r="BP2" s="104"/>
+      <c r="BQ2" s="104"/>
       <c r="BR2" s="4"/>
     </row>
     <row r="3" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="109"/>
-      <c r="AJ3" s="109"/>
-      <c r="AK3" s="102" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="102"/>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="102"/>
-      <c r="AS3" s="102"/>
-      <c r="AT3" s="103">
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="109">
         <v>45503</v>
       </c>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="102" t="s">
+      <c r="AU3" s="109"/>
+      <c r="AV3" s="109"/>
+      <c r="AW3" s="109"/>
+      <c r="AX3" s="109"/>
+      <c r="AY3" s="109"/>
+      <c r="AZ3" s="109"/>
+      <c r="BA3" s="109"/>
+      <c r="BB3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102"/>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102"/>
-      <c r="BG3" s="102"/>
-      <c r="BH3" s="102"/>
-      <c r="BI3" s="102"/>
-      <c r="BJ3" s="104">
+      <c r="BC3" s="108"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="108"/>
+      <c r="BF3" s="108"/>
+      <c r="BG3" s="108"/>
+      <c r="BH3" s="108"/>
+      <c r="BI3" s="108"/>
+      <c r="BJ3" s="110">
         <v>45548</v>
       </c>
-      <c r="BK3" s="104"/>
-      <c r="BL3" s="104"/>
-      <c r="BM3" s="104"/>
-      <c r="BN3" s="104"/>
-      <c r="BO3" s="104"/>
-      <c r="BP3" s="104"/>
-      <c r="BQ3" s="104"/>
+      <c r="BK3" s="110"/>
+      <c r="BL3" s="110"/>
+      <c r="BM3" s="110"/>
+      <c r="BN3" s="110"/>
+      <c r="BO3" s="110"/>
+      <c r="BP3" s="110"/>
+      <c r="BQ3" s="110"/>
       <c r="BR3" s="4"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
@@ -3074,215 +3074,215 @@
     </row>
     <row r="6" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="127"/>
-      <c r="AH6" s="127"/>
-      <c r="AI6" s="127"/>
-      <c r="AJ6" s="127"/>
-      <c r="AK6" s="127"/>
-      <c r="AL6" s="127"/>
-      <c r="AM6" s="127"/>
-      <c r="AN6" s="127"/>
-      <c r="AO6" s="127"/>
-      <c r="AP6" s="127"/>
-      <c r="AQ6" s="127"/>
-      <c r="AR6" s="127"/>
-      <c r="AS6" s="127"/>
-      <c r="AT6" s="127"/>
-      <c r="AU6" s="127"/>
-      <c r="AV6" s="127"/>
-      <c r="AW6" s="127"/>
-      <c r="AX6" s="127"/>
-      <c r="AY6" s="127"/>
-      <c r="AZ6" s="127"/>
-      <c r="BA6" s="127"/>
-      <c r="BB6" s="127"/>
-      <c r="BC6" s="127"/>
-      <c r="BD6" s="127"/>
-      <c r="BE6" s="127"/>
-      <c r="BF6" s="127"/>
-      <c r="BG6" s="127"/>
-      <c r="BH6" s="127"/>
-      <c r="BI6" s="127"/>
-      <c r="BJ6" s="127"/>
-      <c r="BK6" s="127"/>
-      <c r="BL6" s="127"/>
-      <c r="BM6" s="127"/>
-      <c r="BN6" s="127"/>
-      <c r="BO6" s="127"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111"/>
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111"/>
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="111"/>
+      <c r="AM6" s="111"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111"/>
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111"/>
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111"/>
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="111"/>
+      <c r="BC6" s="111"/>
+      <c r="BD6" s="111"/>
+      <c r="BE6" s="111"/>
+      <c r="BF6" s="111"/>
+      <c r="BG6" s="111"/>
+      <c r="BH6" s="111"/>
+      <c r="BI6" s="111"/>
+      <c r="BJ6" s="111"/>
+      <c r="BK6" s="111"/>
+      <c r="BL6" s="111"/>
+      <c r="BM6" s="111"/>
+      <c r="BN6" s="111"/>
+      <c r="BO6" s="111"/>
       <c r="BP6"/>
       <c r="BR6" s="4"/>
     </row>
     <row r="7" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="127"/>
-      <c r="U7" s="127"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="127"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="127"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="127"/>
-      <c r="AH7" s="127"/>
-      <c r="AI7" s="127"/>
-      <c r="AJ7" s="127"/>
-      <c r="AK7" s="127"/>
-      <c r="AL7" s="127"/>
-      <c r="AM7" s="127"/>
-      <c r="AN7" s="127"/>
-      <c r="AO7" s="127"/>
-      <c r="AP7" s="127"/>
-      <c r="AQ7" s="127"/>
-      <c r="AR7" s="127"/>
-      <c r="AS7" s="127"/>
-      <c r="AT7" s="127"/>
-      <c r="AU7" s="127"/>
-      <c r="AV7" s="127"/>
-      <c r="AW7" s="127"/>
-      <c r="AX7" s="127"/>
-      <c r="AY7" s="127"/>
-      <c r="AZ7" s="127"/>
-      <c r="BA7" s="127"/>
-      <c r="BB7" s="127"/>
-      <c r="BC7" s="127"/>
-      <c r="BD7" s="127"/>
-      <c r="BE7" s="127"/>
-      <c r="BF7" s="127"/>
-      <c r="BG7" s="127"/>
-      <c r="BH7" s="127"/>
-      <c r="BI7" s="127"/>
-      <c r="BJ7" s="127"/>
-      <c r="BK7" s="127"/>
-      <c r="BL7" s="127"/>
-      <c r="BM7" s="127"/>
-      <c r="BN7" s="127"/>
-      <c r="BO7" s="127"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="111"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="111"/>
+      <c r="AM7" s="111"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="111"/>
+      <c r="AX7" s="111"/>
+      <c r="AY7" s="111"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="111"/>
+      <c r="BB7" s="111"/>
+      <c r="BC7" s="111"/>
+      <c r="BD7" s="111"/>
+      <c r="BE7" s="111"/>
+      <c r="BF7" s="111"/>
+      <c r="BG7" s="111"/>
+      <c r="BH7" s="111"/>
+      <c r="BI7" s="111"/>
+      <c r="BJ7" s="111"/>
+      <c r="BK7" s="111"/>
+      <c r="BL7" s="111"/>
+      <c r="BM7" s="111"/>
+      <c r="BN7" s="111"/>
+      <c r="BO7" s="111"/>
       <c r="BP7"/>
       <c r="BR7" s="4"/>
     </row>
     <row r="8" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="67"/>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="67"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="67"/>
-      <c r="AV8" s="67"/>
-      <c r="AW8" s="67"/>
-      <c r="AX8" s="67"/>
-      <c r="AY8" s="67"/>
-      <c r="AZ8" s="67"/>
-      <c r="BA8" s="67"/>
-      <c r="BB8" s="67"/>
-      <c r="BC8" s="67"/>
-      <c r="BD8" s="67"/>
-      <c r="BE8" s="67"/>
-      <c r="BF8" s="67"/>
-      <c r="BG8" s="67"/>
-      <c r="BH8" s="67"/>
-      <c r="BI8" s="67"/>
-      <c r="BJ8" s="67"/>
-      <c r="BK8" s="67"/>
-      <c r="BL8" s="67"/>
-      <c r="BM8" s="67"/>
-      <c r="BN8" s="67"/>
-      <c r="BO8" s="67"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="105"/>
+      <c r="AX8" s="105"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="105"/>
+      <c r="BB8" s="105"/>
+      <c r="BC8" s="105"/>
+      <c r="BD8" s="105"/>
+      <c r="BE8" s="105"/>
+      <c r="BF8" s="105"/>
+      <c r="BG8" s="105"/>
+      <c r="BH8" s="105"/>
+      <c r="BI8" s="105"/>
+      <c r="BJ8" s="105"/>
+      <c r="BK8" s="105"/>
+      <c r="BL8" s="105"/>
+      <c r="BM8" s="105"/>
+      <c r="BN8" s="105"/>
+      <c r="BO8" s="105"/>
       <c r="BP8"/>
       <c r="BR8" s="4"/>
     </row>
@@ -3335,787 +3335,787 @@
     </row>
     <row r="11" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="66" t="s">
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67" t="s">
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="101" t="s">
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="AJ11" s="101"/>
-      <c r="AK11" s="101"/>
-      <c r="AL11" s="101"/>
-      <c r="AM11" s="101"/>
-      <c r="AN11" s="101"/>
-      <c r="AO11" s="101"/>
-      <c r="AP11" s="101"/>
-      <c r="AQ11" s="101"/>
-      <c r="AR11" s="101"/>
-      <c r="AS11" s="101"/>
-      <c r="AT11" s="101"/>
-      <c r="AU11" s="101"/>
-      <c r="AV11" s="101"/>
-      <c r="AW11" s="101"/>
-      <c r="AX11" s="101"/>
-      <c r="AY11" s="101"/>
-      <c r="AZ11" s="101"/>
-      <c r="BA11" s="101"/>
-      <c r="BB11" s="101"/>
-      <c r="BC11" s="101"/>
-      <c r="BD11" s="101"/>
-      <c r="BE11" s="101"/>
-      <c r="BF11" s="101"/>
-      <c r="BG11" s="101"/>
-      <c r="BH11" s="101"/>
-      <c r="BI11" s="101"/>
-      <c r="BJ11" s="101"/>
-      <c r="BK11" s="101"/>
-      <c r="BL11" s="101"/>
-      <c r="BM11" s="101"/>
-      <c r="BN11" s="101"/>
-      <c r="BO11" s="101"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="106"/>
+      <c r="AM11" s="106"/>
+      <c r="AN11" s="106"/>
+      <c r="AO11" s="106"/>
+      <c r="AP11" s="106"/>
+      <c r="AQ11" s="106"/>
+      <c r="AR11" s="106"/>
+      <c r="AS11" s="106"/>
+      <c r="AT11" s="106"/>
+      <c r="AU11" s="106"/>
+      <c r="AV11" s="106"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="106"/>
+      <c r="AY11" s="106"/>
+      <c r="AZ11" s="106"/>
+      <c r="BA11" s="106"/>
+      <c r="BB11" s="106"/>
+      <c r="BC11" s="106"/>
+      <c r="BD11" s="106"/>
+      <c r="BE11" s="106"/>
+      <c r="BF11" s="106"/>
+      <c r="BG11" s="106"/>
+      <c r="BH11" s="106"/>
+      <c r="BI11" s="106"/>
+      <c r="BJ11" s="106"/>
+      <c r="BK11" s="106"/>
+      <c r="BL11" s="106"/>
+      <c r="BM11" s="106"/>
+      <c r="BN11" s="106"/>
+      <c r="BO11" s="106"/>
       <c r="BP11"/>
       <c r="BR11" s="4"/>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="68"/>
-      <c r="AK12" s="68"/>
-      <c r="AL12" s="68"/>
-      <c r="AM12" s="68"/>
-      <c r="AN12" s="68"/>
-      <c r="AO12" s="68"/>
-      <c r="AP12" s="68"/>
-      <c r="AQ12" s="68"/>
-      <c r="AR12" s="68"/>
-      <c r="AS12" s="68"/>
-      <c r="AT12" s="68"/>
-      <c r="AU12" s="68"/>
-      <c r="AV12" s="68"/>
-      <c r="AW12" s="68"/>
-      <c r="AX12" s="68"/>
-      <c r="AY12" s="68"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="68"/>
-      <c r="BB12" s="68"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="68"/>
-      <c r="BE12" s="68"/>
-      <c r="BF12" s="68"/>
-      <c r="BG12" s="68"/>
-      <c r="BH12" s="68"/>
-      <c r="BI12" s="68"/>
-      <c r="BJ12" s="68"/>
-      <c r="BK12" s="68"/>
-      <c r="BL12" s="68"/>
-      <c r="BM12" s="68"/>
-      <c r="BN12" s="68"/>
-      <c r="BO12" s="68"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="107"/>
+      <c r="AG12" s="107"/>
+      <c r="AH12" s="107"/>
+      <c r="AI12" s="107"/>
+      <c r="AJ12" s="107"/>
+      <c r="AK12" s="107"/>
+      <c r="AL12" s="107"/>
+      <c r="AM12" s="107"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="107"/>
+      <c r="AP12" s="107"/>
+      <c r="AQ12" s="107"/>
+      <c r="AR12" s="107"/>
+      <c r="AS12" s="107"/>
+      <c r="AT12" s="107"/>
+      <c r="AU12" s="107"/>
+      <c r="AV12" s="107"/>
+      <c r="AW12" s="107"/>
+      <c r="AX12" s="107"/>
+      <c r="AY12" s="107"/>
+      <c r="AZ12" s="107"/>
+      <c r="BA12" s="107"/>
+      <c r="BB12" s="107"/>
+      <c r="BC12" s="107"/>
+      <c r="BD12" s="107"/>
+      <c r="BE12" s="107"/>
+      <c r="BF12" s="107"/>
+      <c r="BG12" s="107"/>
+      <c r="BH12" s="107"/>
+      <c r="BI12" s="107"/>
+      <c r="BJ12" s="107"/>
+      <c r="BK12" s="107"/>
+      <c r="BL12" s="107"/>
+      <c r="BM12" s="107"/>
+      <c r="BN12" s="107"/>
+      <c r="BO12" s="107"/>
       <c r="BP12"/>
       <c r="BR12" s="4"/>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="68"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="68"/>
-      <c r="AL13" s="68"/>
-      <c r="AM13" s="68"/>
-      <c r="AN13" s="68"/>
-      <c r="AO13" s="68"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="68"/>
-      <c r="AS13" s="68"/>
-      <c r="AT13" s="68"/>
-      <c r="AU13" s="68"/>
-      <c r="AV13" s="68"/>
-      <c r="AW13" s="68"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="68"/>
-      <c r="BA13" s="68"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="68"/>
-      <c r="BE13" s="68"/>
-      <c r="BF13" s="68"/>
-      <c r="BG13" s="68"/>
-      <c r="BH13" s="68"/>
-      <c r="BI13" s="68"/>
-      <c r="BJ13" s="68"/>
-      <c r="BK13" s="68"/>
-      <c r="BL13" s="68"/>
-      <c r="BM13" s="68"/>
-      <c r="BN13" s="68"/>
-      <c r="BO13" s="68"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="107"/>
+      <c r="AI13" s="107"/>
+      <c r="AJ13" s="107"/>
+      <c r="AK13" s="107"/>
+      <c r="AL13" s="107"/>
+      <c r="AM13" s="107"/>
+      <c r="AN13" s="107"/>
+      <c r="AO13" s="107"/>
+      <c r="AP13" s="107"/>
+      <c r="AQ13" s="107"/>
+      <c r="AR13" s="107"/>
+      <c r="AS13" s="107"/>
+      <c r="AT13" s="107"/>
+      <c r="AU13" s="107"/>
+      <c r="AV13" s="107"/>
+      <c r="AW13" s="107"/>
+      <c r="AX13" s="107"/>
+      <c r="AY13" s="107"/>
+      <c r="AZ13" s="107"/>
+      <c r="BA13" s="107"/>
+      <c r="BB13" s="107"/>
+      <c r="BC13" s="107"/>
+      <c r="BD13" s="107"/>
+      <c r="BE13" s="107"/>
+      <c r="BF13" s="107"/>
+      <c r="BG13" s="107"/>
+      <c r="BH13" s="107"/>
+      <c r="BI13" s="107"/>
+      <c r="BJ13" s="107"/>
+      <c r="BK13" s="107"/>
+      <c r="BL13" s="107"/>
+      <c r="BM13" s="107"/>
+      <c r="BN13" s="107"/>
+      <c r="BO13" s="107"/>
       <c r="BP13"/>
       <c r="BR13" s="4"/>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="86" t="s">
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="86"/>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="86"/>
-      <c r="AX14" s="86"/>
-      <c r="AY14" s="86"/>
-      <c r="AZ14" s="86"/>
-      <c r="BA14" s="86"/>
-      <c r="BB14" s="86"/>
-      <c r="BC14" s="86"/>
-      <c r="BD14" s="86"/>
-      <c r="BE14" s="86"/>
-      <c r="BF14" s="86"/>
-      <c r="BG14" s="86"/>
-      <c r="BH14" s="86"/>
-      <c r="BI14" s="86"/>
-      <c r="BJ14" s="86"/>
-      <c r="BK14" s="86"/>
-      <c r="BL14" s="86"/>
-      <c r="BM14" s="86"/>
-      <c r="BN14" s="86"/>
-      <c r="BO14" s="86"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="115"/>
+      <c r="AF14" s="115"/>
+      <c r="AG14" s="115"/>
+      <c r="AH14" s="115"/>
+      <c r="AI14" s="115"/>
+      <c r="AJ14" s="115"/>
+      <c r="AK14" s="115"/>
+      <c r="AL14" s="115"/>
+      <c r="AM14" s="115"/>
+      <c r="AN14" s="115"/>
+      <c r="AO14" s="115"/>
+      <c r="AP14" s="115"/>
+      <c r="AQ14" s="115"/>
+      <c r="AR14" s="115"/>
+      <c r="AS14" s="115"/>
+      <c r="AT14" s="115"/>
+      <c r="AU14" s="115"/>
+      <c r="AV14" s="115"/>
+      <c r="AW14" s="115"/>
+      <c r="AX14" s="115"/>
+      <c r="AY14" s="115"/>
+      <c r="AZ14" s="115"/>
+      <c r="BA14" s="115"/>
+      <c r="BB14" s="115"/>
+      <c r="BC14" s="115"/>
+      <c r="BD14" s="115"/>
+      <c r="BE14" s="115"/>
+      <c r="BF14" s="115"/>
+      <c r="BG14" s="115"/>
+      <c r="BH14" s="115"/>
+      <c r="BI14" s="115"/>
+      <c r="BJ14" s="115"/>
+      <c r="BK14" s="115"/>
+      <c r="BL14" s="115"/>
+      <c r="BM14" s="115"/>
+      <c r="BN14" s="115"/>
+      <c r="BO14" s="115"/>
       <c r="BP14"/>
       <c r="BR14" s="4"/>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="68"/>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="68"/>
-      <c r="AN15" s="68"/>
-      <c r="AO15" s="68"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="68"/>
-      <c r="AU15" s="68"/>
-      <c r="AV15" s="68"/>
-      <c r="AW15" s="68"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="68"/>
-      <c r="BE15" s="68"/>
-      <c r="BF15" s="68"/>
-      <c r="BG15" s="68"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="68"/>
-      <c r="BJ15" s="68"/>
-      <c r="BK15" s="68"/>
-      <c r="BL15" s="68"/>
-      <c r="BM15" s="68"/>
-      <c r="BN15" s="68"/>
-      <c r="BO15" s="68"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="107"/>
+      <c r="AK15" s="107"/>
+      <c r="AL15" s="107"/>
+      <c r="AM15" s="107"/>
+      <c r="AN15" s="107"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="107"/>
+      <c r="AQ15" s="107"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="107"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="107"/>
+      <c r="AV15" s="107"/>
+      <c r="AW15" s="107"/>
+      <c r="AX15" s="107"/>
+      <c r="AY15" s="107"/>
+      <c r="AZ15" s="107"/>
+      <c r="BA15" s="107"/>
+      <c r="BB15" s="107"/>
+      <c r="BC15" s="107"/>
+      <c r="BD15" s="107"/>
+      <c r="BE15" s="107"/>
+      <c r="BF15" s="107"/>
+      <c r="BG15" s="107"/>
+      <c r="BH15" s="107"/>
+      <c r="BI15" s="107"/>
+      <c r="BJ15" s="107"/>
+      <c r="BK15" s="107"/>
+      <c r="BL15" s="107"/>
+      <c r="BM15" s="107"/>
+      <c r="BN15" s="107"/>
+      <c r="BO15" s="107"/>
       <c r="BP15"/>
       <c r="BR15" s="4"/>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="68"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="68"/>
-      <c r="AK16" s="68"/>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="68"/>
-      <c r="AN16" s="68"/>
-      <c r="AO16" s="68"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="68"/>
-      <c r="AU16" s="68"/>
-      <c r="AV16" s="68"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="68"/>
-      <c r="BE16" s="68"/>
-      <c r="BF16" s="68"/>
-      <c r="BG16" s="68"/>
-      <c r="BH16" s="68"/>
-      <c r="BI16" s="68"/>
-      <c r="BJ16" s="68"/>
-      <c r="BK16" s="68"/>
-      <c r="BL16" s="68"/>
-      <c r="BM16" s="68"/>
-      <c r="BN16" s="68"/>
-      <c r="BO16" s="68"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="107"/>
+      <c r="AF16" s="107"/>
+      <c r="AG16" s="107"/>
+      <c r="AH16" s="107"/>
+      <c r="AI16" s="107"/>
+      <c r="AJ16" s="107"/>
+      <c r="AK16" s="107"/>
+      <c r="AL16" s="107"/>
+      <c r="AM16" s="107"/>
+      <c r="AN16" s="107"/>
+      <c r="AO16" s="107"/>
+      <c r="AP16" s="107"/>
+      <c r="AQ16" s="107"/>
+      <c r="AR16" s="107"/>
+      <c r="AS16" s="107"/>
+      <c r="AT16" s="107"/>
+      <c r="AU16" s="107"/>
+      <c r="AV16" s="107"/>
+      <c r="AW16" s="107"/>
+      <c r="AX16" s="107"/>
+      <c r="AY16" s="107"/>
+      <c r="AZ16" s="107"/>
+      <c r="BA16" s="107"/>
+      <c r="BB16" s="107"/>
+      <c r="BC16" s="107"/>
+      <c r="BD16" s="107"/>
+      <c r="BE16" s="107"/>
+      <c r="BF16" s="107"/>
+      <c r="BG16" s="107"/>
+      <c r="BH16" s="107"/>
+      <c r="BI16" s="107"/>
+      <c r="BJ16" s="107"/>
+      <c r="BK16" s="107"/>
+      <c r="BL16" s="107"/>
+      <c r="BM16" s="107"/>
+      <c r="BN16" s="107"/>
+      <c r="BO16" s="107"/>
       <c r="BP16"/>
       <c r="BR16" s="4"/>
     </row>
     <row r="17" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="68"/>
-      <c r="AH17" s="68"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="68"/>
-      <c r="AK17" s="68"/>
-      <c r="AL17" s="68"/>
-      <c r="AM17" s="68"/>
-      <c r="AN17" s="68"/>
-      <c r="AO17" s="68"/>
-      <c r="AP17" s="68"/>
-      <c r="AQ17" s="68"/>
-      <c r="AR17" s="68"/>
-      <c r="AS17" s="68"/>
-      <c r="AT17" s="68"/>
-      <c r="AU17" s="68"/>
-      <c r="AV17" s="68"/>
-      <c r="AW17" s="68"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="68"/>
-      <c r="AZ17" s="68"/>
-      <c r="BA17" s="68"/>
-      <c r="BB17" s="68"/>
-      <c r="BC17" s="68"/>
-      <c r="BD17" s="68"/>
-      <c r="BE17" s="68"/>
-      <c r="BF17" s="68"/>
-      <c r="BG17" s="68"/>
-      <c r="BH17" s="68"/>
-      <c r="BI17" s="68"/>
-      <c r="BJ17" s="68"/>
-      <c r="BK17" s="68"/>
-      <c r="BL17" s="68"/>
-      <c r="BM17" s="68"/>
-      <c r="BN17" s="68"/>
-      <c r="BO17" s="68"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="107"/>
+      <c r="AD17" s="107"/>
+      <c r="AE17" s="107"/>
+      <c r="AF17" s="107"/>
+      <c r="AG17" s="107"/>
+      <c r="AH17" s="107"/>
+      <c r="AI17" s="107"/>
+      <c r="AJ17" s="107"/>
+      <c r="AK17" s="107"/>
+      <c r="AL17" s="107"/>
+      <c r="AM17" s="107"/>
+      <c r="AN17" s="107"/>
+      <c r="AO17" s="107"/>
+      <c r="AP17" s="107"/>
+      <c r="AQ17" s="107"/>
+      <c r="AR17" s="107"/>
+      <c r="AS17" s="107"/>
+      <c r="AT17" s="107"/>
+      <c r="AU17" s="107"/>
+      <c r="AV17" s="107"/>
+      <c r="AW17" s="107"/>
+      <c r="AX17" s="107"/>
+      <c r="AY17" s="107"/>
+      <c r="AZ17" s="107"/>
+      <c r="BA17" s="107"/>
+      <c r="BB17" s="107"/>
+      <c r="BC17" s="107"/>
+      <c r="BD17" s="107"/>
+      <c r="BE17" s="107"/>
+      <c r="BF17" s="107"/>
+      <c r="BG17" s="107"/>
+      <c r="BH17" s="107"/>
+      <c r="BI17" s="107"/>
+      <c r="BJ17" s="107"/>
+      <c r="BK17" s="107"/>
+      <c r="BL17" s="107"/>
+      <c r="BM17" s="107"/>
+      <c r="BN17" s="107"/>
+      <c r="BO17" s="107"/>
       <c r="BP17"/>
       <c r="BR17" s="4"/>
     </row>
     <row r="18" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="68"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="68"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="68"/>
-      <c r="AK18" s="68"/>
-      <c r="AL18" s="68"/>
-      <c r="AM18" s="68"/>
-      <c r="AN18" s="68"/>
-      <c r="AO18" s="68"/>
-      <c r="AP18" s="68"/>
-      <c r="AQ18" s="68"/>
-      <c r="AR18" s="68"/>
-      <c r="AS18" s="68"/>
-      <c r="AT18" s="68"/>
-      <c r="AU18" s="68"/>
-      <c r="AV18" s="68"/>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="68"/>
-      <c r="AY18" s="68"/>
-      <c r="AZ18" s="68"/>
-      <c r="BA18" s="68"/>
-      <c r="BB18" s="68"/>
-      <c r="BC18" s="68"/>
-      <c r="BD18" s="68"/>
-      <c r="BE18" s="68"/>
-      <c r="BF18" s="68"/>
-      <c r="BG18" s="68"/>
-      <c r="BH18" s="68"/>
-      <c r="BI18" s="68"/>
-      <c r="BJ18" s="68"/>
-      <c r="BK18" s="68"/>
-      <c r="BL18" s="68"/>
-      <c r="BM18" s="68"/>
-      <c r="BN18" s="68"/>
-      <c r="BO18" s="68"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="107"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="107"/>
+      <c r="AI18" s="107"/>
+      <c r="AJ18" s="107"/>
+      <c r="AK18" s="107"/>
+      <c r="AL18" s="107"/>
+      <c r="AM18" s="107"/>
+      <c r="AN18" s="107"/>
+      <c r="AO18" s="107"/>
+      <c r="AP18" s="107"/>
+      <c r="AQ18" s="107"/>
+      <c r="AR18" s="107"/>
+      <c r="AS18" s="107"/>
+      <c r="AT18" s="107"/>
+      <c r="AU18" s="107"/>
+      <c r="AV18" s="107"/>
+      <c r="AW18" s="107"/>
+      <c r="AX18" s="107"/>
+      <c r="AY18" s="107"/>
+      <c r="AZ18" s="107"/>
+      <c r="BA18" s="107"/>
+      <c r="BB18" s="107"/>
+      <c r="BC18" s="107"/>
+      <c r="BD18" s="107"/>
+      <c r="BE18" s="107"/>
+      <c r="BF18" s="107"/>
+      <c r="BG18" s="107"/>
+      <c r="BH18" s="107"/>
+      <c r="BI18" s="107"/>
+      <c r="BJ18" s="107"/>
+      <c r="BK18" s="107"/>
+      <c r="BL18" s="107"/>
+      <c r="BM18" s="107"/>
+      <c r="BN18" s="107"/>
+      <c r="BO18" s="107"/>
       <c r="BP18"/>
       <c r="BR18" s="4"/>
     </row>
     <row r="19" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="68"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="68"/>
-      <c r="AH19" s="68"/>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="68"/>
-      <c r="AK19" s="68"/>
-      <c r="AL19" s="68"/>
-      <c r="AM19" s="68"/>
-      <c r="AN19" s="68"/>
-      <c r="AO19" s="68"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="68"/>
-      <c r="AS19" s="68"/>
-      <c r="AT19" s="68"/>
-      <c r="AU19" s="68"/>
-      <c r="AV19" s="68"/>
-      <c r="AW19" s="68"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="68"/>
-      <c r="BB19" s="68"/>
-      <c r="BC19" s="68"/>
-      <c r="BD19" s="68"/>
-      <c r="BE19" s="68"/>
-      <c r="BF19" s="68"/>
-      <c r="BG19" s="68"/>
-      <c r="BH19" s="68"/>
-      <c r="BI19" s="68"/>
-      <c r="BJ19" s="68"/>
-      <c r="BK19" s="68"/>
-      <c r="BL19" s="68"/>
-      <c r="BM19" s="68"/>
-      <c r="BN19" s="68"/>
-      <c r="BO19" s="68"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="107"/>
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="107"/>
+      <c r="AD19" s="107"/>
+      <c r="AE19" s="107"/>
+      <c r="AF19" s="107"/>
+      <c r="AG19" s="107"/>
+      <c r="AH19" s="107"/>
+      <c r="AI19" s="107"/>
+      <c r="AJ19" s="107"/>
+      <c r="AK19" s="107"/>
+      <c r="AL19" s="107"/>
+      <c r="AM19" s="107"/>
+      <c r="AN19" s="107"/>
+      <c r="AO19" s="107"/>
+      <c r="AP19" s="107"/>
+      <c r="AQ19" s="107"/>
+      <c r="AR19" s="107"/>
+      <c r="AS19" s="107"/>
+      <c r="AT19" s="107"/>
+      <c r="AU19" s="107"/>
+      <c r="AV19" s="107"/>
+      <c r="AW19" s="107"/>
+      <c r="AX19" s="107"/>
+      <c r="AY19" s="107"/>
+      <c r="AZ19" s="107"/>
+      <c r="BA19" s="107"/>
+      <c r="BB19" s="107"/>
+      <c r="BC19" s="107"/>
+      <c r="BD19" s="107"/>
+      <c r="BE19" s="107"/>
+      <c r="BF19" s="107"/>
+      <c r="BG19" s="107"/>
+      <c r="BH19" s="107"/>
+      <c r="BI19" s="107"/>
+      <c r="BJ19" s="107"/>
+      <c r="BK19" s="107"/>
+      <c r="BL19" s="107"/>
+      <c r="BM19" s="107"/>
+      <c r="BN19" s="107"/>
+      <c r="BO19" s="107"/>
       <c r="BP19"/>
       <c r="BR19" s="4"/>
     </row>
     <row r="20" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="68"/>
-      <c r="AK20" s="68"/>
-      <c r="AL20" s="68"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="68"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="68"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="68"/>
-      <c r="BE20" s="68"/>
-      <c r="BF20" s="68"/>
-      <c r="BG20" s="68"/>
-      <c r="BH20" s="68"/>
-      <c r="BI20" s="68"/>
-      <c r="BJ20" s="68"/>
-      <c r="BK20" s="68"/>
-      <c r="BL20" s="68"/>
-      <c r="BM20" s="68"/>
-      <c r="BN20" s="68"/>
-      <c r="BO20" s="68"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="107"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="107"/>
+      <c r="AD20" s="107"/>
+      <c r="AE20" s="107"/>
+      <c r="AF20" s="107"/>
+      <c r="AG20" s="107"/>
+      <c r="AH20" s="107"/>
+      <c r="AI20" s="107"/>
+      <c r="AJ20" s="107"/>
+      <c r="AK20" s="107"/>
+      <c r="AL20" s="107"/>
+      <c r="AM20" s="107"/>
+      <c r="AN20" s="107"/>
+      <c r="AO20" s="107"/>
+      <c r="AP20" s="107"/>
+      <c r="AQ20" s="107"/>
+      <c r="AR20" s="107"/>
+      <c r="AS20" s="107"/>
+      <c r="AT20" s="107"/>
+      <c r="AU20" s="107"/>
+      <c r="AV20" s="107"/>
+      <c r="AW20" s="107"/>
+      <c r="AX20" s="107"/>
+      <c r="AY20" s="107"/>
+      <c r="AZ20" s="107"/>
+      <c r="BA20" s="107"/>
+      <c r="BB20" s="107"/>
+      <c r="BC20" s="107"/>
+      <c r="BD20" s="107"/>
+      <c r="BE20" s="107"/>
+      <c r="BF20" s="107"/>
+      <c r="BG20" s="107"/>
+      <c r="BH20" s="107"/>
+      <c r="BI20" s="107"/>
+      <c r="BJ20" s="107"/>
+      <c r="BK20" s="107"/>
+      <c r="BL20" s="107"/>
+      <c r="BM20" s="107"/>
+      <c r="BN20" s="107"/>
+      <c r="BO20" s="107"/>
       <c r="BP20"/>
       <c r="BR20" s="4"/>
     </row>
     <row r="21" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="68"/>
-      <c r="AK21" s="68"/>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="68"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="68"/>
-      <c r="BE21" s="68"/>
-      <c r="BF21" s="68"/>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="68"/>
-      <c r="BJ21" s="68"/>
-      <c r="BK21" s="68"/>
-      <c r="BL21" s="68"/>
-      <c r="BM21" s="68"/>
-      <c r="BN21" s="68"/>
-      <c r="BO21" s="68"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="107"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="107"/>
+      <c r="AD21" s="107"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="107"/>
+      <c r="AG21" s="107"/>
+      <c r="AH21" s="107"/>
+      <c r="AI21" s="107"/>
+      <c r="AJ21" s="107"/>
+      <c r="AK21" s="107"/>
+      <c r="AL21" s="107"/>
+      <c r="AM21" s="107"/>
+      <c r="AN21" s="107"/>
+      <c r="AO21" s="107"/>
+      <c r="AP21" s="107"/>
+      <c r="AQ21" s="107"/>
+      <c r="AR21" s="107"/>
+      <c r="AS21" s="107"/>
+      <c r="AT21" s="107"/>
+      <c r="AU21" s="107"/>
+      <c r="AV21" s="107"/>
+      <c r="AW21" s="107"/>
+      <c r="AX21" s="107"/>
+      <c r="AY21" s="107"/>
+      <c r="AZ21" s="107"/>
+      <c r="BA21" s="107"/>
+      <c r="BB21" s="107"/>
+      <c r="BC21" s="107"/>
+      <c r="BD21" s="107"/>
+      <c r="BE21" s="107"/>
+      <c r="BF21" s="107"/>
+      <c r="BG21" s="107"/>
+      <c r="BH21" s="107"/>
+      <c r="BI21" s="107"/>
+      <c r="BJ21" s="107"/>
+      <c r="BK21" s="107"/>
+      <c r="BL21" s="107"/>
+      <c r="BM21" s="107"/>
+      <c r="BN21" s="107"/>
+      <c r="BO21" s="107"/>
       <c r="BP21"/>
       <c r="BR21" s="4"/>
     </row>
@@ -4145,88 +4145,88 @@
     </row>
     <row r="25" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66" t="s">
+      <c r="D25" s="103"/>
+      <c r="E25" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66" t="s">
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="68" t="s">
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="68"/>
-      <c r="AE25" s="67" t="s">
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="67"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="67"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="67"/>
-      <c r="AK25" s="67"/>
-      <c r="AL25" s="67"/>
-      <c r="AM25" s="67"/>
-      <c r="AN25" s="67"/>
-      <c r="AO25" s="67"/>
-      <c r="AP25" s="67"/>
-      <c r="AQ25" s="67"/>
-      <c r="AR25" s="67"/>
-      <c r="AS25" s="67"/>
-      <c r="AT25" s="67"/>
-      <c r="AU25" s="67"/>
-      <c r="AV25" s="67"/>
-      <c r="AW25" s="67"/>
-      <c r="AX25" s="67"/>
-      <c r="AY25" s="67"/>
-      <c r="AZ25" s="67"/>
-      <c r="BA25" s="67"/>
-      <c r="BB25" s="67"/>
-      <c r="BC25" s="67"/>
-      <c r="BD25" s="67" t="s">
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="105"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="105"/>
+      <c r="AK25" s="105"/>
+      <c r="AL25" s="105"/>
+      <c r="AM25" s="105"/>
+      <c r="AN25" s="105"/>
+      <c r="AO25" s="105"/>
+      <c r="AP25" s="105"/>
+      <c r="AQ25" s="105"/>
+      <c r="AR25" s="105"/>
+      <c r="AS25" s="105"/>
+      <c r="AT25" s="105"/>
+      <c r="AU25" s="105"/>
+      <c r="AV25" s="105"/>
+      <c r="AW25" s="105"/>
+      <c r="AX25" s="105"/>
+      <c r="AY25" s="105"/>
+      <c r="AZ25" s="105"/>
+      <c r="BA25" s="105"/>
+      <c r="BB25" s="105"/>
+      <c r="BC25" s="105"/>
+      <c r="BD25" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="67"/>
-      <c r="BF25" s="67"/>
-      <c r="BG25" s="67"/>
-      <c r="BH25" s="67"/>
-      <c r="BI25" s="67"/>
-      <c r="BJ25" s="69"/>
-      <c r="BK25" s="87" t="s">
+      <c r="BE25" s="105"/>
+      <c r="BF25" s="105"/>
+      <c r="BG25" s="105"/>
+      <c r="BH25" s="105"/>
+      <c r="BI25" s="105"/>
+      <c r="BJ25" s="114"/>
+      <c r="BK25" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="88"/>
-      <c r="BM25" s="88"/>
-      <c r="BN25" s="88"/>
-      <c r="BO25" s="88"/>
-      <c r="BP25" s="88"/>
-      <c r="BQ25" s="88"/>
-      <c r="BR25" s="88"/>
+      <c r="BL25" s="117"/>
+      <c r="BM25" s="117"/>
+      <c r="BN25" s="117"/>
+      <c r="BO25" s="117"/>
+      <c r="BP25" s="117"/>
+      <c r="BQ25" s="117"/>
+      <c r="BR25" s="117"/>
       <c r="BS25" s="46"/>
       <c r="BT25" s="46"/>
       <c r="BU25" s="46"/>
@@ -4246,90 +4246,90 @@
     </row>
     <row r="26" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="74">
+      <c r="C26" s="64">
         <v>1</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="89" t="s">
+      <c r="D26" s="72"/>
+      <c r="E26" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="89" t="s">
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="91"/>
-      <c r="AE26" s="78" t="s">
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="79"/>
-      <c r="AM26" s="79"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="79"/>
-      <c r="AP26" s="79"/>
-      <c r="AQ26" s="79"/>
-      <c r="AR26" s="79"/>
-      <c r="AS26" s="79"/>
-      <c r="AT26" s="79"/>
-      <c r="AU26" s="79"/>
-      <c r="AV26" s="79"/>
-      <c r="AW26" s="79"/>
-      <c r="AX26" s="79"/>
-      <c r="AY26" s="79"/>
-      <c r="AZ26" s="79"/>
-      <c r="BA26" s="79"/>
-      <c r="BB26" s="79"/>
-      <c r="BC26" s="80"/>
-      <c r="BD26" s="74" t="s">
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="87"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="87"/>
+      <c r="AM26" s="87"/>
+      <c r="AN26" s="87"/>
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
+      <c r="AQ26" s="87"/>
+      <c r="AR26" s="87"/>
+      <c r="AS26" s="87"/>
+      <c r="AT26" s="87"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87"/>
+      <c r="AX26" s="87"/>
+      <c r="AY26" s="87"/>
+      <c r="AZ26" s="87"/>
+      <c r="BA26" s="87"/>
+      <c r="BB26" s="87"/>
+      <c r="BC26" s="88"/>
+      <c r="BD26" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="84"/>
-      <c r="BF26" s="84"/>
-      <c r="BG26" s="84"/>
-      <c r="BH26" s="84"/>
-      <c r="BI26" s="84"/>
-      <c r="BJ26" s="84"/>
-      <c r="BK26" s="111" t="s">
+      <c r="BE26" s="65"/>
+      <c r="BF26" s="65"/>
+      <c r="BG26" s="65"/>
+      <c r="BH26" s="65"/>
+      <c r="BI26" s="65"/>
+      <c r="BJ26" s="65"/>
+      <c r="BK26" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="BL26" s="112"/>
-      <c r="BM26" s="112"/>
-      <c r="BN26" s="112"/>
-      <c r="BO26" s="112"/>
-      <c r="BP26" s="112"/>
-      <c r="BQ26" s="112"/>
-      <c r="BR26" s="112"/>
-      <c r="BS26" s="112"/>
-      <c r="BT26" s="112"/>
-      <c r="BU26" s="112"/>
-      <c r="BV26" s="113"/>
+      <c r="BL26" s="69"/>
+      <c r="BM26" s="69"/>
+      <c r="BN26" s="69"/>
+      <c r="BO26" s="69"/>
+      <c r="BP26" s="69"/>
+      <c r="BQ26" s="69"/>
+      <c r="BR26" s="69"/>
+      <c r="BS26" s="69"/>
+      <c r="BT26" s="69"/>
+      <c r="BU26" s="69"/>
+      <c r="BV26" s="70"/>
       <c r="AML26" s="2"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -4345,78 +4345,78 @@
     </row>
     <row r="27" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="94"/>
-      <c r="AE27" s="81"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="82"/>
-      <c r="AM27" s="82"/>
-      <c r="AN27" s="82"/>
-      <c r="AO27" s="82"/>
-      <c r="AP27" s="82"/>
-      <c r="AQ27" s="82"/>
-      <c r="AR27" s="82"/>
-      <c r="AS27" s="82"/>
-      <c r="AT27" s="82"/>
-      <c r="AU27" s="82"/>
-      <c r="AV27" s="82"/>
-      <c r="AW27" s="82"/>
-      <c r="AX27" s="82"/>
-      <c r="AY27" s="82"/>
-      <c r="AZ27" s="82"/>
-      <c r="BA27" s="82"/>
-      <c r="BB27" s="82"/>
-      <c r="BC27" s="83"/>
-      <c r="BD27" s="76"/>
-      <c r="BE27" s="85"/>
-      <c r="BF27" s="85"/>
-      <c r="BG27" s="85"/>
-      <c r="BH27" s="85"/>
-      <c r="BI27" s="85"/>
-      <c r="BJ27" s="85"/>
-      <c r="BK27" s="114"/>
-      <c r="BL27" s="112"/>
-      <c r="BM27" s="112"/>
-      <c r="BN27" s="112"/>
-      <c r="BO27" s="112"/>
-      <c r="BP27" s="112"/>
-      <c r="BQ27" s="112"/>
-      <c r="BR27" s="112"/>
-      <c r="BS27" s="112"/>
-      <c r="BT27" s="112"/>
-      <c r="BU27" s="112"/>
-      <c r="BV27" s="113"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="89"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="90"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="90"/>
+      <c r="AM27" s="90"/>
+      <c r="AN27" s="90"/>
+      <c r="AO27" s="90"/>
+      <c r="AP27" s="90"/>
+      <c r="AQ27" s="90"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="90"/>
+      <c r="BA27" s="90"/>
+      <c r="BB27" s="90"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="66"/>
+      <c r="BE27" s="67"/>
+      <c r="BF27" s="67"/>
+      <c r="BG27" s="67"/>
+      <c r="BH27" s="67"/>
+      <c r="BI27" s="67"/>
+      <c r="BJ27" s="67"/>
+      <c r="BK27" s="71"/>
+      <c r="BL27" s="69"/>
+      <c r="BM27" s="69"/>
+      <c r="BN27" s="69"/>
+      <c r="BO27" s="69"/>
+      <c r="BP27" s="69"/>
+      <c r="BQ27" s="69"/>
+      <c r="BR27" s="69"/>
+      <c r="BS27" s="69"/>
+      <c r="BT27" s="69"/>
+      <c r="BU27" s="69"/>
+      <c r="BV27" s="70"/>
       <c r="AML27" s="2"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -4432,90 +4432,90 @@
     </row>
     <row r="28" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="74">
+      <c r="C28" s="64">
         <v>2</v>
       </c>
-      <c r="D28" s="75"/>
-      <c r="E28" s="89" t="s">
+      <c r="D28" s="72"/>
+      <c r="E28" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="89" t="s">
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="90"/>
-      <c r="AB28" s="90"/>
-      <c r="AC28" s="90"/>
-      <c r="AD28" s="91"/>
-      <c r="AE28" s="78" t="s">
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="79"/>
-      <c r="AM28" s="79"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
-      <c r="AP28" s="79"/>
-      <c r="AQ28" s="79"/>
-      <c r="AR28" s="79"/>
-      <c r="AS28" s="79"/>
-      <c r="AT28" s="79"/>
-      <c r="AU28" s="79"/>
-      <c r="AV28" s="79"/>
-      <c r="AW28" s="79"/>
-      <c r="AX28" s="79"/>
-      <c r="AY28" s="79"/>
-      <c r="AZ28" s="79"/>
-      <c r="BA28" s="79"/>
-      <c r="BB28" s="79"/>
-      <c r="BC28" s="80"/>
-      <c r="BD28" s="74" t="s">
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="87"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="87"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="87"/>
+      <c r="AL28" s="87"/>
+      <c r="AM28" s="87"/>
+      <c r="AN28" s="87"/>
+      <c r="AO28" s="87"/>
+      <c r="AP28" s="87"/>
+      <c r="AQ28" s="87"/>
+      <c r="AR28" s="87"/>
+      <c r="AS28" s="87"/>
+      <c r="AT28" s="87"/>
+      <c r="AU28" s="87"/>
+      <c r="AV28" s="87"/>
+      <c r="AW28" s="87"/>
+      <c r="AX28" s="87"/>
+      <c r="AY28" s="87"/>
+      <c r="AZ28" s="87"/>
+      <c r="BA28" s="87"/>
+      <c r="BB28" s="87"/>
+      <c r="BC28" s="88"/>
+      <c r="BD28" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="BE28" s="84"/>
-      <c r="BF28" s="84"/>
-      <c r="BG28" s="84"/>
-      <c r="BH28" s="84"/>
-      <c r="BI28" s="84"/>
-      <c r="BJ28" s="75"/>
-      <c r="BK28" s="115" t="s">
+      <c r="BE28" s="65"/>
+      <c r="BF28" s="65"/>
+      <c r="BG28" s="65"/>
+      <c r="BH28" s="65"/>
+      <c r="BI28" s="65"/>
+      <c r="BJ28" s="72"/>
+      <c r="BK28" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="BL28" s="116"/>
-      <c r="BM28" s="116"/>
-      <c r="BN28" s="116"/>
-      <c r="BO28" s="116"/>
-      <c r="BP28" s="116"/>
-      <c r="BQ28" s="116"/>
-      <c r="BR28" s="116"/>
-      <c r="BS28" s="116"/>
-      <c r="BT28" s="116"/>
-      <c r="BU28" s="116"/>
-      <c r="BV28" s="117"/>
+      <c r="BL28" s="93"/>
+      <c r="BM28" s="93"/>
+      <c r="BN28" s="93"/>
+      <c r="BO28" s="93"/>
+      <c r="BP28" s="93"/>
+      <c r="BQ28" s="93"/>
+      <c r="BR28" s="93"/>
+      <c r="BS28" s="93"/>
+      <c r="BT28" s="93"/>
+      <c r="BU28" s="93"/>
+      <c r="BV28" s="94"/>
       <c r="AML28" s="2"/>
       <c r="AMM28"/>
       <c r="AMN28"/>
@@ -4531,78 +4531,78 @@
     </row>
     <row r="29" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="81"/>
-      <c r="AF29" s="82"/>
-      <c r="AG29" s="82"/>
-      <c r="AH29" s="82"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="82"/>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="82"/>
-      <c r="AM29" s="82"/>
-      <c r="AN29" s="82"/>
-      <c r="AO29" s="82"/>
-      <c r="AP29" s="82"/>
-      <c r="AQ29" s="82"/>
-      <c r="AR29" s="82"/>
-      <c r="AS29" s="82"/>
-      <c r="AT29" s="82"/>
-      <c r="AU29" s="82"/>
-      <c r="AV29" s="82"/>
-      <c r="AW29" s="82"/>
-      <c r="AX29" s="82"/>
-      <c r="AY29" s="82"/>
-      <c r="AZ29" s="82"/>
-      <c r="BA29" s="82"/>
-      <c r="BB29" s="82"/>
-      <c r="BC29" s="83"/>
-      <c r="BD29" s="76"/>
-      <c r="BE29" s="85"/>
-      <c r="BF29" s="85"/>
-      <c r="BG29" s="85"/>
-      <c r="BH29" s="85"/>
-      <c r="BI29" s="85"/>
-      <c r="BJ29" s="77"/>
-      <c r="BK29" s="118"/>
-      <c r="BL29" s="119"/>
-      <c r="BM29" s="119"/>
-      <c r="BN29" s="119"/>
-      <c r="BO29" s="119"/>
-      <c r="BP29" s="119"/>
-      <c r="BQ29" s="119"/>
-      <c r="BR29" s="119"/>
-      <c r="BS29" s="119"/>
-      <c r="BT29" s="119"/>
-      <c r="BU29" s="119"/>
-      <c r="BV29" s="120"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="89"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+      <c r="AI29" s="90"/>
+      <c r="AJ29" s="90"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="90"/>
+      <c r="AM29" s="90"/>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="90"/>
+      <c r="AP29" s="90"/>
+      <c r="AQ29" s="90"/>
+      <c r="AR29" s="90"/>
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="90"/>
+      <c r="AY29" s="90"/>
+      <c r="AZ29" s="90"/>
+      <c r="BA29" s="90"/>
+      <c r="BB29" s="90"/>
+      <c r="BC29" s="91"/>
+      <c r="BD29" s="66"/>
+      <c r="BE29" s="67"/>
+      <c r="BF29" s="67"/>
+      <c r="BG29" s="67"/>
+      <c r="BH29" s="67"/>
+      <c r="BI29" s="67"/>
+      <c r="BJ29" s="73"/>
+      <c r="BK29" s="95"/>
+      <c r="BL29" s="96"/>
+      <c r="BM29" s="96"/>
+      <c r="BN29" s="96"/>
+      <c r="BO29" s="96"/>
+      <c r="BP29" s="96"/>
+      <c r="BQ29" s="96"/>
+      <c r="BR29" s="96"/>
+      <c r="BS29" s="96"/>
+      <c r="BT29" s="96"/>
+      <c r="BU29" s="96"/>
+      <c r="BV29" s="97"/>
       <c r="AML29" s="2"/>
       <c r="AMM29"/>
       <c r="AMN29"/>
@@ -4618,86 +4618,86 @@
     </row>
     <row r="30" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="74">
+      <c r="C30" s="64">
         <v>3</v>
       </c>
-      <c r="D30" s="75"/>
-      <c r="E30" s="78" t="s">
+      <c r="D30" s="72"/>
+      <c r="E30" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="78" t="s">
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="80"/>
-      <c r="AE30" s="78" t="s">
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="87"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="87"/>
+      <c r="AC30" s="87"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="79"/>
-      <c r="AP30" s="79"/>
-      <c r="AQ30" s="79"/>
-      <c r="AR30" s="79"/>
-      <c r="AS30" s="79"/>
-      <c r="AT30" s="79"/>
-      <c r="AU30" s="79"/>
-      <c r="AV30" s="79"/>
-      <c r="AW30" s="79"/>
-      <c r="AX30" s="79"/>
-      <c r="AY30" s="79"/>
-      <c r="AZ30" s="79"/>
-      <c r="BA30" s="79"/>
-      <c r="BB30" s="79"/>
-      <c r="BC30" s="80"/>
-      <c r="BD30" s="74" t="s">
+      <c r="AF30" s="87"/>
+      <c r="AG30" s="87"/>
+      <c r="AH30" s="87"/>
+      <c r="AI30" s="87"/>
+      <c r="AJ30" s="87"/>
+      <c r="AK30" s="87"/>
+      <c r="AL30" s="87"/>
+      <c r="AM30" s="87"/>
+      <c r="AN30" s="87"/>
+      <c r="AO30" s="87"/>
+      <c r="AP30" s="87"/>
+      <c r="AQ30" s="87"/>
+      <c r="AR30" s="87"/>
+      <c r="AS30" s="87"/>
+      <c r="AT30" s="87"/>
+      <c r="AU30" s="87"/>
+      <c r="AV30" s="87"/>
+      <c r="AW30" s="87"/>
+      <c r="AX30" s="87"/>
+      <c r="AY30" s="87"/>
+      <c r="AZ30" s="87"/>
+      <c r="BA30" s="87"/>
+      <c r="BB30" s="87"/>
+      <c r="BC30" s="88"/>
+      <c r="BD30" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="BE30" s="84"/>
-      <c r="BF30" s="84"/>
-      <c r="BG30" s="84"/>
-      <c r="BH30" s="84"/>
-      <c r="BI30" s="84"/>
-      <c r="BJ30" s="75"/>
-      <c r="BK30" s="70" t="s">
+      <c r="BE30" s="65"/>
+      <c r="BF30" s="65"/>
+      <c r="BG30" s="65"/>
+      <c r="BH30" s="65"/>
+      <c r="BI30" s="65"/>
+      <c r="BJ30" s="72"/>
+      <c r="BK30" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="BL30" s="71"/>
-      <c r="BM30" s="71"/>
-      <c r="BN30" s="71"/>
-      <c r="BO30" s="71"/>
-      <c r="BP30" s="71"/>
-      <c r="BQ30" s="71"/>
-      <c r="BR30" s="71"/>
+      <c r="BL30" s="119"/>
+      <c r="BM30" s="119"/>
+      <c r="BN30" s="119"/>
+      <c r="BO30" s="119"/>
+      <c r="BP30" s="119"/>
+      <c r="BQ30" s="119"/>
+      <c r="BR30" s="119"/>
       <c r="BS30" s="46"/>
       <c r="BT30" s="46"/>
       <c r="BU30" s="46"/>
@@ -4717,74 +4717,74 @@
     </row>
     <row r="31" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="82"/>
-      <c r="AD31" s="83"/>
-      <c r="AE31" s="81"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="82"/>
-      <c r="AK31" s="82"/>
-      <c r="AL31" s="82"/>
-      <c r="AM31" s="82"/>
-      <c r="AN31" s="82"/>
-      <c r="AO31" s="82"/>
-      <c r="AP31" s="82"/>
-      <c r="AQ31" s="82"/>
-      <c r="AR31" s="82"/>
-      <c r="AS31" s="82"/>
-      <c r="AT31" s="82"/>
-      <c r="AU31" s="82"/>
-      <c r="AV31" s="82"/>
-      <c r="AW31" s="82"/>
-      <c r="AX31" s="82"/>
-      <c r="AY31" s="82"/>
-      <c r="AZ31" s="82"/>
-      <c r="BA31" s="82"/>
-      <c r="BB31" s="82"/>
-      <c r="BC31" s="83"/>
-      <c r="BD31" s="76"/>
-      <c r="BE31" s="85"/>
-      <c r="BF31" s="85"/>
-      <c r="BG31" s="85"/>
-      <c r="BH31" s="85"/>
-      <c r="BI31" s="85"/>
-      <c r="BJ31" s="77"/>
-      <c r="BK31" s="72"/>
-      <c r="BL31" s="73"/>
-      <c r="BM31" s="73"/>
-      <c r="BN31" s="73"/>
-      <c r="BO31" s="73"/>
-      <c r="BP31" s="73"/>
-      <c r="BQ31" s="73"/>
-      <c r="BR31" s="73"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="91"/>
+      <c r="AE31" s="89"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="90"/>
+      <c r="AJ31" s="90"/>
+      <c r="AK31" s="90"/>
+      <c r="AL31" s="90"/>
+      <c r="AM31" s="90"/>
+      <c r="AN31" s="90"/>
+      <c r="AO31" s="90"/>
+      <c r="AP31" s="90"/>
+      <c r="AQ31" s="90"/>
+      <c r="AR31" s="90"/>
+      <c r="AS31" s="90"/>
+      <c r="AT31" s="90"/>
+      <c r="AU31" s="90"/>
+      <c r="AV31" s="90"/>
+      <c r="AW31" s="90"/>
+      <c r="AX31" s="90"/>
+      <c r="AY31" s="90"/>
+      <c r="AZ31" s="90"/>
+      <c r="BA31" s="90"/>
+      <c r="BB31" s="90"/>
+      <c r="BC31" s="91"/>
+      <c r="BD31" s="66"/>
+      <c r="BE31" s="67"/>
+      <c r="BF31" s="67"/>
+      <c r="BG31" s="67"/>
+      <c r="BH31" s="67"/>
+      <c r="BI31" s="67"/>
+      <c r="BJ31" s="73"/>
+      <c r="BK31" s="120"/>
+      <c r="BL31" s="121"/>
+      <c r="BM31" s="121"/>
+      <c r="BN31" s="121"/>
+      <c r="BO31" s="121"/>
+      <c r="BP31" s="121"/>
+      <c r="BQ31" s="121"/>
+      <c r="BR31" s="121"/>
       <c r="BS31" s="46"/>
       <c r="BT31" s="46"/>
       <c r="BU31" s="46"/>
@@ -4804,76 +4804,76 @@
     </row>
     <row r="32" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="66">
+      <c r="C32" s="103">
         <v>5</v>
       </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="67"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="67"/>
-      <c r="AM32" s="67"/>
-      <c r="AN32" s="67"/>
-      <c r="AO32" s="67"/>
-      <c r="AP32" s="67"/>
-      <c r="AQ32" s="67"/>
-      <c r="AR32" s="67"/>
-      <c r="AS32" s="67"/>
-      <c r="AT32" s="67"/>
-      <c r="AU32" s="67"/>
-      <c r="AV32" s="67"/>
-      <c r="AW32" s="67"/>
-      <c r="AX32" s="67"/>
-      <c r="AY32" s="67"/>
-      <c r="AZ32" s="67"/>
-      <c r="BA32" s="67"/>
-      <c r="BB32" s="67"/>
-      <c r="BC32" s="67"/>
-      <c r="BD32" s="67"/>
-      <c r="BE32" s="67"/>
-      <c r="BF32" s="67"/>
-      <c r="BG32" s="67"/>
-      <c r="BH32" s="67"/>
-      <c r="BI32" s="67"/>
-      <c r="BJ32" s="69"/>
-      <c r="BK32" s="64"/>
-      <c r="BL32" s="65"/>
-      <c r="BM32" s="65"/>
-      <c r="BN32" s="65"/>
-      <c r="BO32" s="65"/>
-      <c r="BP32" s="65"/>
-      <c r="BQ32" s="65"/>
-      <c r="BR32" s="65"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="107"/>
+      <c r="W32" s="107"/>
+      <c r="X32" s="107"/>
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="107"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="107"/>
+      <c r="AD32" s="107"/>
+      <c r="AE32" s="105"/>
+      <c r="AF32" s="105"/>
+      <c r="AG32" s="105"/>
+      <c r="AH32" s="105"/>
+      <c r="AI32" s="105"/>
+      <c r="AJ32" s="105"/>
+      <c r="AK32" s="105"/>
+      <c r="AL32" s="105"/>
+      <c r="AM32" s="105"/>
+      <c r="AN32" s="105"/>
+      <c r="AO32" s="105"/>
+      <c r="AP32" s="105"/>
+      <c r="AQ32" s="105"/>
+      <c r="AR32" s="105"/>
+      <c r="AS32" s="105"/>
+      <c r="AT32" s="105"/>
+      <c r="AU32" s="105"/>
+      <c r="AV32" s="105"/>
+      <c r="AW32" s="105"/>
+      <c r="AX32" s="105"/>
+      <c r="AY32" s="105"/>
+      <c r="AZ32" s="105"/>
+      <c r="BA32" s="105"/>
+      <c r="BB32" s="105"/>
+      <c r="BC32" s="105"/>
+      <c r="BD32" s="105"/>
+      <c r="BE32" s="105"/>
+      <c r="BF32" s="105"/>
+      <c r="BG32" s="105"/>
+      <c r="BH32" s="105"/>
+      <c r="BI32" s="105"/>
+      <c r="BJ32" s="114"/>
+      <c r="BK32" s="112"/>
+      <c r="BL32" s="113"/>
+      <c r="BM32" s="113"/>
+      <c r="BN32" s="113"/>
+      <c r="BO32" s="113"/>
+      <c r="BP32" s="113"/>
+      <c r="BQ32" s="113"/>
+      <c r="BR32" s="113"/>
       <c r="BS32" s="46"/>
       <c r="BT32" s="46"/>
       <c r="BU32" s="46"/>
@@ -4893,76 +4893,76 @@
     </row>
     <row r="33" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="66">
+      <c r="C33" s="103">
         <v>6</v>
       </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="67"/>
-      <c r="AF33" s="67"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="67"/>
-      <c r="AJ33" s="67"/>
-      <c r="AK33" s="67"/>
-      <c r="AL33" s="67"/>
-      <c r="AM33" s="67"/>
-      <c r="AN33" s="67"/>
-      <c r="AO33" s="67"/>
-      <c r="AP33" s="67"/>
-      <c r="AQ33" s="67"/>
-      <c r="AR33" s="67"/>
-      <c r="AS33" s="67"/>
-      <c r="AT33" s="67"/>
-      <c r="AU33" s="67"/>
-      <c r="AV33" s="67"/>
-      <c r="AW33" s="67"/>
-      <c r="AX33" s="67"/>
-      <c r="AY33" s="67"/>
-      <c r="AZ33" s="67"/>
-      <c r="BA33" s="67"/>
-      <c r="BB33" s="67"/>
-      <c r="BC33" s="67"/>
-      <c r="BD33" s="67"/>
-      <c r="BE33" s="67"/>
-      <c r="BF33" s="67"/>
-      <c r="BG33" s="67"/>
-      <c r="BH33" s="67"/>
-      <c r="BI33" s="67"/>
-      <c r="BJ33" s="69"/>
-      <c r="BK33" s="64"/>
-      <c r="BL33" s="65"/>
-      <c r="BM33" s="65"/>
-      <c r="BN33" s="65"/>
-      <c r="BO33" s="65"/>
-      <c r="BP33" s="65"/>
-      <c r="BQ33" s="65"/>
-      <c r="BR33" s="65"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="107"/>
+      <c r="X33" s="107"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="107"/>
+      <c r="AA33" s="107"/>
+      <c r="AB33" s="107"/>
+      <c r="AC33" s="107"/>
+      <c r="AD33" s="107"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="105"/>
+      <c r="AG33" s="105"/>
+      <c r="AH33" s="105"/>
+      <c r="AI33" s="105"/>
+      <c r="AJ33" s="105"/>
+      <c r="AK33" s="105"/>
+      <c r="AL33" s="105"/>
+      <c r="AM33" s="105"/>
+      <c r="AN33" s="105"/>
+      <c r="AO33" s="105"/>
+      <c r="AP33" s="105"/>
+      <c r="AQ33" s="105"/>
+      <c r="AR33" s="105"/>
+      <c r="AS33" s="105"/>
+      <c r="AT33" s="105"/>
+      <c r="AU33" s="105"/>
+      <c r="AV33" s="105"/>
+      <c r="AW33" s="105"/>
+      <c r="AX33" s="105"/>
+      <c r="AY33" s="105"/>
+      <c r="AZ33" s="105"/>
+      <c r="BA33" s="105"/>
+      <c r="BB33" s="105"/>
+      <c r="BC33" s="105"/>
+      <c r="BD33" s="105"/>
+      <c r="BE33" s="105"/>
+      <c r="BF33" s="105"/>
+      <c r="BG33" s="105"/>
+      <c r="BH33" s="105"/>
+      <c r="BI33" s="105"/>
+      <c r="BJ33" s="114"/>
+      <c r="BK33" s="112"/>
+      <c r="BL33" s="113"/>
+      <c r="BM33" s="113"/>
+      <c r="BN33" s="113"/>
+      <c r="BO33" s="113"/>
+      <c r="BP33" s="113"/>
+      <c r="BQ33" s="113"/>
+      <c r="BR33" s="113"/>
       <c r="BS33" s="46"/>
       <c r="BT33" s="46"/>
       <c r="BU33" s="46"/>
@@ -4982,76 +4982,76 @@
     </row>
     <row r="34" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="66">
+      <c r="C34" s="103">
         <v>7</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="67"/>
-      <c r="AF34" s="67"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="67"/>
-      <c r="AI34" s="67"/>
-      <c r="AJ34" s="67"/>
-      <c r="AK34" s="67"/>
-      <c r="AL34" s="67"/>
-      <c r="AM34" s="67"/>
-      <c r="AN34" s="67"/>
-      <c r="AO34" s="67"/>
-      <c r="AP34" s="67"/>
-      <c r="AQ34" s="67"/>
-      <c r="AR34" s="67"/>
-      <c r="AS34" s="67"/>
-      <c r="AT34" s="67"/>
-      <c r="AU34" s="67"/>
-      <c r="AV34" s="67"/>
-      <c r="AW34" s="67"/>
-      <c r="AX34" s="67"/>
-      <c r="AY34" s="67"/>
-      <c r="AZ34" s="67"/>
-      <c r="BA34" s="67"/>
-      <c r="BB34" s="67"/>
-      <c r="BC34" s="67"/>
-      <c r="BD34" s="67"/>
-      <c r="BE34" s="67"/>
-      <c r="BF34" s="67"/>
-      <c r="BG34" s="67"/>
-      <c r="BH34" s="67"/>
-      <c r="BI34" s="67"/>
-      <c r="BJ34" s="69"/>
-      <c r="BK34" s="64"/>
-      <c r="BL34" s="65"/>
-      <c r="BM34" s="65"/>
-      <c r="BN34" s="65"/>
-      <c r="BO34" s="65"/>
-      <c r="BP34" s="65"/>
-      <c r="BQ34" s="65"/>
-      <c r="BR34" s="65"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="107"/>
+      <c r="X34" s="107"/>
+      <c r="Y34" s="107"/>
+      <c r="Z34" s="107"/>
+      <c r="AA34" s="107"/>
+      <c r="AB34" s="107"/>
+      <c r="AC34" s="107"/>
+      <c r="AD34" s="107"/>
+      <c r="AE34" s="105"/>
+      <c r="AF34" s="105"/>
+      <c r="AG34" s="105"/>
+      <c r="AH34" s="105"/>
+      <c r="AI34" s="105"/>
+      <c r="AJ34" s="105"/>
+      <c r="AK34" s="105"/>
+      <c r="AL34" s="105"/>
+      <c r="AM34" s="105"/>
+      <c r="AN34" s="105"/>
+      <c r="AO34" s="105"/>
+      <c r="AP34" s="105"/>
+      <c r="AQ34" s="105"/>
+      <c r="AR34" s="105"/>
+      <c r="AS34" s="105"/>
+      <c r="AT34" s="105"/>
+      <c r="AU34" s="105"/>
+      <c r="AV34" s="105"/>
+      <c r="AW34" s="105"/>
+      <c r="AX34" s="105"/>
+      <c r="AY34" s="105"/>
+      <c r="AZ34" s="105"/>
+      <c r="BA34" s="105"/>
+      <c r="BB34" s="105"/>
+      <c r="BC34" s="105"/>
+      <c r="BD34" s="105"/>
+      <c r="BE34" s="105"/>
+      <c r="BF34" s="105"/>
+      <c r="BG34" s="105"/>
+      <c r="BH34" s="105"/>
+      <c r="BI34" s="105"/>
+      <c r="BJ34" s="114"/>
+      <c r="BK34" s="112"/>
+      <c r="BL34" s="113"/>
+      <c r="BM34" s="113"/>
+      <c r="BN34" s="113"/>
+      <c r="BO34" s="113"/>
+      <c r="BP34" s="113"/>
+      <c r="BQ34" s="113"/>
+      <c r="BR34" s="113"/>
       <c r="BS34" s="46"/>
       <c r="BT34" s="46"/>
       <c r="BU34" s="46"/>
@@ -5071,76 +5071,76 @@
     </row>
     <row r="35" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="C35" s="66">
+      <c r="C35" s="103">
         <v>8</v>
       </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="67"/>
-      <c r="AF35" s="67"/>
-      <c r="AG35" s="67"/>
-      <c r="AH35" s="67"/>
-      <c r="AI35" s="67"/>
-      <c r="AJ35" s="67"/>
-      <c r="AK35" s="67"/>
-      <c r="AL35" s="67"/>
-      <c r="AM35" s="67"/>
-      <c r="AN35" s="67"/>
-      <c r="AO35" s="67"/>
-      <c r="AP35" s="67"/>
-      <c r="AQ35" s="67"/>
-      <c r="AR35" s="67"/>
-      <c r="AS35" s="67"/>
-      <c r="AT35" s="67"/>
-      <c r="AU35" s="67"/>
-      <c r="AV35" s="67"/>
-      <c r="AW35" s="67"/>
-      <c r="AX35" s="67"/>
-      <c r="AY35" s="67"/>
-      <c r="AZ35" s="67"/>
-      <c r="BA35" s="67"/>
-      <c r="BB35" s="67"/>
-      <c r="BC35" s="67"/>
-      <c r="BD35" s="67"/>
-      <c r="BE35" s="67"/>
-      <c r="BF35" s="67"/>
-      <c r="BG35" s="67"/>
-      <c r="BH35" s="67"/>
-      <c r="BI35" s="67"/>
-      <c r="BJ35" s="69"/>
-      <c r="BK35" s="64"/>
-      <c r="BL35" s="65"/>
-      <c r="BM35" s="65"/>
-      <c r="BN35" s="65"/>
-      <c r="BO35" s="65"/>
-      <c r="BP35" s="65"/>
-      <c r="BQ35" s="65"/>
-      <c r="BR35" s="65"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="107"/>
+      <c r="U35" s="107"/>
+      <c r="V35" s="107"/>
+      <c r="W35" s="107"/>
+      <c r="X35" s="107"/>
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="107"/>
+      <c r="AA35" s="107"/>
+      <c r="AB35" s="107"/>
+      <c r="AC35" s="107"/>
+      <c r="AD35" s="107"/>
+      <c r="AE35" s="105"/>
+      <c r="AF35" s="105"/>
+      <c r="AG35" s="105"/>
+      <c r="AH35" s="105"/>
+      <c r="AI35" s="105"/>
+      <c r="AJ35" s="105"/>
+      <c r="AK35" s="105"/>
+      <c r="AL35" s="105"/>
+      <c r="AM35" s="105"/>
+      <c r="AN35" s="105"/>
+      <c r="AO35" s="105"/>
+      <c r="AP35" s="105"/>
+      <c r="AQ35" s="105"/>
+      <c r="AR35" s="105"/>
+      <c r="AS35" s="105"/>
+      <c r="AT35" s="105"/>
+      <c r="AU35" s="105"/>
+      <c r="AV35" s="105"/>
+      <c r="AW35" s="105"/>
+      <c r="AX35" s="105"/>
+      <c r="AY35" s="105"/>
+      <c r="AZ35" s="105"/>
+      <c r="BA35" s="105"/>
+      <c r="BB35" s="105"/>
+      <c r="BC35" s="105"/>
+      <c r="BD35" s="105"/>
+      <c r="BE35" s="105"/>
+      <c r="BF35" s="105"/>
+      <c r="BG35" s="105"/>
+      <c r="BH35" s="105"/>
+      <c r="BI35" s="105"/>
+      <c r="BJ35" s="114"/>
+      <c r="BK35" s="112"/>
+      <c r="BL35" s="113"/>
+      <c r="BM35" s="113"/>
+      <c r="BN35" s="113"/>
+      <c r="BO35" s="113"/>
+      <c r="BP35" s="113"/>
+      <c r="BQ35" s="113"/>
+      <c r="BR35" s="113"/>
       <c r="BS35" s="46"/>
       <c r="BT35" s="46"/>
       <c r="BU35" s="46"/>
@@ -5160,76 +5160,76 @@
     </row>
     <row r="36" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="C36" s="66">
+      <c r="C36" s="103">
         <v>9</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="68"/>
-      <c r="AB36" s="68"/>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="68"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="67"/>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="67"/>
-      <c r="AO36" s="67"/>
-      <c r="AP36" s="67"/>
-      <c r="AQ36" s="67"/>
-      <c r="AR36" s="67"/>
-      <c r="AS36" s="67"/>
-      <c r="AT36" s="67"/>
-      <c r="AU36" s="67"/>
-      <c r="AV36" s="67"/>
-      <c r="AW36" s="67"/>
-      <c r="AX36" s="67"/>
-      <c r="AY36" s="67"/>
-      <c r="AZ36" s="67"/>
-      <c r="BA36" s="67"/>
-      <c r="BB36" s="67"/>
-      <c r="BC36" s="67"/>
-      <c r="BD36" s="67"/>
-      <c r="BE36" s="67"/>
-      <c r="BF36" s="67"/>
-      <c r="BG36" s="67"/>
-      <c r="BH36" s="67"/>
-      <c r="BI36" s="67"/>
-      <c r="BJ36" s="69"/>
-      <c r="BK36" s="64"/>
-      <c r="BL36" s="65"/>
-      <c r="BM36" s="65"/>
-      <c r="BN36" s="65"/>
-      <c r="BO36" s="65"/>
-      <c r="BP36" s="65"/>
-      <c r="BQ36" s="65"/>
-      <c r="BR36" s="65"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="107"/>
+      <c r="V36" s="107"/>
+      <c r="W36" s="107"/>
+      <c r="X36" s="107"/>
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="107"/>
+      <c r="AA36" s="107"/>
+      <c r="AB36" s="107"/>
+      <c r="AC36" s="107"/>
+      <c r="AD36" s="107"/>
+      <c r="AE36" s="105"/>
+      <c r="AF36" s="105"/>
+      <c r="AG36" s="105"/>
+      <c r="AH36" s="105"/>
+      <c r="AI36" s="105"/>
+      <c r="AJ36" s="105"/>
+      <c r="AK36" s="105"/>
+      <c r="AL36" s="105"/>
+      <c r="AM36" s="105"/>
+      <c r="AN36" s="105"/>
+      <c r="AO36" s="105"/>
+      <c r="AP36" s="105"/>
+      <c r="AQ36" s="105"/>
+      <c r="AR36" s="105"/>
+      <c r="AS36" s="105"/>
+      <c r="AT36" s="105"/>
+      <c r="AU36" s="105"/>
+      <c r="AV36" s="105"/>
+      <c r="AW36" s="105"/>
+      <c r="AX36" s="105"/>
+      <c r="AY36" s="105"/>
+      <c r="AZ36" s="105"/>
+      <c r="BA36" s="105"/>
+      <c r="BB36" s="105"/>
+      <c r="BC36" s="105"/>
+      <c r="BD36" s="105"/>
+      <c r="BE36" s="105"/>
+      <c r="BF36" s="105"/>
+      <c r="BG36" s="105"/>
+      <c r="BH36" s="105"/>
+      <c r="BI36" s="105"/>
+      <c r="BJ36" s="114"/>
+      <c r="BK36" s="112"/>
+      <c r="BL36" s="113"/>
+      <c r="BM36" s="113"/>
+      <c r="BN36" s="113"/>
+      <c r="BO36" s="113"/>
+      <c r="BP36" s="113"/>
+      <c r="BQ36" s="113"/>
+      <c r="BR36" s="113"/>
       <c r="BS36" s="46"/>
       <c r="BT36" s="46"/>
       <c r="BU36" s="46"/>
@@ -5250,76 +5250,76 @@
     <row r="37" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="66">
+      <c r="C37" s="103">
         <v>10</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="68"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68"/>
-      <c r="AE37" s="67"/>
-      <c r="AF37" s="67"/>
-      <c r="AG37" s="67"/>
-      <c r="AH37" s="67"/>
-      <c r="AI37" s="67"/>
-      <c r="AJ37" s="67"/>
-      <c r="AK37" s="67"/>
-      <c r="AL37" s="67"/>
-      <c r="AM37" s="67"/>
-      <c r="AN37" s="67"/>
-      <c r="AO37" s="67"/>
-      <c r="AP37" s="67"/>
-      <c r="AQ37" s="67"/>
-      <c r="AR37" s="67"/>
-      <c r="AS37" s="67"/>
-      <c r="AT37" s="67"/>
-      <c r="AU37" s="67"/>
-      <c r="AV37" s="67"/>
-      <c r="AW37" s="67"/>
-      <c r="AX37" s="67"/>
-      <c r="AY37" s="67"/>
-      <c r="AZ37" s="67"/>
-      <c r="BA37" s="67"/>
-      <c r="BB37" s="67"/>
-      <c r="BC37" s="67"/>
-      <c r="BD37" s="67"/>
-      <c r="BE37" s="67"/>
-      <c r="BF37" s="67"/>
-      <c r="BG37" s="67"/>
-      <c r="BH37" s="67"/>
-      <c r="BI37" s="67"/>
-      <c r="BJ37" s="69"/>
-      <c r="BK37" s="64"/>
-      <c r="BL37" s="65"/>
-      <c r="BM37" s="65"/>
-      <c r="BN37" s="65"/>
-      <c r="BO37" s="65"/>
-      <c r="BP37" s="65"/>
-      <c r="BQ37" s="65"/>
-      <c r="BR37" s="65"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="107"/>
+      <c r="W37" s="107"/>
+      <c r="X37" s="107"/>
+      <c r="Y37" s="107"/>
+      <c r="Z37" s="107"/>
+      <c r="AA37" s="107"/>
+      <c r="AB37" s="107"/>
+      <c r="AC37" s="107"/>
+      <c r="AD37" s="107"/>
+      <c r="AE37" s="105"/>
+      <c r="AF37" s="105"/>
+      <c r="AG37" s="105"/>
+      <c r="AH37" s="105"/>
+      <c r="AI37" s="105"/>
+      <c r="AJ37" s="105"/>
+      <c r="AK37" s="105"/>
+      <c r="AL37" s="105"/>
+      <c r="AM37" s="105"/>
+      <c r="AN37" s="105"/>
+      <c r="AO37" s="105"/>
+      <c r="AP37" s="105"/>
+      <c r="AQ37" s="105"/>
+      <c r="AR37" s="105"/>
+      <c r="AS37" s="105"/>
+      <c r="AT37" s="105"/>
+      <c r="AU37" s="105"/>
+      <c r="AV37" s="105"/>
+      <c r="AW37" s="105"/>
+      <c r="AX37" s="105"/>
+      <c r="AY37" s="105"/>
+      <c r="AZ37" s="105"/>
+      <c r="BA37" s="105"/>
+      <c r="BB37" s="105"/>
+      <c r="BC37" s="105"/>
+      <c r="BD37" s="105"/>
+      <c r="BE37" s="105"/>
+      <c r="BF37" s="105"/>
+      <c r="BG37" s="105"/>
+      <c r="BH37" s="105"/>
+      <c r="BI37" s="105"/>
+      <c r="BJ37" s="114"/>
+      <c r="BK37" s="112"/>
+      <c r="BL37" s="113"/>
+      <c r="BM37" s="113"/>
+      <c r="BN37" s="113"/>
+      <c r="BO37" s="113"/>
+      <c r="BP37" s="113"/>
+      <c r="BQ37" s="113"/>
+      <c r="BR37" s="113"/>
       <c r="BS37" s="46"/>
       <c r="BT37" s="46"/>
       <c r="BU37" s="46"/>
@@ -5932,38 +5932,54 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="BD26:BJ27"/>
-    <mergeCell ref="BK26:BV27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:I29"/>
-    <mergeCell ref="J28:N29"/>
-    <mergeCell ref="O28:AD29"/>
-    <mergeCell ref="AE28:BC29"/>
-    <mergeCell ref="BD28:BJ29"/>
-    <mergeCell ref="BK28:BV29"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="BK34:BR34"/>
+    <mergeCell ref="BK35:BR35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="O37:AD37"/>
+    <mergeCell ref="AE37:BC37"/>
+    <mergeCell ref="BD37:BJ37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="O36:AD36"/>
+    <mergeCell ref="AE36:BC36"/>
+    <mergeCell ref="BD36:BJ36"/>
+    <mergeCell ref="BK36:BR36"/>
+    <mergeCell ref="BK37:BR37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK30:BR31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:I31"/>
+    <mergeCell ref="J30:N31"/>
+    <mergeCell ref="O30:AD31"/>
+    <mergeCell ref="AE30:BC31"/>
+    <mergeCell ref="BD30:BJ31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK32:BR32"/>
     <mergeCell ref="BK33:BR33"/>
     <mergeCell ref="H21:BO21"/>
     <mergeCell ref="C25:D25"/>
@@ -5988,54 +6004,38 @@
     <mergeCell ref="J26:N27"/>
     <mergeCell ref="O26:AD27"/>
     <mergeCell ref="AE26:BC27"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK30:BR31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:I31"/>
-    <mergeCell ref="J30:N31"/>
-    <mergeCell ref="O30:AD31"/>
-    <mergeCell ref="AE30:BC31"/>
-    <mergeCell ref="BD30:BJ31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK32:BR32"/>
-    <mergeCell ref="BK34:BR34"/>
-    <mergeCell ref="BK35:BR35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="O37:AD37"/>
-    <mergeCell ref="AE37:BC37"/>
-    <mergeCell ref="BD37:BJ37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="O36:AD36"/>
-    <mergeCell ref="AE36:BC36"/>
-    <mergeCell ref="BD36:BJ36"/>
-    <mergeCell ref="BK36:BR36"/>
-    <mergeCell ref="BK37:BR37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BD26:BJ27"/>
+    <mergeCell ref="BK26:BV27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:I29"/>
+    <mergeCell ref="J28:N29"/>
+    <mergeCell ref="O28:AD29"/>
+    <mergeCell ref="AE28:BC29"/>
+    <mergeCell ref="BD28:BJ29"/>
+    <mergeCell ref="BK28:BV29"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -6106,247 +6106,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="131" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131" t="s">
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="131"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="131"/>
-      <c r="AT1" s="132" t="s">
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="132"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="132"/>
-      <c r="AX1" s="132"/>
-      <c r="AY1" s="132"/>
-      <c r="AZ1" s="132"/>
-      <c r="BA1" s="132"/>
-      <c r="BB1" s="132"/>
-      <c r="BC1" s="132"/>
-      <c r="BD1" s="132"/>
-      <c r="BE1" s="132"/>
-      <c r="BF1" s="132"/>
-      <c r="BG1" s="132"/>
-      <c r="BH1" s="132"/>
-      <c r="BI1" s="132"/>
-      <c r="BJ1" s="132"/>
-      <c r="BK1" s="132"/>
-      <c r="BL1" s="132"/>
-      <c r="BM1" s="132"/>
-      <c r="BN1" s="132"/>
-      <c r="BO1" s="132"/>
-      <c r="BP1" s="132"/>
-      <c r="BQ1" s="132"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="124"/>
+      <c r="BA1" s="124"/>
+      <c r="BB1" s="124"/>
+      <c r="BC1" s="124"/>
+      <c r="BD1" s="124"/>
+      <c r="BE1" s="124"/>
+      <c r="BF1" s="124"/>
+      <c r="BG1" s="124"/>
+      <c r="BH1" s="124"/>
+      <c r="BI1" s="124"/>
+      <c r="BJ1" s="124"/>
+      <c r="BK1" s="124"/>
+      <c r="BL1" s="124"/>
+      <c r="BM1" s="124"/>
+      <c r="BN1" s="124"/>
+      <c r="BO1" s="124"/>
+      <c r="BP1" s="124"/>
+      <c r="BQ1" s="124"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="122" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122" t="s">
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="122" t="s">
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="122"/>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="122"/>
-      <c r="BF2" s="122"/>
-      <c r="BG2" s="122"/>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="122"/>
-      <c r="BJ2" s="133" t="s">
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="125"/>
+      <c r="BG2" s="125"/>
+      <c r="BH2" s="125"/>
+      <c r="BI2" s="125"/>
+      <c r="BJ2" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="133"/>
-      <c r="BL2" s="133"/>
-      <c r="BM2" s="133"/>
-      <c r="BN2" s="133"/>
-      <c r="BO2" s="133"/>
-      <c r="BP2" s="133"/>
-      <c r="BQ2" s="133"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="134" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="134"/>
-      <c r="AS3" s="134"/>
-      <c r="AT3" s="135">
+      <c r="AL3" s="127"/>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="127"/>
+      <c r="AO3" s="127"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
+      <c r="AR3" s="127"/>
+      <c r="AS3" s="127"/>
+      <c r="AT3" s="128">
         <v>45510</v>
       </c>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="134" t="s">
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="134"/>
-      <c r="BD3" s="134"/>
-      <c r="BE3" s="134"/>
-      <c r="BF3" s="134"/>
-      <c r="BG3" s="134"/>
-      <c r="BH3" s="134"/>
-      <c r="BI3" s="134"/>
-      <c r="BJ3" s="136">
+      <c r="BC3" s="127"/>
+      <c r="BD3" s="127"/>
+      <c r="BE3" s="127"/>
+      <c r="BF3" s="127"/>
+      <c r="BG3" s="127"/>
+      <c r="BH3" s="127"/>
+      <c r="BI3" s="127"/>
+      <c r="BJ3" s="129">
         <v>45537</v>
       </c>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="136"/>
-      <c r="BQ3" s="136"/>
+      <c r="BK3" s="129"/>
+      <c r="BL3" s="129"/>
+      <c r="BM3" s="129"/>
+      <c r="BN3" s="129"/>
+      <c r="BO3" s="129"/>
+      <c r="BP3" s="129"/>
+      <c r="BQ3" s="129"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -6371,96 +6371,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="129" t="s">
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="129"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="129"/>
-      <c r="AH6" s="129"/>
-      <c r="AI6" s="129"/>
-      <c r="AJ6" s="129"/>
-      <c r="AK6" s="129"/>
-      <c r="AL6" s="129"/>
-      <c r="AM6" s="129"/>
-      <c r="AN6" s="129"/>
-      <c r="AO6" s="67" t="s">
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130"/>
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130"/>
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67" t="s">
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="67"/>
-      <c r="BA6" s="67"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="67"/>
-      <c r="BH6" s="67"/>
-      <c r="BI6" s="67"/>
-      <c r="BJ6" s="67"/>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="67"/>
-      <c r="BM6" s="67"/>
-      <c r="BN6" s="67"/>
-      <c r="BO6" s="67"/>
-      <c r="BP6" s="67"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="37" t="s">
         <v>87</v>
       </c>
@@ -6491,38 +6491,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67" t="s">
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="67"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
+      <c r="BJ7" s="105"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
+      <c r="BP7" s="105"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -6536,89 +6536,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="122" t="s">
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="64" t="s">
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="128"/>
-      <c r="BJ10" s="66" t="s">
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
+      <c r="AY10" s="113"/>
+      <c r="AZ10" s="113"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="113"/>
+      <c r="BC10" s="113"/>
+      <c r="BD10" s="113"/>
+      <c r="BE10" s="113"/>
+      <c r="BF10" s="113"/>
+      <c r="BG10" s="113"/>
+      <c r="BH10" s="113"/>
+      <c r="BI10" s="132"/>
+      <c r="BJ10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="66"/>
-      <c r="BP10" s="66"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="103"/>
+      <c r="BN10" s="103"/>
+      <c r="BO10" s="103"/>
+      <c r="BP10" s="103"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="37" t="s">
         <v>98</v>
       </c>
@@ -6634,11 +6634,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="39"/>
-      <c r="T11" s="125" t="s">
+      <c r="T11" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="125"/>
-      <c r="V11" s="126"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="135"/>
       <c r="W11" s="51" t="s">
         <v>119</v>
       </c>
@@ -6690,12 +6690,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="17" t="s">
         <v>120</v>
       </c>
@@ -6711,11 +6711,11 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="122" t="s">
+      <c r="T12" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
       <c r="W12" s="51"/>
       <c r="X12" s="52"/>
       <c r="Y12" s="52"/>
@@ -6764,12 +6764,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="17" t="s">
         <v>92</v>
       </c>
@@ -6785,11 +6785,11 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="122" t="s">
+      <c r="T13" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
       <c r="W13" s="51" t="s">
         <v>108</v>
       </c>
@@ -6840,12 +6840,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="17" t="s">
         <v>93</v>
       </c>
@@ -6861,11 +6861,11 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="122" t="s">
+      <c r="T14" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="122"/>
-      <c r="V14" s="122"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
       <c r="W14" s="51" t="s">
         <v>108</v>
       </c>
@@ -6927,88 +6927,88 @@
       <c r="AG16" s="16"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="122" t="s">
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122" t="s">
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="66" t="s">
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="66"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="66"/>
-      <c r="BA17" s="66"/>
-      <c r="BB17" s="66"/>
-      <c r="BC17" s="66"/>
-      <c r="BD17" s="66"/>
-      <c r="BE17" s="66"/>
-      <c r="BF17" s="66"/>
-      <c r="BG17" s="66"/>
-      <c r="BH17" s="66"/>
-      <c r="BI17" s="66"/>
-      <c r="BJ17" s="66" t="s">
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="103"/>
+      <c r="AH17" s="103"/>
+      <c r="AI17" s="103"/>
+      <c r="AJ17" s="103"/>
+      <c r="AK17" s="103"/>
+      <c r="AL17" s="103"/>
+      <c r="AM17" s="103"/>
+      <c r="AN17" s="103"/>
+      <c r="AO17" s="103"/>
+      <c r="AP17" s="103"/>
+      <c r="AQ17" s="103"/>
+      <c r="AR17" s="103"/>
+      <c r="AS17" s="103"/>
+      <c r="AT17" s="103"/>
+      <c r="AU17" s="103"/>
+      <c r="AV17" s="103"/>
+      <c r="AW17" s="103"/>
+      <c r="AX17" s="103"/>
+      <c r="AY17" s="103"/>
+      <c r="AZ17" s="103"/>
+      <c r="BA17" s="103"/>
+      <c r="BB17" s="103"/>
+      <c r="BC17" s="103"/>
+      <c r="BD17" s="103"/>
+      <c r="BE17" s="103"/>
+      <c r="BF17" s="103"/>
+      <c r="BG17" s="103"/>
+      <c r="BH17" s="103"/>
+      <c r="BI17" s="103"/>
+      <c r="BJ17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK17" s="66"/>
-      <c r="BL17" s="66"/>
-      <c r="BM17" s="66"/>
-      <c r="BN17" s="66"/>
-      <c r="BO17" s="66"/>
-      <c r="BP17" s="66"/>
+      <c r="BK17" s="103"/>
+      <c r="BL17" s="103"/>
+      <c r="BM17" s="103"/>
+      <c r="BN17" s="103"/>
+      <c r="BO17" s="103"/>
+      <c r="BP17" s="103"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="17" t="s">
         <v>106</v>
       </c>
@@ -7024,9 +7024,9 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
       <c r="W18" s="21" t="s">
         <v>107</v>
       </c>
@@ -7488,6 +7488,35 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W17:BI17"/>
+    <mergeCell ref="BJ17:BP17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -7502,35 +7531,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W17:BI17"/>
-    <mergeCell ref="BJ17:BP17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -7592,247 +7592,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="131" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131" t="s">
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="131"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="131"/>
-      <c r="AT1" s="132" t="s">
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="132"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="132"/>
-      <c r="AX1" s="132"/>
-      <c r="AY1" s="132"/>
-      <c r="AZ1" s="132"/>
-      <c r="BA1" s="132"/>
-      <c r="BB1" s="132"/>
-      <c r="BC1" s="132"/>
-      <c r="BD1" s="132"/>
-      <c r="BE1" s="132"/>
-      <c r="BF1" s="132"/>
-      <c r="BG1" s="132"/>
-      <c r="BH1" s="132"/>
-      <c r="BI1" s="132"/>
-      <c r="BJ1" s="132"/>
-      <c r="BK1" s="132"/>
-      <c r="BL1" s="132"/>
-      <c r="BM1" s="132"/>
-      <c r="BN1" s="132"/>
-      <c r="BO1" s="132"/>
-      <c r="BP1" s="132"/>
-      <c r="BQ1" s="132"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="124"/>
+      <c r="BA1" s="124"/>
+      <c r="BB1" s="124"/>
+      <c r="BC1" s="124"/>
+      <c r="BD1" s="124"/>
+      <c r="BE1" s="124"/>
+      <c r="BF1" s="124"/>
+      <c r="BG1" s="124"/>
+      <c r="BH1" s="124"/>
+      <c r="BI1" s="124"/>
+      <c r="BJ1" s="124"/>
+      <c r="BK1" s="124"/>
+      <c r="BL1" s="124"/>
+      <c r="BM1" s="124"/>
+      <c r="BN1" s="124"/>
+      <c r="BO1" s="124"/>
+      <c r="BP1" s="124"/>
+      <c r="BQ1" s="124"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="122" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122" t="s">
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="122" t="s">
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="122"/>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="122"/>
-      <c r="BF2" s="122"/>
-      <c r="BG2" s="122"/>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="122"/>
-      <c r="BJ2" s="133" t="s">
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="125"/>
+      <c r="BG2" s="125"/>
+      <c r="BH2" s="125"/>
+      <c r="BI2" s="125"/>
+      <c r="BJ2" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="133"/>
-      <c r="BL2" s="133"/>
-      <c r="BM2" s="133"/>
-      <c r="BN2" s="133"/>
-      <c r="BO2" s="133"/>
-      <c r="BP2" s="133"/>
-      <c r="BQ2" s="133"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="134" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="134"/>
-      <c r="AS3" s="134"/>
-      <c r="AT3" s="135">
+      <c r="AL3" s="127"/>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="127"/>
+      <c r="AO3" s="127"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
+      <c r="AR3" s="127"/>
+      <c r="AS3" s="127"/>
+      <c r="AT3" s="128">
         <v>45510</v>
       </c>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="134" t="s">
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="134"/>
-      <c r="BD3" s="134"/>
-      <c r="BE3" s="134"/>
-      <c r="BF3" s="134"/>
-      <c r="BG3" s="134"/>
-      <c r="BH3" s="134"/>
-      <c r="BI3" s="134"/>
-      <c r="BJ3" s="136">
+      <c r="BC3" s="127"/>
+      <c r="BD3" s="127"/>
+      <c r="BE3" s="127"/>
+      <c r="BF3" s="127"/>
+      <c r="BG3" s="127"/>
+      <c r="BH3" s="127"/>
+      <c r="BI3" s="127"/>
+      <c r="BJ3" s="129">
         <v>45518</v>
       </c>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="136"/>
-      <c r="BQ3" s="136"/>
+      <c r="BK3" s="129"/>
+      <c r="BL3" s="129"/>
+      <c r="BM3" s="129"/>
+      <c r="BN3" s="129"/>
+      <c r="BO3" s="129"/>
+      <c r="BP3" s="129"/>
+      <c r="BQ3" s="129"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -7857,96 +7857,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="129" t="s">
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="129"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="129"/>
-      <c r="AH6" s="129"/>
-      <c r="AI6" s="129"/>
-      <c r="AJ6" s="129"/>
-      <c r="AK6" s="129"/>
-      <c r="AL6" s="129"/>
-      <c r="AM6" s="129"/>
-      <c r="AN6" s="129"/>
-      <c r="AO6" s="67" t="s">
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130"/>
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130"/>
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67" t="s">
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="67"/>
-      <c r="BA6" s="67"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="67"/>
-      <c r="BH6" s="67"/>
-      <c r="BI6" s="67"/>
-      <c r="BJ6" s="67"/>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="67"/>
-      <c r="BM6" s="67"/>
-      <c r="BN6" s="67"/>
-      <c r="BO6" s="67"/>
-      <c r="BP6" s="67"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="17" t="s">
         <v>75</v>
       </c>
@@ -7977,38 +7977,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67" t="s">
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="67"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
+      <c r="BJ7" s="105"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
+      <c r="BP7" s="105"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -8022,88 +8022,88 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="122" t="s">
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="122"/>
+      <c r="U10" s="125"/>
       <c r="V10" s="137"/>
-      <c r="W10" s="64" t="s">
+      <c r="W10" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="128"/>
-      <c r="BJ10" s="66" t="s">
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
+      <c r="AY10" s="113"/>
+      <c r="AZ10" s="113"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="113"/>
+      <c r="BC10" s="113"/>
+      <c r="BD10" s="113"/>
+      <c r="BE10" s="113"/>
+      <c r="BF10" s="113"/>
+      <c r="BG10" s="113"/>
+      <c r="BH10" s="113"/>
+      <c r="BI10" s="132"/>
+      <c r="BJ10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="66"/>
-      <c r="BP10" s="66"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="103"/>
+      <c r="BN10" s="103"/>
+      <c r="BO10" s="103"/>
+      <c r="BP10" s="103"/>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="17" t="s">
         <v>99</v>
       </c>
@@ -8119,10 +8119,10 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="122" t="s">
+      <c r="T11" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="122"/>
+      <c r="U11" s="125"/>
       <c r="V11" s="137"/>
       <c r="W11" s="21" t="s">
         <v>117</v>
@@ -8174,12 +8174,12 @@
       <c r="BP11" s="24"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="17" t="s">
         <v>120</v>
       </c>
@@ -8195,10 +8195,10 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="122" t="s">
+      <c r="T12" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="122"/>
+      <c r="U12" s="125"/>
       <c r="V12" s="137"/>
       <c r="W12" s="21"/>
       <c r="X12" s="18"/>
@@ -8248,12 +8248,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="17" t="s">
         <v>102</v>
       </c>
@@ -8269,8 +8269,8 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
       <c r="V13" s="137"/>
       <c r="W13" s="21"/>
       <c r="X13" s="18"/>
@@ -8320,12 +8320,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="17" t="s">
         <v>95</v>
       </c>
@@ -8341,10 +8341,10 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="122" t="s">
+      <c r="T14" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="122"/>
+      <c r="U14" s="125"/>
       <c r="V14" s="137"/>
       <c r="W14" s="21" t="s">
         <v>118</v>
@@ -8396,12 +8396,12 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
       <c r="G15" s="17" t="s">
         <v>109</v>
       </c>
@@ -8417,8 +8417,8 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
       <c r="V15" s="137"/>
       <c r="W15" s="21"/>
       <c r="X15" s="18"/>
@@ -8468,12 +8468,12 @@
       <c r="BP15" s="24"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
       <c r="G16" s="17" t="s">
         <v>67</v>
       </c>
@@ -8489,10 +8489,10 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="122" t="s">
+      <c r="T16" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="122"/>
+      <c r="U16" s="125"/>
       <c r="V16" s="137"/>
       <c r="W16" s="21" t="s">
         <v>187</v>
@@ -8544,12 +8544,12 @@
       <c r="BP16" s="24"/>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
       <c r="G17" s="17" t="s">
         <v>92</v>
       </c>
@@ -8565,10 +8565,10 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="122" t="s">
+      <c r="T17" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="122"/>
+      <c r="U17" s="125"/>
       <c r="V17" s="137"/>
       <c r="W17" s="21" t="s">
         <v>108</v>
@@ -8620,12 +8620,12 @@
       <c r="BP17" s="24"/>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
       <c r="G18" s="17" t="s">
         <v>93</v>
       </c>
@@ -8641,10 +8641,10 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="122" t="s">
+      <c r="T18" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="122"/>
+      <c r="U18" s="125"/>
       <c r="V18" s="137"/>
       <c r="W18" s="21" t="s">
         <v>105</v>
@@ -8707,88 +8707,88 @@
       <c r="AG20" s="16"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="122" t="s">
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="122" t="s">
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="122"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="66" t="s">
+      <c r="U21" s="125"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
-      <c r="BA21" s="66"/>
-      <c r="BB21" s="66"/>
-      <c r="BC21" s="66"/>
-      <c r="BD21" s="66"/>
-      <c r="BE21" s="66"/>
-      <c r="BF21" s="66"/>
-      <c r="BG21" s="66"/>
-      <c r="BH21" s="66"/>
-      <c r="BI21" s="66"/>
-      <c r="BJ21" s="66" t="s">
+      <c r="X21" s="103"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="103"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="103"/>
+      <c r="AD21" s="103"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="103"/>
+      <c r="AG21" s="103"/>
+      <c r="AH21" s="103"/>
+      <c r="AI21" s="103"/>
+      <c r="AJ21" s="103"/>
+      <c r="AK21" s="103"/>
+      <c r="AL21" s="103"/>
+      <c r="AM21" s="103"/>
+      <c r="AN21" s="103"/>
+      <c r="AO21" s="103"/>
+      <c r="AP21" s="103"/>
+      <c r="AQ21" s="103"/>
+      <c r="AR21" s="103"/>
+      <c r="AS21" s="103"/>
+      <c r="AT21" s="103"/>
+      <c r="AU21" s="103"/>
+      <c r="AV21" s="103"/>
+      <c r="AW21" s="103"/>
+      <c r="AX21" s="103"/>
+      <c r="AY21" s="103"/>
+      <c r="AZ21" s="103"/>
+      <c r="BA21" s="103"/>
+      <c r="BB21" s="103"/>
+      <c r="BC21" s="103"/>
+      <c r="BD21" s="103"/>
+      <c r="BE21" s="103"/>
+      <c r="BF21" s="103"/>
+      <c r="BG21" s="103"/>
+      <c r="BH21" s="103"/>
+      <c r="BI21" s="103"/>
+      <c r="BJ21" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK21" s="66"/>
-      <c r="BL21" s="66"/>
-      <c r="BM21" s="66"/>
-      <c r="BN21" s="66"/>
-      <c r="BO21" s="66"/>
-      <c r="BP21" s="66"/>
+      <c r="BK21" s="103"/>
+      <c r="BL21" s="103"/>
+      <c r="BM21" s="103"/>
+      <c r="BN21" s="103"/>
+      <c r="BO21" s="103"/>
+      <c r="BP21" s="103"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
       <c r="G22" s="17" t="s">
         <v>106</v>
       </c>
@@ -8804,9 +8804,9 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="20"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="122"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
       <c r="W22" s="21" t="s">
         <v>66</v>
       </c>
@@ -9804,6 +9804,43 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="W21:BI21"/>
+    <mergeCell ref="BJ21:BP21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="W10:BI10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -9818,43 +9855,6 @@
     <mergeCell ref="I2:AJ3"/>
     <mergeCell ref="AK2:AS2"/>
     <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W21:BI21"/>
-    <mergeCell ref="BJ21:BP21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -9892,243 +9892,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="131" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131" t="s">
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="131"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="131"/>
-      <c r="AT1" s="132" t="s">
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="132"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="132"/>
-      <c r="AX1" s="132"/>
-      <c r="AY1" s="132"/>
-      <c r="AZ1" s="132"/>
-      <c r="BA1" s="132"/>
-      <c r="BB1" s="132"/>
-      <c r="BC1" s="132"/>
-      <c r="BD1" s="132"/>
-      <c r="BE1" s="132"/>
-      <c r="BF1" s="132"/>
-      <c r="BG1" s="132"/>
-      <c r="BH1" s="132"/>
-      <c r="BI1" s="132"/>
-      <c r="BJ1" s="132"/>
-      <c r="BK1" s="132"/>
-      <c r="BL1" s="132"/>
-      <c r="BM1" s="132"/>
-      <c r="BN1" s="132"/>
-      <c r="BO1" s="132"/>
-      <c r="BP1" s="132"/>
-      <c r="BQ1" s="132"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="124"/>
+      <c r="BA1" s="124"/>
+      <c r="BB1" s="124"/>
+      <c r="BC1" s="124"/>
+      <c r="BD1" s="124"/>
+      <c r="BE1" s="124"/>
+      <c r="BF1" s="124"/>
+      <c r="BG1" s="124"/>
+      <c r="BH1" s="124"/>
+      <c r="BI1" s="124"/>
+      <c r="BJ1" s="124"/>
+      <c r="BK1" s="124"/>
+      <c r="BL1" s="124"/>
+      <c r="BM1" s="124"/>
+      <c r="BN1" s="124"/>
+      <c r="BO1" s="124"/>
+      <c r="BP1" s="124"/>
+      <c r="BQ1" s="124"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="122" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122" t="s">
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="122" t="s">
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="122"/>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="122"/>
-      <c r="BF2" s="122"/>
-      <c r="BG2" s="122"/>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="122"/>
-      <c r="BJ2" s="133"/>
-      <c r="BK2" s="133"/>
-      <c r="BL2" s="133"/>
-      <c r="BM2" s="133"/>
-      <c r="BN2" s="133"/>
-      <c r="BO2" s="133"/>
-      <c r="BP2" s="133"/>
-      <c r="BQ2" s="133"/>
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="125"/>
+      <c r="BG2" s="125"/>
+      <c r="BH2" s="125"/>
+      <c r="BI2" s="125"/>
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="134" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="134"/>
-      <c r="AS3" s="134"/>
-      <c r="AT3" s="135">
+      <c r="AL3" s="127"/>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="127"/>
+      <c r="AO3" s="127"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
+      <c r="AR3" s="127"/>
+      <c r="AS3" s="127"/>
+      <c r="AT3" s="128">
         <v>45510</v>
       </c>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="134" t="s">
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="134"/>
-      <c r="BD3" s="134"/>
-      <c r="BE3" s="134"/>
-      <c r="BF3" s="134"/>
-      <c r="BG3" s="134"/>
-      <c r="BH3" s="134"/>
-      <c r="BI3" s="134"/>
-      <c r="BJ3" s="136"/>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="136"/>
-      <c r="BQ3" s="136"/>
+      <c r="BC3" s="127"/>
+      <c r="BD3" s="127"/>
+      <c r="BE3" s="127"/>
+      <c r="BF3" s="127"/>
+      <c r="BG3" s="127"/>
+      <c r="BH3" s="127"/>
+      <c r="BI3" s="127"/>
+      <c r="BJ3" s="129"/>
+      <c r="BK3" s="129"/>
+      <c r="BL3" s="129"/>
+      <c r="BM3" s="129"/>
+      <c r="BN3" s="129"/>
+      <c r="BO3" s="129"/>
+      <c r="BP3" s="129"/>
+      <c r="BQ3" s="129"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -10153,96 +10153,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="129" t="s">
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="129"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="129"/>
-      <c r="AH6" s="129"/>
-      <c r="AI6" s="129"/>
-      <c r="AJ6" s="129"/>
-      <c r="AK6" s="129"/>
-      <c r="AL6" s="129"/>
-      <c r="AM6" s="129"/>
-      <c r="AN6" s="129"/>
-      <c r="AO6" s="67" t="s">
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130"/>
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130"/>
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67" t="s">
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="67"/>
-      <c r="BA6" s="67"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="67"/>
-      <c r="BH6" s="67"/>
-      <c r="BI6" s="67"/>
-      <c r="BJ6" s="67"/>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="67"/>
-      <c r="BM6" s="67"/>
-      <c r="BN6" s="67"/>
-      <c r="BO6" s="67"/>
-      <c r="BP6" s="67"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="17" t="s">
         <v>80</v>
       </c>
@@ -10273,38 +10273,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67" t="s">
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="67"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
+      <c r="BJ7" s="105"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
+      <c r="BP7" s="105"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -10318,89 +10318,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="122" t="s">
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="64" t="s">
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="128"/>
-      <c r="BJ10" s="66" t="s">
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
+      <c r="AY10" s="113"/>
+      <c r="AZ10" s="113"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="113"/>
+      <c r="BC10" s="113"/>
+      <c r="BD10" s="113"/>
+      <c r="BE10" s="113"/>
+      <c r="BF10" s="113"/>
+      <c r="BG10" s="113"/>
+      <c r="BH10" s="113"/>
+      <c r="BI10" s="132"/>
+      <c r="BJ10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="66"/>
-      <c r="BP10" s="66"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="103"/>
+      <c r="BN10" s="103"/>
+      <c r="BO10" s="103"/>
+      <c r="BP10" s="103"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="17" t="s">
         <v>120</v>
       </c>
@@ -10416,11 +10416,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="122" t="s">
+      <c r="T11" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
       <c r="W11" s="51" t="s">
         <v>121</v>
       </c>
@@ -10472,12 +10472,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="13" t="s">
         <v>153</v>
       </c>
@@ -10493,9 +10493,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
+      <c r="T12" s="125"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
       <c r="W12" s="51" t="s">
         <v>155</v>
       </c>
@@ -10567,9 +10567,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
       <c r="W13" s="51" t="s">
         <v>156</v>
       </c>
@@ -10620,10 +10620,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -10637,9 +10637,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="122"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
       <c r="W14" s="51"/>
       <c r="X14" s="52"/>
       <c r="Y14" s="52"/>
@@ -10689,10 +10689,10 @@
     </row>
     <row r="15" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -10706,9 +10706,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="122"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
       <c r="W15" s="51"/>
       <c r="X15" s="52"/>
       <c r="Y15" s="52"/>
@@ -10759,10 +10759,10 @@
     </row>
     <row r="16" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -10776,9 +10776,9 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="122"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
       <c r="W16" s="51"/>
       <c r="X16" s="52"/>
       <c r="Y16" s="52"/>
@@ -10842,90 +10842,90 @@
     </row>
     <row r="19" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="122" t="s">
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="122"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="122" t="s">
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="122"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="66" t="s">
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="66"/>
-      <c r="BA19" s="66"/>
-      <c r="BB19" s="66"/>
-      <c r="BC19" s="66"/>
-      <c r="BD19" s="66"/>
-      <c r="BE19" s="66"/>
-      <c r="BF19" s="66"/>
-      <c r="BG19" s="66"/>
-      <c r="BH19" s="66"/>
-      <c r="BI19" s="66"/>
-      <c r="BJ19" s="66" t="s">
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="103"/>
+      <c r="AC19" s="103"/>
+      <c r="AD19" s="103"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="103"/>
+      <c r="AG19" s="103"/>
+      <c r="AH19" s="103"/>
+      <c r="AI19" s="103"/>
+      <c r="AJ19" s="103"/>
+      <c r="AK19" s="103"/>
+      <c r="AL19" s="103"/>
+      <c r="AM19" s="103"/>
+      <c r="AN19" s="103"/>
+      <c r="AO19" s="103"/>
+      <c r="AP19" s="103"/>
+      <c r="AQ19" s="103"/>
+      <c r="AR19" s="103"/>
+      <c r="AS19" s="103"/>
+      <c r="AT19" s="103"/>
+      <c r="AU19" s="103"/>
+      <c r="AV19" s="103"/>
+      <c r="AW19" s="103"/>
+      <c r="AX19" s="103"/>
+      <c r="AY19" s="103"/>
+      <c r="AZ19" s="103"/>
+      <c r="BA19" s="103"/>
+      <c r="BB19" s="103"/>
+      <c r="BC19" s="103"/>
+      <c r="BD19" s="103"/>
+      <c r="BE19" s="103"/>
+      <c r="BF19" s="103"/>
+      <c r="BG19" s="103"/>
+      <c r="BH19" s="103"/>
+      <c r="BI19" s="103"/>
+      <c r="BJ19" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK19" s="66"/>
-      <c r="BL19" s="66"/>
-      <c r="BM19" s="66"/>
-      <c r="BN19" s="66"/>
-      <c r="BO19" s="66"/>
-      <c r="BP19" s="66"/>
+      <c r="BK19" s="103"/>
+      <c r="BL19" s="103"/>
+      <c r="BM19" s="103"/>
+      <c r="BN19" s="103"/>
+      <c r="BO19" s="103"/>
+      <c r="BP19" s="103"/>
       <c r="BQ19" s="15"/>
     </row>
     <row r="20" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
       <c r="G20" s="17" t="s">
         <v>116</v>
       </c>
@@ -10941,9 +10941,9 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="20"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
       <c r="W20" s="21" t="s">
         <v>122</v>
       </c>
@@ -12645,6 +12645,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="W19:BI19"/>
+    <mergeCell ref="BJ19:BP19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -12659,39 +12692,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W19:BI19"/>
-    <mergeCell ref="BJ19:BP19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -12746,7 +12746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B574E2-07CB-4199-BBD8-E24441EA0CFC}">
   <dimension ref="B2:AW17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4702CFB3-DCA7-44BA-816F-59432AE28A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860673E7-2A2D-4CCF-8547-57973C9CA252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8590" yWindow="320" windowWidth="10870" windowHeight="8900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1150" yWindow="30" windowWidth="13340" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_交通費申請マッパー" sheetId="10" r:id="rId1"/>
@@ -2316,35 +2316,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2382,23 +2427,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2418,77 +2490,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2497,9 +2519,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2512,25 +2531,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2764,249 +2764,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="100" t="s">
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="107"/>
+      <c r="AS1" s="107"/>
+      <c r="AT1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="100"/>
-      <c r="AV1" s="100"/>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="100"/>
-      <c r="AY1" s="100"/>
-      <c r="AZ1" s="100"/>
-      <c r="BA1" s="100"/>
-      <c r="BB1" s="100"/>
-      <c r="BC1" s="100"/>
-      <c r="BD1" s="100"/>
-      <c r="BE1" s="100"/>
-      <c r="BF1" s="100"/>
-      <c r="BG1" s="100"/>
-      <c r="BH1" s="100"/>
-      <c r="BI1" s="100"/>
-      <c r="BJ1" s="100"/>
-      <c r="BK1" s="100"/>
-      <c r="BL1" s="100"/>
-      <c r="BM1" s="100"/>
-      <c r="BN1" s="100"/>
-      <c r="BO1" s="100"/>
-      <c r="BP1" s="100"/>
-      <c r="BQ1" s="100"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="108"/>
+      <c r="BA1" s="108"/>
+      <c r="BB1" s="108"/>
+      <c r="BC1" s="108"/>
+      <c r="BD1" s="108"/>
+      <c r="BE1" s="108"/>
+      <c r="BF1" s="108"/>
+      <c r="BG1" s="108"/>
+      <c r="BH1" s="108"/>
+      <c r="BI1" s="108"/>
+      <c r="BJ1" s="108"/>
+      <c r="BK1" s="108"/>
+      <c r="BL1" s="108"/>
+      <c r="BM1" s="108"/>
+      <c r="BN1" s="108"/>
+      <c r="BO1" s="108"/>
+      <c r="BP1" s="108"/>
+      <c r="BQ1" s="108"/>
       <c r="BR1" s="4"/>
     </row>
     <row r="2" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="103" t="s">
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="103"/>
-      <c r="AM2" s="103"/>
-      <c r="AN2" s="103"/>
-      <c r="AO2" s="103"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="103"/>
-      <c r="AR2" s="103"/>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="103" t="s">
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="103"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="103" t="s">
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="103"/>
-      <c r="BD2" s="103"/>
-      <c r="BE2" s="103"/>
-      <c r="BF2" s="103"/>
-      <c r="BG2" s="103"/>
-      <c r="BH2" s="103"/>
-      <c r="BI2" s="103"/>
-      <c r="BJ2" s="104" t="s">
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="66"/>
+      <c r="BH2" s="66"/>
+      <c r="BI2" s="66"/>
+      <c r="BJ2" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="104"/>
-      <c r="BL2" s="104"/>
-      <c r="BM2" s="104"/>
-      <c r="BN2" s="104"/>
-      <c r="BO2" s="104"/>
-      <c r="BP2" s="104"/>
-      <c r="BQ2" s="104"/>
+      <c r="BK2" s="111"/>
+      <c r="BL2" s="111"/>
+      <c r="BM2" s="111"/>
+      <c r="BN2" s="111"/>
+      <c r="BO2" s="111"/>
+      <c r="BP2" s="111"/>
+      <c r="BQ2" s="111"/>
       <c r="BR2" s="4"/>
     </row>
     <row r="3" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="108" t="s">
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="110"/>
+      <c r="AK3" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108"/>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="109">
+      <c r="AL3" s="102"/>
+      <c r="AM3" s="102"/>
+      <c r="AN3" s="102"/>
+      <c r="AO3" s="102"/>
+      <c r="AP3" s="102"/>
+      <c r="AQ3" s="102"/>
+      <c r="AR3" s="102"/>
+      <c r="AS3" s="102"/>
+      <c r="AT3" s="103">
         <v>45503</v>
       </c>
-      <c r="AU3" s="109"/>
-      <c r="AV3" s="109"/>
-      <c r="AW3" s="109"/>
-      <c r="AX3" s="109"/>
-      <c r="AY3" s="109"/>
-      <c r="AZ3" s="109"/>
-      <c r="BA3" s="109"/>
-      <c r="BB3" s="108" t="s">
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="108"/>
-      <c r="BD3" s="108"/>
-      <c r="BE3" s="108"/>
-      <c r="BF3" s="108"/>
-      <c r="BG3" s="108"/>
-      <c r="BH3" s="108"/>
-      <c r="BI3" s="108"/>
-      <c r="BJ3" s="110">
+      <c r="BC3" s="102"/>
+      <c r="BD3" s="102"/>
+      <c r="BE3" s="102"/>
+      <c r="BF3" s="102"/>
+      <c r="BG3" s="102"/>
+      <c r="BH3" s="102"/>
+      <c r="BI3" s="102"/>
+      <c r="BJ3" s="104">
         <v>45548</v>
       </c>
-      <c r="BK3" s="110"/>
-      <c r="BL3" s="110"/>
-      <c r="BM3" s="110"/>
-      <c r="BN3" s="110"/>
-      <c r="BO3" s="110"/>
-      <c r="BP3" s="110"/>
-      <c r="BQ3" s="110"/>
+      <c r="BK3" s="104"/>
+      <c r="BL3" s="104"/>
+      <c r="BM3" s="104"/>
+      <c r="BN3" s="104"/>
+      <c r="BO3" s="104"/>
+      <c r="BP3" s="104"/>
+      <c r="BQ3" s="104"/>
       <c r="BR3" s="4"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
@@ -3074,215 +3074,215 @@
     </row>
     <row r="6" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111"/>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="111"/>
-      <c r="AK6" s="111"/>
-      <c r="AL6" s="111"/>
-      <c r="AM6" s="111"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111"/>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111"/>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111"/>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="111"/>
-      <c r="BB6" s="111"/>
-      <c r="BC6" s="111"/>
-      <c r="BD6" s="111"/>
-      <c r="BE6" s="111"/>
-      <c r="BF6" s="111"/>
-      <c r="BG6" s="111"/>
-      <c r="BH6" s="111"/>
-      <c r="BI6" s="111"/>
-      <c r="BJ6" s="111"/>
-      <c r="BK6" s="111"/>
-      <c r="BL6" s="111"/>
-      <c r="BM6" s="111"/>
-      <c r="BN6" s="111"/>
-      <c r="BO6" s="111"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="105"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="105"/>
+      <c r="AN6" s="105"/>
+      <c r="AO6" s="105"/>
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
       <c r="BP6"/>
       <c r="BR6" s="4"/>
     </row>
     <row r="7" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="111"/>
-      <c r="AG7" s="111"/>
-      <c r="AH7" s="111"/>
-      <c r="AI7" s="111"/>
-      <c r="AJ7" s="111"/>
-      <c r="AK7" s="111"/>
-      <c r="AL7" s="111"/>
-      <c r="AM7" s="111"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="111"/>
-      <c r="AP7" s="111"/>
-      <c r="AQ7" s="111"/>
-      <c r="AR7" s="111"/>
-      <c r="AS7" s="111"/>
-      <c r="AT7" s="111"/>
-      <c r="AU7" s="111"/>
-      <c r="AV7" s="111"/>
-      <c r="AW7" s="111"/>
-      <c r="AX7" s="111"/>
-      <c r="AY7" s="111"/>
-      <c r="AZ7" s="111"/>
-      <c r="BA7" s="111"/>
-      <c r="BB7" s="111"/>
-      <c r="BC7" s="111"/>
-      <c r="BD7" s="111"/>
-      <c r="BE7" s="111"/>
-      <c r="BF7" s="111"/>
-      <c r="BG7" s="111"/>
-      <c r="BH7" s="111"/>
-      <c r="BI7" s="111"/>
-      <c r="BJ7" s="111"/>
-      <c r="BK7" s="111"/>
-      <c r="BL7" s="111"/>
-      <c r="BM7" s="111"/>
-      <c r="BN7" s="111"/>
-      <c r="BO7" s="111"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="105"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
+      <c r="BJ7" s="105"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
       <c r="BP7"/>
       <c r="BR7" s="4"/>
     </row>
     <row r="8" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="105"/>
-      <c r="AP8" s="105"/>
-      <c r="AQ8" s="105"/>
-      <c r="AR8" s="105"/>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="105"/>
-      <c r="AW8" s="105"/>
-      <c r="AX8" s="105"/>
-      <c r="AY8" s="105"/>
-      <c r="AZ8" s="105"/>
-      <c r="BA8" s="105"/>
-      <c r="BB8" s="105"/>
-      <c r="BC8" s="105"/>
-      <c r="BD8" s="105"/>
-      <c r="BE8" s="105"/>
-      <c r="BF8" s="105"/>
-      <c r="BG8" s="105"/>
-      <c r="BH8" s="105"/>
-      <c r="BI8" s="105"/>
-      <c r="BJ8" s="105"/>
-      <c r="BK8" s="105"/>
-      <c r="BL8" s="105"/>
-      <c r="BM8" s="105"/>
-      <c r="BN8" s="105"/>
-      <c r="BO8" s="105"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="67"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="67"/>
+      <c r="BE8" s="67"/>
+      <c r="BF8" s="67"/>
+      <c r="BG8" s="67"/>
+      <c r="BH8" s="67"/>
+      <c r="BI8" s="67"/>
+      <c r="BJ8" s="67"/>
+      <c r="BK8" s="67"/>
+      <c r="BL8" s="67"/>
+      <c r="BM8" s="67"/>
+      <c r="BN8" s="67"/>
+      <c r="BO8" s="67"/>
       <c r="BP8"/>
       <c r="BR8" s="4"/>
     </row>
@@ -3335,787 +3335,787 @@
     </row>
     <row r="11" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="103" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="105" t="s">
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="105"/>
-      <c r="AA11" s="105"/>
-      <c r="AB11" s="105"/>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="105"/>
-      <c r="AF11" s="105"/>
-      <c r="AG11" s="105"/>
-      <c r="AH11" s="105"/>
-      <c r="AI11" s="106" t="s">
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="106"/>
-      <c r="AL11" s="106"/>
-      <c r="AM11" s="106"/>
-      <c r="AN11" s="106"/>
-      <c r="AO11" s="106"/>
-      <c r="AP11" s="106"/>
-      <c r="AQ11" s="106"/>
-      <c r="AR11" s="106"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="106"/>
-      <c r="AU11" s="106"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="106"/>
-      <c r="AY11" s="106"/>
-      <c r="AZ11" s="106"/>
-      <c r="BA11" s="106"/>
-      <c r="BB11" s="106"/>
-      <c r="BC11" s="106"/>
-      <c r="BD11" s="106"/>
-      <c r="BE11" s="106"/>
-      <c r="BF11" s="106"/>
-      <c r="BG11" s="106"/>
-      <c r="BH11" s="106"/>
-      <c r="BI11" s="106"/>
-      <c r="BJ11" s="106"/>
-      <c r="BK11" s="106"/>
-      <c r="BL11" s="106"/>
-      <c r="BM11" s="106"/>
-      <c r="BN11" s="106"/>
-      <c r="BO11" s="106"/>
+      <c r="AJ11" s="101"/>
+      <c r="AK11" s="101"/>
+      <c r="AL11" s="101"/>
+      <c r="AM11" s="101"/>
+      <c r="AN11" s="101"/>
+      <c r="AO11" s="101"/>
+      <c r="AP11" s="101"/>
+      <c r="AQ11" s="101"/>
+      <c r="AR11" s="101"/>
+      <c r="AS11" s="101"/>
+      <c r="AT11" s="101"/>
+      <c r="AU11" s="101"/>
+      <c r="AV11" s="101"/>
+      <c r="AW11" s="101"/>
+      <c r="AX11" s="101"/>
+      <c r="AY11" s="101"/>
+      <c r="AZ11" s="101"/>
+      <c r="BA11" s="101"/>
+      <c r="BB11" s="101"/>
+      <c r="BC11" s="101"/>
+      <c r="BD11" s="101"/>
+      <c r="BE11" s="101"/>
+      <c r="BF11" s="101"/>
+      <c r="BG11" s="101"/>
+      <c r="BH11" s="101"/>
+      <c r="BI11" s="101"/>
+      <c r="BJ11" s="101"/>
+      <c r="BK11" s="101"/>
+      <c r="BL11" s="101"/>
+      <c r="BM11" s="101"/>
+      <c r="BN11" s="101"/>
+      <c r="BO11" s="101"/>
       <c r="BP11"/>
       <c r="BR11" s="4"/>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="107"/>
-      <c r="AH12" s="107"/>
-      <c r="AI12" s="107"/>
-      <c r="AJ12" s="107"/>
-      <c r="AK12" s="107"/>
-      <c r="AL12" s="107"/>
-      <c r="AM12" s="107"/>
-      <c r="AN12" s="107"/>
-      <c r="AO12" s="107"/>
-      <c r="AP12" s="107"/>
-      <c r="AQ12" s="107"/>
-      <c r="AR12" s="107"/>
-      <c r="AS12" s="107"/>
-      <c r="AT12" s="107"/>
-      <c r="AU12" s="107"/>
-      <c r="AV12" s="107"/>
-      <c r="AW12" s="107"/>
-      <c r="AX12" s="107"/>
-      <c r="AY12" s="107"/>
-      <c r="AZ12" s="107"/>
-      <c r="BA12" s="107"/>
-      <c r="BB12" s="107"/>
-      <c r="BC12" s="107"/>
-      <c r="BD12" s="107"/>
-      <c r="BE12" s="107"/>
-      <c r="BF12" s="107"/>
-      <c r="BG12" s="107"/>
-      <c r="BH12" s="107"/>
-      <c r="BI12" s="107"/>
-      <c r="BJ12" s="107"/>
-      <c r="BK12" s="107"/>
-      <c r="BL12" s="107"/>
-      <c r="BM12" s="107"/>
-      <c r="BN12" s="107"/>
-      <c r="BO12" s="107"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="68"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="68"/>
+      <c r="AO12" s="68"/>
+      <c r="AP12" s="68"/>
+      <c r="AQ12" s="68"/>
+      <c r="AR12" s="68"/>
+      <c r="AS12" s="68"/>
+      <c r="AT12" s="68"/>
+      <c r="AU12" s="68"/>
+      <c r="AV12" s="68"/>
+      <c r="AW12" s="68"/>
+      <c r="AX12" s="68"/>
+      <c r="AY12" s="68"/>
+      <c r="AZ12" s="68"/>
+      <c r="BA12" s="68"/>
+      <c r="BB12" s="68"/>
+      <c r="BC12" s="68"/>
+      <c r="BD12" s="68"/>
+      <c r="BE12" s="68"/>
+      <c r="BF12" s="68"/>
+      <c r="BG12" s="68"/>
+      <c r="BH12" s="68"/>
+      <c r="BI12" s="68"/>
+      <c r="BJ12" s="68"/>
+      <c r="BK12" s="68"/>
+      <c r="BL12" s="68"/>
+      <c r="BM12" s="68"/>
+      <c r="BN12" s="68"/>
+      <c r="BO12" s="68"/>
       <c r="BP12"/>
       <c r="BR12" s="4"/>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="107"/>
-      <c r="AJ13" s="107"/>
-      <c r="AK13" s="107"/>
-      <c r="AL13" s="107"/>
-      <c r="AM13" s="107"/>
-      <c r="AN13" s="107"/>
-      <c r="AO13" s="107"/>
-      <c r="AP13" s="107"/>
-      <c r="AQ13" s="107"/>
-      <c r="AR13" s="107"/>
-      <c r="AS13" s="107"/>
-      <c r="AT13" s="107"/>
-      <c r="AU13" s="107"/>
-      <c r="AV13" s="107"/>
-      <c r="AW13" s="107"/>
-      <c r="AX13" s="107"/>
-      <c r="AY13" s="107"/>
-      <c r="AZ13" s="107"/>
-      <c r="BA13" s="107"/>
-      <c r="BB13" s="107"/>
-      <c r="BC13" s="107"/>
-      <c r="BD13" s="107"/>
-      <c r="BE13" s="107"/>
-      <c r="BF13" s="107"/>
-      <c r="BG13" s="107"/>
-      <c r="BH13" s="107"/>
-      <c r="BI13" s="107"/>
-      <c r="BJ13" s="107"/>
-      <c r="BK13" s="107"/>
-      <c r="BL13" s="107"/>
-      <c r="BM13" s="107"/>
-      <c r="BN13" s="107"/>
-      <c r="BO13" s="107"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="68"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="68"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="68"/>
+      <c r="BC13" s="68"/>
+      <c r="BD13" s="68"/>
+      <c r="BE13" s="68"/>
+      <c r="BF13" s="68"/>
+      <c r="BG13" s="68"/>
+      <c r="BH13" s="68"/>
+      <c r="BI13" s="68"/>
+      <c r="BJ13" s="68"/>
+      <c r="BK13" s="68"/>
+      <c r="BL13" s="68"/>
+      <c r="BM13" s="68"/>
+      <c r="BN13" s="68"/>
+      <c r="BO13" s="68"/>
       <c r="BP13"/>
       <c r="BR13" s="4"/>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="115" t="s">
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="115"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="115"/>
-      <c r="Z14" s="115"/>
-      <c r="AA14" s="115"/>
-      <c r="AB14" s="115"/>
-      <c r="AC14" s="115"/>
-      <c r="AD14" s="115"/>
-      <c r="AE14" s="115"/>
-      <c r="AF14" s="115"/>
-      <c r="AG14" s="115"/>
-      <c r="AH14" s="115"/>
-      <c r="AI14" s="115"/>
-      <c r="AJ14" s="115"/>
-      <c r="AK14" s="115"/>
-      <c r="AL14" s="115"/>
-      <c r="AM14" s="115"/>
-      <c r="AN14" s="115"/>
-      <c r="AO14" s="115"/>
-      <c r="AP14" s="115"/>
-      <c r="AQ14" s="115"/>
-      <c r="AR14" s="115"/>
-      <c r="AS14" s="115"/>
-      <c r="AT14" s="115"/>
-      <c r="AU14" s="115"/>
-      <c r="AV14" s="115"/>
-      <c r="AW14" s="115"/>
-      <c r="AX14" s="115"/>
-      <c r="AY14" s="115"/>
-      <c r="AZ14" s="115"/>
-      <c r="BA14" s="115"/>
-      <c r="BB14" s="115"/>
-      <c r="BC14" s="115"/>
-      <c r="BD14" s="115"/>
-      <c r="BE14" s="115"/>
-      <c r="BF14" s="115"/>
-      <c r="BG14" s="115"/>
-      <c r="BH14" s="115"/>
-      <c r="BI14" s="115"/>
-      <c r="BJ14" s="115"/>
-      <c r="BK14" s="115"/>
-      <c r="BL14" s="115"/>
-      <c r="BM14" s="115"/>
-      <c r="BN14" s="115"/>
-      <c r="BO14" s="115"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="86"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="86"/>
+      <c r="AO14" s="86"/>
+      <c r="AP14" s="86"/>
+      <c r="AQ14" s="86"/>
+      <c r="AR14" s="86"/>
+      <c r="AS14" s="86"/>
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="86"/>
+      <c r="AV14" s="86"/>
+      <c r="AW14" s="86"/>
+      <c r="AX14" s="86"/>
+      <c r="AY14" s="86"/>
+      <c r="AZ14" s="86"/>
+      <c r="BA14" s="86"/>
+      <c r="BB14" s="86"/>
+      <c r="BC14" s="86"/>
+      <c r="BD14" s="86"/>
+      <c r="BE14" s="86"/>
+      <c r="BF14" s="86"/>
+      <c r="BG14" s="86"/>
+      <c r="BH14" s="86"/>
+      <c r="BI14" s="86"/>
+      <c r="BJ14" s="86"/>
+      <c r="BK14" s="86"/>
+      <c r="BL14" s="86"/>
+      <c r="BM14" s="86"/>
+      <c r="BN14" s="86"/>
+      <c r="BO14" s="86"/>
       <c r="BP14"/>
       <c r="BR14" s="4"/>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="107"/>
-      <c r="AG15" s="107"/>
-      <c r="AH15" s="107"/>
-      <c r="AI15" s="107"/>
-      <c r="AJ15" s="107"/>
-      <c r="AK15" s="107"/>
-      <c r="AL15" s="107"/>
-      <c r="AM15" s="107"/>
-      <c r="AN15" s="107"/>
-      <c r="AO15" s="107"/>
-      <c r="AP15" s="107"/>
-      <c r="AQ15" s="107"/>
-      <c r="AR15" s="107"/>
-      <c r="AS15" s="107"/>
-      <c r="AT15" s="107"/>
-      <c r="AU15" s="107"/>
-      <c r="AV15" s="107"/>
-      <c r="AW15" s="107"/>
-      <c r="AX15" s="107"/>
-      <c r="AY15" s="107"/>
-      <c r="AZ15" s="107"/>
-      <c r="BA15" s="107"/>
-      <c r="BB15" s="107"/>
-      <c r="BC15" s="107"/>
-      <c r="BD15" s="107"/>
-      <c r="BE15" s="107"/>
-      <c r="BF15" s="107"/>
-      <c r="BG15" s="107"/>
-      <c r="BH15" s="107"/>
-      <c r="BI15" s="107"/>
-      <c r="BJ15" s="107"/>
-      <c r="BK15" s="107"/>
-      <c r="BL15" s="107"/>
-      <c r="BM15" s="107"/>
-      <c r="BN15" s="107"/>
-      <c r="BO15" s="107"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="68"/>
+      <c r="AS15" s="68"/>
+      <c r="AT15" s="68"/>
+      <c r="AU15" s="68"/>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="68"/>
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="68"/>
+      <c r="BC15" s="68"/>
+      <c r="BD15" s="68"/>
+      <c r="BE15" s="68"/>
+      <c r="BF15" s="68"/>
+      <c r="BG15" s="68"/>
+      <c r="BH15" s="68"/>
+      <c r="BI15" s="68"/>
+      <c r="BJ15" s="68"/>
+      <c r="BK15" s="68"/>
+      <c r="BL15" s="68"/>
+      <c r="BM15" s="68"/>
+      <c r="BN15" s="68"/>
+      <c r="BO15" s="68"/>
       <c r="BP15"/>
       <c r="BR15" s="4"/>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="107"/>
-      <c r="AG16" s="107"/>
-      <c r="AH16" s="107"/>
-      <c r="AI16" s="107"/>
-      <c r="AJ16" s="107"/>
-      <c r="AK16" s="107"/>
-      <c r="AL16" s="107"/>
-      <c r="AM16" s="107"/>
-      <c r="AN16" s="107"/>
-      <c r="AO16" s="107"/>
-      <c r="AP16" s="107"/>
-      <c r="AQ16" s="107"/>
-      <c r="AR16" s="107"/>
-      <c r="AS16" s="107"/>
-      <c r="AT16" s="107"/>
-      <c r="AU16" s="107"/>
-      <c r="AV16" s="107"/>
-      <c r="AW16" s="107"/>
-      <c r="AX16" s="107"/>
-      <c r="AY16" s="107"/>
-      <c r="AZ16" s="107"/>
-      <c r="BA16" s="107"/>
-      <c r="BB16" s="107"/>
-      <c r="BC16" s="107"/>
-      <c r="BD16" s="107"/>
-      <c r="BE16" s="107"/>
-      <c r="BF16" s="107"/>
-      <c r="BG16" s="107"/>
-      <c r="BH16" s="107"/>
-      <c r="BI16" s="107"/>
-      <c r="BJ16" s="107"/>
-      <c r="BK16" s="107"/>
-      <c r="BL16" s="107"/>
-      <c r="BM16" s="107"/>
-      <c r="BN16" s="107"/>
-      <c r="BO16" s="107"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="68"/>
+      <c r="AL16" s="68"/>
+      <c r="AM16" s="68"/>
+      <c r="AN16" s="68"/>
+      <c r="AO16" s="68"/>
+      <c r="AP16" s="68"/>
+      <c r="AQ16" s="68"/>
+      <c r="AR16" s="68"/>
+      <c r="AS16" s="68"/>
+      <c r="AT16" s="68"/>
+      <c r="AU16" s="68"/>
+      <c r="AV16" s="68"/>
+      <c r="AW16" s="68"/>
+      <c r="AX16" s="68"/>
+      <c r="AY16" s="68"/>
+      <c r="AZ16" s="68"/>
+      <c r="BA16" s="68"/>
+      <c r="BB16" s="68"/>
+      <c r="BC16" s="68"/>
+      <c r="BD16" s="68"/>
+      <c r="BE16" s="68"/>
+      <c r="BF16" s="68"/>
+      <c r="BG16" s="68"/>
+      <c r="BH16" s="68"/>
+      <c r="BI16" s="68"/>
+      <c r="BJ16" s="68"/>
+      <c r="BK16" s="68"/>
+      <c r="BL16" s="68"/>
+      <c r="BM16" s="68"/>
+      <c r="BN16" s="68"/>
+      <c r="BO16" s="68"/>
       <c r="BP16"/>
       <c r="BR16" s="4"/>
     </row>
     <row r="17" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="107"/>
-      <c r="AH17" s="107"/>
-      <c r="AI17" s="107"/>
-      <c r="AJ17" s="107"/>
-      <c r="AK17" s="107"/>
-      <c r="AL17" s="107"/>
-      <c r="AM17" s="107"/>
-      <c r="AN17" s="107"/>
-      <c r="AO17" s="107"/>
-      <c r="AP17" s="107"/>
-      <c r="AQ17" s="107"/>
-      <c r="AR17" s="107"/>
-      <c r="AS17" s="107"/>
-      <c r="AT17" s="107"/>
-      <c r="AU17" s="107"/>
-      <c r="AV17" s="107"/>
-      <c r="AW17" s="107"/>
-      <c r="AX17" s="107"/>
-      <c r="AY17" s="107"/>
-      <c r="AZ17" s="107"/>
-      <c r="BA17" s="107"/>
-      <c r="BB17" s="107"/>
-      <c r="BC17" s="107"/>
-      <c r="BD17" s="107"/>
-      <c r="BE17" s="107"/>
-      <c r="BF17" s="107"/>
-      <c r="BG17" s="107"/>
-      <c r="BH17" s="107"/>
-      <c r="BI17" s="107"/>
-      <c r="BJ17" s="107"/>
-      <c r="BK17" s="107"/>
-      <c r="BL17" s="107"/>
-      <c r="BM17" s="107"/>
-      <c r="BN17" s="107"/>
-      <c r="BO17" s="107"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="68"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="68"/>
+      <c r="AK17" s="68"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="68"/>
+      <c r="AN17" s="68"/>
+      <c r="AO17" s="68"/>
+      <c r="AP17" s="68"/>
+      <c r="AQ17" s="68"/>
+      <c r="AR17" s="68"/>
+      <c r="AS17" s="68"/>
+      <c r="AT17" s="68"/>
+      <c r="AU17" s="68"/>
+      <c r="AV17" s="68"/>
+      <c r="AW17" s="68"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="68"/>
+      <c r="AZ17" s="68"/>
+      <c r="BA17" s="68"/>
+      <c r="BB17" s="68"/>
+      <c r="BC17" s="68"/>
+      <c r="BD17" s="68"/>
+      <c r="BE17" s="68"/>
+      <c r="BF17" s="68"/>
+      <c r="BG17" s="68"/>
+      <c r="BH17" s="68"/>
+      <c r="BI17" s="68"/>
+      <c r="BJ17" s="68"/>
+      <c r="BK17" s="68"/>
+      <c r="BL17" s="68"/>
+      <c r="BM17" s="68"/>
+      <c r="BN17" s="68"/>
+      <c r="BO17" s="68"/>
       <c r="BP17"/>
       <c r="BR17" s="4"/>
     </row>
     <row r="18" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="107"/>
-      <c r="AJ18" s="107"/>
-      <c r="AK18" s="107"/>
-      <c r="AL18" s="107"/>
-      <c r="AM18" s="107"/>
-      <c r="AN18" s="107"/>
-      <c r="AO18" s="107"/>
-      <c r="AP18" s="107"/>
-      <c r="AQ18" s="107"/>
-      <c r="AR18" s="107"/>
-      <c r="AS18" s="107"/>
-      <c r="AT18" s="107"/>
-      <c r="AU18" s="107"/>
-      <c r="AV18" s="107"/>
-      <c r="AW18" s="107"/>
-      <c r="AX18" s="107"/>
-      <c r="AY18" s="107"/>
-      <c r="AZ18" s="107"/>
-      <c r="BA18" s="107"/>
-      <c r="BB18" s="107"/>
-      <c r="BC18" s="107"/>
-      <c r="BD18" s="107"/>
-      <c r="BE18" s="107"/>
-      <c r="BF18" s="107"/>
-      <c r="BG18" s="107"/>
-      <c r="BH18" s="107"/>
-      <c r="BI18" s="107"/>
-      <c r="BJ18" s="107"/>
-      <c r="BK18" s="107"/>
-      <c r="BL18" s="107"/>
-      <c r="BM18" s="107"/>
-      <c r="BN18" s="107"/>
-      <c r="BO18" s="107"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="68"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="68"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="68"/>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="68"/>
+      <c r="AP18" s="68"/>
+      <c r="AQ18" s="68"/>
+      <c r="AR18" s="68"/>
+      <c r="AS18" s="68"/>
+      <c r="AT18" s="68"/>
+      <c r="AU18" s="68"/>
+      <c r="AV18" s="68"/>
+      <c r="AW18" s="68"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="68"/>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="68"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="68"/>
+      <c r="BD18" s="68"/>
+      <c r="BE18" s="68"/>
+      <c r="BF18" s="68"/>
+      <c r="BG18" s="68"/>
+      <c r="BH18" s="68"/>
+      <c r="BI18" s="68"/>
+      <c r="BJ18" s="68"/>
+      <c r="BK18" s="68"/>
+      <c r="BL18" s="68"/>
+      <c r="BM18" s="68"/>
+      <c r="BN18" s="68"/>
+      <c r="BO18" s="68"/>
       <c r="BP18"/>
       <c r="BR18" s="4"/>
     </row>
     <row r="19" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="107"/>
-      <c r="AF19" s="107"/>
-      <c r="AG19" s="107"/>
-      <c r="AH19" s="107"/>
-      <c r="AI19" s="107"/>
-      <c r="AJ19" s="107"/>
-      <c r="AK19" s="107"/>
-      <c r="AL19" s="107"/>
-      <c r="AM19" s="107"/>
-      <c r="AN19" s="107"/>
-      <c r="AO19" s="107"/>
-      <c r="AP19" s="107"/>
-      <c r="AQ19" s="107"/>
-      <c r="AR19" s="107"/>
-      <c r="AS19" s="107"/>
-      <c r="AT19" s="107"/>
-      <c r="AU19" s="107"/>
-      <c r="AV19" s="107"/>
-      <c r="AW19" s="107"/>
-      <c r="AX19" s="107"/>
-      <c r="AY19" s="107"/>
-      <c r="AZ19" s="107"/>
-      <c r="BA19" s="107"/>
-      <c r="BB19" s="107"/>
-      <c r="BC19" s="107"/>
-      <c r="BD19" s="107"/>
-      <c r="BE19" s="107"/>
-      <c r="BF19" s="107"/>
-      <c r="BG19" s="107"/>
-      <c r="BH19" s="107"/>
-      <c r="BI19" s="107"/>
-      <c r="BJ19" s="107"/>
-      <c r="BK19" s="107"/>
-      <c r="BL19" s="107"/>
-      <c r="BM19" s="107"/>
-      <c r="BN19" s="107"/>
-      <c r="BO19" s="107"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="68"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="68"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
+      <c r="AN19" s="68"/>
+      <c r="AO19" s="68"/>
+      <c r="AP19" s="68"/>
+      <c r="AQ19" s="68"/>
+      <c r="AR19" s="68"/>
+      <c r="AS19" s="68"/>
+      <c r="AT19" s="68"/>
+      <c r="AU19" s="68"/>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="68"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
+      <c r="BB19" s="68"/>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="68"/>
+      <c r="BJ19" s="68"/>
+      <c r="BK19" s="68"/>
+      <c r="BL19" s="68"/>
+      <c r="BM19" s="68"/>
+      <c r="BN19" s="68"/>
+      <c r="BO19" s="68"/>
       <c r="BP19"/>
       <c r="BR19" s="4"/>
     </row>
     <row r="20" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="107"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="107"/>
-      <c r="AF20" s="107"/>
-      <c r="AG20" s="107"/>
-      <c r="AH20" s="107"/>
-      <c r="AI20" s="107"/>
-      <c r="AJ20" s="107"/>
-      <c r="AK20" s="107"/>
-      <c r="AL20" s="107"/>
-      <c r="AM20" s="107"/>
-      <c r="AN20" s="107"/>
-      <c r="AO20" s="107"/>
-      <c r="AP20" s="107"/>
-      <c r="AQ20" s="107"/>
-      <c r="AR20" s="107"/>
-      <c r="AS20" s="107"/>
-      <c r="AT20" s="107"/>
-      <c r="AU20" s="107"/>
-      <c r="AV20" s="107"/>
-      <c r="AW20" s="107"/>
-      <c r="AX20" s="107"/>
-      <c r="AY20" s="107"/>
-      <c r="AZ20" s="107"/>
-      <c r="BA20" s="107"/>
-      <c r="BB20" s="107"/>
-      <c r="BC20" s="107"/>
-      <c r="BD20" s="107"/>
-      <c r="BE20" s="107"/>
-      <c r="BF20" s="107"/>
-      <c r="BG20" s="107"/>
-      <c r="BH20" s="107"/>
-      <c r="BI20" s="107"/>
-      <c r="BJ20" s="107"/>
-      <c r="BK20" s="107"/>
-      <c r="BL20" s="107"/>
-      <c r="BM20" s="107"/>
-      <c r="BN20" s="107"/>
-      <c r="BO20" s="107"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="68"/>
+      <c r="AN20" s="68"/>
+      <c r="AO20" s="68"/>
+      <c r="AP20" s="68"/>
+      <c r="AQ20" s="68"/>
+      <c r="AR20" s="68"/>
+      <c r="AS20" s="68"/>
+      <c r="AT20" s="68"/>
+      <c r="AU20" s="68"/>
+      <c r="AV20" s="68"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="68"/>
+      <c r="AZ20" s="68"/>
+      <c r="BA20" s="68"/>
+      <c r="BB20" s="68"/>
+      <c r="BC20" s="68"/>
+      <c r="BD20" s="68"/>
+      <c r="BE20" s="68"/>
+      <c r="BF20" s="68"/>
+      <c r="BG20" s="68"/>
+      <c r="BH20" s="68"/>
+      <c r="BI20" s="68"/>
+      <c r="BJ20" s="68"/>
+      <c r="BK20" s="68"/>
+      <c r="BL20" s="68"/>
+      <c r="BM20" s="68"/>
+      <c r="BN20" s="68"/>
+      <c r="BO20" s="68"/>
       <c r="BP20"/>
       <c r="BR20" s="4"/>
     </row>
     <row r="21" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="107"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="107"/>
-      <c r="AH21" s="107"/>
-      <c r="AI21" s="107"/>
-      <c r="AJ21" s="107"/>
-      <c r="AK21" s="107"/>
-      <c r="AL21" s="107"/>
-      <c r="AM21" s="107"/>
-      <c r="AN21" s="107"/>
-      <c r="AO21" s="107"/>
-      <c r="AP21" s="107"/>
-      <c r="AQ21" s="107"/>
-      <c r="AR21" s="107"/>
-      <c r="AS21" s="107"/>
-      <c r="AT21" s="107"/>
-      <c r="AU21" s="107"/>
-      <c r="AV21" s="107"/>
-      <c r="AW21" s="107"/>
-      <c r="AX21" s="107"/>
-      <c r="AY21" s="107"/>
-      <c r="AZ21" s="107"/>
-      <c r="BA21" s="107"/>
-      <c r="BB21" s="107"/>
-      <c r="BC21" s="107"/>
-      <c r="BD21" s="107"/>
-      <c r="BE21" s="107"/>
-      <c r="BF21" s="107"/>
-      <c r="BG21" s="107"/>
-      <c r="BH21" s="107"/>
-      <c r="BI21" s="107"/>
-      <c r="BJ21" s="107"/>
-      <c r="BK21" s="107"/>
-      <c r="BL21" s="107"/>
-      <c r="BM21" s="107"/>
-      <c r="BN21" s="107"/>
-      <c r="BO21" s="107"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="68"/>
+      <c r="AK21" s="68"/>
+      <c r="AL21" s="68"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="68"/>
+      <c r="AO21" s="68"/>
+      <c r="AP21" s="68"/>
+      <c r="AQ21" s="68"/>
+      <c r="AR21" s="68"/>
+      <c r="AS21" s="68"/>
+      <c r="AT21" s="68"/>
+      <c r="AU21" s="68"/>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="68"/>
+      <c r="AX21" s="68"/>
+      <c r="AY21" s="68"/>
+      <c r="AZ21" s="68"/>
+      <c r="BA21" s="68"/>
+      <c r="BB21" s="68"/>
+      <c r="BC21" s="68"/>
+      <c r="BD21" s="68"/>
+      <c r="BE21" s="68"/>
+      <c r="BF21" s="68"/>
+      <c r="BG21" s="68"/>
+      <c r="BH21" s="68"/>
+      <c r="BI21" s="68"/>
+      <c r="BJ21" s="68"/>
+      <c r="BK21" s="68"/>
+      <c r="BL21" s="68"/>
+      <c r="BM21" s="68"/>
+      <c r="BN21" s="68"/>
+      <c r="BO21" s="68"/>
       <c r="BP21"/>
       <c r="BR21" s="4"/>
     </row>
@@ -4145,88 +4145,88 @@
     </row>
     <row r="25" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103" t="s">
+      <c r="D25" s="66"/>
+      <c r="E25" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103" t="s">
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="107" t="s">
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="107"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="105" t="s">
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="105"/>
-      <c r="AG25" s="105"/>
-      <c r="AH25" s="105"/>
-      <c r="AI25" s="105"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="105"/>
-      <c r="AM25" s="105"/>
-      <c r="AN25" s="105"/>
-      <c r="AO25" s="105"/>
-      <c r="AP25" s="105"/>
-      <c r="AQ25" s="105"/>
-      <c r="AR25" s="105"/>
-      <c r="AS25" s="105"/>
-      <c r="AT25" s="105"/>
-      <c r="AU25" s="105"/>
-      <c r="AV25" s="105"/>
-      <c r="AW25" s="105"/>
-      <c r="AX25" s="105"/>
-      <c r="AY25" s="105"/>
-      <c r="AZ25" s="105"/>
-      <c r="BA25" s="105"/>
-      <c r="BB25" s="105"/>
-      <c r="BC25" s="105"/>
-      <c r="BD25" s="105" t="s">
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="67"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="67"/>
+      <c r="AM25" s="67"/>
+      <c r="AN25" s="67"/>
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="67"/>
+      <c r="AQ25" s="67"/>
+      <c r="AR25" s="67"/>
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="67"/>
+      <c r="AU25" s="67"/>
+      <c r="AV25" s="67"/>
+      <c r="AW25" s="67"/>
+      <c r="AX25" s="67"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="67"/>
+      <c r="BB25" s="67"/>
+      <c r="BC25" s="67"/>
+      <c r="BD25" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="105"/>
-      <c r="BF25" s="105"/>
-      <c r="BG25" s="105"/>
-      <c r="BH25" s="105"/>
-      <c r="BI25" s="105"/>
-      <c r="BJ25" s="114"/>
-      <c r="BK25" s="116" t="s">
+      <c r="BE25" s="67"/>
+      <c r="BF25" s="67"/>
+      <c r="BG25" s="67"/>
+      <c r="BH25" s="67"/>
+      <c r="BI25" s="67"/>
+      <c r="BJ25" s="69"/>
+      <c r="BK25" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="117"/>
-      <c r="BM25" s="117"/>
-      <c r="BN25" s="117"/>
-      <c r="BO25" s="117"/>
-      <c r="BP25" s="117"/>
-      <c r="BQ25" s="117"/>
-      <c r="BR25" s="117"/>
+      <c r="BL25" s="88"/>
+      <c r="BM25" s="88"/>
+      <c r="BN25" s="88"/>
+      <c r="BO25" s="88"/>
+      <c r="BP25" s="88"/>
+      <c r="BQ25" s="88"/>
+      <c r="BR25" s="88"/>
       <c r="BS25" s="46"/>
       <c r="BT25" s="46"/>
       <c r="BU25" s="46"/>
@@ -4246,90 +4246,90 @@
     </row>
     <row r="26" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="64">
+      <c r="C26" s="74">
         <v>1</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="74" t="s">
+      <c r="D26" s="75"/>
+      <c r="E26" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="74" t="s">
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="75"/>
-      <c r="AD26" s="76"/>
-      <c r="AE26" s="86" t="s">
+      <c r="P26" s="90"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="91"/>
+      <c r="AE26" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="87"/>
-      <c r="AM26" s="87"/>
-      <c r="AN26" s="87"/>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="87"/>
-      <c r="AQ26" s="87"/>
-      <c r="AR26" s="87"/>
-      <c r="AS26" s="87"/>
-      <c r="AT26" s="87"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87"/>
-      <c r="AX26" s="87"/>
-      <c r="AY26" s="87"/>
-      <c r="AZ26" s="87"/>
-      <c r="BA26" s="87"/>
-      <c r="BB26" s="87"/>
-      <c r="BC26" s="88"/>
-      <c r="BD26" s="64" t="s">
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="79"/>
+      <c r="AM26" s="79"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="79"/>
+      <c r="AP26" s="79"/>
+      <c r="AQ26" s="79"/>
+      <c r="AR26" s="79"/>
+      <c r="AS26" s="79"/>
+      <c r="AT26" s="79"/>
+      <c r="AU26" s="79"/>
+      <c r="AV26" s="79"/>
+      <c r="AW26" s="79"/>
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="79"/>
+      <c r="AZ26" s="79"/>
+      <c r="BA26" s="79"/>
+      <c r="BB26" s="79"/>
+      <c r="BC26" s="80"/>
+      <c r="BD26" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="65"/>
-      <c r="BF26" s="65"/>
-      <c r="BG26" s="65"/>
-      <c r="BH26" s="65"/>
-      <c r="BI26" s="65"/>
-      <c r="BJ26" s="65"/>
-      <c r="BK26" s="68" t="s">
+      <c r="BE26" s="84"/>
+      <c r="BF26" s="84"/>
+      <c r="BG26" s="84"/>
+      <c r="BH26" s="84"/>
+      <c r="BI26" s="84"/>
+      <c r="BJ26" s="84"/>
+      <c r="BK26" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="BL26" s="69"/>
-      <c r="BM26" s="69"/>
-      <c r="BN26" s="69"/>
-      <c r="BO26" s="69"/>
-      <c r="BP26" s="69"/>
-      <c r="BQ26" s="69"/>
-      <c r="BR26" s="69"/>
-      <c r="BS26" s="69"/>
-      <c r="BT26" s="69"/>
-      <c r="BU26" s="69"/>
-      <c r="BV26" s="70"/>
+      <c r="BL26" s="113"/>
+      <c r="BM26" s="113"/>
+      <c r="BN26" s="113"/>
+      <c r="BO26" s="113"/>
+      <c r="BP26" s="113"/>
+      <c r="BQ26" s="113"/>
+      <c r="BR26" s="113"/>
+      <c r="BS26" s="113"/>
+      <c r="BT26" s="113"/>
+      <c r="BU26" s="113"/>
+      <c r="BV26" s="114"/>
       <c r="AML26" s="2"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -4345,78 +4345,78 @@
     </row>
     <row r="27" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="89"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="90"/>
-      <c r="AM27" s="90"/>
-      <c r="AN27" s="90"/>
-      <c r="AO27" s="90"/>
-      <c r="AP27" s="90"/>
-      <c r="AQ27" s="90"/>
-      <c r="AR27" s="90"/>
-      <c r="AS27" s="90"/>
-      <c r="AT27" s="90"/>
-      <c r="AU27" s="90"/>
-      <c r="AV27" s="90"/>
-      <c r="AW27" s="90"/>
-      <c r="AX27" s="90"/>
-      <c r="AY27" s="90"/>
-      <c r="AZ27" s="90"/>
-      <c r="BA27" s="90"/>
-      <c r="BB27" s="90"/>
-      <c r="BC27" s="91"/>
-      <c r="BD27" s="66"/>
-      <c r="BE27" s="67"/>
-      <c r="BF27" s="67"/>
-      <c r="BG27" s="67"/>
-      <c r="BH27" s="67"/>
-      <c r="BI27" s="67"/>
-      <c r="BJ27" s="67"/>
-      <c r="BK27" s="71"/>
-      <c r="BL27" s="69"/>
-      <c r="BM27" s="69"/>
-      <c r="BN27" s="69"/>
-      <c r="BO27" s="69"/>
-      <c r="BP27" s="69"/>
-      <c r="BQ27" s="69"/>
-      <c r="BR27" s="69"/>
-      <c r="BS27" s="69"/>
-      <c r="BT27" s="69"/>
-      <c r="BU27" s="69"/>
-      <c r="BV27" s="70"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="94"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="82"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="82"/>
+      <c r="AS27" s="82"/>
+      <c r="AT27" s="82"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="82"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="82"/>
+      <c r="BB27" s="82"/>
+      <c r="BC27" s="83"/>
+      <c r="BD27" s="76"/>
+      <c r="BE27" s="85"/>
+      <c r="BF27" s="85"/>
+      <c r="BG27" s="85"/>
+      <c r="BH27" s="85"/>
+      <c r="BI27" s="85"/>
+      <c r="BJ27" s="85"/>
+      <c r="BK27" s="115"/>
+      <c r="BL27" s="113"/>
+      <c r="BM27" s="113"/>
+      <c r="BN27" s="113"/>
+      <c r="BO27" s="113"/>
+      <c r="BP27" s="113"/>
+      <c r="BQ27" s="113"/>
+      <c r="BR27" s="113"/>
+      <c r="BS27" s="113"/>
+      <c r="BT27" s="113"/>
+      <c r="BU27" s="113"/>
+      <c r="BV27" s="114"/>
       <c r="AML27" s="2"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -4432,90 +4432,90 @@
     </row>
     <row r="28" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="64">
+      <c r="C28" s="74">
         <v>2</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="74" t="s">
+      <c r="D28" s="75"/>
+      <c r="E28" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="74" t="s">
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="75"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="75"/>
-      <c r="X28" s="75"/>
-      <c r="Y28" s="75"/>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="86" t="s">
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="91"/>
+      <c r="AE28" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="87"/>
-      <c r="AL28" s="87"/>
-      <c r="AM28" s="87"/>
-      <c r="AN28" s="87"/>
-      <c r="AO28" s="87"/>
-      <c r="AP28" s="87"/>
-      <c r="AQ28" s="87"/>
-      <c r="AR28" s="87"/>
-      <c r="AS28" s="87"/>
-      <c r="AT28" s="87"/>
-      <c r="AU28" s="87"/>
-      <c r="AV28" s="87"/>
-      <c r="AW28" s="87"/>
-      <c r="AX28" s="87"/>
-      <c r="AY28" s="87"/>
-      <c r="AZ28" s="87"/>
-      <c r="BA28" s="87"/>
-      <c r="BB28" s="87"/>
-      <c r="BC28" s="88"/>
-      <c r="BD28" s="64" t="s">
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="79"/>
+      <c r="AM28" s="79"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="79"/>
+      <c r="AP28" s="79"/>
+      <c r="AQ28" s="79"/>
+      <c r="AR28" s="79"/>
+      <c r="AS28" s="79"/>
+      <c r="AT28" s="79"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="79"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="79"/>
+      <c r="AZ28" s="79"/>
+      <c r="BA28" s="79"/>
+      <c r="BB28" s="79"/>
+      <c r="BC28" s="80"/>
+      <c r="BD28" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="BE28" s="65"/>
-      <c r="BF28" s="65"/>
-      <c r="BG28" s="65"/>
-      <c r="BH28" s="65"/>
-      <c r="BI28" s="65"/>
-      <c r="BJ28" s="72"/>
-      <c r="BK28" s="92" t="s">
+      <c r="BE28" s="84"/>
+      <c r="BF28" s="84"/>
+      <c r="BG28" s="84"/>
+      <c r="BH28" s="84"/>
+      <c r="BI28" s="84"/>
+      <c r="BJ28" s="75"/>
+      <c r="BK28" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="BL28" s="93"/>
-      <c r="BM28" s="93"/>
-      <c r="BN28" s="93"/>
-      <c r="BO28" s="93"/>
-      <c r="BP28" s="93"/>
-      <c r="BQ28" s="93"/>
-      <c r="BR28" s="93"/>
-      <c r="BS28" s="93"/>
-      <c r="BT28" s="93"/>
-      <c r="BU28" s="93"/>
-      <c r="BV28" s="94"/>
+      <c r="BL28" s="117"/>
+      <c r="BM28" s="117"/>
+      <c r="BN28" s="117"/>
+      <c r="BO28" s="117"/>
+      <c r="BP28" s="117"/>
+      <c r="BQ28" s="117"/>
+      <c r="BR28" s="117"/>
+      <c r="BS28" s="117"/>
+      <c r="BT28" s="117"/>
+      <c r="BU28" s="117"/>
+      <c r="BV28" s="118"/>
       <c r="AML28" s="2"/>
       <c r="AMM28"/>
       <c r="AMN28"/>
@@ -4531,78 +4531,78 @@
     </row>
     <row r="29" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="89"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
-      <c r="AI29" s="90"/>
-      <c r="AJ29" s="90"/>
-      <c r="AK29" s="90"/>
-      <c r="AL29" s="90"/>
-      <c r="AM29" s="90"/>
-      <c r="AN29" s="90"/>
-      <c r="AO29" s="90"/>
-      <c r="AP29" s="90"/>
-      <c r="AQ29" s="90"/>
-      <c r="AR29" s="90"/>
-      <c r="AS29" s="90"/>
-      <c r="AT29" s="90"/>
-      <c r="AU29" s="90"/>
-      <c r="AV29" s="90"/>
-      <c r="AW29" s="90"/>
-      <c r="AX29" s="90"/>
-      <c r="AY29" s="90"/>
-      <c r="AZ29" s="90"/>
-      <c r="BA29" s="90"/>
-      <c r="BB29" s="90"/>
-      <c r="BC29" s="91"/>
-      <c r="BD29" s="66"/>
-      <c r="BE29" s="67"/>
-      <c r="BF29" s="67"/>
-      <c r="BG29" s="67"/>
-      <c r="BH29" s="67"/>
-      <c r="BI29" s="67"/>
-      <c r="BJ29" s="73"/>
-      <c r="BK29" s="95"/>
-      <c r="BL29" s="96"/>
-      <c r="BM29" s="96"/>
-      <c r="BN29" s="96"/>
-      <c r="BO29" s="96"/>
-      <c r="BP29" s="96"/>
-      <c r="BQ29" s="96"/>
-      <c r="BR29" s="96"/>
-      <c r="BS29" s="96"/>
-      <c r="BT29" s="96"/>
-      <c r="BU29" s="96"/>
-      <c r="BV29" s="97"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="82"/>
+      <c r="AM29" s="82"/>
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="82"/>
+      <c r="AP29" s="82"/>
+      <c r="AQ29" s="82"/>
+      <c r="AR29" s="82"/>
+      <c r="AS29" s="82"/>
+      <c r="AT29" s="82"/>
+      <c r="AU29" s="82"/>
+      <c r="AV29" s="82"/>
+      <c r="AW29" s="82"/>
+      <c r="AX29" s="82"/>
+      <c r="AY29" s="82"/>
+      <c r="AZ29" s="82"/>
+      <c r="BA29" s="82"/>
+      <c r="BB29" s="82"/>
+      <c r="BC29" s="83"/>
+      <c r="BD29" s="76"/>
+      <c r="BE29" s="85"/>
+      <c r="BF29" s="85"/>
+      <c r="BG29" s="85"/>
+      <c r="BH29" s="85"/>
+      <c r="BI29" s="85"/>
+      <c r="BJ29" s="77"/>
+      <c r="BK29" s="119"/>
+      <c r="BL29" s="120"/>
+      <c r="BM29" s="120"/>
+      <c r="BN29" s="120"/>
+      <c r="BO29" s="120"/>
+      <c r="BP29" s="120"/>
+      <c r="BQ29" s="120"/>
+      <c r="BR29" s="120"/>
+      <c r="BS29" s="120"/>
+      <c r="BT29" s="120"/>
+      <c r="BU29" s="120"/>
+      <c r="BV29" s="121"/>
       <c r="AML29" s="2"/>
       <c r="AMM29"/>
       <c r="AMN29"/>
@@ -4618,86 +4618,86 @@
     </row>
     <row r="30" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="64">
+      <c r="C30" s="74">
         <v>3</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="86" t="s">
+      <c r="D30" s="75"/>
+      <c r="E30" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="86" t="s">
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="86" t="s">
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="87"/>
-      <c r="AH30" s="87"/>
-      <c r="AI30" s="87"/>
-      <c r="AJ30" s="87"/>
-      <c r="AK30" s="87"/>
-      <c r="AL30" s="87"/>
-      <c r="AM30" s="87"/>
-      <c r="AN30" s="87"/>
-      <c r="AO30" s="87"/>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="87"/>
-      <c r="AR30" s="87"/>
-      <c r="AS30" s="87"/>
-      <c r="AT30" s="87"/>
-      <c r="AU30" s="87"/>
-      <c r="AV30" s="87"/>
-      <c r="AW30" s="87"/>
-      <c r="AX30" s="87"/>
-      <c r="AY30" s="87"/>
-      <c r="AZ30" s="87"/>
-      <c r="BA30" s="87"/>
-      <c r="BB30" s="87"/>
-      <c r="BC30" s="88"/>
-      <c r="BD30" s="64" t="s">
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="79"/>
+      <c r="AM30" s="79"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="79"/>
+      <c r="AP30" s="79"/>
+      <c r="AQ30" s="79"/>
+      <c r="AR30" s="79"/>
+      <c r="AS30" s="79"/>
+      <c r="AT30" s="79"/>
+      <c r="AU30" s="79"/>
+      <c r="AV30" s="79"/>
+      <c r="AW30" s="79"/>
+      <c r="AX30" s="79"/>
+      <c r="AY30" s="79"/>
+      <c r="AZ30" s="79"/>
+      <c r="BA30" s="79"/>
+      <c r="BB30" s="79"/>
+      <c r="BC30" s="80"/>
+      <c r="BD30" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="BE30" s="65"/>
-      <c r="BF30" s="65"/>
-      <c r="BG30" s="65"/>
-      <c r="BH30" s="65"/>
-      <c r="BI30" s="65"/>
-      <c r="BJ30" s="72"/>
-      <c r="BK30" s="118" t="s">
+      <c r="BE30" s="84"/>
+      <c r="BF30" s="84"/>
+      <c r="BG30" s="84"/>
+      <c r="BH30" s="84"/>
+      <c r="BI30" s="84"/>
+      <c r="BJ30" s="75"/>
+      <c r="BK30" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="BL30" s="119"/>
-      <c r="BM30" s="119"/>
-      <c r="BN30" s="119"/>
-      <c r="BO30" s="119"/>
-      <c r="BP30" s="119"/>
-      <c r="BQ30" s="119"/>
-      <c r="BR30" s="119"/>
+      <c r="BL30" s="71"/>
+      <c r="BM30" s="71"/>
+      <c r="BN30" s="71"/>
+      <c r="BO30" s="71"/>
+      <c r="BP30" s="71"/>
+      <c r="BQ30" s="71"/>
+      <c r="BR30" s="71"/>
       <c r="BS30" s="46"/>
       <c r="BT30" s="46"/>
       <c r="BU30" s="46"/>
@@ -4717,74 +4717,74 @@
     </row>
     <row r="31" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="90"/>
-      <c r="AB31" s="90"/>
-      <c r="AC31" s="90"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="89"/>
-      <c r="AF31" s="90"/>
-      <c r="AG31" s="90"/>
-      <c r="AH31" s="90"/>
-      <c r="AI31" s="90"/>
-      <c r="AJ31" s="90"/>
-      <c r="AK31" s="90"/>
-      <c r="AL31" s="90"/>
-      <c r="AM31" s="90"/>
-      <c r="AN31" s="90"/>
-      <c r="AO31" s="90"/>
-      <c r="AP31" s="90"/>
-      <c r="AQ31" s="90"/>
-      <c r="AR31" s="90"/>
-      <c r="AS31" s="90"/>
-      <c r="AT31" s="90"/>
-      <c r="AU31" s="90"/>
-      <c r="AV31" s="90"/>
-      <c r="AW31" s="90"/>
-      <c r="AX31" s="90"/>
-      <c r="AY31" s="90"/>
-      <c r="AZ31" s="90"/>
-      <c r="BA31" s="90"/>
-      <c r="BB31" s="90"/>
-      <c r="BC31" s="91"/>
-      <c r="BD31" s="66"/>
-      <c r="BE31" s="67"/>
-      <c r="BF31" s="67"/>
-      <c r="BG31" s="67"/>
-      <c r="BH31" s="67"/>
-      <c r="BI31" s="67"/>
-      <c r="BJ31" s="73"/>
-      <c r="BK31" s="120"/>
-      <c r="BL31" s="121"/>
-      <c r="BM31" s="121"/>
-      <c r="BN31" s="121"/>
-      <c r="BO31" s="121"/>
-      <c r="BP31" s="121"/>
-      <c r="BQ31" s="121"/>
-      <c r="BR31" s="121"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="82"/>
+      <c r="AC31" s="82"/>
+      <c r="AD31" s="83"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="82"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="82"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="82"/>
+      <c r="AQ31" s="82"/>
+      <c r="AR31" s="82"/>
+      <c r="AS31" s="82"/>
+      <c r="AT31" s="82"/>
+      <c r="AU31" s="82"/>
+      <c r="AV31" s="82"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="82"/>
+      <c r="BA31" s="82"/>
+      <c r="BB31" s="82"/>
+      <c r="BC31" s="83"/>
+      <c r="BD31" s="76"/>
+      <c r="BE31" s="85"/>
+      <c r="BF31" s="85"/>
+      <c r="BG31" s="85"/>
+      <c r="BH31" s="85"/>
+      <c r="BI31" s="85"/>
+      <c r="BJ31" s="77"/>
+      <c r="BK31" s="72"/>
+      <c r="BL31" s="73"/>
+      <c r="BM31" s="73"/>
+      <c r="BN31" s="73"/>
+      <c r="BO31" s="73"/>
+      <c r="BP31" s="73"/>
+      <c r="BQ31" s="73"/>
+      <c r="BR31" s="73"/>
       <c r="BS31" s="46"/>
       <c r="BT31" s="46"/>
       <c r="BU31" s="46"/>
@@ -4804,76 +4804,76 @@
     </row>
     <row r="32" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="103">
+      <c r="C32" s="66">
         <v>5</v>
       </c>
-      <c r="D32" s="103"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="107"/>
-      <c r="V32" s="107"/>
-      <c r="W32" s="107"/>
-      <c r="X32" s="107"/>
-      <c r="Y32" s="107"/>
-      <c r="Z32" s="107"/>
-      <c r="AA32" s="107"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="107"/>
-      <c r="AD32" s="107"/>
-      <c r="AE32" s="105"/>
-      <c r="AF32" s="105"/>
-      <c r="AG32" s="105"/>
-      <c r="AH32" s="105"/>
-      <c r="AI32" s="105"/>
-      <c r="AJ32" s="105"/>
-      <c r="AK32" s="105"/>
-      <c r="AL32" s="105"/>
-      <c r="AM32" s="105"/>
-      <c r="AN32" s="105"/>
-      <c r="AO32" s="105"/>
-      <c r="AP32" s="105"/>
-      <c r="AQ32" s="105"/>
-      <c r="AR32" s="105"/>
-      <c r="AS32" s="105"/>
-      <c r="AT32" s="105"/>
-      <c r="AU32" s="105"/>
-      <c r="AV32" s="105"/>
-      <c r="AW32" s="105"/>
-      <c r="AX32" s="105"/>
-      <c r="AY32" s="105"/>
-      <c r="AZ32" s="105"/>
-      <c r="BA32" s="105"/>
-      <c r="BB32" s="105"/>
-      <c r="BC32" s="105"/>
-      <c r="BD32" s="105"/>
-      <c r="BE32" s="105"/>
-      <c r="BF32" s="105"/>
-      <c r="BG32" s="105"/>
-      <c r="BH32" s="105"/>
-      <c r="BI32" s="105"/>
-      <c r="BJ32" s="114"/>
-      <c r="BK32" s="112"/>
-      <c r="BL32" s="113"/>
-      <c r="BM32" s="113"/>
-      <c r="BN32" s="113"/>
-      <c r="BO32" s="113"/>
-      <c r="BP32" s="113"/>
-      <c r="BQ32" s="113"/>
-      <c r="BR32" s="113"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
+      <c r="AD32" s="68"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="67"/>
+      <c r="AJ32" s="67"/>
+      <c r="AK32" s="67"/>
+      <c r="AL32" s="67"/>
+      <c r="AM32" s="67"/>
+      <c r="AN32" s="67"/>
+      <c r="AO32" s="67"/>
+      <c r="AP32" s="67"/>
+      <c r="AQ32" s="67"/>
+      <c r="AR32" s="67"/>
+      <c r="AS32" s="67"/>
+      <c r="AT32" s="67"/>
+      <c r="AU32" s="67"/>
+      <c r="AV32" s="67"/>
+      <c r="AW32" s="67"/>
+      <c r="AX32" s="67"/>
+      <c r="AY32" s="67"/>
+      <c r="AZ32" s="67"/>
+      <c r="BA32" s="67"/>
+      <c r="BB32" s="67"/>
+      <c r="BC32" s="67"/>
+      <c r="BD32" s="67"/>
+      <c r="BE32" s="67"/>
+      <c r="BF32" s="67"/>
+      <c r="BG32" s="67"/>
+      <c r="BH32" s="67"/>
+      <c r="BI32" s="67"/>
+      <c r="BJ32" s="69"/>
+      <c r="BK32" s="64"/>
+      <c r="BL32" s="65"/>
+      <c r="BM32" s="65"/>
+      <c r="BN32" s="65"/>
+      <c r="BO32" s="65"/>
+      <c r="BP32" s="65"/>
+      <c r="BQ32" s="65"/>
+      <c r="BR32" s="65"/>
       <c r="BS32" s="46"/>
       <c r="BT32" s="46"/>
       <c r="BU32" s="46"/>
@@ -4893,76 +4893,76 @@
     </row>
     <row r="33" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="103">
+      <c r="C33" s="66">
         <v>6</v>
       </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="107"/>
-      <c r="X33" s="107"/>
-      <c r="Y33" s="107"/>
-      <c r="Z33" s="107"/>
-      <c r="AA33" s="107"/>
-      <c r="AB33" s="107"/>
-      <c r="AC33" s="107"/>
-      <c r="AD33" s="107"/>
-      <c r="AE33" s="105"/>
-      <c r="AF33" s="105"/>
-      <c r="AG33" s="105"/>
-      <c r="AH33" s="105"/>
-      <c r="AI33" s="105"/>
-      <c r="AJ33" s="105"/>
-      <c r="AK33" s="105"/>
-      <c r="AL33" s="105"/>
-      <c r="AM33" s="105"/>
-      <c r="AN33" s="105"/>
-      <c r="AO33" s="105"/>
-      <c r="AP33" s="105"/>
-      <c r="AQ33" s="105"/>
-      <c r="AR33" s="105"/>
-      <c r="AS33" s="105"/>
-      <c r="AT33" s="105"/>
-      <c r="AU33" s="105"/>
-      <c r="AV33" s="105"/>
-      <c r="AW33" s="105"/>
-      <c r="AX33" s="105"/>
-      <c r="AY33" s="105"/>
-      <c r="AZ33" s="105"/>
-      <c r="BA33" s="105"/>
-      <c r="BB33" s="105"/>
-      <c r="BC33" s="105"/>
-      <c r="BD33" s="105"/>
-      <c r="BE33" s="105"/>
-      <c r="BF33" s="105"/>
-      <c r="BG33" s="105"/>
-      <c r="BH33" s="105"/>
-      <c r="BI33" s="105"/>
-      <c r="BJ33" s="114"/>
-      <c r="BK33" s="112"/>
-      <c r="BL33" s="113"/>
-      <c r="BM33" s="113"/>
-      <c r="BN33" s="113"/>
-      <c r="BO33" s="113"/>
-      <c r="BP33" s="113"/>
-      <c r="BQ33" s="113"/>
-      <c r="BR33" s="113"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="67"/>
+      <c r="AG33" s="67"/>
+      <c r="AH33" s="67"/>
+      <c r="AI33" s="67"/>
+      <c r="AJ33" s="67"/>
+      <c r="AK33" s="67"/>
+      <c r="AL33" s="67"/>
+      <c r="AM33" s="67"/>
+      <c r="AN33" s="67"/>
+      <c r="AO33" s="67"/>
+      <c r="AP33" s="67"/>
+      <c r="AQ33" s="67"/>
+      <c r="AR33" s="67"/>
+      <c r="AS33" s="67"/>
+      <c r="AT33" s="67"/>
+      <c r="AU33" s="67"/>
+      <c r="AV33" s="67"/>
+      <c r="AW33" s="67"/>
+      <c r="AX33" s="67"/>
+      <c r="AY33" s="67"/>
+      <c r="AZ33" s="67"/>
+      <c r="BA33" s="67"/>
+      <c r="BB33" s="67"/>
+      <c r="BC33" s="67"/>
+      <c r="BD33" s="67"/>
+      <c r="BE33" s="67"/>
+      <c r="BF33" s="67"/>
+      <c r="BG33" s="67"/>
+      <c r="BH33" s="67"/>
+      <c r="BI33" s="67"/>
+      <c r="BJ33" s="69"/>
+      <c r="BK33" s="64"/>
+      <c r="BL33" s="65"/>
+      <c r="BM33" s="65"/>
+      <c r="BN33" s="65"/>
+      <c r="BO33" s="65"/>
+      <c r="BP33" s="65"/>
+      <c r="BQ33" s="65"/>
+      <c r="BR33" s="65"/>
       <c r="BS33" s="46"/>
       <c r="BT33" s="46"/>
       <c r="BU33" s="46"/>
@@ -4982,76 +4982,76 @@
     </row>
     <row r="34" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="103">
+      <c r="C34" s="66">
         <v>7</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="107"/>
-      <c r="Z34" s="107"/>
-      <c r="AA34" s="107"/>
-      <c r="AB34" s="107"/>
-      <c r="AC34" s="107"/>
-      <c r="AD34" s="107"/>
-      <c r="AE34" s="105"/>
-      <c r="AF34" s="105"/>
-      <c r="AG34" s="105"/>
-      <c r="AH34" s="105"/>
-      <c r="AI34" s="105"/>
-      <c r="AJ34" s="105"/>
-      <c r="AK34" s="105"/>
-      <c r="AL34" s="105"/>
-      <c r="AM34" s="105"/>
-      <c r="AN34" s="105"/>
-      <c r="AO34" s="105"/>
-      <c r="AP34" s="105"/>
-      <c r="AQ34" s="105"/>
-      <c r="AR34" s="105"/>
-      <c r="AS34" s="105"/>
-      <c r="AT34" s="105"/>
-      <c r="AU34" s="105"/>
-      <c r="AV34" s="105"/>
-      <c r="AW34" s="105"/>
-      <c r="AX34" s="105"/>
-      <c r="AY34" s="105"/>
-      <c r="AZ34" s="105"/>
-      <c r="BA34" s="105"/>
-      <c r="BB34" s="105"/>
-      <c r="BC34" s="105"/>
-      <c r="BD34" s="105"/>
-      <c r="BE34" s="105"/>
-      <c r="BF34" s="105"/>
-      <c r="BG34" s="105"/>
-      <c r="BH34" s="105"/>
-      <c r="BI34" s="105"/>
-      <c r="BJ34" s="114"/>
-      <c r="BK34" s="112"/>
-      <c r="BL34" s="113"/>
-      <c r="BM34" s="113"/>
-      <c r="BN34" s="113"/>
-      <c r="BO34" s="113"/>
-      <c r="BP34" s="113"/>
-      <c r="BQ34" s="113"/>
-      <c r="BR34" s="113"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="67"/>
+      <c r="AI34" s="67"/>
+      <c r="AJ34" s="67"/>
+      <c r="AK34" s="67"/>
+      <c r="AL34" s="67"/>
+      <c r="AM34" s="67"/>
+      <c r="AN34" s="67"/>
+      <c r="AO34" s="67"/>
+      <c r="AP34" s="67"/>
+      <c r="AQ34" s="67"/>
+      <c r="AR34" s="67"/>
+      <c r="AS34" s="67"/>
+      <c r="AT34" s="67"/>
+      <c r="AU34" s="67"/>
+      <c r="AV34" s="67"/>
+      <c r="AW34" s="67"/>
+      <c r="AX34" s="67"/>
+      <c r="AY34" s="67"/>
+      <c r="AZ34" s="67"/>
+      <c r="BA34" s="67"/>
+      <c r="BB34" s="67"/>
+      <c r="BC34" s="67"/>
+      <c r="BD34" s="67"/>
+      <c r="BE34" s="67"/>
+      <c r="BF34" s="67"/>
+      <c r="BG34" s="67"/>
+      <c r="BH34" s="67"/>
+      <c r="BI34" s="67"/>
+      <c r="BJ34" s="69"/>
+      <c r="BK34" s="64"/>
+      <c r="BL34" s="65"/>
+      <c r="BM34" s="65"/>
+      <c r="BN34" s="65"/>
+      <c r="BO34" s="65"/>
+      <c r="BP34" s="65"/>
+      <c r="BQ34" s="65"/>
+      <c r="BR34" s="65"/>
       <c r="BS34" s="46"/>
       <c r="BT34" s="46"/>
       <c r="BU34" s="46"/>
@@ -5071,76 +5071,76 @@
     </row>
     <row r="35" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="C35" s="103">
+      <c r="C35" s="66">
         <v>8</v>
       </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="107"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="107"/>
-      <c r="U35" s="107"/>
-      <c r="V35" s="107"/>
-      <c r="W35" s="107"/>
-      <c r="X35" s="107"/>
-      <c r="Y35" s="107"/>
-      <c r="Z35" s="107"/>
-      <c r="AA35" s="107"/>
-      <c r="AB35" s="107"/>
-      <c r="AC35" s="107"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="105"/>
-      <c r="AF35" s="105"/>
-      <c r="AG35" s="105"/>
-      <c r="AH35" s="105"/>
-      <c r="AI35" s="105"/>
-      <c r="AJ35" s="105"/>
-      <c r="AK35" s="105"/>
-      <c r="AL35" s="105"/>
-      <c r="AM35" s="105"/>
-      <c r="AN35" s="105"/>
-      <c r="AO35" s="105"/>
-      <c r="AP35" s="105"/>
-      <c r="AQ35" s="105"/>
-      <c r="AR35" s="105"/>
-      <c r="AS35" s="105"/>
-      <c r="AT35" s="105"/>
-      <c r="AU35" s="105"/>
-      <c r="AV35" s="105"/>
-      <c r="AW35" s="105"/>
-      <c r="AX35" s="105"/>
-      <c r="AY35" s="105"/>
-      <c r="AZ35" s="105"/>
-      <c r="BA35" s="105"/>
-      <c r="BB35" s="105"/>
-      <c r="BC35" s="105"/>
-      <c r="BD35" s="105"/>
-      <c r="BE35" s="105"/>
-      <c r="BF35" s="105"/>
-      <c r="BG35" s="105"/>
-      <c r="BH35" s="105"/>
-      <c r="BI35" s="105"/>
-      <c r="BJ35" s="114"/>
-      <c r="BK35" s="112"/>
-      <c r="BL35" s="113"/>
-      <c r="BM35" s="113"/>
-      <c r="BN35" s="113"/>
-      <c r="BO35" s="113"/>
-      <c r="BP35" s="113"/>
-      <c r="BQ35" s="113"/>
-      <c r="BR35" s="113"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="67"/>
+      <c r="AF35" s="67"/>
+      <c r="AG35" s="67"/>
+      <c r="AH35" s="67"/>
+      <c r="AI35" s="67"/>
+      <c r="AJ35" s="67"/>
+      <c r="AK35" s="67"/>
+      <c r="AL35" s="67"/>
+      <c r="AM35" s="67"/>
+      <c r="AN35" s="67"/>
+      <c r="AO35" s="67"/>
+      <c r="AP35" s="67"/>
+      <c r="AQ35" s="67"/>
+      <c r="AR35" s="67"/>
+      <c r="AS35" s="67"/>
+      <c r="AT35" s="67"/>
+      <c r="AU35" s="67"/>
+      <c r="AV35" s="67"/>
+      <c r="AW35" s="67"/>
+      <c r="AX35" s="67"/>
+      <c r="AY35" s="67"/>
+      <c r="AZ35" s="67"/>
+      <c r="BA35" s="67"/>
+      <c r="BB35" s="67"/>
+      <c r="BC35" s="67"/>
+      <c r="BD35" s="67"/>
+      <c r="BE35" s="67"/>
+      <c r="BF35" s="67"/>
+      <c r="BG35" s="67"/>
+      <c r="BH35" s="67"/>
+      <c r="BI35" s="67"/>
+      <c r="BJ35" s="69"/>
+      <c r="BK35" s="64"/>
+      <c r="BL35" s="65"/>
+      <c r="BM35" s="65"/>
+      <c r="BN35" s="65"/>
+      <c r="BO35" s="65"/>
+      <c r="BP35" s="65"/>
+      <c r="BQ35" s="65"/>
+      <c r="BR35" s="65"/>
       <c r="BS35" s="46"/>
       <c r="BT35" s="46"/>
       <c r="BU35" s="46"/>
@@ -5160,76 +5160,76 @@
     </row>
     <row r="36" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="C36" s="103">
+      <c r="C36" s="66">
         <v>9</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="107"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="107"/>
-      <c r="U36" s="107"/>
-      <c r="V36" s="107"/>
-      <c r="W36" s="107"/>
-      <c r="X36" s="107"/>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="107"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="107"/>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="105"/>
-      <c r="AF36" s="105"/>
-      <c r="AG36" s="105"/>
-      <c r="AH36" s="105"/>
-      <c r="AI36" s="105"/>
-      <c r="AJ36" s="105"/>
-      <c r="AK36" s="105"/>
-      <c r="AL36" s="105"/>
-      <c r="AM36" s="105"/>
-      <c r="AN36" s="105"/>
-      <c r="AO36" s="105"/>
-      <c r="AP36" s="105"/>
-      <c r="AQ36" s="105"/>
-      <c r="AR36" s="105"/>
-      <c r="AS36" s="105"/>
-      <c r="AT36" s="105"/>
-      <c r="AU36" s="105"/>
-      <c r="AV36" s="105"/>
-      <c r="AW36" s="105"/>
-      <c r="AX36" s="105"/>
-      <c r="AY36" s="105"/>
-      <c r="AZ36" s="105"/>
-      <c r="BA36" s="105"/>
-      <c r="BB36" s="105"/>
-      <c r="BC36" s="105"/>
-      <c r="BD36" s="105"/>
-      <c r="BE36" s="105"/>
-      <c r="BF36" s="105"/>
-      <c r="BG36" s="105"/>
-      <c r="BH36" s="105"/>
-      <c r="BI36" s="105"/>
-      <c r="BJ36" s="114"/>
-      <c r="BK36" s="112"/>
-      <c r="BL36" s="113"/>
-      <c r="BM36" s="113"/>
-      <c r="BN36" s="113"/>
-      <c r="BO36" s="113"/>
-      <c r="BP36" s="113"/>
-      <c r="BQ36" s="113"/>
-      <c r="BR36" s="113"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="67"/>
+      <c r="AI36" s="67"/>
+      <c r="AJ36" s="67"/>
+      <c r="AK36" s="67"/>
+      <c r="AL36" s="67"/>
+      <c r="AM36" s="67"/>
+      <c r="AN36" s="67"/>
+      <c r="AO36" s="67"/>
+      <c r="AP36" s="67"/>
+      <c r="AQ36" s="67"/>
+      <c r="AR36" s="67"/>
+      <c r="AS36" s="67"/>
+      <c r="AT36" s="67"/>
+      <c r="AU36" s="67"/>
+      <c r="AV36" s="67"/>
+      <c r="AW36" s="67"/>
+      <c r="AX36" s="67"/>
+      <c r="AY36" s="67"/>
+      <c r="AZ36" s="67"/>
+      <c r="BA36" s="67"/>
+      <c r="BB36" s="67"/>
+      <c r="BC36" s="67"/>
+      <c r="BD36" s="67"/>
+      <c r="BE36" s="67"/>
+      <c r="BF36" s="67"/>
+      <c r="BG36" s="67"/>
+      <c r="BH36" s="67"/>
+      <c r="BI36" s="67"/>
+      <c r="BJ36" s="69"/>
+      <c r="BK36" s="64"/>
+      <c r="BL36" s="65"/>
+      <c r="BM36" s="65"/>
+      <c r="BN36" s="65"/>
+      <c r="BO36" s="65"/>
+      <c r="BP36" s="65"/>
+      <c r="BQ36" s="65"/>
+      <c r="BR36" s="65"/>
       <c r="BS36" s="46"/>
       <c r="BT36" s="46"/>
       <c r="BU36" s="46"/>
@@ -5250,76 +5250,76 @@
     <row r="37" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="103">
+      <c r="C37" s="66">
         <v>10</v>
       </c>
-      <c r="D37" s="103"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="107"/>
-      <c r="U37" s="107"/>
-      <c r="V37" s="107"/>
-      <c r="W37" s="107"/>
-      <c r="X37" s="107"/>
-      <c r="Y37" s="107"/>
-      <c r="Z37" s="107"/>
-      <c r="AA37" s="107"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="107"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="105"/>
-      <c r="AF37" s="105"/>
-      <c r="AG37" s="105"/>
-      <c r="AH37" s="105"/>
-      <c r="AI37" s="105"/>
-      <c r="AJ37" s="105"/>
-      <c r="AK37" s="105"/>
-      <c r="AL37" s="105"/>
-      <c r="AM37" s="105"/>
-      <c r="AN37" s="105"/>
-      <c r="AO37" s="105"/>
-      <c r="AP37" s="105"/>
-      <c r="AQ37" s="105"/>
-      <c r="AR37" s="105"/>
-      <c r="AS37" s="105"/>
-      <c r="AT37" s="105"/>
-      <c r="AU37" s="105"/>
-      <c r="AV37" s="105"/>
-      <c r="AW37" s="105"/>
-      <c r="AX37" s="105"/>
-      <c r="AY37" s="105"/>
-      <c r="AZ37" s="105"/>
-      <c r="BA37" s="105"/>
-      <c r="BB37" s="105"/>
-      <c r="BC37" s="105"/>
-      <c r="BD37" s="105"/>
-      <c r="BE37" s="105"/>
-      <c r="BF37" s="105"/>
-      <c r="BG37" s="105"/>
-      <c r="BH37" s="105"/>
-      <c r="BI37" s="105"/>
-      <c r="BJ37" s="114"/>
-      <c r="BK37" s="112"/>
-      <c r="BL37" s="113"/>
-      <c r="BM37" s="113"/>
-      <c r="BN37" s="113"/>
-      <c r="BO37" s="113"/>
-      <c r="BP37" s="113"/>
-      <c r="BQ37" s="113"/>
-      <c r="BR37" s="113"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="67"/>
+      <c r="AF37" s="67"/>
+      <c r="AG37" s="67"/>
+      <c r="AH37" s="67"/>
+      <c r="AI37" s="67"/>
+      <c r="AJ37" s="67"/>
+      <c r="AK37" s="67"/>
+      <c r="AL37" s="67"/>
+      <c r="AM37" s="67"/>
+      <c r="AN37" s="67"/>
+      <c r="AO37" s="67"/>
+      <c r="AP37" s="67"/>
+      <c r="AQ37" s="67"/>
+      <c r="AR37" s="67"/>
+      <c r="AS37" s="67"/>
+      <c r="AT37" s="67"/>
+      <c r="AU37" s="67"/>
+      <c r="AV37" s="67"/>
+      <c r="AW37" s="67"/>
+      <c r="AX37" s="67"/>
+      <c r="AY37" s="67"/>
+      <c r="AZ37" s="67"/>
+      <c r="BA37" s="67"/>
+      <c r="BB37" s="67"/>
+      <c r="BC37" s="67"/>
+      <c r="BD37" s="67"/>
+      <c r="BE37" s="67"/>
+      <c r="BF37" s="67"/>
+      <c r="BG37" s="67"/>
+      <c r="BH37" s="67"/>
+      <c r="BI37" s="67"/>
+      <c r="BJ37" s="69"/>
+      <c r="BK37" s="64"/>
+      <c r="BL37" s="65"/>
+      <c r="BM37" s="65"/>
+      <c r="BN37" s="65"/>
+      <c r="BO37" s="65"/>
+      <c r="BP37" s="65"/>
+      <c r="BQ37" s="65"/>
+      <c r="BR37" s="65"/>
       <c r="BS37" s="46"/>
       <c r="BT37" s="46"/>
       <c r="BU37" s="46"/>
@@ -5932,6 +5932,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="BD26:BJ27"/>
+    <mergeCell ref="BK26:BV27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:I29"/>
+    <mergeCell ref="J28:N29"/>
+    <mergeCell ref="O28:AD29"/>
+    <mergeCell ref="AE28:BC29"/>
+    <mergeCell ref="BD28:BJ29"/>
+    <mergeCell ref="BK28:BV29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="BK33:BR33"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="BK25:BR25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:I27"/>
+    <mergeCell ref="J26:N27"/>
+    <mergeCell ref="O26:AD27"/>
+    <mergeCell ref="AE26:BC27"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK30:BR31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:I31"/>
+    <mergeCell ref="J30:N31"/>
+    <mergeCell ref="O30:AD31"/>
+    <mergeCell ref="AE30:BC31"/>
+    <mergeCell ref="BD30:BJ31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK32:BR32"/>
     <mergeCell ref="BK34:BR34"/>
     <mergeCell ref="BK35:BR35"/>
     <mergeCell ref="C37:D37"/>
@@ -5956,86 +6036,6 @@
     <mergeCell ref="BD35:BJ35"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK30:BR31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:I31"/>
-    <mergeCell ref="J30:N31"/>
-    <mergeCell ref="O30:AD31"/>
-    <mergeCell ref="AE30:BC31"/>
-    <mergeCell ref="BD30:BJ31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK32:BR32"/>
-    <mergeCell ref="BK33:BR33"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="BK25:BR25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:I27"/>
-    <mergeCell ref="J26:N27"/>
-    <mergeCell ref="O26:AD27"/>
-    <mergeCell ref="AE26:BC27"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BD26:BJ27"/>
-    <mergeCell ref="BK26:BV27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:I29"/>
-    <mergeCell ref="J28:N29"/>
-    <mergeCell ref="O28:AD29"/>
-    <mergeCell ref="AE28:BC29"/>
-    <mergeCell ref="BD28:BJ29"/>
-    <mergeCell ref="BK28:BV29"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -6106,247 +6106,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="124" t="s">
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="124"/>
-      <c r="BA1" s="124"/>
-      <c r="BB1" s="124"/>
-      <c r="BC1" s="124"/>
-      <c r="BD1" s="124"/>
-      <c r="BE1" s="124"/>
-      <c r="BF1" s="124"/>
-      <c r="BG1" s="124"/>
-      <c r="BH1" s="124"/>
-      <c r="BI1" s="124"/>
-      <c r="BJ1" s="124"/>
-      <c r="BK1" s="124"/>
-      <c r="BL1" s="124"/>
-      <c r="BM1" s="124"/>
-      <c r="BN1" s="124"/>
-      <c r="BO1" s="124"/>
-      <c r="BP1" s="124"/>
-      <c r="BQ1" s="124"/>
+      <c r="AU1" s="132"/>
+      <c r="AV1" s="132"/>
+      <c r="AW1" s="132"/>
+      <c r="AX1" s="132"/>
+      <c r="AY1" s="132"/>
+      <c r="AZ1" s="132"/>
+      <c r="BA1" s="132"/>
+      <c r="BB1" s="132"/>
+      <c r="BC1" s="132"/>
+      <c r="BD1" s="132"/>
+      <c r="BE1" s="132"/>
+      <c r="BF1" s="132"/>
+      <c r="BG1" s="132"/>
+      <c r="BH1" s="132"/>
+      <c r="BI1" s="132"/>
+      <c r="BJ1" s="132"/>
+      <c r="BK1" s="132"/>
+      <c r="BL1" s="132"/>
+      <c r="BM1" s="132"/>
+      <c r="BN1" s="132"/>
+      <c r="BO1" s="132"/>
+      <c r="BP1" s="132"/>
+      <c r="BQ1" s="132"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="108" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="125" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125" t="s">
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125" t="s">
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="123"/>
+      <c r="AZ2" s="123"/>
+      <c r="BA2" s="123"/>
+      <c r="BB2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="126" t="s">
+      <c r="BC2" s="123"/>
+      <c r="BD2" s="123"/>
+      <c r="BE2" s="123"/>
+      <c r="BF2" s="123"/>
+      <c r="BG2" s="123"/>
+      <c r="BH2" s="123"/>
+      <c r="BI2" s="123"/>
+      <c r="BJ2" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="126"/>
-      <c r="BL2" s="126"/>
-      <c r="BM2" s="126"/>
-      <c r="BN2" s="126"/>
-      <c r="BO2" s="126"/>
-      <c r="BP2" s="126"/>
-      <c r="BQ2" s="126"/>
+      <c r="BK2" s="133"/>
+      <c r="BL2" s="133"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="133"/>
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="133"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="127" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="127"/>
-      <c r="AM3" s="127"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="127"/>
-      <c r="AR3" s="127"/>
-      <c r="AS3" s="127"/>
-      <c r="AT3" s="128">
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="135">
         <v>45510</v>
       </c>
-      <c r="AU3" s="128"/>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
-      <c r="AX3" s="128"/>
-      <c r="AY3" s="128"/>
-      <c r="AZ3" s="128"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="127" t="s">
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="127"/>
-      <c r="BD3" s="127"/>
-      <c r="BE3" s="127"/>
-      <c r="BF3" s="127"/>
-      <c r="BG3" s="127"/>
-      <c r="BH3" s="127"/>
-      <c r="BI3" s="127"/>
-      <c r="BJ3" s="129">
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="136">
         <v>45537</v>
       </c>
-      <c r="BK3" s="129"/>
-      <c r="BL3" s="129"/>
-      <c r="BM3" s="129"/>
-      <c r="BN3" s="129"/>
-      <c r="BO3" s="129"/>
-      <c r="BP3" s="129"/>
-      <c r="BQ3" s="129"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -6371,96 +6371,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="130" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130"/>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130"/>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="105" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="105"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="105"/>
-      <c r="AT6" s="105"/>
-      <c r="AU6" s="105"/>
-      <c r="AV6" s="105" t="s">
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="105"/>
-      <c r="AX6" s="105"/>
-      <c r="AY6" s="105"/>
-      <c r="AZ6" s="105"/>
-      <c r="BA6" s="105"/>
-      <c r="BB6" s="105"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="105"/>
-      <c r="BE6" s="105"/>
-      <c r="BF6" s="105"/>
-      <c r="BG6" s="105"/>
-      <c r="BH6" s="105"/>
-      <c r="BI6" s="105"/>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="105"/>
-      <c r="BP6" s="105"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="67"/>
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="67"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="67"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="37" t="s">
         <v>87</v>
       </c>
@@ -6491,38 +6491,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="105" t="s">
+      <c r="AO7" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105" t="s">
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="105"/>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="105"/>
-      <c r="BJ7" s="105"/>
-      <c r="BK7" s="105"/>
-      <c r="BL7" s="105"/>
-      <c r="BM7" s="105"/>
-      <c r="BN7" s="105"/>
-      <c r="BO7" s="105"/>
-      <c r="BP7" s="105"/>
+      <c r="AW7" s="67"/>
+      <c r="AX7" s="67"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="67"/>
+      <c r="BF7" s="67"/>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="67"/>
+      <c r="BI7" s="67"/>
+      <c r="BJ7" s="67"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="67"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="67"/>
+      <c r="BP7" s="67"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -6536,89 +6536,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="125" t="s">
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125" t="s">
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="112" t="s">
+      <c r="U10" s="123"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="113"/>
-      <c r="AO10" s="113"/>
-      <c r="AP10" s="113"/>
-      <c r="AQ10" s="113"/>
-      <c r="AR10" s="113"/>
-      <c r="AS10" s="113"/>
-      <c r="AT10" s="113"/>
-      <c r="AU10" s="113"/>
-      <c r="AV10" s="113"/>
-      <c r="AW10" s="113"/>
-      <c r="AX10" s="113"/>
-      <c r="AY10" s="113"/>
-      <c r="AZ10" s="113"/>
-      <c r="BA10" s="113"/>
-      <c r="BB10" s="113"/>
-      <c r="BC10" s="113"/>
-      <c r="BD10" s="113"/>
-      <c r="BE10" s="113"/>
-      <c r="BF10" s="113"/>
-      <c r="BG10" s="113"/>
-      <c r="BH10" s="113"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="103" t="s">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="128"/>
+      <c r="BJ10" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
-      <c r="BP10" s="103"/>
+      <c r="BK10" s="66"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="66"/>
+      <c r="BN10" s="66"/>
+      <c r="BO10" s="66"/>
+      <c r="BP10" s="66"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
       <c r="G11" s="37" t="s">
         <v>98</v>
       </c>
@@ -6634,11 +6634,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="39"/>
-      <c r="T11" s="134" t="s">
+      <c r="T11" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="134"/>
-      <c r="V11" s="135"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="127"/>
       <c r="W11" s="51" t="s">
         <v>119</v>
       </c>
@@ -6690,12 +6690,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
       <c r="G12" s="17" t="s">
         <v>120</v>
       </c>
@@ -6711,11 +6711,11 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="125" t="s">
+      <c r="T12" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="125"/>
-      <c r="V12" s="125"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
       <c r="W12" s="51"/>
       <c r="X12" s="52"/>
       <c r="Y12" s="52"/>
@@ -6764,12 +6764,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
       <c r="G13" s="17" t="s">
         <v>92</v>
       </c>
@@ -6785,11 +6785,11 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="125" t="s">
+      <c r="T13" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="123"/>
       <c r="W13" s="51" t="s">
         <v>108</v>
       </c>
@@ -6840,12 +6840,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="17" t="s">
         <v>93</v>
       </c>
@@ -6861,11 +6861,11 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="125" t="s">
+      <c r="T14" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="125"/>
-      <c r="V14" s="125"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
       <c r="W14" s="51" t="s">
         <v>108</v>
       </c>
@@ -6927,88 +6927,88 @@
       <c r="AG16" s="16"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="125" t="s">
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125" t="s">
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
-      <c r="W17" s="103" t="s">
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="103"/>
-      <c r="AG17" s="103"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="103"/>
-      <c r="AM17" s="103"/>
-      <c r="AN17" s="103"/>
-      <c r="AO17" s="103"/>
-      <c r="AP17" s="103"/>
-      <c r="AQ17" s="103"/>
-      <c r="AR17" s="103"/>
-      <c r="AS17" s="103"/>
-      <c r="AT17" s="103"/>
-      <c r="AU17" s="103"/>
-      <c r="AV17" s="103"/>
-      <c r="AW17" s="103"/>
-      <c r="AX17" s="103"/>
-      <c r="AY17" s="103"/>
-      <c r="AZ17" s="103"/>
-      <c r="BA17" s="103"/>
-      <c r="BB17" s="103"/>
-      <c r="BC17" s="103"/>
-      <c r="BD17" s="103"/>
-      <c r="BE17" s="103"/>
-      <c r="BF17" s="103"/>
-      <c r="BG17" s="103"/>
-      <c r="BH17" s="103"/>
-      <c r="BI17" s="103"/>
-      <c r="BJ17" s="103" t="s">
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="66"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="66"/>
+      <c r="AV17" s="66"/>
+      <c r="AW17" s="66"/>
+      <c r="AX17" s="66"/>
+      <c r="AY17" s="66"/>
+      <c r="AZ17" s="66"/>
+      <c r="BA17" s="66"/>
+      <c r="BB17" s="66"/>
+      <c r="BC17" s="66"/>
+      <c r="BD17" s="66"/>
+      <c r="BE17" s="66"/>
+      <c r="BF17" s="66"/>
+      <c r="BG17" s="66"/>
+      <c r="BH17" s="66"/>
+      <c r="BI17" s="66"/>
+      <c r="BJ17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK17" s="103"/>
-      <c r="BL17" s="103"/>
-      <c r="BM17" s="103"/>
-      <c r="BN17" s="103"/>
-      <c r="BO17" s="103"/>
-      <c r="BP17" s="103"/>
+      <c r="BK17" s="66"/>
+      <c r="BL17" s="66"/>
+      <c r="BM17" s="66"/>
+      <c r="BN17" s="66"/>
+      <c r="BO17" s="66"/>
+      <c r="BP17" s="66"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="17" t="s">
         <v>106</v>
       </c>
@@ -7024,9 +7024,9 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="123"/>
       <c r="W18" s="21" t="s">
         <v>107</v>
       </c>
@@ -7488,35 +7488,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W17:BI17"/>
-    <mergeCell ref="BJ17:BP17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -7531,6 +7502,35 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W17:BI17"/>
+    <mergeCell ref="BJ17:BP17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -7592,247 +7592,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="124" t="s">
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="124"/>
-      <c r="BA1" s="124"/>
-      <c r="BB1" s="124"/>
-      <c r="BC1" s="124"/>
-      <c r="BD1" s="124"/>
-      <c r="BE1" s="124"/>
-      <c r="BF1" s="124"/>
-      <c r="BG1" s="124"/>
-      <c r="BH1" s="124"/>
-      <c r="BI1" s="124"/>
-      <c r="BJ1" s="124"/>
-      <c r="BK1" s="124"/>
-      <c r="BL1" s="124"/>
-      <c r="BM1" s="124"/>
-      <c r="BN1" s="124"/>
-      <c r="BO1" s="124"/>
-      <c r="BP1" s="124"/>
-      <c r="BQ1" s="124"/>
+      <c r="AU1" s="132"/>
+      <c r="AV1" s="132"/>
+      <c r="AW1" s="132"/>
+      <c r="AX1" s="132"/>
+      <c r="AY1" s="132"/>
+      <c r="AZ1" s="132"/>
+      <c r="BA1" s="132"/>
+      <c r="BB1" s="132"/>
+      <c r="BC1" s="132"/>
+      <c r="BD1" s="132"/>
+      <c r="BE1" s="132"/>
+      <c r="BF1" s="132"/>
+      <c r="BG1" s="132"/>
+      <c r="BH1" s="132"/>
+      <c r="BI1" s="132"/>
+      <c r="BJ1" s="132"/>
+      <c r="BK1" s="132"/>
+      <c r="BL1" s="132"/>
+      <c r="BM1" s="132"/>
+      <c r="BN1" s="132"/>
+      <c r="BO1" s="132"/>
+      <c r="BP1" s="132"/>
+      <c r="BQ1" s="132"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="108" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="125" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125" t="s">
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125" t="s">
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="123"/>
+      <c r="AZ2" s="123"/>
+      <c r="BA2" s="123"/>
+      <c r="BB2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="126" t="s">
+      <c r="BC2" s="123"/>
+      <c r="BD2" s="123"/>
+      <c r="BE2" s="123"/>
+      <c r="BF2" s="123"/>
+      <c r="BG2" s="123"/>
+      <c r="BH2" s="123"/>
+      <c r="BI2" s="123"/>
+      <c r="BJ2" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="126"/>
-      <c r="BL2" s="126"/>
-      <c r="BM2" s="126"/>
-      <c r="BN2" s="126"/>
-      <c r="BO2" s="126"/>
-      <c r="BP2" s="126"/>
-      <c r="BQ2" s="126"/>
+      <c r="BK2" s="133"/>
+      <c r="BL2" s="133"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="133"/>
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="133"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="127" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="127"/>
-      <c r="AM3" s="127"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="127"/>
-      <c r="AR3" s="127"/>
-      <c r="AS3" s="127"/>
-      <c r="AT3" s="128">
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="135">
         <v>45510</v>
       </c>
-      <c r="AU3" s="128"/>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
-      <c r="AX3" s="128"/>
-      <c r="AY3" s="128"/>
-      <c r="AZ3" s="128"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="127" t="s">
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="127"/>
-      <c r="BD3" s="127"/>
-      <c r="BE3" s="127"/>
-      <c r="BF3" s="127"/>
-      <c r="BG3" s="127"/>
-      <c r="BH3" s="127"/>
-      <c r="BI3" s="127"/>
-      <c r="BJ3" s="129">
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="136">
         <v>45518</v>
       </c>
-      <c r="BK3" s="129"/>
-      <c r="BL3" s="129"/>
-      <c r="BM3" s="129"/>
-      <c r="BN3" s="129"/>
-      <c r="BO3" s="129"/>
-      <c r="BP3" s="129"/>
-      <c r="BQ3" s="129"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -7857,96 +7857,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="130" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130"/>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130"/>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="105" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="105"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="105"/>
-      <c r="AT6" s="105"/>
-      <c r="AU6" s="105"/>
-      <c r="AV6" s="105" t="s">
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="105"/>
-      <c r="AX6" s="105"/>
-      <c r="AY6" s="105"/>
-      <c r="AZ6" s="105"/>
-      <c r="BA6" s="105"/>
-      <c r="BB6" s="105"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="105"/>
-      <c r="BE6" s="105"/>
-      <c r="BF6" s="105"/>
-      <c r="BG6" s="105"/>
-      <c r="BH6" s="105"/>
-      <c r="BI6" s="105"/>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="105"/>
-      <c r="BP6" s="105"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="67"/>
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="67"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="67"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="17" t="s">
         <v>75</v>
       </c>
@@ -7977,38 +7977,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="105" t="s">
+      <c r="AO7" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105" t="s">
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="105"/>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="105"/>
-      <c r="BJ7" s="105"/>
-      <c r="BK7" s="105"/>
-      <c r="BL7" s="105"/>
-      <c r="BM7" s="105"/>
-      <c r="BN7" s="105"/>
-      <c r="BO7" s="105"/>
-      <c r="BP7" s="105"/>
+      <c r="AW7" s="67"/>
+      <c r="AX7" s="67"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="67"/>
+      <c r="BF7" s="67"/>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="67"/>
+      <c r="BI7" s="67"/>
+      <c r="BJ7" s="67"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="67"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="67"/>
+      <c r="BP7" s="67"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -8022,88 +8022,88 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="125" t="s">
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125" t="s">
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="125"/>
+      <c r="U10" s="123"/>
       <c r="V10" s="137"/>
-      <c r="W10" s="112" t="s">
+      <c r="W10" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="113"/>
-      <c r="AO10" s="113"/>
-      <c r="AP10" s="113"/>
-      <c r="AQ10" s="113"/>
-      <c r="AR10" s="113"/>
-      <c r="AS10" s="113"/>
-      <c r="AT10" s="113"/>
-      <c r="AU10" s="113"/>
-      <c r="AV10" s="113"/>
-      <c r="AW10" s="113"/>
-      <c r="AX10" s="113"/>
-      <c r="AY10" s="113"/>
-      <c r="AZ10" s="113"/>
-      <c r="BA10" s="113"/>
-      <c r="BB10" s="113"/>
-      <c r="BC10" s="113"/>
-      <c r="BD10" s="113"/>
-      <c r="BE10" s="113"/>
-      <c r="BF10" s="113"/>
-      <c r="BG10" s="113"/>
-      <c r="BH10" s="113"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="103" t="s">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="128"/>
+      <c r="BJ10" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
-      <c r="BP10" s="103"/>
+      <c r="BK10" s="66"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="66"/>
+      <c r="BN10" s="66"/>
+      <c r="BO10" s="66"/>
+      <c r="BP10" s="66"/>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
       <c r="G11" s="17" t="s">
         <v>99</v>
       </c>
@@ -8119,10 +8119,10 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="125" t="s">
+      <c r="T11" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="125"/>
+      <c r="U11" s="123"/>
       <c r="V11" s="137"/>
       <c r="W11" s="21" t="s">
         <v>117</v>
@@ -8174,12 +8174,12 @@
       <c r="BP11" s="24"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
       <c r="G12" s="17" t="s">
         <v>120</v>
       </c>
@@ -8195,10 +8195,10 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="125" t="s">
+      <c r="T12" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="125"/>
+      <c r="U12" s="123"/>
       <c r="V12" s="137"/>
       <c r="W12" s="21"/>
       <c r="X12" s="18"/>
@@ -8248,12 +8248,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
       <c r="G13" s="17" t="s">
         <v>102</v>
       </c>
@@ -8269,8 +8269,8 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="125"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
       <c r="V13" s="137"/>
       <c r="W13" s="21"/>
       <c r="X13" s="18"/>
@@ -8320,12 +8320,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="17" t="s">
         <v>95</v>
       </c>
@@ -8341,10 +8341,10 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="125" t="s">
+      <c r="T14" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="125"/>
+      <c r="U14" s="123"/>
       <c r="V14" s="137"/>
       <c r="W14" s="21" t="s">
         <v>118</v>
@@ -8396,12 +8396,12 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="17" t="s">
         <v>109</v>
       </c>
@@ -8417,8 +8417,8 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
       <c r="V15" s="137"/>
       <c r="W15" s="21"/>
       <c r="X15" s="18"/>
@@ -8468,12 +8468,12 @@
       <c r="BP15" s="24"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
       <c r="G16" s="17" t="s">
         <v>67</v>
       </c>
@@ -8489,10 +8489,10 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="125" t="s">
+      <c r="T16" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="125"/>
+      <c r="U16" s="123"/>
       <c r="V16" s="137"/>
       <c r="W16" s="21" t="s">
         <v>187</v>
@@ -8544,12 +8544,12 @@
       <c r="BP16" s="24"/>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="17" t="s">
         <v>92</v>
       </c>
@@ -8565,10 +8565,10 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="125" t="s">
+      <c r="T17" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="125"/>
+      <c r="U17" s="123"/>
       <c r="V17" s="137"/>
       <c r="W17" s="21" t="s">
         <v>108</v>
@@ -8620,12 +8620,12 @@
       <c r="BP17" s="24"/>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
       <c r="G18" s="17" t="s">
         <v>93</v>
       </c>
@@ -8641,10 +8641,10 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="125" t="s">
+      <c r="T18" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="125"/>
+      <c r="U18" s="123"/>
       <c r="V18" s="137"/>
       <c r="W18" s="21" t="s">
         <v>105</v>
@@ -8707,88 +8707,88 @@
       <c r="AG20" s="16"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="125" t="s">
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="125"/>
-      <c r="T21" s="125" t="s">
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="125"/>
-      <c r="V21" s="125"/>
-      <c r="W21" s="103" t="s">
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="103"/>
-      <c r="AG21" s="103"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="103"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="103"/>
-      <c r="AM21" s="103"/>
-      <c r="AN21" s="103"/>
-      <c r="AO21" s="103"/>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="103"/>
-      <c r="AR21" s="103"/>
-      <c r="AS21" s="103"/>
-      <c r="AT21" s="103"/>
-      <c r="AU21" s="103"/>
-      <c r="AV21" s="103"/>
-      <c r="AW21" s="103"/>
-      <c r="AX21" s="103"/>
-      <c r="AY21" s="103"/>
-      <c r="AZ21" s="103"/>
-      <c r="BA21" s="103"/>
-      <c r="BB21" s="103"/>
-      <c r="BC21" s="103"/>
-      <c r="BD21" s="103"/>
-      <c r="BE21" s="103"/>
-      <c r="BF21" s="103"/>
-      <c r="BG21" s="103"/>
-      <c r="BH21" s="103"/>
-      <c r="BI21" s="103"/>
-      <c r="BJ21" s="103" t="s">
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="66"/>
+      <c r="BA21" s="66"/>
+      <c r="BB21" s="66"/>
+      <c r="BC21" s="66"/>
+      <c r="BD21" s="66"/>
+      <c r="BE21" s="66"/>
+      <c r="BF21" s="66"/>
+      <c r="BG21" s="66"/>
+      <c r="BH21" s="66"/>
+      <c r="BI21" s="66"/>
+      <c r="BJ21" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK21" s="103"/>
-      <c r="BL21" s="103"/>
-      <c r="BM21" s="103"/>
-      <c r="BN21" s="103"/>
-      <c r="BO21" s="103"/>
-      <c r="BP21" s="103"/>
+      <c r="BK21" s="66"/>
+      <c r="BL21" s="66"/>
+      <c r="BM21" s="66"/>
+      <c r="BN21" s="66"/>
+      <c r="BO21" s="66"/>
+      <c r="BP21" s="66"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="17" t="s">
         <v>106</v>
       </c>
@@ -8804,9 +8804,9 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="20"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="123"/>
       <c r="W22" s="21" t="s">
         <v>66</v>
       </c>
@@ -9804,43 +9804,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="W21:BI21"/>
-    <mergeCell ref="BJ21:BP21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="W10:BI10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -9855,6 +9818,43 @@
     <mergeCell ref="I2:AJ3"/>
     <mergeCell ref="AK2:AS2"/>
     <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W21:BI21"/>
+    <mergeCell ref="BJ21:BP21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -9892,243 +9892,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="124" t="s">
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="124"/>
-      <c r="BA1" s="124"/>
-      <c r="BB1" s="124"/>
-      <c r="BC1" s="124"/>
-      <c r="BD1" s="124"/>
-      <c r="BE1" s="124"/>
-      <c r="BF1" s="124"/>
-      <c r="BG1" s="124"/>
-      <c r="BH1" s="124"/>
-      <c r="BI1" s="124"/>
-      <c r="BJ1" s="124"/>
-      <c r="BK1" s="124"/>
-      <c r="BL1" s="124"/>
-      <c r="BM1" s="124"/>
-      <c r="BN1" s="124"/>
-      <c r="BO1" s="124"/>
-      <c r="BP1" s="124"/>
-      <c r="BQ1" s="124"/>
+      <c r="AU1" s="132"/>
+      <c r="AV1" s="132"/>
+      <c r="AW1" s="132"/>
+      <c r="AX1" s="132"/>
+      <c r="AY1" s="132"/>
+      <c r="AZ1" s="132"/>
+      <c r="BA1" s="132"/>
+      <c r="BB1" s="132"/>
+      <c r="BC1" s="132"/>
+      <c r="BD1" s="132"/>
+      <c r="BE1" s="132"/>
+      <c r="BF1" s="132"/>
+      <c r="BG1" s="132"/>
+      <c r="BH1" s="132"/>
+      <c r="BI1" s="132"/>
+      <c r="BJ1" s="132"/>
+      <c r="BK1" s="132"/>
+      <c r="BL1" s="132"/>
+      <c r="BM1" s="132"/>
+      <c r="BN1" s="132"/>
+      <c r="BO1" s="132"/>
+      <c r="BP1" s="132"/>
+      <c r="BQ1" s="132"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="108" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="125" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125" t="s">
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125" t="s">
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="123"/>
+      <c r="AZ2" s="123"/>
+      <c r="BA2" s="123"/>
+      <c r="BB2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="126"/>
-      <c r="BK2" s="126"/>
-      <c r="BL2" s="126"/>
-      <c r="BM2" s="126"/>
-      <c r="BN2" s="126"/>
-      <c r="BO2" s="126"/>
-      <c r="BP2" s="126"/>
-      <c r="BQ2" s="126"/>
+      <c r="BC2" s="123"/>
+      <c r="BD2" s="123"/>
+      <c r="BE2" s="123"/>
+      <c r="BF2" s="123"/>
+      <c r="BG2" s="123"/>
+      <c r="BH2" s="123"/>
+      <c r="BI2" s="123"/>
+      <c r="BJ2" s="133"/>
+      <c r="BK2" s="133"/>
+      <c r="BL2" s="133"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="133"/>
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="133"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="127" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="127"/>
-      <c r="AM3" s="127"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="127"/>
-      <c r="AR3" s="127"/>
-      <c r="AS3" s="127"/>
-      <c r="AT3" s="128">
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="135">
         <v>45510</v>
       </c>
-      <c r="AU3" s="128"/>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
-      <c r="AX3" s="128"/>
-      <c r="AY3" s="128"/>
-      <c r="AZ3" s="128"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="127" t="s">
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="127"/>
-      <c r="BD3" s="127"/>
-      <c r="BE3" s="127"/>
-      <c r="BF3" s="127"/>
-      <c r="BG3" s="127"/>
-      <c r="BH3" s="127"/>
-      <c r="BI3" s="127"/>
-      <c r="BJ3" s="129"/>
-      <c r="BK3" s="129"/>
-      <c r="BL3" s="129"/>
-      <c r="BM3" s="129"/>
-      <c r="BN3" s="129"/>
-      <c r="BO3" s="129"/>
-      <c r="BP3" s="129"/>
-      <c r="BQ3" s="129"/>
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="136"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -10153,96 +10153,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="130" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130"/>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130"/>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="105" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="105"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="105"/>
-      <c r="AT6" s="105"/>
-      <c r="AU6" s="105"/>
-      <c r="AV6" s="105" t="s">
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="105"/>
-      <c r="AX6" s="105"/>
-      <c r="AY6" s="105"/>
-      <c r="AZ6" s="105"/>
-      <c r="BA6" s="105"/>
-      <c r="BB6" s="105"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="105"/>
-      <c r="BE6" s="105"/>
-      <c r="BF6" s="105"/>
-      <c r="BG6" s="105"/>
-      <c r="BH6" s="105"/>
-      <c r="BI6" s="105"/>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="105"/>
-      <c r="BP6" s="105"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="67"/>
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="67"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="67"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="17" t="s">
         <v>80</v>
       </c>
@@ -10273,38 +10273,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="105" t="s">
+      <c r="AO7" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105" t="s">
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="105"/>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="105"/>
-      <c r="BJ7" s="105"/>
-      <c r="BK7" s="105"/>
-      <c r="BL7" s="105"/>
-      <c r="BM7" s="105"/>
-      <c r="BN7" s="105"/>
-      <c r="BO7" s="105"/>
-      <c r="BP7" s="105"/>
+      <c r="AW7" s="67"/>
+      <c r="AX7" s="67"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="67"/>
+      <c r="BF7" s="67"/>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="67"/>
+      <c r="BI7" s="67"/>
+      <c r="BJ7" s="67"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="67"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="67"/>
+      <c r="BP7" s="67"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -10318,89 +10318,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="125" t="s">
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125" t="s">
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="112" t="s">
+      <c r="U10" s="123"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="113"/>
-      <c r="AO10" s="113"/>
-      <c r="AP10" s="113"/>
-      <c r="AQ10" s="113"/>
-      <c r="AR10" s="113"/>
-      <c r="AS10" s="113"/>
-      <c r="AT10" s="113"/>
-      <c r="AU10" s="113"/>
-      <c r="AV10" s="113"/>
-      <c r="AW10" s="113"/>
-      <c r="AX10" s="113"/>
-      <c r="AY10" s="113"/>
-      <c r="AZ10" s="113"/>
-      <c r="BA10" s="113"/>
-      <c r="BB10" s="113"/>
-      <c r="BC10" s="113"/>
-      <c r="BD10" s="113"/>
-      <c r="BE10" s="113"/>
-      <c r="BF10" s="113"/>
-      <c r="BG10" s="113"/>
-      <c r="BH10" s="113"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="103" t="s">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="128"/>
+      <c r="BJ10" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
-      <c r="BP10" s="103"/>
+      <c r="BK10" s="66"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="66"/>
+      <c r="BN10" s="66"/>
+      <c r="BO10" s="66"/>
+      <c r="BP10" s="66"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
       <c r="G11" s="17" t="s">
         <v>120</v>
       </c>
@@ -10416,11 +10416,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="125" t="s">
+      <c r="T11" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
       <c r="W11" s="51" t="s">
         <v>121</v>
       </c>
@@ -10472,12 +10472,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
       <c r="G12" s="13" t="s">
         <v>153</v>
       </c>
@@ -10493,9 +10493,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="125"/>
-      <c r="V12" s="125"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
       <c r="W12" s="51" t="s">
         <v>155</v>
       </c>
@@ -10567,9 +10567,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="123"/>
       <c r="W13" s="51" t="s">
         <v>156</v>
       </c>
@@ -10620,10 +10620,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -10637,9 +10637,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="125"/>
-      <c r="U14" s="125"/>
-      <c r="V14" s="125"/>
+      <c r="T14" s="123"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
       <c r="W14" s="51"/>
       <c r="X14" s="52"/>
       <c r="Y14" s="52"/>
@@ -10689,10 +10689,10 @@
     </row>
     <row r="15" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -10706,9 +10706,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
-      <c r="V15" s="125"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="123"/>
       <c r="W15" s="51"/>
       <c r="X15" s="52"/>
       <c r="Y15" s="52"/>
@@ -10759,10 +10759,10 @@
     </row>
     <row r="16" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -10776,9 +10776,9 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="123"/>
+      <c r="V16" s="123"/>
       <c r="W16" s="51"/>
       <c r="X16" s="52"/>
       <c r="Y16" s="52"/>
@@ -10842,90 +10842,90 @@
     </row>
     <row r="19" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="125" t="s">
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125" t="s">
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="125"/>
-      <c r="V19" s="125"/>
-      <c r="W19" s="103" t="s">
+      <c r="U19" s="123"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="103"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="103"/>
-      <c r="AL19" s="103"/>
-      <c r="AM19" s="103"/>
-      <c r="AN19" s="103"/>
-      <c r="AO19" s="103"/>
-      <c r="AP19" s="103"/>
-      <c r="AQ19" s="103"/>
-      <c r="AR19" s="103"/>
-      <c r="AS19" s="103"/>
-      <c r="AT19" s="103"/>
-      <c r="AU19" s="103"/>
-      <c r="AV19" s="103"/>
-      <c r="AW19" s="103"/>
-      <c r="AX19" s="103"/>
-      <c r="AY19" s="103"/>
-      <c r="AZ19" s="103"/>
-      <c r="BA19" s="103"/>
-      <c r="BB19" s="103"/>
-      <c r="BC19" s="103"/>
-      <c r="BD19" s="103"/>
-      <c r="BE19" s="103"/>
-      <c r="BF19" s="103"/>
-      <c r="BG19" s="103"/>
-      <c r="BH19" s="103"/>
-      <c r="BI19" s="103"/>
-      <c r="BJ19" s="103" t="s">
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="66"/>
+      <c r="AZ19" s="66"/>
+      <c r="BA19" s="66"/>
+      <c r="BB19" s="66"/>
+      <c r="BC19" s="66"/>
+      <c r="BD19" s="66"/>
+      <c r="BE19" s="66"/>
+      <c r="BF19" s="66"/>
+      <c r="BG19" s="66"/>
+      <c r="BH19" s="66"/>
+      <c r="BI19" s="66"/>
+      <c r="BJ19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK19" s="103"/>
-      <c r="BL19" s="103"/>
-      <c r="BM19" s="103"/>
-      <c r="BN19" s="103"/>
-      <c r="BO19" s="103"/>
-      <c r="BP19" s="103"/>
+      <c r="BK19" s="66"/>
+      <c r="BL19" s="66"/>
+      <c r="BM19" s="66"/>
+      <c r="BN19" s="66"/>
+      <c r="BO19" s="66"/>
+      <c r="BP19" s="66"/>
       <c r="BQ19" s="15"/>
     </row>
     <row r="20" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="17" t="s">
         <v>116</v>
       </c>
@@ -10941,9 +10941,9 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="20"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="125"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
       <c r="W20" s="21" t="s">
         <v>122</v>
       </c>
@@ -12645,39 +12645,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="W19:BI19"/>
-    <mergeCell ref="BJ19:BP19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -12692,6 +12659,39 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:BI19"/>
+    <mergeCell ref="BJ19:BP19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860673E7-2A2D-4CCF-8547-57973C9CA252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D94A6D-F13A-4F8A-ADEA-8535797ABAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1150" yWindow="30" windowWidth="13340" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1150" yWindow="30" windowWidth="13340" windowHeight="10050" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_交通費申請マッパー" sheetId="10" r:id="rId1"/>
@@ -2316,80 +2316,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2427,50 +2382,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2490,27 +2418,77 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2519,6 +2497,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2531,6 +2512,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2752,7 +2752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B70D8C-054F-4519-8336-22893221A19C}">
   <dimension ref="A1:AMW50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -2764,249 +2764,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="107"/>
-      <c r="AR1" s="107"/>
-      <c r="AS1" s="107"/>
-      <c r="AT1" s="108" t="s">
+      <c r="AL1" s="99"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="108"/>
-      <c r="AX1" s="108"/>
-      <c r="AY1" s="108"/>
-      <c r="AZ1" s="108"/>
-      <c r="BA1" s="108"/>
-      <c r="BB1" s="108"/>
-      <c r="BC1" s="108"/>
-      <c r="BD1" s="108"/>
-      <c r="BE1" s="108"/>
-      <c r="BF1" s="108"/>
-      <c r="BG1" s="108"/>
-      <c r="BH1" s="108"/>
-      <c r="BI1" s="108"/>
-      <c r="BJ1" s="108"/>
-      <c r="BK1" s="108"/>
-      <c r="BL1" s="108"/>
-      <c r="BM1" s="108"/>
-      <c r="BN1" s="108"/>
-      <c r="BO1" s="108"/>
-      <c r="BP1" s="108"/>
-      <c r="BQ1" s="108"/>
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="100"/>
+      <c r="AW1" s="100"/>
+      <c r="AX1" s="100"/>
+      <c r="AY1" s="100"/>
+      <c r="AZ1" s="100"/>
+      <c r="BA1" s="100"/>
+      <c r="BB1" s="100"/>
+      <c r="BC1" s="100"/>
+      <c r="BD1" s="100"/>
+      <c r="BE1" s="100"/>
+      <c r="BF1" s="100"/>
+      <c r="BG1" s="100"/>
+      <c r="BH1" s="100"/>
+      <c r="BI1" s="100"/>
+      <c r="BJ1" s="100"/>
+      <c r="BK1" s="100"/>
+      <c r="BL1" s="100"/>
+      <c r="BM1" s="100"/>
+      <c r="BN1" s="100"/>
+      <c r="BO1" s="100"/>
+      <c r="BP1" s="100"/>
+      <c r="BQ1" s="100"/>
       <c r="BR1" s="4"/>
     </row>
     <row r="2" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="110"/>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="110"/>
-      <c r="AJ2" s="110"/>
-      <c r="AK2" s="66" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66" t="s">
+      <c r="AL2" s="103"/>
+      <c r="AM2" s="103"/>
+      <c r="AN2" s="103"/>
+      <c r="AO2" s="103"/>
+      <c r="AP2" s="103"/>
+      <c r="AQ2" s="103"/>
+      <c r="AR2" s="103"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66" t="s">
+      <c r="AU2" s="103"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="111" t="s">
+      <c r="BC2" s="103"/>
+      <c r="BD2" s="103"/>
+      <c r="BE2" s="103"/>
+      <c r="BF2" s="103"/>
+      <c r="BG2" s="103"/>
+      <c r="BH2" s="103"/>
+      <c r="BI2" s="103"/>
+      <c r="BJ2" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="111"/>
-      <c r="BL2" s="111"/>
-      <c r="BM2" s="111"/>
-      <c r="BN2" s="111"/>
-      <c r="BO2" s="111"/>
-      <c r="BP2" s="111"/>
-      <c r="BQ2" s="111"/>
+      <c r="BK2" s="104"/>
+      <c r="BL2" s="104"/>
+      <c r="BM2" s="104"/>
+      <c r="BN2" s="104"/>
+      <c r="BO2" s="104"/>
+      <c r="BP2" s="104"/>
+      <c r="BQ2" s="104"/>
       <c r="BR2" s="4"/>
     </row>
     <row r="3" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="110"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="110"/>
-      <c r="AJ3" s="110"/>
-      <c r="AK3" s="102" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="102"/>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="102"/>
-      <c r="AS3" s="102"/>
-      <c r="AT3" s="103">
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="109">
         <v>45503</v>
       </c>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="102" t="s">
+      <c r="AU3" s="109"/>
+      <c r="AV3" s="109"/>
+      <c r="AW3" s="109"/>
+      <c r="AX3" s="109"/>
+      <c r="AY3" s="109"/>
+      <c r="AZ3" s="109"/>
+      <c r="BA3" s="109"/>
+      <c r="BB3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102"/>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102"/>
-      <c r="BG3" s="102"/>
-      <c r="BH3" s="102"/>
-      <c r="BI3" s="102"/>
-      <c r="BJ3" s="104">
+      <c r="BC3" s="108"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="108"/>
+      <c r="BF3" s="108"/>
+      <c r="BG3" s="108"/>
+      <c r="BH3" s="108"/>
+      <c r="BI3" s="108"/>
+      <c r="BJ3" s="110">
         <v>45548</v>
       </c>
-      <c r="BK3" s="104"/>
-      <c r="BL3" s="104"/>
-      <c r="BM3" s="104"/>
-      <c r="BN3" s="104"/>
-      <c r="BO3" s="104"/>
-      <c r="BP3" s="104"/>
-      <c r="BQ3" s="104"/>
+      <c r="BK3" s="110"/>
+      <c r="BL3" s="110"/>
+      <c r="BM3" s="110"/>
+      <c r="BN3" s="110"/>
+      <c r="BO3" s="110"/>
+      <c r="BP3" s="110"/>
+      <c r="BQ3" s="110"/>
       <c r="BR3" s="4"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
@@ -3074,215 +3074,215 @@
     </row>
     <row r="6" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="105"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105"/>
-      <c r="V6" s="105"/>
-      <c r="W6" s="105"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="105"/>
-      <c r="AA6" s="105"/>
-      <c r="AB6" s="105"/>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="105"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="105"/>
-      <c r="AN6" s="105"/>
-      <c r="AO6" s="105"/>
-      <c r="AP6" s="105"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="105"/>
-      <c r="AT6" s="105"/>
-      <c r="AU6" s="105"/>
-      <c r="AV6" s="105"/>
-      <c r="AW6" s="105"/>
-      <c r="AX6" s="105"/>
-      <c r="AY6" s="105"/>
-      <c r="AZ6" s="105"/>
-      <c r="BA6" s="105"/>
-      <c r="BB6" s="105"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="105"/>
-      <c r="BE6" s="105"/>
-      <c r="BF6" s="105"/>
-      <c r="BG6" s="105"/>
-      <c r="BH6" s="105"/>
-      <c r="BI6" s="105"/>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="105"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111"/>
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111"/>
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="111"/>
+      <c r="AM6" s="111"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111"/>
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111"/>
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111"/>
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="111"/>
+      <c r="BC6" s="111"/>
+      <c r="BD6" s="111"/>
+      <c r="BE6" s="111"/>
+      <c r="BF6" s="111"/>
+      <c r="BG6" s="111"/>
+      <c r="BH6" s="111"/>
+      <c r="BI6" s="111"/>
+      <c r="BJ6" s="111"/>
+      <c r="BK6" s="111"/>
+      <c r="BL6" s="111"/>
+      <c r="BM6" s="111"/>
+      <c r="BN6" s="111"/>
+      <c r="BO6" s="111"/>
       <c r="BP6"/>
       <c r="BR6" s="4"/>
     </row>
     <row r="7" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105"/>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="105"/>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="105"/>
-      <c r="BJ7" s="105"/>
-      <c r="BK7" s="105"/>
-      <c r="BL7" s="105"/>
-      <c r="BM7" s="105"/>
-      <c r="BN7" s="105"/>
-      <c r="BO7" s="105"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="111"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="111"/>
+      <c r="AM7" s="111"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="111"/>
+      <c r="AX7" s="111"/>
+      <c r="AY7" s="111"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="111"/>
+      <c r="BB7" s="111"/>
+      <c r="BC7" s="111"/>
+      <c r="BD7" s="111"/>
+      <c r="BE7" s="111"/>
+      <c r="BF7" s="111"/>
+      <c r="BG7" s="111"/>
+      <c r="BH7" s="111"/>
+      <c r="BI7" s="111"/>
+      <c r="BJ7" s="111"/>
+      <c r="BK7" s="111"/>
+      <c r="BL7" s="111"/>
+      <c r="BM7" s="111"/>
+      <c r="BN7" s="111"/>
+      <c r="BO7" s="111"/>
       <c r="BP7"/>
       <c r="BR7" s="4"/>
     </row>
     <row r="8" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="67"/>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="67"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="67"/>
-      <c r="AV8" s="67"/>
-      <c r="AW8" s="67"/>
-      <c r="AX8" s="67"/>
-      <c r="AY8" s="67"/>
-      <c r="AZ8" s="67"/>
-      <c r="BA8" s="67"/>
-      <c r="BB8" s="67"/>
-      <c r="BC8" s="67"/>
-      <c r="BD8" s="67"/>
-      <c r="BE8" s="67"/>
-      <c r="BF8" s="67"/>
-      <c r="BG8" s="67"/>
-      <c r="BH8" s="67"/>
-      <c r="BI8" s="67"/>
-      <c r="BJ8" s="67"/>
-      <c r="BK8" s="67"/>
-      <c r="BL8" s="67"/>
-      <c r="BM8" s="67"/>
-      <c r="BN8" s="67"/>
-      <c r="BO8" s="67"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="105"/>
+      <c r="AX8" s="105"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="105"/>
+      <c r="BB8" s="105"/>
+      <c r="BC8" s="105"/>
+      <c r="BD8" s="105"/>
+      <c r="BE8" s="105"/>
+      <c r="BF8" s="105"/>
+      <c r="BG8" s="105"/>
+      <c r="BH8" s="105"/>
+      <c r="BI8" s="105"/>
+      <c r="BJ8" s="105"/>
+      <c r="BK8" s="105"/>
+      <c r="BL8" s="105"/>
+      <c r="BM8" s="105"/>
+      <c r="BN8" s="105"/>
+      <c r="BO8" s="105"/>
       <c r="BP8"/>
       <c r="BR8" s="4"/>
     </row>
@@ -3335,787 +3335,787 @@
     </row>
     <row r="11" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="66" t="s">
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67" t="s">
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="101" t="s">
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="AJ11" s="101"/>
-      <c r="AK11" s="101"/>
-      <c r="AL11" s="101"/>
-      <c r="AM11" s="101"/>
-      <c r="AN11" s="101"/>
-      <c r="AO11" s="101"/>
-      <c r="AP11" s="101"/>
-      <c r="AQ11" s="101"/>
-      <c r="AR11" s="101"/>
-      <c r="AS11" s="101"/>
-      <c r="AT11" s="101"/>
-      <c r="AU11" s="101"/>
-      <c r="AV11" s="101"/>
-      <c r="AW11" s="101"/>
-      <c r="AX11" s="101"/>
-      <c r="AY11" s="101"/>
-      <c r="AZ11" s="101"/>
-      <c r="BA11" s="101"/>
-      <c r="BB11" s="101"/>
-      <c r="BC11" s="101"/>
-      <c r="BD11" s="101"/>
-      <c r="BE11" s="101"/>
-      <c r="BF11" s="101"/>
-      <c r="BG11" s="101"/>
-      <c r="BH11" s="101"/>
-      <c r="BI11" s="101"/>
-      <c r="BJ11" s="101"/>
-      <c r="BK11" s="101"/>
-      <c r="BL11" s="101"/>
-      <c r="BM11" s="101"/>
-      <c r="BN11" s="101"/>
-      <c r="BO11" s="101"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="106"/>
+      <c r="AM11" s="106"/>
+      <c r="AN11" s="106"/>
+      <c r="AO11" s="106"/>
+      <c r="AP11" s="106"/>
+      <c r="AQ11" s="106"/>
+      <c r="AR11" s="106"/>
+      <c r="AS11" s="106"/>
+      <c r="AT11" s="106"/>
+      <c r="AU11" s="106"/>
+      <c r="AV11" s="106"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="106"/>
+      <c r="AY11" s="106"/>
+      <c r="AZ11" s="106"/>
+      <c r="BA11" s="106"/>
+      <c r="BB11" s="106"/>
+      <c r="BC11" s="106"/>
+      <c r="BD11" s="106"/>
+      <c r="BE11" s="106"/>
+      <c r="BF11" s="106"/>
+      <c r="BG11" s="106"/>
+      <c r="BH11" s="106"/>
+      <c r="BI11" s="106"/>
+      <c r="BJ11" s="106"/>
+      <c r="BK11" s="106"/>
+      <c r="BL11" s="106"/>
+      <c r="BM11" s="106"/>
+      <c r="BN11" s="106"/>
+      <c r="BO11" s="106"/>
       <c r="BP11"/>
       <c r="BR11" s="4"/>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="68"/>
-      <c r="AK12" s="68"/>
-      <c r="AL12" s="68"/>
-      <c r="AM12" s="68"/>
-      <c r="AN12" s="68"/>
-      <c r="AO12" s="68"/>
-      <c r="AP12" s="68"/>
-      <c r="AQ12" s="68"/>
-      <c r="AR12" s="68"/>
-      <c r="AS12" s="68"/>
-      <c r="AT12" s="68"/>
-      <c r="AU12" s="68"/>
-      <c r="AV12" s="68"/>
-      <c r="AW12" s="68"/>
-      <c r="AX12" s="68"/>
-      <c r="AY12" s="68"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="68"/>
-      <c r="BB12" s="68"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="68"/>
-      <c r="BE12" s="68"/>
-      <c r="BF12" s="68"/>
-      <c r="BG12" s="68"/>
-      <c r="BH12" s="68"/>
-      <c r="BI12" s="68"/>
-      <c r="BJ12" s="68"/>
-      <c r="BK12" s="68"/>
-      <c r="BL12" s="68"/>
-      <c r="BM12" s="68"/>
-      <c r="BN12" s="68"/>
-      <c r="BO12" s="68"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="107"/>
+      <c r="AG12" s="107"/>
+      <c r="AH12" s="107"/>
+      <c r="AI12" s="107"/>
+      <c r="AJ12" s="107"/>
+      <c r="AK12" s="107"/>
+      <c r="AL12" s="107"/>
+      <c r="AM12" s="107"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="107"/>
+      <c r="AP12" s="107"/>
+      <c r="AQ12" s="107"/>
+      <c r="AR12" s="107"/>
+      <c r="AS12" s="107"/>
+      <c r="AT12" s="107"/>
+      <c r="AU12" s="107"/>
+      <c r="AV12" s="107"/>
+      <c r="AW12" s="107"/>
+      <c r="AX12" s="107"/>
+      <c r="AY12" s="107"/>
+      <c r="AZ12" s="107"/>
+      <c r="BA12" s="107"/>
+      <c r="BB12" s="107"/>
+      <c r="BC12" s="107"/>
+      <c r="BD12" s="107"/>
+      <c r="BE12" s="107"/>
+      <c r="BF12" s="107"/>
+      <c r="BG12" s="107"/>
+      <c r="BH12" s="107"/>
+      <c r="BI12" s="107"/>
+      <c r="BJ12" s="107"/>
+      <c r="BK12" s="107"/>
+      <c r="BL12" s="107"/>
+      <c r="BM12" s="107"/>
+      <c r="BN12" s="107"/>
+      <c r="BO12" s="107"/>
       <c r="BP12"/>
       <c r="BR12" s="4"/>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="68"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="68"/>
-      <c r="AL13" s="68"/>
-      <c r="AM13" s="68"/>
-      <c r="AN13" s="68"/>
-      <c r="AO13" s="68"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="68"/>
-      <c r="AS13" s="68"/>
-      <c r="AT13" s="68"/>
-      <c r="AU13" s="68"/>
-      <c r="AV13" s="68"/>
-      <c r="AW13" s="68"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="68"/>
-      <c r="BA13" s="68"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="68"/>
-      <c r="BE13" s="68"/>
-      <c r="BF13" s="68"/>
-      <c r="BG13" s="68"/>
-      <c r="BH13" s="68"/>
-      <c r="BI13" s="68"/>
-      <c r="BJ13" s="68"/>
-      <c r="BK13" s="68"/>
-      <c r="BL13" s="68"/>
-      <c r="BM13" s="68"/>
-      <c r="BN13" s="68"/>
-      <c r="BO13" s="68"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="107"/>
+      <c r="AI13" s="107"/>
+      <c r="AJ13" s="107"/>
+      <c r="AK13" s="107"/>
+      <c r="AL13" s="107"/>
+      <c r="AM13" s="107"/>
+      <c r="AN13" s="107"/>
+      <c r="AO13" s="107"/>
+      <c r="AP13" s="107"/>
+      <c r="AQ13" s="107"/>
+      <c r="AR13" s="107"/>
+      <c r="AS13" s="107"/>
+      <c r="AT13" s="107"/>
+      <c r="AU13" s="107"/>
+      <c r="AV13" s="107"/>
+      <c r="AW13" s="107"/>
+      <c r="AX13" s="107"/>
+      <c r="AY13" s="107"/>
+      <c r="AZ13" s="107"/>
+      <c r="BA13" s="107"/>
+      <c r="BB13" s="107"/>
+      <c r="BC13" s="107"/>
+      <c r="BD13" s="107"/>
+      <c r="BE13" s="107"/>
+      <c r="BF13" s="107"/>
+      <c r="BG13" s="107"/>
+      <c r="BH13" s="107"/>
+      <c r="BI13" s="107"/>
+      <c r="BJ13" s="107"/>
+      <c r="BK13" s="107"/>
+      <c r="BL13" s="107"/>
+      <c r="BM13" s="107"/>
+      <c r="BN13" s="107"/>
+      <c r="BO13" s="107"/>
       <c r="BP13"/>
       <c r="BR13" s="4"/>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="86" t="s">
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="86"/>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="86"/>
-      <c r="AX14" s="86"/>
-      <c r="AY14" s="86"/>
-      <c r="AZ14" s="86"/>
-      <c r="BA14" s="86"/>
-      <c r="BB14" s="86"/>
-      <c r="BC14" s="86"/>
-      <c r="BD14" s="86"/>
-      <c r="BE14" s="86"/>
-      <c r="BF14" s="86"/>
-      <c r="BG14" s="86"/>
-      <c r="BH14" s="86"/>
-      <c r="BI14" s="86"/>
-      <c r="BJ14" s="86"/>
-      <c r="BK14" s="86"/>
-      <c r="BL14" s="86"/>
-      <c r="BM14" s="86"/>
-      <c r="BN14" s="86"/>
-      <c r="BO14" s="86"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="115"/>
+      <c r="AF14" s="115"/>
+      <c r="AG14" s="115"/>
+      <c r="AH14" s="115"/>
+      <c r="AI14" s="115"/>
+      <c r="AJ14" s="115"/>
+      <c r="AK14" s="115"/>
+      <c r="AL14" s="115"/>
+      <c r="AM14" s="115"/>
+      <c r="AN14" s="115"/>
+      <c r="AO14" s="115"/>
+      <c r="AP14" s="115"/>
+      <c r="AQ14" s="115"/>
+      <c r="AR14" s="115"/>
+      <c r="AS14" s="115"/>
+      <c r="AT14" s="115"/>
+      <c r="AU14" s="115"/>
+      <c r="AV14" s="115"/>
+      <c r="AW14" s="115"/>
+      <c r="AX14" s="115"/>
+      <c r="AY14" s="115"/>
+      <c r="AZ14" s="115"/>
+      <c r="BA14" s="115"/>
+      <c r="BB14" s="115"/>
+      <c r="BC14" s="115"/>
+      <c r="BD14" s="115"/>
+      <c r="BE14" s="115"/>
+      <c r="BF14" s="115"/>
+      <c r="BG14" s="115"/>
+      <c r="BH14" s="115"/>
+      <c r="BI14" s="115"/>
+      <c r="BJ14" s="115"/>
+      <c r="BK14" s="115"/>
+      <c r="BL14" s="115"/>
+      <c r="BM14" s="115"/>
+      <c r="BN14" s="115"/>
+      <c r="BO14" s="115"/>
       <c r="BP14"/>
       <c r="BR14" s="4"/>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="68"/>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="68"/>
-      <c r="AN15" s="68"/>
-      <c r="AO15" s="68"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="68"/>
-      <c r="AU15" s="68"/>
-      <c r="AV15" s="68"/>
-      <c r="AW15" s="68"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="68"/>
-      <c r="BE15" s="68"/>
-      <c r="BF15" s="68"/>
-      <c r="BG15" s="68"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="68"/>
-      <c r="BJ15" s="68"/>
-      <c r="BK15" s="68"/>
-      <c r="BL15" s="68"/>
-      <c r="BM15" s="68"/>
-      <c r="BN15" s="68"/>
-      <c r="BO15" s="68"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="107"/>
+      <c r="AK15" s="107"/>
+      <c r="AL15" s="107"/>
+      <c r="AM15" s="107"/>
+      <c r="AN15" s="107"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="107"/>
+      <c r="AQ15" s="107"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="107"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="107"/>
+      <c r="AV15" s="107"/>
+      <c r="AW15" s="107"/>
+      <c r="AX15" s="107"/>
+      <c r="AY15" s="107"/>
+      <c r="AZ15" s="107"/>
+      <c r="BA15" s="107"/>
+      <c r="BB15" s="107"/>
+      <c r="BC15" s="107"/>
+      <c r="BD15" s="107"/>
+      <c r="BE15" s="107"/>
+      <c r="BF15" s="107"/>
+      <c r="BG15" s="107"/>
+      <c r="BH15" s="107"/>
+      <c r="BI15" s="107"/>
+      <c r="BJ15" s="107"/>
+      <c r="BK15" s="107"/>
+      <c r="BL15" s="107"/>
+      <c r="BM15" s="107"/>
+      <c r="BN15" s="107"/>
+      <c r="BO15" s="107"/>
       <c r="BP15"/>
       <c r="BR15" s="4"/>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="68"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="68"/>
-      <c r="AK16" s="68"/>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="68"/>
-      <c r="AN16" s="68"/>
-      <c r="AO16" s="68"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="68"/>
-      <c r="AU16" s="68"/>
-      <c r="AV16" s="68"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="68"/>
-      <c r="BE16" s="68"/>
-      <c r="BF16" s="68"/>
-      <c r="BG16" s="68"/>
-      <c r="BH16" s="68"/>
-      <c r="BI16" s="68"/>
-      <c r="BJ16" s="68"/>
-      <c r="BK16" s="68"/>
-      <c r="BL16" s="68"/>
-      <c r="BM16" s="68"/>
-      <c r="BN16" s="68"/>
-      <c r="BO16" s="68"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="107"/>
+      <c r="AF16" s="107"/>
+      <c r="AG16" s="107"/>
+      <c r="AH16" s="107"/>
+      <c r="AI16" s="107"/>
+      <c r="AJ16" s="107"/>
+      <c r="AK16" s="107"/>
+      <c r="AL16" s="107"/>
+      <c r="AM16" s="107"/>
+      <c r="AN16" s="107"/>
+      <c r="AO16" s="107"/>
+      <c r="AP16" s="107"/>
+      <c r="AQ16" s="107"/>
+      <c r="AR16" s="107"/>
+      <c r="AS16" s="107"/>
+      <c r="AT16" s="107"/>
+      <c r="AU16" s="107"/>
+      <c r="AV16" s="107"/>
+      <c r="AW16" s="107"/>
+      <c r="AX16" s="107"/>
+      <c r="AY16" s="107"/>
+      <c r="AZ16" s="107"/>
+      <c r="BA16" s="107"/>
+      <c r="BB16" s="107"/>
+      <c r="BC16" s="107"/>
+      <c r="BD16" s="107"/>
+      <c r="BE16" s="107"/>
+      <c r="BF16" s="107"/>
+      <c r="BG16" s="107"/>
+      <c r="BH16" s="107"/>
+      <c r="BI16" s="107"/>
+      <c r="BJ16" s="107"/>
+      <c r="BK16" s="107"/>
+      <c r="BL16" s="107"/>
+      <c r="BM16" s="107"/>
+      <c r="BN16" s="107"/>
+      <c r="BO16" s="107"/>
       <c r="BP16"/>
       <c r="BR16" s="4"/>
     </row>
     <row r="17" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="68"/>
-      <c r="AH17" s="68"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="68"/>
-      <c r="AK17" s="68"/>
-      <c r="AL17" s="68"/>
-      <c r="AM17" s="68"/>
-      <c r="AN17" s="68"/>
-      <c r="AO17" s="68"/>
-      <c r="AP17" s="68"/>
-      <c r="AQ17" s="68"/>
-      <c r="AR17" s="68"/>
-      <c r="AS17" s="68"/>
-      <c r="AT17" s="68"/>
-      <c r="AU17" s="68"/>
-      <c r="AV17" s="68"/>
-      <c r="AW17" s="68"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="68"/>
-      <c r="AZ17" s="68"/>
-      <c r="BA17" s="68"/>
-      <c r="BB17" s="68"/>
-      <c r="BC17" s="68"/>
-      <c r="BD17" s="68"/>
-      <c r="BE17" s="68"/>
-      <c r="BF17" s="68"/>
-      <c r="BG17" s="68"/>
-      <c r="BH17" s="68"/>
-      <c r="BI17" s="68"/>
-      <c r="BJ17" s="68"/>
-      <c r="BK17" s="68"/>
-      <c r="BL17" s="68"/>
-      <c r="BM17" s="68"/>
-      <c r="BN17" s="68"/>
-      <c r="BO17" s="68"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="107"/>
+      <c r="AD17" s="107"/>
+      <c r="AE17" s="107"/>
+      <c r="AF17" s="107"/>
+      <c r="AG17" s="107"/>
+      <c r="AH17" s="107"/>
+      <c r="AI17" s="107"/>
+      <c r="AJ17" s="107"/>
+      <c r="AK17" s="107"/>
+      <c r="AL17" s="107"/>
+      <c r="AM17" s="107"/>
+      <c r="AN17" s="107"/>
+      <c r="AO17" s="107"/>
+      <c r="AP17" s="107"/>
+      <c r="AQ17" s="107"/>
+      <c r="AR17" s="107"/>
+      <c r="AS17" s="107"/>
+      <c r="AT17" s="107"/>
+      <c r="AU17" s="107"/>
+      <c r="AV17" s="107"/>
+      <c r="AW17" s="107"/>
+      <c r="AX17" s="107"/>
+      <c r="AY17" s="107"/>
+      <c r="AZ17" s="107"/>
+      <c r="BA17" s="107"/>
+      <c r="BB17" s="107"/>
+      <c r="BC17" s="107"/>
+      <c r="BD17" s="107"/>
+      <c r="BE17" s="107"/>
+      <c r="BF17" s="107"/>
+      <c r="BG17" s="107"/>
+      <c r="BH17" s="107"/>
+      <c r="BI17" s="107"/>
+      <c r="BJ17" s="107"/>
+      <c r="BK17" s="107"/>
+      <c r="BL17" s="107"/>
+      <c r="BM17" s="107"/>
+      <c r="BN17" s="107"/>
+      <c r="BO17" s="107"/>
       <c r="BP17"/>
       <c r="BR17" s="4"/>
     </row>
     <row r="18" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="68"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="68"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="68"/>
-      <c r="AK18" s="68"/>
-      <c r="AL18" s="68"/>
-      <c r="AM18" s="68"/>
-      <c r="AN18" s="68"/>
-      <c r="AO18" s="68"/>
-      <c r="AP18" s="68"/>
-      <c r="AQ18" s="68"/>
-      <c r="AR18" s="68"/>
-      <c r="AS18" s="68"/>
-      <c r="AT18" s="68"/>
-      <c r="AU18" s="68"/>
-      <c r="AV18" s="68"/>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="68"/>
-      <c r="AY18" s="68"/>
-      <c r="AZ18" s="68"/>
-      <c r="BA18" s="68"/>
-      <c r="BB18" s="68"/>
-      <c r="BC18" s="68"/>
-      <c r="BD18" s="68"/>
-      <c r="BE18" s="68"/>
-      <c r="BF18" s="68"/>
-      <c r="BG18" s="68"/>
-      <c r="BH18" s="68"/>
-      <c r="BI18" s="68"/>
-      <c r="BJ18" s="68"/>
-      <c r="BK18" s="68"/>
-      <c r="BL18" s="68"/>
-      <c r="BM18" s="68"/>
-      <c r="BN18" s="68"/>
-      <c r="BO18" s="68"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="107"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="107"/>
+      <c r="AI18" s="107"/>
+      <c r="AJ18" s="107"/>
+      <c r="AK18" s="107"/>
+      <c r="AL18" s="107"/>
+      <c r="AM18" s="107"/>
+      <c r="AN18" s="107"/>
+      <c r="AO18" s="107"/>
+      <c r="AP18" s="107"/>
+      <c r="AQ18" s="107"/>
+      <c r="AR18" s="107"/>
+      <c r="AS18" s="107"/>
+      <c r="AT18" s="107"/>
+      <c r="AU18" s="107"/>
+      <c r="AV18" s="107"/>
+      <c r="AW18" s="107"/>
+      <c r="AX18" s="107"/>
+      <c r="AY18" s="107"/>
+      <c r="AZ18" s="107"/>
+      <c r="BA18" s="107"/>
+      <c r="BB18" s="107"/>
+      <c r="BC18" s="107"/>
+      <c r="BD18" s="107"/>
+      <c r="BE18" s="107"/>
+      <c r="BF18" s="107"/>
+      <c r="BG18" s="107"/>
+      <c r="BH18" s="107"/>
+      <c r="BI18" s="107"/>
+      <c r="BJ18" s="107"/>
+      <c r="BK18" s="107"/>
+      <c r="BL18" s="107"/>
+      <c r="BM18" s="107"/>
+      <c r="BN18" s="107"/>
+      <c r="BO18" s="107"/>
       <c r="BP18"/>
       <c r="BR18" s="4"/>
     </row>
     <row r="19" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="68"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="68"/>
-      <c r="AH19" s="68"/>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="68"/>
-      <c r="AK19" s="68"/>
-      <c r="AL19" s="68"/>
-      <c r="AM19" s="68"/>
-      <c r="AN19" s="68"/>
-      <c r="AO19" s="68"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="68"/>
-      <c r="AS19" s="68"/>
-      <c r="AT19" s="68"/>
-      <c r="AU19" s="68"/>
-      <c r="AV19" s="68"/>
-      <c r="AW19" s="68"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="68"/>
-      <c r="BB19" s="68"/>
-      <c r="BC19" s="68"/>
-      <c r="BD19" s="68"/>
-      <c r="BE19" s="68"/>
-      <c r="BF19" s="68"/>
-      <c r="BG19" s="68"/>
-      <c r="BH19" s="68"/>
-      <c r="BI19" s="68"/>
-      <c r="BJ19" s="68"/>
-      <c r="BK19" s="68"/>
-      <c r="BL19" s="68"/>
-      <c r="BM19" s="68"/>
-      <c r="BN19" s="68"/>
-      <c r="BO19" s="68"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="107"/>
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="107"/>
+      <c r="AD19" s="107"/>
+      <c r="AE19" s="107"/>
+      <c r="AF19" s="107"/>
+      <c r="AG19" s="107"/>
+      <c r="AH19" s="107"/>
+      <c r="AI19" s="107"/>
+      <c r="AJ19" s="107"/>
+      <c r="AK19" s="107"/>
+      <c r="AL19" s="107"/>
+      <c r="AM19" s="107"/>
+      <c r="AN19" s="107"/>
+      <c r="AO19" s="107"/>
+      <c r="AP19" s="107"/>
+      <c r="AQ19" s="107"/>
+      <c r="AR19" s="107"/>
+      <c r="AS19" s="107"/>
+      <c r="AT19" s="107"/>
+      <c r="AU19" s="107"/>
+      <c r="AV19" s="107"/>
+      <c r="AW19" s="107"/>
+      <c r="AX19" s="107"/>
+      <c r="AY19" s="107"/>
+      <c r="AZ19" s="107"/>
+      <c r="BA19" s="107"/>
+      <c r="BB19" s="107"/>
+      <c r="BC19" s="107"/>
+      <c r="BD19" s="107"/>
+      <c r="BE19" s="107"/>
+      <c r="BF19" s="107"/>
+      <c r="BG19" s="107"/>
+      <c r="BH19" s="107"/>
+      <c r="BI19" s="107"/>
+      <c r="BJ19" s="107"/>
+      <c r="BK19" s="107"/>
+      <c r="BL19" s="107"/>
+      <c r="BM19" s="107"/>
+      <c r="BN19" s="107"/>
+      <c r="BO19" s="107"/>
       <c r="BP19"/>
       <c r="BR19" s="4"/>
     </row>
     <row r="20" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="68"/>
-      <c r="AK20" s="68"/>
-      <c r="AL20" s="68"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="68"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="68"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="68"/>
-      <c r="BE20" s="68"/>
-      <c r="BF20" s="68"/>
-      <c r="BG20" s="68"/>
-      <c r="BH20" s="68"/>
-      <c r="BI20" s="68"/>
-      <c r="BJ20" s="68"/>
-      <c r="BK20" s="68"/>
-      <c r="BL20" s="68"/>
-      <c r="BM20" s="68"/>
-      <c r="BN20" s="68"/>
-      <c r="BO20" s="68"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="107"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="107"/>
+      <c r="AD20" s="107"/>
+      <c r="AE20" s="107"/>
+      <c r="AF20" s="107"/>
+      <c r="AG20" s="107"/>
+      <c r="AH20" s="107"/>
+      <c r="AI20" s="107"/>
+      <c r="AJ20" s="107"/>
+      <c r="AK20" s="107"/>
+      <c r="AL20" s="107"/>
+      <c r="AM20" s="107"/>
+      <c r="AN20" s="107"/>
+      <c r="AO20" s="107"/>
+      <c r="AP20" s="107"/>
+      <c r="AQ20" s="107"/>
+      <c r="AR20" s="107"/>
+      <c r="AS20" s="107"/>
+      <c r="AT20" s="107"/>
+      <c r="AU20" s="107"/>
+      <c r="AV20" s="107"/>
+      <c r="AW20" s="107"/>
+      <c r="AX20" s="107"/>
+      <c r="AY20" s="107"/>
+      <c r="AZ20" s="107"/>
+      <c r="BA20" s="107"/>
+      <c r="BB20" s="107"/>
+      <c r="BC20" s="107"/>
+      <c r="BD20" s="107"/>
+      <c r="BE20" s="107"/>
+      <c r="BF20" s="107"/>
+      <c r="BG20" s="107"/>
+      <c r="BH20" s="107"/>
+      <c r="BI20" s="107"/>
+      <c r="BJ20" s="107"/>
+      <c r="BK20" s="107"/>
+      <c r="BL20" s="107"/>
+      <c r="BM20" s="107"/>
+      <c r="BN20" s="107"/>
+      <c r="BO20" s="107"/>
       <c r="BP20"/>
       <c r="BR20" s="4"/>
     </row>
     <row r="21" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="68"/>
-      <c r="AK21" s="68"/>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="68"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="68"/>
-      <c r="BE21" s="68"/>
-      <c r="BF21" s="68"/>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="68"/>
-      <c r="BJ21" s="68"/>
-      <c r="BK21" s="68"/>
-      <c r="BL21" s="68"/>
-      <c r="BM21" s="68"/>
-      <c r="BN21" s="68"/>
-      <c r="BO21" s="68"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="107"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="107"/>
+      <c r="AD21" s="107"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="107"/>
+      <c r="AG21" s="107"/>
+      <c r="AH21" s="107"/>
+      <c r="AI21" s="107"/>
+      <c r="AJ21" s="107"/>
+      <c r="AK21" s="107"/>
+      <c r="AL21" s="107"/>
+      <c r="AM21" s="107"/>
+      <c r="AN21" s="107"/>
+      <c r="AO21" s="107"/>
+      <c r="AP21" s="107"/>
+      <c r="AQ21" s="107"/>
+      <c r="AR21" s="107"/>
+      <c r="AS21" s="107"/>
+      <c r="AT21" s="107"/>
+      <c r="AU21" s="107"/>
+      <c r="AV21" s="107"/>
+      <c r="AW21" s="107"/>
+      <c r="AX21" s="107"/>
+      <c r="AY21" s="107"/>
+      <c r="AZ21" s="107"/>
+      <c r="BA21" s="107"/>
+      <c r="BB21" s="107"/>
+      <c r="BC21" s="107"/>
+      <c r="BD21" s="107"/>
+      <c r="BE21" s="107"/>
+      <c r="BF21" s="107"/>
+      <c r="BG21" s="107"/>
+      <c r="BH21" s="107"/>
+      <c r="BI21" s="107"/>
+      <c r="BJ21" s="107"/>
+      <c r="BK21" s="107"/>
+      <c r="BL21" s="107"/>
+      <c r="BM21" s="107"/>
+      <c r="BN21" s="107"/>
+      <c r="BO21" s="107"/>
       <c r="BP21"/>
       <c r="BR21" s="4"/>
     </row>
@@ -4145,88 +4145,88 @@
     </row>
     <row r="25" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66" t="s">
+      <c r="D25" s="103"/>
+      <c r="E25" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66" t="s">
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="68" t="s">
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="68"/>
-      <c r="AE25" s="67" t="s">
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="67"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="67"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="67"/>
-      <c r="AK25" s="67"/>
-      <c r="AL25" s="67"/>
-      <c r="AM25" s="67"/>
-      <c r="AN25" s="67"/>
-      <c r="AO25" s="67"/>
-      <c r="AP25" s="67"/>
-      <c r="AQ25" s="67"/>
-      <c r="AR25" s="67"/>
-      <c r="AS25" s="67"/>
-      <c r="AT25" s="67"/>
-      <c r="AU25" s="67"/>
-      <c r="AV25" s="67"/>
-      <c r="AW25" s="67"/>
-      <c r="AX25" s="67"/>
-      <c r="AY25" s="67"/>
-      <c r="AZ25" s="67"/>
-      <c r="BA25" s="67"/>
-      <c r="BB25" s="67"/>
-      <c r="BC25" s="67"/>
-      <c r="BD25" s="67" t="s">
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="105"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="105"/>
+      <c r="AK25" s="105"/>
+      <c r="AL25" s="105"/>
+      <c r="AM25" s="105"/>
+      <c r="AN25" s="105"/>
+      <c r="AO25" s="105"/>
+      <c r="AP25" s="105"/>
+      <c r="AQ25" s="105"/>
+      <c r="AR25" s="105"/>
+      <c r="AS25" s="105"/>
+      <c r="AT25" s="105"/>
+      <c r="AU25" s="105"/>
+      <c r="AV25" s="105"/>
+      <c r="AW25" s="105"/>
+      <c r="AX25" s="105"/>
+      <c r="AY25" s="105"/>
+      <c r="AZ25" s="105"/>
+      <c r="BA25" s="105"/>
+      <c r="BB25" s="105"/>
+      <c r="BC25" s="105"/>
+      <c r="BD25" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="67"/>
-      <c r="BF25" s="67"/>
-      <c r="BG25" s="67"/>
-      <c r="BH25" s="67"/>
-      <c r="BI25" s="67"/>
-      <c r="BJ25" s="69"/>
-      <c r="BK25" s="87" t="s">
+      <c r="BE25" s="105"/>
+      <c r="BF25" s="105"/>
+      <c r="BG25" s="105"/>
+      <c r="BH25" s="105"/>
+      <c r="BI25" s="105"/>
+      <c r="BJ25" s="114"/>
+      <c r="BK25" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="88"/>
-      <c r="BM25" s="88"/>
-      <c r="BN25" s="88"/>
-      <c r="BO25" s="88"/>
-      <c r="BP25" s="88"/>
-      <c r="BQ25" s="88"/>
-      <c r="BR25" s="88"/>
+      <c r="BL25" s="117"/>
+      <c r="BM25" s="117"/>
+      <c r="BN25" s="117"/>
+      <c r="BO25" s="117"/>
+      <c r="BP25" s="117"/>
+      <c r="BQ25" s="117"/>
+      <c r="BR25" s="117"/>
       <c r="BS25" s="46"/>
       <c r="BT25" s="46"/>
       <c r="BU25" s="46"/>
@@ -4246,90 +4246,90 @@
     </row>
     <row r="26" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="74">
+      <c r="C26" s="64">
         <v>1</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="89" t="s">
+      <c r="D26" s="72"/>
+      <c r="E26" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="89" t="s">
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="91"/>
-      <c r="AE26" s="78" t="s">
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="79"/>
-      <c r="AM26" s="79"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="79"/>
-      <c r="AP26" s="79"/>
-      <c r="AQ26" s="79"/>
-      <c r="AR26" s="79"/>
-      <c r="AS26" s="79"/>
-      <c r="AT26" s="79"/>
-      <c r="AU26" s="79"/>
-      <c r="AV26" s="79"/>
-      <c r="AW26" s="79"/>
-      <c r="AX26" s="79"/>
-      <c r="AY26" s="79"/>
-      <c r="AZ26" s="79"/>
-      <c r="BA26" s="79"/>
-      <c r="BB26" s="79"/>
-      <c r="BC26" s="80"/>
-      <c r="BD26" s="74" t="s">
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="87"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="87"/>
+      <c r="AM26" s="87"/>
+      <c r="AN26" s="87"/>
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
+      <c r="AQ26" s="87"/>
+      <c r="AR26" s="87"/>
+      <c r="AS26" s="87"/>
+      <c r="AT26" s="87"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87"/>
+      <c r="AX26" s="87"/>
+      <c r="AY26" s="87"/>
+      <c r="AZ26" s="87"/>
+      <c r="BA26" s="87"/>
+      <c r="BB26" s="87"/>
+      <c r="BC26" s="88"/>
+      <c r="BD26" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="84"/>
-      <c r="BF26" s="84"/>
-      <c r="BG26" s="84"/>
-      <c r="BH26" s="84"/>
-      <c r="BI26" s="84"/>
-      <c r="BJ26" s="84"/>
-      <c r="BK26" s="112" t="s">
+      <c r="BE26" s="65"/>
+      <c r="BF26" s="65"/>
+      <c r="BG26" s="65"/>
+      <c r="BH26" s="65"/>
+      <c r="BI26" s="65"/>
+      <c r="BJ26" s="65"/>
+      <c r="BK26" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="BL26" s="113"/>
-      <c r="BM26" s="113"/>
-      <c r="BN26" s="113"/>
-      <c r="BO26" s="113"/>
-      <c r="BP26" s="113"/>
-      <c r="BQ26" s="113"/>
-      <c r="BR26" s="113"/>
-      <c r="BS26" s="113"/>
-      <c r="BT26" s="113"/>
-      <c r="BU26" s="113"/>
-      <c r="BV26" s="114"/>
+      <c r="BL26" s="69"/>
+      <c r="BM26" s="69"/>
+      <c r="BN26" s="69"/>
+      <c r="BO26" s="69"/>
+      <c r="BP26" s="69"/>
+      <c r="BQ26" s="69"/>
+      <c r="BR26" s="69"/>
+      <c r="BS26" s="69"/>
+      <c r="BT26" s="69"/>
+      <c r="BU26" s="69"/>
+      <c r="BV26" s="70"/>
       <c r="AML26" s="2"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -4345,78 +4345,78 @@
     </row>
     <row r="27" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="94"/>
-      <c r="AE27" s="81"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="82"/>
-      <c r="AM27" s="82"/>
-      <c r="AN27" s="82"/>
-      <c r="AO27" s="82"/>
-      <c r="AP27" s="82"/>
-      <c r="AQ27" s="82"/>
-      <c r="AR27" s="82"/>
-      <c r="AS27" s="82"/>
-      <c r="AT27" s="82"/>
-      <c r="AU27" s="82"/>
-      <c r="AV27" s="82"/>
-      <c r="AW27" s="82"/>
-      <c r="AX27" s="82"/>
-      <c r="AY27" s="82"/>
-      <c r="AZ27" s="82"/>
-      <c r="BA27" s="82"/>
-      <c r="BB27" s="82"/>
-      <c r="BC27" s="83"/>
-      <c r="BD27" s="76"/>
-      <c r="BE27" s="85"/>
-      <c r="BF27" s="85"/>
-      <c r="BG27" s="85"/>
-      <c r="BH27" s="85"/>
-      <c r="BI27" s="85"/>
-      <c r="BJ27" s="85"/>
-      <c r="BK27" s="115"/>
-      <c r="BL27" s="113"/>
-      <c r="BM27" s="113"/>
-      <c r="BN27" s="113"/>
-      <c r="BO27" s="113"/>
-      <c r="BP27" s="113"/>
-      <c r="BQ27" s="113"/>
-      <c r="BR27" s="113"/>
-      <c r="BS27" s="113"/>
-      <c r="BT27" s="113"/>
-      <c r="BU27" s="113"/>
-      <c r="BV27" s="114"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="78"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="89"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="90"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="90"/>
+      <c r="AM27" s="90"/>
+      <c r="AN27" s="90"/>
+      <c r="AO27" s="90"/>
+      <c r="AP27" s="90"/>
+      <c r="AQ27" s="90"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="90"/>
+      <c r="BA27" s="90"/>
+      <c r="BB27" s="90"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="66"/>
+      <c r="BE27" s="67"/>
+      <c r="BF27" s="67"/>
+      <c r="BG27" s="67"/>
+      <c r="BH27" s="67"/>
+      <c r="BI27" s="67"/>
+      <c r="BJ27" s="67"/>
+      <c r="BK27" s="71"/>
+      <c r="BL27" s="69"/>
+      <c r="BM27" s="69"/>
+      <c r="BN27" s="69"/>
+      <c r="BO27" s="69"/>
+      <c r="BP27" s="69"/>
+      <c r="BQ27" s="69"/>
+      <c r="BR27" s="69"/>
+      <c r="BS27" s="69"/>
+      <c r="BT27" s="69"/>
+      <c r="BU27" s="69"/>
+      <c r="BV27" s="70"/>
       <c r="AML27" s="2"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -4432,90 +4432,90 @@
     </row>
     <row r="28" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="74">
+      <c r="C28" s="64">
         <v>2</v>
       </c>
-      <c r="D28" s="75"/>
-      <c r="E28" s="89" t="s">
+      <c r="D28" s="72"/>
+      <c r="E28" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="89" t="s">
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="90"/>
-      <c r="AB28" s="90"/>
-      <c r="AC28" s="90"/>
-      <c r="AD28" s="91"/>
-      <c r="AE28" s="78" t="s">
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="79"/>
-      <c r="AM28" s="79"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
-      <c r="AP28" s="79"/>
-      <c r="AQ28" s="79"/>
-      <c r="AR28" s="79"/>
-      <c r="AS28" s="79"/>
-      <c r="AT28" s="79"/>
-      <c r="AU28" s="79"/>
-      <c r="AV28" s="79"/>
-      <c r="AW28" s="79"/>
-      <c r="AX28" s="79"/>
-      <c r="AY28" s="79"/>
-      <c r="AZ28" s="79"/>
-      <c r="BA28" s="79"/>
-      <c r="BB28" s="79"/>
-      <c r="BC28" s="80"/>
-      <c r="BD28" s="74" t="s">
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="87"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="87"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="87"/>
+      <c r="AL28" s="87"/>
+      <c r="AM28" s="87"/>
+      <c r="AN28" s="87"/>
+      <c r="AO28" s="87"/>
+      <c r="AP28" s="87"/>
+      <c r="AQ28" s="87"/>
+      <c r="AR28" s="87"/>
+      <c r="AS28" s="87"/>
+      <c r="AT28" s="87"/>
+      <c r="AU28" s="87"/>
+      <c r="AV28" s="87"/>
+      <c r="AW28" s="87"/>
+      <c r="AX28" s="87"/>
+      <c r="AY28" s="87"/>
+      <c r="AZ28" s="87"/>
+      <c r="BA28" s="87"/>
+      <c r="BB28" s="87"/>
+      <c r="BC28" s="88"/>
+      <c r="BD28" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="BE28" s="84"/>
-      <c r="BF28" s="84"/>
-      <c r="BG28" s="84"/>
-      <c r="BH28" s="84"/>
-      <c r="BI28" s="84"/>
-      <c r="BJ28" s="75"/>
-      <c r="BK28" s="116" t="s">
+      <c r="BE28" s="65"/>
+      <c r="BF28" s="65"/>
+      <c r="BG28" s="65"/>
+      <c r="BH28" s="65"/>
+      <c r="BI28" s="65"/>
+      <c r="BJ28" s="72"/>
+      <c r="BK28" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="BL28" s="117"/>
-      <c r="BM28" s="117"/>
-      <c r="BN28" s="117"/>
-      <c r="BO28" s="117"/>
-      <c r="BP28" s="117"/>
-      <c r="BQ28" s="117"/>
-      <c r="BR28" s="117"/>
-      <c r="BS28" s="117"/>
-      <c r="BT28" s="117"/>
-      <c r="BU28" s="117"/>
-      <c r="BV28" s="118"/>
+      <c r="BL28" s="93"/>
+      <c r="BM28" s="93"/>
+      <c r="BN28" s="93"/>
+      <c r="BO28" s="93"/>
+      <c r="BP28" s="93"/>
+      <c r="BQ28" s="93"/>
+      <c r="BR28" s="93"/>
+      <c r="BS28" s="93"/>
+      <c r="BT28" s="93"/>
+      <c r="BU28" s="93"/>
+      <c r="BV28" s="94"/>
       <c r="AML28" s="2"/>
       <c r="AMM28"/>
       <c r="AMN28"/>
@@ -4531,78 +4531,78 @@
     </row>
     <row r="29" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="81"/>
-      <c r="AF29" s="82"/>
-      <c r="AG29" s="82"/>
-      <c r="AH29" s="82"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="82"/>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="82"/>
-      <c r="AM29" s="82"/>
-      <c r="AN29" s="82"/>
-      <c r="AO29" s="82"/>
-      <c r="AP29" s="82"/>
-      <c r="AQ29" s="82"/>
-      <c r="AR29" s="82"/>
-      <c r="AS29" s="82"/>
-      <c r="AT29" s="82"/>
-      <c r="AU29" s="82"/>
-      <c r="AV29" s="82"/>
-      <c r="AW29" s="82"/>
-      <c r="AX29" s="82"/>
-      <c r="AY29" s="82"/>
-      <c r="AZ29" s="82"/>
-      <c r="BA29" s="82"/>
-      <c r="BB29" s="82"/>
-      <c r="BC29" s="83"/>
-      <c r="BD29" s="76"/>
-      <c r="BE29" s="85"/>
-      <c r="BF29" s="85"/>
-      <c r="BG29" s="85"/>
-      <c r="BH29" s="85"/>
-      <c r="BI29" s="85"/>
-      <c r="BJ29" s="77"/>
-      <c r="BK29" s="119"/>
-      <c r="BL29" s="120"/>
-      <c r="BM29" s="120"/>
-      <c r="BN29" s="120"/>
-      <c r="BO29" s="120"/>
-      <c r="BP29" s="120"/>
-      <c r="BQ29" s="120"/>
-      <c r="BR29" s="120"/>
-      <c r="BS29" s="120"/>
-      <c r="BT29" s="120"/>
-      <c r="BU29" s="120"/>
-      <c r="BV29" s="121"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="89"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+      <c r="AI29" s="90"/>
+      <c r="AJ29" s="90"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="90"/>
+      <c r="AM29" s="90"/>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="90"/>
+      <c r="AP29" s="90"/>
+      <c r="AQ29" s="90"/>
+      <c r="AR29" s="90"/>
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="90"/>
+      <c r="AY29" s="90"/>
+      <c r="AZ29" s="90"/>
+      <c r="BA29" s="90"/>
+      <c r="BB29" s="90"/>
+      <c r="BC29" s="91"/>
+      <c r="BD29" s="66"/>
+      <c r="BE29" s="67"/>
+      <c r="BF29" s="67"/>
+      <c r="BG29" s="67"/>
+      <c r="BH29" s="67"/>
+      <c r="BI29" s="67"/>
+      <c r="BJ29" s="73"/>
+      <c r="BK29" s="95"/>
+      <c r="BL29" s="96"/>
+      <c r="BM29" s="96"/>
+      <c r="BN29" s="96"/>
+      <c r="BO29" s="96"/>
+      <c r="BP29" s="96"/>
+      <c r="BQ29" s="96"/>
+      <c r="BR29" s="96"/>
+      <c r="BS29" s="96"/>
+      <c r="BT29" s="96"/>
+      <c r="BU29" s="96"/>
+      <c r="BV29" s="97"/>
       <c r="AML29" s="2"/>
       <c r="AMM29"/>
       <c r="AMN29"/>
@@ -4618,86 +4618,86 @@
     </row>
     <row r="30" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="74">
+      <c r="C30" s="64">
         <v>3</v>
       </c>
-      <c r="D30" s="75"/>
-      <c r="E30" s="78" t="s">
+      <c r="D30" s="72"/>
+      <c r="E30" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="78" t="s">
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="80"/>
-      <c r="AE30" s="78" t="s">
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="87"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="87"/>
+      <c r="AC30" s="87"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="79"/>
-      <c r="AP30" s="79"/>
-      <c r="AQ30" s="79"/>
-      <c r="AR30" s="79"/>
-      <c r="AS30" s="79"/>
-      <c r="AT30" s="79"/>
-      <c r="AU30" s="79"/>
-      <c r="AV30" s="79"/>
-      <c r="AW30" s="79"/>
-      <c r="AX30" s="79"/>
-      <c r="AY30" s="79"/>
-      <c r="AZ30" s="79"/>
-      <c r="BA30" s="79"/>
-      <c r="BB30" s="79"/>
-      <c r="BC30" s="80"/>
-      <c r="BD30" s="74" t="s">
+      <c r="AF30" s="87"/>
+      <c r="AG30" s="87"/>
+      <c r="AH30" s="87"/>
+      <c r="AI30" s="87"/>
+      <c r="AJ30" s="87"/>
+      <c r="AK30" s="87"/>
+      <c r="AL30" s="87"/>
+      <c r="AM30" s="87"/>
+      <c r="AN30" s="87"/>
+      <c r="AO30" s="87"/>
+      <c r="AP30" s="87"/>
+      <c r="AQ30" s="87"/>
+      <c r="AR30" s="87"/>
+      <c r="AS30" s="87"/>
+      <c r="AT30" s="87"/>
+      <c r="AU30" s="87"/>
+      <c r="AV30" s="87"/>
+      <c r="AW30" s="87"/>
+      <c r="AX30" s="87"/>
+      <c r="AY30" s="87"/>
+      <c r="AZ30" s="87"/>
+      <c r="BA30" s="87"/>
+      <c r="BB30" s="87"/>
+      <c r="BC30" s="88"/>
+      <c r="BD30" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="BE30" s="84"/>
-      <c r="BF30" s="84"/>
-      <c r="BG30" s="84"/>
-      <c r="BH30" s="84"/>
-      <c r="BI30" s="84"/>
-      <c r="BJ30" s="75"/>
-      <c r="BK30" s="70" t="s">
+      <c r="BE30" s="65"/>
+      <c r="BF30" s="65"/>
+      <c r="BG30" s="65"/>
+      <c r="BH30" s="65"/>
+      <c r="BI30" s="65"/>
+      <c r="BJ30" s="72"/>
+      <c r="BK30" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="BL30" s="71"/>
-      <c r="BM30" s="71"/>
-      <c r="BN30" s="71"/>
-      <c r="BO30" s="71"/>
-      <c r="BP30" s="71"/>
-      <c r="BQ30" s="71"/>
-      <c r="BR30" s="71"/>
+      <c r="BL30" s="119"/>
+      <c r="BM30" s="119"/>
+      <c r="BN30" s="119"/>
+      <c r="BO30" s="119"/>
+      <c r="BP30" s="119"/>
+      <c r="BQ30" s="119"/>
+      <c r="BR30" s="119"/>
       <c r="BS30" s="46"/>
       <c r="BT30" s="46"/>
       <c r="BU30" s="46"/>
@@ -4717,74 +4717,74 @@
     </row>
     <row r="31" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="82"/>
-      <c r="AD31" s="83"/>
-      <c r="AE31" s="81"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="82"/>
-      <c r="AK31" s="82"/>
-      <c r="AL31" s="82"/>
-      <c r="AM31" s="82"/>
-      <c r="AN31" s="82"/>
-      <c r="AO31" s="82"/>
-      <c r="AP31" s="82"/>
-      <c r="AQ31" s="82"/>
-      <c r="AR31" s="82"/>
-      <c r="AS31" s="82"/>
-      <c r="AT31" s="82"/>
-      <c r="AU31" s="82"/>
-      <c r="AV31" s="82"/>
-      <c r="AW31" s="82"/>
-      <c r="AX31" s="82"/>
-      <c r="AY31" s="82"/>
-      <c r="AZ31" s="82"/>
-      <c r="BA31" s="82"/>
-      <c r="BB31" s="82"/>
-      <c r="BC31" s="83"/>
-      <c r="BD31" s="76"/>
-      <c r="BE31" s="85"/>
-      <c r="BF31" s="85"/>
-      <c r="BG31" s="85"/>
-      <c r="BH31" s="85"/>
-      <c r="BI31" s="85"/>
-      <c r="BJ31" s="77"/>
-      <c r="BK31" s="72"/>
-      <c r="BL31" s="73"/>
-      <c r="BM31" s="73"/>
-      <c r="BN31" s="73"/>
-      <c r="BO31" s="73"/>
-      <c r="BP31" s="73"/>
-      <c r="BQ31" s="73"/>
-      <c r="BR31" s="73"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="91"/>
+      <c r="AE31" s="89"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="90"/>
+      <c r="AJ31" s="90"/>
+      <c r="AK31" s="90"/>
+      <c r="AL31" s="90"/>
+      <c r="AM31" s="90"/>
+      <c r="AN31" s="90"/>
+      <c r="AO31" s="90"/>
+      <c r="AP31" s="90"/>
+      <c r="AQ31" s="90"/>
+      <c r="AR31" s="90"/>
+      <c r="AS31" s="90"/>
+      <c r="AT31" s="90"/>
+      <c r="AU31" s="90"/>
+      <c r="AV31" s="90"/>
+      <c r="AW31" s="90"/>
+      <c r="AX31" s="90"/>
+      <c r="AY31" s="90"/>
+      <c r="AZ31" s="90"/>
+      <c r="BA31" s="90"/>
+      <c r="BB31" s="90"/>
+      <c r="BC31" s="91"/>
+      <c r="BD31" s="66"/>
+      <c r="BE31" s="67"/>
+      <c r="BF31" s="67"/>
+      <c r="BG31" s="67"/>
+      <c r="BH31" s="67"/>
+      <c r="BI31" s="67"/>
+      <c r="BJ31" s="73"/>
+      <c r="BK31" s="120"/>
+      <c r="BL31" s="121"/>
+      <c r="BM31" s="121"/>
+      <c r="BN31" s="121"/>
+      <c r="BO31" s="121"/>
+      <c r="BP31" s="121"/>
+      <c r="BQ31" s="121"/>
+      <c r="BR31" s="121"/>
       <c r="BS31" s="46"/>
       <c r="BT31" s="46"/>
       <c r="BU31" s="46"/>
@@ -4804,76 +4804,76 @@
     </row>
     <row r="32" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="66">
+      <c r="C32" s="103">
         <v>5</v>
       </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="67"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="67"/>
-      <c r="AM32" s="67"/>
-      <c r="AN32" s="67"/>
-      <c r="AO32" s="67"/>
-      <c r="AP32" s="67"/>
-      <c r="AQ32" s="67"/>
-      <c r="AR32" s="67"/>
-      <c r="AS32" s="67"/>
-      <c r="AT32" s="67"/>
-      <c r="AU32" s="67"/>
-      <c r="AV32" s="67"/>
-      <c r="AW32" s="67"/>
-      <c r="AX32" s="67"/>
-      <c r="AY32" s="67"/>
-      <c r="AZ32" s="67"/>
-      <c r="BA32" s="67"/>
-      <c r="BB32" s="67"/>
-      <c r="BC32" s="67"/>
-      <c r="BD32" s="67"/>
-      <c r="BE32" s="67"/>
-      <c r="BF32" s="67"/>
-      <c r="BG32" s="67"/>
-      <c r="BH32" s="67"/>
-      <c r="BI32" s="67"/>
-      <c r="BJ32" s="69"/>
-      <c r="BK32" s="64"/>
-      <c r="BL32" s="65"/>
-      <c r="BM32" s="65"/>
-      <c r="BN32" s="65"/>
-      <c r="BO32" s="65"/>
-      <c r="BP32" s="65"/>
-      <c r="BQ32" s="65"/>
-      <c r="BR32" s="65"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="107"/>
+      <c r="W32" s="107"/>
+      <c r="X32" s="107"/>
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="107"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="107"/>
+      <c r="AD32" s="107"/>
+      <c r="AE32" s="105"/>
+      <c r="AF32" s="105"/>
+      <c r="AG32" s="105"/>
+      <c r="AH32" s="105"/>
+      <c r="AI32" s="105"/>
+      <c r="AJ32" s="105"/>
+      <c r="AK32" s="105"/>
+      <c r="AL32" s="105"/>
+      <c r="AM32" s="105"/>
+      <c r="AN32" s="105"/>
+      <c r="AO32" s="105"/>
+      <c r="AP32" s="105"/>
+      <c r="AQ32" s="105"/>
+      <c r="AR32" s="105"/>
+      <c r="AS32" s="105"/>
+      <c r="AT32" s="105"/>
+      <c r="AU32" s="105"/>
+      <c r="AV32" s="105"/>
+      <c r="AW32" s="105"/>
+      <c r="AX32" s="105"/>
+      <c r="AY32" s="105"/>
+      <c r="AZ32" s="105"/>
+      <c r="BA32" s="105"/>
+      <c r="BB32" s="105"/>
+      <c r="BC32" s="105"/>
+      <c r="BD32" s="105"/>
+      <c r="BE32" s="105"/>
+      <c r="BF32" s="105"/>
+      <c r="BG32" s="105"/>
+      <c r="BH32" s="105"/>
+      <c r="BI32" s="105"/>
+      <c r="BJ32" s="114"/>
+      <c r="BK32" s="112"/>
+      <c r="BL32" s="113"/>
+      <c r="BM32" s="113"/>
+      <c r="BN32" s="113"/>
+      <c r="BO32" s="113"/>
+      <c r="BP32" s="113"/>
+      <c r="BQ32" s="113"/>
+      <c r="BR32" s="113"/>
       <c r="BS32" s="46"/>
       <c r="BT32" s="46"/>
       <c r="BU32" s="46"/>
@@ -4893,76 +4893,76 @@
     </row>
     <row r="33" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="66">
+      <c r="C33" s="103">
         <v>6</v>
       </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="67"/>
-      <c r="AF33" s="67"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="67"/>
-      <c r="AJ33" s="67"/>
-      <c r="AK33" s="67"/>
-      <c r="AL33" s="67"/>
-      <c r="AM33" s="67"/>
-      <c r="AN33" s="67"/>
-      <c r="AO33" s="67"/>
-      <c r="AP33" s="67"/>
-      <c r="AQ33" s="67"/>
-      <c r="AR33" s="67"/>
-      <c r="AS33" s="67"/>
-      <c r="AT33" s="67"/>
-      <c r="AU33" s="67"/>
-      <c r="AV33" s="67"/>
-      <c r="AW33" s="67"/>
-      <c r="AX33" s="67"/>
-      <c r="AY33" s="67"/>
-      <c r="AZ33" s="67"/>
-      <c r="BA33" s="67"/>
-      <c r="BB33" s="67"/>
-      <c r="BC33" s="67"/>
-      <c r="BD33" s="67"/>
-      <c r="BE33" s="67"/>
-      <c r="BF33" s="67"/>
-      <c r="BG33" s="67"/>
-      <c r="BH33" s="67"/>
-      <c r="BI33" s="67"/>
-      <c r="BJ33" s="69"/>
-      <c r="BK33" s="64"/>
-      <c r="BL33" s="65"/>
-      <c r="BM33" s="65"/>
-      <c r="BN33" s="65"/>
-      <c r="BO33" s="65"/>
-      <c r="BP33" s="65"/>
-      <c r="BQ33" s="65"/>
-      <c r="BR33" s="65"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="107"/>
+      <c r="X33" s="107"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="107"/>
+      <c r="AA33" s="107"/>
+      <c r="AB33" s="107"/>
+      <c r="AC33" s="107"/>
+      <c r="AD33" s="107"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="105"/>
+      <c r="AG33" s="105"/>
+      <c r="AH33" s="105"/>
+      <c r="AI33" s="105"/>
+      <c r="AJ33" s="105"/>
+      <c r="AK33" s="105"/>
+      <c r="AL33" s="105"/>
+      <c r="AM33" s="105"/>
+      <c r="AN33" s="105"/>
+      <c r="AO33" s="105"/>
+      <c r="AP33" s="105"/>
+      <c r="AQ33" s="105"/>
+      <c r="AR33" s="105"/>
+      <c r="AS33" s="105"/>
+      <c r="AT33" s="105"/>
+      <c r="AU33" s="105"/>
+      <c r="AV33" s="105"/>
+      <c r="AW33" s="105"/>
+      <c r="AX33" s="105"/>
+      <c r="AY33" s="105"/>
+      <c r="AZ33" s="105"/>
+      <c r="BA33" s="105"/>
+      <c r="BB33" s="105"/>
+      <c r="BC33" s="105"/>
+      <c r="BD33" s="105"/>
+      <c r="BE33" s="105"/>
+      <c r="BF33" s="105"/>
+      <c r="BG33" s="105"/>
+      <c r="BH33" s="105"/>
+      <c r="BI33" s="105"/>
+      <c r="BJ33" s="114"/>
+      <c r="BK33" s="112"/>
+      <c r="BL33" s="113"/>
+      <c r="BM33" s="113"/>
+      <c r="BN33" s="113"/>
+      <c r="BO33" s="113"/>
+      <c r="BP33" s="113"/>
+      <c r="BQ33" s="113"/>
+      <c r="BR33" s="113"/>
       <c r="BS33" s="46"/>
       <c r="BT33" s="46"/>
       <c r="BU33" s="46"/>
@@ -4982,76 +4982,76 @@
     </row>
     <row r="34" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="66">
+      <c r="C34" s="103">
         <v>7</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="67"/>
-      <c r="AF34" s="67"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="67"/>
-      <c r="AI34" s="67"/>
-      <c r="AJ34" s="67"/>
-      <c r="AK34" s="67"/>
-      <c r="AL34" s="67"/>
-      <c r="AM34" s="67"/>
-      <c r="AN34" s="67"/>
-      <c r="AO34" s="67"/>
-      <c r="AP34" s="67"/>
-      <c r="AQ34" s="67"/>
-      <c r="AR34" s="67"/>
-      <c r="AS34" s="67"/>
-      <c r="AT34" s="67"/>
-      <c r="AU34" s="67"/>
-      <c r="AV34" s="67"/>
-      <c r="AW34" s="67"/>
-      <c r="AX34" s="67"/>
-      <c r="AY34" s="67"/>
-      <c r="AZ34" s="67"/>
-      <c r="BA34" s="67"/>
-      <c r="BB34" s="67"/>
-      <c r="BC34" s="67"/>
-      <c r="BD34" s="67"/>
-      <c r="BE34" s="67"/>
-      <c r="BF34" s="67"/>
-      <c r="BG34" s="67"/>
-      <c r="BH34" s="67"/>
-      <c r="BI34" s="67"/>
-      <c r="BJ34" s="69"/>
-      <c r="BK34" s="64"/>
-      <c r="BL34" s="65"/>
-      <c r="BM34" s="65"/>
-      <c r="BN34" s="65"/>
-      <c r="BO34" s="65"/>
-      <c r="BP34" s="65"/>
-      <c r="BQ34" s="65"/>
-      <c r="BR34" s="65"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="107"/>
+      <c r="X34" s="107"/>
+      <c r="Y34" s="107"/>
+      <c r="Z34" s="107"/>
+      <c r="AA34" s="107"/>
+      <c r="AB34" s="107"/>
+      <c r="AC34" s="107"/>
+      <c r="AD34" s="107"/>
+      <c r="AE34" s="105"/>
+      <c r="AF34" s="105"/>
+      <c r="AG34" s="105"/>
+      <c r="AH34" s="105"/>
+      <c r="AI34" s="105"/>
+      <c r="AJ34" s="105"/>
+      <c r="AK34" s="105"/>
+      <c r="AL34" s="105"/>
+      <c r="AM34" s="105"/>
+      <c r="AN34" s="105"/>
+      <c r="AO34" s="105"/>
+      <c r="AP34" s="105"/>
+      <c r="AQ34" s="105"/>
+      <c r="AR34" s="105"/>
+      <c r="AS34" s="105"/>
+      <c r="AT34" s="105"/>
+      <c r="AU34" s="105"/>
+      <c r="AV34" s="105"/>
+      <c r="AW34" s="105"/>
+      <c r="AX34" s="105"/>
+      <c r="AY34" s="105"/>
+      <c r="AZ34" s="105"/>
+      <c r="BA34" s="105"/>
+      <c r="BB34" s="105"/>
+      <c r="BC34" s="105"/>
+      <c r="BD34" s="105"/>
+      <c r="BE34" s="105"/>
+      <c r="BF34" s="105"/>
+      <c r="BG34" s="105"/>
+      <c r="BH34" s="105"/>
+      <c r="BI34" s="105"/>
+      <c r="BJ34" s="114"/>
+      <c r="BK34" s="112"/>
+      <c r="BL34" s="113"/>
+      <c r="BM34" s="113"/>
+      <c r="BN34" s="113"/>
+      <c r="BO34" s="113"/>
+      <c r="BP34" s="113"/>
+      <c r="BQ34" s="113"/>
+      <c r="BR34" s="113"/>
       <c r="BS34" s="46"/>
       <c r="BT34" s="46"/>
       <c r="BU34" s="46"/>
@@ -5071,76 +5071,76 @@
     </row>
     <row r="35" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="C35" s="66">
+      <c r="C35" s="103">
         <v>8</v>
       </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="67"/>
-      <c r="AF35" s="67"/>
-      <c r="AG35" s="67"/>
-      <c r="AH35" s="67"/>
-      <c r="AI35" s="67"/>
-      <c r="AJ35" s="67"/>
-      <c r="AK35" s="67"/>
-      <c r="AL35" s="67"/>
-      <c r="AM35" s="67"/>
-      <c r="AN35" s="67"/>
-      <c r="AO35" s="67"/>
-      <c r="AP35" s="67"/>
-      <c r="AQ35" s="67"/>
-      <c r="AR35" s="67"/>
-      <c r="AS35" s="67"/>
-      <c r="AT35" s="67"/>
-      <c r="AU35" s="67"/>
-      <c r="AV35" s="67"/>
-      <c r="AW35" s="67"/>
-      <c r="AX35" s="67"/>
-      <c r="AY35" s="67"/>
-      <c r="AZ35" s="67"/>
-      <c r="BA35" s="67"/>
-      <c r="BB35" s="67"/>
-      <c r="BC35" s="67"/>
-      <c r="BD35" s="67"/>
-      <c r="BE35" s="67"/>
-      <c r="BF35" s="67"/>
-      <c r="BG35" s="67"/>
-      <c r="BH35" s="67"/>
-      <c r="BI35" s="67"/>
-      <c r="BJ35" s="69"/>
-      <c r="BK35" s="64"/>
-      <c r="BL35" s="65"/>
-      <c r="BM35" s="65"/>
-      <c r="BN35" s="65"/>
-      <c r="BO35" s="65"/>
-      <c r="BP35" s="65"/>
-      <c r="BQ35" s="65"/>
-      <c r="BR35" s="65"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="107"/>
+      <c r="U35" s="107"/>
+      <c r="V35" s="107"/>
+      <c r="W35" s="107"/>
+      <c r="X35" s="107"/>
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="107"/>
+      <c r="AA35" s="107"/>
+      <c r="AB35" s="107"/>
+      <c r="AC35" s="107"/>
+      <c r="AD35" s="107"/>
+      <c r="AE35" s="105"/>
+      <c r="AF35" s="105"/>
+      <c r="AG35" s="105"/>
+      <c r="AH35" s="105"/>
+      <c r="AI35" s="105"/>
+      <c r="AJ35" s="105"/>
+      <c r="AK35" s="105"/>
+      <c r="AL35" s="105"/>
+      <c r="AM35" s="105"/>
+      <c r="AN35" s="105"/>
+      <c r="AO35" s="105"/>
+      <c r="AP35" s="105"/>
+      <c r="AQ35" s="105"/>
+      <c r="AR35" s="105"/>
+      <c r="AS35" s="105"/>
+      <c r="AT35" s="105"/>
+      <c r="AU35" s="105"/>
+      <c r="AV35" s="105"/>
+      <c r="AW35" s="105"/>
+      <c r="AX35" s="105"/>
+      <c r="AY35" s="105"/>
+      <c r="AZ35" s="105"/>
+      <c r="BA35" s="105"/>
+      <c r="BB35" s="105"/>
+      <c r="BC35" s="105"/>
+      <c r="BD35" s="105"/>
+      <c r="BE35" s="105"/>
+      <c r="BF35" s="105"/>
+      <c r="BG35" s="105"/>
+      <c r="BH35" s="105"/>
+      <c r="BI35" s="105"/>
+      <c r="BJ35" s="114"/>
+      <c r="BK35" s="112"/>
+      <c r="BL35" s="113"/>
+      <c r="BM35" s="113"/>
+      <c r="BN35" s="113"/>
+      <c r="BO35" s="113"/>
+      <c r="BP35" s="113"/>
+      <c r="BQ35" s="113"/>
+      <c r="BR35" s="113"/>
       <c r="BS35" s="46"/>
       <c r="BT35" s="46"/>
       <c r="BU35" s="46"/>
@@ -5160,76 +5160,76 @@
     </row>
     <row r="36" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="C36" s="66">
+      <c r="C36" s="103">
         <v>9</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="68"/>
-      <c r="AB36" s="68"/>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="68"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="67"/>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="67"/>
-      <c r="AO36" s="67"/>
-      <c r="AP36" s="67"/>
-      <c r="AQ36" s="67"/>
-      <c r="AR36" s="67"/>
-      <c r="AS36" s="67"/>
-      <c r="AT36" s="67"/>
-      <c r="AU36" s="67"/>
-      <c r="AV36" s="67"/>
-      <c r="AW36" s="67"/>
-      <c r="AX36" s="67"/>
-      <c r="AY36" s="67"/>
-      <c r="AZ36" s="67"/>
-      <c r="BA36" s="67"/>
-      <c r="BB36" s="67"/>
-      <c r="BC36" s="67"/>
-      <c r="BD36" s="67"/>
-      <c r="BE36" s="67"/>
-      <c r="BF36" s="67"/>
-      <c r="BG36" s="67"/>
-      <c r="BH36" s="67"/>
-      <c r="BI36" s="67"/>
-      <c r="BJ36" s="69"/>
-      <c r="BK36" s="64"/>
-      <c r="BL36" s="65"/>
-      <c r="BM36" s="65"/>
-      <c r="BN36" s="65"/>
-      <c r="BO36" s="65"/>
-      <c r="BP36" s="65"/>
-      <c r="BQ36" s="65"/>
-      <c r="BR36" s="65"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="107"/>
+      <c r="V36" s="107"/>
+      <c r="W36" s="107"/>
+      <c r="X36" s="107"/>
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="107"/>
+      <c r="AA36" s="107"/>
+      <c r="AB36" s="107"/>
+      <c r="AC36" s="107"/>
+      <c r="AD36" s="107"/>
+      <c r="AE36" s="105"/>
+      <c r="AF36" s="105"/>
+      <c r="AG36" s="105"/>
+      <c r="AH36" s="105"/>
+      <c r="AI36" s="105"/>
+      <c r="AJ36" s="105"/>
+      <c r="AK36" s="105"/>
+      <c r="AL36" s="105"/>
+      <c r="AM36" s="105"/>
+      <c r="AN36" s="105"/>
+      <c r="AO36" s="105"/>
+      <c r="AP36" s="105"/>
+      <c r="AQ36" s="105"/>
+      <c r="AR36" s="105"/>
+      <c r="AS36" s="105"/>
+      <c r="AT36" s="105"/>
+      <c r="AU36" s="105"/>
+      <c r="AV36" s="105"/>
+      <c r="AW36" s="105"/>
+      <c r="AX36" s="105"/>
+      <c r="AY36" s="105"/>
+      <c r="AZ36" s="105"/>
+      <c r="BA36" s="105"/>
+      <c r="BB36" s="105"/>
+      <c r="BC36" s="105"/>
+      <c r="BD36" s="105"/>
+      <c r="BE36" s="105"/>
+      <c r="BF36" s="105"/>
+      <c r="BG36" s="105"/>
+      <c r="BH36" s="105"/>
+      <c r="BI36" s="105"/>
+      <c r="BJ36" s="114"/>
+      <c r="BK36" s="112"/>
+      <c r="BL36" s="113"/>
+      <c r="BM36" s="113"/>
+      <c r="BN36" s="113"/>
+      <c r="BO36" s="113"/>
+      <c r="BP36" s="113"/>
+      <c r="BQ36" s="113"/>
+      <c r="BR36" s="113"/>
       <c r="BS36" s="46"/>
       <c r="BT36" s="46"/>
       <c r="BU36" s="46"/>
@@ -5250,76 +5250,76 @@
     <row r="37" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="66">
+      <c r="C37" s="103">
         <v>10</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="68"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68"/>
-      <c r="AE37" s="67"/>
-      <c r="AF37" s="67"/>
-      <c r="AG37" s="67"/>
-      <c r="AH37" s="67"/>
-      <c r="AI37" s="67"/>
-      <c r="AJ37" s="67"/>
-      <c r="AK37" s="67"/>
-      <c r="AL37" s="67"/>
-      <c r="AM37" s="67"/>
-      <c r="AN37" s="67"/>
-      <c r="AO37" s="67"/>
-      <c r="AP37" s="67"/>
-      <c r="AQ37" s="67"/>
-      <c r="AR37" s="67"/>
-      <c r="AS37" s="67"/>
-      <c r="AT37" s="67"/>
-      <c r="AU37" s="67"/>
-      <c r="AV37" s="67"/>
-      <c r="AW37" s="67"/>
-      <c r="AX37" s="67"/>
-      <c r="AY37" s="67"/>
-      <c r="AZ37" s="67"/>
-      <c r="BA37" s="67"/>
-      <c r="BB37" s="67"/>
-      <c r="BC37" s="67"/>
-      <c r="BD37" s="67"/>
-      <c r="BE37" s="67"/>
-      <c r="BF37" s="67"/>
-      <c r="BG37" s="67"/>
-      <c r="BH37" s="67"/>
-      <c r="BI37" s="67"/>
-      <c r="BJ37" s="69"/>
-      <c r="BK37" s="64"/>
-      <c r="BL37" s="65"/>
-      <c r="BM37" s="65"/>
-      <c r="BN37" s="65"/>
-      <c r="BO37" s="65"/>
-      <c r="BP37" s="65"/>
-      <c r="BQ37" s="65"/>
-      <c r="BR37" s="65"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="107"/>
+      <c r="W37" s="107"/>
+      <c r="X37" s="107"/>
+      <c r="Y37" s="107"/>
+      <c r="Z37" s="107"/>
+      <c r="AA37" s="107"/>
+      <c r="AB37" s="107"/>
+      <c r="AC37" s="107"/>
+      <c r="AD37" s="107"/>
+      <c r="AE37" s="105"/>
+      <c r="AF37" s="105"/>
+      <c r="AG37" s="105"/>
+      <c r="AH37" s="105"/>
+      <c r="AI37" s="105"/>
+      <c r="AJ37" s="105"/>
+      <c r="AK37" s="105"/>
+      <c r="AL37" s="105"/>
+      <c r="AM37" s="105"/>
+      <c r="AN37" s="105"/>
+      <c r="AO37" s="105"/>
+      <c r="AP37" s="105"/>
+      <c r="AQ37" s="105"/>
+      <c r="AR37" s="105"/>
+      <c r="AS37" s="105"/>
+      <c r="AT37" s="105"/>
+      <c r="AU37" s="105"/>
+      <c r="AV37" s="105"/>
+      <c r="AW37" s="105"/>
+      <c r="AX37" s="105"/>
+      <c r="AY37" s="105"/>
+      <c r="AZ37" s="105"/>
+      <c r="BA37" s="105"/>
+      <c r="BB37" s="105"/>
+      <c r="BC37" s="105"/>
+      <c r="BD37" s="105"/>
+      <c r="BE37" s="105"/>
+      <c r="BF37" s="105"/>
+      <c r="BG37" s="105"/>
+      <c r="BH37" s="105"/>
+      <c r="BI37" s="105"/>
+      <c r="BJ37" s="114"/>
+      <c r="BK37" s="112"/>
+      <c r="BL37" s="113"/>
+      <c r="BM37" s="113"/>
+      <c r="BN37" s="113"/>
+      <c r="BO37" s="113"/>
+      <c r="BP37" s="113"/>
+      <c r="BQ37" s="113"/>
+      <c r="BR37" s="113"/>
       <c r="BS37" s="46"/>
       <c r="BT37" s="46"/>
       <c r="BU37" s="46"/>
@@ -5932,38 +5932,54 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="BD26:BJ27"/>
-    <mergeCell ref="BK26:BV27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:I29"/>
-    <mergeCell ref="J28:N29"/>
-    <mergeCell ref="O28:AD29"/>
-    <mergeCell ref="AE28:BC29"/>
-    <mergeCell ref="BD28:BJ29"/>
-    <mergeCell ref="BK28:BV29"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="BK34:BR34"/>
+    <mergeCell ref="BK35:BR35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="O37:AD37"/>
+    <mergeCell ref="AE37:BC37"/>
+    <mergeCell ref="BD37:BJ37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="O36:AD36"/>
+    <mergeCell ref="AE36:BC36"/>
+    <mergeCell ref="BD36:BJ36"/>
+    <mergeCell ref="BK36:BR36"/>
+    <mergeCell ref="BK37:BR37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK30:BR31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:I31"/>
+    <mergeCell ref="J30:N31"/>
+    <mergeCell ref="O30:AD31"/>
+    <mergeCell ref="AE30:BC31"/>
+    <mergeCell ref="BD30:BJ31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK32:BR32"/>
     <mergeCell ref="BK33:BR33"/>
     <mergeCell ref="H21:BO21"/>
     <mergeCell ref="C25:D25"/>
@@ -5988,54 +6004,38 @@
     <mergeCell ref="J26:N27"/>
     <mergeCell ref="O26:AD27"/>
     <mergeCell ref="AE26:BC27"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK30:BR31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:I31"/>
-    <mergeCell ref="J30:N31"/>
-    <mergeCell ref="O30:AD31"/>
-    <mergeCell ref="AE30:BC31"/>
-    <mergeCell ref="BD30:BJ31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK32:BR32"/>
-    <mergeCell ref="BK34:BR34"/>
-    <mergeCell ref="BK35:BR35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="O37:AD37"/>
-    <mergeCell ref="AE37:BC37"/>
-    <mergeCell ref="BD37:BJ37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="O36:AD36"/>
-    <mergeCell ref="AE36:BC36"/>
-    <mergeCell ref="BD36:BJ36"/>
-    <mergeCell ref="BK36:BR36"/>
-    <mergeCell ref="BK37:BR37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BD26:BJ27"/>
+    <mergeCell ref="BK26:BV27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:I29"/>
+    <mergeCell ref="J28:N29"/>
+    <mergeCell ref="O28:AD29"/>
+    <mergeCell ref="AE28:BC29"/>
+    <mergeCell ref="BD28:BJ29"/>
+    <mergeCell ref="BK28:BV29"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -6090,8 +6090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149D4736-0143-4507-A99B-A6DC1D3799DF}">
   <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6106,247 +6106,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="131" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131" t="s">
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="131"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="131"/>
-      <c r="AT1" s="132" t="s">
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="132"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="132"/>
-      <c r="AX1" s="132"/>
-      <c r="AY1" s="132"/>
-      <c r="AZ1" s="132"/>
-      <c r="BA1" s="132"/>
-      <c r="BB1" s="132"/>
-      <c r="BC1" s="132"/>
-      <c r="BD1" s="132"/>
-      <c r="BE1" s="132"/>
-      <c r="BF1" s="132"/>
-      <c r="BG1" s="132"/>
-      <c r="BH1" s="132"/>
-      <c r="BI1" s="132"/>
-      <c r="BJ1" s="132"/>
-      <c r="BK1" s="132"/>
-      <c r="BL1" s="132"/>
-      <c r="BM1" s="132"/>
-      <c r="BN1" s="132"/>
-      <c r="BO1" s="132"/>
-      <c r="BP1" s="132"/>
-      <c r="BQ1" s="132"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="124"/>
+      <c r="BA1" s="124"/>
+      <c r="BB1" s="124"/>
+      <c r="BC1" s="124"/>
+      <c r="BD1" s="124"/>
+      <c r="BE1" s="124"/>
+      <c r="BF1" s="124"/>
+      <c r="BG1" s="124"/>
+      <c r="BH1" s="124"/>
+      <c r="BI1" s="124"/>
+      <c r="BJ1" s="124"/>
+      <c r="BK1" s="124"/>
+      <c r="BL1" s="124"/>
+      <c r="BM1" s="124"/>
+      <c r="BN1" s="124"/>
+      <c r="BO1" s="124"/>
+      <c r="BP1" s="124"/>
+      <c r="BQ1" s="124"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="123" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="123"/>
-      <c r="AO2" s="123"/>
-      <c r="AP2" s="123"/>
-      <c r="AQ2" s="123"/>
-      <c r="AR2" s="123"/>
-      <c r="AS2" s="123"/>
-      <c r="AT2" s="123" t="s">
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="123"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="123"/>
-      <c r="AX2" s="123"/>
-      <c r="AY2" s="123"/>
-      <c r="AZ2" s="123"/>
-      <c r="BA2" s="123"/>
-      <c r="BB2" s="123" t="s">
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="123"/>
-      <c r="BD2" s="123"/>
-      <c r="BE2" s="123"/>
-      <c r="BF2" s="123"/>
-      <c r="BG2" s="123"/>
-      <c r="BH2" s="123"/>
-      <c r="BI2" s="123"/>
-      <c r="BJ2" s="133" t="s">
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="125"/>
+      <c r="BG2" s="125"/>
+      <c r="BH2" s="125"/>
+      <c r="BI2" s="125"/>
+      <c r="BJ2" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="133"/>
-      <c r="BL2" s="133"/>
-      <c r="BM2" s="133"/>
-      <c r="BN2" s="133"/>
-      <c r="BO2" s="133"/>
-      <c r="BP2" s="133"/>
-      <c r="BQ2" s="133"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="134" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="134"/>
-      <c r="AS3" s="134"/>
-      <c r="AT3" s="135">
+      <c r="AL3" s="127"/>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="127"/>
+      <c r="AO3" s="127"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
+      <c r="AR3" s="127"/>
+      <c r="AS3" s="127"/>
+      <c r="AT3" s="128">
         <v>45510</v>
       </c>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="134" t="s">
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="134"/>
-      <c r="BD3" s="134"/>
-      <c r="BE3" s="134"/>
-      <c r="BF3" s="134"/>
-      <c r="BG3" s="134"/>
-      <c r="BH3" s="134"/>
-      <c r="BI3" s="134"/>
-      <c r="BJ3" s="136">
+      <c r="BC3" s="127"/>
+      <c r="BD3" s="127"/>
+      <c r="BE3" s="127"/>
+      <c r="BF3" s="127"/>
+      <c r="BG3" s="127"/>
+      <c r="BH3" s="127"/>
+      <c r="BI3" s="127"/>
+      <c r="BJ3" s="129">
         <v>45537</v>
       </c>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="136"/>
-      <c r="BQ3" s="136"/>
+      <c r="BK3" s="129"/>
+      <c r="BL3" s="129"/>
+      <c r="BM3" s="129"/>
+      <c r="BN3" s="129"/>
+      <c r="BO3" s="129"/>
+      <c r="BP3" s="129"/>
+      <c r="BQ3" s="129"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -6371,96 +6371,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="129" t="s">
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="129"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="129"/>
-      <c r="AH6" s="129"/>
-      <c r="AI6" s="129"/>
-      <c r="AJ6" s="129"/>
-      <c r="AK6" s="129"/>
-      <c r="AL6" s="129"/>
-      <c r="AM6" s="129"/>
-      <c r="AN6" s="129"/>
-      <c r="AO6" s="67" t="s">
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130"/>
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130"/>
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67" t="s">
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="67"/>
-      <c r="BA6" s="67"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="67"/>
-      <c r="BH6" s="67"/>
-      <c r="BI6" s="67"/>
-      <c r="BJ6" s="67"/>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="67"/>
-      <c r="BM6" s="67"/>
-      <c r="BN6" s="67"/>
-      <c r="BO6" s="67"/>
-      <c r="BP6" s="67"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="37" t="s">
         <v>87</v>
       </c>
@@ -6491,38 +6491,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67" t="s">
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="67"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
+      <c r="BJ7" s="105"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
+      <c r="BP7" s="105"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -6536,89 +6536,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="123" t="s">
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="123"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="64" t="s">
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="128"/>
-      <c r="BJ10" s="66" t="s">
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
+      <c r="AY10" s="113"/>
+      <c r="AZ10" s="113"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="113"/>
+      <c r="BC10" s="113"/>
+      <c r="BD10" s="113"/>
+      <c r="BE10" s="113"/>
+      <c r="BF10" s="113"/>
+      <c r="BG10" s="113"/>
+      <c r="BH10" s="113"/>
+      <c r="BI10" s="132"/>
+      <c r="BJ10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="66"/>
-      <c r="BP10" s="66"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="103"/>
+      <c r="BN10" s="103"/>
+      <c r="BO10" s="103"/>
+      <c r="BP10" s="103"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="37" t="s">
         <v>98</v>
       </c>
@@ -6634,11 +6634,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="39"/>
-      <c r="T11" s="126" t="s">
+      <c r="T11" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="126"/>
-      <c r="V11" s="127"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="135"/>
       <c r="W11" s="51" t="s">
         <v>119</v>
       </c>
@@ -6690,12 +6690,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="17" t="s">
         <v>120</v>
       </c>
@@ -6711,11 +6711,11 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="123" t="s">
+      <c r="T12" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="123"/>
-      <c r="V12" s="123"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
       <c r="W12" s="51"/>
       <c r="X12" s="52"/>
       <c r="Y12" s="52"/>
@@ -6764,12 +6764,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="17" t="s">
         <v>92</v>
       </c>
@@ -6785,11 +6785,11 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="123" t="s">
+      <c r="T13" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="123"/>
-      <c r="V13" s="123"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
       <c r="W13" s="51" t="s">
         <v>108</v>
       </c>
@@ -6840,12 +6840,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="17" t="s">
         <v>93</v>
       </c>
@@ -6861,11 +6861,11 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="123" t="s">
+      <c r="T14" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
       <c r="W14" s="51" t="s">
         <v>108</v>
       </c>
@@ -6927,88 +6927,88 @@
       <c r="AG16" s="16"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="123" t="s">
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123" t="s">
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="123"/>
-      <c r="V17" s="123"/>
-      <c r="W17" s="66" t="s">
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="66"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="66"/>
-      <c r="BA17" s="66"/>
-      <c r="BB17" s="66"/>
-      <c r="BC17" s="66"/>
-      <c r="BD17" s="66"/>
-      <c r="BE17" s="66"/>
-      <c r="BF17" s="66"/>
-      <c r="BG17" s="66"/>
-      <c r="BH17" s="66"/>
-      <c r="BI17" s="66"/>
-      <c r="BJ17" s="66" t="s">
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="103"/>
+      <c r="AH17" s="103"/>
+      <c r="AI17" s="103"/>
+      <c r="AJ17" s="103"/>
+      <c r="AK17" s="103"/>
+      <c r="AL17" s="103"/>
+      <c r="AM17" s="103"/>
+      <c r="AN17" s="103"/>
+      <c r="AO17" s="103"/>
+      <c r="AP17" s="103"/>
+      <c r="AQ17" s="103"/>
+      <c r="AR17" s="103"/>
+      <c r="AS17" s="103"/>
+      <c r="AT17" s="103"/>
+      <c r="AU17" s="103"/>
+      <c r="AV17" s="103"/>
+      <c r="AW17" s="103"/>
+      <c r="AX17" s="103"/>
+      <c r="AY17" s="103"/>
+      <c r="AZ17" s="103"/>
+      <c r="BA17" s="103"/>
+      <c r="BB17" s="103"/>
+      <c r="BC17" s="103"/>
+      <c r="BD17" s="103"/>
+      <c r="BE17" s="103"/>
+      <c r="BF17" s="103"/>
+      <c r="BG17" s="103"/>
+      <c r="BH17" s="103"/>
+      <c r="BI17" s="103"/>
+      <c r="BJ17" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK17" s="66"/>
-      <c r="BL17" s="66"/>
-      <c r="BM17" s="66"/>
-      <c r="BN17" s="66"/>
-      <c r="BO17" s="66"/>
-      <c r="BP17" s="66"/>
+      <c r="BK17" s="103"/>
+      <c r="BL17" s="103"/>
+      <c r="BM17" s="103"/>
+      <c r="BN17" s="103"/>
+      <c r="BO17" s="103"/>
+      <c r="BP17" s="103"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="17" t="s">
         <v>106</v>
       </c>
@@ -7024,9 +7024,9 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="123"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
       <c r="W18" s="21" t="s">
         <v>107</v>
       </c>
@@ -7488,6 +7488,35 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W17:BI17"/>
+    <mergeCell ref="BJ17:BP17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -7502,35 +7531,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W17:BI17"/>
-    <mergeCell ref="BJ17:BP17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -7592,247 +7592,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="131" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131" t="s">
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="131"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="131"/>
-      <c r="AT1" s="132" t="s">
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="132"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="132"/>
-      <c r="AX1" s="132"/>
-      <c r="AY1" s="132"/>
-      <c r="AZ1" s="132"/>
-      <c r="BA1" s="132"/>
-      <c r="BB1" s="132"/>
-      <c r="BC1" s="132"/>
-      <c r="BD1" s="132"/>
-      <c r="BE1" s="132"/>
-      <c r="BF1" s="132"/>
-      <c r="BG1" s="132"/>
-      <c r="BH1" s="132"/>
-      <c r="BI1" s="132"/>
-      <c r="BJ1" s="132"/>
-      <c r="BK1" s="132"/>
-      <c r="BL1" s="132"/>
-      <c r="BM1" s="132"/>
-      <c r="BN1" s="132"/>
-      <c r="BO1" s="132"/>
-      <c r="BP1" s="132"/>
-      <c r="BQ1" s="132"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="124"/>
+      <c r="BA1" s="124"/>
+      <c r="BB1" s="124"/>
+      <c r="BC1" s="124"/>
+      <c r="BD1" s="124"/>
+      <c r="BE1" s="124"/>
+      <c r="BF1" s="124"/>
+      <c r="BG1" s="124"/>
+      <c r="BH1" s="124"/>
+      <c r="BI1" s="124"/>
+      <c r="BJ1" s="124"/>
+      <c r="BK1" s="124"/>
+      <c r="BL1" s="124"/>
+      <c r="BM1" s="124"/>
+      <c r="BN1" s="124"/>
+      <c r="BO1" s="124"/>
+      <c r="BP1" s="124"/>
+      <c r="BQ1" s="124"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="123" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="123"/>
-      <c r="AO2" s="123"/>
-      <c r="AP2" s="123"/>
-      <c r="AQ2" s="123"/>
-      <c r="AR2" s="123"/>
-      <c r="AS2" s="123"/>
-      <c r="AT2" s="123" t="s">
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="123"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="123"/>
-      <c r="AX2" s="123"/>
-      <c r="AY2" s="123"/>
-      <c r="AZ2" s="123"/>
-      <c r="BA2" s="123"/>
-      <c r="BB2" s="123" t="s">
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="123"/>
-      <c r="BD2" s="123"/>
-      <c r="BE2" s="123"/>
-      <c r="BF2" s="123"/>
-      <c r="BG2" s="123"/>
-      <c r="BH2" s="123"/>
-      <c r="BI2" s="123"/>
-      <c r="BJ2" s="133" t="s">
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="125"/>
+      <c r="BG2" s="125"/>
+      <c r="BH2" s="125"/>
+      <c r="BI2" s="125"/>
+      <c r="BJ2" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="133"/>
-      <c r="BL2" s="133"/>
-      <c r="BM2" s="133"/>
-      <c r="BN2" s="133"/>
-      <c r="BO2" s="133"/>
-      <c r="BP2" s="133"/>
-      <c r="BQ2" s="133"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="134" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="134"/>
-      <c r="AS3" s="134"/>
-      <c r="AT3" s="135">
+      <c r="AL3" s="127"/>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="127"/>
+      <c r="AO3" s="127"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
+      <c r="AR3" s="127"/>
+      <c r="AS3" s="127"/>
+      <c r="AT3" s="128">
         <v>45510</v>
       </c>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="134" t="s">
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="134"/>
-      <c r="BD3" s="134"/>
-      <c r="BE3" s="134"/>
-      <c r="BF3" s="134"/>
-      <c r="BG3" s="134"/>
-      <c r="BH3" s="134"/>
-      <c r="BI3" s="134"/>
-      <c r="BJ3" s="136">
+      <c r="BC3" s="127"/>
+      <c r="BD3" s="127"/>
+      <c r="BE3" s="127"/>
+      <c r="BF3" s="127"/>
+      <c r="BG3" s="127"/>
+      <c r="BH3" s="127"/>
+      <c r="BI3" s="127"/>
+      <c r="BJ3" s="129">
         <v>45518</v>
       </c>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="136"/>
-      <c r="BQ3" s="136"/>
+      <c r="BK3" s="129"/>
+      <c r="BL3" s="129"/>
+      <c r="BM3" s="129"/>
+      <c r="BN3" s="129"/>
+      <c r="BO3" s="129"/>
+      <c r="BP3" s="129"/>
+      <c r="BQ3" s="129"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -7857,96 +7857,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="129" t="s">
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="129"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="129"/>
-      <c r="AH6" s="129"/>
-      <c r="AI6" s="129"/>
-      <c r="AJ6" s="129"/>
-      <c r="AK6" s="129"/>
-      <c r="AL6" s="129"/>
-      <c r="AM6" s="129"/>
-      <c r="AN6" s="129"/>
-      <c r="AO6" s="67" t="s">
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130"/>
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130"/>
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67" t="s">
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="67"/>
-      <c r="BA6" s="67"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="67"/>
-      <c r="BH6" s="67"/>
-      <c r="BI6" s="67"/>
-      <c r="BJ6" s="67"/>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="67"/>
-      <c r="BM6" s="67"/>
-      <c r="BN6" s="67"/>
-      <c r="BO6" s="67"/>
-      <c r="BP6" s="67"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="17" t="s">
         <v>75</v>
       </c>
@@ -7977,38 +7977,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67" t="s">
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="67"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
+      <c r="BJ7" s="105"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
+      <c r="BP7" s="105"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -8022,88 +8022,88 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="123" t="s">
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="123"/>
+      <c r="U10" s="125"/>
       <c r="V10" s="137"/>
-      <c r="W10" s="64" t="s">
+      <c r="W10" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="128"/>
-      <c r="BJ10" s="66" t="s">
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
+      <c r="AY10" s="113"/>
+      <c r="AZ10" s="113"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="113"/>
+      <c r="BC10" s="113"/>
+      <c r="BD10" s="113"/>
+      <c r="BE10" s="113"/>
+      <c r="BF10" s="113"/>
+      <c r="BG10" s="113"/>
+      <c r="BH10" s="113"/>
+      <c r="BI10" s="132"/>
+      <c r="BJ10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="66"/>
-      <c r="BP10" s="66"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="103"/>
+      <c r="BN10" s="103"/>
+      <c r="BO10" s="103"/>
+      <c r="BP10" s="103"/>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="17" t="s">
         <v>99</v>
       </c>
@@ -8119,10 +8119,10 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="123" t="s">
+      <c r="T11" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="123"/>
+      <c r="U11" s="125"/>
       <c r="V11" s="137"/>
       <c r="W11" s="21" t="s">
         <v>117</v>
@@ -8174,12 +8174,12 @@
       <c r="BP11" s="24"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="17" t="s">
         <v>120</v>
       </c>
@@ -8195,10 +8195,10 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="123" t="s">
+      <c r="T12" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="123"/>
+      <c r="U12" s="125"/>
       <c r="V12" s="137"/>
       <c r="W12" s="21"/>
       <c r="X12" s="18"/>
@@ -8248,12 +8248,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="17" t="s">
         <v>102</v>
       </c>
@@ -8269,8 +8269,8 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
       <c r="V13" s="137"/>
       <c r="W13" s="21"/>
       <c r="X13" s="18"/>
@@ -8320,12 +8320,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="17" t="s">
         <v>95</v>
       </c>
@@ -8341,10 +8341,10 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="123" t="s">
+      <c r="T14" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="123"/>
+      <c r="U14" s="125"/>
       <c r="V14" s="137"/>
       <c r="W14" s="21" t="s">
         <v>118</v>
@@ -8396,12 +8396,12 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
       <c r="G15" s="17" t="s">
         <v>109</v>
       </c>
@@ -8417,8 +8417,8 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="123"/>
-      <c r="U15" s="123"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
       <c r="V15" s="137"/>
       <c r="W15" s="21"/>
       <c r="X15" s="18"/>
@@ -8468,12 +8468,12 @@
       <c r="BP15" s="24"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
       <c r="G16" s="17" t="s">
         <v>67</v>
       </c>
@@ -8489,10 +8489,10 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="123" t="s">
+      <c r="T16" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="123"/>
+      <c r="U16" s="125"/>
       <c r="V16" s="137"/>
       <c r="W16" s="21" t="s">
         <v>187</v>
@@ -8544,12 +8544,12 @@
       <c r="BP16" s="24"/>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
       <c r="G17" s="17" t="s">
         <v>92</v>
       </c>
@@ -8565,10 +8565,10 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="123" t="s">
+      <c r="T17" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="123"/>
+      <c r="U17" s="125"/>
       <c r="V17" s="137"/>
       <c r="W17" s="21" t="s">
         <v>108</v>
@@ -8620,12 +8620,12 @@
       <c r="BP17" s="24"/>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C18" s="122" t="s">
+      <c r="C18" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
       <c r="G18" s="17" t="s">
         <v>93</v>
       </c>
@@ -8641,10 +8641,10 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="123" t="s">
+      <c r="T18" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="123"/>
+      <c r="U18" s="125"/>
       <c r="V18" s="137"/>
       <c r="W18" s="21" t="s">
         <v>105</v>
@@ -8707,88 +8707,88 @@
       <c r="AG20" s="16"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="123" t="s">
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123" t="s">
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="66" t="s">
+      <c r="U21" s="125"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
-      <c r="BA21" s="66"/>
-      <c r="BB21" s="66"/>
-      <c r="BC21" s="66"/>
-      <c r="BD21" s="66"/>
-      <c r="BE21" s="66"/>
-      <c r="BF21" s="66"/>
-      <c r="BG21" s="66"/>
-      <c r="BH21" s="66"/>
-      <c r="BI21" s="66"/>
-      <c r="BJ21" s="66" t="s">
+      <c r="X21" s="103"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="103"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="103"/>
+      <c r="AD21" s="103"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="103"/>
+      <c r="AG21" s="103"/>
+      <c r="AH21" s="103"/>
+      <c r="AI21" s="103"/>
+      <c r="AJ21" s="103"/>
+      <c r="AK21" s="103"/>
+      <c r="AL21" s="103"/>
+      <c r="AM21" s="103"/>
+      <c r="AN21" s="103"/>
+      <c r="AO21" s="103"/>
+      <c r="AP21" s="103"/>
+      <c r="AQ21" s="103"/>
+      <c r="AR21" s="103"/>
+      <c r="AS21" s="103"/>
+      <c r="AT21" s="103"/>
+      <c r="AU21" s="103"/>
+      <c r="AV21" s="103"/>
+      <c r="AW21" s="103"/>
+      <c r="AX21" s="103"/>
+      <c r="AY21" s="103"/>
+      <c r="AZ21" s="103"/>
+      <c r="BA21" s="103"/>
+      <c r="BB21" s="103"/>
+      <c r="BC21" s="103"/>
+      <c r="BD21" s="103"/>
+      <c r="BE21" s="103"/>
+      <c r="BF21" s="103"/>
+      <c r="BG21" s="103"/>
+      <c r="BH21" s="103"/>
+      <c r="BI21" s="103"/>
+      <c r="BJ21" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK21" s="66"/>
-      <c r="BL21" s="66"/>
-      <c r="BM21" s="66"/>
-      <c r="BN21" s="66"/>
-      <c r="BO21" s="66"/>
-      <c r="BP21" s="66"/>
+      <c r="BK21" s="103"/>
+      <c r="BL21" s="103"/>
+      <c r="BM21" s="103"/>
+      <c r="BN21" s="103"/>
+      <c r="BO21" s="103"/>
+      <c r="BP21" s="103"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
       <c r="G22" s="17" t="s">
         <v>106</v>
       </c>
@@ -8804,9 +8804,9 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="20"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="123"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
       <c r="W22" s="21" t="s">
         <v>66</v>
       </c>
@@ -9804,6 +9804,43 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="W21:BI21"/>
+    <mergeCell ref="BJ21:BP21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="W10:BI10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -9818,43 +9855,6 @@
     <mergeCell ref="I2:AJ3"/>
     <mergeCell ref="AK2:AS2"/>
     <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W21:BI21"/>
-    <mergeCell ref="BJ21:BP21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -9892,243 +9892,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="131" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131" t="s">
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="131"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="131"/>
-      <c r="AT1" s="132" t="s">
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="132"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="132"/>
-      <c r="AX1" s="132"/>
-      <c r="AY1" s="132"/>
-      <c r="AZ1" s="132"/>
-      <c r="BA1" s="132"/>
-      <c r="BB1" s="132"/>
-      <c r="BC1" s="132"/>
-      <c r="BD1" s="132"/>
-      <c r="BE1" s="132"/>
-      <c r="BF1" s="132"/>
-      <c r="BG1" s="132"/>
-      <c r="BH1" s="132"/>
-      <c r="BI1" s="132"/>
-      <c r="BJ1" s="132"/>
-      <c r="BK1" s="132"/>
-      <c r="BL1" s="132"/>
-      <c r="BM1" s="132"/>
-      <c r="BN1" s="132"/>
-      <c r="BO1" s="132"/>
-      <c r="BP1" s="132"/>
-      <c r="BQ1" s="132"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="124"/>
+      <c r="BA1" s="124"/>
+      <c r="BB1" s="124"/>
+      <c r="BC1" s="124"/>
+      <c r="BD1" s="124"/>
+      <c r="BE1" s="124"/>
+      <c r="BF1" s="124"/>
+      <c r="BG1" s="124"/>
+      <c r="BH1" s="124"/>
+      <c r="BI1" s="124"/>
+      <c r="BJ1" s="124"/>
+      <c r="BK1" s="124"/>
+      <c r="BL1" s="124"/>
+      <c r="BM1" s="124"/>
+      <c r="BN1" s="124"/>
+      <c r="BO1" s="124"/>
+      <c r="BP1" s="124"/>
+      <c r="BQ1" s="124"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="102" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="123" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="123"/>
-      <c r="AO2" s="123"/>
-      <c r="AP2" s="123"/>
-      <c r="AQ2" s="123"/>
-      <c r="AR2" s="123"/>
-      <c r="AS2" s="123"/>
-      <c r="AT2" s="123" t="s">
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="123"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="123"/>
-      <c r="AX2" s="123"/>
-      <c r="AY2" s="123"/>
-      <c r="AZ2" s="123"/>
-      <c r="BA2" s="123"/>
-      <c r="BB2" s="123" t="s">
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="123"/>
-      <c r="BD2" s="123"/>
-      <c r="BE2" s="123"/>
-      <c r="BF2" s="123"/>
-      <c r="BG2" s="123"/>
-      <c r="BH2" s="123"/>
-      <c r="BI2" s="123"/>
-      <c r="BJ2" s="133"/>
-      <c r="BK2" s="133"/>
-      <c r="BL2" s="133"/>
-      <c r="BM2" s="133"/>
-      <c r="BN2" s="133"/>
-      <c r="BO2" s="133"/>
-      <c r="BP2" s="133"/>
-      <c r="BQ2" s="133"/>
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="125"/>
+      <c r="BG2" s="125"/>
+      <c r="BH2" s="125"/>
+      <c r="BI2" s="125"/>
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="134" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="134"/>
-      <c r="AS3" s="134"/>
-      <c r="AT3" s="135">
+      <c r="AL3" s="127"/>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="127"/>
+      <c r="AO3" s="127"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
+      <c r="AR3" s="127"/>
+      <c r="AS3" s="127"/>
+      <c r="AT3" s="128">
         <v>45510</v>
       </c>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="134" t="s">
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="134"/>
-      <c r="BD3" s="134"/>
-      <c r="BE3" s="134"/>
-      <c r="BF3" s="134"/>
-      <c r="BG3" s="134"/>
-      <c r="BH3" s="134"/>
-      <c r="BI3" s="134"/>
-      <c r="BJ3" s="136"/>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="136"/>
-      <c r="BQ3" s="136"/>
+      <c r="BC3" s="127"/>
+      <c r="BD3" s="127"/>
+      <c r="BE3" s="127"/>
+      <c r="BF3" s="127"/>
+      <c r="BG3" s="127"/>
+      <c r="BH3" s="127"/>
+      <c r="BI3" s="127"/>
+      <c r="BJ3" s="129"/>
+      <c r="BK3" s="129"/>
+      <c r="BL3" s="129"/>
+      <c r="BM3" s="129"/>
+      <c r="BN3" s="129"/>
+      <c r="BO3" s="129"/>
+      <c r="BP3" s="129"/>
+      <c r="BQ3" s="129"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -10153,96 +10153,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="129" t="s">
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="129"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="129"/>
-      <c r="AH6" s="129"/>
-      <c r="AI6" s="129"/>
-      <c r="AJ6" s="129"/>
-      <c r="AK6" s="129"/>
-      <c r="AL6" s="129"/>
-      <c r="AM6" s="129"/>
-      <c r="AN6" s="129"/>
-      <c r="AO6" s="67" t="s">
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130"/>
+      <c r="AF6" s="130"/>
+      <c r="AG6" s="130"/>
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130"/>
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="130"/>
+      <c r="AO6" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67" t="s">
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="67"/>
-      <c r="BA6" s="67"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="67"/>
-      <c r="BH6" s="67"/>
-      <c r="BI6" s="67"/>
-      <c r="BJ6" s="67"/>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="67"/>
-      <c r="BM6" s="67"/>
-      <c r="BN6" s="67"/>
-      <c r="BO6" s="67"/>
-      <c r="BP6" s="67"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="17" t="s">
         <v>80</v>
       </c>
@@ -10273,38 +10273,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67" t="s">
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="67"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
+      <c r="BJ7" s="105"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
+      <c r="BP7" s="105"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -10318,89 +10318,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="123" t="s">
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="123"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="64" t="s">
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="128"/>
-      <c r="BJ10" s="66" t="s">
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
+      <c r="AY10" s="113"/>
+      <c r="AZ10" s="113"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="113"/>
+      <c r="BC10" s="113"/>
+      <c r="BD10" s="113"/>
+      <c r="BE10" s="113"/>
+      <c r="BF10" s="113"/>
+      <c r="BG10" s="113"/>
+      <c r="BH10" s="113"/>
+      <c r="BI10" s="132"/>
+      <c r="BJ10" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="66"/>
-      <c r="BP10" s="66"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="103"/>
+      <c r="BN10" s="103"/>
+      <c r="BO10" s="103"/>
+      <c r="BP10" s="103"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="17" t="s">
         <v>120</v>
       </c>
@@ -10416,11 +10416,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="123" t="s">
+      <c r="T11" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="123"/>
-      <c r="V11" s="123"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
       <c r="W11" s="51" t="s">
         <v>121</v>
       </c>
@@ -10472,12 +10472,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="13" t="s">
         <v>153</v>
       </c>
@@ -10493,9 +10493,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="123"/>
+      <c r="T12" s="125"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
       <c r="W12" s="51" t="s">
         <v>155</v>
       </c>
@@ -10567,9 +10567,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="123"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
       <c r="W13" s="51" t="s">
         <v>156</v>
       </c>
@@ -10620,10 +10620,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -10637,9 +10637,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="123"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
       <c r="W14" s="51"/>
       <c r="X14" s="52"/>
       <c r="Y14" s="52"/>
@@ -10689,10 +10689,10 @@
     </row>
     <row r="15" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -10706,9 +10706,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="123"/>
-      <c r="U15" s="123"/>
-      <c r="V15" s="123"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
       <c r="W15" s="51"/>
       <c r="X15" s="52"/>
       <c r="Y15" s="52"/>
@@ -10759,10 +10759,10 @@
     </row>
     <row r="16" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -10776,9 +10776,9 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="123"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="123"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
       <c r="W16" s="51"/>
       <c r="X16" s="52"/>
       <c r="Y16" s="52"/>
@@ -10842,90 +10842,90 @@
     </row>
     <row r="19" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="123" t="s">
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="123" t="s">
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="123"/>
-      <c r="V19" s="123"/>
-      <c r="W19" s="66" t="s">
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="66"/>
-      <c r="BA19" s="66"/>
-      <c r="BB19" s="66"/>
-      <c r="BC19" s="66"/>
-      <c r="BD19" s="66"/>
-      <c r="BE19" s="66"/>
-      <c r="BF19" s="66"/>
-      <c r="BG19" s="66"/>
-      <c r="BH19" s="66"/>
-      <c r="BI19" s="66"/>
-      <c r="BJ19" s="66" t="s">
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="103"/>
+      <c r="AC19" s="103"/>
+      <c r="AD19" s="103"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="103"/>
+      <c r="AG19" s="103"/>
+      <c r="AH19" s="103"/>
+      <c r="AI19" s="103"/>
+      <c r="AJ19" s="103"/>
+      <c r="AK19" s="103"/>
+      <c r="AL19" s="103"/>
+      <c r="AM19" s="103"/>
+      <c r="AN19" s="103"/>
+      <c r="AO19" s="103"/>
+      <c r="AP19" s="103"/>
+      <c r="AQ19" s="103"/>
+      <c r="AR19" s="103"/>
+      <c r="AS19" s="103"/>
+      <c r="AT19" s="103"/>
+      <c r="AU19" s="103"/>
+      <c r="AV19" s="103"/>
+      <c r="AW19" s="103"/>
+      <c r="AX19" s="103"/>
+      <c r="AY19" s="103"/>
+      <c r="AZ19" s="103"/>
+      <c r="BA19" s="103"/>
+      <c r="BB19" s="103"/>
+      <c r="BC19" s="103"/>
+      <c r="BD19" s="103"/>
+      <c r="BE19" s="103"/>
+      <c r="BF19" s="103"/>
+      <c r="BG19" s="103"/>
+      <c r="BH19" s="103"/>
+      <c r="BI19" s="103"/>
+      <c r="BJ19" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="BK19" s="66"/>
-      <c r="BL19" s="66"/>
-      <c r="BM19" s="66"/>
-      <c r="BN19" s="66"/>
-      <c r="BO19" s="66"/>
-      <c r="BP19" s="66"/>
+      <c r="BK19" s="103"/>
+      <c r="BL19" s="103"/>
+      <c r="BM19" s="103"/>
+      <c r="BN19" s="103"/>
+      <c r="BO19" s="103"/>
+      <c r="BP19" s="103"/>
       <c r="BQ19" s="15"/>
     </row>
     <row r="20" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
       <c r="G20" s="17" t="s">
         <v>116</v>
       </c>
@@ -10941,9 +10941,9 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="20"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
       <c r="W20" s="21" t="s">
         <v>122</v>
       </c>
@@ -12645,6 +12645,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="W19:BI19"/>
+    <mergeCell ref="BJ19:BP19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -12659,39 +12692,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W19:BI19"/>
-    <mergeCell ref="BJ19:BP19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_交通費申請.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D94A6D-F13A-4F8A-ADEA-8535797ABAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01D06D7-7F0D-48A2-A0AE-37103AD8CD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1150" yWindow="30" windowWidth="13340" windowHeight="10050" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_交通費申請マッパー" sheetId="10" r:id="rId1"/>
@@ -1146,28 +1146,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>AND EXTRACT(YEAR FROM 利用日) &gt;= 引数.To年</t>
-    <rPh sb="30" eb="32">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>AND EXTRACT(YEAR FROM 申請日) &gt;= 引数.To年</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>AND EXTRACT(YEAR FROM 承認日) &gt;= 引数.To年</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>AND EXTRACT(YEAR FROM 支給日) &gt;= 引数.To年</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>From年</t>
     <rPh sb="4" eb="5">
       <t>ネン</t>
@@ -1611,10 +1589,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>※昇順降順フラグが"1"の時昇順、昇順降順フラグが"0"の時降順として、</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>引数.昇順降順フラグを参照して、TETableの申請日の昇順もしくは降順を行う</t>
     <rPh sb="11" eb="13">
       <t>サンショウ</t>
@@ -1664,6 +1638,32 @@
     <rPh sb="37" eb="38">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>※昇順降順フラグが"0"の時昇順、昇順降順フラグが"1"の時降順として、</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>AND EXTRACT(YEAR FROM 利用日) &lt;= 引数.To年</t>
+    <rPh sb="30" eb="32">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>AND EXTRACT(YEAR FROM 申請日) &lt;= 引数.To年</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>AND EXTRACT(YEAR FROM 承認日) &lt;= 引数.To年</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>AND EXTRACT(YEAR FROM 支給日) &lt;= 引数.To年</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2316,35 +2316,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2382,23 +2427,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2418,77 +2490,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2497,9 +2519,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2512,25 +2531,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2764,249 +2764,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="99"/>
-      <c r="AR1" s="99"/>
-      <c r="AS1" s="99"/>
-      <c r="AT1" s="100" t="s">
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="107"/>
+      <c r="AS1" s="107"/>
+      <c r="AT1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="100"/>
-      <c r="AV1" s="100"/>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="100"/>
-      <c r="AY1" s="100"/>
-      <c r="AZ1" s="100"/>
-      <c r="BA1" s="100"/>
-      <c r="BB1" s="100"/>
-      <c r="BC1" s="100"/>
-      <c r="BD1" s="100"/>
-      <c r="BE1" s="100"/>
-      <c r="BF1" s="100"/>
-      <c r="BG1" s="100"/>
-      <c r="BH1" s="100"/>
-      <c r="BI1" s="100"/>
-      <c r="BJ1" s="100"/>
-      <c r="BK1" s="100"/>
-      <c r="BL1" s="100"/>
-      <c r="BM1" s="100"/>
-      <c r="BN1" s="100"/>
-      <c r="BO1" s="100"/>
-      <c r="BP1" s="100"/>
-      <c r="BQ1" s="100"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="108"/>
+      <c r="BA1" s="108"/>
+      <c r="BB1" s="108"/>
+      <c r="BC1" s="108"/>
+      <c r="BD1" s="108"/>
+      <c r="BE1" s="108"/>
+      <c r="BF1" s="108"/>
+      <c r="BG1" s="108"/>
+      <c r="BH1" s="108"/>
+      <c r="BI1" s="108"/>
+      <c r="BJ1" s="108"/>
+      <c r="BK1" s="108"/>
+      <c r="BL1" s="108"/>
+      <c r="BM1" s="108"/>
+      <c r="BN1" s="108"/>
+      <c r="BO1" s="108"/>
+      <c r="BP1" s="108"/>
+      <c r="BQ1" s="108"/>
       <c r="BR1" s="4"/>
     </row>
     <row r="2" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="103" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="103"/>
-      <c r="AM2" s="103"/>
-      <c r="AN2" s="103"/>
-      <c r="AO2" s="103"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="103"/>
-      <c r="AR2" s="103"/>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="103" t="s">
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="103"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="103" t="s">
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="103"/>
-      <c r="BD2" s="103"/>
-      <c r="BE2" s="103"/>
-      <c r="BF2" s="103"/>
-      <c r="BG2" s="103"/>
-      <c r="BH2" s="103"/>
-      <c r="BI2" s="103"/>
-      <c r="BJ2" s="104" t="s">
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="66"/>
+      <c r="BH2" s="66"/>
+      <c r="BI2" s="66"/>
+      <c r="BJ2" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="104"/>
-      <c r="BL2" s="104"/>
-      <c r="BM2" s="104"/>
-      <c r="BN2" s="104"/>
-      <c r="BO2" s="104"/>
-      <c r="BP2" s="104"/>
-      <c r="BQ2" s="104"/>
+      <c r="BK2" s="111"/>
+      <c r="BL2" s="111"/>
+      <c r="BM2" s="111"/>
+      <c r="BN2" s="111"/>
+      <c r="BO2" s="111"/>
+      <c r="BP2" s="111"/>
+      <c r="BQ2" s="111"/>
       <c r="BR2" s="4"/>
     </row>
     <row r="3" spans="1:70" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="108" t="s">
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="110"/>
+      <c r="AK3" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108"/>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="109">
+      <c r="AL3" s="102"/>
+      <c r="AM3" s="102"/>
+      <c r="AN3" s="102"/>
+      <c r="AO3" s="102"/>
+      <c r="AP3" s="102"/>
+      <c r="AQ3" s="102"/>
+      <c r="AR3" s="102"/>
+      <c r="AS3" s="102"/>
+      <c r="AT3" s="103">
         <v>45503</v>
       </c>
-      <c r="AU3" s="109"/>
-      <c r="AV3" s="109"/>
-      <c r="AW3" s="109"/>
-      <c r="AX3" s="109"/>
-      <c r="AY3" s="109"/>
-      <c r="AZ3" s="109"/>
-      <c r="BA3" s="109"/>
-      <c r="BB3" s="108" t="s">
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="108"/>
-      <c r="BD3" s="108"/>
-      <c r="BE3" s="108"/>
-      <c r="BF3" s="108"/>
-      <c r="BG3" s="108"/>
-      <c r="BH3" s="108"/>
-      <c r="BI3" s="108"/>
-      <c r="BJ3" s="110">
+      <c r="BC3" s="102"/>
+      <c r="BD3" s="102"/>
+      <c r="BE3" s="102"/>
+      <c r="BF3" s="102"/>
+      <c r="BG3" s="102"/>
+      <c r="BH3" s="102"/>
+      <c r="BI3" s="102"/>
+      <c r="BJ3" s="104">
         <v>45548</v>
       </c>
-      <c r="BK3" s="110"/>
-      <c r="BL3" s="110"/>
-      <c r="BM3" s="110"/>
-      <c r="BN3" s="110"/>
-      <c r="BO3" s="110"/>
-      <c r="BP3" s="110"/>
-      <c r="BQ3" s="110"/>
+      <c r="BK3" s="104"/>
+      <c r="BL3" s="104"/>
+      <c r="BM3" s="104"/>
+      <c r="BN3" s="104"/>
+      <c r="BO3" s="104"/>
+      <c r="BP3" s="104"/>
+      <c r="BQ3" s="104"/>
       <c r="BR3" s="4"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
@@ -3074,215 +3074,215 @@
     </row>
     <row r="6" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111"/>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="111"/>
-      <c r="AK6" s="111"/>
-      <c r="AL6" s="111"/>
-      <c r="AM6" s="111"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111"/>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111"/>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111"/>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="111"/>
-      <c r="BB6" s="111"/>
-      <c r="BC6" s="111"/>
-      <c r="BD6" s="111"/>
-      <c r="BE6" s="111"/>
-      <c r="BF6" s="111"/>
-      <c r="BG6" s="111"/>
-      <c r="BH6" s="111"/>
-      <c r="BI6" s="111"/>
-      <c r="BJ6" s="111"/>
-      <c r="BK6" s="111"/>
-      <c r="BL6" s="111"/>
-      <c r="BM6" s="111"/>
-      <c r="BN6" s="111"/>
-      <c r="BO6" s="111"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="105"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="105"/>
+      <c r="AN6" s="105"/>
+      <c r="AO6" s="105"/>
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
       <c r="BP6"/>
       <c r="BR6" s="4"/>
     </row>
     <row r="7" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="111"/>
-      <c r="AG7" s="111"/>
-      <c r="AH7" s="111"/>
-      <c r="AI7" s="111"/>
-      <c r="AJ7" s="111"/>
-      <c r="AK7" s="111"/>
-      <c r="AL7" s="111"/>
-      <c r="AM7" s="111"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="111"/>
-      <c r="AP7" s="111"/>
-      <c r="AQ7" s="111"/>
-      <c r="AR7" s="111"/>
-      <c r="AS7" s="111"/>
-      <c r="AT7" s="111"/>
-      <c r="AU7" s="111"/>
-      <c r="AV7" s="111"/>
-      <c r="AW7" s="111"/>
-      <c r="AX7" s="111"/>
-      <c r="AY7" s="111"/>
-      <c r="AZ7" s="111"/>
-      <c r="BA7" s="111"/>
-      <c r="BB7" s="111"/>
-      <c r="BC7" s="111"/>
-      <c r="BD7" s="111"/>
-      <c r="BE7" s="111"/>
-      <c r="BF7" s="111"/>
-      <c r="BG7" s="111"/>
-      <c r="BH7" s="111"/>
-      <c r="BI7" s="111"/>
-      <c r="BJ7" s="111"/>
-      <c r="BK7" s="111"/>
-      <c r="BL7" s="111"/>
-      <c r="BM7" s="111"/>
-      <c r="BN7" s="111"/>
-      <c r="BO7" s="111"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="105"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
+      <c r="BJ7" s="105"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
       <c r="BP7"/>
       <c r="BR7" s="4"/>
     </row>
     <row r="8" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="105"/>
-      <c r="AP8" s="105"/>
-      <c r="AQ8" s="105"/>
-      <c r="AR8" s="105"/>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="105"/>
-      <c r="AW8" s="105"/>
-      <c r="AX8" s="105"/>
-      <c r="AY8" s="105"/>
-      <c r="AZ8" s="105"/>
-      <c r="BA8" s="105"/>
-      <c r="BB8" s="105"/>
-      <c r="BC8" s="105"/>
-      <c r="BD8" s="105"/>
-      <c r="BE8" s="105"/>
-      <c r="BF8" s="105"/>
-      <c r="BG8" s="105"/>
-      <c r="BH8" s="105"/>
-      <c r="BI8" s="105"/>
-      <c r="BJ8" s="105"/>
-      <c r="BK8" s="105"/>
-      <c r="BL8" s="105"/>
-      <c r="BM8" s="105"/>
-      <c r="BN8" s="105"/>
-      <c r="BO8" s="105"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="67"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="67"/>
+      <c r="BE8" s="67"/>
+      <c r="BF8" s="67"/>
+      <c r="BG8" s="67"/>
+      <c r="BH8" s="67"/>
+      <c r="BI8" s="67"/>
+      <c r="BJ8" s="67"/>
+      <c r="BK8" s="67"/>
+      <c r="BL8" s="67"/>
+      <c r="BM8" s="67"/>
+      <c r="BN8" s="67"/>
+      <c r="BO8" s="67"/>
       <c r="BP8"/>
       <c r="BR8" s="4"/>
     </row>
@@ -3335,787 +3335,787 @@
     </row>
     <row r="11" spans="1:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="103" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="105" t="s">
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="105"/>
-      <c r="AA11" s="105"/>
-      <c r="AB11" s="105"/>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="105"/>
-      <c r="AF11" s="105"/>
-      <c r="AG11" s="105"/>
-      <c r="AH11" s="105"/>
-      <c r="AI11" s="106" t="s">
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="106"/>
-      <c r="AL11" s="106"/>
-      <c r="AM11" s="106"/>
-      <c r="AN11" s="106"/>
-      <c r="AO11" s="106"/>
-      <c r="AP11" s="106"/>
-      <c r="AQ11" s="106"/>
-      <c r="AR11" s="106"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="106"/>
-      <c r="AU11" s="106"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="106"/>
-      <c r="AY11" s="106"/>
-      <c r="AZ11" s="106"/>
-      <c r="BA11" s="106"/>
-      <c r="BB11" s="106"/>
-      <c r="BC11" s="106"/>
-      <c r="BD11" s="106"/>
-      <c r="BE11" s="106"/>
-      <c r="BF11" s="106"/>
-      <c r="BG11" s="106"/>
-      <c r="BH11" s="106"/>
-      <c r="BI11" s="106"/>
-      <c r="BJ11" s="106"/>
-      <c r="BK11" s="106"/>
-      <c r="BL11" s="106"/>
-      <c r="BM11" s="106"/>
-      <c r="BN11" s="106"/>
-      <c r="BO11" s="106"/>
+      <c r="AJ11" s="101"/>
+      <c r="AK11" s="101"/>
+      <c r="AL11" s="101"/>
+      <c r="AM11" s="101"/>
+      <c r="AN11" s="101"/>
+      <c r="AO11" s="101"/>
+      <c r="AP11" s="101"/>
+      <c r="AQ11" s="101"/>
+      <c r="AR11" s="101"/>
+      <c r="AS11" s="101"/>
+      <c r="AT11" s="101"/>
+      <c r="AU11" s="101"/>
+      <c r="AV11" s="101"/>
+      <c r="AW11" s="101"/>
+      <c r="AX11" s="101"/>
+      <c r="AY11" s="101"/>
+      <c r="AZ11" s="101"/>
+      <c r="BA11" s="101"/>
+      <c r="BB11" s="101"/>
+      <c r="BC11" s="101"/>
+      <c r="BD11" s="101"/>
+      <c r="BE11" s="101"/>
+      <c r="BF11" s="101"/>
+      <c r="BG11" s="101"/>
+      <c r="BH11" s="101"/>
+      <c r="BI11" s="101"/>
+      <c r="BJ11" s="101"/>
+      <c r="BK11" s="101"/>
+      <c r="BL11" s="101"/>
+      <c r="BM11" s="101"/>
+      <c r="BN11" s="101"/>
+      <c r="BO11" s="101"/>
       <c r="BP11"/>
       <c r="BR11" s="4"/>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="107"/>
-      <c r="AH12" s="107"/>
-      <c r="AI12" s="107"/>
-      <c r="AJ12" s="107"/>
-      <c r="AK12" s="107"/>
-      <c r="AL12" s="107"/>
-      <c r="AM12" s="107"/>
-      <c r="AN12" s="107"/>
-      <c r="AO12" s="107"/>
-      <c r="AP12" s="107"/>
-      <c r="AQ12" s="107"/>
-      <c r="AR12" s="107"/>
-      <c r="AS12" s="107"/>
-      <c r="AT12" s="107"/>
-      <c r="AU12" s="107"/>
-      <c r="AV12" s="107"/>
-      <c r="AW12" s="107"/>
-      <c r="AX12" s="107"/>
-      <c r="AY12" s="107"/>
-      <c r="AZ12" s="107"/>
-      <c r="BA12" s="107"/>
-      <c r="BB12" s="107"/>
-      <c r="BC12" s="107"/>
-      <c r="BD12" s="107"/>
-      <c r="BE12" s="107"/>
-      <c r="BF12" s="107"/>
-      <c r="BG12" s="107"/>
-      <c r="BH12" s="107"/>
-      <c r="BI12" s="107"/>
-      <c r="BJ12" s="107"/>
-      <c r="BK12" s="107"/>
-      <c r="BL12" s="107"/>
-      <c r="BM12" s="107"/>
-      <c r="BN12" s="107"/>
-      <c r="BO12" s="107"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="68"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="68"/>
+      <c r="AO12" s="68"/>
+      <c r="AP12" s="68"/>
+      <c r="AQ12" s="68"/>
+      <c r="AR12" s="68"/>
+      <c r="AS12" s="68"/>
+      <c r="AT12" s="68"/>
+      <c r="AU12" s="68"/>
+      <c r="AV12" s="68"/>
+      <c r="AW12" s="68"/>
+      <c r="AX12" s="68"/>
+      <c r="AY12" s="68"/>
+      <c r="AZ12" s="68"/>
+      <c r="BA12" s="68"/>
+      <c r="BB12" s="68"/>
+      <c r="BC12" s="68"/>
+      <c r="BD12" s="68"/>
+      <c r="BE12" s="68"/>
+      <c r="BF12" s="68"/>
+      <c r="BG12" s="68"/>
+      <c r="BH12" s="68"/>
+      <c r="BI12" s="68"/>
+      <c r="BJ12" s="68"/>
+      <c r="BK12" s="68"/>
+      <c r="BL12" s="68"/>
+      <c r="BM12" s="68"/>
+      <c r="BN12" s="68"/>
+      <c r="BO12" s="68"/>
       <c r="BP12"/>
       <c r="BR12" s="4"/>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="107"/>
-      <c r="AJ13" s="107"/>
-      <c r="AK13" s="107"/>
-      <c r="AL13" s="107"/>
-      <c r="AM13" s="107"/>
-      <c r="AN13" s="107"/>
-      <c r="AO13" s="107"/>
-      <c r="AP13" s="107"/>
-      <c r="AQ13" s="107"/>
-      <c r="AR13" s="107"/>
-      <c r="AS13" s="107"/>
-      <c r="AT13" s="107"/>
-      <c r="AU13" s="107"/>
-      <c r="AV13" s="107"/>
-      <c r="AW13" s="107"/>
-      <c r="AX13" s="107"/>
-      <c r="AY13" s="107"/>
-      <c r="AZ13" s="107"/>
-      <c r="BA13" s="107"/>
-      <c r="BB13" s="107"/>
-      <c r="BC13" s="107"/>
-      <c r="BD13" s="107"/>
-      <c r="BE13" s="107"/>
-      <c r="BF13" s="107"/>
-      <c r="BG13" s="107"/>
-      <c r="BH13" s="107"/>
-      <c r="BI13" s="107"/>
-      <c r="BJ13" s="107"/>
-      <c r="BK13" s="107"/>
-      <c r="BL13" s="107"/>
-      <c r="BM13" s="107"/>
-      <c r="BN13" s="107"/>
-      <c r="BO13" s="107"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="68"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="68"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="68"/>
+      <c r="BC13" s="68"/>
+      <c r="BD13" s="68"/>
+      <c r="BE13" s="68"/>
+      <c r="BF13" s="68"/>
+      <c r="BG13" s="68"/>
+      <c r="BH13" s="68"/>
+      <c r="BI13" s="68"/>
+      <c r="BJ13" s="68"/>
+      <c r="BK13" s="68"/>
+      <c r="BL13" s="68"/>
+      <c r="BM13" s="68"/>
+      <c r="BN13" s="68"/>
+      <c r="BO13" s="68"/>
       <c r="BP13"/>
       <c r="BR13" s="4"/>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="115" t="s">
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="115"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="115"/>
-      <c r="Z14" s="115"/>
-      <c r="AA14" s="115"/>
-      <c r="AB14" s="115"/>
-      <c r="AC14" s="115"/>
-      <c r="AD14" s="115"/>
-      <c r="AE14" s="115"/>
-      <c r="AF14" s="115"/>
-      <c r="AG14" s="115"/>
-      <c r="AH14" s="115"/>
-      <c r="AI14" s="115"/>
-      <c r="AJ14" s="115"/>
-      <c r="AK14" s="115"/>
-      <c r="AL14" s="115"/>
-      <c r="AM14" s="115"/>
-      <c r="AN14" s="115"/>
-      <c r="AO14" s="115"/>
-      <c r="AP14" s="115"/>
-      <c r="AQ14" s="115"/>
-      <c r="AR14" s="115"/>
-      <c r="AS14" s="115"/>
-      <c r="AT14" s="115"/>
-      <c r="AU14" s="115"/>
-      <c r="AV14" s="115"/>
-      <c r="AW14" s="115"/>
-      <c r="AX14" s="115"/>
-      <c r="AY14" s="115"/>
-      <c r="AZ14" s="115"/>
-      <c r="BA14" s="115"/>
-      <c r="BB14" s="115"/>
-      <c r="BC14" s="115"/>
-      <c r="BD14" s="115"/>
-      <c r="BE14" s="115"/>
-      <c r="BF14" s="115"/>
-      <c r="BG14" s="115"/>
-      <c r="BH14" s="115"/>
-      <c r="BI14" s="115"/>
-      <c r="BJ14" s="115"/>
-      <c r="BK14" s="115"/>
-      <c r="BL14" s="115"/>
-      <c r="BM14" s="115"/>
-      <c r="BN14" s="115"/>
-      <c r="BO14" s="115"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="86"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="86"/>
+      <c r="AO14" s="86"/>
+      <c r="AP14" s="86"/>
+      <c r="AQ14" s="86"/>
+      <c r="AR14" s="86"/>
+      <c r="AS14" s="86"/>
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="86"/>
+      <c r="AV14" s="86"/>
+      <c r="AW14" s="86"/>
+      <c r="AX14" s="86"/>
+      <c r="AY14" s="86"/>
+      <c r="AZ14" s="86"/>
+      <c r="BA14" s="86"/>
+      <c r="BB14" s="86"/>
+      <c r="BC14" s="86"/>
+      <c r="BD14" s="86"/>
+      <c r="BE14" s="86"/>
+      <c r="BF14" s="86"/>
+      <c r="BG14" s="86"/>
+      <c r="BH14" s="86"/>
+      <c r="BI14" s="86"/>
+      <c r="BJ14" s="86"/>
+      <c r="BK14" s="86"/>
+      <c r="BL14" s="86"/>
+      <c r="BM14" s="86"/>
+      <c r="BN14" s="86"/>
+      <c r="BO14" s="86"/>
       <c r="BP14"/>
       <c r="BR14" s="4"/>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="107"/>
-      <c r="AG15" s="107"/>
-      <c r="AH15" s="107"/>
-      <c r="AI15" s="107"/>
-      <c r="AJ15" s="107"/>
-      <c r="AK15" s="107"/>
-      <c r="AL15" s="107"/>
-      <c r="AM15" s="107"/>
-      <c r="AN15" s="107"/>
-      <c r="AO15" s="107"/>
-      <c r="AP15" s="107"/>
-      <c r="AQ15" s="107"/>
-      <c r="AR15" s="107"/>
-      <c r="AS15" s="107"/>
-      <c r="AT15" s="107"/>
-      <c r="AU15" s="107"/>
-      <c r="AV15" s="107"/>
-      <c r="AW15" s="107"/>
-      <c r="AX15" s="107"/>
-      <c r="AY15" s="107"/>
-      <c r="AZ15" s="107"/>
-      <c r="BA15" s="107"/>
-      <c r="BB15" s="107"/>
-      <c r="BC15" s="107"/>
-      <c r="BD15" s="107"/>
-      <c r="BE15" s="107"/>
-      <c r="BF15" s="107"/>
-      <c r="BG15" s="107"/>
-      <c r="BH15" s="107"/>
-      <c r="BI15" s="107"/>
-      <c r="BJ15" s="107"/>
-      <c r="BK15" s="107"/>
-      <c r="BL15" s="107"/>
-      <c r="BM15" s="107"/>
-      <c r="BN15" s="107"/>
-      <c r="BO15" s="107"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="68"/>
+      <c r="AS15" s="68"/>
+      <c r="AT15" s="68"/>
+      <c r="AU15" s="68"/>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="68"/>
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="68"/>
+      <c r="BC15" s="68"/>
+      <c r="BD15" s="68"/>
+      <c r="BE15" s="68"/>
+      <c r="BF15" s="68"/>
+      <c r="BG15" s="68"/>
+      <c r="BH15" s="68"/>
+      <c r="BI15" s="68"/>
+      <c r="BJ15" s="68"/>
+      <c r="BK15" s="68"/>
+      <c r="BL15" s="68"/>
+      <c r="BM15" s="68"/>
+      <c r="BN15" s="68"/>
+      <c r="BO15" s="68"/>
       <c r="BP15"/>
       <c r="BR15" s="4"/>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="107"/>
-      <c r="AG16" s="107"/>
-      <c r="AH16" s="107"/>
-      <c r="AI16" s="107"/>
-      <c r="AJ16" s="107"/>
-      <c r="AK16" s="107"/>
-      <c r="AL16" s="107"/>
-      <c r="AM16" s="107"/>
-      <c r="AN16" s="107"/>
-      <c r="AO16" s="107"/>
-      <c r="AP16" s="107"/>
-      <c r="AQ16" s="107"/>
-      <c r="AR16" s="107"/>
-      <c r="AS16" s="107"/>
-      <c r="AT16" s="107"/>
-      <c r="AU16" s="107"/>
-      <c r="AV16" s="107"/>
-      <c r="AW16" s="107"/>
-      <c r="AX16" s="107"/>
-      <c r="AY16" s="107"/>
-      <c r="AZ16" s="107"/>
-      <c r="BA16" s="107"/>
-      <c r="BB16" s="107"/>
-      <c r="BC16" s="107"/>
-      <c r="BD16" s="107"/>
-      <c r="BE16" s="107"/>
-      <c r="BF16" s="107"/>
-      <c r="BG16" s="107"/>
-      <c r="BH16" s="107"/>
-      <c r="BI16" s="107"/>
-      <c r="BJ16" s="107"/>
-      <c r="BK16" s="107"/>
-      <c r="BL16" s="107"/>
-      <c r="BM16" s="107"/>
-      <c r="BN16" s="107"/>
-      <c r="BO16" s="107"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="68"/>
+      <c r="AL16" s="68"/>
+      <c r="AM16" s="68"/>
+      <c r="AN16" s="68"/>
+      <c r="AO16" s="68"/>
+      <c r="AP16" s="68"/>
+      <c r="AQ16" s="68"/>
+      <c r="AR16" s="68"/>
+      <c r="AS16" s="68"/>
+      <c r="AT16" s="68"/>
+      <c r="AU16" s="68"/>
+      <c r="AV16" s="68"/>
+      <c r="AW16" s="68"/>
+      <c r="AX16" s="68"/>
+      <c r="AY16" s="68"/>
+      <c r="AZ16" s="68"/>
+      <c r="BA16" s="68"/>
+      <c r="BB16" s="68"/>
+      <c r="BC16" s="68"/>
+      <c r="BD16" s="68"/>
+      <c r="BE16" s="68"/>
+      <c r="BF16" s="68"/>
+      <c r="BG16" s="68"/>
+      <c r="BH16" s="68"/>
+      <c r="BI16" s="68"/>
+      <c r="BJ16" s="68"/>
+      <c r="BK16" s="68"/>
+      <c r="BL16" s="68"/>
+      <c r="BM16" s="68"/>
+      <c r="BN16" s="68"/>
+      <c r="BO16" s="68"/>
       <c r="BP16"/>
       <c r="BR16" s="4"/>
     </row>
     <row r="17" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="107"/>
-      <c r="AH17" s="107"/>
-      <c r="AI17" s="107"/>
-      <c r="AJ17" s="107"/>
-      <c r="AK17" s="107"/>
-      <c r="AL17" s="107"/>
-      <c r="AM17" s="107"/>
-      <c r="AN17" s="107"/>
-      <c r="AO17" s="107"/>
-      <c r="AP17" s="107"/>
-      <c r="AQ17" s="107"/>
-      <c r="AR17" s="107"/>
-      <c r="AS17" s="107"/>
-      <c r="AT17" s="107"/>
-      <c r="AU17" s="107"/>
-      <c r="AV17" s="107"/>
-      <c r="AW17" s="107"/>
-      <c r="AX17" s="107"/>
-      <c r="AY17" s="107"/>
-      <c r="AZ17" s="107"/>
-      <c r="BA17" s="107"/>
-      <c r="BB17" s="107"/>
-      <c r="BC17" s="107"/>
-      <c r="BD17" s="107"/>
-      <c r="BE17" s="107"/>
-      <c r="BF17" s="107"/>
-      <c r="BG17" s="107"/>
-      <c r="BH17" s="107"/>
-      <c r="BI17" s="107"/>
-      <c r="BJ17" s="107"/>
-      <c r="BK17" s="107"/>
-      <c r="BL17" s="107"/>
-      <c r="BM17" s="107"/>
-      <c r="BN17" s="107"/>
-      <c r="BO17" s="107"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="68"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="68"/>
+      <c r="AK17" s="68"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="68"/>
+      <c r="AN17" s="68"/>
+      <c r="AO17" s="68"/>
+      <c r="AP17" s="68"/>
+      <c r="AQ17" s="68"/>
+      <c r="AR17" s="68"/>
+      <c r="AS17" s="68"/>
+      <c r="AT17" s="68"/>
+      <c r="AU17" s="68"/>
+      <c r="AV17" s="68"/>
+      <c r="AW17" s="68"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="68"/>
+      <c r="AZ17" s="68"/>
+      <c r="BA17" s="68"/>
+      <c r="BB17" s="68"/>
+      <c r="BC17" s="68"/>
+      <c r="BD17" s="68"/>
+      <c r="BE17" s="68"/>
+      <c r="BF17" s="68"/>
+      <c r="BG17" s="68"/>
+      <c r="BH17" s="68"/>
+      <c r="BI17" s="68"/>
+      <c r="BJ17" s="68"/>
+      <c r="BK17" s="68"/>
+      <c r="BL17" s="68"/>
+      <c r="BM17" s="68"/>
+      <c r="BN17" s="68"/>
+      <c r="BO17" s="68"/>
       <c r="BP17"/>
       <c r="BR17" s="4"/>
     </row>
     <row r="18" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="107"/>
-      <c r="AJ18" s="107"/>
-      <c r="AK18" s="107"/>
-      <c r="AL18" s="107"/>
-      <c r="AM18" s="107"/>
-      <c r="AN18" s="107"/>
-      <c r="AO18" s="107"/>
-      <c r="AP18" s="107"/>
-      <c r="AQ18" s="107"/>
-      <c r="AR18" s="107"/>
-      <c r="AS18" s="107"/>
-      <c r="AT18" s="107"/>
-      <c r="AU18" s="107"/>
-      <c r="AV18" s="107"/>
-      <c r="AW18" s="107"/>
-      <c r="AX18" s="107"/>
-      <c r="AY18" s="107"/>
-      <c r="AZ18" s="107"/>
-      <c r="BA18" s="107"/>
-      <c r="BB18" s="107"/>
-      <c r="BC18" s="107"/>
-      <c r="BD18" s="107"/>
-      <c r="BE18" s="107"/>
-      <c r="BF18" s="107"/>
-      <c r="BG18" s="107"/>
-      <c r="BH18" s="107"/>
-      <c r="BI18" s="107"/>
-      <c r="BJ18" s="107"/>
-      <c r="BK18" s="107"/>
-      <c r="BL18" s="107"/>
-      <c r="BM18" s="107"/>
-      <c r="BN18" s="107"/>
-      <c r="BO18" s="107"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="68"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="68"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="68"/>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="68"/>
+      <c r="AP18" s="68"/>
+      <c r="AQ18" s="68"/>
+      <c r="AR18" s="68"/>
+      <c r="AS18" s="68"/>
+      <c r="AT18" s="68"/>
+      <c r="AU18" s="68"/>
+      <c r="AV18" s="68"/>
+      <c r="AW18" s="68"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="68"/>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="68"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="68"/>
+      <c r="BD18" s="68"/>
+      <c r="BE18" s="68"/>
+      <c r="BF18" s="68"/>
+      <c r="BG18" s="68"/>
+      <c r="BH18" s="68"/>
+      <c r="BI18" s="68"/>
+      <c r="BJ18" s="68"/>
+      <c r="BK18" s="68"/>
+      <c r="BL18" s="68"/>
+      <c r="BM18" s="68"/>
+      <c r="BN18" s="68"/>
+      <c r="BO18" s="68"/>
       <c r="BP18"/>
       <c r="BR18" s="4"/>
     </row>
     <row r="19" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="107"/>
-      <c r="AF19" s="107"/>
-      <c r="AG19" s="107"/>
-      <c r="AH19" s="107"/>
-      <c r="AI19" s="107"/>
-      <c r="AJ19" s="107"/>
-      <c r="AK19" s="107"/>
-      <c r="AL19" s="107"/>
-      <c r="AM19" s="107"/>
-      <c r="AN19" s="107"/>
-      <c r="AO19" s="107"/>
-      <c r="AP19" s="107"/>
-      <c r="AQ19" s="107"/>
-      <c r="AR19" s="107"/>
-      <c r="AS19" s="107"/>
-      <c r="AT19" s="107"/>
-      <c r="AU19" s="107"/>
-      <c r="AV19" s="107"/>
-      <c r="AW19" s="107"/>
-      <c r="AX19" s="107"/>
-      <c r="AY19" s="107"/>
-      <c r="AZ19" s="107"/>
-      <c r="BA19" s="107"/>
-      <c r="BB19" s="107"/>
-      <c r="BC19" s="107"/>
-      <c r="BD19" s="107"/>
-      <c r="BE19" s="107"/>
-      <c r="BF19" s="107"/>
-      <c r="BG19" s="107"/>
-      <c r="BH19" s="107"/>
-      <c r="BI19" s="107"/>
-      <c r="BJ19" s="107"/>
-      <c r="BK19" s="107"/>
-      <c r="BL19" s="107"/>
-      <c r="BM19" s="107"/>
-      <c r="BN19" s="107"/>
-      <c r="BO19" s="107"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="68"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="68"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
+      <c r="AN19" s="68"/>
+      <c r="AO19" s="68"/>
+      <c r="AP19" s="68"/>
+      <c r="AQ19" s="68"/>
+      <c r="AR19" s="68"/>
+      <c r="AS19" s="68"/>
+      <c r="AT19" s="68"/>
+      <c r="AU19" s="68"/>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="68"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
+      <c r="BB19" s="68"/>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="68"/>
+      <c r="BJ19" s="68"/>
+      <c r="BK19" s="68"/>
+      <c r="BL19" s="68"/>
+      <c r="BM19" s="68"/>
+      <c r="BN19" s="68"/>
+      <c r="BO19" s="68"/>
       <c r="BP19"/>
       <c r="BR19" s="4"/>
     </row>
     <row r="20" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="107"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="107"/>
-      <c r="AF20" s="107"/>
-      <c r="AG20" s="107"/>
-      <c r="AH20" s="107"/>
-      <c r="AI20" s="107"/>
-      <c r="AJ20" s="107"/>
-      <c r="AK20" s="107"/>
-      <c r="AL20" s="107"/>
-      <c r="AM20" s="107"/>
-      <c r="AN20" s="107"/>
-      <c r="AO20" s="107"/>
-      <c r="AP20" s="107"/>
-      <c r="AQ20" s="107"/>
-      <c r="AR20" s="107"/>
-      <c r="AS20" s="107"/>
-      <c r="AT20" s="107"/>
-      <c r="AU20" s="107"/>
-      <c r="AV20" s="107"/>
-      <c r="AW20" s="107"/>
-      <c r="AX20" s="107"/>
-      <c r="AY20" s="107"/>
-      <c r="AZ20" s="107"/>
-      <c r="BA20" s="107"/>
-      <c r="BB20" s="107"/>
-      <c r="BC20" s="107"/>
-      <c r="BD20" s="107"/>
-      <c r="BE20" s="107"/>
-      <c r="BF20" s="107"/>
-      <c r="BG20" s="107"/>
-      <c r="BH20" s="107"/>
-      <c r="BI20" s="107"/>
-      <c r="BJ20" s="107"/>
-      <c r="BK20" s="107"/>
-      <c r="BL20" s="107"/>
-      <c r="BM20" s="107"/>
-      <c r="BN20" s="107"/>
-      <c r="BO20" s="107"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="68"/>
+      <c r="AN20" s="68"/>
+      <c r="AO20" s="68"/>
+      <c r="AP20" s="68"/>
+      <c r="AQ20" s="68"/>
+      <c r="AR20" s="68"/>
+      <c r="AS20" s="68"/>
+      <c r="AT20" s="68"/>
+      <c r="AU20" s="68"/>
+      <c r="AV20" s="68"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="68"/>
+      <c r="AZ20" s="68"/>
+      <c r="BA20" s="68"/>
+      <c r="BB20" s="68"/>
+      <c r="BC20" s="68"/>
+      <c r="BD20" s="68"/>
+      <c r="BE20" s="68"/>
+      <c r="BF20" s="68"/>
+      <c r="BG20" s="68"/>
+      <c r="BH20" s="68"/>
+      <c r="BI20" s="68"/>
+      <c r="BJ20" s="68"/>
+      <c r="BK20" s="68"/>
+      <c r="BL20" s="68"/>
+      <c r="BM20" s="68"/>
+      <c r="BN20" s="68"/>
+      <c r="BO20" s="68"/>
       <c r="BP20"/>
       <c r="BR20" s="4"/>
     </row>
     <row r="21" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="107"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="107"/>
-      <c r="AH21" s="107"/>
-      <c r="AI21" s="107"/>
-      <c r="AJ21" s="107"/>
-      <c r="AK21" s="107"/>
-      <c r="AL21" s="107"/>
-      <c r="AM21" s="107"/>
-      <c r="AN21" s="107"/>
-      <c r="AO21" s="107"/>
-      <c r="AP21" s="107"/>
-      <c r="AQ21" s="107"/>
-      <c r="AR21" s="107"/>
-      <c r="AS21" s="107"/>
-      <c r="AT21" s="107"/>
-      <c r="AU21" s="107"/>
-      <c r="AV21" s="107"/>
-      <c r="AW21" s="107"/>
-      <c r="AX21" s="107"/>
-      <c r="AY21" s="107"/>
-      <c r="AZ21" s="107"/>
-      <c r="BA21" s="107"/>
-      <c r="BB21" s="107"/>
-      <c r="BC21" s="107"/>
-      <c r="BD21" s="107"/>
-      <c r="BE21" s="107"/>
-      <c r="BF21" s="107"/>
-      <c r="BG21" s="107"/>
-      <c r="BH21" s="107"/>
-      <c r="BI21" s="107"/>
-      <c r="BJ21" s="107"/>
-      <c r="BK21" s="107"/>
-      <c r="BL21" s="107"/>
-      <c r="BM21" s="107"/>
-      <c r="BN21" s="107"/>
-      <c r="BO21" s="107"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="68"/>
+      <c r="AK21" s="68"/>
+      <c r="AL21" s="68"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="68"/>
+      <c r="AO21" s="68"/>
+      <c r="AP21" s="68"/>
+      <c r="AQ21" s="68"/>
+      <c r="AR21" s="68"/>
+      <c r="AS21" s="68"/>
+      <c r="AT21" s="68"/>
+      <c r="AU21" s="68"/>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="68"/>
+      <c r="AX21" s="68"/>
+      <c r="AY21" s="68"/>
+      <c r="AZ21" s="68"/>
+      <c r="BA21" s="68"/>
+      <c r="BB21" s="68"/>
+      <c r="BC21" s="68"/>
+      <c r="BD21" s="68"/>
+      <c r="BE21" s="68"/>
+      <c r="BF21" s="68"/>
+      <c r="BG21" s="68"/>
+      <c r="BH21" s="68"/>
+      <c r="BI21" s="68"/>
+      <c r="BJ21" s="68"/>
+      <c r="BK21" s="68"/>
+      <c r="BL21" s="68"/>
+      <c r="BM21" s="68"/>
+      <c r="BN21" s="68"/>
+      <c r="BO21" s="68"/>
       <c r="BP21"/>
       <c r="BR21" s="4"/>
     </row>
@@ -4145,88 +4145,88 @@
     </row>
     <row r="25" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103" t="s">
+      <c r="D25" s="66"/>
+      <c r="E25" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103" t="s">
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="107" t="s">
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="107"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="105" t="s">
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="105"/>
-      <c r="AG25" s="105"/>
-      <c r="AH25" s="105"/>
-      <c r="AI25" s="105"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="105"/>
-      <c r="AM25" s="105"/>
-      <c r="AN25" s="105"/>
-      <c r="AO25" s="105"/>
-      <c r="AP25" s="105"/>
-      <c r="AQ25" s="105"/>
-      <c r="AR25" s="105"/>
-      <c r="AS25" s="105"/>
-      <c r="AT25" s="105"/>
-      <c r="AU25" s="105"/>
-      <c r="AV25" s="105"/>
-      <c r="AW25" s="105"/>
-      <c r="AX25" s="105"/>
-      <c r="AY25" s="105"/>
-      <c r="AZ25" s="105"/>
-      <c r="BA25" s="105"/>
-      <c r="BB25" s="105"/>
-      <c r="BC25" s="105"/>
-      <c r="BD25" s="105" t="s">
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="67"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="67"/>
+      <c r="AM25" s="67"/>
+      <c r="AN25" s="67"/>
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="67"/>
+      <c r="AQ25" s="67"/>
+      <c r="AR25" s="67"/>
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="67"/>
+      <c r="AU25" s="67"/>
+      <c r="AV25" s="67"/>
+      <c r="AW25" s="67"/>
+      <c r="AX25" s="67"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="67"/>
+      <c r="BB25" s="67"/>
+      <c r="BC25" s="67"/>
+      <c r="BD25" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="105"/>
-      <c r="BF25" s="105"/>
-      <c r="BG25" s="105"/>
-      <c r="BH25" s="105"/>
-      <c r="BI25" s="105"/>
-      <c r="BJ25" s="114"/>
-      <c r="BK25" s="116" t="s">
+      <c r="BE25" s="67"/>
+      <c r="BF25" s="67"/>
+      <c r="BG25" s="67"/>
+      <c r="BH25" s="67"/>
+      <c r="BI25" s="67"/>
+      <c r="BJ25" s="69"/>
+      <c r="BK25" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="117"/>
-      <c r="BM25" s="117"/>
-      <c r="BN25" s="117"/>
-      <c r="BO25" s="117"/>
-      <c r="BP25" s="117"/>
-      <c r="BQ25" s="117"/>
-      <c r="BR25" s="117"/>
+      <c r="BL25" s="88"/>
+      <c r="BM25" s="88"/>
+      <c r="BN25" s="88"/>
+      <c r="BO25" s="88"/>
+      <c r="BP25" s="88"/>
+      <c r="BQ25" s="88"/>
+      <c r="BR25" s="88"/>
       <c r="BS25" s="46"/>
       <c r="BT25" s="46"/>
       <c r="BU25" s="46"/>
@@ -4246,90 +4246,90 @@
     </row>
     <row r="26" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="64">
+      <c r="C26" s="74">
         <v>1</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="74" t="s">
+      <c r="D26" s="75"/>
+      <c r="E26" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="74" t="s">
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="75"/>
-      <c r="AD26" s="76"/>
-      <c r="AE26" s="86" t="s">
+      <c r="P26" s="90"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="91"/>
+      <c r="AE26" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="87"/>
-      <c r="AM26" s="87"/>
-      <c r="AN26" s="87"/>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="87"/>
-      <c r="AQ26" s="87"/>
-      <c r="AR26" s="87"/>
-      <c r="AS26" s="87"/>
-      <c r="AT26" s="87"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87"/>
-      <c r="AX26" s="87"/>
-      <c r="AY26" s="87"/>
-      <c r="AZ26" s="87"/>
-      <c r="BA26" s="87"/>
-      <c r="BB26" s="87"/>
-      <c r="BC26" s="88"/>
-      <c r="BD26" s="64" t="s">
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="79"/>
+      <c r="AM26" s="79"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="79"/>
+      <c r="AP26" s="79"/>
+      <c r="AQ26" s="79"/>
+      <c r="AR26" s="79"/>
+      <c r="AS26" s="79"/>
+      <c r="AT26" s="79"/>
+      <c r="AU26" s="79"/>
+      <c r="AV26" s="79"/>
+      <c r="AW26" s="79"/>
+      <c r="AX26" s="79"/>
+      <c r="AY26" s="79"/>
+      <c r="AZ26" s="79"/>
+      <c r="BA26" s="79"/>
+      <c r="BB26" s="79"/>
+      <c r="BC26" s="80"/>
+      <c r="BD26" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="65"/>
-      <c r="BF26" s="65"/>
-      <c r="BG26" s="65"/>
-      <c r="BH26" s="65"/>
-      <c r="BI26" s="65"/>
-      <c r="BJ26" s="65"/>
-      <c r="BK26" s="68" t="s">
+      <c r="BE26" s="84"/>
+      <c r="BF26" s="84"/>
+      <c r="BG26" s="84"/>
+      <c r="BH26" s="84"/>
+      <c r="BI26" s="84"/>
+      <c r="BJ26" s="84"/>
+      <c r="BK26" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="BL26" s="69"/>
-      <c r="BM26" s="69"/>
-      <c r="BN26" s="69"/>
-      <c r="BO26" s="69"/>
-      <c r="BP26" s="69"/>
-      <c r="BQ26" s="69"/>
-      <c r="BR26" s="69"/>
-      <c r="BS26" s="69"/>
-      <c r="BT26" s="69"/>
-      <c r="BU26" s="69"/>
-      <c r="BV26" s="70"/>
+      <c r="BL26" s="113"/>
+      <c r="BM26" s="113"/>
+      <c r="BN26" s="113"/>
+      <c r="BO26" s="113"/>
+      <c r="BP26" s="113"/>
+      <c r="BQ26" s="113"/>
+      <c r="BR26" s="113"/>
+      <c r="BS26" s="113"/>
+      <c r="BT26" s="113"/>
+      <c r="BU26" s="113"/>
+      <c r="BV26" s="114"/>
       <c r="AML26" s="2"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -4345,78 +4345,78 @@
     </row>
     <row r="27" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="89"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="90"/>
-      <c r="AM27" s="90"/>
-      <c r="AN27" s="90"/>
-      <c r="AO27" s="90"/>
-      <c r="AP27" s="90"/>
-      <c r="AQ27" s="90"/>
-      <c r="AR27" s="90"/>
-      <c r="AS27" s="90"/>
-      <c r="AT27" s="90"/>
-      <c r="AU27" s="90"/>
-      <c r="AV27" s="90"/>
-      <c r="AW27" s="90"/>
-      <c r="AX27" s="90"/>
-      <c r="AY27" s="90"/>
-      <c r="AZ27" s="90"/>
-      <c r="BA27" s="90"/>
-      <c r="BB27" s="90"/>
-      <c r="BC27" s="91"/>
-      <c r="BD27" s="66"/>
-      <c r="BE27" s="67"/>
-      <c r="BF27" s="67"/>
-      <c r="BG27" s="67"/>
-      <c r="BH27" s="67"/>
-      <c r="BI27" s="67"/>
-      <c r="BJ27" s="67"/>
-      <c r="BK27" s="71"/>
-      <c r="BL27" s="69"/>
-      <c r="BM27" s="69"/>
-      <c r="BN27" s="69"/>
-      <c r="BO27" s="69"/>
-      <c r="BP27" s="69"/>
-      <c r="BQ27" s="69"/>
-      <c r="BR27" s="69"/>
-      <c r="BS27" s="69"/>
-      <c r="BT27" s="69"/>
-      <c r="BU27" s="69"/>
-      <c r="BV27" s="70"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="94"/>
+      <c r="AE27" s="81"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="82"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="82"/>
+      <c r="AS27" s="82"/>
+      <c r="AT27" s="82"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="82"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="82"/>
+      <c r="BB27" s="82"/>
+      <c r="BC27" s="83"/>
+      <c r="BD27" s="76"/>
+      <c r="BE27" s="85"/>
+      <c r="BF27" s="85"/>
+      <c r="BG27" s="85"/>
+      <c r="BH27" s="85"/>
+      <c r="BI27" s="85"/>
+      <c r="BJ27" s="85"/>
+      <c r="BK27" s="115"/>
+      <c r="BL27" s="113"/>
+      <c r="BM27" s="113"/>
+      <c r="BN27" s="113"/>
+      <c r="BO27" s="113"/>
+      <c r="BP27" s="113"/>
+      <c r="BQ27" s="113"/>
+      <c r="BR27" s="113"/>
+      <c r="BS27" s="113"/>
+      <c r="BT27" s="113"/>
+      <c r="BU27" s="113"/>
+      <c r="BV27" s="114"/>
       <c r="AML27" s="2"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -4432,90 +4432,90 @@
     </row>
     <row r="28" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="64">
+      <c r="C28" s="74">
         <v>2</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="74" t="s">
+      <c r="D28" s="75"/>
+      <c r="E28" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="74" t="s">
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="75"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="75"/>
-      <c r="X28" s="75"/>
-      <c r="Y28" s="75"/>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="86" t="s">
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="91"/>
+      <c r="AE28" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="87"/>
-      <c r="AL28" s="87"/>
-      <c r="AM28" s="87"/>
-      <c r="AN28" s="87"/>
-      <c r="AO28" s="87"/>
-      <c r="AP28" s="87"/>
-      <c r="AQ28" s="87"/>
-      <c r="AR28" s="87"/>
-      <c r="AS28" s="87"/>
-      <c r="AT28" s="87"/>
-      <c r="AU28" s="87"/>
-      <c r="AV28" s="87"/>
-      <c r="AW28" s="87"/>
-      <c r="AX28" s="87"/>
-      <c r="AY28" s="87"/>
-      <c r="AZ28" s="87"/>
-      <c r="BA28" s="87"/>
-      <c r="BB28" s="87"/>
-      <c r="BC28" s="88"/>
-      <c r="BD28" s="64" t="s">
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="79"/>
+      <c r="AM28" s="79"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="79"/>
+      <c r="AP28" s="79"/>
+      <c r="AQ28" s="79"/>
+      <c r="AR28" s="79"/>
+      <c r="AS28" s="79"/>
+      <c r="AT28" s="79"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="79"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="79"/>
+      <c r="AZ28" s="79"/>
+      <c r="BA28" s="79"/>
+      <c r="BB28" s="79"/>
+      <c r="BC28" s="80"/>
+      <c r="BD28" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="BE28" s="65"/>
-      <c r="BF28" s="65"/>
-      <c r="BG28" s="65"/>
-      <c r="BH28" s="65"/>
-      <c r="BI28" s="65"/>
-      <c r="BJ28" s="72"/>
-      <c r="BK28" s="92" t="s">
+      <c r="BE28" s="84"/>
+      <c r="BF28" s="84"/>
+      <c r="BG28" s="84"/>
+      <c r="BH28" s="84"/>
+      <c r="BI28" s="84"/>
+      <c r="BJ28" s="75"/>
+      <c r="BK28" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="BL28" s="93"/>
-      <c r="BM28" s="93"/>
-      <c r="BN28" s="93"/>
-      <c r="BO28" s="93"/>
-      <c r="BP28" s="93"/>
-      <c r="BQ28" s="93"/>
-      <c r="BR28" s="93"/>
-      <c r="BS28" s="93"/>
-      <c r="BT28" s="93"/>
-      <c r="BU28" s="93"/>
-      <c r="BV28" s="94"/>
+      <c r="BL28" s="117"/>
+      <c r="BM28" s="117"/>
+      <c r="BN28" s="117"/>
+      <c r="BO28" s="117"/>
+      <c r="BP28" s="117"/>
+      <c r="BQ28" s="117"/>
+      <c r="BR28" s="117"/>
+      <c r="BS28" s="117"/>
+      <c r="BT28" s="117"/>
+      <c r="BU28" s="117"/>
+      <c r="BV28" s="118"/>
       <c r="AML28" s="2"/>
       <c r="AMM28"/>
       <c r="AMN28"/>
@@ -4531,78 +4531,78 @@
     </row>
     <row r="29" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="89"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
-      <c r="AI29" s="90"/>
-      <c r="AJ29" s="90"/>
-      <c r="AK29" s="90"/>
-      <c r="AL29" s="90"/>
-      <c r="AM29" s="90"/>
-      <c r="AN29" s="90"/>
-      <c r="AO29" s="90"/>
-      <c r="AP29" s="90"/>
-      <c r="AQ29" s="90"/>
-      <c r="AR29" s="90"/>
-      <c r="AS29" s="90"/>
-      <c r="AT29" s="90"/>
-      <c r="AU29" s="90"/>
-      <c r="AV29" s="90"/>
-      <c r="AW29" s="90"/>
-      <c r="AX29" s="90"/>
-      <c r="AY29" s="90"/>
-      <c r="AZ29" s="90"/>
-      <c r="BA29" s="90"/>
-      <c r="BB29" s="90"/>
-      <c r="BC29" s="91"/>
-      <c r="BD29" s="66"/>
-      <c r="BE29" s="67"/>
-      <c r="BF29" s="67"/>
-      <c r="BG29" s="67"/>
-      <c r="BH29" s="67"/>
-      <c r="BI29" s="67"/>
-      <c r="BJ29" s="73"/>
-      <c r="BK29" s="95"/>
-      <c r="BL29" s="96"/>
-      <c r="BM29" s="96"/>
-      <c r="BN29" s="96"/>
-      <c r="BO29" s="96"/>
-      <c r="BP29" s="96"/>
-      <c r="BQ29" s="96"/>
-      <c r="BR29" s="96"/>
-      <c r="BS29" s="96"/>
-      <c r="BT29" s="96"/>
-      <c r="BU29" s="96"/>
-      <c r="BV29" s="97"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="81"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="82"/>
+      <c r="AM29" s="82"/>
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="82"/>
+      <c r="AP29" s="82"/>
+      <c r="AQ29" s="82"/>
+      <c r="AR29" s="82"/>
+      <c r="AS29" s="82"/>
+      <c r="AT29" s="82"/>
+      <c r="AU29" s="82"/>
+      <c r="AV29" s="82"/>
+      <c r="AW29" s="82"/>
+      <c r="AX29" s="82"/>
+      <c r="AY29" s="82"/>
+      <c r="AZ29" s="82"/>
+      <c r="BA29" s="82"/>
+      <c r="BB29" s="82"/>
+      <c r="BC29" s="83"/>
+      <c r="BD29" s="76"/>
+      <c r="BE29" s="85"/>
+      <c r="BF29" s="85"/>
+      <c r="BG29" s="85"/>
+      <c r="BH29" s="85"/>
+      <c r="BI29" s="85"/>
+      <c r="BJ29" s="77"/>
+      <c r="BK29" s="119"/>
+      <c r="BL29" s="120"/>
+      <c r="BM29" s="120"/>
+      <c r="BN29" s="120"/>
+      <c r="BO29" s="120"/>
+      <c r="BP29" s="120"/>
+      <c r="BQ29" s="120"/>
+      <c r="BR29" s="120"/>
+      <c r="BS29" s="120"/>
+      <c r="BT29" s="120"/>
+      <c r="BU29" s="120"/>
+      <c r="BV29" s="121"/>
       <c r="AML29" s="2"/>
       <c r="AMM29"/>
       <c r="AMN29"/>
@@ -4618,86 +4618,86 @@
     </row>
     <row r="30" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="64">
+      <c r="C30" s="74">
         <v>3</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="86" t="s">
+      <c r="D30" s="75"/>
+      <c r="E30" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="86" t="s">
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="87"/>
-      <c r="AH30" s="87"/>
-      <c r="AI30" s="87"/>
-      <c r="AJ30" s="87"/>
-      <c r="AK30" s="87"/>
-      <c r="AL30" s="87"/>
-      <c r="AM30" s="87"/>
-      <c r="AN30" s="87"/>
-      <c r="AO30" s="87"/>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="87"/>
-      <c r="AR30" s="87"/>
-      <c r="AS30" s="87"/>
-      <c r="AT30" s="87"/>
-      <c r="AU30" s="87"/>
-      <c r="AV30" s="87"/>
-      <c r="AW30" s="87"/>
-      <c r="AX30" s="87"/>
-      <c r="AY30" s="87"/>
-      <c r="AZ30" s="87"/>
-      <c r="BA30" s="87"/>
-      <c r="BB30" s="87"/>
-      <c r="BC30" s="88"/>
-      <c r="BD30" s="64" t="s">
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="79"/>
+      <c r="AM30" s="79"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="79"/>
+      <c r="AP30" s="79"/>
+      <c r="AQ30" s="79"/>
+      <c r="AR30" s="79"/>
+      <c r="AS30" s="79"/>
+      <c r="AT30" s="79"/>
+      <c r="AU30" s="79"/>
+      <c r="AV30" s="79"/>
+      <c r="AW30" s="79"/>
+      <c r="AX30" s="79"/>
+      <c r="AY30" s="79"/>
+      <c r="AZ30" s="79"/>
+      <c r="BA30" s="79"/>
+      <c r="BB30" s="79"/>
+      <c r="BC30" s="80"/>
+      <c r="BD30" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="BE30" s="65"/>
-      <c r="BF30" s="65"/>
-      <c r="BG30" s="65"/>
-      <c r="BH30" s="65"/>
-      <c r="BI30" s="65"/>
-      <c r="BJ30" s="72"/>
-      <c r="BK30" s="118" t="s">
+      <c r="BE30" s="84"/>
+      <c r="BF30" s="84"/>
+      <c r="BG30" s="84"/>
+      <c r="BH30" s="84"/>
+      <c r="BI30" s="84"/>
+      <c r="BJ30" s="75"/>
+      <c r="BK30" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="BL30" s="119"/>
-      <c r="BM30" s="119"/>
-      <c r="BN30" s="119"/>
-      <c r="BO30" s="119"/>
-      <c r="BP30" s="119"/>
-      <c r="BQ30" s="119"/>
-      <c r="BR30" s="119"/>
+      <c r="BL30" s="71"/>
+      <c r="BM30" s="71"/>
+      <c r="BN30" s="71"/>
+      <c r="BO30" s="71"/>
+      <c r="BP30" s="71"/>
+      <c r="BQ30" s="71"/>
+      <c r="BR30" s="71"/>
       <c r="BS30" s="46"/>
       <c r="BT30" s="46"/>
       <c r="BU30" s="46"/>
@@ -4717,74 +4717,74 @@
     </row>
     <row r="31" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="90"/>
-      <c r="AB31" s="90"/>
-      <c r="AC31" s="90"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="89"/>
-      <c r="AF31" s="90"/>
-      <c r="AG31" s="90"/>
-      <c r="AH31" s="90"/>
-      <c r="AI31" s="90"/>
-      <c r="AJ31" s="90"/>
-      <c r="AK31" s="90"/>
-      <c r="AL31" s="90"/>
-      <c r="AM31" s="90"/>
-      <c r="AN31" s="90"/>
-      <c r="AO31" s="90"/>
-      <c r="AP31" s="90"/>
-      <c r="AQ31" s="90"/>
-      <c r="AR31" s="90"/>
-      <c r="AS31" s="90"/>
-      <c r="AT31" s="90"/>
-      <c r="AU31" s="90"/>
-      <c r="AV31" s="90"/>
-      <c r="AW31" s="90"/>
-      <c r="AX31" s="90"/>
-      <c r="AY31" s="90"/>
-      <c r="AZ31" s="90"/>
-      <c r="BA31" s="90"/>
-      <c r="BB31" s="90"/>
-      <c r="BC31" s="91"/>
-      <c r="BD31" s="66"/>
-      <c r="BE31" s="67"/>
-      <c r="BF31" s="67"/>
-      <c r="BG31" s="67"/>
-      <c r="BH31" s="67"/>
-      <c r="BI31" s="67"/>
-      <c r="BJ31" s="73"/>
-      <c r="BK31" s="120"/>
-      <c r="BL31" s="121"/>
-      <c r="BM31" s="121"/>
-      <c r="BN31" s="121"/>
-      <c r="BO31" s="121"/>
-      <c r="BP31" s="121"/>
-      <c r="BQ31" s="121"/>
-      <c r="BR31" s="121"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="82"/>
+      <c r="AC31" s="82"/>
+      <c r="AD31" s="83"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="82"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="82"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="82"/>
+      <c r="AQ31" s="82"/>
+      <c r="AR31" s="82"/>
+      <c r="AS31" s="82"/>
+      <c r="AT31" s="82"/>
+      <c r="AU31" s="82"/>
+      <c r="AV31" s="82"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="82"/>
+      <c r="BA31" s="82"/>
+      <c r="BB31" s="82"/>
+      <c r="BC31" s="83"/>
+      <c r="BD31" s="76"/>
+      <c r="BE31" s="85"/>
+      <c r="BF31" s="85"/>
+      <c r="BG31" s="85"/>
+      <c r="BH31" s="85"/>
+      <c r="BI31" s="85"/>
+      <c r="BJ31" s="77"/>
+      <c r="BK31" s="72"/>
+      <c r="BL31" s="73"/>
+      <c r="BM31" s="73"/>
+      <c r="BN31" s="73"/>
+      <c r="BO31" s="73"/>
+      <c r="BP31" s="73"/>
+      <c r="BQ31" s="73"/>
+      <c r="BR31" s="73"/>
       <c r="BS31" s="46"/>
       <c r="BT31" s="46"/>
       <c r="BU31" s="46"/>
@@ -4804,76 +4804,76 @@
     </row>
     <row r="32" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="103">
+      <c r="C32" s="66">
         <v>5</v>
       </c>
-      <c r="D32" s="103"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="107"/>
-      <c r="V32" s="107"/>
-      <c r="W32" s="107"/>
-      <c r="X32" s="107"/>
-      <c r="Y32" s="107"/>
-      <c r="Z32" s="107"/>
-      <c r="AA32" s="107"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="107"/>
-      <c r="AD32" s="107"/>
-      <c r="AE32" s="105"/>
-      <c r="AF32" s="105"/>
-      <c r="AG32" s="105"/>
-      <c r="AH32" s="105"/>
-      <c r="AI32" s="105"/>
-      <c r="AJ32" s="105"/>
-      <c r="AK32" s="105"/>
-      <c r="AL32" s="105"/>
-      <c r="AM32" s="105"/>
-      <c r="AN32" s="105"/>
-      <c r="AO32" s="105"/>
-      <c r="AP32" s="105"/>
-      <c r="AQ32" s="105"/>
-      <c r="AR32" s="105"/>
-      <c r="AS32" s="105"/>
-      <c r="AT32" s="105"/>
-      <c r="AU32" s="105"/>
-      <c r="AV32" s="105"/>
-      <c r="AW32" s="105"/>
-      <c r="AX32" s="105"/>
-      <c r="AY32" s="105"/>
-      <c r="AZ32" s="105"/>
-      <c r="BA32" s="105"/>
-      <c r="BB32" s="105"/>
-      <c r="BC32" s="105"/>
-      <c r="BD32" s="105"/>
-      <c r="BE32" s="105"/>
-      <c r="BF32" s="105"/>
-      <c r="BG32" s="105"/>
-      <c r="BH32" s="105"/>
-      <c r="BI32" s="105"/>
-      <c r="BJ32" s="114"/>
-      <c r="BK32" s="112"/>
-      <c r="BL32" s="113"/>
-      <c r="BM32" s="113"/>
-      <c r="BN32" s="113"/>
-      <c r="BO32" s="113"/>
-      <c r="BP32" s="113"/>
-      <c r="BQ32" s="113"/>
-      <c r="BR32" s="113"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
+      <c r="AD32" s="68"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="67"/>
+      <c r="AJ32" s="67"/>
+      <c r="AK32" s="67"/>
+      <c r="AL32" s="67"/>
+      <c r="AM32" s="67"/>
+      <c r="AN32" s="67"/>
+      <c r="AO32" s="67"/>
+      <c r="AP32" s="67"/>
+      <c r="AQ32" s="67"/>
+      <c r="AR32" s="67"/>
+      <c r="AS32" s="67"/>
+      <c r="AT32" s="67"/>
+      <c r="AU32" s="67"/>
+      <c r="AV32" s="67"/>
+      <c r="AW32" s="67"/>
+      <c r="AX32" s="67"/>
+      <c r="AY32" s="67"/>
+      <c r="AZ32" s="67"/>
+      <c r="BA32" s="67"/>
+      <c r="BB32" s="67"/>
+      <c r="BC32" s="67"/>
+      <c r="BD32" s="67"/>
+      <c r="BE32" s="67"/>
+      <c r="BF32" s="67"/>
+      <c r="BG32" s="67"/>
+      <c r="BH32" s="67"/>
+      <c r="BI32" s="67"/>
+      <c r="BJ32" s="69"/>
+      <c r="BK32" s="64"/>
+      <c r="BL32" s="65"/>
+      <c r="BM32" s="65"/>
+      <c r="BN32" s="65"/>
+      <c r="BO32" s="65"/>
+      <c r="BP32" s="65"/>
+      <c r="BQ32" s="65"/>
+      <c r="BR32" s="65"/>
       <c r="BS32" s="46"/>
       <c r="BT32" s="46"/>
       <c r="BU32" s="46"/>
@@ -4893,76 +4893,76 @@
     </row>
     <row r="33" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="103">
+      <c r="C33" s="66">
         <v>6</v>
       </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="107"/>
-      <c r="X33" s="107"/>
-      <c r="Y33" s="107"/>
-      <c r="Z33" s="107"/>
-      <c r="AA33" s="107"/>
-      <c r="AB33" s="107"/>
-      <c r="AC33" s="107"/>
-      <c r="AD33" s="107"/>
-      <c r="AE33" s="105"/>
-      <c r="AF33" s="105"/>
-      <c r="AG33" s="105"/>
-      <c r="AH33" s="105"/>
-      <c r="AI33" s="105"/>
-      <c r="AJ33" s="105"/>
-      <c r="AK33" s="105"/>
-      <c r="AL33" s="105"/>
-      <c r="AM33" s="105"/>
-      <c r="AN33" s="105"/>
-      <c r="AO33" s="105"/>
-      <c r="AP33" s="105"/>
-      <c r="AQ33" s="105"/>
-      <c r="AR33" s="105"/>
-      <c r="AS33" s="105"/>
-      <c r="AT33" s="105"/>
-      <c r="AU33" s="105"/>
-      <c r="AV33" s="105"/>
-      <c r="AW33" s="105"/>
-      <c r="AX33" s="105"/>
-      <c r="AY33" s="105"/>
-      <c r="AZ33" s="105"/>
-      <c r="BA33" s="105"/>
-      <c r="BB33" s="105"/>
-      <c r="BC33" s="105"/>
-      <c r="BD33" s="105"/>
-      <c r="BE33" s="105"/>
-      <c r="BF33" s="105"/>
-      <c r="BG33" s="105"/>
-      <c r="BH33" s="105"/>
-      <c r="BI33" s="105"/>
-      <c r="BJ33" s="114"/>
-      <c r="BK33" s="112"/>
-      <c r="BL33" s="113"/>
-      <c r="BM33" s="113"/>
-      <c r="BN33" s="113"/>
-      <c r="BO33" s="113"/>
-      <c r="BP33" s="113"/>
-      <c r="BQ33" s="113"/>
-      <c r="BR33" s="113"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="68"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="67"/>
+      <c r="AG33" s="67"/>
+      <c r="AH33" s="67"/>
+      <c r="AI33" s="67"/>
+      <c r="AJ33" s="67"/>
+      <c r="AK33" s="67"/>
+      <c r="AL33" s="67"/>
+      <c r="AM33" s="67"/>
+      <c r="AN33" s="67"/>
+      <c r="AO33" s="67"/>
+      <c r="AP33" s="67"/>
+      <c r="AQ33" s="67"/>
+      <c r="AR33" s="67"/>
+      <c r="AS33" s="67"/>
+      <c r="AT33" s="67"/>
+      <c r="AU33" s="67"/>
+      <c r="AV33" s="67"/>
+      <c r="AW33" s="67"/>
+      <c r="AX33" s="67"/>
+      <c r="AY33" s="67"/>
+      <c r="AZ33" s="67"/>
+      <c r="BA33" s="67"/>
+      <c r="BB33" s="67"/>
+      <c r="BC33" s="67"/>
+      <c r="BD33" s="67"/>
+      <c r="BE33" s="67"/>
+      <c r="BF33" s="67"/>
+      <c r="BG33" s="67"/>
+      <c r="BH33" s="67"/>
+      <c r="BI33" s="67"/>
+      <c r="BJ33" s="69"/>
+      <c r="BK33" s="64"/>
+      <c r="BL33" s="65"/>
+      <c r="BM33" s="65"/>
+      <c r="BN33" s="65"/>
+      <c r="BO33" s="65"/>
+      <c r="BP33" s="65"/>
+      <c r="BQ33" s="65"/>
+      <c r="BR33" s="65"/>
       <c r="BS33" s="46"/>
       <c r="BT33" s="46"/>
       <c r="BU33" s="46"/>
@@ -4982,76 +4982,76 @@
     </row>
     <row r="34" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="103">
+      <c r="C34" s="66">
         <v>7</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="107"/>
-      <c r="Z34" s="107"/>
-      <c r="AA34" s="107"/>
-      <c r="AB34" s="107"/>
-      <c r="AC34" s="107"/>
-      <c r="AD34" s="107"/>
-      <c r="AE34" s="105"/>
-      <c r="AF34" s="105"/>
-      <c r="AG34" s="105"/>
-      <c r="AH34" s="105"/>
-      <c r="AI34" s="105"/>
-      <c r="AJ34" s="105"/>
-      <c r="AK34" s="105"/>
-      <c r="AL34" s="105"/>
-      <c r="AM34" s="105"/>
-      <c r="AN34" s="105"/>
-      <c r="AO34" s="105"/>
-      <c r="AP34" s="105"/>
-      <c r="AQ34" s="105"/>
-      <c r="AR34" s="105"/>
-      <c r="AS34" s="105"/>
-      <c r="AT34" s="105"/>
-      <c r="AU34" s="105"/>
-      <c r="AV34" s="105"/>
-      <c r="AW34" s="105"/>
-      <c r="AX34" s="105"/>
-      <c r="AY34" s="105"/>
-      <c r="AZ34" s="105"/>
-      <c r="BA34" s="105"/>
-      <c r="BB34" s="105"/>
-      <c r="BC34" s="105"/>
-      <c r="BD34" s="105"/>
-      <c r="BE34" s="105"/>
-      <c r="BF34" s="105"/>
-      <c r="BG34" s="105"/>
-      <c r="BH34" s="105"/>
-      <c r="BI34" s="105"/>
-      <c r="BJ34" s="114"/>
-      <c r="BK34" s="112"/>
-      <c r="BL34" s="113"/>
-      <c r="BM34" s="113"/>
-      <c r="BN34" s="113"/>
-      <c r="BO34" s="113"/>
-      <c r="BP34" s="113"/>
-      <c r="BQ34" s="113"/>
-      <c r="BR34" s="113"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="67"/>
+      <c r="AI34" s="67"/>
+      <c r="AJ34" s="67"/>
+      <c r="AK34" s="67"/>
+      <c r="AL34" s="67"/>
+      <c r="AM34" s="67"/>
+      <c r="AN34" s="67"/>
+      <c r="AO34" s="67"/>
+      <c r="AP34" s="67"/>
+      <c r="AQ34" s="67"/>
+      <c r="AR34" s="67"/>
+      <c r="AS34" s="67"/>
+      <c r="AT34" s="67"/>
+      <c r="AU34" s="67"/>
+      <c r="AV34" s="67"/>
+      <c r="AW34" s="67"/>
+      <c r="AX34" s="67"/>
+      <c r="AY34" s="67"/>
+      <c r="AZ34" s="67"/>
+      <c r="BA34" s="67"/>
+      <c r="BB34" s="67"/>
+      <c r="BC34" s="67"/>
+      <c r="BD34" s="67"/>
+      <c r="BE34" s="67"/>
+      <c r="BF34" s="67"/>
+      <c r="BG34" s="67"/>
+      <c r="BH34" s="67"/>
+      <c r="BI34" s="67"/>
+      <c r="BJ34" s="69"/>
+      <c r="BK34" s="64"/>
+      <c r="BL34" s="65"/>
+      <c r="BM34" s="65"/>
+      <c r="BN34" s="65"/>
+      <c r="BO34" s="65"/>
+      <c r="BP34" s="65"/>
+      <c r="BQ34" s="65"/>
+      <c r="BR34" s="65"/>
       <c r="BS34" s="46"/>
       <c r="BT34" s="46"/>
       <c r="BU34" s="46"/>
@@ -5071,76 +5071,76 @@
     </row>
     <row r="35" spans="1:74 1026:1037" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="C35" s="103">
+      <c r="C35" s="66">
         <v>8</v>
       </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="107"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="107"/>
-      <c r="U35" s="107"/>
-      <c r="V35" s="107"/>
-      <c r="W35" s="107"/>
-      <c r="X35" s="107"/>
-      <c r="Y35" s="107"/>
-      <c r="Z35" s="107"/>
-      <c r="AA35" s="107"/>
-      <c r="AB35" s="107"/>
-      <c r="AC35" s="107"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="105"/>
-      <c r="AF35" s="105"/>
-      <c r="AG35" s="105"/>
-      <c r="AH35" s="105"/>
-      <c r="AI35" s="105"/>
-      <c r="AJ35" s="105"/>
-      <c r="AK35" s="105"/>
-      <c r="AL35" s="105"/>
-      <c r="AM35" s="105"/>
-      <c r="AN35" s="105"/>
-      <c r="AO35" s="105"/>
-      <c r="AP35" s="105"/>
-      <c r="AQ35" s="105"/>
-      <c r="AR35" s="105"/>
-      <c r="AS35" s="105"/>
-      <c r="AT35" s="105"/>
-      <c r="AU35" s="105"/>
-      <c r="AV35" s="105"/>
-      <c r="AW35" s="105"/>
-      <c r="AX35" s="105"/>
-      <c r="AY35" s="105"/>
-      <c r="AZ35" s="105"/>
-      <c r="BA35" s="105"/>
-      <c r="BB35" s="105"/>
-      <c r="BC35" s="105"/>
-      <c r="BD35" s="105"/>
-      <c r="BE35" s="105"/>
-      <c r="BF35" s="105"/>
-      <c r="BG35" s="105"/>
-      <c r="BH35" s="105"/>
-      <c r="BI35" s="105"/>
-      <c r="BJ35" s="114"/>
-      <c r="BK35" s="112"/>
-      <c r="BL35" s="113"/>
-      <c r="BM35" s="113"/>
-      <c r="BN35" s="113"/>
-      <c r="BO35" s="113"/>
-      <c r="BP35" s="113"/>
-      <c r="BQ35" s="113"/>
-      <c r="BR35" s="113"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="67"/>
+      <c r="AF35" s="67"/>
+      <c r="AG35" s="67"/>
+      <c r="AH35" s="67"/>
+      <c r="AI35" s="67"/>
+      <c r="AJ35" s="67"/>
+      <c r="AK35" s="67"/>
+      <c r="AL35" s="67"/>
+      <c r="AM35" s="67"/>
+      <c r="AN35" s="67"/>
+      <c r="AO35" s="67"/>
+      <c r="AP35" s="67"/>
+      <c r="AQ35" s="67"/>
+      <c r="AR35" s="67"/>
+      <c r="AS35" s="67"/>
+      <c r="AT35" s="67"/>
+      <c r="AU35" s="67"/>
+      <c r="AV35" s="67"/>
+      <c r="AW35" s="67"/>
+      <c r="AX35" s="67"/>
+      <c r="AY35" s="67"/>
+      <c r="AZ35" s="67"/>
+      <c r="BA35" s="67"/>
+      <c r="BB35" s="67"/>
+      <c r="BC35" s="67"/>
+      <c r="BD35" s="67"/>
+      <c r="BE35" s="67"/>
+      <c r="BF35" s="67"/>
+      <c r="BG35" s="67"/>
+      <c r="BH35" s="67"/>
+      <c r="BI35" s="67"/>
+      <c r="BJ35" s="69"/>
+      <c r="BK35" s="64"/>
+      <c r="BL35" s="65"/>
+      <c r="BM35" s="65"/>
+      <c r="BN35" s="65"/>
+      <c r="BO35" s="65"/>
+      <c r="BP35" s="65"/>
+      <c r="BQ35" s="65"/>
+      <c r="BR35" s="65"/>
       <c r="BS35" s="46"/>
       <c r="BT35" s="46"/>
       <c r="BU35" s="46"/>
@@ -5160,76 +5160,76 @@
     </row>
     <row r="36" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="C36" s="103">
+      <c r="C36" s="66">
         <v>9</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="107"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="107"/>
-      <c r="U36" s="107"/>
-      <c r="V36" s="107"/>
-      <c r="W36" s="107"/>
-      <c r="X36" s="107"/>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="107"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="107"/>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="105"/>
-      <c r="AF36" s="105"/>
-      <c r="AG36" s="105"/>
-      <c r="AH36" s="105"/>
-      <c r="AI36" s="105"/>
-      <c r="AJ36" s="105"/>
-      <c r="AK36" s="105"/>
-      <c r="AL36" s="105"/>
-      <c r="AM36" s="105"/>
-      <c r="AN36" s="105"/>
-      <c r="AO36" s="105"/>
-      <c r="AP36" s="105"/>
-      <c r="AQ36" s="105"/>
-      <c r="AR36" s="105"/>
-      <c r="AS36" s="105"/>
-      <c r="AT36" s="105"/>
-      <c r="AU36" s="105"/>
-      <c r="AV36" s="105"/>
-      <c r="AW36" s="105"/>
-      <c r="AX36" s="105"/>
-      <c r="AY36" s="105"/>
-      <c r="AZ36" s="105"/>
-      <c r="BA36" s="105"/>
-      <c r="BB36" s="105"/>
-      <c r="BC36" s="105"/>
-      <c r="BD36" s="105"/>
-      <c r="BE36" s="105"/>
-      <c r="BF36" s="105"/>
-      <c r="BG36" s="105"/>
-      <c r="BH36" s="105"/>
-      <c r="BI36" s="105"/>
-      <c r="BJ36" s="114"/>
-      <c r="BK36" s="112"/>
-      <c r="BL36" s="113"/>
-      <c r="BM36" s="113"/>
-      <c r="BN36" s="113"/>
-      <c r="BO36" s="113"/>
-      <c r="BP36" s="113"/>
-      <c r="BQ36" s="113"/>
-      <c r="BR36" s="113"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="67"/>
+      <c r="AI36" s="67"/>
+      <c r="AJ36" s="67"/>
+      <c r="AK36" s="67"/>
+      <c r="AL36" s="67"/>
+      <c r="AM36" s="67"/>
+      <c r="AN36" s="67"/>
+      <c r="AO36" s="67"/>
+      <c r="AP36" s="67"/>
+      <c r="AQ36" s="67"/>
+      <c r="AR36" s="67"/>
+      <c r="AS36" s="67"/>
+      <c r="AT36" s="67"/>
+      <c r="AU36" s="67"/>
+      <c r="AV36" s="67"/>
+      <c r="AW36" s="67"/>
+      <c r="AX36" s="67"/>
+      <c r="AY36" s="67"/>
+      <c r="AZ36" s="67"/>
+      <c r="BA36" s="67"/>
+      <c r="BB36" s="67"/>
+      <c r="BC36" s="67"/>
+      <c r="BD36" s="67"/>
+      <c r="BE36" s="67"/>
+      <c r="BF36" s="67"/>
+      <c r="BG36" s="67"/>
+      <c r="BH36" s="67"/>
+      <c r="BI36" s="67"/>
+      <c r="BJ36" s="69"/>
+      <c r="BK36" s="64"/>
+      <c r="BL36" s="65"/>
+      <c r="BM36" s="65"/>
+      <c r="BN36" s="65"/>
+      <c r="BO36" s="65"/>
+      <c r="BP36" s="65"/>
+      <c r="BQ36" s="65"/>
+      <c r="BR36" s="65"/>
       <c r="BS36" s="46"/>
       <c r="BT36" s="46"/>
       <c r="BU36" s="46"/>
@@ -5250,76 +5250,76 @@
     <row r="37" spans="1:74 1026:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="103">
+      <c r="C37" s="66">
         <v>10</v>
       </c>
-      <c r="D37" s="103"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="107"/>
-      <c r="U37" s="107"/>
-      <c r="V37" s="107"/>
-      <c r="W37" s="107"/>
-      <c r="X37" s="107"/>
-      <c r="Y37" s="107"/>
-      <c r="Z37" s="107"/>
-      <c r="AA37" s="107"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="107"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="105"/>
-      <c r="AF37" s="105"/>
-      <c r="AG37" s="105"/>
-      <c r="AH37" s="105"/>
-      <c r="AI37" s="105"/>
-      <c r="AJ37" s="105"/>
-      <c r="AK37" s="105"/>
-      <c r="AL37" s="105"/>
-      <c r="AM37" s="105"/>
-      <c r="AN37" s="105"/>
-      <c r="AO37" s="105"/>
-      <c r="AP37" s="105"/>
-      <c r="AQ37" s="105"/>
-      <c r="AR37" s="105"/>
-      <c r="AS37" s="105"/>
-      <c r="AT37" s="105"/>
-      <c r="AU37" s="105"/>
-      <c r="AV37" s="105"/>
-      <c r="AW37" s="105"/>
-      <c r="AX37" s="105"/>
-      <c r="AY37" s="105"/>
-      <c r="AZ37" s="105"/>
-      <c r="BA37" s="105"/>
-      <c r="BB37" s="105"/>
-      <c r="BC37" s="105"/>
-      <c r="BD37" s="105"/>
-      <c r="BE37" s="105"/>
-      <c r="BF37" s="105"/>
-      <c r="BG37" s="105"/>
-      <c r="BH37" s="105"/>
-      <c r="BI37" s="105"/>
-      <c r="BJ37" s="114"/>
-      <c r="BK37" s="112"/>
-      <c r="BL37" s="113"/>
-      <c r="BM37" s="113"/>
-      <c r="BN37" s="113"/>
-      <c r="BO37" s="113"/>
-      <c r="BP37" s="113"/>
-      <c r="BQ37" s="113"/>
-      <c r="BR37" s="113"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="67"/>
+      <c r="AF37" s="67"/>
+      <c r="AG37" s="67"/>
+      <c r="AH37" s="67"/>
+      <c r="AI37" s="67"/>
+      <c r="AJ37" s="67"/>
+      <c r="AK37" s="67"/>
+      <c r="AL37" s="67"/>
+      <c r="AM37" s="67"/>
+      <c r="AN37" s="67"/>
+      <c r="AO37" s="67"/>
+      <c r="AP37" s="67"/>
+      <c r="AQ37" s="67"/>
+      <c r="AR37" s="67"/>
+      <c r="AS37" s="67"/>
+      <c r="AT37" s="67"/>
+      <c r="AU37" s="67"/>
+      <c r="AV37" s="67"/>
+      <c r="AW37" s="67"/>
+      <c r="AX37" s="67"/>
+      <c r="AY37" s="67"/>
+      <c r="AZ37" s="67"/>
+      <c r="BA37" s="67"/>
+      <c r="BB37" s="67"/>
+      <c r="BC37" s="67"/>
+      <c r="BD37" s="67"/>
+      <c r="BE37" s="67"/>
+      <c r="BF37" s="67"/>
+      <c r="BG37" s="67"/>
+      <c r="BH37" s="67"/>
+      <c r="BI37" s="67"/>
+      <c r="BJ37" s="69"/>
+      <c r="BK37" s="64"/>
+      <c r="BL37" s="65"/>
+      <c r="BM37" s="65"/>
+      <c r="BN37" s="65"/>
+      <c r="BO37" s="65"/>
+      <c r="BP37" s="65"/>
+      <c r="BQ37" s="65"/>
+      <c r="BR37" s="65"/>
       <c r="BS37" s="46"/>
       <c r="BT37" s="46"/>
       <c r="BU37" s="46"/>
@@ -5932,6 +5932,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="BD26:BJ27"/>
+    <mergeCell ref="BK26:BV27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:I29"/>
+    <mergeCell ref="J28:N29"/>
+    <mergeCell ref="O28:AD29"/>
+    <mergeCell ref="AE28:BC29"/>
+    <mergeCell ref="BD28:BJ29"/>
+    <mergeCell ref="BK28:BV29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="BK33:BR33"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="BK25:BR25"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:I27"/>
+    <mergeCell ref="J26:N27"/>
+    <mergeCell ref="O26:AD27"/>
+    <mergeCell ref="AE26:BC27"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK30:BR31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:I31"/>
+    <mergeCell ref="J30:N31"/>
+    <mergeCell ref="O30:AD31"/>
+    <mergeCell ref="AE30:BC31"/>
+    <mergeCell ref="BD30:BJ31"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK32:BR32"/>
     <mergeCell ref="BK34:BR34"/>
     <mergeCell ref="BK35:BR35"/>
     <mergeCell ref="C37:D37"/>
@@ -5956,86 +6036,6 @@
     <mergeCell ref="BD35:BJ35"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK30:BR31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:I31"/>
-    <mergeCell ref="J30:N31"/>
-    <mergeCell ref="O30:AD31"/>
-    <mergeCell ref="AE30:BC31"/>
-    <mergeCell ref="BD30:BJ31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK32:BR32"/>
-    <mergeCell ref="BK33:BR33"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="BK25:BR25"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:I27"/>
-    <mergeCell ref="J26:N27"/>
-    <mergeCell ref="O26:AD27"/>
-    <mergeCell ref="AE26:BC27"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BD26:BJ27"/>
-    <mergeCell ref="BK26:BV27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:I29"/>
-    <mergeCell ref="J28:N29"/>
-    <mergeCell ref="O28:AD29"/>
-    <mergeCell ref="AE28:BC29"/>
-    <mergeCell ref="BD28:BJ29"/>
-    <mergeCell ref="BK28:BV29"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -6090,7 +6090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149D4736-0143-4507-A99B-A6DC1D3799DF}">
   <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
@@ -6106,247 +6106,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="124" t="s">
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="124"/>
-      <c r="BA1" s="124"/>
-      <c r="BB1" s="124"/>
-      <c r="BC1" s="124"/>
-      <c r="BD1" s="124"/>
-      <c r="BE1" s="124"/>
-      <c r="BF1" s="124"/>
-      <c r="BG1" s="124"/>
-      <c r="BH1" s="124"/>
-      <c r="BI1" s="124"/>
-      <c r="BJ1" s="124"/>
-      <c r="BK1" s="124"/>
-      <c r="BL1" s="124"/>
-      <c r="BM1" s="124"/>
-      <c r="BN1" s="124"/>
-      <c r="BO1" s="124"/>
-      <c r="BP1" s="124"/>
-      <c r="BQ1" s="124"/>
+      <c r="AU1" s="132"/>
+      <c r="AV1" s="132"/>
+      <c r="AW1" s="132"/>
+      <c r="AX1" s="132"/>
+      <c r="AY1" s="132"/>
+      <c r="AZ1" s="132"/>
+      <c r="BA1" s="132"/>
+      <c r="BB1" s="132"/>
+      <c r="BC1" s="132"/>
+      <c r="BD1" s="132"/>
+      <c r="BE1" s="132"/>
+      <c r="BF1" s="132"/>
+      <c r="BG1" s="132"/>
+      <c r="BH1" s="132"/>
+      <c r="BI1" s="132"/>
+      <c r="BJ1" s="132"/>
+      <c r="BK1" s="132"/>
+      <c r="BL1" s="132"/>
+      <c r="BM1" s="132"/>
+      <c r="BN1" s="132"/>
+      <c r="BO1" s="132"/>
+      <c r="BP1" s="132"/>
+      <c r="BQ1" s="132"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="108" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="125" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125" t="s">
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125" t="s">
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="123"/>
+      <c r="AZ2" s="123"/>
+      <c r="BA2" s="123"/>
+      <c r="BB2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="126" t="s">
+      <c r="BC2" s="123"/>
+      <c r="BD2" s="123"/>
+      <c r="BE2" s="123"/>
+      <c r="BF2" s="123"/>
+      <c r="BG2" s="123"/>
+      <c r="BH2" s="123"/>
+      <c r="BI2" s="123"/>
+      <c r="BJ2" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="126"/>
-      <c r="BL2" s="126"/>
-      <c r="BM2" s="126"/>
-      <c r="BN2" s="126"/>
-      <c r="BO2" s="126"/>
-      <c r="BP2" s="126"/>
-      <c r="BQ2" s="126"/>
+      <c r="BK2" s="133"/>
+      <c r="BL2" s="133"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="133"/>
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="133"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="127" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="127"/>
-      <c r="AM3" s="127"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="127"/>
-      <c r="AR3" s="127"/>
-      <c r="AS3" s="127"/>
-      <c r="AT3" s="128">
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="135">
         <v>45510</v>
       </c>
-      <c r="AU3" s="128"/>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
-      <c r="AX3" s="128"/>
-      <c r="AY3" s="128"/>
-      <c r="AZ3" s="128"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="127" t="s">
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="127"/>
-      <c r="BD3" s="127"/>
-      <c r="BE3" s="127"/>
-      <c r="BF3" s="127"/>
-      <c r="BG3" s="127"/>
-      <c r="BH3" s="127"/>
-      <c r="BI3" s="127"/>
-      <c r="BJ3" s="129">
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="136">
         <v>45537</v>
       </c>
-      <c r="BK3" s="129"/>
-      <c r="BL3" s="129"/>
-      <c r="BM3" s="129"/>
-      <c r="BN3" s="129"/>
-      <c r="BO3" s="129"/>
-      <c r="BP3" s="129"/>
-      <c r="BQ3" s="129"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -6371,96 +6371,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="130" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130"/>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130"/>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="105" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="105"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="105"/>
-      <c r="AT6" s="105"/>
-      <c r="AU6" s="105"/>
-      <c r="AV6" s="105" t="s">
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="105"/>
-      <c r="AX6" s="105"/>
-      <c r="AY6" s="105"/>
-      <c r="AZ6" s="105"/>
-      <c r="BA6" s="105"/>
-      <c r="BB6" s="105"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="105"/>
-      <c r="BE6" s="105"/>
-      <c r="BF6" s="105"/>
-      <c r="BG6" s="105"/>
-      <c r="BH6" s="105"/>
-      <c r="BI6" s="105"/>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="105"/>
-      <c r="BP6" s="105"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="67"/>
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="67"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="67"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="37" t="s">
         <v>87</v>
       </c>
@@ -6491,38 +6491,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="105" t="s">
+      <c r="AO7" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105" t="s">
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="105"/>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="105"/>
-      <c r="BJ7" s="105"/>
-      <c r="BK7" s="105"/>
-      <c r="BL7" s="105"/>
-      <c r="BM7" s="105"/>
-      <c r="BN7" s="105"/>
-      <c r="BO7" s="105"/>
-      <c r="BP7" s="105"/>
+      <c r="AW7" s="67"/>
+      <c r="AX7" s="67"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="67"/>
+      <c r="BF7" s="67"/>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="67"/>
+      <c r="BI7" s="67"/>
+      <c r="BJ7" s="67"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="67"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="67"/>
+      <c r="BP7" s="67"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -6536,89 +6536,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="125" t="s">
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125" t="s">
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="112" t="s">
+      <c r="U10" s="123"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="113"/>
-      <c r="AO10" s="113"/>
-      <c r="AP10" s="113"/>
-      <c r="AQ10" s="113"/>
-      <c r="AR10" s="113"/>
-      <c r="AS10" s="113"/>
-      <c r="AT10" s="113"/>
-      <c r="AU10" s="113"/>
-      <c r="AV10" s="113"/>
-      <c r="AW10" s="113"/>
-      <c r="AX10" s="113"/>
-      <c r="AY10" s="113"/>
-      <c r="AZ10" s="113"/>
-      <c r="BA10" s="113"/>
-      <c r="BB10" s="113"/>
-      <c r="BC10" s="113"/>
-      <c r="BD10" s="113"/>
-      <c r="BE10" s="113"/>
-      <c r="BF10" s="113"/>
-      <c r="BG10" s="113"/>
-      <c r="BH10" s="113"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="103" t="s">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="128"/>
+      <c r="BJ10" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
-      <c r="BP10" s="103"/>
+      <c r="BK10" s="66"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="66"/>
+      <c r="BN10" s="66"/>
+      <c r="BO10" s="66"/>
+      <c r="BP10" s="66"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
       <c r="G11" s="37" t="s">
         <v>98</v>
       </c>
@@ -6634,11 +6634,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="39"/>
-      <c r="T11" s="134" t="s">
+      <c r="T11" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="134"/>
-      <c r="V11" s="135"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="127"/>
       <c r="W11" s="51" t="s">
         <v>119</v>
       </c>
@@ -6690,12 +6690,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
       <c r="G12" s="17" t="s">
         <v>120</v>
       </c>
@@ -6711,11 +6711,11 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="125" t="s">
+      <c r="T12" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="125"/>
-      <c r="V12" s="125"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
       <c r="W12" s="51"/>
       <c r="X12" s="52"/>
       <c r="Y12" s="52"/>
@@ -6764,12 +6764,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
       <c r="G13" s="17" t="s">
         <v>92</v>
       </c>
@@ -6785,11 +6785,11 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="125" t="s">
+      <c r="T13" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="123"/>
       <c r="W13" s="51" t="s">
         <v>108</v>
       </c>
@@ -6840,12 +6840,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="17" t="s">
         <v>93</v>
       </c>
@@ -6861,11 +6861,11 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="125" t="s">
+      <c r="T14" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="125"/>
-      <c r="V14" s="125"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
       <c r="W14" s="51" t="s">
         <v>108</v>
       </c>
@@ -6927,88 +6927,88 @@
       <c r="AG16" s="16"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="125" t="s">
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125" t="s">
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
-      <c r="W17" s="103" t="s">
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="103"/>
-      <c r="AG17" s="103"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="103"/>
-      <c r="AM17" s="103"/>
-      <c r="AN17" s="103"/>
-      <c r="AO17" s="103"/>
-      <c r="AP17" s="103"/>
-      <c r="AQ17" s="103"/>
-      <c r="AR17" s="103"/>
-      <c r="AS17" s="103"/>
-      <c r="AT17" s="103"/>
-      <c r="AU17" s="103"/>
-      <c r="AV17" s="103"/>
-      <c r="AW17" s="103"/>
-      <c r="AX17" s="103"/>
-      <c r="AY17" s="103"/>
-      <c r="AZ17" s="103"/>
-      <c r="BA17" s="103"/>
-      <c r="BB17" s="103"/>
-      <c r="BC17" s="103"/>
-      <c r="BD17" s="103"/>
-      <c r="BE17" s="103"/>
-      <c r="BF17" s="103"/>
-      <c r="BG17" s="103"/>
-      <c r="BH17" s="103"/>
-      <c r="BI17" s="103"/>
-      <c r="BJ17" s="103" t="s">
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="66"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="66"/>
+      <c r="AV17" s="66"/>
+      <c r="AW17" s="66"/>
+      <c r="AX17" s="66"/>
+      <c r="AY17" s="66"/>
+      <c r="AZ17" s="66"/>
+      <c r="BA17" s="66"/>
+      <c r="BB17" s="66"/>
+      <c r="BC17" s="66"/>
+      <c r="BD17" s="66"/>
+      <c r="BE17" s="66"/>
+      <c r="BF17" s="66"/>
+      <c r="BG17" s="66"/>
+      <c r="BH17" s="66"/>
+      <c r="BI17" s="66"/>
+      <c r="BJ17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK17" s="103"/>
-      <c r="BL17" s="103"/>
-      <c r="BM17" s="103"/>
-      <c r="BN17" s="103"/>
-      <c r="BO17" s="103"/>
-      <c r="BP17" s="103"/>
+      <c r="BK17" s="66"/>
+      <c r="BL17" s="66"/>
+      <c r="BM17" s="66"/>
+      <c r="BN17" s="66"/>
+      <c r="BO17" s="66"/>
+      <c r="BP17" s="66"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="17" t="s">
         <v>106</v>
       </c>
@@ -7024,9 +7024,9 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="123"/>
       <c r="W18" s="21" t="s">
         <v>107</v>
       </c>
@@ -7337,7 +7337,7 @@
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="29"/>
       <c r="J28" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="BP28" s="30"/>
     </row>
@@ -7359,28 +7359,28 @@
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C31" s="29"/>
       <c r="H31" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="BP31" s="30"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C32" s="29"/>
       <c r="H32" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="BP32" s="30"/>
     </row>
     <row r="33" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C33" s="29"/>
       <c r="H33" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="BP33" s="30"/>
     </row>
     <row r="34" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C34" s="29"/>
       <c r="H34" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="BP34" s="30"/>
     </row>
@@ -7394,20 +7394,20 @@
     <row r="36" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C36" s="29"/>
       <c r="H36" s="16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="BP36" s="30"/>
     </row>
     <row r="37" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C37" s="29"/>
       <c r="H37" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="BP37" s="30"/>
     </row>
@@ -7488,35 +7488,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W17:BI17"/>
-    <mergeCell ref="BJ17:BP17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -7531,6 +7502,35 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W17:BI17"/>
+    <mergeCell ref="BJ17:BP17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -7592,247 +7592,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="124" t="s">
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="124"/>
-      <c r="BA1" s="124"/>
-      <c r="BB1" s="124"/>
-      <c r="BC1" s="124"/>
-      <c r="BD1" s="124"/>
-      <c r="BE1" s="124"/>
-      <c r="BF1" s="124"/>
-      <c r="BG1" s="124"/>
-      <c r="BH1" s="124"/>
-      <c r="BI1" s="124"/>
-      <c r="BJ1" s="124"/>
-      <c r="BK1" s="124"/>
-      <c r="BL1" s="124"/>
-      <c r="BM1" s="124"/>
-      <c r="BN1" s="124"/>
-      <c r="BO1" s="124"/>
-      <c r="BP1" s="124"/>
-      <c r="BQ1" s="124"/>
+      <c r="AU1" s="132"/>
+      <c r="AV1" s="132"/>
+      <c r="AW1" s="132"/>
+      <c r="AX1" s="132"/>
+      <c r="AY1" s="132"/>
+      <c r="AZ1" s="132"/>
+      <c r="BA1" s="132"/>
+      <c r="BB1" s="132"/>
+      <c r="BC1" s="132"/>
+      <c r="BD1" s="132"/>
+      <c r="BE1" s="132"/>
+      <c r="BF1" s="132"/>
+      <c r="BG1" s="132"/>
+      <c r="BH1" s="132"/>
+      <c r="BI1" s="132"/>
+      <c r="BJ1" s="132"/>
+      <c r="BK1" s="132"/>
+      <c r="BL1" s="132"/>
+      <c r="BM1" s="132"/>
+      <c r="BN1" s="132"/>
+      <c r="BO1" s="132"/>
+      <c r="BP1" s="132"/>
+      <c r="BQ1" s="132"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="108" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="125" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125" t="s">
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125" t="s">
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="123"/>
+      <c r="AZ2" s="123"/>
+      <c r="BA2" s="123"/>
+      <c r="BB2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="126" t="s">
+      <c r="BC2" s="123"/>
+      <c r="BD2" s="123"/>
+      <c r="BE2" s="123"/>
+      <c r="BF2" s="123"/>
+      <c r="BG2" s="123"/>
+      <c r="BH2" s="123"/>
+      <c r="BI2" s="123"/>
+      <c r="BJ2" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="126"/>
-      <c r="BL2" s="126"/>
-      <c r="BM2" s="126"/>
-      <c r="BN2" s="126"/>
-      <c r="BO2" s="126"/>
-      <c r="BP2" s="126"/>
-      <c r="BQ2" s="126"/>
+      <c r="BK2" s="133"/>
+      <c r="BL2" s="133"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="133"/>
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="133"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="127" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="127"/>
-      <c r="AM3" s="127"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="127"/>
-      <c r="AR3" s="127"/>
-      <c r="AS3" s="127"/>
-      <c r="AT3" s="128">
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="135">
         <v>45510</v>
       </c>
-      <c r="AU3" s="128"/>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
-      <c r="AX3" s="128"/>
-      <c r="AY3" s="128"/>
-      <c r="AZ3" s="128"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="127" t="s">
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="127"/>
-      <c r="BD3" s="127"/>
-      <c r="BE3" s="127"/>
-      <c r="BF3" s="127"/>
-      <c r="BG3" s="127"/>
-      <c r="BH3" s="127"/>
-      <c r="BI3" s="127"/>
-      <c r="BJ3" s="129">
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="136">
         <v>45518</v>
       </c>
-      <c r="BK3" s="129"/>
-      <c r="BL3" s="129"/>
-      <c r="BM3" s="129"/>
-      <c r="BN3" s="129"/>
-      <c r="BO3" s="129"/>
-      <c r="BP3" s="129"/>
-      <c r="BQ3" s="129"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -7857,96 +7857,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="130" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130"/>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130"/>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="105" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="105"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="105"/>
-      <c r="AT6" s="105"/>
-      <c r="AU6" s="105"/>
-      <c r="AV6" s="105" t="s">
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="105"/>
-      <c r="AX6" s="105"/>
-      <c r="AY6" s="105"/>
-      <c r="AZ6" s="105"/>
-      <c r="BA6" s="105"/>
-      <c r="BB6" s="105"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="105"/>
-      <c r="BE6" s="105"/>
-      <c r="BF6" s="105"/>
-      <c r="BG6" s="105"/>
-      <c r="BH6" s="105"/>
-      <c r="BI6" s="105"/>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="105"/>
-      <c r="BP6" s="105"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="67"/>
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="67"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="67"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="17" t="s">
         <v>75</v>
       </c>
@@ -7977,38 +7977,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="105" t="s">
+      <c r="AO7" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105" t="s">
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="105"/>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="105"/>
-      <c r="BJ7" s="105"/>
-      <c r="BK7" s="105"/>
-      <c r="BL7" s="105"/>
-      <c r="BM7" s="105"/>
-      <c r="BN7" s="105"/>
-      <c r="BO7" s="105"/>
-      <c r="BP7" s="105"/>
+      <c r="AW7" s="67"/>
+      <c r="AX7" s="67"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="67"/>
+      <c r="BF7" s="67"/>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="67"/>
+      <c r="BI7" s="67"/>
+      <c r="BJ7" s="67"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="67"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="67"/>
+      <c r="BP7" s="67"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -8022,88 +8022,88 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="125" t="s">
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125" t="s">
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="125"/>
+      <c r="U10" s="123"/>
       <c r="V10" s="137"/>
-      <c r="W10" s="112" t="s">
+      <c r="W10" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="113"/>
-      <c r="AO10" s="113"/>
-      <c r="AP10" s="113"/>
-      <c r="AQ10" s="113"/>
-      <c r="AR10" s="113"/>
-      <c r="AS10" s="113"/>
-      <c r="AT10" s="113"/>
-      <c r="AU10" s="113"/>
-      <c r="AV10" s="113"/>
-      <c r="AW10" s="113"/>
-      <c r="AX10" s="113"/>
-      <c r="AY10" s="113"/>
-      <c r="AZ10" s="113"/>
-      <c r="BA10" s="113"/>
-      <c r="BB10" s="113"/>
-      <c r="BC10" s="113"/>
-      <c r="BD10" s="113"/>
-      <c r="BE10" s="113"/>
-      <c r="BF10" s="113"/>
-      <c r="BG10" s="113"/>
-      <c r="BH10" s="113"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="103" t="s">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="128"/>
+      <c r="BJ10" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
-      <c r="BP10" s="103"/>
+      <c r="BK10" s="66"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="66"/>
+      <c r="BN10" s="66"/>
+      <c r="BO10" s="66"/>
+      <c r="BP10" s="66"/>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
       <c r="G11" s="17" t="s">
         <v>99</v>
       </c>
@@ -8119,10 +8119,10 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="125" t="s">
+      <c r="T11" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="125"/>
+      <c r="U11" s="123"/>
       <c r="V11" s="137"/>
       <c r="W11" s="21" t="s">
         <v>117</v>
@@ -8174,12 +8174,12 @@
       <c r="BP11" s="24"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
       <c r="G12" s="17" t="s">
         <v>120</v>
       </c>
@@ -8195,10 +8195,10 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="125" t="s">
+      <c r="T12" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="125"/>
+      <c r="U12" s="123"/>
       <c r="V12" s="137"/>
       <c r="W12" s="21"/>
       <c r="X12" s="18"/>
@@ -8248,12 +8248,12 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
       <c r="G13" s="17" t="s">
         <v>102</v>
       </c>
@@ -8269,8 +8269,8 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="125"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
       <c r="V13" s="137"/>
       <c r="W13" s="21"/>
       <c r="X13" s="18"/>
@@ -8320,12 +8320,12 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="17" t="s">
         <v>95</v>
       </c>
@@ -8341,10 +8341,10 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="125" t="s">
+      <c r="T14" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="125"/>
+      <c r="U14" s="123"/>
       <c r="V14" s="137"/>
       <c r="W14" s="21" t="s">
         <v>118</v>
@@ -8396,12 +8396,12 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="17" t="s">
         <v>109</v>
       </c>
@@ -8417,8 +8417,8 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
       <c r="V15" s="137"/>
       <c r="W15" s="21"/>
       <c r="X15" s="18"/>
@@ -8468,12 +8468,12 @@
       <c r="BP15" s="24"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
       <c r="G16" s="17" t="s">
         <v>67</v>
       </c>
@@ -8489,13 +8489,13 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="125" t="s">
+      <c r="T16" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="125"/>
+      <c r="U16" s="123"/>
       <c r="V16" s="137"/>
       <c r="W16" s="21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
@@ -8544,12 +8544,12 @@
       <c r="BP16" s="24"/>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="17" t="s">
         <v>92</v>
       </c>
@@ -8565,10 +8565,10 @@
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="125" t="s">
+      <c r="T17" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="125"/>
+      <c r="U17" s="123"/>
       <c r="V17" s="137"/>
       <c r="W17" s="21" t="s">
         <v>108</v>
@@ -8620,12 +8620,12 @@
       <c r="BP17" s="24"/>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
       <c r="G18" s="17" t="s">
         <v>93</v>
       </c>
@@ -8641,10 +8641,10 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="125" t="s">
+      <c r="T18" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="125"/>
+      <c r="U18" s="123"/>
       <c r="V18" s="137"/>
       <c r="W18" s="21" t="s">
         <v>105</v>
@@ -8707,88 +8707,88 @@
       <c r="AG20" s="16"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="125" t="s">
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="125"/>
-      <c r="T21" s="125" t="s">
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="125"/>
-      <c r="V21" s="125"/>
-      <c r="W21" s="103" t="s">
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="103"/>
-      <c r="AG21" s="103"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="103"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="103"/>
-      <c r="AM21" s="103"/>
-      <c r="AN21" s="103"/>
-      <c r="AO21" s="103"/>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="103"/>
-      <c r="AR21" s="103"/>
-      <c r="AS21" s="103"/>
-      <c r="AT21" s="103"/>
-      <c r="AU21" s="103"/>
-      <c r="AV21" s="103"/>
-      <c r="AW21" s="103"/>
-      <c r="AX21" s="103"/>
-      <c r="AY21" s="103"/>
-      <c r="AZ21" s="103"/>
-      <c r="BA21" s="103"/>
-      <c r="BB21" s="103"/>
-      <c r="BC21" s="103"/>
-      <c r="BD21" s="103"/>
-      <c r="BE21" s="103"/>
-      <c r="BF21" s="103"/>
-      <c r="BG21" s="103"/>
-      <c r="BH21" s="103"/>
-      <c r="BI21" s="103"/>
-      <c r="BJ21" s="103" t="s">
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="66"/>
+      <c r="BA21" s="66"/>
+      <c r="BB21" s="66"/>
+      <c r="BC21" s="66"/>
+      <c r="BD21" s="66"/>
+      <c r="BE21" s="66"/>
+      <c r="BF21" s="66"/>
+      <c r="BG21" s="66"/>
+      <c r="BH21" s="66"/>
+      <c r="BI21" s="66"/>
+      <c r="BJ21" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK21" s="103"/>
-      <c r="BL21" s="103"/>
-      <c r="BM21" s="103"/>
-      <c r="BN21" s="103"/>
-      <c r="BO21" s="103"/>
-      <c r="BP21" s="103"/>
+      <c r="BK21" s="66"/>
+      <c r="BL21" s="66"/>
+      <c r="BM21" s="66"/>
+      <c r="BN21" s="66"/>
+      <c r="BO21" s="66"/>
+      <c r="BP21" s="66"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="17" t="s">
         <v>106</v>
       </c>
@@ -8804,9 +8804,9 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="20"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="123"/>
       <c r="W22" s="21" t="s">
         <v>66</v>
       </c>
@@ -9157,7 +9157,7 @@
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="C32" s="29"/>
       <c r="J32" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AP32" s="40"/>
       <c r="AQ32" s="40"/>
@@ -9216,7 +9216,7 @@
     <row r="35" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C35" s="29"/>
       <c r="J35" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="BP35" s="30"/>
       <c r="BQ35" s="13"/>
@@ -9240,7 +9240,7 @@
     <row r="38" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C38" s="29"/>
       <c r="J38" s="40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="BP38" s="30"/>
       <c r="BQ38" s="13"/>
@@ -9256,7 +9256,7 @@
     <row r="40" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C40" s="29"/>
       <c r="J40" s="40" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="BP40" s="30"/>
       <c r="BQ40" s="13"/>
@@ -9265,7 +9265,7 @@
     <row r="41" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C41" s="29"/>
       <c r="J41" s="40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="BP41" s="30"/>
       <c r="BQ41" s="13"/>
@@ -9274,7 +9274,7 @@
     <row r="42" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C42" s="29"/>
       <c r="J42" s="40" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="BP42" s="30"/>
       <c r="BQ42" s="13"/>
@@ -9290,7 +9290,7 @@
     <row r="44" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C44" s="29"/>
       <c r="J44" s="40" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="BP44" s="30"/>
       <c r="BQ44" s="13"/>
@@ -9299,7 +9299,7 @@
     <row r="45" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C45" s="29"/>
       <c r="J45" s="40" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="BP45" s="30"/>
       <c r="BQ45" s="13"/>
@@ -9308,7 +9308,7 @@
     <row r="46" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C46" s="29"/>
       <c r="J46" s="40" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="BP46" s="30"/>
       <c r="BQ46" s="13"/>
@@ -9324,7 +9324,7 @@
     <row r="48" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C48" s="29"/>
       <c r="J48" s="40" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="BP48" s="30"/>
       <c r="BQ48" s="13"/>
@@ -9333,7 +9333,7 @@
     <row r="49" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C49" s="29"/>
       <c r="J49" s="40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="BP49" s="30"/>
       <c r="BQ49" s="13"/>
@@ -9342,7 +9342,7 @@
     <row r="50" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C50" s="29"/>
       <c r="J50" s="40" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="BP50" s="30"/>
       <c r="BQ50" s="13"/>
@@ -9358,7 +9358,7 @@
     <row r="52" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C52" s="29"/>
       <c r="J52" s="40" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="BP52" s="30"/>
       <c r="BQ52" s="13"/>
@@ -9367,7 +9367,7 @@
     <row r="53" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C53" s="29"/>
       <c r="J53" s="40" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BP53" s="30"/>
       <c r="BQ53" s="13"/>
@@ -9376,7 +9376,7 @@
     <row r="54" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C54" s="29"/>
       <c r="J54" s="40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="BP54" s="30"/>
       <c r="BQ54" s="13"/>
@@ -9401,7 +9401,7 @@
     <row r="57" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C57" s="29"/>
       <c r="J57" s="40" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="BP57" s="30"/>
       <c r="BQ57" s="13"/>
@@ -9417,7 +9417,7 @@
     <row r="59" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C59" s="29"/>
       <c r="J59" s="40" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="BP59" s="30"/>
       <c r="BQ59" s="13"/>
@@ -9466,7 +9466,7 @@
     <row r="65" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C65" s="29"/>
       <c r="J65" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="BP65" s="30"/>
       <c r="BQ65" s="13"/>
@@ -9475,7 +9475,7 @@
     <row r="66" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C66" s="29"/>
       <c r="J66" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="BP66" s="30"/>
       <c r="BQ66" s="13"/>
@@ -9490,7 +9490,7 @@
     <row r="68" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C68" s="29"/>
       <c r="J68" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="BP68" s="30"/>
       <c r="BQ68" s="13"/>
@@ -9499,7 +9499,7 @@
     <row r="69" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C69" s="29"/>
       <c r="J69" s="13" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="BP69" s="30"/>
       <c r="BQ69" s="13"/>
@@ -9514,7 +9514,7 @@
     <row r="71" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C71" s="29"/>
       <c r="J71" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BP71" s="30"/>
       <c r="BQ71" s="13"/>
@@ -9523,7 +9523,7 @@
     <row r="72" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C72" s="29"/>
       <c r="J72" s="13" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="BP72" s="30"/>
       <c r="BQ72" s="13"/>
@@ -9538,7 +9538,7 @@
     <row r="74" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C74" s="29"/>
       <c r="J74" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BP74" s="30"/>
       <c r="BQ74" s="13"/>
@@ -9547,7 +9547,7 @@
     <row r="75" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C75" s="29"/>
       <c r="J75" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="BP75" s="30"/>
       <c r="BQ75" s="13"/>
@@ -9562,7 +9562,7 @@
     <row r="77" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C77" s="29"/>
       <c r="J77" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BP77" s="30"/>
       <c r="BQ77" s="13"/>
@@ -9571,7 +9571,7 @@
     <row r="78" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C78" s="29"/>
       <c r="J78" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="BP78" s="30"/>
       <c r="BQ78" s="13"/>
@@ -9595,7 +9595,7 @@
     <row r="81" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C81" s="29"/>
       <c r="J81" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="BP81" s="30"/>
       <c r="BQ81" s="13"/>
@@ -9804,43 +9804,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="W21:BI21"/>
-    <mergeCell ref="BJ21:BP21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="W10:BI10"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -9855,6 +9818,43 @@
     <mergeCell ref="I2:AJ3"/>
     <mergeCell ref="AK2:AS2"/>
     <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W21:BI21"/>
+    <mergeCell ref="BJ21:BP21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -9876,8 +9876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B35AE7B-248B-4974-BEF5-F4CA6B1686DB}">
   <dimension ref="A1:AMM65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -9892,243 +9892,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="124" t="s">
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="124"/>
-      <c r="BA1" s="124"/>
-      <c r="BB1" s="124"/>
-      <c r="BC1" s="124"/>
-      <c r="BD1" s="124"/>
-      <c r="BE1" s="124"/>
-      <c r="BF1" s="124"/>
-      <c r="BG1" s="124"/>
-      <c r="BH1" s="124"/>
-      <c r="BI1" s="124"/>
-      <c r="BJ1" s="124"/>
-      <c r="BK1" s="124"/>
-      <c r="BL1" s="124"/>
-      <c r="BM1" s="124"/>
-      <c r="BN1" s="124"/>
-      <c r="BO1" s="124"/>
-      <c r="BP1" s="124"/>
-      <c r="BQ1" s="124"/>
+      <c r="AU1" s="132"/>
+      <c r="AV1" s="132"/>
+      <c r="AW1" s="132"/>
+      <c r="AX1" s="132"/>
+      <c r="AY1" s="132"/>
+      <c r="AZ1" s="132"/>
+      <c r="BA1" s="132"/>
+      <c r="BB1" s="132"/>
+      <c r="BC1" s="132"/>
+      <c r="BD1" s="132"/>
+      <c r="BE1" s="132"/>
+      <c r="BF1" s="132"/>
+      <c r="BG1" s="132"/>
+      <c r="BH1" s="132"/>
+      <c r="BI1" s="132"/>
+      <c r="BJ1" s="132"/>
+      <c r="BK1" s="132"/>
+      <c r="BL1" s="132"/>
+      <c r="BM1" s="132"/>
+      <c r="BN1" s="132"/>
+      <c r="BO1" s="132"/>
+      <c r="BP1" s="132"/>
+      <c r="BQ1" s="132"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="108" t="s">
+      <c r="A2" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="125" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125" t="s">
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125" t="s">
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="123"/>
+      <c r="AZ2" s="123"/>
+      <c r="BA2" s="123"/>
+      <c r="BB2" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="126"/>
-      <c r="BK2" s="126"/>
-      <c r="BL2" s="126"/>
-      <c r="BM2" s="126"/>
-      <c r="BN2" s="126"/>
-      <c r="BO2" s="126"/>
-      <c r="BP2" s="126"/>
-      <c r="BQ2" s="126"/>
+      <c r="BC2" s="123"/>
+      <c r="BD2" s="123"/>
+      <c r="BE2" s="123"/>
+      <c r="BF2" s="123"/>
+      <c r="BG2" s="123"/>
+      <c r="BH2" s="123"/>
+      <c r="BI2" s="123"/>
+      <c r="BJ2" s="133"/>
+      <c r="BK2" s="133"/>
+      <c r="BL2" s="133"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="133"/>
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="133"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="127" t="s">
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="127"/>
-      <c r="AM3" s="127"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="127"/>
-      <c r="AR3" s="127"/>
-      <c r="AS3" s="127"/>
-      <c r="AT3" s="128">
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="135">
         <v>45510</v>
       </c>
-      <c r="AU3" s="128"/>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
-      <c r="AX3" s="128"/>
-      <c r="AY3" s="128"/>
-      <c r="AZ3" s="128"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="127" t="s">
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="127"/>
-      <c r="BD3" s="127"/>
-      <c r="BE3" s="127"/>
-      <c r="BF3" s="127"/>
-      <c r="BG3" s="127"/>
-      <c r="BH3" s="127"/>
-      <c r="BI3" s="127"/>
-      <c r="BJ3" s="129"/>
-      <c r="BK3" s="129"/>
-      <c r="BL3" s="129"/>
-      <c r="BM3" s="129"/>
-      <c r="BN3" s="129"/>
-      <c r="BO3" s="129"/>
-      <c r="BP3" s="129"/>
-      <c r="BQ3" s="129"/>
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="136"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -10153,96 +10153,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="130" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130"/>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130"/>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="105" t="s">
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="105"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="105"/>
-      <c r="AT6" s="105"/>
-      <c r="AU6" s="105"/>
-      <c r="AV6" s="105" t="s">
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="105"/>
-      <c r="AX6" s="105"/>
-      <c r="AY6" s="105"/>
-      <c r="AZ6" s="105"/>
-      <c r="BA6" s="105"/>
-      <c r="BB6" s="105"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="105"/>
-      <c r="BE6" s="105"/>
-      <c r="BF6" s="105"/>
-      <c r="BG6" s="105"/>
-      <c r="BH6" s="105"/>
-      <c r="BI6" s="105"/>
-      <c r="BJ6" s="105"/>
-      <c r="BK6" s="105"/>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="105"/>
-      <c r="BP6" s="105"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="67"/>
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="67"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="67"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="17" t="s">
         <v>80</v>
       </c>
@@ -10273,38 +10273,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="105" t="s">
+      <c r="AO7" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105" t="s">
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="105"/>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="105"/>
-      <c r="BJ7" s="105"/>
-      <c r="BK7" s="105"/>
-      <c r="BL7" s="105"/>
-      <c r="BM7" s="105"/>
-      <c r="BN7" s="105"/>
-      <c r="BO7" s="105"/>
-      <c r="BP7" s="105"/>
+      <c r="AW7" s="67"/>
+      <c r="AX7" s="67"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="67"/>
+      <c r="BF7" s="67"/>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="67"/>
+      <c r="BI7" s="67"/>
+      <c r="BJ7" s="67"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="67"/>
+      <c r="BM7" s="67"/>
+      <c r="BN7" s="67"/>
+      <c r="BO7" s="67"/>
+      <c r="BP7" s="67"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -10318,89 +10318,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="125" t="s">
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125" t="s">
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="112" t="s">
+      <c r="U10" s="123"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="113"/>
-      <c r="AO10" s="113"/>
-      <c r="AP10" s="113"/>
-      <c r="AQ10" s="113"/>
-      <c r="AR10" s="113"/>
-      <c r="AS10" s="113"/>
-      <c r="AT10" s="113"/>
-      <c r="AU10" s="113"/>
-      <c r="AV10" s="113"/>
-      <c r="AW10" s="113"/>
-      <c r="AX10" s="113"/>
-      <c r="AY10" s="113"/>
-      <c r="AZ10" s="113"/>
-      <c r="BA10" s="113"/>
-      <c r="BB10" s="113"/>
-      <c r="BC10" s="113"/>
-      <c r="BD10" s="113"/>
-      <c r="BE10" s="113"/>
-      <c r="BF10" s="113"/>
-      <c r="BG10" s="113"/>
-      <c r="BH10" s="113"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="103" t="s">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="128"/>
+      <c r="BJ10" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
-      <c r="BP10" s="103"/>
+      <c r="BK10" s="66"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="66"/>
+      <c r="BN10" s="66"/>
+      <c r="BO10" s="66"/>
+      <c r="BP10" s="66"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
       <c r="G11" s="17" t="s">
         <v>120</v>
       </c>
@@ -10416,11 +10416,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="125" t="s">
+      <c r="T11" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
       <c r="W11" s="51" t="s">
         <v>121</v>
       </c>
@@ -10472,14 +10472,14 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
       <c r="G12" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -10493,11 +10493,11 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="125"/>
-      <c r="V12" s="125"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
       <c r="W12" s="51" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="X12" s="52"/>
       <c r="Y12" s="52"/>
@@ -10553,7 +10553,7 @@
       <c r="E13" s="139"/>
       <c r="F13" s="140"/>
       <c r="G13" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -10567,11 +10567,11 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="123"/>
       <c r="W13" s="51" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="X13" s="52"/>
       <c r="Y13" s="52"/>
@@ -10620,10 +10620,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -10637,9 +10637,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="125"/>
-      <c r="U14" s="125"/>
-      <c r="V14" s="125"/>
+      <c r="T14" s="123"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
       <c r="W14" s="51"/>
       <c r="X14" s="52"/>
       <c r="Y14" s="52"/>
@@ -10689,10 +10689,10 @@
     </row>
     <row r="15" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -10706,9 +10706,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
-      <c r="V15" s="125"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="123"/>
       <c r="W15" s="51"/>
       <c r="X15" s="52"/>
       <c r="Y15" s="52"/>
@@ -10759,10 +10759,10 @@
     </row>
     <row r="16" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -10776,9 +10776,9 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="123"/>
+      <c r="V16" s="123"/>
       <c r="W16" s="51"/>
       <c r="X16" s="52"/>
       <c r="Y16" s="52"/>
@@ -10842,90 +10842,90 @@
     </row>
     <row r="19" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="125" t="s">
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125" t="s">
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="125"/>
-      <c r="V19" s="125"/>
-      <c r="W19" s="103" t="s">
+      <c r="U19" s="123"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="103"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="103"/>
-      <c r="AL19" s="103"/>
-      <c r="AM19" s="103"/>
-      <c r="AN19" s="103"/>
-      <c r="AO19" s="103"/>
-      <c r="AP19" s="103"/>
-      <c r="AQ19" s="103"/>
-      <c r="AR19" s="103"/>
-      <c r="AS19" s="103"/>
-      <c r="AT19" s="103"/>
-      <c r="AU19" s="103"/>
-      <c r="AV19" s="103"/>
-      <c r="AW19" s="103"/>
-      <c r="AX19" s="103"/>
-      <c r="AY19" s="103"/>
-      <c r="AZ19" s="103"/>
-      <c r="BA19" s="103"/>
-      <c r="BB19" s="103"/>
-      <c r="BC19" s="103"/>
-      <c r="BD19" s="103"/>
-      <c r="BE19" s="103"/>
-      <c r="BF19" s="103"/>
-      <c r="BG19" s="103"/>
-      <c r="BH19" s="103"/>
-      <c r="BI19" s="103"/>
-      <c r="BJ19" s="103" t="s">
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="66"/>
+      <c r="AZ19" s="66"/>
+      <c r="BA19" s="66"/>
+      <c r="BB19" s="66"/>
+      <c r="BC19" s="66"/>
+      <c r="BD19" s="66"/>
+      <c r="BE19" s="66"/>
+      <c r="BF19" s="66"/>
+      <c r="BG19" s="66"/>
+      <c r="BH19" s="66"/>
+      <c r="BI19" s="66"/>
+      <c r="BJ19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="BK19" s="103"/>
-      <c r="BL19" s="103"/>
-      <c r="BM19" s="103"/>
-      <c r="BN19" s="103"/>
-      <c r="BO19" s="103"/>
-      <c r="BP19" s="103"/>
+      <c r="BK19" s="66"/>
+      <c r="BL19" s="66"/>
+      <c r="BM19" s="66"/>
+      <c r="BN19" s="66"/>
+      <c r="BO19" s="66"/>
+      <c r="BP19" s="66"/>
       <c r="BQ19" s="15"/>
     </row>
     <row r="20" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="17" t="s">
         <v>116</v>
       </c>
@@ -10941,9 +10941,9 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="20"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="125"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
       <c r="W20" s="21" t="s">
         <v>122</v>
       </c>
@@ -11293,7 +11293,7 @@
       <c r="A33" s="12"/>
       <c r="C33" s="29"/>
       <c r="I33" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AG33" s="16"/>
       <c r="BP33" s="30"/>
@@ -11362,7 +11362,7 @@
       <c r="A42" s="12"/>
       <c r="C42" s="29"/>
       <c r="I42" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AG42" s="16"/>
       <c r="BP42" s="30"/>
@@ -11372,7 +11372,7 @@
       <c r="A43" s="12"/>
       <c r="C43" s="29"/>
       <c r="I43" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG43" s="16"/>
       <c r="BP43" s="30"/>
@@ -11456,7 +11456,7 @@
       <c r="A52" s="12"/>
       <c r="C52" s="29"/>
       <c r="I52" s="13" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="AG52" s="16"/>
       <c r="BP52" s="30"/>
@@ -11466,7 +11466,7 @@
       <c r="A53" s="12"/>
       <c r="C53" s="29"/>
       <c r="I53" s="13" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AG53" s="16"/>
       <c r="BP53" s="30"/>
@@ -11476,7 +11476,7 @@
       <c r="A54" s="12"/>
       <c r="C54" s="29"/>
       <c r="I54" s="13" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AG54" s="16"/>
       <c r="BP54" s="30"/>
@@ -11486,7 +11486,7 @@
       <c r="A55" s="12"/>
       <c r="C55" s="29"/>
       <c r="I55" s="13" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="AG55" s="16"/>
       <c r="BP55" s="30"/>
@@ -12571,7 +12571,7 @@
     <row r="64" spans="1:1027" x14ac:dyDescent="0.2">
       <c r="C64" s="29"/>
       <c r="I64" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="BP64" s="30"/>
     </row>
@@ -12645,39 +12645,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="W19:BI19"/>
-    <mergeCell ref="BJ19:BP19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -12692,6 +12659,39 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:BI19"/>
+    <mergeCell ref="BJ19:BP19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="T16:V16"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -12746,7 +12746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B574E2-07CB-4199-BBD8-E24441EA0CFC}">
   <dimension ref="B2:AW17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12819,7 +12819,7 @@
         <v>127</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D4" s="56"/>
       <c r="E4" s="56"/>
@@ -12837,7 +12837,7 @@
       <c r="O4" s="56"/>
       <c r="P4" s="58"/>
       <c r="Q4" s="62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="R4" s="56"/>
       <c r="S4" s="56"/>
@@ -13161,7 +13161,7 @@
       <c r="O10" s="56"/>
       <c r="P10" s="58"/>
       <c r="Q10" s="62" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="R10" s="56"/>
       <c r="S10" s="56"/>
@@ -13321,7 +13321,7 @@
       <c r="O13" s="60"/>
       <c r="P13" s="61"/>
       <c r="Q13" s="63" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R13" s="60"/>
       <c r="S13" s="60"/>
